--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF5E190-B099-48C0-B0AA-B1CB44518264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745F633-D2ED-475D-9A7C-2A6B0E6FC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50310" yWindow="45" windowWidth="22995" windowHeight="20580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32430" yWindow="630" windowWidth="28590" windowHeight="18735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -2970,7 +2970,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -3192,7 +3192,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3365,13 +3365,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{29EF3100-9E6B-4D3F-8C35-93E149799A02}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3949,10 +3960,10 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60:D60"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6521,10 +6532,10 @@
   <dimension ref="A1:GK135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BM29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CN39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BW38" sqref="BW38"/>
+      <selection pane="bottomRight" activeCell="CU21" sqref="CU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6553,6 +6564,7 @@
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
+      <c r="CU1" s="80"/>
     </row>
     <row r="2" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C2" s="47" t="s">
@@ -6836,7 +6848,7 @@
       <c r="CT2" s="47">
         <v>2013</v>
       </c>
-      <c r="CU2" s="47">
+      <c r="CU2" s="80">
         <v>2014</v>
       </c>
       <c r="CV2" s="47">
@@ -7044,10 +7056,18 @@
       <c r="CQ3" s="51"/>
       <c r="CR3" s="51"/>
       <c r="CS3" s="51"/>
-      <c r="CT3" s="51"/>
-      <c r="CU3" s="51"/>
-      <c r="CV3" s="51"/>
-      <c r="CW3" s="51"/>
+      <c r="CT3" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="81">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="CV3" s="51">
+        <v>248.7</v>
+      </c>
+      <c r="CW3" s="51">
+        <v>925.5</v>
+      </c>
       <c r="CX3" s="51">
         <v>2029.8</v>
       </c>
@@ -7214,10 +7234,18 @@
       <c r="CQ4" s="51"/>
       <c r="CR4" s="51"/>
       <c r="CS4" s="51"/>
-      <c r="CT4" s="51"/>
-      <c r="CU4" s="51"/>
-      <c r="CV4" s="51"/>
-      <c r="CW4" s="51"/>
+      <c r="CT4" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="51">
+        <v>0</v>
+      </c>
       <c r="CX4" s="51">
         <v>0</v>
       </c>
@@ -7404,10 +7432,18 @@
       <c r="CQ5" s="51"/>
       <c r="CR5" s="51"/>
       <c r="CS5" s="51"/>
-      <c r="CT5" s="51"/>
-      <c r="CU5" s="51"/>
-      <c r="CV5" s="51"/>
-      <c r="CW5" s="51"/>
+      <c r="CT5" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="51">
+        <v>0</v>
+      </c>
       <c r="CX5" s="51">
         <v>0</v>
       </c>
@@ -7544,7 +7580,7 @@
         <v>679.9</v>
       </c>
       <c r="BZ6" s="52">
-        <f t="shared" ref="BY6:CD6" si="7">+BV6*1.2</f>
+        <f t="shared" ref="BZ6:CD6" si="7">+BV6*1.2</f>
         <v>776.88</v>
       </c>
       <c r="CA6" s="52">
@@ -7578,10 +7614,18 @@
       <c r="CQ6" s="51"/>
       <c r="CR6" s="51"/>
       <c r="CS6" s="51"/>
-      <c r="CT6" s="51"/>
-      <c r="CU6" s="51"/>
-      <c r="CV6" s="51"/>
-      <c r="CW6" s="51"/>
+      <c r="CT6" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="51">
+        <v>0</v>
+      </c>
       <c r="CX6" s="51">
         <v>559.20000000000005</v>
       </c>
@@ -7780,10 +7824,18 @@
       <c r="CQ7" s="51"/>
       <c r="CR7" s="51"/>
       <c r="CS7" s="51"/>
-      <c r="CT7" s="51"/>
-      <c r="CU7" s="51"/>
-      <c r="CV7" s="51"/>
-      <c r="CW7" s="51"/>
+      <c r="CT7" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="51">
+        <v>0</v>
+      </c>
       <c r="CX7" s="51">
         <v>21</v>
       </c>
@@ -7982,10 +8034,18 @@
       <c r="CQ8" s="51"/>
       <c r="CR8" s="51"/>
       <c r="CS8" s="51"/>
-      <c r="CT8" s="51"/>
-      <c r="CU8" s="51"/>
-      <c r="CV8" s="51"/>
-      <c r="CW8" s="51"/>
+      <c r="CT8" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="51">
+        <v>0</v>
+      </c>
       <c r="CX8" s="51">
         <v>447.5</v>
       </c>
@@ -8238,7 +8298,7 @@
         <v>447</v>
       </c>
       <c r="BZ9" s="51">
-        <f t="shared" ref="BY9:CD9" si="10">+BV9*0.98</f>
+        <f t="shared" ref="BZ9:CD9" si="10">+BV9*0.98</f>
         <v>589.66600000000005</v>
       </c>
       <c r="CA9" s="51">
@@ -8302,15 +8362,17 @@
         <v>2350.2999999999997</v>
       </c>
       <c r="CT9" s="51">
-        <f>CS9*0.99</f>
-        <v>2326.7969999999996</v>
-      </c>
-      <c r="CU9" s="51">
-        <f t="shared" ref="CU9" si="11">CT9*0.99</f>
-        <v>2303.5290299999997</v>
-      </c>
-      <c r="CV9" s="51"/>
-      <c r="CW9" s="51"/>
+        <v>2611.1999999999998</v>
+      </c>
+      <c r="CU9" s="81">
+        <v>2785.2</v>
+      </c>
+      <c r="CV9" s="51">
+        <v>2841.9</v>
+      </c>
+      <c r="CW9" s="51">
+        <v>2768.8</v>
+      </c>
       <c r="CX9" s="51">
         <v>2865.2</v>
       </c>
@@ -8341,27 +8403,27 @@
         <v>1956.9303459999999</v>
       </c>
       <c r="DF9" s="49">
-        <f t="shared" ref="DF9:DK9" si="12">+DE9*0.95</f>
+        <f t="shared" ref="DF9:DK9" si="11">+DE9*0.95</f>
         <v>1859.0838286999997</v>
       </c>
       <c r="DG9" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1766.1296372649997</v>
       </c>
       <c r="DH9" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1677.8231554017495</v>
       </c>
       <c r="DI9" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1593.9319976316619</v>
       </c>
       <c r="DJ9" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1514.2353977500788</v>
       </c>
       <c r="DK9" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1438.5236278625748</v>
       </c>
     </row>
@@ -8475,23 +8537,23 @@
         <v>643.6</v>
       </c>
       <c r="AL10" s="51">
-        <f t="shared" ref="AL10:AP10" si="13">+AK10</f>
+        <f t="shared" ref="AL10:AP10" si="12">+AK10</f>
         <v>643.6</v>
       </c>
       <c r="AM10" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>643.6</v>
       </c>
       <c r="AN10" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>643.6</v>
       </c>
       <c r="AO10" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>643.6</v>
       </c>
       <c r="AP10" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>643.6</v>
       </c>
       <c r="AQ10" s="51"/>
@@ -8560,23 +8622,23 @@
         <v>119.4</v>
       </c>
       <c r="BZ10" s="51">
-        <f t="shared" ref="BY10:CD10" si="14">+BY10-20</f>
+        <f t="shared" ref="BZ10:CD10" si="13">+BY10-20</f>
         <v>99.4</v>
       </c>
       <c r="CA10" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>79.400000000000006</v>
       </c>
       <c r="CB10" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>59.400000000000006</v>
       </c>
       <c r="CC10" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>39.400000000000006</v>
       </c>
       <c r="CD10" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>19.400000000000006</v>
       </c>
       <c r="CE10" s="51"/>
@@ -8619,15 +8681,17 @@
         <v>2553.5</v>
       </c>
       <c r="CT10" s="51">
-        <f>CS10*1.15</f>
-        <v>2936.5249999999996</v>
-      </c>
-      <c r="CU10" s="51">
-        <f>CT10</f>
-        <v>2936.5249999999996</v>
-      </c>
-      <c r="CV10" s="51"/>
-      <c r="CW10" s="51"/>
+        <v>2703</v>
+      </c>
+      <c r="CU10" s="81">
+        <v>2792</v>
+      </c>
+      <c r="CV10" s="51">
+        <v>2493.1</v>
+      </c>
+      <c r="CW10" s="51">
+        <v>2283.3000000000002</v>
+      </c>
       <c r="CX10" s="51">
         <v>2062.5</v>
       </c>
@@ -8658,27 +8722,27 @@
         <v>98.800000000000011</v>
       </c>
       <c r="DF10" s="49">
-        <f t="shared" ref="DF10:DK10" si="15">+DE10*0.5</f>
+        <f t="shared" ref="DF10:DK10" si="14">+DE10*0.5</f>
         <v>49.400000000000006</v>
       </c>
       <c r="DG10" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>24.700000000000003</v>
       </c>
       <c r="DH10" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>12.350000000000001</v>
       </c>
       <c r="DI10" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.1750000000000007</v>
       </c>
       <c r="DJ10" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.0875000000000004</v>
       </c>
       <c r="DK10" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.5437500000000002</v>
       </c>
     </row>
@@ -8792,23 +8856,23 @@
         <v>285.39999999999998</v>
       </c>
       <c r="AL11" s="51">
-        <f t="shared" ref="AL11:AP11" si="16">+AK11</f>
+        <f t="shared" ref="AL11:AP11" si="15">+AK11</f>
         <v>285.39999999999998</v>
       </c>
       <c r="AM11" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>285.39999999999998</v>
       </c>
       <c r="AN11" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>285.39999999999998</v>
       </c>
       <c r="AO11" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>285.39999999999998</v>
       </c>
       <c r="AP11" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>285.39999999999998</v>
       </c>
       <c r="AQ11" s="51"/>
@@ -8879,23 +8943,23 @@
         <v>238.2</v>
       </c>
       <c r="BZ11" s="51">
-        <f t="shared" ref="BY11:CD11" si="17">+BV11*0.9</f>
+        <f t="shared" ref="BZ11:CD11" si="16">+BV11*0.9</f>
         <v>268.92</v>
       </c>
       <c r="CA11" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>245.88</v>
       </c>
       <c r="CB11" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>246.6</v>
       </c>
       <c r="CC11" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>214.38</v>
       </c>
       <c r="CD11" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>242.02800000000002</v>
       </c>
       <c r="CE11" s="51"/>
@@ -8918,23 +8982,23 @@
         <v>905</v>
       </c>
       <c r="CN11" s="51">
-        <f t="shared" ref="CN11" si="18">SUM(O11:R11)</f>
+        <f t="shared" ref="CN11" si="17">SUM(O11:R11)</f>
         <v>985.30000000000007</v>
       </c>
       <c r="CO11" s="51">
-        <f t="shared" ref="CO11:CO33" si="19">SUM(S11:V11)</f>
+        <f t="shared" ref="CO11:CO33" si="18">SUM(S11:V11)</f>
         <v>1063.0999999999999</v>
       </c>
       <c r="CP11" s="51">
-        <f t="shared" ref="CP11:CP33" si="20">SUM(W11:Z11)</f>
+        <f t="shared" ref="CP11:CP33" si="19">SUM(W11:Z11)</f>
         <v>1022.0999999999999</v>
       </c>
       <c r="CQ11" s="51">
-        <f t="shared" ref="CQ11:CQ33" si="21">SUM(AA11:AD11)</f>
+        <f t="shared" ref="CQ11:CQ33" si="20">SUM(AA11:AD11)</f>
         <v>1088.9000000000001</v>
       </c>
       <c r="CR11" s="51">
-        <f t="shared" ref="CR11:CR34" si="22">SUM(AE11:AH11)</f>
+        <f t="shared" ref="CR11:CR34" si="21">SUM(AE11:AH11)</f>
         <v>1248.7</v>
       </c>
       <c r="CS11" s="51">
@@ -8942,15 +9006,17 @@
         <v>1181.5</v>
       </c>
       <c r="CT11" s="51">
-        <f>CS11*0.99</f>
-        <v>1169.6849999999999</v>
-      </c>
-      <c r="CU11" s="51">
-        <f t="shared" ref="CU11" si="23">CT11*0.99</f>
-        <v>1157.9881499999999</v>
-      </c>
-      <c r="CV11" s="51"/>
-      <c r="CW11" s="51"/>
+        <v>1315.8</v>
+      </c>
+      <c r="CU11" s="81">
+        <v>1400.1</v>
+      </c>
+      <c r="CV11" s="51">
+        <v>1307.4000000000001</v>
+      </c>
+      <c r="CW11" s="51">
+        <v>1365.9</v>
+      </c>
       <c r="CX11" s="51">
         <v>1335.4</v>
       </c>
@@ -8977,31 +9043,31 @@
         <v>948.88800000000003</v>
       </c>
       <c r="DE11" s="49">
-        <f t="shared" ref="DE11:DK11" si="24">+DD11*0.95</f>
+        <f t="shared" ref="DE11:DK11" si="22">+DD11*0.95</f>
         <v>901.44359999999995</v>
       </c>
       <c r="DF11" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>856.37141999999994</v>
       </c>
       <c r="DG11" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>813.55284899999992</v>
       </c>
       <c r="DH11" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>772.87520654999992</v>
       </c>
       <c r="DI11" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>734.23144622249993</v>
       </c>
       <c r="DJ11" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>697.51987391137493</v>
       </c>
       <c r="DK11" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>662.64388021580612</v>
       </c>
     </row>
@@ -9149,10 +9215,18 @@
       <c r="CQ12" s="51"/>
       <c r="CR12" s="51"/>
       <c r="CS12" s="51"/>
-      <c r="CT12" s="51"/>
-      <c r="CU12" s="51"/>
-      <c r="CV12" s="51"/>
-      <c r="CW12" s="51"/>
+      <c r="CT12" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="51">
+        <v>0</v>
+      </c>
       <c r="CX12" s="51">
         <v>45.8</v>
       </c>
@@ -9183,23 +9257,23 @@
         <v>1024.7712500000002</v>
       </c>
       <c r="DF12" s="49">
-        <f t="shared" ref="DF12:DJ12" si="25">+DE12*1.01</f>
+        <f t="shared" ref="DF12:DJ12" si="23">+DE12*1.01</f>
         <v>1035.0189625000003</v>
       </c>
       <c r="DG12" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1045.3691521250003</v>
       </c>
       <c r="DH12" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1055.8228436462502</v>
       </c>
       <c r="DI12" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1066.3810720827128</v>
       </c>
       <c r="DJ12" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1077.0448828035398</v>
       </c>
       <c r="DK12" s="49">
@@ -9317,23 +9391,23 @@
         <v>232.1</v>
       </c>
       <c r="BZ13" s="51">
-        <f t="shared" ref="BY13:CD13" si="26">+BU13*0.95</f>
+        <f t="shared" ref="BZ13:CD13" si="24">+BU13*0.95</f>
         <v>240.73</v>
       </c>
       <c r="CA13" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>256.87999999999994</v>
       </c>
       <c r="CB13" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>218.785</v>
       </c>
       <c r="CC13" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>219.73500000000001</v>
       </c>
       <c r="CD13" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>220.49499999999998</v>
       </c>
       <c r="CE13" s="51"/>
@@ -9351,10 +9425,18 @@
       <c r="CQ13" s="51"/>
       <c r="CR13" s="51"/>
       <c r="CS13" s="51"/>
-      <c r="CT13" s="51"/>
-      <c r="CU13" s="51"/>
-      <c r="CV13" s="51"/>
-      <c r="CW13" s="51"/>
+      <c r="CT13" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="81">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="CV13" s="51">
+        <v>383.8</v>
+      </c>
+      <c r="CW13" s="51">
+        <v>614.1</v>
+      </c>
       <c r="CX13" s="51">
         <v>758.3</v>
       </c>
@@ -9381,31 +9463,31 @@
         <v>915.89499999999998</v>
       </c>
       <c r="DE13" s="49">
-        <f t="shared" ref="DE13:DK13" si="27">+DD13*0.95</f>
+        <f t="shared" ref="DE13:DK13" si="25">+DD13*0.95</f>
         <v>870.10024999999996</v>
       </c>
       <c r="DF13" s="49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>826.59523749999994</v>
       </c>
       <c r="DG13" s="49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>785.26547562499991</v>
       </c>
       <c r="DH13" s="49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>746.00220184374984</v>
       </c>
       <c r="DI13" s="49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>708.70209175156231</v>
       </c>
       <c r="DJ13" s="49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>673.26698716398414</v>
       </c>
       <c r="DK13" s="49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>639.60363780578496</v>
       </c>
     </row>
@@ -9501,19 +9583,19 @@
         <v>482.1</v>
       </c>
       <c r="AM14" s="51">
-        <f t="shared" ref="AM14:AP14" si="28">+AL14</f>
+        <f t="shared" ref="AM14:AP14" si="26">+AL14</f>
         <v>482.1</v>
       </c>
       <c r="AN14" s="51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>482.1</v>
       </c>
       <c r="AO14" s="51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>482.1</v>
       </c>
       <c r="AP14" s="51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>482.1</v>
       </c>
       <c r="AQ14" s="51"/>
@@ -9584,23 +9666,23 @@
         <v>0</v>
       </c>
       <c r="BZ14" s="51">
-        <f t="shared" ref="BY14:CD14" si="29">AVERAGE(BV14:BY14)*0.9</f>
+        <f t="shared" ref="BZ14:CD14" si="27">AVERAGE(BV14:BY14)*0.9</f>
         <v>122.49</v>
       </c>
       <c r="CA14" s="51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>109.61775</v>
       </c>
       <c r="CB14" s="51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>85.299243750000002</v>
       </c>
       <c r="CC14" s="51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>71.416573593750002</v>
       </c>
       <c r="CD14" s="51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>87.485302652343762</v>
       </c>
       <c r="CE14" s="51"/>
@@ -9645,18 +9727,17 @@
         <v>1895.5</v>
       </c>
       <c r="CT14" s="51">
-        <f>CS14*1.1</f>
-        <v>2085.0500000000002</v>
-      </c>
-      <c r="CU14" s="51">
-        <f>CT14*1.1</f>
-        <v>2293.5550000000003</v>
+        <v>2159.4</v>
+      </c>
+      <c r="CU14" s="81">
+        <v>2291</v>
       </c>
       <c r="CV14" s="51">
-        <f>CU14*1.1</f>
-        <v>2522.9105000000004</v>
-      </c>
-      <c r="CW14" s="51"/>
+        <v>2310.6999999999998</v>
+      </c>
+      <c r="CW14" s="51">
+        <v>2471.6</v>
+      </c>
       <c r="CX14" s="51">
         <v>2323.1</v>
       </c>
@@ -9683,31 +9764,31 @@
         <v>353.81886999609378</v>
       </c>
       <c r="DE14" s="49">
-        <f t="shared" ref="DE14:DK15" si="30">+DD14*0.9</f>
+        <f t="shared" ref="DE14:DK15" si="28">+DD14*0.9</f>
         <v>318.4369829964844</v>
       </c>
       <c r="DF14" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>286.59328469683595</v>
       </c>
       <c r="DG14" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>257.93395622715235</v>
       </c>
       <c r="DH14" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>232.14056060443713</v>
       </c>
       <c r="DI14" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>208.92650454399342</v>
       </c>
       <c r="DJ14" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>188.03385408959409</v>
       </c>
       <c r="DK14" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>169.23046868063469</v>
       </c>
     </row>
@@ -9821,23 +9902,23 @@
         <v>193</v>
       </c>
       <c r="BZ15" s="51">
-        <f t="shared" ref="BY15:CD15" si="31">+BV15*0.9</f>
+        <f t="shared" ref="BZ15:CD15" si="29">+BV15*0.9</f>
         <v>218.16</v>
       </c>
       <c r="CA15" s="51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>172.35</v>
       </c>
       <c r="CB15" s="51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>156.78</v>
       </c>
       <c r="CC15" s="51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>173.70000000000002</v>
       </c>
       <c r="CD15" s="51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>196.34399999999999</v>
       </c>
       <c r="CE15" s="51"/>
@@ -9855,10 +9936,18 @@
       <c r="CQ15" s="51"/>
       <c r="CR15" s="51"/>
       <c r="CS15" s="51"/>
-      <c r="CT15" s="51"/>
-      <c r="CU15" s="51"/>
-      <c r="CV15" s="51"/>
-      <c r="CW15" s="51"/>
+      <c r="CT15" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="51">
+        <v>0</v>
+      </c>
       <c r="CX15" s="51">
         <v>432.1</v>
       </c>
@@ -9885,31 +9974,31 @@
         <v>699.17399999999998</v>
       </c>
       <c r="DE15" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>629.25660000000005</v>
       </c>
       <c r="DF15" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>566.33094000000006</v>
       </c>
       <c r="DG15" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>509.69784600000008</v>
       </c>
       <c r="DH15" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>458.72806140000006</v>
       </c>
       <c r="DI15" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>412.85525526000004</v>
       </c>
       <c r="DJ15" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>371.56972973400002</v>
       </c>
       <c r="DK15" s="49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>334.41275676060002</v>
       </c>
     </row>
@@ -10023,23 +10112,23 @@
         <v>168.5</v>
       </c>
       <c r="BZ16" s="52">
-        <f t="shared" ref="BY16:CD16" si="32">+BV16*1.1</f>
+        <f t="shared" ref="BZ16:CD16" si="30">+BV16*1.1</f>
         <v>177.65</v>
       </c>
       <c r="CA16" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>164.23000000000002</v>
       </c>
       <c r="CB16" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>173.25</v>
       </c>
       <c r="CC16" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>185.35000000000002</v>
       </c>
       <c r="CD16" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>195.41500000000002</v>
       </c>
       <c r="CE16" s="52"/>
@@ -10057,10 +10146,18 @@
       <c r="CQ16" s="51"/>
       <c r="CR16" s="51"/>
       <c r="CS16" s="51"/>
-      <c r="CT16" s="51"/>
-      <c r="CU16" s="51"/>
-      <c r="CV16" s="51"/>
-      <c r="CW16" s="51"/>
+      <c r="CT16" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV16" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW16" s="51">
+        <v>0</v>
+      </c>
       <c r="CX16" s="51">
         <v>0</v>
       </c>
@@ -10087,31 +10184,31 @@
         <v>718.24500000000012</v>
       </c>
       <c r="DE16" s="49">
-        <f t="shared" ref="DE16:DK16" si="33">+DD16*1.01</f>
+        <f t="shared" ref="DE16:DK16" si="31">+DD16*1.01</f>
         <v>725.42745000000014</v>
       </c>
       <c r="DF16" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>732.68172450000009</v>
       </c>
       <c r="DG16" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>740.00854174500012</v>
       </c>
       <c r="DH16" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>747.4086271624501</v>
       </c>
       <c r="DI16" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>754.88271343407462</v>
       </c>
       <c r="DJ16" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>762.43154056841536</v>
       </c>
       <c r="DK16" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>770.05585597409947</v>
       </c>
     </row>
@@ -10218,23 +10315,23 @@
         <v>0</v>
       </c>
       <c r="BZ17" s="51">
-        <f t="shared" ref="BY17:CD17" si="34">+BY17</f>
+        <f t="shared" ref="BZ17:CD17" si="32">+BY17</f>
         <v>0</v>
       </c>
       <c r="CA17" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CB17" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CC17" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CD17" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CE17" s="51"/>
@@ -10252,10 +10349,18 @@
       <c r="CQ17" s="51"/>
       <c r="CR17" s="51"/>
       <c r="CS17" s="51"/>
-      <c r="CT17" s="51"/>
-      <c r="CU17" s="51"/>
-      <c r="CV17" s="51"/>
-      <c r="CW17" s="51"/>
+      <c r="CT17" s="51">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="81">
+        <v>0</v>
+      </c>
+      <c r="CV17" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW17" s="51">
+        <v>0</v>
+      </c>
       <c r="CX17" s="51">
         <f>380.9+307.7</f>
         <v>688.59999999999991</v>
@@ -10285,31 +10390,31 @@
         <v>0</v>
       </c>
       <c r="DE17" s="49">
-        <f t="shared" ref="DE17:DK17" si="35">+DD17*0.9</f>
+        <f t="shared" ref="DE17:DK17" si="33">+DD17*0.9</f>
         <v>0</v>
       </c>
       <c r="DF17" s="49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="DG17" s="49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="DH17" s="49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="DI17" s="49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="DJ17" s="49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="DK17" s="49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -10381,23 +10486,23 @@
         <v>86.6</v>
       </c>
       <c r="AL18" s="52">
-        <f t="shared" ref="AL18:AP18" si="36">+AK18</f>
+        <f t="shared" ref="AL18:AP18" si="34">+AK18</f>
         <v>86.6</v>
       </c>
       <c r="AM18" s="52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>86.6</v>
       </c>
       <c r="AN18" s="52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>86.6</v>
       </c>
       <c r="AO18" s="52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>86.6</v>
       </c>
       <c r="AP18" s="52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>86.6</v>
       </c>
       <c r="AQ18" s="52"/>
@@ -10460,23 +10565,23 @@
         <v>0</v>
       </c>
       <c r="BZ18" s="52">
-        <f t="shared" ref="BY18:CD18" si="37">+BY18</f>
+        <f t="shared" ref="BZ18:CD18" si="35">+BY18</f>
         <v>0</v>
       </c>
       <c r="CA18" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="CB18" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="CC18" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="CD18" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="CE18" s="52"/>
@@ -10507,15 +10612,17 @@
         <v>396.5</v>
       </c>
       <c r="CT18" s="51">
-        <f t="shared" ref="CT18:CU18" si="38">+CS18</f>
-        <v>396.5</v>
-      </c>
-      <c r="CU18" s="51">
-        <f t="shared" si="38"/>
-        <v>396.5</v>
-      </c>
-      <c r="CV18" s="51"/>
-      <c r="CW18" s="51"/>
+        <v>373.7</v>
+      </c>
+      <c r="CU18" s="81">
+        <v>373.3</v>
+      </c>
+      <c r="CV18" s="51">
+        <v>485</v>
+      </c>
+      <c r="CW18" s="51">
+        <v>687</v>
+      </c>
       <c r="CX18" s="51">
         <v>645.9</v>
       </c>
@@ -10542,31 +10649,31 @@
         <v>0</v>
       </c>
       <c r="DE18" s="49">
-        <f t="shared" ref="DE18:DK18" si="39">+DD18*0.9</f>
+        <f t="shared" ref="DE18:DK18" si="36">+DD18*0.9</f>
         <v>0</v>
       </c>
       <c r="DF18" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="DG18" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="DH18" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="DI18" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="DJ18" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="DK18" s="49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -10674,23 +10781,23 @@
         <v>0</v>
       </c>
       <c r="BZ19" s="51">
-        <f t="shared" ref="BY19:CD19" si="40">+BY19</f>
+        <f t="shared" ref="BZ19:CD19" si="37">+BY19</f>
         <v>0</v>
       </c>
       <c r="CA19" s="51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CB19" s="51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CC19" s="51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CD19" s="51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CE19" s="51"/>
@@ -10715,6 +10822,7 @@
       <c r="CP19" s="51"/>
       <c r="CQ19" s="51"/>
       <c r="CR19" s="51"/>
+      <c r="CU19" s="80"/>
       <c r="CX19" s="51">
         <f>174.6+149.6</f>
         <v>324.2</v>
@@ -10744,31 +10852,31 @@
         <v>0</v>
       </c>
       <c r="DE19" s="49">
-        <f t="shared" ref="DE19:DK19" si="41">+DD19*0.9</f>
+        <f t="shared" ref="DE19:DK19" si="38">+DD19*0.9</f>
         <v>0</v>
       </c>
       <c r="DF19" s="49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="DG19" s="49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="DH19" s="49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="DI19" s="49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="DJ19" s="49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="DK19" s="49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -10882,19 +10990,19 @@
         <v>293.7</v>
       </c>
       <c r="AM20" s="51">
-        <f t="shared" ref="AM20:AP20" si="42">+AL20+5</f>
+        <f t="shared" ref="AM20:AP20" si="39">+AL20+5</f>
         <v>298.7</v>
       </c>
       <c r="AN20" s="51">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>303.7</v>
       </c>
       <c r="AO20" s="51">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>308.7</v>
       </c>
       <c r="AP20" s="51">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>313.7</v>
       </c>
       <c r="AQ20" s="51"/>
@@ -10963,23 +11071,23 @@
         <v>177.1</v>
       </c>
       <c r="BZ20" s="51">
-        <f t="shared" ref="BY20:CD20" si="43">+BY20*0.95</f>
+        <f t="shared" ref="BZ20:CD20" si="40">+BY20*0.95</f>
         <v>168.24499999999998</v>
       </c>
       <c r="CA20" s="51">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>159.83274999999998</v>
       </c>
       <c r="CB20" s="51">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>151.84111249999998</v>
       </c>
       <c r="CC20" s="51">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>144.24905687499998</v>
       </c>
       <c r="CD20" s="51">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>137.03660403124996</v>
       </c>
       <c r="CE20" s="51"/>
@@ -11026,15 +11134,17 @@
         <v>1130.1000000000001</v>
       </c>
       <c r="CT20" s="51">
-        <f t="shared" ref="CT20:CU20" si="44">CS20*1.05</f>
-        <v>1186.6050000000002</v>
-      </c>
-      <c r="CU20" s="51">
-        <f t="shared" si="44"/>
-        <v>1245.9352500000002</v>
-      </c>
-      <c r="CV20" s="51"/>
-      <c r="CW20" s="51"/>
+        <v>1244.9000000000001</v>
+      </c>
+      <c r="CU20" s="81">
+        <v>1322</v>
+      </c>
+      <c r="CV20" s="51">
+        <v>1348.3</v>
+      </c>
+      <c r="CW20" s="51">
+        <v>1500</v>
+      </c>
       <c r="CX20" s="51">
         <v>1749</v>
       </c>
@@ -11061,31 +11171,31 @@
         <v>592.9595234062499</v>
       </c>
       <c r="DE20" s="49">
-        <f t="shared" ref="DE20:DK20" si="45">+DD20*0.9</f>
+        <f t="shared" ref="DE20:DK20" si="41">+DD20*0.9</f>
         <v>533.66357106562498</v>
       </c>
       <c r="DF20" s="49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>480.2972139590625</v>
       </c>
       <c r="DG20" s="49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>432.26749256315628</v>
       </c>
       <c r="DH20" s="49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>389.04074330684068</v>
       </c>
       <c r="DI20" s="49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>350.13666897615661</v>
       </c>
       <c r="DJ20" s="49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>315.12300207854094</v>
       </c>
       <c r="DK20" s="49">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>283.61070187068685</v>
       </c>
     </row>
@@ -11159,19 +11269,19 @@
         <v>407</v>
       </c>
       <c r="AM21" s="51">
-        <f t="shared" ref="AM21:AP21" si="46">+AI21</f>
+        <f t="shared" ref="AM21:AP21" si="42">+AI21</f>
         <v>552</v>
       </c>
       <c r="AN21" s="51">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>524</v>
       </c>
       <c r="AO21" s="51">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>488.30000000000018</v>
       </c>
       <c r="AP21" s="51">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>407</v>
       </c>
       <c r="AQ21" s="51"/>
@@ -11240,23 +11350,23 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="51">
-        <f t="shared" ref="BY21:CD21" si="47">+BY21</f>
+        <f t="shared" ref="BZ21:CD21" si="43">+BY21</f>
         <v>0</v>
       </c>
       <c r="CA21" s="51">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CB21" s="51">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CC21" s="51">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CD21" s="51">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CE21" s="51"/>
@@ -11306,15 +11416,19 @@
         <v>1971.3000000000002</v>
       </c>
       <c r="CT21" s="51">
-        <f>+CS21*0.9</f>
-        <v>1774.1700000000003</v>
-      </c>
-      <c r="CU21" s="51">
-        <f t="shared" ref="CU21" si="48">+CT21*0.9</f>
-        <v>1596.7530000000004</v>
-      </c>
-      <c r="CV21" s="51"/>
-      <c r="CW21" s="51"/>
+        <f>1672.3-CT18</f>
+        <v>1298.5999999999999</v>
+      </c>
+      <c r="CU21" s="81">
+        <v>1887.1</v>
+      </c>
+      <c r="CV21" s="51">
+        <f>1727.1-CV49</f>
+        <v>1489.8</v>
+      </c>
+      <c r="CW21" s="51">
+        <v>1965.4</v>
+      </c>
       <c r="CX21" s="51">
         <f>555.4+422</f>
         <v>977.4</v>
@@ -11344,31 +11458,31 @@
         <v>0</v>
       </c>
       <c r="DE21" s="49">
-        <f t="shared" ref="DE21:DK21" si="49">+DD21*0.9</f>
+        <f t="shared" ref="DE21:DK21" si="44">+DD21*0.9</f>
         <v>0</v>
       </c>
       <c r="DF21" s="49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="DG21" s="49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="DH21" s="49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="DI21" s="49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="DJ21" s="49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="DK21" s="49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -11486,19 +11600,19 @@
         <v>369.5</v>
       </c>
       <c r="AM22" s="51">
-        <f t="shared" ref="AM22:AP22" si="50">+AL22-5</f>
+        <f t="shared" ref="AM22:AP22" si="45">+AL22-5</f>
         <v>364.5</v>
       </c>
       <c r="AN22" s="51">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>359.5</v>
       </c>
       <c r="AO22" s="51">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>354.5</v>
       </c>
       <c r="AP22" s="51">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>349.5</v>
       </c>
       <c r="AQ22" s="51"/>
@@ -11561,23 +11675,23 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="51">
-        <f t="shared" ref="BY22:CD22" si="51">+BY22</f>
+        <f t="shared" ref="BZ22:CD22" si="46">+BY22</f>
         <v>0</v>
       </c>
       <c r="CA22" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="CB22" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="CC22" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="CD22" s="51">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="CE22" s="51"/>
@@ -11625,15 +11739,17 @@
         <v>1686.2</v>
       </c>
       <c r="CT22" s="51">
-        <f>CS22*0.4</f>
-        <v>674.48</v>
-      </c>
-      <c r="CU22" s="51">
-        <f>CT22*0.6</f>
-        <v>404.68799999999999</v>
-      </c>
-      <c r="CV22" s="51"/>
-      <c r="CW22" s="51"/>
+        <v>1194.8</v>
+      </c>
+      <c r="CU22" s="81">
+        <v>1037.3</v>
+      </c>
+      <c r="CV22" s="51">
+        <v>940.3</v>
+      </c>
+      <c r="CW22" s="51">
+        <v>725.3</v>
+      </c>
       <c r="CX22" s="51">
         <v>581.20000000000005</v>
       </c>
@@ -11660,31 +11776,31 @@
         <v>0</v>
       </c>
       <c r="DE22" s="49">
-        <f t="shared" ref="DE22:DK22" si="52">+DD22*0.9</f>
+        <f t="shared" ref="DE22:DK22" si="47">+DD22*0.9</f>
         <v>0</v>
       </c>
       <c r="DF22" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="DG22" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="DH22" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="DI22" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="DJ22" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="DK22" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -11798,23 +11914,23 @@
         <v>76.8</v>
       </c>
       <c r="BZ23" s="52">
-        <f t="shared" ref="BY23:CD23" si="53">+BY23</f>
+        <f t="shared" ref="BZ23:CD23" si="48">+BY23</f>
         <v>76.8</v>
       </c>
       <c r="CA23" s="52">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>76.8</v>
       </c>
       <c r="CB23" s="52">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>76.8</v>
       </c>
       <c r="CC23" s="52">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>76.8</v>
       </c>
       <c r="CD23" s="52">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>76.8</v>
       </c>
       <c r="CE23" s="52"/>
@@ -11833,9 +11949,13 @@
       <c r="CR23" s="51"/>
       <c r="CS23" s="51"/>
       <c r="CT23" s="51"/>
-      <c r="CU23" s="51"/>
-      <c r="CV23" s="51"/>
-      <c r="CW23" s="51"/>
+      <c r="CU23" s="81"/>
+      <c r="CV23" s="51">
+        <v>0</v>
+      </c>
+      <c r="CW23" s="51">
+        <v>0</v>
+      </c>
       <c r="CX23" s="51">
         <v>0</v>
       </c>
@@ -11862,31 +11982,31 @@
         <v>307.2</v>
       </c>
       <c r="DE23" s="49">
-        <f t="shared" ref="DE23:DK23" si="54">+DD23*0.9</f>
+        <f t="shared" ref="DE23:DK23" si="49">+DD23*0.9</f>
         <v>276.48</v>
       </c>
       <c r="DF23" s="49">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>248.83200000000002</v>
       </c>
       <c r="DG23" s="49">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>223.94880000000003</v>
       </c>
       <c r="DH23" s="49">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>201.55392000000003</v>
       </c>
       <c r="DI23" s="49">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>181.39852800000003</v>
       </c>
       <c r="DJ23" s="49">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>163.25867520000003</v>
       </c>
       <c r="DK23" s="49">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>146.93280768000002</v>
       </c>
     </row>
@@ -12004,19 +12124,19 @@
         <v>1240.8</v>
       </c>
       <c r="AM24" s="51">
-        <f t="shared" ref="AM24:AP24" si="55">+AL24+5</f>
+        <f t="shared" ref="AM24:AP24" si="50">+AL24+5</f>
         <v>1245.8</v>
       </c>
       <c r="AN24" s="51">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>1250.8</v>
       </c>
       <c r="AO24" s="51">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>1255.8</v>
       </c>
       <c r="AP24" s="51">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>1260.8</v>
       </c>
       <c r="AQ24" s="51"/>
@@ -12081,23 +12201,23 @@
         <v>0</v>
       </c>
       <c r="BZ24" s="51">
-        <f t="shared" ref="BY24:CD25" si="56">+BY24</f>
+        <f t="shared" ref="BY24:CD25" si="51">+BY24</f>
         <v>0</v>
       </c>
       <c r="CA24" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CB24" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CC24" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CD24" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CE24" s="51"/>
@@ -12141,15 +12261,17 @@
         <v>4814.6000000000004</v>
       </c>
       <c r="CT24" s="51">
-        <f>CS24*1.1</f>
-        <v>5296.06</v>
-      </c>
-      <c r="CU24" s="51">
-        <f>CT24*0.4</f>
-        <v>2118.4240000000004</v>
-      </c>
-      <c r="CV24" s="51"/>
-      <c r="CW24" s="51"/>
+        <v>5084.3999999999996</v>
+      </c>
+      <c r="CU24" s="81">
+        <v>1614.7</v>
+      </c>
+      <c r="CV24" s="51">
+        <v>1027.5999999999999</v>
+      </c>
+      <c r="CW24" s="51">
+        <v>930.5</v>
+      </c>
       <c r="CX24" s="51">
         <v>757.2</v>
       </c>
@@ -12176,31 +12298,31 @@
         <v>0</v>
       </c>
       <c r="DE24" s="49">
-        <f t="shared" ref="DE24:DK24" si="57">+DD24*0.9</f>
+        <f t="shared" ref="DE24:DK24" si="52">+DD24*0.9</f>
         <v>0</v>
       </c>
       <c r="DF24" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="DG24" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="DH24" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="DI24" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="DJ24" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="DK24" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -12303,27 +12425,27 @@
         <v>0</v>
       </c>
       <c r="BY25" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BZ25" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CA25" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CB25" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CC25" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CD25" s="51">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="CE25" s="51"/>
@@ -12342,9 +12464,13 @@
       <c r="CR25" s="51"/>
       <c r="CS25" s="51"/>
       <c r="CT25" s="51"/>
-      <c r="CU25" s="51"/>
-      <c r="CV25" s="51"/>
-      <c r="CW25" s="51"/>
+      <c r="CU25" s="81"/>
+      <c r="CV25" s="51">
+        <v>356.8</v>
+      </c>
+      <c r="CW25" s="51">
+        <v>436.6</v>
+      </c>
       <c r="CX25" s="51">
         <v>537.9</v>
       </c>
@@ -12371,31 +12497,31 @@
         <v>0</v>
       </c>
       <c r="DE25" s="49">
-        <f t="shared" ref="DE25:DK25" si="58">+DD25*0.9</f>
+        <f t="shared" ref="DE25:DK25" si="53">+DD25*0.9</f>
         <v>0</v>
       </c>
       <c r="DF25" s="49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DG25" s="49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DH25" s="49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DI25" s="49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DJ25" s="49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="DK25" s="49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -12501,23 +12627,23 @@
         <v>0</v>
       </c>
       <c r="BZ26" s="51">
-        <f t="shared" ref="BY26:CD26" si="59">+BY26</f>
+        <f t="shared" ref="BZ26:CD26" si="54">+BY26</f>
         <v>0</v>
       </c>
       <c r="CA26" s="51">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="CB26" s="51">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="CC26" s="51">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="CD26" s="51">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="CE26" s="51"/>
@@ -12544,7 +12670,7 @@
       <c r="CR26" s="51"/>
       <c r="CS26" s="51"/>
       <c r="CT26" s="51"/>
-      <c r="CU26" s="51"/>
+      <c r="CU26" s="81"/>
       <c r="CV26" s="51"/>
       <c r="CW26" s="51"/>
       <c r="CX26" s="51">
@@ -12576,31 +12702,31 @@
         <v>0</v>
       </c>
       <c r="DE26" s="49">
-        <f t="shared" ref="DE26:DK26" si="60">+DD26*0.9</f>
+        <f t="shared" ref="DE26:DK26" si="55">+DD26*0.9</f>
         <v>0</v>
       </c>
       <c r="DF26" s="49">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="DG26" s="49">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="DH26" s="49">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="DI26" s="49">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="DJ26" s="49">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="DK26" s="49">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -12714,23 +12840,23 @@
         <v>40.5</v>
       </c>
       <c r="BZ27" s="51">
-        <f t="shared" ref="BY27:CD27" si="61">+BY27+3</f>
+        <f t="shared" ref="BZ27:CD27" si="56">+BY27+3</f>
         <v>43.5</v>
       </c>
       <c r="CA27" s="51">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>46.5</v>
       </c>
       <c r="CB27" s="51">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>49.5</v>
       </c>
       <c r="CC27" s="51">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>52.5</v>
       </c>
       <c r="CD27" s="51">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>55.5</v>
       </c>
       <c r="CE27" s="51"/>
@@ -12749,7 +12875,7 @@
       <c r="CR27" s="51"/>
       <c r="CS27" s="51"/>
       <c r="CT27" s="51"/>
-      <c r="CU27" s="51"/>
+      <c r="CU27" s="81"/>
       <c r="CV27" s="51"/>
       <c r="CW27" s="51"/>
       <c r="CX27" s="51"/>
@@ -12772,27 +12898,27 @@
         <v>204</v>
       </c>
       <c r="DE27" s="49">
-        <f t="shared" ref="DE27:DJ27" si="62">+DD27*1.3</f>
+        <f t="shared" ref="DE27:DJ27" si="57">+DD27*1.3</f>
         <v>265.2</v>
       </c>
       <c r="DF27" s="49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>344.76</v>
       </c>
       <c r="DG27" s="49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>448.18799999999999</v>
       </c>
       <c r="DH27" s="49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>582.64440000000002</v>
       </c>
       <c r="DI27" s="49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>757.43772000000001</v>
       </c>
       <c r="DJ27" s="49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>984.66903600000001</v>
       </c>
       <c r="DK27" s="49">
@@ -12911,23 +13037,23 @@
         <v>0</v>
       </c>
       <c r="BZ28" s="51">
-        <f t="shared" ref="BY28:CD28" si="63">+BY28</f>
+        <f t="shared" ref="BZ28:CD28" si="58">+BY28</f>
         <v>0</v>
       </c>
       <c r="CA28" s="51">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB28" s="51">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CC28" s="51">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CD28" s="51">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CE28" s="51"/>
@@ -12946,7 +13072,7 @@
       <c r="CR28" s="51"/>
       <c r="CS28" s="51"/>
       <c r="CT28" s="51"/>
-      <c r="CU28" s="51"/>
+      <c r="CU28" s="81"/>
       <c r="CV28" s="51"/>
       <c r="CW28" s="51"/>
       <c r="CX28" s="51"/>
@@ -13079,23 +13205,23 @@
         <v>771</v>
       </c>
       <c r="BZ29" s="52">
-        <f t="shared" ref="BY29:CD29" si="64">+BY29</f>
+        <f t="shared" ref="BZ29:CD29" si="59">+BY29</f>
         <v>771</v>
       </c>
       <c r="CA29" s="52">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>771</v>
       </c>
       <c r="CB29" s="52">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>771</v>
       </c>
       <c r="CC29" s="52">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>771</v>
       </c>
       <c r="CD29" s="52">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>771</v>
       </c>
       <c r="CE29" s="52"/>
@@ -13114,7 +13240,7 @@
       <c r="CR29" s="51"/>
       <c r="CS29" s="51"/>
       <c r="CT29" s="51"/>
-      <c r="CU29" s="51"/>
+      <c r="CU29" s="81"/>
       <c r="CV29" s="51"/>
       <c r="CW29" s="51"/>
       <c r="CX29" s="51"/>
@@ -13141,27 +13267,27 @@
         <v>3084</v>
       </c>
       <c r="DF29" s="49">
-        <f t="shared" ref="DF29:DK29" si="65">+DE29</f>
+        <f t="shared" ref="DF29:DK29" si="60">+DE29</f>
         <v>3084</v>
       </c>
       <c r="DG29" s="49">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>3084</v>
       </c>
       <c r="DH29" s="49">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>3084</v>
       </c>
       <c r="DI29" s="49">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>3084</v>
       </c>
       <c r="DJ29" s="49">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>3084</v>
       </c>
       <c r="DK29" s="49">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>3084</v>
       </c>
     </row>
@@ -13281,7 +13407,7 @@
       <c r="CR30" s="51"/>
       <c r="CS30" s="51"/>
       <c r="CT30" s="51"/>
-      <c r="CU30" s="51"/>
+      <c r="CU30" s="81"/>
       <c r="CV30" s="51"/>
       <c r="CW30" s="51"/>
       <c r="CX30" s="51"/>
@@ -13427,7 +13553,7 @@
       <c r="CR31" s="51"/>
       <c r="CS31" s="51"/>
       <c r="CT31" s="51"/>
-      <c r="CU31" s="51"/>
+      <c r="CU31" s="81"/>
       <c r="CV31" s="51"/>
       <c r="CW31" s="51"/>
       <c r="CX31" s="51"/>
@@ -13567,23 +13693,23 @@
         <v>145.6</v>
       </c>
       <c r="AL32" s="51">
-        <f t="shared" ref="AL32:AP32" si="66">+AK32</f>
+        <f t="shared" ref="AL32:AP32" si="61">+AK32</f>
         <v>145.6</v>
       </c>
       <c r="AM32" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>145.6</v>
       </c>
       <c r="AN32" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>145.6</v>
       </c>
       <c r="AO32" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>145.6</v>
       </c>
       <c r="AP32" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>145.6</v>
       </c>
       <c r="AQ32" s="51"/>
@@ -13686,18 +13812,17 @@
         <v>603.1</v>
       </c>
       <c r="CT32" s="51">
-        <f>CS32*0.95</f>
-        <v>572.94500000000005</v>
-      </c>
-      <c r="CU32" s="51">
-        <f>CT32*0.95</f>
-        <v>544.29775000000006</v>
+        <v>709.2</v>
+      </c>
+      <c r="CU32" s="81">
+        <v>738.5</v>
       </c>
       <c r="CV32" s="51">
-        <f>CU32*0.95</f>
-        <v>517.08286250000003</v>
-      </c>
-      <c r="CW32" s="51"/>
+        <v>784</v>
+      </c>
+      <c r="CW32" s="51">
+        <v>854.7</v>
+      </c>
       <c r="CX32" s="51">
         <f>284.9+333.3</f>
         <v>618.20000000000005</v>
@@ -13835,23 +13960,23 @@
         <v>479.4</v>
       </c>
       <c r="AL33" s="51">
-        <f t="shared" ref="AL33:AP33" si="67">+AK33+5</f>
+        <f t="shared" ref="AL33:AP33" si="62">+AK33+5</f>
         <v>484.4</v>
       </c>
       <c r="AM33" s="51">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>489.4</v>
       </c>
       <c r="AN33" s="51">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>494.4</v>
       </c>
       <c r="AO33" s="51">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>499.4</v>
       </c>
       <c r="AP33" s="51">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>504.4</v>
       </c>
       <c r="AQ33" s="51"/>
@@ -13918,38 +14043,37 @@
         <v>926.1</v>
       </c>
       <c r="CO33" s="51">
+        <f t="shared" si="18"/>
+        <v>858</v>
+      </c>
+      <c r="CP33" s="51">
         <f t="shared" si="19"/>
-        <v>858</v>
-      </c>
-      <c r="CP33" s="51">
+        <v>1207.2</v>
+      </c>
+      <c r="CQ33" s="51">
         <f t="shared" si="20"/>
-        <v>1207.2</v>
-      </c>
-      <c r="CQ33" s="51">
+        <v>1391.3</v>
+      </c>
+      <c r="CR33" s="51">
         <f t="shared" si="21"/>
-        <v>1391.3</v>
-      </c>
-      <c r="CR33" s="51">
-        <f t="shared" si="22"/>
         <v>1678.5</v>
       </c>
       <c r="CS33" s="51">
-        <f t="shared" ref="CS33:CS36" si="68">SUM(AI33:AL33)</f>
+        <f t="shared" ref="CS33:CS36" si="63">SUM(AI33:AL33)</f>
         <v>1966.7000000000003</v>
       </c>
       <c r="CT33" s="51">
-        <f t="shared" ref="CT33:CV33" si="69">CS33*1.05</f>
-        <v>2065.0350000000003</v>
-      </c>
-      <c r="CU33" s="51">
-        <f t="shared" si="69"/>
-        <v>2168.2867500000002</v>
+        <v>2151.5</v>
+      </c>
+      <c r="CU33" s="81">
+        <v>2346.6</v>
       </c>
       <c r="CV33" s="51">
-        <f t="shared" si="69"/>
-        <v>2276.7010875000005</v>
-      </c>
-      <c r="CW33" s="51"/>
+        <v>3181</v>
+      </c>
+      <c r="CW33" s="51">
+        <v>3158.2</v>
+      </c>
       <c r="CX33" s="51"/>
       <c r="CY33" s="51"/>
       <c r="CZ33" s="51"/>
@@ -14028,19 +14152,19 @@
         <v>114.7</v>
       </c>
       <c r="AM34" s="52">
-        <f t="shared" ref="AM34:AP34" si="70">+AL34+5</f>
+        <f t="shared" ref="AM34:AP34" si="64">+AL34+5</f>
         <v>119.7</v>
       </c>
       <c r="AN34" s="52">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>124.7</v>
       </c>
       <c r="AO34" s="52">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>129.69999999999999</v>
       </c>
       <c r="AP34" s="52">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>134.69999999999999</v>
       </c>
       <c r="AQ34" s="52"/>
@@ -14103,26 +14227,25 @@
         <v>115</v>
       </c>
       <c r="CR34" s="51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>302.39999999999998</v>
       </c>
       <c r="CS34" s="51">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>451.2</v>
       </c>
       <c r="CT34" s="52">
-        <f>CS34*1.3</f>
-        <v>586.56000000000006</v>
-      </c>
-      <c r="CU34" s="52">
-        <f>CT34*1.1</f>
-        <v>645.21600000000012</v>
+        <v>508.7</v>
+      </c>
+      <c r="CU34" s="82">
+        <v>522.20000000000005</v>
       </c>
       <c r="CV34" s="52">
-        <f>CU34*1.1</f>
-        <v>709.73760000000016</v>
-      </c>
-      <c r="CW34" s="52"/>
+        <v>523</v>
+      </c>
+      <c r="CW34" s="52">
+        <v>535.20000000000005</v>
+      </c>
       <c r="CX34" s="52"/>
       <c r="CY34" s="52"/>
       <c r="CZ34" s="52"/>
@@ -14241,23 +14364,23 @@
         <v>0</v>
       </c>
       <c r="AL35" s="52">
-        <f t="shared" ref="AL35:AP35" si="71">+AK35</f>
+        <f t="shared" ref="AL35:AP35" si="65">+AK35</f>
         <v>0</v>
       </c>
       <c r="AM35" s="52">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN35" s="52">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AO35" s="52">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AP35" s="52">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="52"/>
@@ -14341,17 +14464,11 @@
         <v>452.1</v>
       </c>
       <c r="CS35" s="51">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="CT35" s="51">
-        <f>CS35*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="CU35" s="51">
-        <f>CT35*0.2</f>
-        <v>0</v>
-      </c>
+      <c r="CT35" s="51"/>
+      <c r="CU35" s="81"/>
       <c r="CV35" s="51"/>
       <c r="CW35" s="51"/>
       <c r="CX35" s="51"/>
@@ -14547,21 +14664,12 @@
         <v>422.7</v>
       </c>
       <c r="CS36" s="51">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="CT36" s="51">
-        <f>+CS36*2</f>
-        <v>0</v>
-      </c>
-      <c r="CU36" s="51">
-        <f>+CT36*1.05</f>
-        <v>0</v>
-      </c>
-      <c r="CV36" s="51">
-        <f t="shared" ref="CV36" si="72">+CU36*1.05</f>
-        <v>0</v>
-      </c>
+      <c r="CT36" s="51"/>
+      <c r="CU36" s="81"/>
+      <c r="CV36" s="51"/>
       <c r="CW36" s="51"/>
       <c r="CX36" s="51"/>
       <c r="CY36" s="53"/>
@@ -14705,7 +14813,7 @@
       <c r="CR37" s="51"/>
       <c r="CS37" s="51"/>
       <c r="CT37" s="51"/>
-      <c r="CU37" s="51"/>
+      <c r="CU37" s="81"/>
       <c r="CV37" s="51"/>
       <c r="CW37" s="51"/>
       <c r="CX37" s="51"/>
@@ -14832,7 +14940,7 @@
       <c r="CR38" s="51"/>
       <c r="CS38" s="51"/>
       <c r="CT38" s="51"/>
-      <c r="CU38" s="51"/>
+      <c r="CU38" s="81"/>
       <c r="CV38" s="51"/>
       <c r="CW38" s="51"/>
       <c r="CX38" s="51"/>
@@ -14957,7 +15065,7 @@
       <c r="CR39" s="51"/>
       <c r="CS39" s="51"/>
       <c r="CT39" s="51"/>
-      <c r="CU39" s="51"/>
+      <c r="CU39" s="81"/>
       <c r="CV39" s="51"/>
       <c r="CW39" s="51"/>
       <c r="CX39" s="51"/>
@@ -15084,7 +15192,7 @@
       <c r="CR40" s="51"/>
       <c r="CS40" s="51"/>
       <c r="CT40" s="51"/>
-      <c r="CU40" s="51"/>
+      <c r="CU40" s="81"/>
       <c r="CV40" s="51"/>
       <c r="CW40" s="51"/>
       <c r="CX40" s="51"/>
@@ -15211,7 +15319,7 @@
       <c r="CR41" s="51"/>
       <c r="CS41" s="51"/>
       <c r="CT41" s="51"/>
-      <c r="CU41" s="51"/>
+      <c r="CU41" s="81"/>
       <c r="CV41" s="51"/>
       <c r="CW41" s="51"/>
       <c r="CX41" s="51"/>
@@ -15341,7 +15449,7 @@
       <c r="CR42" s="51"/>
       <c r="CS42" s="51"/>
       <c r="CT42" s="51"/>
-      <c r="CU42" s="51"/>
+      <c r="CU42" s="81"/>
       <c r="CV42" s="51"/>
       <c r="CW42" s="51"/>
       <c r="CX42" s="51"/>
@@ -15489,26 +15597,26 @@
       <c r="CR43" s="51"/>
       <c r="CS43" s="51"/>
       <c r="CT43" s="51"/>
-      <c r="CU43" s="51"/>
+      <c r="CU43" s="81"/>
       <c r="CV43" s="51"/>
       <c r="CW43" s="51"/>
       <c r="CX43" s="51"/>
       <c r="CY43" s="53"/>
       <c r="CZ43" s="53"/>
       <c r="DA43" s="49">
-        <f t="shared" ref="DA43" si="73">SUM(BO43:BR43)</f>
+        <f t="shared" ref="DA43" si="66">SUM(BO43:BR43)</f>
         <v>296.40000000000003</v>
       </c>
       <c r="DB43" s="49">
-        <f t="shared" ref="DB43" si="74">SUM(BS43:BV43)</f>
+        <f t="shared" ref="DB43" si="67">SUM(BS43:BV43)</f>
         <v>188.9</v>
       </c>
       <c r="DC43" s="49">
-        <f t="shared" ref="DC43" si="75">SUM(BW43:BZ43)</f>
+        <f t="shared" ref="DC43" si="68">SUM(BW43:BZ43)</f>
         <v>0</v>
       </c>
       <c r="DD43" s="49">
-        <f t="shared" ref="DD43" si="76">SUM(CA43:CD43)</f>
+        <f t="shared" ref="DD43" si="69">SUM(CA43:CD43)</f>
         <v>0</v>
       </c>
     </row>
@@ -15626,7 +15734,7 @@
       <c r="CR44" s="51"/>
       <c r="CS44" s="51"/>
       <c r="CT44" s="51"/>
-      <c r="CU44" s="51"/>
+      <c r="CU44" s="81"/>
       <c r="CV44" s="51"/>
       <c r="CW44" s="51"/>
       <c r="CX44" s="51"/>
@@ -15758,7 +15866,7 @@
       <c r="CR45" s="51"/>
       <c r="CS45" s="51"/>
       <c r="CT45" s="51"/>
-      <c r="CU45" s="51"/>
+      <c r="CU45" s="81"/>
       <c r="CV45" s="51"/>
       <c r="CW45" s="51"/>
       <c r="CX45" s="51"/>
@@ -15885,7 +15993,7 @@
       <c r="CR46" s="51"/>
       <c r="CS46" s="51"/>
       <c r="CT46" s="51"/>
-      <c r="CU46" s="51"/>
+      <c r="CU46" s="81"/>
       <c r="CV46" s="51"/>
       <c r="CW46" s="51"/>
       <c r="CX46" s="51"/>
@@ -16044,7 +16152,7 @@
       <c r="CR47" s="51"/>
       <c r="CS47" s="51"/>
       <c r="CT47" s="51"/>
-      <c r="CU47" s="51"/>
+      <c r="CU47" s="81"/>
       <c r="CV47" s="51"/>
       <c r="CW47" s="51"/>
       <c r="CX47" s="51"/>
@@ -16189,7 +16297,7 @@
       <c r="CR48" s="51"/>
       <c r="CS48" s="51"/>
       <c r="CT48" s="51"/>
-      <c r="CU48" s="51"/>
+      <c r="CU48" s="81"/>
       <c r="CV48" s="51"/>
       <c r="CW48" s="51"/>
       <c r="CX48" s="51"/>
@@ -16310,23 +16418,23 @@
         <v>247</v>
       </c>
       <c r="AL49" s="51">
-        <f t="shared" ref="AL49:AP49" si="77">+AK49</f>
+        <f t="shared" ref="AL49:AP49" si="70">+AK49</f>
         <v>247</v>
       </c>
       <c r="AM49" s="51">
-        <f t="shared" si="77"/>
+        <f t="shared" si="70"/>
         <v>247</v>
       </c>
       <c r="AN49" s="51">
-        <f t="shared" si="77"/>
+        <f t="shared" si="70"/>
         <v>247</v>
       </c>
       <c r="AO49" s="51">
-        <f t="shared" si="77"/>
+        <f t="shared" si="70"/>
         <v>247</v>
       </c>
       <c r="AP49" s="51">
-        <f t="shared" si="77"/>
+        <f t="shared" si="70"/>
         <v>247</v>
       </c>
       <c r="AQ49" s="51"/>
@@ -16414,11 +16522,14 @@
         <v>1016.0999999999999</v>
       </c>
       <c r="CT49" s="51">
-        <f>CS49*0.5</f>
-        <v>508.04999999999995</v>
-      </c>
-      <c r="CU49" s="51"/>
-      <c r="CV49" s="51"/>
+        <v>1050.4000000000001</v>
+      </c>
+      <c r="CU49" s="81">
+        <v>419.8</v>
+      </c>
+      <c r="CV49" s="51">
+        <v>237.3</v>
+      </c>
       <c r="CW49" s="51"/>
       <c r="CX49" s="51"/>
       <c r="CY49" s="51"/>
@@ -16528,7 +16639,7 @@
       <c r="CR50" s="51"/>
       <c r="CS50" s="51"/>
       <c r="CT50" s="51"/>
-      <c r="CU50" s="51"/>
+      <c r="CU50" s="81"/>
       <c r="CV50" s="51"/>
       <c r="CW50" s="51"/>
       <c r="CX50" s="51"/>
@@ -16638,15 +16749,9 @@
       <c r="CQ51" s="52"/>
       <c r="CR51" s="52"/>
       <c r="CS51" s="52"/>
-      <c r="CT51" s="52">
-        <v>200</v>
-      </c>
-      <c r="CU51" s="52">
-        <v>250</v>
-      </c>
-      <c r="CV51" s="52">
-        <v>300</v>
-      </c>
+      <c r="CT51" s="52"/>
+      <c r="CU51" s="82"/>
+      <c r="CV51" s="52"/>
       <c r="CW51" s="52"/>
       <c r="CX51" s="52"/>
       <c r="CY51" s="52"/>
@@ -16774,7 +16879,7 @@
       <c r="CR52" s="51"/>
       <c r="CS52" s="51"/>
       <c r="CT52" s="51"/>
-      <c r="CU52" s="51"/>
+      <c r="CU52" s="81"/>
       <c r="CV52" s="51"/>
       <c r="CW52" s="51"/>
       <c r="CX52" s="51"/>
@@ -16899,7 +17004,7 @@
       <c r="CR53" s="51"/>
       <c r="CS53" s="51"/>
       <c r="CT53" s="51"/>
-      <c r="CU53" s="51"/>
+      <c r="CU53" s="81"/>
       <c r="CV53" s="51"/>
       <c r="CW53" s="51"/>
       <c r="CX53" s="51"/>
@@ -17035,6 +17140,10 @@
       <c r="CP54" s="51"/>
       <c r="CQ54" s="51"/>
       <c r="CR54" s="51"/>
+      <c r="CT54" s="51">
+        <v>707.5</v>
+      </c>
+      <c r="CU54" s="80"/>
       <c r="CY54" s="47"/>
       <c r="CZ54" s="47"/>
       <c r="DA54" s="49"/>
@@ -17050,247 +17159,247 @@
       <c r="D55" s="56"/>
       <c r="E55" s="56"/>
       <c r="F55" s="56">
-        <f t="shared" ref="F55:AK55" si="78">SUM(F6:F54)</f>
+        <f t="shared" ref="F55:AK55" si="71">SUM(F6:F54)</f>
         <v>3152.5080000000003</v>
       </c>
       <c r="G55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>2999.8366336633662</v>
       </c>
       <c r="H55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>3165.6</v>
       </c>
       <c r="I55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>3164.1333333333332</v>
       </c>
       <c r="J55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>3455.3000000000006</v>
       </c>
       <c r="K55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>3227.7000000000003</v>
       </c>
       <c r="L55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>3423</v>
       </c>
       <c r="M55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>3699.7</v>
       </c>
       <c r="N55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5680.6</v>
       </c>
       <c r="O55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>4236</v>
       </c>
       <c r="P55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>4193.8</v>
       </c>
       <c r="Q55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5899.2999999999993</v>
       </c>
       <c r="R55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>6665.7000000000007</v>
       </c>
       <c r="S55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>6241.8000000000011</v>
       </c>
       <c r="T55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>6703.4999999999991</v>
       </c>
       <c r="U55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>6796.9000000000005</v>
       </c>
       <c r="V55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5210.5</v>
       </c>
       <c r="W55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>4891.8</v>
       </c>
       <c r="X55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5113.5</v>
       </c>
       <c r="Y55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5562</v>
       </c>
       <c r="Z55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5934</v>
       </c>
       <c r="AA55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5485.5</v>
       </c>
       <c r="AB55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5748.7</v>
       </c>
       <c r="AC55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5654.8</v>
       </c>
       <c r="AD55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>6187.2000000000007</v>
       </c>
       <c r="AE55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5839.2</v>
       </c>
       <c r="AF55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>6252.7999999999984</v>
       </c>
       <c r="AG55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>6148.1</v>
       </c>
       <c r="AH55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>6047.3</v>
       </c>
       <c r="AI55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5602.4000000000005</v>
       </c>
       <c r="AJ55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5600.4999999999991</v>
       </c>
       <c r="AK55" s="56">
-        <f t="shared" si="78"/>
+        <f t="shared" si="71"/>
         <v>5442.5</v>
       </c>
       <c r="AL55" s="56">
-        <f t="shared" ref="AL55:BN55" si="79">SUM(AL6:AL54)</f>
+        <f t="shared" ref="AL55:BN55" si="72">SUM(AL6:AL54)</f>
         <v>5371.2</v>
       </c>
       <c r="AM55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>5526.2</v>
       </c>
       <c r="AN55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>5508.2</v>
       </c>
       <c r="AO55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>5482.5</v>
       </c>
       <c r="AP55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>5411.2</v>
       </c>
       <c r="AQ55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AR55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AS55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AT55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AU55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AV55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AW55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AX55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AY55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AZ55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BA55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BB55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BC55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BD55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BE55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BF55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BG55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BH55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BI55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BJ55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BK55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>5092.1000000000004</v>
       </c>
       <c r="BL55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>5636.7000000000007</v>
       </c>
       <c r="BM55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>5476.8</v>
       </c>
       <c r="BN55" s="56">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>6114.2999999999993</v>
       </c>
       <c r="BO55" s="56">
@@ -17334,27 +17443,27 @@
         <v>6487.9000000000015</v>
       </c>
       <c r="BY55" s="56">
-        <f t="shared" ref="BY55:CD55" si="80">SUM(BY3:BY29)</f>
+        <f t="shared" ref="BY55:CD55" si="73">SUM(BY3:BY29)</f>
         <v>6941.7000000000007</v>
       </c>
       <c r="BZ55" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="73"/>
         <v>7423.0809999999992</v>
       </c>
       <c r="CA55" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="73"/>
         <v>6924.2614999999996</v>
       </c>
       <c r="CB55" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="73"/>
         <v>7217.7583562499995</v>
       </c>
       <c r="CC55" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="73"/>
         <v>7420.7906304687504</v>
       </c>
       <c r="CD55" s="56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="73"/>
         <v>8227.3325866835949</v>
       </c>
       <c r="CE55" s="56"/>
@@ -17364,115 +17473,115 @@
         <v>11629</v>
       </c>
       <c r="CI55" s="56">
-        <f t="shared" ref="CI55:CV55" si="81">SUM(CI6:CI54)</f>
+        <f t="shared" ref="CI55:CV55" si="74">SUM(CI6:CI54)</f>
         <v>11077</v>
       </c>
       <c r="CJ55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>12585</v>
       </c>
       <c r="CK55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>13859</v>
       </c>
       <c r="CL55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>14650</v>
       </c>
       <c r="CM55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>15783.499999999998</v>
       </c>
       <c r="CN55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>18492.3</v>
       </c>
       <c r="CO55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>19604.942499999997</v>
       </c>
       <c r="CP55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>20974.425124999998</v>
       </c>
       <c r="CQ55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>21893.8</v>
       </c>
       <c r="CR55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>23877.3</v>
       </c>
       <c r="CS55" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="74"/>
         <v>22016.6</v>
       </c>
       <c r="CT55" s="56">
-        <f t="shared" si="81"/>
-        <v>21778.462</v>
+        <f t="shared" si="74"/>
+        <v>23113.100000000002</v>
       </c>
       <c r="CU55" s="56">
-        <f t="shared" si="81"/>
-        <v>18061.697930000002</v>
+        <f>SUM(CU3:CU54)</f>
+        <v>19615.599999999999</v>
       </c>
       <c r="CV55" s="56">
-        <f t="shared" si="81"/>
-        <v>6326.4320500000013</v>
+        <f>SUM(CV3:CV54)</f>
+        <v>19958.699999999997</v>
       </c>
       <c r="CW55" s="56">
-        <f t="shared" ref="CW55:DJ55" si="82">SUM(CW3:CW54)</f>
-        <v>0</v>
+        <f>SUM(CW3:CW54)</f>
+        <v>21222.100000000002</v>
       </c>
       <c r="CX55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="CW55:DJ55" si="75">SUM(CX3:CX54)</f>
         <v>19974.100000000002</v>
       </c>
       <c r="CY55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>21492.899999999998</v>
       </c>
       <c r="CZ55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>22319.4</v>
       </c>
       <c r="DA55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>24539.899999999998</v>
       </c>
       <c r="DB55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>28318.499999999996</v>
       </c>
       <c r="DC55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>28662.781000000003</v>
       </c>
       <c r="DD55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>29790.143073402345</v>
       </c>
       <c r="DE55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>33064.218650062117</v>
       </c>
       <c r="DF55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>35180.979513855898</v>
       </c>
       <c r="DG55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>37635.197860770313</v>
       </c>
       <c r="DH55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>38932.543362894066</v>
       </c>
       <c r="DI55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>42418.378272800626</v>
       </c>
       <c r="DJ55" s="56">
-        <f t="shared" si="82"/>
+        <f t="shared" si="75"/>
         <v>44908.003243319188</v>
       </c>
       <c r="DK55" s="56">
@@ -17592,15 +17701,15 @@
         <v>1197.9000000000001</v>
       </c>
       <c r="AN56" s="51">
-        <f t="shared" ref="AN56:AP56" si="83">+AJ56</f>
+        <f t="shared" ref="AN56:AP56" si="76">+AJ56</f>
         <v>1146.7</v>
       </c>
       <c r="AO56" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="76"/>
         <v>1203.5999999999999</v>
       </c>
       <c r="AP56" s="51">
-        <f t="shared" si="83"/>
+        <f t="shared" si="76"/>
         <v>1321.7</v>
       </c>
       <c r="AQ56" s="51"/>
@@ -17666,27 +17775,27 @@
         <v>1309.2</v>
       </c>
       <c r="BY56" s="51">
-        <f t="shared" ref="BY56:CD56" si="84">+BY55-BY57</f>
+        <f t="shared" ref="BY56:CD56" si="77">+BY55-BY57</f>
         <v>1457.7569999999996</v>
       </c>
       <c r="BZ56" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>1558.8470099999995</v>
       </c>
       <c r="CA56" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>1454.0949149999997</v>
       </c>
       <c r="CB56" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>1515.7292548124997</v>
       </c>
       <c r="CC56" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>1558.3660323984377</v>
       </c>
       <c r="CD56" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v>1727.7398432035543</v>
       </c>
       <c r="CE56" s="51"/>
@@ -17734,12 +17843,12 @@
         <v>4869.9000000000005</v>
       </c>
       <c r="CT56" s="51">
-        <f t="shared" ref="CT56:CU56" si="85">CT55-CT57</f>
-        <v>21778.462</v>
+        <f t="shared" ref="CT56:CU56" si="78">CT55-CT57</f>
+        <v>23113.100000000002</v>
       </c>
       <c r="CU56" s="51">
-        <f t="shared" si="85"/>
-        <v>18061.697930000002</v>
+        <f t="shared" si="78"/>
+        <v>19615.599999999999</v>
       </c>
       <c r="CV56" s="51"/>
       <c r="CW56" s="51"/>
@@ -17753,11 +17862,11 @@
         <v>4721.2</v>
       </c>
       <c r="DA56" s="49">
-        <f t="shared" ref="DA56" si="86">SUM(BO56:BR56)</f>
+        <f t="shared" ref="DA56" si="79">SUM(BO56:BR56)</f>
         <v>5195.3999999999996</v>
       </c>
       <c r="DB56" s="49">
-        <f t="shared" ref="DB56" si="87">SUM(BS56:BV56)</f>
+        <f t="shared" ref="DB56" si="80">SUM(BS56:BV56)</f>
         <v>6541.4</v>
       </c>
       <c r="DC56" s="49">
@@ -17773,27 +17882,27 @@
         <v>6943.4859165130438</v>
       </c>
       <c r="DF56" s="49">
-        <f t="shared" ref="DF56:DK56" si="88">DF55-DF57</f>
+        <f t="shared" ref="DF56:DK56" si="81">DF55-DF57</f>
         <v>7388.005697909739</v>
       </c>
       <c r="DG56" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>7903.3915507617639</v>
       </c>
       <c r="DH56" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>8175.8341062077525</v>
       </c>
       <c r="DI56" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>8907.8594372881271</v>
       </c>
       <c r="DJ56" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>9430.6806810970302</v>
       </c>
       <c r="DK56" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>7703.83385354036</v>
       </c>
     </row>
@@ -17805,99 +17914,99 @@
       <c r="D57" s="51"/>
       <c r="E57" s="51"/>
       <c r="F57" s="51">
-        <f t="shared" ref="F57:N57" si="89">F55-F56</f>
+        <f t="shared" ref="F57:N57" si="82">F55-F56</f>
         <v>2286.808</v>
       </c>
       <c r="G57" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>2140.8366336633662</v>
       </c>
       <c r="H57" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>2294.3000000000002</v>
       </c>
       <c r="I57" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>2318.4333333333334</v>
       </c>
       <c r="J57" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>2557.1000000000004</v>
       </c>
       <c r="K57" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>2421.2000000000003</v>
       </c>
       <c r="L57" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>2562</v>
       </c>
       <c r="M57" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>2793.5</v>
       </c>
       <c r="N57" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>4613.9000000000005</v>
       </c>
       <c r="O57" s="51">
-        <f t="shared" ref="O57:W57" si="90">O55-O56</f>
+        <f t="shared" ref="O57:W57" si="83">O55-O56</f>
         <v>3313.5</v>
       </c>
       <c r="P57" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>3194.9</v>
       </c>
       <c r="Q57" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>4844.6999999999989</v>
       </c>
       <c r="R57" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>5392.9000000000005</v>
       </c>
       <c r="S57" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>5130.5000000000009</v>
       </c>
       <c r="T57" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>5502.5999999999985</v>
       </c>
       <c r="U57" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>5641.7000000000007</v>
       </c>
       <c r="V57" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>4310.8999999999996</v>
       </c>
       <c r="W57" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>4075.4</v>
       </c>
       <c r="X57" s="51">
-        <f t="shared" ref="X57:AC57" si="91">X55-X56</f>
+        <f t="shared" ref="X57:AC57" si="84">X55-X56</f>
         <v>4166.1000000000004</v>
       </c>
       <c r="Y57" s="51">
-        <f t="shared" si="91"/>
+        <f t="shared" si="84"/>
         <v>4510.1000000000004</v>
       </c>
       <c r="Z57" s="51">
-        <f t="shared" si="91"/>
+        <f t="shared" si="84"/>
         <v>4502.7</v>
       </c>
       <c r="AA57" s="51">
-        <f t="shared" si="91"/>
+        <f t="shared" si="84"/>
         <v>4363</v>
       </c>
       <c r="AB57" s="51">
-        <f t="shared" si="91"/>
+        <f t="shared" si="84"/>
         <v>4724.8</v>
       </c>
       <c r="AC57" s="51">
-        <f t="shared" si="91"/>
+        <f t="shared" si="84"/>
         <v>4667.2</v>
       </c>
       <c r="AD57" s="51">
@@ -17937,19 +18046,19 @@
         <v>4049.5</v>
       </c>
       <c r="AM57" s="51">
-        <f t="shared" ref="AM57:AP57" si="92">+AM55-AM56</f>
+        <f t="shared" ref="AM57:AP57" si="85">+AM55-AM56</f>
         <v>4328.2999999999993</v>
       </c>
       <c r="AN57" s="51">
-        <f t="shared" si="92"/>
+        <f t="shared" si="85"/>
         <v>4361.5</v>
       </c>
       <c r="AO57" s="51">
-        <f t="shared" si="92"/>
+        <f t="shared" si="85"/>
         <v>4278.8999999999996</v>
       </c>
       <c r="AP57" s="51">
-        <f t="shared" si="92"/>
+        <f t="shared" si="85"/>
         <v>4089.5</v>
       </c>
       <c r="AQ57" s="51"/>
@@ -17973,55 +18082,55 @@
       <c r="BI57" s="51"/>
       <c r="BJ57" s="51"/>
       <c r="BK57" s="51">
-        <f t="shared" ref="BK57:BW57" si="93">BK55-BK56</f>
+        <f t="shared" ref="BK57:BW57" si="86">BK55-BK56</f>
         <v>4081.6000000000004</v>
       </c>
       <c r="BL57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>4563.4000000000005</v>
       </c>
       <c r="BM57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>4358.3999999999996</v>
       </c>
       <c r="BN57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>4884.8999999999996</v>
       </c>
       <c r="BO57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>4703.2999999999975</v>
       </c>
       <c r="BP57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>4380.1999999999989</v>
       </c>
       <c r="BQ57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>4540.6999999999989</v>
       </c>
       <c r="BR57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>5720.2999999999993</v>
       </c>
       <c r="BS57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>5134.2000000000007</v>
       </c>
       <c r="BT57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>5341.9999999999973</v>
       </c>
       <c r="BU57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>5351.199999999998</v>
       </c>
       <c r="BV57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>5949.7</v>
       </c>
       <c r="BW57" s="51">
-        <f t="shared" si="93"/>
+        <f t="shared" si="86"/>
         <v>5942.5999999999995</v>
       </c>
       <c r="BX57" s="51">
@@ -18029,53 +18138,53 @@
         <v>5178.7000000000016</v>
       </c>
       <c r="BY57" s="51">
-        <f t="shared" ref="BY57:CD57" si="94">+BY55*0.79</f>
+        <f t="shared" ref="BY57:CD57" si="87">+BY55*0.79</f>
         <v>5483.9430000000011</v>
       </c>
       <c r="BZ57" s="51">
-        <f t="shared" si="94"/>
+        <f t="shared" si="87"/>
         <v>5864.2339899999997</v>
       </c>
       <c r="CA57" s="51">
-        <f t="shared" si="94"/>
+        <f t="shared" si="87"/>
         <v>5470.1665849999999</v>
       </c>
       <c r="CB57" s="51">
-        <f t="shared" si="94"/>
+        <f t="shared" si="87"/>
         <v>5702.0291014374998</v>
       </c>
       <c r="CC57" s="51">
-        <f t="shared" si="94"/>
+        <f t="shared" si="87"/>
         <v>5862.4245980703126</v>
       </c>
       <c r="CD57" s="51">
-        <f t="shared" si="94"/>
+        <f t="shared" si="87"/>
         <v>6499.5927434800406</v>
       </c>
       <c r="CE57" s="51"/>
       <c r="CF57" s="51"/>
       <c r="CH57" s="51">
-        <f t="shared" ref="CH57:CM57" si="95">CH55-CH56</f>
+        <f t="shared" ref="CH57:CM57" si="88">CH55-CH56</f>
         <v>9469</v>
       </c>
       <c r="CI57" s="51">
-        <f t="shared" si="95"/>
+        <f t="shared" si="88"/>
         <v>8900</v>
       </c>
       <c r="CJ57" s="51">
-        <f t="shared" si="95"/>
+        <f t="shared" si="88"/>
         <v>9910</v>
       </c>
       <c r="CK57" s="51">
-        <f t="shared" si="95"/>
+        <f t="shared" si="88"/>
         <v>10635</v>
       </c>
       <c r="CL57" s="51">
-        <f t="shared" si="95"/>
+        <f t="shared" si="88"/>
         <v>11176</v>
       </c>
       <c r="CM57" s="51">
-        <f t="shared" si="95"/>
+        <f t="shared" si="88"/>
         <v>12282.499999999998</v>
       </c>
       <c r="CN57" s="51">
@@ -18103,21 +18212,21 @@
         <v>17146.699999999997</v>
       </c>
       <c r="CT57" s="51">
-        <f t="shared" ref="CT57:CU57" si="96">CT55*CT76</f>
+        <f t="shared" ref="CT57:CU57" si="89">CT55*CT76</f>
         <v>0</v>
       </c>
       <c r="CU57" s="51">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="CV57" s="51"/>
       <c r="CW57" s="51"/>
       <c r="CX57" s="51">
-        <f t="shared" ref="CX57:CY57" si="97">+CX55-CX56</f>
+        <f t="shared" ref="CX57:CY57" si="90">+CX55-CX56</f>
         <v>15526.400000000001</v>
       </c>
       <c r="CY57" s="51">
-        <f t="shared" si="97"/>
+        <f t="shared" si="90"/>
         <v>16811.199999999997</v>
       </c>
       <c r="CZ57" s="51">
@@ -18129,7 +18238,7 @@
         <v>19344.5</v>
       </c>
       <c r="DB57" s="51">
-        <f t="shared" ref="DB57" si="98">+DB55-DB56</f>
+        <f t="shared" ref="DB57" si="91">+DB55-DB56</f>
         <v>21777.1</v>
       </c>
       <c r="DC57" s="51">
@@ -18145,27 +18254,27 @@
         <v>26120.732733549074</v>
       </c>
       <c r="DF57" s="51">
-        <f t="shared" ref="DF57:DK57" si="99">DF55*0.79</f>
+        <f t="shared" ref="DF57:DK57" si="92">DF55*0.79</f>
         <v>27792.973815946159</v>
       </c>
       <c r="DG57" s="51">
-        <f t="shared" si="99"/>
+        <f t="shared" si="92"/>
         <v>29731.806310008549</v>
       </c>
       <c r="DH57" s="51">
-        <f t="shared" si="99"/>
+        <f t="shared" si="92"/>
         <v>30756.709256686314</v>
       </c>
       <c r="DI57" s="51">
-        <f t="shared" si="99"/>
+        <f t="shared" si="92"/>
         <v>33510.518835512499</v>
       </c>
       <c r="DJ57" s="51">
-        <f t="shared" si="99"/>
+        <f t="shared" si="92"/>
         <v>35477.322562222158</v>
       </c>
       <c r="DK57" s="51">
-        <f t="shared" si="99"/>
+        <f t="shared" si="92"/>
         <v>28981.089258556603</v>
       </c>
     </row>
@@ -18281,15 +18390,15 @@
         <v>1847.5</v>
       </c>
       <c r="AN58" s="51">
-        <f t="shared" ref="AN58:AN59" si="100">+AJ58</f>
+        <f t="shared" ref="AN58:AN59" si="93">+AJ58</f>
         <v>1931.1</v>
       </c>
       <c r="AO58" s="51">
-        <f t="shared" ref="AO58:AO59" si="101">+AK58</f>
+        <f t="shared" ref="AO58:AO59" si="94">+AK58</f>
         <v>1757.4</v>
       </c>
       <c r="AP58" s="51">
-        <f t="shared" ref="AP58:AP59" si="102">+AL58</f>
+        <f t="shared" ref="AP58:AP59" si="95">+AL58</f>
         <v>1933.4</v>
       </c>
       <c r="AQ58" s="51"/>
@@ -18355,27 +18464,27 @@
         <v>1781.9</v>
       </c>
       <c r="BY58" s="51">
-        <f t="shared" ref="BY58:BY59" si="103">+BU58</f>
+        <f t="shared" ref="BY58:BY59" si="96">+BU58</f>
         <v>1577.9</v>
       </c>
       <c r="BZ58" s="51">
-        <f t="shared" ref="BZ58:BZ59" si="104">+BV58</f>
+        <f t="shared" ref="BZ58:BZ59" si="97">+BV58</f>
         <v>1592</v>
       </c>
       <c r="CA58" s="51">
-        <f t="shared" ref="CA58:CA59" si="105">+BW58</f>
+        <f t="shared" ref="CA58:CA59" si="98">+BW58</f>
         <v>1557.9</v>
       </c>
       <c r="CB58" s="51">
-        <f t="shared" ref="CB58:CB59" si="106">+BX58</f>
+        <f t="shared" ref="CB58:CB59" si="99">+BX58</f>
         <v>1781.9</v>
       </c>
       <c r="CC58" s="51">
-        <f t="shared" ref="CC58:CC59" si="107">+BY58</f>
+        <f t="shared" ref="CC58:CC59" si="100">+BY58</f>
         <v>1577.9</v>
       </c>
       <c r="CD58" s="51">
-        <f t="shared" ref="CD58:CD59" si="108">+BZ58</f>
+        <f t="shared" ref="CD58:CD59" si="101">+BZ58</f>
         <v>1592</v>
       </c>
       <c r="CE58" s="51"/>
@@ -18415,11 +18524,11 @@
         <v>7053.4000000000005</v>
       </c>
       <c r="CR58" s="51">
-        <f t="shared" ref="CR58:CR59" si="109">SUM(AE58:AH58)</f>
+        <f t="shared" ref="CR58:CR59" si="102">SUM(AE58:AH58)</f>
         <v>7879.9</v>
       </c>
       <c r="CS58" s="51">
-        <f t="shared" ref="CS58" si="110">SUM(AI58:AL58)</f>
+        <f t="shared" ref="CS58" si="103">SUM(AI58:AL58)</f>
         <v>7469.4</v>
       </c>
       <c r="CT58" s="51">
@@ -18442,19 +18551,19 @@
         <v>6213.8</v>
       </c>
       <c r="DA58" s="49">
-        <f t="shared" ref="DA58:DA59" si="111">SUM(BO58:BR58)</f>
+        <f t="shared" ref="DA58:DA59" si="104">SUM(BO58:BR58)</f>
         <v>6121.1999999999989</v>
       </c>
       <c r="DB58" s="49">
-        <f t="shared" ref="DB58:DB59" si="112">SUM(BS58:BV58)</f>
+        <f t="shared" ref="DB58:DB59" si="105">SUM(BS58:BV58)</f>
         <v>6431.6</v>
       </c>
       <c r="DC58" s="49">
-        <f t="shared" ref="DC58:DC59" si="113">SUM(BW58:BZ58)</f>
+        <f t="shared" ref="DC58:DC59" si="106">SUM(BW58:BZ58)</f>
         <v>6509.7000000000007</v>
       </c>
       <c r="DD58" s="49">
-        <f t="shared" ref="DD58:DD59" si="114">SUM(CA58:CD58)</f>
+        <f t="shared" ref="DD58:DD59" si="107">SUM(CA58:CD58)</f>
         <v>6509.7000000000007</v>
       </c>
       <c r="DE58" s="49">
@@ -18462,27 +18571,27 @@
         <v>8266.0546625155293</v>
       </c>
       <c r="DF58" s="49">
-        <f t="shared" ref="DF58:DK58" si="115">+DF55*0.25</f>
+        <f t="shared" ref="DF58:DK58" si="108">+DF55*0.25</f>
         <v>8795.2448784639746</v>
       </c>
       <c r="DG58" s="49">
-        <f t="shared" si="115"/>
+        <f t="shared" si="108"/>
         <v>9408.7994651925783</v>
       </c>
       <c r="DH58" s="49">
-        <f t="shared" si="115"/>
+        <f t="shared" si="108"/>
         <v>9733.1358407235166</v>
       </c>
       <c r="DI58" s="49">
-        <f t="shared" si="115"/>
+        <f t="shared" si="108"/>
         <v>10604.594568200157</v>
       </c>
       <c r="DJ58" s="49">
-        <f t="shared" si="115"/>
+        <f t="shared" si="108"/>
         <v>11227.000810829797</v>
       </c>
       <c r="DK58" s="49">
-        <f t="shared" si="115"/>
+        <f t="shared" si="108"/>
         <v>9171.2307780242409</v>
       </c>
     </row>
@@ -18594,19 +18703,19 @@
         <v>1305.3</v>
       </c>
       <c r="AM59" s="51">
-        <f t="shared" ref="AM59" si="116">+AI59</f>
+        <f t="shared" ref="AM59" si="109">+AI59</f>
         <v>1151.5</v>
       </c>
       <c r="AN59" s="51">
-        <f t="shared" si="100"/>
+        <f t="shared" si="93"/>
         <v>1320.7</v>
       </c>
       <c r="AO59" s="51">
-        <f t="shared" si="101"/>
+        <f t="shared" si="94"/>
         <v>1342.8</v>
       </c>
       <c r="AP59" s="51">
-        <f t="shared" si="102"/>
+        <f t="shared" si="95"/>
         <v>1305.3</v>
       </c>
       <c r="AQ59" s="51"/>
@@ -18672,27 +18781,27 @@
         <v>1625.1</v>
       </c>
       <c r="BY59" s="51">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>1708.9</v>
       </c>
       <c r="BZ59" s="51">
-        <f t="shared" si="104"/>
+        <f t="shared" si="97"/>
         <v>1959.4</v>
       </c>
       <c r="CA59" s="51">
-        <f t="shared" si="105"/>
+        <f t="shared" si="98"/>
         <v>1610.1</v>
       </c>
       <c r="CB59" s="51">
-        <f t="shared" si="106"/>
+        <f t="shared" si="99"/>
         <v>1625.1</v>
       </c>
       <c r="CC59" s="51">
-        <f t="shared" si="107"/>
+        <f t="shared" si="100"/>
         <v>1708.9</v>
       </c>
       <c r="CD59" s="51">
-        <f t="shared" si="108"/>
+        <f t="shared" si="101"/>
         <v>1959.4</v>
       </c>
       <c r="CE59" s="51"/>
@@ -18732,7 +18841,7 @@
         <v>4884.2000000000007</v>
       </c>
       <c r="CR59" s="51">
-        <f t="shared" si="109"/>
+        <f t="shared" si="102"/>
         <v>5020.8</v>
       </c>
       <c r="CS59" s="51">
@@ -18753,19 +18862,19 @@
         <v>5595</v>
       </c>
       <c r="DA59" s="49">
-        <f t="shared" si="111"/>
+        <f t="shared" si="104"/>
         <v>6085.7000000000007</v>
       </c>
       <c r="DB59" s="49">
-        <f t="shared" si="112"/>
+        <f t="shared" si="105"/>
         <v>7013.1999999999989</v>
       </c>
       <c r="DC59" s="49">
-        <f t="shared" si="113"/>
+        <f t="shared" si="106"/>
         <v>6903.5</v>
       </c>
       <c r="DD59" s="49">
-        <f t="shared" si="114"/>
+        <f t="shared" si="107"/>
         <v>6903.5</v>
       </c>
       <c r="DE59" s="49"/>
@@ -18800,39 +18909,39 @@
       <c r="T60" s="51"/>
       <c r="U60" s="51"/>
       <c r="V60" s="51">
-        <f t="shared" ref="V60:AA60" si="117">V59+V58</f>
+        <f t="shared" ref="V60:AA60" si="110">V59+V58</f>
         <v>2754.7</v>
       </c>
       <c r="W60" s="51">
-        <f t="shared" si="117"/>
+        <f t="shared" si="110"/>
         <v>2476.5</v>
       </c>
       <c r="X60" s="51">
-        <f t="shared" si="117"/>
+        <f t="shared" si="110"/>
         <v>2748.6000000000004</v>
       </c>
       <c r="Y60" s="51">
-        <f t="shared" si="117"/>
+        <f t="shared" si="110"/>
         <v>2823.8999999999996</v>
       </c>
       <c r="Z60" s="51">
-        <f t="shared" si="117"/>
+        <f t="shared" si="110"/>
         <v>3170</v>
       </c>
       <c r="AA60" s="51">
-        <f t="shared" si="117"/>
+        <f t="shared" si="110"/>
         <v>2653.5</v>
       </c>
       <c r="AB60" s="51">
-        <f t="shared" ref="AB60:AD60" si="118">AB59+AB58</f>
+        <f t="shared" ref="AB60:AD60" si="111">AB59+AB58</f>
         <v>2942.6000000000004</v>
       </c>
       <c r="AC60" s="51">
-        <f t="shared" si="118"/>
+        <f t="shared" si="111"/>
         <v>2914.7</v>
       </c>
       <c r="AD60" s="51">
-        <f t="shared" si="118"/>
+        <f t="shared" si="111"/>
         <v>3426.8</v>
       </c>
       <c r="AE60" s="51">
@@ -18868,19 +18977,19 @@
         <v>3238.7</v>
       </c>
       <c r="AM60" s="51">
-        <f t="shared" ref="AM60:AP60" si="119">+AM59+AM58</f>
+        <f t="shared" ref="AM60:AP60" si="112">+AM59+AM58</f>
         <v>2999</v>
       </c>
       <c r="AN60" s="51">
-        <f t="shared" si="119"/>
+        <f t="shared" si="112"/>
         <v>3251.8</v>
       </c>
       <c r="AO60" s="51">
-        <f t="shared" si="119"/>
+        <f t="shared" si="112"/>
         <v>3100.2</v>
       </c>
       <c r="AP60" s="51">
-        <f t="shared" si="119"/>
+        <f t="shared" si="112"/>
         <v>3238.7</v>
       </c>
       <c r="AQ60" s="51"/>
@@ -18904,113 +19013,113 @@
       <c r="BI60" s="51"/>
       <c r="BJ60" s="51"/>
       <c r="BK60" s="51">
-        <f t="shared" ref="BK60:BW60" si="120">SUM(BK58:BK59)</f>
+        <f t="shared" ref="BK60:BW60" si="113">SUM(BK58:BK59)</f>
         <v>2747.6</v>
       </c>
       <c r="BL60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>2988.5</v>
       </c>
       <c r="BM60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>2793.2</v>
       </c>
       <c r="BN60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>3279.5</v>
       </c>
       <c r="BO60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>2941.7</v>
       </c>
       <c r="BP60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>2838.8</v>
       </c>
       <c r="BQ60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>3034.5</v>
       </c>
       <c r="BR60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>3391.9</v>
       </c>
       <c r="BS60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>3248.1</v>
       </c>
       <c r="BT60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>3358.5</v>
       </c>
       <c r="BU60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>3286.8</v>
       </c>
       <c r="BV60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>3551.4</v>
       </c>
       <c r="BW60" s="51">
-        <f t="shared" si="120"/>
+        <f t="shared" si="113"/>
         <v>3168</v>
       </c>
       <c r="BX60" s="51">
-        <f t="shared" ref="BX60:CD60" si="121">SUM(BX58:BX59)</f>
+        <f t="shared" ref="BX60:CD60" si="114">SUM(BX58:BX59)</f>
         <v>3407</v>
       </c>
       <c r="BY60" s="51">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>3286.8</v>
       </c>
       <c r="BZ60" s="51">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>3551.4</v>
       </c>
       <c r="CA60" s="51">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>3168</v>
       </c>
       <c r="CB60" s="51">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>3407</v>
       </c>
       <c r="CC60" s="51">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>3286.8</v>
       </c>
       <c r="CD60" s="51">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>3551.4</v>
       </c>
       <c r="CE60" s="51"/>
       <c r="CF60" s="51"/>
       <c r="CH60" s="51">
-        <f t="shared" ref="CH60:CN60" si="122">CH59+CH58</f>
+        <f t="shared" ref="CH60:CN60" si="115">CH59+CH58</f>
         <v>5652</v>
       </c>
       <c r="CI60" s="51">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>5573</v>
       </c>
       <c r="CJ60" s="51">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>6405</v>
       </c>
       <c r="CK60" s="51">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>6975</v>
       </c>
       <c r="CL60" s="51">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>7523</v>
       </c>
       <c r="CM60" s="51">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>7882</v>
       </c>
       <c r="CN60" s="51">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>8087.16</v>
       </c>
       <c r="CO60" s="51">
@@ -19018,7 +19127,7 @@
         <v>10436.099999999999</v>
       </c>
       <c r="CP60" s="51">
-        <f t="shared" ref="CP60:CV60" si="123">CP59+CP58</f>
+        <f t="shared" ref="CP60:CV60" si="116">CP59+CP58</f>
         <v>11219</v>
       </c>
       <c r="CQ60" s="51">
@@ -19034,15 +19143,15 @@
         <v>12589.7</v>
       </c>
       <c r="CT60" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>7095.9299999999994</v>
       </c>
       <c r="CU60" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>5676.7439999999997</v>
       </c>
       <c r="CV60" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="CW60" s="51"/>
@@ -19051,11 +19160,11 @@
         <v>11078.599999999999</v>
       </c>
       <c r="CY60" s="51">
-        <f t="shared" ref="CY60:CZ60" si="124">CY59+CY58</f>
+        <f t="shared" ref="CY60:CZ60" si="117">CY59+CY58</f>
         <v>11026.3</v>
       </c>
       <c r="CZ60" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>11808.8</v>
       </c>
       <c r="DA60" s="51">
@@ -19063,43 +19172,43 @@
         <v>12206.9</v>
       </c>
       <c r="DB60" s="51">
-        <f t="shared" ref="DB60:DD60" si="125">DB59+DB58</f>
+        <f t="shared" ref="DB60:DD60" si="118">DB59+DB58</f>
         <v>13444.8</v>
       </c>
       <c r="DC60" s="51">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>13413.2</v>
       </c>
       <c r="DD60" s="51">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>13413.2</v>
       </c>
       <c r="DE60" s="51">
-        <f t="shared" ref="DE60" si="126">DE59+DE58</f>
+        <f t="shared" ref="DE60" si="119">DE59+DE58</f>
         <v>8266.0546625155293</v>
       </c>
       <c r="DF60" s="51">
-        <f t="shared" ref="DF60" si="127">DF59+DF58</f>
+        <f t="shared" ref="DF60" si="120">DF59+DF58</f>
         <v>8795.2448784639746</v>
       </c>
       <c r="DG60" s="51">
-        <f t="shared" ref="DG60" si="128">DG59+DG58</f>
+        <f t="shared" ref="DG60" si="121">DG59+DG58</f>
         <v>9408.7994651925783</v>
       </c>
       <c r="DH60" s="51">
-        <f t="shared" ref="DH60" si="129">DH59+DH58</f>
+        <f t="shared" ref="DH60" si="122">DH59+DH58</f>
         <v>9733.1358407235166</v>
       </c>
       <c r="DI60" s="51">
-        <f t="shared" ref="DI60" si="130">DI59+DI58</f>
+        <f t="shared" ref="DI60" si="123">DI59+DI58</f>
         <v>10604.594568200157</v>
       </c>
       <c r="DJ60" s="51">
-        <f t="shared" ref="DJ60" si="131">DJ59+DJ58</f>
+        <f t="shared" ref="DJ60" si="124">DJ59+DJ58</f>
         <v>11227.000810829797</v>
       </c>
       <c r="DK60" s="51">
-        <f t="shared" ref="DK60" si="132">DK59+DK58</f>
+        <f t="shared" ref="DK60" si="125">DK59+DK58</f>
         <v>9171.2307780242409</v>
       </c>
     </row>
@@ -19111,103 +19220,103 @@
       <c r="D61" s="51"/>
       <c r="E61" s="51"/>
       <c r="F61" s="51">
-        <f t="shared" ref="F61:O61" si="133">F57-F58-F59</f>
+        <f t="shared" ref="F61:O61" si="126">F57-F58-F59</f>
         <v>482.80799999999999</v>
       </c>
       <c r="G61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>348.83663366336623</v>
       </c>
       <c r="H61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>385.8000000000003</v>
       </c>
       <c r="I61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>496.5333333333333</v>
       </c>
       <c r="J61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>557.10000000000036</v>
       </c>
       <c r="K61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>537.20000000000027</v>
       </c>
       <c r="L61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>549</v>
       </c>
       <c r="M61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>702.40000000000009</v>
       </c>
       <c r="N61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>2301.8000000000006</v>
       </c>
       <c r="O61" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>1142.5</v>
       </c>
       <c r="P61" s="51">
-        <f t="shared" ref="P61:U61" si="134">P57-P58-P59</f>
+        <f t="shared" ref="P61:U61" si="127">P57-P58-P59</f>
         <v>815.80000000000007</v>
       </c>
       <c r="Q61" s="51">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>2522.3999999999987</v>
       </c>
       <c r="R61" s="51">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>2683.5000000000005</v>
       </c>
       <c r="S61" s="51">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>2702.900000000001</v>
       </c>
       <c r="T61" s="51">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>2850.9999999999986</v>
       </c>
       <c r="U61" s="51">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>3039.5000000000009</v>
       </c>
       <c r="V61" s="51">
-        <f t="shared" ref="V61:AA61" si="135">V57-V60</f>
+        <f t="shared" ref="V61:AA61" si="128">V57-V60</f>
         <v>1556.1999999999998</v>
       </c>
       <c r="W61" s="51">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>1598.9</v>
       </c>
       <c r="X61" s="51">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>1417.5</v>
       </c>
       <c r="Y61" s="51">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>1686.2000000000007</v>
       </c>
       <c r="Z61" s="51">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>1332.6999999999998</v>
       </c>
       <c r="AA61" s="51">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>1709.5</v>
       </c>
       <c r="AB61" s="51">
-        <f t="shared" ref="AB61:AD61" si="136">AB57-AB60</f>
+        <f t="shared" ref="AB61:AD61" si="129">AB57-AB60</f>
         <v>1782.1999999999998</v>
       </c>
       <c r="AC61" s="51">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>1752.5</v>
       </c>
       <c r="AD61" s="51">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>1528.2000000000007</v>
       </c>
       <c r="AE61" s="51">
@@ -19243,19 +19352,19 @@
         <v>810.80000000000018</v>
       </c>
       <c r="AM61" s="51">
-        <f t="shared" ref="AM61:AP61" si="137">+AM57-AM60</f>
+        <f t="shared" ref="AM61:AP61" si="130">+AM57-AM60</f>
         <v>1329.2999999999993</v>
       </c>
       <c r="AN61" s="51">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>1109.6999999999998</v>
       </c>
       <c r="AO61" s="51">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>1178.6999999999998</v>
       </c>
       <c r="AP61" s="51">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>850.80000000000018</v>
       </c>
       <c r="AQ61" s="51"/>
@@ -19279,113 +19388,113 @@
       <c r="BI61" s="51"/>
       <c r="BJ61" s="51"/>
       <c r="BK61" s="51">
-        <f t="shared" ref="BK61:BW61" si="138">BK57-BK60</f>
+        <f t="shared" ref="BK61:BW61" si="131">BK57-BK60</f>
         <v>1334.0000000000005</v>
       </c>
       <c r="BL61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1574.9000000000005</v>
       </c>
       <c r="BM61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1565.1999999999998</v>
       </c>
       <c r="BN61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1605.3999999999996</v>
       </c>
       <c r="BO61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1761.5999999999976</v>
       </c>
       <c r="BP61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1541.3999999999987</v>
       </c>
       <c r="BQ61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1506.1999999999989</v>
       </c>
       <c r="BR61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>2328.3999999999992</v>
       </c>
       <c r="BS61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1886.1000000000008</v>
       </c>
       <c r="BT61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1983.4999999999973</v>
       </c>
       <c r="BU61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>2064.3999999999978</v>
       </c>
       <c r="BV61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>2398.2999999999997</v>
       </c>
       <c r="BW61" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>2774.5999999999995</v>
       </c>
       <c r="BX61" s="51">
-        <f t="shared" ref="BX61:CD61" si="139">BX57-BX60</f>
+        <f t="shared" ref="BX61:CD61" si="132">BX57-BX60</f>
         <v>1771.7000000000016</v>
       </c>
       <c r="BY61" s="51">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>2197.1430000000009</v>
       </c>
       <c r="BZ61" s="51">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>2312.8339899999996</v>
       </c>
       <c r="CA61" s="51">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>2302.1665849999999</v>
       </c>
       <c r="CB61" s="51">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>2295.0291014374998</v>
       </c>
       <c r="CC61" s="51">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>2575.6245980703125</v>
       </c>
       <c r="CD61" s="51">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>2948.1927434800405</v>
       </c>
       <c r="CE61" s="51"/>
       <c r="CF61" s="51"/>
       <c r="CH61" s="51">
-        <f t="shared" ref="CH61:CP61" si="140">CH57-CH58-CH59</f>
+        <f t="shared" ref="CH61:CP61" si="133">CH57-CH58-CH59</f>
         <v>3817</v>
       </c>
       <c r="CI61" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>3327</v>
       </c>
       <c r="CJ61" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>3505</v>
       </c>
       <c r="CK61" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>3660</v>
       </c>
       <c r="CL61" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>3653</v>
       </c>
       <c r="CM61" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>4400.4999999999982</v>
       </c>
       <c r="CN61" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>6336.8340000000007</v>
       </c>
       <c r="CO61" s="51">
@@ -19393,7 +19502,7 @@
         <v>10149.599999999999</v>
       </c>
       <c r="CP61" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>6035.2999999999993</v>
       </c>
       <c r="CQ61" s="51">
@@ -19409,28 +19518,28 @@
         <v>4556.9999999999973</v>
       </c>
       <c r="CT61" s="51">
-        <f t="shared" ref="CT61:CV61" si="141">CT57-CT58-CT59</f>
+        <f t="shared" ref="CT61:CV61" si="134">CT57-CT58-CT59</f>
         <v>-7095.9299999999994</v>
       </c>
       <c r="CU61" s="51">
-        <f t="shared" si="141"/>
+        <f t="shared" si="134"/>
         <v>-5676.7439999999997</v>
       </c>
       <c r="CV61" s="51">
-        <f t="shared" si="141"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="CW61" s="51"/>
       <c r="CX61" s="51">
-        <f t="shared" ref="CX61:CZ61" si="142">+CX57-CX60</f>
+        <f t="shared" ref="CX61:CZ61" si="135">+CX57-CX60</f>
         <v>4447.8000000000029</v>
       </c>
       <c r="CY61" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="135"/>
         <v>5784.8999999999978</v>
       </c>
       <c r="CZ61" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="135"/>
         <v>5789.4000000000015</v>
       </c>
       <c r="DA61" s="51">
@@ -19442,39 +19551,39 @@
         <v>8332.2999999999993</v>
       </c>
       <c r="DC61" s="51">
-        <f t="shared" ref="DC61:DD61" si="143">+DC57-DC60</f>
+        <f t="shared" ref="DC61:DD61" si="136">+DC57-DC60</f>
         <v>9056.2769900000021</v>
       </c>
       <c r="DD61" s="51">
-        <f t="shared" si="143"/>
+        <f t="shared" si="136"/>
         <v>10121.013027987854</v>
       </c>
       <c r="DE61" s="51">
-        <f t="shared" ref="DE61" si="144">+DE57-DE60</f>
+        <f t="shared" ref="DE61" si="137">+DE57-DE60</f>
         <v>17854.678071033544</v>
       </c>
       <c r="DF61" s="51">
-        <f t="shared" ref="DF61" si="145">+DF57-DF60</f>
+        <f t="shared" ref="DF61" si="138">+DF57-DF60</f>
         <v>18997.728937482185</v>
       </c>
       <c r="DG61" s="51">
-        <f t="shared" ref="DG61" si="146">+DG57-DG60</f>
+        <f t="shared" ref="DG61" si="139">+DG57-DG60</f>
         <v>20323.006844815973</v>
       </c>
       <c r="DH61" s="51">
-        <f t="shared" ref="DH61" si="147">+DH57-DH60</f>
+        <f t="shared" ref="DH61" si="140">+DH57-DH60</f>
         <v>21023.573415962797</v>
       </c>
       <c r="DI61" s="51">
-        <f t="shared" ref="DI61" si="148">+DI57-DI60</f>
+        <f t="shared" ref="DI61" si="141">+DI57-DI60</f>
         <v>22905.924267312344</v>
       </c>
       <c r="DJ61" s="51">
-        <f t="shared" ref="DJ61" si="149">+DJ57-DJ60</f>
+        <f t="shared" ref="DJ61" si="142">+DJ57-DJ60</f>
         <v>24250.321751392359</v>
       </c>
       <c r="DK61" s="51">
-        <f t="shared" ref="DK61" si="150">+DK57-DK60</f>
+        <f t="shared" ref="DK61" si="143">+DK57-DK60</f>
         <v>19809.858480532363</v>
       </c>
     </row>
@@ -19593,19 +19702,19 @@
         <v>-26.8</v>
       </c>
       <c r="AM62" s="51">
-        <f t="shared" ref="AM62:AP62" si="151">+AI62</f>
+        <f t="shared" ref="AM62:AP62" si="144">+AI62</f>
         <v>-46</v>
       </c>
       <c r="AN62" s="51">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>-16.5</v>
       </c>
       <c r="AO62" s="51">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="AP62" s="51">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>-26.8</v>
       </c>
       <c r="AQ62" s="51"/>
@@ -19725,7 +19834,7 @@
         <v>-45.099999999999994</v>
       </c>
       <c r="CR62" s="51">
-        <f t="shared" ref="CR62" si="152">SUM(AE62:AH62)</f>
+        <f t="shared" ref="CR62" si="145">SUM(AE62:AH62)</f>
         <v>-179</v>
       </c>
       <c r="CS62" s="51">
@@ -19744,27 +19853,27 @@
         <v>16.779910161890694</v>
       </c>
       <c r="DF62" s="49">
-        <f t="shared" ref="DF62:DK62" si="153">+DE81*$DM$79</f>
+        <f t="shared" ref="DF62:DK62" si="146">+DE81*$DM$79</f>
         <v>159.75157401145418</v>
       </c>
       <c r="DG62" s="49">
-        <f t="shared" si="153"/>
+        <f t="shared" si="146"/>
         <v>313.01141810340329</v>
       </c>
       <c r="DH62" s="49">
-        <f t="shared" si="153"/>
+        <f t="shared" si="146"/>
         <v>478.09956420675832</v>
       </c>
       <c r="DI62" s="49">
-        <f t="shared" si="153"/>
+        <f t="shared" si="146"/>
         <v>650.11294804811484</v>
       </c>
       <c r="DJ62" s="49">
-        <f t="shared" si="153"/>
+        <f t="shared" si="146"/>
         <v>838.56124577099843</v>
       </c>
       <c r="DK62" s="49">
-        <f t="shared" si="153"/>
+        <f t="shared" si="146"/>
         <v>1039.2723097483051</v>
       </c>
     </row>
@@ -19776,99 +19885,99 @@
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>
       <c r="F63" s="51">
-        <f t="shared" ref="F63:O63" si="154">F61+F62</f>
+        <f t="shared" ref="F63:O63" si="147">F61+F62</f>
         <v>551.90800000000002</v>
       </c>
       <c r="G63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>447.83663366336623</v>
       </c>
       <c r="H63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>431.20000000000027</v>
       </c>
       <c r="I63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>581.5333333333333</v>
       </c>
       <c r="J63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>642.30000000000041</v>
       </c>
       <c r="K63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>569.20000000000027</v>
       </c>
       <c r="L63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>596</v>
       </c>
       <c r="M63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>697.60000000000014</v>
       </c>
       <c r="N63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>2340.7000000000007</v>
       </c>
       <c r="O63" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>1180.8</v>
       </c>
       <c r="P63" s="51">
-        <f t="shared" ref="P63:W63" si="155">P61+P62</f>
+        <f t="shared" ref="P63:W63" si="148">P61+P62</f>
         <v>817.6</v>
       </c>
       <c r="Q63" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>2572.1999999999989</v>
       </c>
       <c r="R63" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>2715.6000000000004</v>
       </c>
       <c r="S63" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>2723.2000000000012</v>
       </c>
       <c r="T63" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>2883.2999999999988</v>
       </c>
       <c r="U63" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>3042.0000000000009</v>
       </c>
       <c r="V63" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>1507.9999999999998</v>
       </c>
       <c r="W63" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>1528.2</v>
       </c>
       <c r="X63" s="51">
-        <f t="shared" ref="X63:AC63" si="156">X61+X62</f>
+        <f t="shared" ref="X63:AC63" si="149">X61+X62</f>
         <v>1393.4</v>
       </c>
       <c r="Y63" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="149"/>
         <v>1619.3000000000006</v>
       </c>
       <c r="Z63" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="149"/>
         <v>1264.8999999999999</v>
       </c>
       <c r="AA63" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="149"/>
         <v>1784</v>
       </c>
       <c r="AB63" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="149"/>
         <v>1745.3999999999999</v>
       </c>
       <c r="AC63" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="149"/>
         <v>1709.1</v>
       </c>
       <c r="AD63" s="51">
@@ -19908,19 +20017,19 @@
         <v>784.00000000000023</v>
       </c>
       <c r="AM63" s="51">
-        <f t="shared" ref="AM63:AP63" si="157">+AM61+AM62</f>
+        <f t="shared" ref="AM63:AP63" si="150">+AM61+AM62</f>
         <v>1283.2999999999993</v>
       </c>
       <c r="AN63" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>1093.1999999999998</v>
       </c>
       <c r="AO63" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>1179.3999999999999</v>
       </c>
       <c r="AP63" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>824.00000000000023</v>
       </c>
       <c r="AQ63" s="51"/>
@@ -19944,205 +20053,205 @@
       <c r="BI63" s="51"/>
       <c r="BJ63" s="51"/>
       <c r="BK63" s="51">
-        <f t="shared" ref="BK63:CD63" si="158">BK61-BK62</f>
+        <f t="shared" ref="BK63:CD63" si="151">BK61-BK62</f>
         <v>1278.1000000000004</v>
       </c>
       <c r="BL63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1483.4000000000005</v>
       </c>
       <c r="BM63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1475.1</v>
       </c>
       <c r="BN63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1522.6999999999996</v>
       </c>
       <c r="BO63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1683.3999999999976</v>
       </c>
       <c r="BP63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1460.1999999999987</v>
       </c>
       <c r="BQ63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1422.399999999999</v>
       </c>
       <c r="BR63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2244.9999999999991</v>
       </c>
       <c r="BS63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1920.7000000000007</v>
       </c>
       <c r="BT63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1901.9999999999973</v>
       </c>
       <c r="BU63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1986.7999999999979</v>
       </c>
       <c r="BV63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2320.9999999999995</v>
       </c>
       <c r="BW63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2812.2999999999993</v>
       </c>
       <c r="BX63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>1890.9000000000017</v>
       </c>
       <c r="BY63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2197.1430000000009</v>
       </c>
       <c r="BZ63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2312.8339899999996</v>
       </c>
       <c r="CA63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2302.1665849999999</v>
       </c>
       <c r="CB63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2295.0291014374998</v>
       </c>
       <c r="CC63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2575.6245980703125</v>
       </c>
       <c r="CD63" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>2948.1927434800405</v>
       </c>
       <c r="CE63" s="51"/>
       <c r="CF63" s="51"/>
       <c r="CH63" s="51">
-        <f t="shared" ref="CH63:CM63" si="159">CH61+CH62</f>
+        <f t="shared" ref="CH63:CM63" si="152">CH61+CH62</f>
         <v>3951</v>
       </c>
       <c r="CI63" s="51">
-        <f t="shared" si="159"/>
+        <f t="shared" si="152"/>
         <v>3541</v>
       </c>
       <c r="CJ63" s="51">
-        <f t="shared" si="159"/>
+        <f t="shared" si="152"/>
         <v>3590</v>
       </c>
       <c r="CK63" s="51">
-        <f t="shared" si="159"/>
+        <f t="shared" si="152"/>
         <v>3939</v>
       </c>
       <c r="CL63" s="51">
-        <f t="shared" si="159"/>
+        <f t="shared" si="152"/>
         <v>3966</v>
       </c>
       <c r="CM63" s="51">
-        <f t="shared" si="159"/>
+        <f t="shared" si="152"/>
         <v>4601.4999999999982</v>
       </c>
       <c r="CN63" s="51">
-        <f t="shared" ref="CN63" si="160">CN61+CN62</f>
+        <f t="shared" ref="CN63" si="153">CN61+CN62</f>
         <v>6436.8340000000007</v>
       </c>
       <c r="CO63" s="51">
-        <f t="shared" ref="CO63:CX63" si="161">CO61+CO62</f>
+        <f t="shared" ref="CO63:CX63" si="154">CO61+CO62</f>
         <v>10156.499999999998</v>
       </c>
       <c r="CP63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>5805.7999999999993</v>
       </c>
       <c r="CQ63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>5544.899999999996</v>
       </c>
       <c r="CR63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>5729.7000000000016</v>
       </c>
       <c r="CS63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>4468.3999999999969</v>
       </c>
       <c r="CT63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>-7095.9299999999994</v>
       </c>
       <c r="CU63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>-5676.7439999999997</v>
       </c>
       <c r="CV63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="CW63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="CX63" s="51">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>4447.8000000000029</v>
       </c>
       <c r="CY63" s="51">
-        <f t="shared" ref="CY63:DK63" si="162">CY61+CY62</f>
+        <f t="shared" ref="CY63:DK63" si="155">CY61+CY62</f>
         <v>5784.8999999999978</v>
       </c>
       <c r="CZ63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>5789.4000000000015</v>
       </c>
       <c r="DA63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>7137.6</v>
       </c>
       <c r="DB63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>8332.2999999999993</v>
       </c>
       <c r="DC63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>9056.2769900000021</v>
       </c>
       <c r="DD63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>10121.013027987854</v>
       </c>
       <c r="DE63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>17871.457981195435</v>
       </c>
       <c r="DF63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>19157.480511493639</v>
       </c>
       <c r="DG63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>20636.018262919377</v>
       </c>
       <c r="DH63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>21501.672980169555</v>
       </c>
       <c r="DI63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>23556.037215360459</v>
       </c>
       <c r="DJ63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>25088.882997163357</v>
       </c>
       <c r="DK63" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>20849.130790280669</v>
       </c>
     </row>
@@ -20254,19 +20363,19 @@
         <v>156.80000000000007</v>
       </c>
       <c r="AM64" s="51">
-        <f t="shared" ref="AM64:AP64" si="163">+AM63*0.2</f>
+        <f t="shared" ref="AM64:AP64" si="156">+AM63*0.2</f>
         <v>256.65999999999985</v>
       </c>
       <c r="AN64" s="51">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>218.64</v>
       </c>
       <c r="AO64" s="51">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>235.88</v>
       </c>
       <c r="AP64" s="51">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>164.80000000000007</v>
       </c>
       <c r="AQ64" s="51"/>
@@ -20332,27 +20441,27 @@
         <v>187.2</v>
       </c>
       <c r="BY64" s="51">
-        <f t="shared" ref="BY64:CD64" si="164">+BY63*0.1</f>
+        <f t="shared" ref="BY64:CD64" si="157">+BY63*0.1</f>
         <v>219.71430000000009</v>
       </c>
       <c r="BZ64" s="51">
-        <f t="shared" si="164"/>
+        <f t="shared" si="157"/>
         <v>231.28339899999997</v>
       </c>
       <c r="CA64" s="51">
-        <f t="shared" si="164"/>
+        <f t="shared" si="157"/>
         <v>230.21665849999999</v>
       </c>
       <c r="CB64" s="51">
-        <f t="shared" si="164"/>
+        <f t="shared" si="157"/>
         <v>229.50291014375</v>
       </c>
       <c r="CC64" s="51">
-        <f t="shared" si="164"/>
+        <f t="shared" si="157"/>
         <v>257.56245980703125</v>
       </c>
       <c r="CD64" s="51">
-        <f t="shared" si="164"/>
+        <f t="shared" si="157"/>
         <v>294.81927434800406</v>
       </c>
       <c r="CE64" s="51"/>
@@ -20400,15 +20509,15 @@
         <v>1003</v>
       </c>
       <c r="CT64" s="51">
-        <f t="shared" ref="CT64:CV64" si="165">CT63*0.28</f>
+        <f t="shared" ref="CT64:CV64" si="158">CT63*0.28</f>
         <v>-1986.8604</v>
       </c>
       <c r="CU64" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="158"/>
         <v>-1589.4883200000002</v>
       </c>
       <c r="CV64" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="CW64" s="51"/>
@@ -20418,11 +20527,11 @@
       <c r="DA64" s="51"/>
       <c r="DB64" s="51"/>
       <c r="DC64" s="49">
-        <f t="shared" ref="DC64" si="166">SUM(BW64:BZ64)</f>
+        <f t="shared" ref="DC64" si="159">SUM(BW64:BZ64)</f>
         <v>911.99769900000001</v>
       </c>
       <c r="DD64" s="49">
-        <f t="shared" ref="DD64" si="167">SUM(CA64:CD64)</f>
+        <f t="shared" ref="DD64" si="160">SUM(CA64:CD64)</f>
         <v>1012.1013027987854</v>
       </c>
       <c r="DE64" s="51">
@@ -20430,27 +20539,27 @@
         <v>3574.2915962390871</v>
       </c>
       <c r="DF64" s="51">
-        <f t="shared" ref="DF64:DK64" si="168">DF63*0.2</f>
+        <f t="shared" ref="DF64:DK64" si="161">DF63*0.2</f>
         <v>3831.4961022987281</v>
       </c>
       <c r="DG64" s="51">
-        <f t="shared" si="168"/>
+        <f t="shared" si="161"/>
         <v>4127.2036525838757</v>
       </c>
       <c r="DH64" s="51">
-        <f t="shared" si="168"/>
+        <f t="shared" si="161"/>
         <v>4300.3345960339111</v>
       </c>
       <c r="DI64" s="51">
-        <f t="shared" si="168"/>
+        <f t="shared" si="161"/>
         <v>4711.2074430720922</v>
       </c>
       <c r="DJ64" s="51">
-        <f t="shared" si="168"/>
+        <f t="shared" si="161"/>
         <v>5017.7765994326719</v>
       </c>
       <c r="DK64" s="51">
-        <f t="shared" si="168"/>
+        <f t="shared" si="161"/>
         <v>4169.8261580561339</v>
       </c>
     </row>
@@ -20462,103 +20571,103 @@
       <c r="D65" s="51"/>
       <c r="E65" s="51"/>
       <c r="F65" s="51">
-        <f t="shared" ref="F65:P65" si="169">F63-F64</f>
+        <f t="shared" ref="F65:P65" si="162">F63-F64</f>
         <v>321.90800000000002</v>
       </c>
       <c r="G65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>239.83663366336623</v>
       </c>
       <c r="H65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>225.90000000000026</v>
       </c>
       <c r="I65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>357.43333333333328</v>
       </c>
       <c r="J65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>447.30000000000041</v>
       </c>
       <c r="K65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>347.20000000000027</v>
       </c>
       <c r="L65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>377</v>
       </c>
       <c r="M65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>477.00000000000011</v>
       </c>
       <c r="N65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>2114.1000000000008</v>
       </c>
       <c r="O65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>923.19999999999993</v>
       </c>
       <c r="P65" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>554.5</v>
       </c>
       <c r="Q65" s="51">
-        <f t="shared" ref="Q65:V65" si="170">Q63-Q64</f>
+        <f t="shared" ref="Q65:V65" si="163">Q63-Q64</f>
         <v>2308.8999999999987</v>
       </c>
       <c r="R65" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
         <v>2517.7000000000003</v>
       </c>
       <c r="S65" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
         <v>2731.2000000000012</v>
       </c>
       <c r="T65" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
         <v>2635.7999999999988</v>
       </c>
       <c r="U65" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
         <v>2722.0000000000009</v>
       </c>
       <c r="V65" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
         <v>1212.0999999999999</v>
       </c>
       <c r="W65" s="51">
-        <f t="shared" ref="W65:AB65" si="171">W63-W64</f>
+        <f t="shared" ref="W65:AB65" si="164">W63-W64</f>
         <v>1157.9000000000001</v>
       </c>
       <c r="X65" s="51">
-        <f t="shared" si="171"/>
+        <f t="shared" si="164"/>
         <v>1047.4000000000001</v>
       </c>
       <c r="Y65" s="51">
-        <f t="shared" si="171"/>
+        <f t="shared" si="164"/>
         <v>1491.6000000000006</v>
       </c>
       <c r="Z65" s="51">
-        <f t="shared" si="171"/>
+        <f t="shared" si="164"/>
         <v>999.19999999999982</v>
       </c>
       <c r="AA65" s="51">
-        <f t="shared" si="171"/>
+        <f t="shared" si="164"/>
         <v>1297.5999999999999</v>
       </c>
       <c r="AB65" s="51">
-        <f t="shared" si="171"/>
+        <f t="shared" si="164"/>
         <v>1357.7999999999997</v>
       </c>
       <c r="AC65" s="51">
-        <f t="shared" ref="AC65:AI65" si="172">AC63-AC64</f>
+        <f t="shared" ref="AC65:AI65" si="165">AC63-AC64</f>
         <v>1340.6999999999998</v>
       </c>
       <c r="AD65" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>1248.8000000000006</v>
       </c>
       <c r="AE65" s="51">
@@ -20574,39 +20683,39 @@
         <v>1254</v>
       </c>
       <c r="AH65" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>969.60000000000059</v>
       </c>
       <c r="AI65" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>1027.3</v>
       </c>
       <c r="AJ65" s="51">
-        <f t="shared" ref="AJ65:AL65" si="173">AJ63-AJ64</f>
+        <f t="shared" ref="AJ65:AL65" si="166">AJ63-AJ64</f>
         <v>923.39999999999907</v>
       </c>
       <c r="AK65" s="51">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>887.49999999999989</v>
       </c>
       <c r="AL65" s="51">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>627.20000000000016</v>
       </c>
       <c r="AM65" s="51">
-        <f t="shared" ref="AM65:AP65" si="174">AM63-AM64</f>
+        <f t="shared" ref="AM65:AP65" si="167">AM63-AM64</f>
         <v>1026.6399999999994</v>
       </c>
       <c r="AN65" s="51">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>874.55999999999983</v>
       </c>
       <c r="AO65" s="51">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>943.51999999999987</v>
       </c>
       <c r="AP65" s="51">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>659.20000000000016</v>
       </c>
       <c r="AQ65" s="51"/>
@@ -20630,55 +20739,55 @@
       <c r="BI65" s="51"/>
       <c r="BJ65" s="51"/>
       <c r="BK65" s="51">
-        <f t="shared" ref="BK65:BW65" si="175">BK63-BK64</f>
+        <f t="shared" ref="BK65:BW65" si="168">BK63-BK64</f>
         <v>1094.7000000000003</v>
       </c>
       <c r="BL65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1328.9000000000005</v>
       </c>
       <c r="BM65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1295</v>
       </c>
       <c r="BN65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1355.2999999999995</v>
       </c>
       <c r="BO65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1431.4999999999975</v>
       </c>
       <c r="BP65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1228.4999999999986</v>
       </c>
       <c r="BQ65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1164.1999999999989</v>
       </c>
       <c r="BR65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1892.6999999999991</v>
       </c>
       <c r="BS65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1777.5000000000007</v>
       </c>
       <c r="BT65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1698.2999999999972</v>
       </c>
       <c r="BU65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>1693.5999999999979</v>
       </c>
       <c r="BV65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>2207.1999999999994</v>
       </c>
       <c r="BW65" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>2538.4999999999991</v>
       </c>
       <c r="BX65" s="51">
@@ -20686,57 +20795,57 @@
         <v>1703.7000000000016</v>
       </c>
       <c r="BY65" s="51">
-        <f t="shared" ref="BY65:CD65" si="176">+BY63-BY64</f>
+        <f t="shared" ref="BY65:CD65" si="169">+BY63-BY64</f>
         <v>1977.4287000000008</v>
       </c>
       <c r="BZ65" s="51">
-        <f t="shared" si="176"/>
+        <f t="shared" si="169"/>
         <v>2081.5505909999997</v>
       </c>
       <c r="CA65" s="51">
-        <f t="shared" si="176"/>
+        <f t="shared" si="169"/>
         <v>2071.9499264999999</v>
       </c>
       <c r="CB65" s="51">
-        <f t="shared" si="176"/>
+        <f t="shared" si="169"/>
         <v>2065.5261912937499</v>
       </c>
       <c r="CC65" s="51">
-        <f t="shared" si="176"/>
+        <f t="shared" si="169"/>
         <v>2318.0621382632812</v>
       </c>
       <c r="CD65" s="51">
-        <f t="shared" si="176"/>
+        <f t="shared" si="169"/>
         <v>2653.3734691320365</v>
       </c>
       <c r="CE65" s="51"/>
       <c r="CF65" s="51"/>
       <c r="CH65" s="51">
-        <f t="shared" ref="CH65:CN65" si="177">CH63-CH64</f>
+        <f t="shared" ref="CH65:CN65" si="170">CH63-CH64</f>
         <v>3101</v>
       </c>
       <c r="CI65" s="51">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>2762</v>
       </c>
       <c r="CJ65" s="51">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>2802</v>
       </c>
       <c r="CK65" s="51">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>3073</v>
       </c>
       <c r="CL65" s="51">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>3134</v>
       </c>
       <c r="CM65" s="51">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>3689.4999999999982</v>
       </c>
       <c r="CN65" s="51">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>5020.730520000001</v>
       </c>
       <c r="CO65" s="51">
@@ -20756,19 +20865,19 @@
         <v>4518.0000000000018</v>
       </c>
       <c r="CS65" s="51">
-        <f t="shared" ref="CS65:CV65" si="178">CS63-CS64</f>
+        <f t="shared" ref="CS65:CV65" si="171">CS63-CS64</f>
         <v>3465.3999999999969</v>
       </c>
       <c r="CT65" s="51">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>-5109.0695999999989</v>
       </c>
       <c r="CU65" s="51">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>-4087.2556799999993</v>
       </c>
       <c r="CV65" s="51">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="CW65" s="51">
@@ -20780,19 +20889,19 @@
         <v>4447.8000000000029</v>
       </c>
       <c r="CY65" s="51">
-        <f t="shared" ref="CY65:DB65" si="179">CY63-CY64</f>
+        <f t="shared" ref="CY65:DB65" si="172">CY63-CY64</f>
         <v>5784.8999999999978</v>
       </c>
       <c r="CZ65" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>5789.4000000000015</v>
       </c>
       <c r="DA65" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>7137.6</v>
       </c>
       <c r="DB65" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>8332.2999999999993</v>
       </c>
       <c r="DC65" s="51">
@@ -20800,27 +20909,27 @@
         <v>8144.2792910000026</v>
       </c>
       <c r="DD65" s="51">
-        <f t="shared" ref="DD65:DI65" si="180">+DD63-DD64</f>
+        <f t="shared" ref="DD65:DI65" si="173">+DD63-DD64</f>
         <v>9108.9117251890693</v>
       </c>
       <c r="DE65" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>14297.166384956348</v>
       </c>
       <c r="DF65" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>15325.984409194911</v>
       </c>
       <c r="DG65" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>16508.814610335503</v>
       </c>
       <c r="DH65" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>17201.338384135644</v>
       </c>
       <c r="DI65" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>18844.829772288365</v>
       </c>
       <c r="DJ65" s="51">
@@ -20836,311 +20945,311 @@
         <v>16512.511585902292</v>
       </c>
       <c r="DM65" s="54">
-        <f t="shared" ref="DM65:FX65" si="181">+DL65*(1+$DM$80)</f>
+        <f t="shared" ref="DM65:FX65" si="174">+DL65*(1+$DM$80)</f>
         <v>16347.386470043268</v>
       </c>
       <c r="DN65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>16183.912605342835</v>
       </c>
       <c r="DO65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>16022.073479289407</v>
       </c>
       <c r="DP65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>15861.852744496513</v>
       </c>
       <c r="DQ65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>15703.234217051548</v>
       </c>
       <c r="DR65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>15546.201874881031</v>
       </c>
       <c r="DS65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>15390.739856132221</v>
       </c>
       <c r="DT65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>15236.832457570898</v>
       </c>
       <c r="DU65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>15084.464132995188</v>
       </c>
       <c r="DV65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>14933.619491665237</v>
       </c>
       <c r="DW65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>14784.283296748585</v>
       </c>
       <c r="DX65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>14636.440463781099</v>
       </c>
       <c r="DY65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>14490.076059143288</v>
       </c>
       <c r="DZ65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>14345.175298551856</v>
       </c>
       <c r="EA65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>14201.723545566338</v>
       </c>
       <c r="EB65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>14059.706310110674</v>
       </c>
       <c r="EC65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>13919.109247009568</v>
       </c>
       <c r="ED65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>13779.918154539473</v>
       </c>
       <c r="EE65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>13642.118972994078</v>
       </c>
       <c r="EF65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>13505.697783264137</v>
       </c>
       <c r="EG65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>13370.640805431496</v>
       </c>
       <c r="EH65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>13236.934397377181</v>
       </c>
       <c r="EI65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>13104.565053403408</v>
       </c>
       <c r="EJ65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>12973.519402869375</v>
       </c>
       <c r="EK65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>12843.784208840681</v>
       </c>
       <c r="EL65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>12715.346366752274</v>
       </c>
       <c r="EM65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>12588.192903084751</v>
       </c>
       <c r="EN65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>12462.310974053904</v>
       </c>
       <c r="EO65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>12337.687864313364</v>
       </c>
       <c r="EP65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>12214.31098567023</v>
       </c>
       <c r="EQ65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>12092.167875813528</v>
       </c>
       <c r="ER65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11971.246197055392</v>
       </c>
       <c r="ES65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11851.533735084839</v>
       </c>
       <c r="ET65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11733.018397733989</v>
       </c>
       <c r="EU65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11615.68821375665</v>
       </c>
       <c r="EV65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11499.531331619084</v>
       </c>
       <c r="EW65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11384.536018302893</v>
       </c>
       <c r="EX65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11270.690658119864</v>
       </c>
       <c r="EY65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11157.983751538664</v>
       </c>
       <c r="EZ65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>11046.403914023278</v>
       </c>
       <c r="FA65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10935.939874883044</v>
       </c>
       <c r="FB65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10826.580476134213</v>
       </c>
       <c r="FC65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10718.314671372871</v>
       </c>
       <c r="FD65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10611.131524659142</v>
       </c>
       <c r="FE65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10505.020209412551</v>
       </c>
       <c r="FF65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10399.970007318425</v>
       </c>
       <c r="FG65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10295.970307245241</v>
       </c>
       <c r="FH65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10193.010604172789</v>
       </c>
       <c r="FI65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>10091.080498131061</v>
       </c>
       <c r="FJ65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9990.1696931497499</v>
       </c>
       <c r="FK65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9890.2679962182519</v>
       </c>
       <c r="FL65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9791.3653162560695</v>
       </c>
       <c r="FM65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9693.4516630935086</v>
       </c>
       <c r="FN65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9596.5171464625728</v>
       </c>
       <c r="FO65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9500.5519749979467</v>
       </c>
       <c r="FP65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9405.546455247968</v>
       </c>
       <c r="FQ65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9311.490990695489</v>
       </c>
       <c r="FR65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9218.3760807885337</v>
       </c>
       <c r="FS65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9126.1923199806479</v>
       </c>
       <c r="FT65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>9034.930396780841</v>
       </c>
       <c r="FU65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>8944.5810928130322</v>
       </c>
       <c r="FV65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>8855.1352818849027</v>
       </c>
       <c r="FW65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>8766.5839290660533</v>
       </c>
       <c r="FX65" s="54">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>8678.9180897753922</v>
       </c>
       <c r="FY65" s="54">
-        <f t="shared" ref="FY65:GK65" si="182">+FX65*(1+$DM$80)</f>
+        <f t="shared" ref="FY65:GK65" si="175">+FX65*(1+$DM$80)</f>
         <v>8592.1289088776375</v>
       </c>
       <c r="FZ65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>8506.2076197888618</v>
       </c>
       <c r="GA65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>8421.1455435909738</v>
       </c>
       <c r="GB65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>8336.9340881550634</v>
       </c>
       <c r="GC65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>8253.5647472735127</v>
       </c>
       <c r="GD65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>8171.0290998007777</v>
       </c>
       <c r="GE65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>8089.31880880277</v>
       </c>
       <c r="GF65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>8008.4256207147419</v>
       </c>
       <c r="GG65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>7928.3413645075943</v>
       </c>
       <c r="GH65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>7849.0579508625187</v>
       </c>
       <c r="GI65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>7770.5673713538936</v>
       </c>
       <c r="GJ65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>7692.8616976403546</v>
       </c>
       <c r="GK65" s="54">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>7615.9330806639509</v>
       </c>
     </row>
@@ -21152,95 +21261,95 @@
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59">
-        <f t="shared" ref="F66:O66" si="183">F65/F67</f>
+        <f t="shared" ref="F66:O66" si="176">F65/F67</f>
         <v>0.29554535438854207</v>
       </c>
       <c r="G66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>0.22023565992962923</v>
       </c>
       <c r="H66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>0.20724770642201859</v>
       </c>
       <c r="I66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>0.32761992056217532</v>
       </c>
       <c r="J66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>0.40905349794238721</v>
       </c>
       <c r="K66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>0.31941122355105822</v>
       </c>
       <c r="L66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>0.34736939095181057</v>
       </c>
       <c r="M66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>0.43905995147329013</v>
       </c>
       <c r="N66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>1.9411494109340131</v>
       </c>
       <c r="O66" s="59">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>0.84706650921799576</v>
       </c>
       <c r="P66" s="59">
-        <f t="shared" ref="P66:V66" si="184">P65/P67</f>
+        <f t="shared" ref="P66:V66" si="177">P65/P67</f>
         <v>0.50877207469820052</v>
       </c>
       <c r="Q66" s="59">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>2.117813888471034</v>
       </c>
       <c r="R66" s="59">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>2.3042440483381479</v>
       </c>
       <c r="S66" s="59">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>2.4963987218204564</v>
       </c>
       <c r="T66" s="59">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>2.4096936275406082</v>
       </c>
       <c r="U66" s="59">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>2.4881693125175399</v>
       </c>
       <c r="V66" s="59">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>1.1054354299305693</v>
       </c>
       <c r="W66" s="59">
-        <f t="shared" ref="W66:AB66" si="185">W65/W67</f>
+        <f t="shared" ref="W66:AB66" si="178">W65/W67</f>
         <v>1.0552687795737732</v>
       </c>
       <c r="X66" s="59">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>0.95460042854031091</v>
       </c>
       <c r="Y66" s="59">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>1.3588746375286636</v>
       </c>
       <c r="Z66" s="59">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>0.90717029507547786</v>
       </c>
       <c r="AA66" s="59">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>1.1759950553105565</v>
       </c>
       <c r="AB66" s="59">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>1.2301063501137424</v>
       </c>
       <c r="AC66" s="59">
@@ -21256,47 +21365,47 @@
         <v>1.236420863309353</v>
       </c>
       <c r="AF66" s="59">
-        <f t="shared" ref="AF66:AL66" si="186">AF65/AF67</f>
+        <f t="shared" ref="AF66:AL66" si="179">AF65/AF67</f>
         <v>1.1491789109766626</v>
       </c>
       <c r="AG66" s="59">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>1.125833938596263</v>
       </c>
       <c r="AH66" s="59">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>0.86959641255605435</v>
       </c>
       <c r="AI66" s="59">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>0.91970961062075252</v>
       </c>
       <c r="AJ66" s="59">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>0.82593917710196696</v>
       </c>
       <c r="AK66" s="59">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>0.79266479166089832</v>
       </c>
       <c r="AL66" s="59">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>0.56017955755460913</v>
       </c>
       <c r="AM66" s="59">
-        <f t="shared" ref="AM66:AP66" si="187">AM65/AM67</f>
+        <f t="shared" ref="AM66:AP66" si="180">AM65/AM67</f>
         <v>0.91693676812478231</v>
       </c>
       <c r="AN66" s="59">
-        <f t="shared" si="187"/>
+        <f t="shared" si="180"/>
         <v>0.78110751571262549</v>
       </c>
       <c r="AO66" s="59">
-        <f t="shared" si="187"/>
+        <f t="shared" si="180"/>
         <v>0.8426986864539614</v>
       </c>
       <c r="AP66" s="59">
-        <f t="shared" si="187"/>
+        <f t="shared" si="180"/>
         <v>0.58876014722576264</v>
       </c>
       <c r="AQ66" s="59"/>
@@ -21320,109 +21429,109 @@
       <c r="BI66" s="59"/>
       <c r="BJ66" s="59"/>
       <c r="BK66" s="59">
-        <f t="shared" ref="BK66:CD66" si="188">BK65/BK67</f>
+        <f t="shared" ref="BK66:CD66" si="181">BK65/BK67</f>
         <v>1.1124988694117184</v>
       </c>
       <c r="BL66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.4372235380638747</v>
       </c>
       <c r="BM66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.4099780718468209</v>
       </c>
       <c r="BN66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.481723622958024</v>
       </c>
       <c r="BO66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.5701212991368967</v>
       </c>
       <c r="BP66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.3486809603794077</v>
       </c>
       <c r="BQ66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.2773432314084667</v>
       </c>
       <c r="BR66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.0739849505419174</v>
       </c>
       <c r="BS66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.9481587023235432</v>
       </c>
       <c r="BT66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.8654765461607379</v>
       </c>
       <c r="BU66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.8595642497235774</v>
       </c>
       <c r="BV66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.4266811792579883</v>
       </c>
       <c r="BW66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.8006398940864949</v>
       </c>
       <c r="BX66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>1.8868363346401771</v>
       </c>
       <c r="BY66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.1899890358163341</v>
       </c>
       <c r="BZ66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.3053033324473384</v>
       </c>
       <c r="CA66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.2946706608412519</v>
       </c>
       <c r="CB66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.2875564171415044</v>
       </c>
       <c r="CC66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.5672382863349514</v>
       </c>
       <c r="CD66" s="59">
-        <f t="shared" si="188"/>
+        <f t="shared" si="181"/>
         <v>2.9385933385740319</v>
       </c>
       <c r="CE66" s="59"/>
       <c r="CF66" s="59"/>
       <c r="CH66" s="59">
-        <f t="shared" ref="CH66:CM66" si="189">CH65/CH67</f>
+        <f t="shared" ref="CH66:CM66" si="182">CH65/CH67</f>
         <v>2.842346471127406</v>
       </c>
       <c r="CI66" s="59">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>2.5456221198156683</v>
       </c>
       <c r="CJ66" s="59">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>2.5920444033302497</v>
       </c>
       <c r="CK66" s="59">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>2.8218549127640036</v>
       </c>
       <c r="CL66" s="59">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>2.8752293577981654</v>
       </c>
       <c r="CM66" s="59">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>3.3973296500920793</v>
       </c>
       <c r="CN66" s="59">
@@ -21446,79 +21555,79 @@
         <v>4.0179277124291426</v>
       </c>
       <c r="CS66" s="59">
-        <f t="shared" ref="CS66:CX66" si="190">CS65/CS67</f>
+        <f t="shared" ref="CS66:CX66" si="183">CS65/CS67</f>
         <v>3.0980730913345513</v>
       </c>
       <c r="CT66" s="59">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>-4.5675163183226726</v>
       </c>
       <c r="CU66" s="59">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>-3.6540130546581384</v>
       </c>
       <c r="CV66" s="59">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="CW66" s="59">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="CX66" s="59">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>4.2278543339831955</v>
       </c>
       <c r="CY66" s="59">
-        <f t="shared" ref="CY66:DK66" si="191">CY65/CY67</f>
+        <f t="shared" ref="CY66:DK66" si="184">CY65/CY67</f>
         <v>5.5964832001021589</v>
       </c>
       <c r="CZ66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>6.1873453003364398</v>
       </c>
       <c r="DA66" s="59" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DB66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>9.1486073635293117</v>
       </c>
       <c r="DC66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>9.0111022742737674</v>
       </c>
       <c r="DD66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>10.088058702891741</v>
       </c>
       <c r="DE66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>15.834015975542503</v>
       </c>
       <c r="DF66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>16.973425043961846</v>
       </c>
       <c r="DG66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>18.283401566367093</v>
       </c>
       <c r="DH66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>19.050367005709841</v>
       </c>
       <c r="DI66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>20.870522706146993</v>
       </c>
       <c r="DJ66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>22.228615852360825</v>
       </c>
       <c r="DK66" s="59">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>18.472218123269027</v>
       </c>
     </row>
@@ -21631,19 +21740,19 @@
         <v>1119.6410000000001</v>
       </c>
       <c r="AM67" s="51">
-        <f t="shared" ref="AM67:AP67" si="192">+AL67</f>
+        <f t="shared" ref="AM67:AP67" si="185">+AL67</f>
         <v>1119.6410000000001</v>
       </c>
       <c r="AN67" s="51">
-        <f t="shared" si="192"/>
+        <f t="shared" si="185"/>
         <v>1119.6410000000001</v>
       </c>
       <c r="AO67" s="51">
-        <f t="shared" si="192"/>
+        <f t="shared" si="185"/>
         <v>1119.6410000000001</v>
       </c>
       <c r="AP67" s="51">
-        <f t="shared" si="192"/>
+        <f t="shared" si="185"/>
         <v>1119.6410000000001</v>
       </c>
       <c r="AQ67" s="51"/>
@@ -21709,27 +21818,27 @@
         <v>902.94</v>
       </c>
       <c r="BY67" s="51">
-        <f t="shared" ref="BY67:CD67" si="193">+BX67</f>
+        <f t="shared" ref="BY67:CD67" si="186">+BX67</f>
         <v>902.94</v>
       </c>
       <c r="BZ67" s="51">
-        <f t="shared" si="193"/>
+        <f t="shared" si="186"/>
         <v>902.94</v>
       </c>
       <c r="CA67" s="51">
-        <f t="shared" si="193"/>
+        <f t="shared" si="186"/>
         <v>902.94</v>
       </c>
       <c r="CB67" s="51">
-        <f t="shared" si="193"/>
+        <f t="shared" si="186"/>
         <v>902.94</v>
       </c>
       <c r="CC67" s="51">
-        <f t="shared" si="193"/>
+        <f t="shared" si="186"/>
         <v>902.94</v>
       </c>
       <c r="CD67" s="51">
-        <f t="shared" si="193"/>
+        <f t="shared" si="186"/>
         <v>902.94</v>
       </c>
       <c r="CE67" s="51"/>
@@ -21777,19 +21886,19 @@
         <v>1118.5662500000001</v>
       </c>
       <c r="CT67" s="51">
-        <f t="shared" ref="CT67:CW67" si="194">CS67</f>
+        <f t="shared" ref="CT67:CW67" si="187">CS67</f>
         <v>1118.5662500000001</v>
       </c>
       <c r="CU67" s="51">
-        <f t="shared" si="194"/>
+        <f t="shared" si="187"/>
         <v>1118.5662500000001</v>
       </c>
       <c r="CV67" s="51">
-        <f t="shared" si="194"/>
+        <f t="shared" si="187"/>
         <v>1118.5662500000001</v>
       </c>
       <c r="CW67" s="51">
-        <f t="shared" si="194"/>
+        <f t="shared" si="187"/>
         <v>1118.5662500000001</v>
       </c>
       <c r="CX67" s="51">
@@ -21819,27 +21928,27 @@
         <v>902.94</v>
       </c>
       <c r="DF67" s="49">
-        <f t="shared" ref="DF67:DK67" si="195">+DE67</f>
+        <f t="shared" ref="DF67:DK67" si="188">+DE67</f>
         <v>902.94</v>
       </c>
       <c r="DG67" s="49">
-        <f t="shared" si="195"/>
+        <f t="shared" si="188"/>
         <v>902.94</v>
       </c>
       <c r="DH67" s="49">
-        <f t="shared" si="195"/>
+        <f t="shared" si="188"/>
         <v>902.94</v>
       </c>
       <c r="DI67" s="49">
-        <f t="shared" si="195"/>
+        <f t="shared" si="188"/>
         <v>902.94</v>
       </c>
       <c r="DJ67" s="49">
-        <f t="shared" si="195"/>
+        <f t="shared" si="188"/>
         <v>902.94</v>
       </c>
       <c r="DK67" s="49">
-        <f t="shared" si="195"/>
+        <f t="shared" si="188"/>
         <v>902.94</v>
       </c>
     </row>
@@ -21868,95 +21977,95 @@
       <c r="R69" s="60"/>
       <c r="S69" s="60"/>
       <c r="T69" s="61">
-        <f t="shared" ref="T69:AL69" si="196">T55/P55-1</f>
+        <f t="shared" ref="T69:AL69" si="189">T55/P55-1</f>
         <v>0.59843101721588976</v>
       </c>
       <c r="U69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>0.15215364534775344</v>
       </c>
       <c r="V69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-0.21831165519000262</v>
       </c>
       <c r="W69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-0.21628376429876006</v>
       </c>
       <c r="X69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-0.23718952785858127</v>
       </c>
       <c r="Y69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-0.18168576851211593</v>
       </c>
       <c r="Z69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>0.13885423663755869</v>
       </c>
       <c r="AA69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>0.12136636820802149</v>
       </c>
       <c r="AB69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>0.12422020142759349</v>
       </c>
       <c r="AC69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>1.6684645810859378E-2</v>
       </c>
       <c r="AD69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>4.2669362992922233E-2</v>
       </c>
       <c r="AE69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>6.4479081214109835E-2</v>
       </c>
       <c r="AF69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>8.768939064484127E-2</v>
       </c>
       <c r="AG69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>8.7235622833698789E-2</v>
       </c>
       <c r="AH69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-2.2611197310576814E-2</v>
       </c>
       <c r="AI69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-4.0553500479517668E-2</v>
       </c>
       <c r="AJ69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-0.10432126407369491</v>
       </c>
       <c r="AK69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-0.11476716383923491</v>
       </c>
       <c r="AL69" s="61">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>-0.11180196120582742</v>
       </c>
       <c r="AM69" s="61">
-        <f t="shared" ref="AM69:AP69" si="197">AM55/AI55-1</f>
+        <f t="shared" ref="AM69:AP69" si="190">AM55/AI55-1</f>
         <v>-1.3601313722690356E-2</v>
       </c>
       <c r="AN69" s="61">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>-1.6480671368627631E-2</v>
       </c>
       <c r="AO69" s="61">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>7.3495636196601044E-3</v>
       </c>
       <c r="AP69" s="61">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>7.4471254095918038E-3</v>
       </c>
       <c r="AQ69" s="61"/>
@@ -21984,67 +22093,67 @@
       <c r="BM69" s="61"/>
       <c r="BN69" s="61"/>
       <c r="BO69" s="61">
-        <f t="shared" ref="BO69:BW69" si="198">BO55/BK55-1</f>
+        <f t="shared" ref="BO69:BW69" si="191">BO55/BK55-1</f>
         <v>0.15076294652500866</v>
       </c>
       <c r="BP69" s="61">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>-2.4358223783419675E-2</v>
       </c>
       <c r="BQ69" s="61">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>4.8166812737364673E-2</v>
       </c>
       <c r="BR69" s="61">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>0.21683594197209821</v>
       </c>
       <c r="BS69" s="61">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>0.16140482610328055</v>
       </c>
       <c r="BT69" s="61">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>0.22558824599047145</v>
       </c>
       <c r="BU69" s="61">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>0.17984182838030871</v>
       </c>
       <c r="BV69" s="61">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>7.5240924181126712E-2</v>
       </c>
       <c r="BW69" s="61">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>0.14759903608792735</v>
       </c>
       <c r="BX69" s="61">
-        <f t="shared" ref="BX69" si="199">BX55/BT55-1</f>
+        <f t="shared" ref="BX69" si="192">BX55/BT55-1</f>
         <v>-3.7403560830859939E-2</v>
       </c>
       <c r="BY69" s="61">
-        <f t="shared" ref="BY69" si="200">BY55/BU55-1</f>
+        <f t="shared" ref="BY69" si="193">BY55/BU55-1</f>
         <v>2.4907721836704866E-2</v>
       </c>
       <c r="BZ69" s="61">
-        <f t="shared" ref="BZ69" si="201">BZ55/BV55-1</f>
+        <f t="shared" ref="BZ69" si="194">BZ55/BV55-1</f>
         <v>-7.21032762909537E-2</v>
       </c>
       <c r="CA69" s="61">
-        <f t="shared" ref="CA69" si="202">CA55/BW55-1</f>
+        <f t="shared" ref="CA69" si="195">CA55/BW55-1</f>
         <v>-0.11342217129102061</v>
       </c>
       <c r="CB69" s="61">
-        <f t="shared" ref="CB69" si="203">CB55/BX55-1</f>
+        <f t="shared" ref="CB69" si="196">CB55/BX55-1</f>
         <v>0.11249531531774504</v>
       </c>
       <c r="CC69" s="61">
-        <f t="shared" ref="CC69" si="204">CC55/BY55-1</f>
+        <f t="shared" ref="CC69" si="197">CC55/BY55-1</f>
         <v>6.9016326039550879E-2</v>
       </c>
       <c r="CD69" s="61">
-        <f t="shared" ref="CD69" si="205">CD55/BZ55-1</f>
+        <f t="shared" ref="CD69" si="198">CD55/BZ55-1</f>
         <v>0.10834471383022715</v>
       </c>
       <c r="CE69" s="61"/>
@@ -22055,107 +22164,107 @@
       <c r="CJ69" s="60"/>
       <c r="CK69" s="60"/>
       <c r="CL69" s="62">
-        <f t="shared" ref="CL69:CX69" si="206">CL55/CK55-1</f>
+        <f t="shared" ref="CL69:CX69" si="199">CL55/CK55-1</f>
         <v>5.7074825023450515E-2</v>
       </c>
       <c r="CM69" s="62">
-        <f t="shared" si="206"/>
+        <f t="shared" si="199"/>
         <v>7.7372013651876959E-2</v>
       </c>
       <c r="CN69" s="62">
-        <f t="shared" si="206"/>
+        <f t="shared" si="199"/>
         <v>0.17162226375645462</v>
       </c>
       <c r="CO69" s="62">
-        <f t="shared" si="206"/>
+        <f t="shared" si="199"/>
         <v>6.0167880685474406E-2</v>
       </c>
       <c r="CP69" s="62">
-        <f t="shared" si="206"/>
+        <f t="shared" si="199"/>
         <v>6.985394754409513E-2</v>
       </c>
       <c r="CQ69" s="62">
-        <f t="shared" si="206"/>
+        <f t="shared" si="199"/>
         <v>4.383313819191037E-2</v>
       </c>
       <c r="CR69" s="62">
-        <f t="shared" si="206"/>
+        <f t="shared" si="199"/>
         <v>9.0596424558550881E-2</v>
       </c>
       <c r="CS69" s="62">
-        <f t="shared" si="206"/>
+        <f t="shared" si="199"/>
         <v>-7.7927571375323024E-2</v>
       </c>
       <c r="CT69" s="62">
-        <f t="shared" si="206"/>
-        <v>-1.0816293160615165E-2</v>
+        <f t="shared" si="199"/>
+        <v>4.9803330214474695E-2</v>
       </c>
       <c r="CU69" s="62">
-        <f t="shared" si="206"/>
-        <v>-0.17066237597494249</v>
+        <f t="shared" si="199"/>
+        <v>-0.15132111226966538</v>
       </c>
       <c r="CV69" s="62">
-        <f t="shared" si="206"/>
-        <v>-0.64973215283974128</v>
+        <f t="shared" si="199"/>
+        <v>1.7491180488998559E-2</v>
       </c>
       <c r="CW69" s="62">
-        <f t="shared" si="206"/>
-        <v>-1</v>
-      </c>
-      <c r="CX69" s="62" t="e">
-        <f t="shared" si="206"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="199"/>
+        <v>6.3300715978495958E-2</v>
+      </c>
+      <c r="CX69" s="62">
+        <f t="shared" si="199"/>
+        <v>-5.8806621399390302E-2</v>
       </c>
       <c r="CY69" s="62">
-        <f t="shared" ref="CY69:DA69" si="207">CY55/CX55-1</f>
+        <f t="shared" ref="CY69:DA69" si="200">CY55/CX55-1</f>
         <v>7.6038469818414667E-2</v>
       </c>
       <c r="CZ69" s="62">
-        <f t="shared" si="207"/>
+        <f t="shared" si="200"/>
         <v>3.8454559412643308E-2</v>
       </c>
       <c r="DA69" s="62">
-        <f t="shared" si="207"/>
+        <f t="shared" si="200"/>
         <v>9.9487441418675937E-2</v>
       </c>
       <c r="DB69" s="62">
-        <f t="shared" ref="DB69" si="208">DB55/DA55-1</f>
+        <f t="shared" ref="DB69" si="201">DB55/DA55-1</f>
         <v>0.15397780757052804</v>
       </c>
       <c r="DC69" s="62">
-        <f t="shared" ref="DC69:DK69" si="209">DC55/DB55-1</f>
+        <f t="shared" ref="DC69:DK69" si="202">DC55/DB55-1</f>
         <v>1.2157458904956453E-2</v>
       </c>
       <c r="DD69" s="62">
-        <f t="shared" si="209"/>
+        <f t="shared" si="202"/>
         <v>3.9331915259804839E-2</v>
       </c>
       <c r="DE69" s="62">
-        <f t="shared" si="209"/>
+        <f t="shared" si="202"/>
         <v>0.10990466103477625</v>
       </c>
       <c r="DF69" s="62">
-        <f t="shared" si="209"/>
+        <f t="shared" si="202"/>
         <v>6.4019685031625695E-2</v>
       </c>
       <c r="DG69" s="62">
-        <f t="shared" si="209"/>
+        <f t="shared" si="202"/>
         <v>6.9759807169320842E-2</v>
       </c>
       <c r="DH69" s="62">
-        <f t="shared" si="209"/>
+        <f t="shared" si="202"/>
         <v>3.447160041308206E-2</v>
       </c>
       <c r="DI69" s="62">
-        <f t="shared" si="209"/>
+        <f t="shared" si="202"/>
         <v>8.9535247605448065E-2</v>
       </c>
       <c r="DJ69" s="62">
-        <f t="shared" si="209"/>
+        <f t="shared" si="202"/>
         <v>5.8692129965632223E-2</v>
       </c>
       <c r="DK69" s="62">
-        <f t="shared" si="209"/>
+        <f t="shared" si="202"/>
         <v>-0.18310945794379185</v>
       </c>
     </row>
@@ -22228,67 +22337,67 @@
       <c r="BM70" s="66"/>
       <c r="BN70" s="66"/>
       <c r="BO70" s="66">
-        <f t="shared" ref="BO70:CD70" si="210">+BO3/BK3-1</f>
+        <f t="shared" ref="BO70:CD70" si="203">+BO3/BK3-1</f>
         <v>0.39752188245992959</v>
       </c>
       <c r="BP70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.19572192513368969</v>
       </c>
       <c r="BQ70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>9.4018783984181731E-2</v>
       </c>
       <c r="BR70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.24360566178296517</v>
       </c>
       <c r="BS70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.18138929559134542</v>
       </c>
       <c r="BT70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.24865831842576025</v>
       </c>
       <c r="BU70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.44596060003614668</v>
       </c>
       <c r="BV70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.25379392971246006</v>
       </c>
       <c r="BW70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.19891214541448621</v>
       </c>
       <c r="BX70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.24505079447772871</v>
       </c>
       <c r="BY70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.15642772326729593</v>
       </c>
       <c r="BZ70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CA70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CB70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CC70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CD70" s="66">
-        <f t="shared" si="210"/>
+        <f t="shared" si="203"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CE70" s="66"/>
@@ -22385,67 +22494,67 @@
       <c r="BM71" s="66"/>
       <c r="BN71" s="66"/>
       <c r="BO71" s="66">
-        <f t="shared" ref="BO71:CD73" si="211">+BO6/BK6-1</f>
+        <f t="shared" ref="BO71:CD73" si="204">+BO6/BK6-1</f>
         <v>0.75643564356435644</v>
       </c>
       <c r="BP71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.11701526286037311</v>
       </c>
       <c r="BQ71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.33676470588235285</v>
       </c>
       <c r="BR71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.17900499880980725</v>
       </c>
       <c r="BS71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>-9.0868094701240132E-2</v>
       </c>
       <c r="BT71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.44003036437246967</v>
       </c>
       <c r="BU71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.304950495049505</v>
       </c>
       <c r="BV71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.30708661417322825</v>
       </c>
       <c r="BW71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.21056547619047628</v>
       </c>
       <c r="BX71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>6.519065190651907E-2</v>
       </c>
       <c r="BY71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.14634968807958182</v>
       </c>
       <c r="BZ71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CA71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CB71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CC71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CD71" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CE71" s="66"/>
@@ -22542,67 +22651,67 @@
       <c r="BM72" s="66"/>
       <c r="BN72" s="66"/>
       <c r="BO72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.71846435100548445</v>
       </c>
       <c r="BP72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.55787901418969366</v>
       </c>
       <c r="BQ72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.49109414758269732</v>
       </c>
       <c r="BR72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.57230597431602481</v>
       </c>
       <c r="BS72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.43085106382978733</v>
       </c>
       <c r="BT72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.63614573346116976</v>
       </c>
       <c r="BU72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.43131399317406149</v>
       </c>
       <c r="BV72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.43501420454545459</v>
       </c>
       <c r="BW72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.7449814126394052</v>
       </c>
       <c r="BX72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.72428948139466742</v>
       </c>
       <c r="BY72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.84113263785394943</v>
       </c>
       <c r="BZ72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CA72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CB72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CC72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CD72" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CE72" s="66"/>
@@ -22699,67 +22808,67 @@
       <c r="BM73" s="66"/>
       <c r="BN73" s="66"/>
       <c r="BO73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.31385068762278978</v>
       </c>
       <c r="BP73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.1297973264338077</v>
       </c>
       <c r="BQ73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.29123390112172842</v>
       </c>
       <c r="BR73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.17014925373134338</v>
       </c>
       <c r="BS73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.16635514018691588</v>
       </c>
       <c r="BT73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.36068702290076327</v>
       </c>
       <c r="BU73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.25611325611325597</v>
       </c>
       <c r="BV73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.37723214285714279</v>
       </c>
       <c r="BW73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.34423076923076912</v>
       </c>
       <c r="BX73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.29312762973352036</v>
       </c>
       <c r="BY73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.46849385245901631</v>
       </c>
       <c r="BZ73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CA73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CB73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CC73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CD73" s="66">
-        <f t="shared" si="211"/>
+        <f t="shared" si="204"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CE73" s="66"/>
@@ -22800,131 +22909,131 @@
       <c r="I74" s="48"/>
       <c r="J74" s="48"/>
       <c r="K74" s="66">
-        <f t="shared" ref="K74:AP74" si="212">K66/G66-1</f>
+        <f t="shared" ref="K74:AP74" si="205">K66/G66-1</f>
         <v>0.45031564667192425</v>
       </c>
       <c r="L74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>0.67610728701847322</v>
       </c>
       <c r="M74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>0.34015035080861589</v>
       </c>
       <c r="N74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>3.7454658637521607</v>
       </c>
       <c r="O74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>1.6519622566819141</v>
       </c>
       <c r="P74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>0.46464279222800253</v>
       </c>
       <c r="Q74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>3.8235187048251413</v>
       </c>
       <c r="R74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>0.1870513600647703</v>
       </c>
       <c r="S74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>1.9471106396652482</v>
       </c>
       <c r="T74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>3.7362930227057349</v>
       </c>
       <c r="U74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>0.17487628448498183</v>
       </c>
       <c r="V74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.52026113261404561</v>
       </c>
       <c r="W74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.57728356037442752</v>
       </c>
       <c r="X74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.60384987633693532</v>
       </c>
       <c r="Y74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.45386568723743781</v>
       </c>
       <c r="Z74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.17935478589422826</v>
       </c>
       <c r="AA74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>0.1144033426114861</v>
       </c>
       <c r="AB74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>0.28860862968049394</v>
       </c>
       <c r="AC74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.10728645122357194</v>
       </c>
       <c r="AD74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>0.24088397214917667</v>
       </c>
       <c r="AE74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>5.1382705842108578E-2</v>
       </c>
       <c r="AF74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-6.5788977619371525E-2</v>
       </c>
       <c r="AG74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-7.1925548393590666E-2</v>
       </c>
       <c r="AH74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.22750132460794636</v>
       </c>
       <c r="AI74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.25615165684029639</v>
       </c>
       <c r="AJ74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.28127885987742418</v>
       </c>
       <c r="AK74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.29593098547977148</v>
       </c>
       <c r="AL74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-0.35581661852992075</v>
       </c>
       <c r="AM74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-3.0149108631133403E-3</v>
       </c>
       <c r="AN74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>-5.4279616020450283E-2</v>
       </c>
       <c r="AO74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>6.3121126760563362E-2</v>
       </c>
       <c r="AP74" s="66">
-        <f t="shared" si="212"/>
+        <f t="shared" si="205"/>
         <v>5.1020408163265252E-2</v>
       </c>
       <c r="AQ74" s="66"/>
@@ -22952,35 +23061,35 @@
       <c r="BM74" s="66"/>
       <c r="BN74" s="66"/>
       <c r="BO74" s="66">
-        <f t="shared" ref="BO74:BV74" si="213">+BO66/BK66-1</f>
+        <f t="shared" ref="BO74:BV74" si="206">+BO66/BK66-1</f>
         <v>0.41134642228190832</v>
       </c>
       <c r="BP74" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="206"/>
         <v>-6.1606684930686106E-2</v>
       </c>
       <c r="BQ74" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="206"/>
         <v>-9.406872566792901E-2</v>
       </c>
       <c r="BR74" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="206"/>
         <v>0.39971106514556243</v>
       </c>
       <c r="BS74" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="206"/>
         <v>0.24076955289661717</v>
       </c>
       <c r="BT74" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="206"/>
         <v>0.38318594312768117</v>
       </c>
       <c r="BU74" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="206"/>
         <v>0.45580624220564636</v>
       </c>
       <c r="BV74" s="66">
-        <f t="shared" si="213"/>
+        <f t="shared" si="206"/>
         <v>0.17005727482444555</v>
       </c>
       <c r="BW74" s="66">
@@ -22988,31 +23097,31 @@
         <v>0.43758303199128945</v>
       </c>
       <c r="BX74" s="66">
-        <f t="shared" ref="BX74:CD74" si="214">+BX66/BT66-1</f>
+        <f t="shared" ref="BX74:CD74" si="207">+BX66/BT66-1</f>
         <v>1.1450043970479884E-2</v>
       </c>
       <c r="BY74" s="66">
-        <f t="shared" si="214"/>
+        <f t="shared" si="207"/>
         <v>0.17768936251698442</v>
       </c>
       <c r="BZ74" s="66">
-        <f t="shared" si="214"/>
+        <f t="shared" si="207"/>
         <v>-5.0018044334840805E-2</v>
       </c>
       <c r="CA74" s="66">
-        <f t="shared" si="214"/>
+        <f t="shared" si="207"/>
         <v>-0.18066201024758266</v>
       </c>
       <c r="CB74" s="66">
-        <f t="shared" si="214"/>
+        <f t="shared" si="207"/>
         <v>0.21237670440438339</v>
       </c>
       <c r="CC74" s="66">
-        <f t="shared" si="214"/>
+        <f t="shared" si="207"/>
         <v>0.17226079416328899</v>
       </c>
       <c r="CD74" s="66">
-        <f t="shared" si="214"/>
+        <f t="shared" si="207"/>
         <v>0.27471005538103532</v>
       </c>
       <c r="CE74" s="66"/>
@@ -23020,83 +23129,83 @@
       <c r="CG74" s="66"/>
       <c r="CH74" s="48"/>
       <c r="CI74" s="67">
-        <f t="shared" ref="CI74:DB74" si="215">CI66/CH66-1</f>
+        <f t="shared" ref="CI74:DB74" si="208">CI66/CH66-1</f>
         <v>-0.10439415262209151</v>
       </c>
       <c r="CJ74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>1.8236125131542602E-2</v>
       </c>
       <c r="CK74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>8.8659943146997877E-2</v>
       </c>
       <c r="CL74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>1.8914666658705448E-2</v>
       </c>
       <c r="CM74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>0.18158561537982321</v>
       </c>
       <c r="CN74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>0.355007280514271</v>
       </c>
       <c r="CO74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>0.84588192053742906</v>
       </c>
       <c r="CP74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>-0.49685325768272748</v>
       </c>
       <c r="CQ74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>-0.14043421391571609</v>
       </c>
       <c r="CR74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>9.3314477344200064E-2</v>
       </c>
       <c r="CS74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>-0.22893757352803867</v>
       </c>
       <c r="CT74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>-2.4743087666647439</v>
       </c>
       <c r="CU74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="CV74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>-1</v>
       </c>
       <c r="CW74" s="67" t="e">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX74" s="67" t="e">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CY74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>0.32371712883247206</v>
       </c>
       <c r="CZ74" s="67">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>0.10557739192775473</v>
       </c>
       <c r="DA74" s="67" t="e">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DB74" s="67" t="e">
-        <f t="shared" si="215"/>
+        <f t="shared" si="208"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -23111,55 +23220,55 @@
         <v>123</v>
       </c>
       <c r="F76" s="64">
-        <f t="shared" ref="F76:R76" si="216">F57/F55</f>
+        <f t="shared" ref="F76:R76" si="209">F57/F55</f>
         <v>0.72539324245965431</v>
       </c>
       <c r="G76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.71365107340828793</v>
       </c>
       <c r="H76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.72475991913065463</v>
       </c>
       <c r="I76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.73272302052168059</v>
       </c>
       <c r="J76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.74005151506381495</v>
       </c>
       <c r="K76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.75013167270812031</v>
       </c>
       <c r="L76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.74846625766871167</v>
       </c>
       <c r="M76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.75506122118009567</v>
       </c>
       <c r="N76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.81222054008379396</v>
       </c>
       <c r="O76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.78222379603399439</v>
       </c>
       <c r="P76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.76181506032714963</v>
       </c>
       <c r="Q76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.82123302764734796</v>
       </c>
       <c r="R76" s="64">
-        <f t="shared" si="216"/>
+        <f t="shared" si="209"/>
         <v>0.80905231258532484</v>
       </c>
       <c r="S76" s="64">
@@ -23175,83 +23284,83 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="W76" s="64">
-        <f t="shared" ref="W76:AP76" si="217">W57/W55</f>
+        <f t="shared" ref="W76:AP76" si="210">W57/W55</f>
         <v>0.83310846723087617</v>
       </c>
       <c r="X76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.81472572601936055</v>
       </c>
       <c r="Y76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.81087738223660555</v>
       </c>
       <c r="Z76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.75879676440849342</v>
       </c>
       <c r="AA76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.79536961079208823</v>
       </c>
       <c r="AB76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.82189016647241986</v>
       </c>
       <c r="AC76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.82535191341868852</v>
       </c>
       <c r="AD76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.80084690974915962</v>
       </c>
       <c r="AE76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.79790039731470075</v>
       </c>
       <c r="AF76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.80360798362333674</v>
       </c>
       <c r="AG76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.78235552447097467</v>
       </c>
       <c r="AH76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.78143965075322874</v>
       </c>
       <c r="AI76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.78618092246180205</v>
       </c>
       <c r="AJ76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.79525042406927948</v>
       </c>
       <c r="AK76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.77885163068442809</v>
       </c>
       <c r="AL76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.75392835865355978</v>
       </c>
       <c r="AM76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.78323260106402215</v>
       </c>
       <c r="AN76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.79181946915507795</v>
       </c>
       <c r="AO76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.78046511627906967</v>
       </c>
       <c r="AP76" s="64">
-        <f t="shared" si="217"/>
+        <f t="shared" si="210"/>
         <v>0.75574733885274992</v>
       </c>
       <c r="AQ76" s="64"/>
@@ -23275,51 +23384,51 @@
       <c r="BI76" s="64"/>
       <c r="BJ76" s="64"/>
       <c r="BK76" s="64">
-        <f t="shared" ref="BK76" si="218">BK57/BK55</f>
+        <f t="shared" ref="BK76" si="211">BK57/BK55</f>
         <v>0.80155535044480664</v>
       </c>
       <c r="BL76" s="64">
-        <f t="shared" ref="BL76:BM76" si="219">BL57/BL55</f>
+        <f t="shared" ref="BL76:BM76" si="212">BL57/BL55</f>
         <v>0.80958716979793144</v>
       </c>
       <c r="BM76" s="64">
-        <f t="shared" si="219"/>
+        <f t="shared" si="212"/>
         <v>0.79579316389132326</v>
       </c>
       <c r="BN76" s="64">
-        <f t="shared" ref="BN76:BO76" si="220">BN57/BN55</f>
+        <f t="shared" ref="BN76:BO76" si="213">BN57/BN55</f>
         <v>0.79893037633089647</v>
       </c>
       <c r="BO76" s="64">
-        <f t="shared" si="220"/>
+        <f t="shared" si="213"/>
         <v>0.80263831530086338</v>
       </c>
       <c r="BP76" s="64">
-        <f t="shared" ref="BP76:BV76" si="221">BP57/BP55</f>
+        <f t="shared" ref="BP76:BV76" si="214">BP57/BP55</f>
         <v>0.79648688947885227</v>
       </c>
       <c r="BQ76" s="64">
-        <f t="shared" si="221"/>
+        <f t="shared" si="214"/>
         <v>0.79098003692993768</v>
       </c>
       <c r="BR76" s="64">
-        <f t="shared" si="221"/>
+        <f t="shared" si="214"/>
         <v>0.76884719291407366</v>
       </c>
       <c r="BS76" s="64">
-        <f t="shared" si="221"/>
+        <f t="shared" si="214"/>
         <v>0.75440813447748922</v>
       </c>
       <c r="BT76" s="64">
-        <f t="shared" si="221"/>
+        <f t="shared" si="214"/>
         <v>0.7925816023738872</v>
       </c>
       <c r="BU76" s="64">
-        <f t="shared" si="221"/>
+        <f t="shared" si="214"/>
         <v>0.79007825188247449</v>
       </c>
       <c r="BV76" s="64">
-        <f t="shared" si="221"/>
+        <f t="shared" si="214"/>
         <v>0.74372179652245651</v>
       </c>
       <c r="BW76" s="64">
@@ -23327,31 +23436,31 @@
         <v>0.76088654434642322</v>
       </c>
       <c r="BX76" s="64">
-        <f t="shared" ref="BX76:CD76" si="222">BX57/BX55</f>
+        <f t="shared" ref="BX76:CD76" si="215">BX57/BX55</f>
         <v>0.79820897362783039</v>
       </c>
       <c r="BY76" s="64">
-        <f t="shared" si="222"/>
+        <f t="shared" si="215"/>
         <v>0.79</v>
       </c>
       <c r="BZ76" s="64">
-        <f t="shared" si="222"/>
+        <f t="shared" si="215"/>
         <v>0.79</v>
       </c>
       <c r="CA76" s="64">
-        <f t="shared" si="222"/>
+        <f t="shared" si="215"/>
         <v>0.79</v>
       </c>
       <c r="CB76" s="64">
-        <f t="shared" si="222"/>
+        <f t="shared" si="215"/>
         <v>0.79</v>
       </c>
       <c r="CC76" s="64">
-        <f t="shared" si="222"/>
+        <f t="shared" si="215"/>
         <v>0.79</v>
       </c>
       <c r="CD76" s="64">
-        <f t="shared" si="222"/>
+        <f t="shared" si="215"/>
         <v>0.79</v>
       </c>
       <c r="CE76" s="64"/>
@@ -23395,19 +23504,19 @@
       <c r="CY76" s="64"/>
       <c r="CZ76" s="64"/>
       <c r="DA76" s="64">
-        <f t="shared" ref="DA76:DK76" si="223">DA57/DA55</f>
+        <f t="shared" ref="DA76:DK76" si="216">DA57/DA55</f>
         <v>0.78828764583392763</v>
       </c>
       <c r="DB76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.7690061267369388</v>
       </c>
       <c r="DC76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.78392522309680979</v>
       </c>
       <c r="DD76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.79</v>
       </c>
       <c r="DE76" s="64">
@@ -23415,27 +23524,27 @@
         <v>0.79</v>
       </c>
       <c r="DF76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.79</v>
       </c>
       <c r="DG76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.79</v>
       </c>
       <c r="DH76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.79</v>
       </c>
       <c r="DI76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.79000000000000015</v>
       </c>
       <c r="DJ76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.79</v>
       </c>
       <c r="DK76" s="64">
-        <f t="shared" si="223"/>
+        <f t="shared" si="216"/>
         <v>0.79</v>
       </c>
     </row>
@@ -23444,151 +23553,151 @@
         <v>59</v>
       </c>
       <c r="F77" s="64">
-        <f t="shared" ref="F77:AP77" si="224">F58/F55</f>
+        <f t="shared" ref="F77:AP77" si="217">F58/F55</f>
         <v>0.34829412011008376</v>
       </c>
       <c r="G77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.36335311988936692</v>
       </c>
       <c r="H77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.36204826889057362</v>
       </c>
       <c r="I77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.33844970713412842</v>
       </c>
       <c r="J77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.3443984603362949</v>
       </c>
       <c r="K77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.35412213030950829</v>
       </c>
       <c r="L77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.36167104878761319</v>
       </c>
       <c r="M77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.35200151363624077</v>
       </c>
       <c r="N77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.25034327359785935</v>
       </c>
       <c r="O77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.31558073654390933</v>
       </c>
       <c r="P77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.36356049406266394</v>
       </c>
       <c r="Q77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.25050429711999733</v>
       </c>
       <c r="R77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.26340819418815725</v>
       </c>
       <c r="S77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.24840590855202022</v>
       </c>
       <c r="T77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.25361378384426048</v>
       </c>
       <c r="U77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.24264002707116478</v>
       </c>
       <c r="V77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.32983398906055078</v>
       </c>
       <c r="W77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.31260476716137209</v>
       </c>
       <c r="X77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.33405690818421824</v>
       </c>
       <c r="Y77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.30596907587198846</v>
       </c>
       <c r="Z77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.32917087967644082</v>
       </c>
       <c r="AA77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.29430316288396685</v>
       </c>
       <c r="AB77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.3053559935289718</v>
       </c>
       <c r="AC77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.2997276649925727</v>
       </c>
       <c r="AD77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.32142164468580292</v>
       </c>
       <c r="AE77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.30581244006028224</v>
       </c>
       <c r="AF77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.32673362333674522</v>
       </c>
       <c r="AG77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.31193376815601565</v>
       </c>
       <c r="AH77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.35278554065450696</v>
       </c>
       <c r="AI77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.32976938454947874</v>
       </c>
       <c r="AJ77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.34480849924113921</v>
       </c>
       <c r="AK77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.32290307762976572</v>
       </c>
       <c r="AL77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.35995680667262442</v>
       </c>
       <c r="AM77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.33431652853678839</v>
       </c>
       <c r="AN77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.35058639846047712</v>
       </c>
       <c r="AO77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.32054719562243505</v>
       </c>
       <c r="AP77" s="64">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
         <v>0.35729597871082203</v>
       </c>
       <c r="AQ77" s="64"/>
@@ -23612,51 +23721,51 @@
       <c r="BI77" s="64"/>
       <c r="BJ77" s="64"/>
       <c r="BK77" s="64">
-        <f t="shared" ref="BK77" si="225">BK58/BK55</f>
+        <f t="shared" ref="BK77" si="218">BK58/BK55</f>
         <v>0.29793209088588202</v>
       </c>
       <c r="BL77" s="64">
-        <f t="shared" ref="BL77:BM77" si="226">BL58/BL55</f>
+        <f t="shared" ref="BL77:BM77" si="219">BL58/BL55</f>
         <v>0.28142352795075126</v>
       </c>
       <c r="BM77" s="64">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>0.25786955886649138</v>
       </c>
       <c r="BN77" s="64">
-        <f t="shared" ref="BN77:BO77" si="227">BN58/BN55</f>
+        <f t="shared" ref="BN77:BO77" si="220">BN58/BN55</f>
         <v>0.27772598662152659</v>
       </c>
       <c r="BO77" s="64">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>0.26444588552510334</v>
       </c>
       <c r="BP77" s="64">
-        <f t="shared" ref="BP77:BV77" si="228">BP58/BP55</f>
+        <f t="shared" ref="BP77:BV77" si="221">BP58/BP55</f>
         <v>0.26341055387860496</v>
       </c>
       <c r="BQ77" s="64">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>0.27333379786085082</v>
       </c>
       <c r="BR77" s="64">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>0.20885471969462779</v>
       </c>
       <c r="BS77" s="64">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>0.23157399788409544</v>
       </c>
       <c r="BT77" s="64">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>0.25010385756676567</v>
       </c>
       <c r="BU77" s="64">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>0.23296914218219408</v>
       </c>
       <c r="BV77" s="64">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>0.19900248753109415</v>
       </c>
       <c r="BW77" s="64">
@@ -23664,113 +23773,113 @@
         <v>0.1994724779452248</v>
       </c>
       <c r="BX77" s="64">
-        <f t="shared" ref="BX77:CD77" si="229">BX58/BX55</f>
+        <f t="shared" ref="BX77:CD77" si="222">BX58/BX55</f>
         <v>0.27464973257910874</v>
       </c>
       <c r="BY77" s="64">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>0.22730743189708572</v>
       </c>
       <c r="BZ77" s="64">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>0.21446620345379502</v>
       </c>
       <c r="CA77" s="64">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>0.22499150270393459</v>
       </c>
       <c r="CB77" s="64">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>0.24687720370369806</v>
       </c>
       <c r="CC77" s="64">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>0.21263232970370552</v>
       </c>
       <c r="CD77" s="64">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>0.19350135456742595</v>
       </c>
       <c r="CE77" s="64"/>
       <c r="CF77" s="64"/>
       <c r="CH77" s="64">
-        <f t="shared" ref="CH77:DA77" si="230">CH58/CH55</f>
+        <f t="shared" ref="CH77:DA77" si="223">CH58/CH55</f>
         <v>0.29383437956832059</v>
       </c>
       <c r="CI77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.30910896452107972</v>
       </c>
       <c r="CJ77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.32220897894318634</v>
       </c>
       <c r="CK77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.30911321163143085</v>
       </c>
       <c r="CL77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.30696245733788396</v>
       </c>
       <c r="CM77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.30107390629454817</v>
       </c>
       <c r="CN77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.26468097532486495</v>
       </c>
       <c r="CO77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.33758834028714957</v>
       </c>
       <c r="CP77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.32861448926124026</v>
       </c>
       <c r="CQ77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.32216426568252204</v>
       </c>
       <c r="CR77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.33001637538582668</v>
       </c>
       <c r="CS77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.33926219307249983</v>
       </c>
       <c r="CT77" s="64">
-        <f t="shared" si="230"/>
-        <v>0.32582328357254975</v>
+        <f t="shared" si="223"/>
+        <v>0.30700901220519961</v>
       </c>
       <c r="CU77" s="64">
-        <f t="shared" si="230"/>
-        <v>0.31429736130018421</v>
+        <f t="shared" si="223"/>
+        <v>0.28939945757458352</v>
       </c>
       <c r="CV77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="CW77" s="64" t="e">
-        <f t="shared" si="230"/>
-        <v>#DIV/0!</v>
+      <c r="CW77" s="64">
+        <f t="shared" si="223"/>
+        <v>0</v>
       </c>
       <c r="CX77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.29950786268217339</v>
       </c>
       <c r="CY77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.27800343369205649</v>
       </c>
       <c r="CZ77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.2784035413138346</v>
       </c>
       <c r="DA77" s="64">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>0.24943866926923092</v>
       </c>
       <c r="DB77" s="64">
@@ -23778,39 +23887,39 @@
         <v>0.22711654925225563</v>
       </c>
       <c r="DC77" s="64">
-        <f t="shared" ref="DC77:DK77" si="231">DC58/DC55</f>
+        <f t="shared" ref="DC77:DK77" si="224">DC58/DC55</f>
         <v>0.22711334256086316</v>
       </c>
       <c r="DD77" s="64">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>0.21851858797590276</v>
       </c>
       <c r="DE77" s="64">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>0.25</v>
       </c>
       <c r="DF77" s="64">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>0.25</v>
       </c>
       <c r="DG77" s="64">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>0.25</v>
       </c>
       <c r="DH77" s="64">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>0.25</v>
       </c>
       <c r="DI77" s="64">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>0.25</v>
       </c>
       <c r="DJ77" s="64">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>0.25</v>
       </c>
       <c r="DK77" s="64">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>0.25</v>
       </c>
     </row>
@@ -23819,151 +23928,151 @@
         <v>60</v>
       </c>
       <c r="F78" s="64">
-        <f t="shared" ref="F78:AP78" si="232">F59/F55</f>
+        <f t="shared" ref="F78:AP78" si="225">F59/F55</f>
         <v>0.22394867832214857</v>
       </c>
       <c r="G78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.23401274326819779</v>
       </c>
       <c r="H78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.24083901945918626</v>
       </c>
       <c r="I78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.23734777295520629</v>
       </c>
       <c r="J78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.23442248140537719</v>
       </c>
       <c r="K78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.22957523933451063</v>
       </c>
       <c r="L78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.22640958223780311</v>
       </c>
       <c r="M78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.21320647620077304</v>
       </c>
       <c r="N78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.15667359081787136</v>
       </c>
       <c r="O78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.19693106704438151</v>
       </c>
       <c r="P78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.20372931470265629</v>
       </c>
       <c r="Q78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.14315257742444021</v>
       </c>
       <c r="R78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.14306074380785214</v>
       </c>
       <c r="S78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.14052036271588322</v>
       </c>
       <c r="T78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.14194077720593723</v>
       </c>
       <c r="U78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.14021097853433181</v>
       </c>
       <c r="V78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.19884847903272238</v>
       </c>
       <c r="W78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.19365059896152745</v>
       </c>
       <c r="X78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.20346142563801703</v>
       </c>
       <c r="Y78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.20174397698669541</v>
       </c>
       <c r="Z78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.2050387596899225</v>
       </c>
       <c r="AA78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.1894266703126424</v>
       </c>
       <c r="AB78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.20651625584914851</v>
       </c>
       <c r="AC78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.2157105467921058</v>
       </c>
       <c r="AD78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.23243147142487713</v>
       </c>
       <c r="AE78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.19249212220852172</v>
       </c>
       <c r="AF78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.20160568065506657</v>
       </c>
       <c r="AG78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.20834078821099203</v>
       </c>
       <c r="AH78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.22411654788087243</v>
       </c>
       <c r="AI78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.20553691275167782</v>
       </c>
       <c r="AJ78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.23581823051513262</v>
       </c>
       <c r="AK78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.24672485071198896</v>
       </c>
       <c r="AL78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.24301831992850759</v>
       </c>
       <c r="AM78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.20837103253591982</v>
       </c>
       <c r="AN78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.23976979775607277</v>
       </c>
       <c r="AO78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.24492476060191518</v>
       </c>
       <c r="AP78" s="64">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>0.24122191011235955</v>
       </c>
       <c r="AQ78" s="64"/>
@@ -23987,51 +24096,51 @@
       <c r="BI78" s="64"/>
       <c r="BJ78" s="64"/>
       <c r="BK78" s="64">
-        <f t="shared" ref="BK78" si="233">BK59/BK55</f>
+        <f t="shared" ref="BK78" si="226">BK59/BK55</f>
         <v>0.24164882857760059</v>
       </c>
       <c r="BL78" s="64">
-        <f t="shared" ref="BL78:BM78" si="234">BL59/BL55</f>
+        <f t="shared" ref="BL78:BM78" si="227">BL59/BL55</f>
         <v>0.24876257384639947</v>
       </c>
       <c r="BM78" s="64">
-        <f t="shared" si="234"/>
+        <f t="shared" si="227"/>
         <v>0.25213628396143734</v>
       </c>
       <c r="BN78" s="64">
-        <f t="shared" ref="BN78:BO78" si="235">BN59/BN55</f>
+        <f t="shared" ref="BN78:BO78" si="228">BN59/BN55</f>
         <v>0.25863958261779768</v>
       </c>
       <c r="BO78" s="64">
-        <f t="shared" si="235"/>
+        <f t="shared" si="228"/>
         <v>0.23756783507969564</v>
       </c>
       <c r="BP78" s="64">
-        <f t="shared" ref="BP78:BV78" si="236">BP59/BP55</f>
+        <f t="shared" ref="BP78:BV78" si="229">BP59/BP55</f>
         <v>0.25279121358693685</v>
       </c>
       <c r="BQ78" s="64">
-        <f t="shared" si="236"/>
+        <f t="shared" si="229"/>
         <v>0.25526948402606009</v>
       </c>
       <c r="BR78" s="64">
-        <f t="shared" si="236"/>
+        <f t="shared" si="229"/>
         <v>0.24703969032674294</v>
       </c>
       <c r="BS78" s="64">
-        <f t="shared" si="236"/>
+        <f t="shared" si="229"/>
         <v>0.24569472199365225</v>
       </c>
       <c r="BT78" s="64">
-        <f t="shared" si="236"/>
+        <f t="shared" si="229"/>
         <v>0.24818991097922857</v>
       </c>
       <c r="BU78" s="64">
-        <f t="shared" si="236"/>
+        <f t="shared" si="229"/>
         <v>0.25231064520891783</v>
       </c>
       <c r="BV78" s="64">
-        <f t="shared" si="236"/>
+        <f t="shared" si="229"/>
         <v>0.24492806160077002</v>
       </c>
       <c r="BW78" s="64">
@@ -24039,31 +24148,31 @@
         <v>0.20615613116349343</v>
       </c>
       <c r="BX78" s="64">
-        <f t="shared" ref="BX78:CD78" si="237">BX59/BX55</f>
+        <f t="shared" ref="BX78:CD78" si="230">BX59/BX55</f>
         <v>0.25048166587031234</v>
       </c>
       <c r="BY78" s="64">
-        <f t="shared" si="237"/>
+        <f t="shared" si="230"/>
         <v>0.2461788898972874</v>
       </c>
       <c r="BZ78" s="64">
-        <f t="shared" si="237"/>
+        <f t="shared" si="230"/>
         <v>0.26396047678854645</v>
       </c>
       <c r="CA78" s="64">
-        <f t="shared" si="237"/>
+        <f t="shared" si="230"/>
         <v>0.23253021278875732</v>
       </c>
       <c r="CB78" s="64">
-        <f t="shared" si="237"/>
+        <f t="shared" si="230"/>
         <v>0.22515300731740259</v>
       </c>
       <c r="CC78" s="64">
-        <f t="shared" si="237"/>
+        <f t="shared" si="230"/>
         <v>0.23028543521811418</v>
       </c>
       <c r="CD78" s="64">
-        <f t="shared" si="237"/>
+        <f t="shared" si="230"/>
         <v>0.23815738325340102</v>
       </c>
       <c r="CE78" s="64"/>
@@ -24076,55 +24185,55 @@
         <v>206</v>
       </c>
       <c r="F79" s="64">
-        <f t="shared" ref="F79:R79" si="238">F64/F63</f>
+        <f t="shared" ref="F79:R79" si="231">F64/F63</f>
         <v>0.41673612268711452</v>
       </c>
       <c r="G79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.46445508108287376</v>
       </c>
       <c r="H79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.47611317254174368</v>
       </c>
       <c r="I79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.38536054109824602</v>
       </c>
       <c r="J79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.30359645025688908</v>
       </c>
       <c r="K79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.3900210822206604</v>
       </c>
       <c r="L79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.3674496644295302</v>
       </c>
       <c r="M79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.31622706422018343</v>
       </c>
       <c r="N79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>9.6808646985944338E-2</v>
       </c>
       <c r="O79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.21815718157181574</v>
       </c>
       <c r="P79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.32179549902152643</v>
       </c>
       <c r="Q79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>0.10236373532384734</v>
       </c>
       <c r="R79" s="64">
-        <f t="shared" si="238"/>
+        <f t="shared" si="231"/>
         <v>7.2875239357784644E-2</v>
       </c>
       <c r="S79" s="64">
@@ -24140,83 +24249,83 @@
         <v>0.22</v>
       </c>
       <c r="W79" s="64">
-        <f t="shared" ref="W79:AP79" si="239">W64/W63</f>
+        <f t="shared" ref="W79:AP79" si="232">W64/W63</f>
         <v>0.24231121580944903</v>
       </c>
       <c r="X79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.24831347782402755</v>
       </c>
       <c r="Y79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>7.8861236336688664E-2</v>
       </c>
       <c r="Z79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.21005613091944028</v>
       </c>
       <c r="AA79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.27264573991031388</v>
       </c>
       <c r="AB79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.22206943966998971</v>
       </c>
       <c r="AC79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.21555204493593119</v>
       </c>
       <c r="AD79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.16120365394948946</v>
       </c>
       <c r="AE79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.20900931998619257</v>
       </c>
       <c r="AF79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.20076941572493406</v>
       </c>
       <c r="AG79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.17926565874730019</v>
       </c>
       <c r="AH79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.19874390546235837</v>
       </c>
       <c r="AI79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.24435454211107024</v>
       </c>
       <c r="AJ79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.22108814846056535</v>
       </c>
       <c r="AK79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.22108127084430404</v>
       </c>
       <c r="AL79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="AM79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.2</v>
       </c>
       <c r="AN79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.2</v>
       </c>
       <c r="AO79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.2</v>
       </c>
       <c r="AP79" s="64">
-        <f t="shared" si="239"/>
+        <f t="shared" si="232"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="AQ79" s="64"/>
@@ -24240,51 +24349,51 @@
       <c r="BI79" s="64"/>
       <c r="BJ79" s="64"/>
       <c r="BK79" s="64">
-        <f t="shared" ref="BK79" si="240">BK64/BK63</f>
+        <f t="shared" ref="BK79" si="233">BK64/BK63</f>
         <v>0.14349424927626941</v>
       </c>
       <c r="BL79" s="64">
-        <f t="shared" ref="BL79:BM79" si="241">BL64/BL63</f>
+        <f t="shared" ref="BL79:BM79" si="234">BL64/BL63</f>
         <v>0.10415262235405147</v>
       </c>
       <c r="BM79" s="64">
-        <f t="shared" si="241"/>
+        <f t="shared" si="234"/>
         <v>0.12209341739543082</v>
       </c>
       <c r="BN79" s="64">
-        <f t="shared" ref="BN79:BO79" si="242">BN64/BN63</f>
+        <f t="shared" ref="BN79:BO79" si="235">BN64/BN63</f>
         <v>0.10993629736652002</v>
       </c>
       <c r="BO79" s="64">
-        <f t="shared" si="242"/>
+        <f t="shared" si="235"/>
         <v>0.14963763811334227</v>
       </c>
       <c r="BP79" s="64">
-        <f t="shared" ref="BP79:BV79" si="243">BP64/BP63</f>
+        <f t="shared" ref="BP79:BV79" si="236">BP64/BP63</f>
         <v>0.15867689357622258</v>
       </c>
       <c r="BQ79" s="64">
-        <f t="shared" si="243"/>
+        <f t="shared" si="236"/>
         <v>0.18152418447694052</v>
       </c>
       <c r="BR79" s="64">
-        <f t="shared" si="243"/>
+        <f t="shared" si="236"/>
         <v>0.15692650334075731</v>
       </c>
       <c r="BS79" s="64">
-        <f t="shared" si="243"/>
+        <f t="shared" si="236"/>
         <v>7.4556151403134235E-2</v>
       </c>
       <c r="BT79" s="64">
-        <f t="shared" si="243"/>
+        <f t="shared" si="236"/>
         <v>0.1070977917981074</v>
       </c>
       <c r="BU79" s="64">
-        <f t="shared" si="243"/>
+        <f t="shared" si="236"/>
         <v>0.1475739883229315</v>
       </c>
       <c r="BV79" s="64">
-        <f t="shared" si="243"/>
+        <f t="shared" si="236"/>
         <v>4.903059026281776E-2</v>
       </c>
       <c r="BW79" s="64">
@@ -24292,31 +24401,31 @@
         <v>9.7358034349109293E-2</v>
       </c>
       <c r="BX79" s="64">
-        <f t="shared" ref="BX79:CD79" si="244">BX64/BX63</f>
+        <f t="shared" ref="BX79:CD79" si="237">BX64/BX63</f>
         <v>9.9000475963826662E-2</v>
       </c>
       <c r="BY79" s="64">
-        <f t="shared" si="244"/>
+        <f t="shared" si="237"/>
         <v>0.1</v>
       </c>
       <c r="BZ79" s="64">
-        <f t="shared" si="244"/>
+        <f t="shared" si="237"/>
         <v>0.1</v>
       </c>
       <c r="CA79" s="64">
-        <f t="shared" si="244"/>
+        <f t="shared" si="237"/>
         <v>0.1</v>
       </c>
       <c r="CB79" s="64">
-        <f t="shared" si="244"/>
+        <f t="shared" si="237"/>
         <v>0.1</v>
       </c>
       <c r="CC79" s="64">
-        <f t="shared" si="244"/>
+        <f t="shared" si="237"/>
         <v>0.1</v>
       </c>
       <c r="CD79" s="64">
-        <f t="shared" si="244"/>
+        <f t="shared" si="237"/>
         <v>0.1</v>
       </c>
       <c r="CE79" s="64"/>
@@ -24328,35 +24437,35 @@
         <v>0.10070337954625655</v>
       </c>
       <c r="DD79" s="79">
-        <f t="shared" ref="DD79:DK79" si="245">+DD64/DD63</f>
+        <f t="shared" ref="DD79:DK79" si="238">+DD64/DD63</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="DE79" s="79">
-        <f t="shared" si="245"/>
+        <f t="shared" si="238"/>
         <v>0.2</v>
       </c>
       <c r="DF79" s="79">
-        <f t="shared" si="245"/>
+        <f t="shared" si="238"/>
         <v>0.2</v>
       </c>
       <c r="DG79" s="79">
-        <f t="shared" si="245"/>
+        <f t="shared" si="238"/>
         <v>0.2</v>
       </c>
       <c r="DH79" s="79">
-        <f t="shared" si="245"/>
+        <f t="shared" si="238"/>
         <v>0.2</v>
       </c>
       <c r="DI79" s="79">
-        <f t="shared" si="245"/>
+        <f t="shared" si="238"/>
         <v>0.2</v>
       </c>
       <c r="DJ79" s="79">
-        <f t="shared" si="245"/>
+        <f t="shared" si="238"/>
         <v>0.2</v>
       </c>
       <c r="DK79" s="79">
-        <f t="shared" si="245"/>
+        <f t="shared" si="238"/>
         <v>0.2</v>
       </c>
       <c r="DL79" s="52" t="s">
@@ -24391,11 +24500,11 @@
         <v>1939.5</v>
       </c>
       <c r="AF81" s="51">
-        <f t="shared" ref="AF81" si="246">+AF83-AF96</f>
+        <f t="shared" ref="AF81" si="239">+AF83-AF96</f>
         <v>2544.1999999999989</v>
       </c>
       <c r="AG81" s="51">
-        <f t="shared" ref="AG81" si="247">+AG83-AG96</f>
+        <f t="shared" ref="AG81" si="240">+AG83-AG96</f>
         <v>2923.8999999999996</v>
       </c>
       <c r="AH81" s="51">
@@ -24463,11 +24572,11 @@
       <c r="BQ81" s="51"/>
       <c r="BR81" s="51"/>
       <c r="BS81" s="51">
-        <f t="shared" ref="BS81" si="248">+BS83-BS96</f>
+        <f t="shared" ref="BS81" si="241">+BS83-BS96</f>
         <v>-9920.7000000000007</v>
       </c>
       <c r="BT81" s="51">
-        <f t="shared" ref="BT81" si="249">+BT83-BT96</f>
+        <f t="shared" ref="BT81" si="242">+BT83-BT96</f>
         <v>-9768.9999999999982</v>
       </c>
       <c r="BU81" s="51">
@@ -24487,27 +24596,27 @@
         <v>-11489.9</v>
       </c>
       <c r="BY81" s="51">
-        <f t="shared" ref="BY81:CD81" si="250">+BX81+BY65</f>
+        <f t="shared" ref="BY81:CD81" si="243">+BX81+BY65</f>
         <v>-9512.4712999999992</v>
       </c>
       <c r="BZ81" s="51">
-        <f t="shared" si="250"/>
+        <f t="shared" si="243"/>
         <v>-7430.920709</v>
       </c>
       <c r="CA81" s="51">
-        <f t="shared" si="250"/>
+        <f t="shared" si="243"/>
         <v>-5358.9707825000005</v>
       </c>
       <c r="CB81" s="51">
-        <f t="shared" si="250"/>
+        <f t="shared" si="243"/>
         <v>-3293.4445912062506</v>
       </c>
       <c r="CC81" s="51">
-        <f t="shared" si="250"/>
+        <f t="shared" si="243"/>
         <v>-975.38245294296939</v>
       </c>
       <c r="CD81" s="51">
-        <f t="shared" si="250"/>
+        <f t="shared" si="243"/>
         <v>1677.9910161890671</v>
       </c>
       <c r="CE81" s="51"/>
@@ -24532,31 +24641,31 @@
         <v>1677.9910161890693</v>
       </c>
       <c r="DE81" s="49">
-        <f t="shared" ref="DE81:DK81" si="251">+DD81+DE65</f>
+        <f t="shared" ref="DE81:DK81" si="244">+DD81+DE65</f>
         <v>15975.157401145418</v>
       </c>
       <c r="DF81" s="49">
-        <f t="shared" si="251"/>
+        <f t="shared" si="244"/>
         <v>31301.141810340327</v>
       </c>
       <c r="DG81" s="49">
-        <f t="shared" si="251"/>
+        <f t="shared" si="244"/>
         <v>47809.95642067583</v>
       </c>
       <c r="DH81" s="49">
-        <f t="shared" si="251"/>
+        <f t="shared" si="244"/>
         <v>65011.294804811478</v>
       </c>
       <c r="DI81" s="49">
-        <f t="shared" si="251"/>
+        <f t="shared" si="244"/>
         <v>83856.124577099836</v>
       </c>
       <c r="DJ81" s="49">
-        <f t="shared" si="251"/>
+        <f t="shared" si="244"/>
         <v>103927.23097483051</v>
       </c>
       <c r="DK81" s="49">
-        <f t="shared" si="251"/>
+        <f t="shared" si="244"/>
         <v>120606.53560705505</v>
       </c>
       <c r="DL81" s="47" t="s">
@@ -26050,7 +26159,7 @@
         <v>31695.3</v>
       </c>
       <c r="AF94" s="51">
-        <f t="shared" ref="AF94" si="252">SUM(AF83:AF92)</f>
+        <f t="shared" ref="AF94" si="245">SUM(AF83:AF92)</f>
         <v>32779.299999999996</v>
       </c>
       <c r="AG94" s="51">
@@ -26107,11 +26216,11 @@
       <c r="BQ94" s="51"/>
       <c r="BR94" s="51"/>
       <c r="BS94" s="51">
-        <f t="shared" ref="BS94" si="253">SUM(BS83:BS93)</f>
+        <f t="shared" ref="BS94" si="246">SUM(BS83:BS93)</f>
         <v>46838.299999999996</v>
       </c>
       <c r="BT94" s="51">
-        <f t="shared" ref="BT94" si="254">SUM(BT83:BT93)</f>
+        <f t="shared" ref="BT94" si="247">SUM(BT83:BT93)</f>
         <v>47808.999999999993</v>
       </c>
       <c r="BU94" s="51">
@@ -27668,7 +27777,7 @@
         <v>31695.3</v>
       </c>
       <c r="AF107" s="51">
-        <f t="shared" ref="AF107" si="255">SUM(AF96:AF106)</f>
+        <f t="shared" ref="AF107" si="248">SUM(AF96:AF106)</f>
         <v>32779.300000000003</v>
       </c>
       <c r="AG107" s="51">
@@ -27725,11 +27834,11 @@
       <c r="BQ107" s="51"/>
       <c r="BR107" s="51"/>
       <c r="BS107" s="51">
-        <f t="shared" ref="BS107" si="256">SUM(BS96:BS106)</f>
+        <f t="shared" ref="BS107" si="249">SUM(BS96:BS106)</f>
         <v>46838.3</v>
       </c>
       <c r="BT107" s="51">
-        <f t="shared" ref="BT107" si="257">SUM(BT96:BT106)</f>
+        <f t="shared" ref="BT107" si="250">SUM(BT96:BT106)</f>
         <v>47809.000000000007</v>
       </c>
       <c r="BU107" s="51">
@@ -28816,6 +28925,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -28929,15 +29047,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -28945,6 +29054,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28956,14 +29073,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3474E85F-250F-481F-B54B-47888CD87413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E308C3-2646-444D-9DE1-724438FD6927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49260" yWindow="2340" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29550" yWindow="1545" windowWidth="21885" windowHeight="18945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -3602,9 +3602,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3642,9 +3642,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3677,26 +3677,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3729,26 +3712,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5767,8 +5733,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5815,7 +5781,7 @@
         <v>172</v>
       </c>
       <c r="J2" s="31">
-        <v>330.47</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -5837,10 +5803,10 @@
         <v>84</v>
       </c>
       <c r="J3" s="18">
-        <v>902.94</v>
+        <v>949.27293299999997</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5865,7 +5831,7 @@
       </c>
       <c r="J4" s="18">
         <f>J2*J3</f>
-        <v>298394.58180000004</v>
+        <v>440462.64091199997</v>
       </c>
       <c r="K4" s="32"/>
     </row>
@@ -5888,10 +5854,10 @@
         <v>174</v>
       </c>
       <c r="J5" s="18">
-        <v>5324</v>
+        <v>6420</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5909,10 +5875,10 @@
         <v>175</v>
       </c>
       <c r="J6" s="18">
-        <v>16814</v>
+        <v>18884</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5935,7 +5901,7 @@
       </c>
       <c r="J7" s="18">
         <f>J4-J5+J6</f>
-        <v>309884.58180000004</v>
+        <v>452926.64091199997</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -6540,11 +6506,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:GO138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BV72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomRight" activeCell="CE86" sqref="CE86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6555,7 +6521,9 @@
     <col min="22" max="22" width="6.7109375" style="47" customWidth="1"/>
     <col min="23" max="78" width="7" style="47" customWidth="1"/>
     <col min="79" max="80" width="7.85546875" style="47" customWidth="1"/>
-    <col min="81" max="88" width="7" style="47" customWidth="1"/>
+    <col min="81" max="82" width="7" style="47" customWidth="1"/>
+    <col min="83" max="86" width="7.5703125" style="47" customWidth="1"/>
+    <col min="87" max="88" width="7" style="47" customWidth="1"/>
     <col min="89" max="89" width="4.28515625" customWidth="1"/>
     <col min="90" max="98" width="6.5703125" style="47" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="7" style="47" bestFit="1" customWidth="1"/>
@@ -18427,7 +18395,7 @@
         <v>5442.5</v>
       </c>
       <c r="AP58" s="56">
-        <f t="shared" ref="AP58:BR58" si="53">SUM(AP6:AP57)</f>
+        <f t="shared" ref="AP58:AW58" si="53">SUM(AP6:AP57)</f>
         <v>5957.3</v>
       </c>
       <c r="AQ58" s="56">
@@ -18459,51 +18427,51 @@
         <v>4875.6000000000004</v>
       </c>
       <c r="AX58" s="56">
-        <f>SUM(AX3:AX57)</f>
+        <f t="shared" ref="AX58:BF58" si="54">SUM(AX3:AX57)</f>
         <v>5121.3</v>
       </c>
       <c r="AY58" s="56">
-        <f>SUM(AY3:AY57)</f>
+        <f t="shared" si="54"/>
         <v>4644.7</v>
       </c>
       <c r="AZ58" s="56">
-        <f>SUM(AZ3:AZ57)</f>
+        <f t="shared" si="54"/>
         <v>4978.7</v>
       </c>
       <c r="BA58" s="56">
-        <f>SUM(BA3:BA57)</f>
+        <f t="shared" si="54"/>
         <v>4959.7</v>
       </c>
       <c r="BB58" s="56">
-        <f>SUM(BB3:BB57)</f>
+        <f t="shared" si="54"/>
         <v>5375.6</v>
       </c>
       <c r="BC58" s="56">
-        <f>SUM(BC3:BC57)</f>
+        <f t="shared" si="54"/>
         <v>4865.1000000000004</v>
       </c>
       <c r="BD58" s="56">
-        <f>SUM(BD3:BD57)</f>
+        <f t="shared" si="54"/>
         <v>5404.8</v>
       </c>
       <c r="BE58" s="56">
-        <f>SUM(BE3:BE57)</f>
+        <f t="shared" si="54"/>
         <v>5191.7</v>
       </c>
       <c r="BF58" s="56">
-        <f>SUM(BF3:BF57)</f>
+        <f t="shared" si="54"/>
         <v>5760.5</v>
       </c>
       <c r="BG58" s="56">
-        <f t="shared" ref="BC58:BI58" si="54">SUM(BG3:BG57)</f>
+        <f t="shared" ref="BG58:BI58" si="55">SUM(BG3:BG57)</f>
         <v>5228.3</v>
       </c>
       <c r="BH58" s="56">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>5824.3</v>
       </c>
       <c r="BI58" s="56">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>5658</v>
       </c>
       <c r="BJ58" s="56">
@@ -18511,43 +18479,43 @@
         <v>6160.7</v>
       </c>
       <c r="BK58" s="56">
-        <f t="shared" ref="BK58:BN58" si="55">SUM(BK3:BK57)</f>
+        <f t="shared" ref="BK58:BM58" si="56">SUM(BK3:BK57)</f>
         <v>5700</v>
       </c>
       <c r="BL58" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6355.2</v>
       </c>
       <c r="BM58" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6061.9</v>
       </c>
       <c r="BN58" s="56">
-        <f>SUM(BN3:BN57)</f>
+        <f t="shared" ref="BN58:BT58" si="57">SUM(BN3:BN57)</f>
         <v>6438.6</v>
       </c>
       <c r="BO58" s="56">
-        <f>SUM(BO3:BO57)</f>
+        <f t="shared" si="57"/>
         <v>5971.7999999999993</v>
       </c>
       <c r="BP58" s="56">
-        <f>SUM(BP3:BP57)</f>
+        <f t="shared" si="57"/>
         <v>6665.2000000000007</v>
       </c>
       <c r="BQ58" s="56">
-        <f>SUM(BQ3:BQ57)</f>
+        <f t="shared" si="57"/>
         <v>6488.3</v>
       </c>
       <c r="BR58" s="56">
-        <f>SUM(BR3:BR57)</f>
+        <f t="shared" si="57"/>
         <v>7322.4</v>
       </c>
       <c r="BS58" s="56">
-        <f>SUM(BS3:BS57)</f>
+        <f t="shared" si="57"/>
         <v>5859.7999999999975</v>
       </c>
       <c r="BT58" s="56">
-        <f>SUM(BT3:BT57)</f>
+        <f t="shared" si="57"/>
         <v>5499.3999999999987</v>
       </c>
       <c r="BU58" s="56">
@@ -18583,27 +18551,27 @@
         <v>6487.9000000000015</v>
       </c>
       <c r="CC58" s="56">
-        <f t="shared" ref="CC58:CH58" si="56">SUM(CC3:CC29)</f>
+        <f t="shared" ref="CC58:CH58" si="58">SUM(CC3:CC29)</f>
         <v>6941.7000000000007</v>
       </c>
       <c r="CD58" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>7302.4000000000015</v>
       </c>
       <c r="CE58" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>6959.9999999999991</v>
       </c>
       <c r="CF58" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>5774.137999999999</v>
       </c>
       <c r="CG58" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>6013.9449999999997</v>
       </c>
       <c r="CH58" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>6653.7189999999991</v>
       </c>
       <c r="CI58" s="56"/>
@@ -18613,51 +18581,51 @@
         <v>11629</v>
       </c>
       <c r="CM58" s="56">
-        <f t="shared" ref="CM58:CX58" si="57">SUM(CM6:CM57)</f>
+        <f t="shared" ref="CM58:CX58" si="59">SUM(CM6:CM57)</f>
         <v>11077</v>
       </c>
       <c r="CN58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>12585</v>
       </c>
       <c r="CO58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>13859</v>
       </c>
       <c r="CP58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>14650</v>
       </c>
       <c r="CQ58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>15783.499999999998</v>
       </c>
       <c r="CR58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>18492.3</v>
       </c>
       <c r="CS58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>19604.942499999997</v>
       </c>
       <c r="CT58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>20974.425124999998</v>
       </c>
       <c r="CU58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>21893.8</v>
       </c>
       <c r="CV58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>23877.3</v>
       </c>
       <c r="CW58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>22001.5</v>
       </c>
       <c r="CX58" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>23113.100000000002</v>
       </c>
       <c r="CY58" s="56">
@@ -18673,55 +18641,55 @@
         <v>21222.100000000002</v>
       </c>
       <c r="DB58" s="56">
-        <f t="shared" ref="DB58:DN58" si="58">SUM(DB3:DB57)</f>
+        <f t="shared" ref="DB58:DN58" si="60">SUM(DB3:DB57)</f>
         <v>19974.100000000002</v>
       </c>
       <c r="DC58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>21492.899999999998</v>
       </c>
       <c r="DD58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>22319.4</v>
       </c>
       <c r="DE58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>24539.899999999998</v>
       </c>
       <c r="DF58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>28318.499999999996</v>
       </c>
       <c r="DG58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>28542.100000000006</v>
       </c>
       <c r="DH58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>25401.801999999996</v>
       </c>
       <c r="DI58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>28755.239199999996</v>
       </c>
       <c r="DJ58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>31116.771373000003</v>
       </c>
       <c r="DK58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>33793.616248680002</v>
       </c>
       <c r="DL58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>35317.457225544298</v>
       </c>
       <c r="DM58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>39016.322110058369</v>
       </c>
       <c r="DN58" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>41709.241270424645</v>
       </c>
       <c r="DO58" s="56">
@@ -18954,11 +18922,11 @@
         <v>1309.2</v>
       </c>
       <c r="CC59" s="51">
-        <f t="shared" ref="CC59:CH59" si="59">+CC58-CC60</f>
+        <f t="shared" ref="CC59:CH59" si="61">+CC58-CC60</f>
         <v>1457.7569999999996</v>
       </c>
       <c r="CD59" s="51">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1533.5039999999999</v>
       </c>
       <c r="CE59" s="51">
@@ -18966,15 +18934,15 @@
         <v>1500.9</v>
       </c>
       <c r="CF59" s="51">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1212.56898</v>
       </c>
       <c r="CG59" s="51">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1262.9284499999994</v>
       </c>
       <c r="CH59" s="51">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1397.2809899999993</v>
       </c>
       <c r="CI59" s="51"/>
@@ -19022,11 +18990,11 @@
         <v>4796.5</v>
       </c>
       <c r="CX59" s="51">
-        <f t="shared" ref="CX59:CY59" si="60">CX58-CX60</f>
+        <f t="shared" ref="CX59:CY59" si="62">CX58-CX60</f>
         <v>23113.100000000002</v>
       </c>
       <c r="CY59" s="51">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>19615.599999999999</v>
       </c>
       <c r="CZ59" s="51"/>
@@ -19041,11 +19009,11 @@
         <v>4721.2</v>
       </c>
       <c r="DE59" s="49">
-        <f t="shared" ref="DE59" si="61">SUM(BS59:BV59)</f>
+        <f t="shared" ref="DE59" si="63">SUM(BS59:BV59)</f>
         <v>5195.3999999999996</v>
       </c>
       <c r="DF59" s="49">
-        <f t="shared" ref="DF59" si="62">SUM(BW59:BZ59)</f>
+        <f t="shared" ref="DF59" si="64">SUM(BW59:BZ59)</f>
         <v>6541.4</v>
       </c>
       <c r="DG59" s="49">
@@ -19061,27 +19029,27 @@
         <v>6038.600231999997</v>
       </c>
       <c r="DJ59" s="49">
-        <f t="shared" ref="DJ59:DO59" si="63">DJ58-DJ60</f>
+        <f t="shared" ref="DJ59:DO59" si="65">DJ58-DJ60</f>
         <v>6534.5219883299978</v>
       </c>
       <c r="DK59" s="49">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>7096.659412222798</v>
       </c>
       <c r="DL59" s="49">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>7416.6660173643031</v>
       </c>
       <c r="DM59" s="49">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>8193.4276431122562</v>
       </c>
       <c r="DN59" s="49">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>8758.9406667891744</v>
       </c>
       <c r="DO59" s="49">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6864.9134877110155</v>
       </c>
     </row>
@@ -19097,99 +19065,99 @@
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="51">
-        <f t="shared" ref="J60:R60" si="64">J58-J59</f>
+        <f t="shared" ref="J60:R60" si="66">J58-J59</f>
         <v>2455.1000000000004</v>
       </c>
       <c r="K60" s="51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2350.4366336633661</v>
       </c>
       <c r="L60" s="51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2294.3000000000002</v>
       </c>
       <c r="M60" s="51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2318.4333333333334</v>
       </c>
       <c r="N60" s="51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2557.1000000000004</v>
       </c>
       <c r="O60" s="51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2421.2000000000003</v>
       </c>
       <c r="P60" s="51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2562</v>
       </c>
       <c r="Q60" s="51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2793.5</v>
       </c>
       <c r="R60" s="51">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4613.9000000000005</v>
       </c>
       <c r="S60" s="51">
-        <f t="shared" ref="S60:AA60" si="65">S58-S59</f>
+        <f t="shared" ref="S60:AA60" si="67">S58-S59</f>
         <v>3313.5</v>
       </c>
       <c r="T60" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>3194.9</v>
       </c>
       <c r="U60" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4844.6999999999989</v>
       </c>
       <c r="V60" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5392.9000000000005</v>
       </c>
       <c r="W60" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5130.5000000000009</v>
       </c>
       <c r="X60" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5502.5999999999985</v>
       </c>
       <c r="Y60" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5641.7000000000007</v>
       </c>
       <c r="Z60" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4310.8999999999996</v>
       </c>
       <c r="AA60" s="51">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4075.4</v>
       </c>
       <c r="AB60" s="51">
-        <f t="shared" ref="AB60:AG60" si="66">AB58-AB59</f>
+        <f t="shared" ref="AB60:AG60" si="68">AB58-AB59</f>
         <v>4166.1000000000004</v>
       </c>
       <c r="AC60" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4510.1000000000004</v>
       </c>
       <c r="AD60" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4502.7</v>
       </c>
       <c r="AE60" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4363</v>
       </c>
       <c r="AF60" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4724.8</v>
       </c>
       <c r="AG60" s="51">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4667.2</v>
       </c>
       <c r="AH60" s="51">
@@ -19229,151 +19197,151 @@
         <v>4709</v>
       </c>
       <c r="AQ60" s="51">
-        <f t="shared" ref="AQ60:AT60" si="67">+AQ58-AQ59</f>
+        <f t="shared" ref="AQ60:AT60" si="69">+AQ58-AQ59</f>
         <v>4443.7</v>
       </c>
       <c r="AR60" s="51">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>4764.5</v>
       </c>
       <c r="AS60" s="51">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>4574.5</v>
       </c>
       <c r="AT60" s="51">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>4422.3</v>
       </c>
       <c r="AU60" s="51">
-        <f t="shared" ref="AU60:AV60" si="68">AU58-AU59</f>
+        <f t="shared" ref="AU60" si="70">AU58-AU59</f>
         <v>3460.4000000000005</v>
       </c>
       <c r="AV60" s="51">
-        <f t="shared" ref="AV60:AW60" si="69">AV58-AV59</f>
+        <f t="shared" ref="AV60:AW60" si="71">AV58-AV59</f>
         <v>3745.9000000000005</v>
       </c>
       <c r="AW60" s="51">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>3608.6000000000004</v>
       </c>
       <c r="AX60" s="51">
-        <f t="shared" ref="AX60:AY60" si="70">AX58-AX59</f>
+        <f t="shared" ref="AX60" si="72">AX58-AX59</f>
         <v>3868.2000000000003</v>
       </c>
       <c r="AY60" s="51">
-        <f t="shared" ref="AY60:AZ60" si="71">AY58-AY59</f>
+        <f t="shared" ref="AY60:AZ60" si="73">AY58-AY59</f>
         <v>3452</v>
       </c>
       <c r="AZ60" s="51">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>3944.7999999999997</v>
       </c>
       <c r="BA60" s="51">
-        <f t="shared" ref="BA60:BC60" si="72">BA58-BA59</f>
+        <f t="shared" ref="BA60:BC60" si="74">BA58-BA59</f>
         <v>3722.7999999999997</v>
       </c>
       <c r="BB60" s="51">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>3986.4000000000005</v>
       </c>
       <c r="BC60" s="51">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>3542.1000000000004</v>
       </c>
       <c r="BD60" s="51">
-        <f t="shared" ref="BD60:BE60" si="73">BD58-BD59</f>
+        <f t="shared" ref="BD60:BE60" si="75">BD58-BD59</f>
         <v>4106.3999999999996</v>
       </c>
       <c r="BE60" s="51">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3790.7999999999997</v>
       </c>
       <c r="BF60" s="51">
-        <f t="shared" ref="BF60:BG60" si="74">BF58-BF59</f>
+        <f t="shared" ref="BF60:BG60" si="76">BF58-BF59</f>
         <v>4294.5</v>
       </c>
       <c r="BG60" s="51">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>3880.4</v>
       </c>
       <c r="BH60" s="51">
-        <f t="shared" ref="BH60:BJ60" si="75">BH58-BH59</f>
+        <f t="shared" ref="BH60:BJ60" si="77">BH58-BH59</f>
         <v>4252.6000000000004</v>
       </c>
       <c r="BI60" s="51">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>4071.7</v>
       </c>
       <c r="BJ60" s="51">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>4515.7999999999993</v>
       </c>
       <c r="BK60" s="51">
-        <f t="shared" ref="BK60:BL60" si="76">BK58-BK59</f>
+        <f t="shared" ref="BK60:BL60" si="78">BK58-BK59</f>
         <v>4128.7</v>
       </c>
       <c r="BL60" s="51">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>4652.5</v>
       </c>
       <c r="BM60" s="51">
-        <f t="shared" ref="BM60:BN60" si="77">BM58-BM59</f>
+        <f t="shared" ref="BM60:BN60" si="79">BM58-BM59</f>
         <v>4499.5999999999995</v>
       </c>
       <c r="BN60" s="51">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>4844.9000000000005</v>
       </c>
       <c r="BO60" s="51">
-        <f t="shared" ref="BO60:CA60" si="78">BO58-BO59</f>
+        <f t="shared" ref="BO60:CA60" si="80">BO58-BO59</f>
         <v>4961.2999999999993</v>
       </c>
       <c r="BP60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5591.9000000000005</v>
       </c>
       <c r="BQ60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5369.9</v>
       </c>
       <c r="BR60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6093</v>
       </c>
       <c r="BS60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>4703.2999999999975</v>
       </c>
       <c r="BT60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>4380.1999999999989</v>
       </c>
       <c r="BU60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>4540.6999999999989</v>
       </c>
       <c r="BV60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5720.2999999999993</v>
       </c>
       <c r="BW60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5134.2000000000007</v>
       </c>
       <c r="BX60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5341.9999999999973</v>
       </c>
       <c r="BY60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5351.199999999998</v>
       </c>
       <c r="BZ60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5949.7</v>
       </c>
       <c r="CA60" s="51">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5942.5999999999995</v>
       </c>
       <c r="CB60" s="51">
@@ -19381,11 +19349,11 @@
         <v>5178.7000000000016</v>
       </c>
       <c r="CC60" s="51">
-        <f t="shared" ref="CC60:CH60" si="79">+CC58*0.79</f>
+        <f t="shared" ref="CC60:CH60" si="81">+CC58*0.79</f>
         <v>5483.9430000000011</v>
       </c>
       <c r="CD60" s="51">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>5768.8960000000015</v>
       </c>
       <c r="CE60" s="51">
@@ -19393,41 +19361,41 @@
         <v>5459.0999999999985</v>
       </c>
       <c r="CF60" s="51">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>4561.569019999999</v>
       </c>
       <c r="CG60" s="51">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>4751.0165500000003</v>
       </c>
       <c r="CH60" s="51">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>5256.4380099999998</v>
       </c>
       <c r="CI60" s="51"/>
       <c r="CJ60" s="51"/>
       <c r="CL60" s="51">
-        <f t="shared" ref="CL60:CQ60" si="80">CL58-CL59</f>
+        <f t="shared" ref="CL60:CQ60" si="82">CL58-CL59</f>
         <v>9469</v>
       </c>
       <c r="CM60" s="51">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>8900</v>
       </c>
       <c r="CN60" s="51">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9910</v>
       </c>
       <c r="CO60" s="51">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>10635</v>
       </c>
       <c r="CP60" s="51">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>11176</v>
       </c>
       <c r="CQ60" s="51">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>12282.499999999998</v>
       </c>
       <c r="CR60" s="51">
@@ -19455,21 +19423,21 @@
         <v>17205</v>
       </c>
       <c r="CX60" s="51">
-        <f t="shared" ref="CX60:CY60" si="81">CX58*CX79</f>
+        <f t="shared" ref="CX60:CY60" si="83">CX58*CX79</f>
         <v>0</v>
       </c>
       <c r="CY60" s="51">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="CZ60" s="51"/>
       <c r="DA60" s="51"/>
       <c r="DB60" s="51">
-        <f t="shared" ref="DB60:DC60" si="82">+DB58-DB59</f>
+        <f t="shared" ref="DB60:DC60" si="84">+DB58-DB59</f>
         <v>15526.400000000001</v>
       </c>
       <c r="DC60" s="51">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>16811.199999999997</v>
       </c>
       <c r="DD60" s="51">
@@ -19481,7 +19449,7 @@
         <v>19344.5</v>
       </c>
       <c r="DF60" s="51">
-        <f t="shared" ref="DF60" si="83">+DF58-DF59</f>
+        <f t="shared" ref="DF60" si="85">+DF58-DF59</f>
         <v>21777.1</v>
       </c>
       <c r="DG60" s="51">
@@ -19497,27 +19465,27 @@
         <v>22716.638967999999</v>
       </c>
       <c r="DJ60" s="51">
-        <f t="shared" ref="DJ60:DO60" si="84">DJ58*0.79</f>
+        <f t="shared" ref="DJ60:DO60" si="86">DJ58*0.79</f>
         <v>24582.249384670005</v>
       </c>
       <c r="DK60" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>26696.956836457204</v>
       </c>
       <c r="DL60" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>27900.791208179995</v>
       </c>
       <c r="DM60" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>30822.894466946113</v>
       </c>
       <c r="DN60" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>32950.300603635471</v>
       </c>
       <c r="DO60" s="51">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>25825.150739484303</v>
       </c>
     </row>
@@ -19746,26 +19714,26 @@
         <v>1781.9</v>
       </c>
       <c r="CC61" s="51">
-        <f t="shared" ref="CC61:CC62" si="85">+BY61</f>
+        <f t="shared" ref="CC61:CC62" si="87">+BY61</f>
         <v>1577.9</v>
       </c>
       <c r="CD61" s="51">
-        <f t="shared" ref="CD61:CD62" si="86">+BZ61</f>
+        <f t="shared" ref="CD61:CD62" si="88">+BZ61</f>
         <v>1592</v>
       </c>
       <c r="CE61" s="51">
         <v>1749.2</v>
       </c>
       <c r="CF61" s="51">
-        <f t="shared" ref="CF61:CF62" si="87">+CB61</f>
+        <f t="shared" ref="CF61:CF62" si="89">+CB61</f>
         <v>1781.9</v>
       </c>
       <c r="CG61" s="51">
-        <f t="shared" ref="CG61:CG62" si="88">+CC61</f>
+        <f t="shared" ref="CG61:CG62" si="90">+CC61</f>
         <v>1577.9</v>
       </c>
       <c r="CH61" s="51">
-        <f t="shared" ref="CH61:CH62" si="89">+CD61</f>
+        <f t="shared" ref="CH61:CH62" si="91">+CD61</f>
         <v>1592</v>
       </c>
       <c r="CI61" s="51"/>
@@ -19805,11 +19773,11 @@
         <v>7053.4000000000005</v>
       </c>
       <c r="CV61" s="51">
-        <f t="shared" ref="CV61:CV62" si="90">SUM(AI61:AL61)</f>
+        <f t="shared" ref="CV61:CV62" si="92">SUM(AI61:AL61)</f>
         <v>7879.9</v>
       </c>
       <c r="CW61" s="51">
-        <f t="shared" ref="CW61" si="91">SUM(AM61:AP61)</f>
+        <f t="shared" ref="CW61" si="93">SUM(AM61:AP61)</f>
         <v>7513.5</v>
       </c>
       <c r="CX61" s="51">
@@ -19832,19 +19800,19 @@
         <v>6213.8</v>
       </c>
       <c r="DE61" s="49">
-        <f t="shared" ref="DE61:DE62" si="92">SUM(BS61:BV61)</f>
+        <f t="shared" ref="DE61:DE62" si="94">SUM(BS61:BV61)</f>
         <v>6121.1999999999989</v>
       </c>
       <c r="DF61" s="49">
-        <f t="shared" ref="DF61:DF62" si="93">SUM(BW61:BZ61)</f>
+        <f t="shared" ref="DF61:DF62" si="95">SUM(BW61:BZ61)</f>
         <v>6431.6</v>
       </c>
       <c r="DG61" s="49">
-        <f t="shared" ref="DG61:DG62" si="94">SUM(CA61:CD61)</f>
+        <f t="shared" ref="DG61:DG62" si="96">SUM(CA61:CD61)</f>
         <v>6509.7000000000007</v>
       </c>
       <c r="DH61" s="49">
-        <f t="shared" ref="DH61:DH62" si="95">SUM(CE61:CH61)</f>
+        <f t="shared" ref="DH61:DH62" si="97">SUM(CE61:CH61)</f>
         <v>6701</v>
       </c>
       <c r="DI61" s="49">
@@ -19852,27 +19820,27 @@
         <v>7188.8097999999991</v>
       </c>
       <c r="DJ61" s="49">
-        <f t="shared" ref="DJ61:DO61" si="96">+DJ58*0.25</f>
+        <f t="shared" ref="DJ61:DO61" si="98">+DJ58*0.25</f>
         <v>7779.1928432500008</v>
       </c>
       <c r="DK61" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>8448.4040621700005</v>
       </c>
       <c r="DL61" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>8829.3643063860745</v>
       </c>
       <c r="DM61" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>9754.0805275145922</v>
       </c>
       <c r="DN61" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>10427.310317606161</v>
       </c>
       <c r="DO61" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>8172.5160567988296</v>
       </c>
     </row>
@@ -20101,26 +20069,26 @@
         <v>1625.1</v>
       </c>
       <c r="CC62" s="51">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1708.9</v>
       </c>
       <c r="CD62" s="51">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1959.4</v>
       </c>
       <c r="CE62" s="51">
         <v>1985.1</v>
       </c>
       <c r="CF62" s="51">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1625.1</v>
       </c>
       <c r="CG62" s="51">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1708.9</v>
       </c>
       <c r="CH62" s="51">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1959.4</v>
       </c>
       <c r="CI62" s="51"/>
@@ -20160,7 +20128,7 @@
         <v>4884.2000000000007</v>
       </c>
       <c r="CV62" s="51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>5020.8</v>
       </c>
       <c r="CW62" s="51">
@@ -20181,19 +20149,19 @@
         <v>5595</v>
       </c>
       <c r="DE62" s="49">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>6085.7000000000007</v>
       </c>
       <c r="DF62" s="49">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>7013.1999999999989</v>
       </c>
       <c r="DG62" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>6903.5</v>
       </c>
       <c r="DH62" s="49">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>7278.5</v>
       </c>
       <c r="DI62" s="49"/>
@@ -20232,39 +20200,39 @@
       <c r="X63" s="51"/>
       <c r="Y63" s="51"/>
       <c r="Z63" s="51">
-        <f t="shared" ref="Z63:AE63" si="97">Z62+Z61</f>
+        <f t="shared" ref="Z63:AE63" si="99">Z62+Z61</f>
         <v>2754.7</v>
       </c>
       <c r="AA63" s="51">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>2476.5</v>
       </c>
       <c r="AB63" s="51">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>2748.6000000000004</v>
       </c>
       <c r="AC63" s="51">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>2823.8999999999996</v>
       </c>
       <c r="AD63" s="51">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>3170</v>
       </c>
       <c r="AE63" s="51">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>2653.5</v>
       </c>
       <c r="AF63" s="51">
-        <f t="shared" ref="AF63:AH63" si="98">AF62+AF61</f>
+        <f t="shared" ref="AF63:AH63" si="100">AF62+AF61</f>
         <v>2942.6000000000004</v>
       </c>
       <c r="AG63" s="51">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>2914.7</v>
       </c>
       <c r="AH63" s="51">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>3426.8</v>
       </c>
       <c r="AI63" s="51">
@@ -20300,209 +20268,209 @@
         <v>3440.6</v>
       </c>
       <c r="AQ63" s="51">
-        <f t="shared" ref="AQ63:AT63" si="99">+AQ62+AQ61</f>
+        <f t="shared" ref="AQ63:AT63" si="101">+AQ62+AQ61</f>
         <v>3000.1</v>
       </c>
       <c r="AR63" s="51">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>3198</v>
       </c>
       <c r="AS63" s="51">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>3029.8</v>
       </c>
       <c r="AT63" s="51">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>3429</v>
       </c>
       <c r="AU63" s="51">
-        <f t="shared" ref="AU63:AV63" si="100">SUM(AU61:AU62)</f>
+        <f t="shared" ref="AU63" si="102">SUM(AU61:AU62)</f>
         <v>2594.1999999999998</v>
       </c>
       <c r="AV63" s="51">
-        <f t="shared" ref="AV63:AW63" si="101">SUM(AV61:AV62)</f>
+        <f t="shared" ref="AV63:AW63" si="103">SUM(AV61:AV62)</f>
         <v>2859.3</v>
       </c>
       <c r="AW63" s="51">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>2915.3</v>
       </c>
       <c r="AX63" s="51">
-        <f t="shared" ref="AX63:AY63" si="102">SUM(AX61:AX62)</f>
+        <f t="shared" ref="AX63" si="104">SUM(AX61:AX62)</f>
         <v>2985.6000000000004</v>
       </c>
       <c r="AY63" s="51">
-        <f t="shared" ref="AY63:AZ63" si="103">SUM(AY61:AY62)</f>
+        <f t="shared" ref="AY63:AZ63" si="105">SUM(AY61:AY62)</f>
         <v>2562.8000000000002</v>
       </c>
       <c r="AZ63" s="51">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>2804.9</v>
       </c>
       <c r="BA63" s="51">
-        <f t="shared" ref="BA63:BC63" si="104">SUM(BA61:BA62)</f>
+        <f t="shared" ref="BA63:BC63" si="106">SUM(BA61:BA62)</f>
         <v>2719.1000000000004</v>
       </c>
       <c r="BB63" s="51">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>3242.6000000000004</v>
       </c>
       <c r="BC63" s="51">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2694.9</v>
       </c>
       <c r="BD63" s="51">
-        <f t="shared" ref="BD63:BE63" si="105">SUM(BD61:BD62)</f>
+        <f t="shared" ref="BD63:BE63" si="107">SUM(BD61:BD62)</f>
         <v>2958.5</v>
       </c>
       <c r="BE63" s="51">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2801.8</v>
       </c>
       <c r="BF63" s="51">
-        <f t="shared" ref="BF63:BG63" si="106">SUM(BF61:BF62)</f>
+        <f t="shared" ref="BF63:BG63" si="108">SUM(BF61:BF62)</f>
         <v>3240.7</v>
       </c>
       <c r="BG63" s="51">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>2826</v>
       </c>
       <c r="BH63" s="51">
-        <f t="shared" ref="BH63:BI63" si="107">SUM(BH61:BH62)</f>
+        <f t="shared" ref="BH63" si="109">SUM(BH61:BH62)</f>
         <v>3002.5</v>
       </c>
       <c r="BI63" s="51">
-        <f t="shared" ref="BI63:BJ63" si="108">SUM(BI61:BI62)</f>
+        <f t="shared" ref="BI63:BJ63" si="110">SUM(BI61:BI62)</f>
         <v>2918.5</v>
       </c>
       <c r="BJ63" s="51">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>3290.4</v>
       </c>
       <c r="BK63" s="51">
-        <f t="shared" ref="BK63:BL63" si="109">SUM(BK61:BK62)</f>
+        <f t="shared" ref="BK63:BL63" si="111">SUM(BK61:BK62)</f>
         <v>2676.9</v>
       </c>
       <c r="BL63" s="51">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>2986.8</v>
       </c>
       <c r="BM63" s="51">
-        <f t="shared" ref="BM63:BN63" si="110">SUM(BM61:BM62)</f>
+        <f t="shared" ref="BM63:BN63" si="112">SUM(BM61:BM62)</f>
         <v>2959.8999999999996</v>
       </c>
       <c r="BN63" s="51">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>3315.3</v>
       </c>
       <c r="BO63" s="51">
-        <f t="shared" ref="BO63:CA63" si="111">SUM(BO61:BO62)</f>
+        <f t="shared" ref="BO63:CA63" si="113">SUM(BO61:BO62)</f>
         <v>2747.6</v>
       </c>
       <c r="BP63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2988.5</v>
       </c>
       <c r="BQ63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2793.2</v>
       </c>
       <c r="BR63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>3279.5</v>
       </c>
       <c r="BS63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2941.7</v>
       </c>
       <c r="BT63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2838.8</v>
       </c>
       <c r="BU63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>3034.5</v>
       </c>
       <c r="BV63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>3391.9</v>
       </c>
       <c r="BW63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>3248.1</v>
       </c>
       <c r="BX63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>3358.5</v>
       </c>
       <c r="BY63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>3286.8</v>
       </c>
       <c r="BZ63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>3551.4</v>
       </c>
       <c r="CA63" s="51">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>3168</v>
       </c>
       <c r="CB63" s="51">
-        <f t="shared" ref="CB63:CH63" si="112">SUM(CB61:CB62)</f>
+        <f t="shared" ref="CB63:CH63" si="114">SUM(CB61:CB62)</f>
         <v>3407</v>
       </c>
       <c r="CC63" s="51">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>3286.8</v>
       </c>
       <c r="CD63" s="51">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>3551.4</v>
       </c>
       <c r="CE63" s="51">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>3734.3</v>
       </c>
       <c r="CF63" s="51">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>3407</v>
       </c>
       <c r="CG63" s="51">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>3286.8</v>
       </c>
       <c r="CH63" s="51">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>3551.4</v>
       </c>
       <c r="CI63" s="51"/>
       <c r="CJ63" s="51"/>
       <c r="CL63" s="51">
-        <f t="shared" ref="CL63:CR63" si="113">CL62+CL61</f>
+        <f t="shared" ref="CL63:CR63" si="115">CL62+CL61</f>
         <v>5652</v>
       </c>
       <c r="CM63" s="51">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>5573</v>
       </c>
       <c r="CN63" s="51">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>6405</v>
       </c>
       <c r="CO63" s="51">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>6975</v>
       </c>
       <c r="CP63" s="51">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>7523</v>
       </c>
       <c r="CQ63" s="51">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>7882</v>
       </c>
       <c r="CR63" s="51">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>8087.16</v>
       </c>
       <c r="CS63" s="51">
@@ -20510,7 +20478,7 @@
         <v>10436.099999999999</v>
       </c>
       <c r="CT63" s="51">
-        <f t="shared" ref="CT63:CZ63" si="114">CT62+CT61</f>
+        <f t="shared" ref="CT63:CZ63" si="116">CT62+CT61</f>
         <v>11219</v>
       </c>
       <c r="CU63" s="51">
@@ -20526,15 +20494,15 @@
         <v>12791.6</v>
       </c>
       <c r="CX63" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>7137.8249999999998</v>
       </c>
       <c r="CY63" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>5710.26</v>
       </c>
       <c r="CZ63" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="DA63" s="51"/>
@@ -20543,11 +20511,11 @@
         <v>11078.599999999999</v>
       </c>
       <c r="DC63" s="51">
-        <f t="shared" ref="DC63:DD63" si="115">DC62+DC61</f>
+        <f t="shared" ref="DC63:DD63" si="117">DC62+DC61</f>
         <v>11026.3</v>
       </c>
       <c r="DD63" s="51">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>11808.8</v>
       </c>
       <c r="DE63" s="51">
@@ -20555,43 +20523,43 @@
         <v>12206.9</v>
       </c>
       <c r="DF63" s="51">
-        <f t="shared" ref="DF63:DH63" si="116">DF62+DF61</f>
+        <f t="shared" ref="DF63:DH63" si="118">DF62+DF61</f>
         <v>13444.8</v>
       </c>
       <c r="DG63" s="51">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>13413.2</v>
       </c>
       <c r="DH63" s="51">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>13979.5</v>
       </c>
       <c r="DI63" s="51">
-        <f t="shared" ref="DI63" si="117">DI62+DI61</f>
+        <f t="shared" ref="DI63" si="119">DI62+DI61</f>
         <v>7188.8097999999991</v>
       </c>
       <c r="DJ63" s="51">
-        <f t="shared" ref="DJ63" si="118">DJ62+DJ61</f>
+        <f t="shared" ref="DJ63" si="120">DJ62+DJ61</f>
         <v>7779.1928432500008</v>
       </c>
       <c r="DK63" s="51">
-        <f t="shared" ref="DK63" si="119">DK62+DK61</f>
+        <f t="shared" ref="DK63" si="121">DK62+DK61</f>
         <v>8448.4040621700005</v>
       </c>
       <c r="DL63" s="51">
-        <f t="shared" ref="DL63" si="120">DL62+DL61</f>
+        <f t="shared" ref="DL63" si="122">DL62+DL61</f>
         <v>8829.3643063860745</v>
       </c>
       <c r="DM63" s="51">
-        <f t="shared" ref="DM63" si="121">DM62+DM61</f>
+        <f t="shared" ref="DM63" si="123">DM62+DM61</f>
         <v>9754.0805275145922</v>
       </c>
       <c r="DN63" s="51">
-        <f t="shared" ref="DN63" si="122">DN62+DN61</f>
+        <f t="shared" ref="DN63" si="124">DN62+DN61</f>
         <v>10427.310317606161</v>
       </c>
       <c r="DO63" s="51">
-        <f t="shared" ref="DO63" si="123">DO62+DO61</f>
+        <f t="shared" ref="DO63" si="125">DO62+DO61</f>
         <v>8172.5160567988296</v>
       </c>
     </row>
@@ -20607,103 +20575,103 @@
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="51">
-        <f t="shared" ref="J64:S64" si="124">J60-J61-J62</f>
+        <f t="shared" ref="J64:S64" si="126">J60-J61-J62</f>
         <v>651.10000000000036</v>
       </c>
       <c r="K64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>558.43663366336614</v>
       </c>
       <c r="L64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>385.8000000000003</v>
       </c>
       <c r="M64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>496.5333333333333</v>
       </c>
       <c r="N64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>557.10000000000036</v>
       </c>
       <c r="O64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>537.20000000000027</v>
       </c>
       <c r="P64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>549</v>
       </c>
       <c r="Q64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>702.40000000000009</v>
       </c>
       <c r="R64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>2301.8000000000006</v>
       </c>
       <c r="S64" s="51">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1142.5</v>
       </c>
       <c r="T64" s="51">
-        <f t="shared" ref="T64:Y64" si="125">T60-T61-T62</f>
+        <f t="shared" ref="T64:Y64" si="127">T60-T61-T62</f>
         <v>815.80000000000007</v>
       </c>
       <c r="U64" s="51">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2522.3999999999987</v>
       </c>
       <c r="V64" s="51">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2683.5000000000005</v>
       </c>
       <c r="W64" s="51">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2702.900000000001</v>
       </c>
       <c r="X64" s="51">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2850.9999999999986</v>
       </c>
       <c r="Y64" s="51">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3039.5000000000009</v>
       </c>
       <c r="Z64" s="51">
-        <f t="shared" ref="Z64:AE64" si="126">Z60-Z63</f>
+        <f t="shared" ref="Z64:AE64" si="128">Z60-Z63</f>
         <v>1556.1999999999998</v>
       </c>
       <c r="AA64" s="51">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1598.9</v>
       </c>
       <c r="AB64" s="51">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1417.5</v>
       </c>
       <c r="AC64" s="51">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1686.2000000000007</v>
       </c>
       <c r="AD64" s="51">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1332.6999999999998</v>
       </c>
       <c r="AE64" s="51">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1709.5</v>
       </c>
       <c r="AF64" s="51">
-        <f t="shared" ref="AF64:AH64" si="127">AF60-AF63</f>
+        <f t="shared" ref="AF64:AH64" si="129">AF60-AF63</f>
         <v>1782.1999999999998</v>
       </c>
       <c r="AG64" s="51">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>1752.5</v>
       </c>
       <c r="AH64" s="51">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>1528.2000000000007</v>
       </c>
       <c r="AI64" s="51">
@@ -20739,209 +20707,209 @@
         <v>1268.4000000000001</v>
       </c>
       <c r="AQ64" s="51">
-        <f t="shared" ref="AQ64:AT64" si="128">+AQ60-AQ63</f>
+        <f t="shared" ref="AQ64:AT64" si="130">+AQ60-AQ63</f>
         <v>1443.6</v>
       </c>
       <c r="AR64" s="51">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>1566.5</v>
       </c>
       <c r="AS64" s="51">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>1544.6999999999998</v>
       </c>
       <c r="AT64" s="51">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>993.30000000000018</v>
       </c>
       <c r="AU64" s="51">
-        <f t="shared" ref="AU64:AV64" si="129">AU60-AU63</f>
+        <f t="shared" ref="AU64" si="131">AU60-AU63</f>
         <v>866.20000000000073</v>
       </c>
       <c r="AV64" s="51">
-        <f t="shared" ref="AV64:AW64" si="130">AV60-AV63</f>
+        <f t="shared" ref="AV64:AW64" si="132">AV60-AV63</f>
         <v>886.60000000000036</v>
       </c>
       <c r="AW64" s="51">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>693.30000000000018</v>
       </c>
       <c r="AX64" s="51">
-        <f t="shared" ref="AX64:AY64" si="131">AX60-AX63</f>
+        <f t="shared" ref="AX64" si="133">AX60-AX63</f>
         <v>882.59999999999991</v>
       </c>
       <c r="AY64" s="51">
-        <f t="shared" ref="AY64:AZ64" si="132">AY60-AY63</f>
+        <f t="shared" ref="AY64:AZ64" si="134">AY60-AY63</f>
         <v>889.19999999999982</v>
       </c>
       <c r="AZ64" s="51">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>1139.8999999999996</v>
       </c>
       <c r="BA64" s="51">
-        <f t="shared" ref="BA64:BC64" si="133">BA60-BA63</f>
+        <f t="shared" ref="BA64:BC64" si="135">BA60-BA63</f>
         <v>1003.6999999999994</v>
       </c>
       <c r="BB64" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>743.80000000000018</v>
       </c>
       <c r="BC64" s="51">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>847.20000000000027</v>
       </c>
       <c r="BD64" s="51">
-        <f t="shared" ref="BD64:BE64" si="134">BD60-BD63</f>
+        <f t="shared" ref="BD64:BE64" si="136">BD60-BD63</f>
         <v>1147.8999999999996</v>
       </c>
       <c r="BE64" s="51">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>988.99999999999955</v>
       </c>
       <c r="BF64" s="51">
-        <f t="shared" ref="BF64:BG64" si="135">BF60-BF63</f>
+        <f t="shared" ref="BF64:BG64" si="137">BF60-BF63</f>
         <v>1053.8000000000002</v>
       </c>
       <c r="BG64" s="51">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>1054.4000000000001</v>
       </c>
       <c r="BH64" s="51">
-        <f t="shared" ref="BH64:BI64" si="136">BH60-BH63</f>
+        <f t="shared" ref="BH64" si="138">BH60-BH63</f>
         <v>1250.1000000000004</v>
       </c>
       <c r="BI64" s="51">
-        <f t="shared" ref="BI64:BJ64" si="137">BI60-BI63</f>
+        <f t="shared" ref="BI64:BJ64" si="139">BI60-BI63</f>
         <v>1153.1999999999998</v>
       </c>
       <c r="BJ64" s="51">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>1225.3999999999992</v>
       </c>
       <c r="BK64" s="51">
-        <f t="shared" ref="BK64:BL64" si="138">BK60-BK63</f>
+        <f t="shared" ref="BK64:BL64" si="140">BK60-BK63</f>
         <v>1451.7999999999997</v>
       </c>
       <c r="BL64" s="51">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1665.6999999999998</v>
       </c>
       <c r="BM64" s="51">
-        <f t="shared" ref="BM64:BN64" si="139">BM60-BM63</f>
+        <f t="shared" ref="BM64:BN64" si="141">BM60-BM63</f>
         <v>1539.6999999999998</v>
       </c>
       <c r="BN64" s="51">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>1529.6000000000004</v>
       </c>
       <c r="BO64" s="51">
-        <f t="shared" ref="BO64:CA64" si="140">BO60-BO63</f>
+        <f t="shared" ref="BO64:CA64" si="142">BO60-BO63</f>
         <v>2213.6999999999994</v>
       </c>
       <c r="BP64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2603.4000000000005</v>
       </c>
       <c r="BQ64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2576.6999999999998</v>
       </c>
       <c r="BR64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2813.5</v>
       </c>
       <c r="BS64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>1761.5999999999976</v>
       </c>
       <c r="BT64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>1541.3999999999987</v>
       </c>
       <c r="BU64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>1506.1999999999989</v>
       </c>
       <c r="BV64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2328.3999999999992</v>
       </c>
       <c r="BW64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>1886.1000000000008</v>
       </c>
       <c r="BX64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>1983.4999999999973</v>
       </c>
       <c r="BY64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2064.3999999999978</v>
       </c>
       <c r="BZ64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2398.2999999999997</v>
       </c>
       <c r="CA64" s="51">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>2774.5999999999995</v>
       </c>
       <c r="CB64" s="51">
-        <f t="shared" ref="CB64:CH64" si="141">CB60-CB63</f>
+        <f t="shared" ref="CB64:CH64" si="143">CB60-CB63</f>
         <v>1771.7000000000016</v>
       </c>
       <c r="CC64" s="51">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>2197.1430000000009</v>
       </c>
       <c r="CD64" s="51">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>2217.4960000000015</v>
       </c>
       <c r="CE64" s="51">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>1724.7999999999984</v>
       </c>
       <c r="CF64" s="51">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>1154.569019999999</v>
       </c>
       <c r="CG64" s="51">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>1464.2165500000001</v>
       </c>
       <c r="CH64" s="51">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>1705.0380099999998</v>
       </c>
       <c r="CI64" s="51"/>
       <c r="CJ64" s="51"/>
       <c r="CL64" s="51">
-        <f t="shared" ref="CL64:CT64" si="142">CL60-CL61-CL62</f>
+        <f t="shared" ref="CL64:CT64" si="144">CL60-CL61-CL62</f>
         <v>3817</v>
       </c>
       <c r="CM64" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>3327</v>
       </c>
       <c r="CN64" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>3505</v>
       </c>
       <c r="CO64" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>3660</v>
       </c>
       <c r="CP64" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>3653</v>
       </c>
       <c r="CQ64" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>4400.4999999999982</v>
       </c>
       <c r="CR64" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>6336.8340000000007</v>
       </c>
       <c r="CS64" s="51">
@@ -20949,7 +20917,7 @@
         <v>10149.599999999999</v>
       </c>
       <c r="CT64" s="51">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>6035.2999999999993</v>
       </c>
       <c r="CU64" s="51">
@@ -20965,28 +20933,28 @@
         <v>4413.3999999999996</v>
       </c>
       <c r="CX64" s="51">
-        <f t="shared" ref="CX64:CZ64" si="143">CX60-CX61-CX62</f>
+        <f t="shared" ref="CX64:CZ64" si="145">CX60-CX61-CX62</f>
         <v>-7137.8249999999998</v>
       </c>
       <c r="CY64" s="51">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-5710.26</v>
       </c>
       <c r="CZ64" s="51">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="DA64" s="51"/>
       <c r="DB64" s="51">
-        <f t="shared" ref="DB64:DD64" si="144">+DB60-DB63</f>
+        <f t="shared" ref="DB64:DD64" si="146">+DB60-DB63</f>
         <v>4447.8000000000029</v>
       </c>
       <c r="DC64" s="51">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>5784.8999999999978</v>
       </c>
       <c r="DD64" s="51">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>5789.4000000000015</v>
       </c>
       <c r="DE64" s="51">
@@ -20998,39 +20966,39 @@
         <v>8332.2999999999993</v>
       </c>
       <c r="DG64" s="51">
-        <f t="shared" ref="DG64:DH64" si="145">+DG60-DG63</f>
+        <f t="shared" ref="DG64:DH64" si="147">+DG60-DG63</f>
         <v>8960.9390000000058</v>
       </c>
       <c r="DH64" s="51">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>6048.6235799999995</v>
       </c>
       <c r="DI64" s="51">
-        <f t="shared" ref="DI64" si="146">+DI60-DI63</f>
+        <f t="shared" ref="DI64" si="148">+DI60-DI63</f>
         <v>15527.829168</v>
       </c>
       <c r="DJ64" s="51">
-        <f t="shared" ref="DJ64" si="147">+DJ60-DJ63</f>
+        <f t="shared" ref="DJ64" si="149">+DJ60-DJ63</f>
         <v>16803.056541420003</v>
       </c>
       <c r="DK64" s="51">
-        <f t="shared" ref="DK64" si="148">+DK60-DK63</f>
+        <f t="shared" ref="DK64" si="150">+DK60-DK63</f>
         <v>18248.552774287204</v>
       </c>
       <c r="DL64" s="51">
-        <f t="shared" ref="DL64" si="149">+DL60-DL63</f>
+        <f t="shared" ref="DL64" si="151">+DL60-DL63</f>
         <v>19071.426901793922</v>
       </c>
       <c r="DM64" s="51">
-        <f t="shared" ref="DM64" si="150">+DM60-DM63</f>
+        <f t="shared" ref="DM64" si="152">+DM60-DM63</f>
         <v>21068.813939431522</v>
       </c>
       <c r="DN64" s="51">
-        <f t="shared" ref="DN64" si="151">+DN60-DN63</f>
+        <f t="shared" ref="DN64" si="153">+DN60-DN63</f>
         <v>22522.990286029308</v>
       </c>
       <c r="DO64" s="51">
-        <f t="shared" ref="DO64" si="152">+DO60-DO63</f>
+        <f t="shared" ref="DO64" si="154">+DO60-DO63</f>
         <v>17652.634682685471</v>
       </c>
     </row>
@@ -21326,7 +21294,7 @@
         <v>-45.099999999999994</v>
       </c>
       <c r="CV65" s="51">
-        <f t="shared" ref="CV65" si="153">SUM(AI65:AL65)</f>
+        <f t="shared" ref="CV65" si="155">SUM(AI65:AL65)</f>
         <v>-179</v>
       </c>
       <c r="CW65" s="51">
@@ -21342,31 +21310,31 @@
       <c r="DD65" s="53"/>
       <c r="DI65" s="49">
         <f>+DH84*$DQ$82</f>
-        <v>-20.852836779999979</v>
+        <v>54.314412219999994</v>
       </c>
       <c r="DJ65" s="49">
-        <f t="shared" ref="DJ65:DO65" si="154">+DI84*$DQ$82</f>
-        <v>103.20297386976002</v>
+        <f t="shared" ref="DJ65:DO65" si="156">+DI84*$DQ$82</f>
+        <v>178.97156086176003</v>
       </c>
       <c r="DK65" s="49">
-        <f t="shared" si="154"/>
-        <v>238.45304999207809</v>
+        <f t="shared" si="156"/>
+        <v>314.82778568001407</v>
       </c>
       <c r="DL65" s="49">
-        <f t="shared" si="154"/>
-        <v>386.34909658631238</v>
+        <f t="shared" si="156"/>
+        <v>463.33483015975179</v>
       </c>
       <c r="DM65" s="49">
-        <f t="shared" si="154"/>
-        <v>542.01130457335432</v>
+        <f t="shared" si="156"/>
+        <v>619.61292401538117</v>
       </c>
       <c r="DN65" s="49">
-        <f t="shared" si="154"/>
-        <v>714.8979065253933</v>
+        <f t="shared" si="156"/>
+        <v>793.12033892295642</v>
       </c>
       <c r="DO65" s="49">
-        <f t="shared" si="154"/>
-        <v>900.80101206583095</v>
+        <f t="shared" si="156"/>
+        <v>979.64922392257461</v>
       </c>
     </row>
     <row r="66" spans="2:197" x14ac:dyDescent="0.2">
@@ -21381,99 +21349,99 @@
       <c r="H66" s="51"/>
       <c r="I66" s="51"/>
       <c r="J66" s="51">
-        <f t="shared" ref="J66:S66" si="155">J64+J65</f>
+        <f t="shared" ref="J66:S66" si="157">J64+J65</f>
         <v>720.20000000000039</v>
       </c>
       <c r="K66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>657.43663366336614</v>
       </c>
       <c r="L66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>431.20000000000027</v>
       </c>
       <c r="M66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>581.5333333333333</v>
       </c>
       <c r="N66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>642.30000000000041</v>
       </c>
       <c r="O66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>569.20000000000027</v>
       </c>
       <c r="P66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>596</v>
       </c>
       <c r="Q66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>697.60000000000014</v>
       </c>
       <c r="R66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>2340.7000000000007</v>
       </c>
       <c r="S66" s="51">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>1180.8</v>
       </c>
       <c r="T66" s="51">
-        <f t="shared" ref="T66:AA66" si="156">T64+T65</f>
+        <f t="shared" ref="T66:AA66" si="158">T64+T65</f>
         <v>817.6</v>
       </c>
       <c r="U66" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>2572.1999999999989</v>
       </c>
       <c r="V66" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>2715.6000000000004</v>
       </c>
       <c r="W66" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>2723.2000000000012</v>
       </c>
       <c r="X66" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>2883.2999999999988</v>
       </c>
       <c r="Y66" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>3042.0000000000009</v>
       </c>
       <c r="Z66" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>1507.9999999999998</v>
       </c>
       <c r="AA66" s="51">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>1528.2</v>
       </c>
       <c r="AB66" s="51">
-        <f t="shared" ref="AB66:AG66" si="157">AB64+AB65</f>
+        <f t="shared" ref="AB66:AG66" si="159">AB64+AB65</f>
         <v>1393.4</v>
       </c>
       <c r="AC66" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>1619.3000000000006</v>
       </c>
       <c r="AD66" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>1264.8999999999999</v>
       </c>
       <c r="AE66" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>1784</v>
       </c>
       <c r="AF66" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>1745.3999999999999</v>
       </c>
       <c r="AG66" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>1709.1</v>
       </c>
       <c r="AH66" s="51">
@@ -21513,15 +21481,15 @@
         <v>1216.4000000000001</v>
       </c>
       <c r="AQ66" s="51">
-        <f t="shared" ref="AQ66:AS66" si="158">+AQ64+AQ65</f>
+        <f t="shared" ref="AQ66:AS66" si="160">+AQ64+AQ65</f>
         <v>1477.3999999999999</v>
       </c>
       <c r="AR66" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1578.4</v>
       </c>
       <c r="AS66" s="51">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1513.3999999999999</v>
       </c>
       <c r="AT66" s="51">
@@ -21529,286 +21497,286 @@
         <v>1002.4000000000002</v>
       </c>
       <c r="AU66" s="51">
-        <f t="shared" ref="AU66:AV66" si="159">AU64-AU65</f>
+        <f t="shared" ref="AU66" si="161">AU64-AU65</f>
         <v>810.20000000000073</v>
       </c>
       <c r="AV66" s="51">
-        <f t="shared" ref="AV66:AW66" si="160">AV64-AV65</f>
+        <f t="shared" ref="AV66:AW66" si="162">AV64-AV65</f>
         <v>832.80000000000041</v>
       </c>
       <c r="AW66" s="51">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>599.80000000000018</v>
       </c>
       <c r="AX66" s="51">
-        <f t="shared" ref="AX66:AY66" si="161">AX64-AX65</f>
+        <f t="shared" ref="AX66" si="163">AX64-AX65</f>
         <v>745.39999999999986</v>
       </c>
       <c r="AY66" s="51">
-        <f t="shared" ref="AY66:AZ66" si="162">AY64-AY65</f>
+        <f t="shared" ref="AY66:AZ66" si="164">AY64-AY65</f>
         <v>796.49999999999977</v>
       </c>
       <c r="AZ66" s="51">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>1263.1999999999996</v>
       </c>
       <c r="BA66" s="51">
-        <f t="shared" ref="BA66:BC66" si="163">BA64-BA65</f>
+        <f t="shared" ref="BA66:BC66" si="165">BA64-BA65</f>
         <v>917.19999999999936</v>
       </c>
       <c r="BB66" s="51">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>699.10000000000014</v>
       </c>
       <c r="BC66" s="51">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>996.20000000000027</v>
       </c>
       <c r="BD66" s="51">
-        <f t="shared" ref="BD66:BE66" si="164">BD64-BD65</f>
+        <f t="shared" ref="BD66:BE66" si="166">BD64-BD65</f>
         <v>1126.6999999999996</v>
       </c>
       <c r="BE66" s="51">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>961.7999999999995</v>
       </c>
       <c r="BF66" s="51">
-        <f t="shared" ref="BF66:BG66" si="165">BF64-BF65</f>
+        <f t="shared" ref="BF66:BG66" si="167">BF64-BF65</f>
         <v>1038.0000000000002</v>
       </c>
       <c r="BG66" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>976.10000000000014</v>
       </c>
       <c r="BH66" s="51">
-        <f t="shared" ref="BH66:BJ66" si="166">BH64-BH65</f>
+        <f t="shared" ref="BH66:BJ66" si="168">BH64-BH65</f>
         <v>1189.7000000000003</v>
       </c>
       <c r="BI66" s="51">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1103.2999999999997</v>
       </c>
       <c r="BJ66" s="51">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>1113.4999999999991</v>
       </c>
       <c r="BK66" s="51">
-        <f t="shared" ref="BK66:BL66" si="167">BK64-BK65</f>
+        <f t="shared" ref="BK66:BL66" si="169">BK64-BK65</f>
         <v>1384.2999999999997</v>
       </c>
       <c r="BL66" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>1627.6999999999998</v>
       </c>
       <c r="BM66" s="51">
-        <f t="shared" ref="BM66:BN66" si="168">BM64-BM65</f>
+        <f t="shared" ref="BM66:BN66" si="170">BM64-BM65</f>
         <v>1555.1</v>
       </c>
       <c r="BN66" s="51">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>1544.9000000000003</v>
       </c>
       <c r="BO66" s="51">
-        <f t="shared" ref="BO66:CH66" si="169">BO64-BO65</f>
+        <f t="shared" ref="BO66:CH66" si="171">BO64-BO65</f>
         <v>2157.7999999999993</v>
       </c>
       <c r="BP66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2511.9000000000005</v>
       </c>
       <c r="BQ66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2486.6</v>
       </c>
       <c r="BR66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2730.8</v>
       </c>
       <c r="BS66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1683.3999999999976</v>
       </c>
       <c r="BT66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1460.1999999999987</v>
       </c>
       <c r="BU66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1422.399999999999</v>
       </c>
       <c r="BV66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2244.9999999999991</v>
       </c>
       <c r="BW66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1920.7000000000007</v>
       </c>
       <c r="BX66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1901.9999999999973</v>
       </c>
       <c r="BY66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1986.7999999999979</v>
       </c>
       <c r="BZ66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2320.9999999999995</v>
       </c>
       <c r="CA66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2812.2999999999993</v>
       </c>
       <c r="CB66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1890.9000000000017</v>
       </c>
       <c r="CC66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2197.1430000000009</v>
       </c>
       <c r="CD66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2217.4960000000015</v>
       </c>
       <c r="CE66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1689.0999999999983</v>
       </c>
       <c r="CF66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1154.569019999999</v>
       </c>
       <c r="CG66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1464.2165500000001</v>
       </c>
       <c r="CH66" s="51">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1705.0380099999998</v>
       </c>
       <c r="CI66" s="51"/>
       <c r="CJ66" s="51"/>
       <c r="CL66" s="51">
-        <f t="shared" ref="CL66:CQ66" si="170">CL64+CL65</f>
+        <f t="shared" ref="CL66:CQ66" si="172">CL64+CL65</f>
         <v>3951</v>
       </c>
       <c r="CM66" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>3541</v>
       </c>
       <c r="CN66" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>3590</v>
       </c>
       <c r="CO66" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>3939</v>
       </c>
       <c r="CP66" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>3966</v>
       </c>
       <c r="CQ66" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>4601.4999999999982</v>
       </c>
       <c r="CR66" s="51">
-        <f t="shared" ref="CR66" si="171">CR64+CR65</f>
+        <f t="shared" ref="CR66" si="173">CR64+CR65</f>
         <v>6436.8340000000007</v>
       </c>
       <c r="CS66" s="51">
-        <f t="shared" ref="CS66:DB66" si="172">CS64+CS65</f>
+        <f t="shared" ref="CS66:DB66" si="174">CS64+CS65</f>
         <v>10156.499999999998</v>
       </c>
       <c r="CT66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>5805.7999999999993</v>
       </c>
       <c r="CU66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>5544.899999999996</v>
       </c>
       <c r="CV66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>5729.7000000000016</v>
       </c>
       <c r="CW66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>4299.5999999999995</v>
       </c>
       <c r="CX66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>-7137.8249999999998</v>
       </c>
       <c r="CY66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>-5710.26</v>
       </c>
       <c r="CZ66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="DA66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="DB66" s="51">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>4447.8000000000029</v>
       </c>
       <c r="DC66" s="51">
-        <f t="shared" ref="DC66:DO66" si="173">DC64+DC65</f>
+        <f t="shared" ref="DC66:DO66" si="175">DC64+DC65</f>
         <v>5784.8999999999978</v>
       </c>
       <c r="DD66" s="51">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>5789.4000000000015</v>
       </c>
       <c r="DE66" s="51">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>7137.6</v>
       </c>
       <c r="DF66" s="51">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>8332.2999999999993</v>
       </c>
       <c r="DG66" s="51">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>8960.9390000000058</v>
       </c>
       <c r="DH66" s="51">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6048.6235799999995</v>
       </c>
       <c r="DI66" s="51">
-        <f t="shared" si="173"/>
-        <v>15506.976331219999</v>
+        <f t="shared" si="175"/>
+        <v>15582.143580219999</v>
       </c>
       <c r="DJ66" s="51">
-        <f t="shared" si="173"/>
-        <v>16906.259515289763</v>
+        <f t="shared" si="175"/>
+        <v>16982.028102281762</v>
       </c>
       <c r="DK66" s="51">
-        <f t="shared" si="173"/>
-        <v>18487.00582427928</v>
+        <f t="shared" si="175"/>
+        <v>18563.380559967216</v>
       </c>
       <c r="DL66" s="51">
-        <f t="shared" si="173"/>
-        <v>19457.775998380235</v>
+        <f t="shared" si="175"/>
+        <v>19534.761731953673</v>
       </c>
       <c r="DM66" s="51">
-        <f t="shared" si="173"/>
-        <v>21610.825244004878</v>
+        <f t="shared" si="175"/>
+        <v>21688.426863446904</v>
       </c>
       <c r="DN66" s="51">
-        <f t="shared" si="173"/>
-        <v>23237.888192554699</v>
+        <f t="shared" si="175"/>
+        <v>23316.110624952264</v>
       </c>
       <c r="DO66" s="51">
-        <f t="shared" si="173"/>
-        <v>18553.435694751301</v>
+        <f t="shared" si="175"/>
+        <v>18632.283906608045</v>
       </c>
     </row>
     <row r="67" spans="2:197" x14ac:dyDescent="0.2">
@@ -22036,26 +22004,26 @@
         <v>187.2</v>
       </c>
       <c r="CC67" s="51">
-        <f t="shared" ref="CC67:CH67" si="174">+CC66*0.1</f>
+        <f t="shared" ref="CC67:CH67" si="176">+CC66*0.1</f>
         <v>219.71430000000009</v>
       </c>
       <c r="CD67" s="51">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>221.74960000000016</v>
       </c>
       <c r="CE67" s="51">
         <v>184.8</v>
       </c>
       <c r="CF67" s="51">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>115.4569019999999</v>
       </c>
       <c r="CG67" s="51">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>146.42165500000002</v>
       </c>
       <c r="CH67" s="51">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>170.50380099999998</v>
       </c>
       <c r="CI67" s="51"/>
@@ -22103,15 +22071,15 @@
         <v>1031.3999999999999</v>
       </c>
       <c r="CX67" s="51">
-        <f t="shared" ref="CX67:CZ67" si="175">CX66*0.28</f>
+        <f t="shared" ref="CX67:CZ67" si="177">CX66*0.28</f>
         <v>-1998.5910000000001</v>
       </c>
       <c r="CY67" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>-1598.8728000000003</v>
       </c>
       <c r="CZ67" s="51">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="DA67" s="51"/>
@@ -22121,40 +22089,40 @@
       <c r="DE67" s="51"/>
       <c r="DF67" s="51"/>
       <c r="DG67" s="49">
-        <f t="shared" ref="DG67" si="176">SUM(CA67:CD67)</f>
+        <f t="shared" ref="DG67" si="178">SUM(CA67:CD67)</f>
         <v>902.46390000000019</v>
       </c>
       <c r="DH67" s="49">
-        <f t="shared" ref="DH67" si="177">SUM(CE67:CH67)</f>
+        <f t="shared" ref="DH67" si="179">SUM(CE67:CH67)</f>
         <v>617.18235799999991</v>
       </c>
       <c r="DI67" s="51">
         <f>DI66*0.2</f>
-        <v>3101.3952662440001</v>
+        <v>3116.4287160439999</v>
       </c>
       <c r="DJ67" s="51">
-        <f t="shared" ref="DJ67:DO67" si="178">DJ66*0.2</f>
-        <v>3381.2519030579529</v>
+        <f t="shared" ref="DJ67:DO67" si="180">DJ66*0.2</f>
+        <v>3396.4056204563526</v>
       </c>
       <c r="DK67" s="51">
-        <f t="shared" si="178"/>
-        <v>3697.4011648558562</v>
+        <f t="shared" si="180"/>
+        <v>3712.6761119934436</v>
       </c>
       <c r="DL67" s="51">
-        <f t="shared" si="178"/>
-        <v>3891.5551996760473</v>
+        <f t="shared" si="180"/>
+        <v>3906.9523463907349</v>
       </c>
       <c r="DM67" s="51">
-        <f t="shared" si="178"/>
-        <v>4322.1650488009755</v>
+        <f t="shared" si="180"/>
+        <v>4337.6853726893814</v>
       </c>
       <c r="DN67" s="51">
-        <f t="shared" si="178"/>
-        <v>4647.5776385109402</v>
+        <f t="shared" si="180"/>
+        <v>4663.2221249904533</v>
       </c>
       <c r="DO67" s="51">
-        <f t="shared" si="178"/>
-        <v>3710.6871389502603</v>
+        <f t="shared" si="180"/>
+        <v>3726.456781321609</v>
       </c>
     </row>
     <row r="68" spans="2:197" x14ac:dyDescent="0.2">
@@ -22169,103 +22137,103 @@
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
       <c r="J68" s="51">
-        <f t="shared" ref="J68:T68" si="179">J66-J67</f>
+        <f t="shared" ref="J68:T68" si="181">J66-J67</f>
         <v>490.20000000000039</v>
       </c>
       <c r="K68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>449.43663366336614</v>
       </c>
       <c r="L68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>225.90000000000026</v>
       </c>
       <c r="M68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>357.43333333333328</v>
       </c>
       <c r="N68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>447.30000000000041</v>
       </c>
       <c r="O68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>347.20000000000027</v>
       </c>
       <c r="P68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>377</v>
       </c>
       <c r="Q68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>477.00000000000011</v>
       </c>
       <c r="R68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>2114.1000000000008</v>
       </c>
       <c r="S68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>923.19999999999993</v>
       </c>
       <c r="T68" s="51">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>554.5</v>
       </c>
       <c r="U68" s="51">
-        <f t="shared" ref="U68:Z68" si="180">U66-U67</f>
+        <f t="shared" ref="U68:Z68" si="182">U66-U67</f>
         <v>2308.8999999999987</v>
       </c>
       <c r="V68" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>2517.7000000000003</v>
       </c>
       <c r="W68" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>2731.2000000000012</v>
       </c>
       <c r="X68" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>2635.7999999999988</v>
       </c>
       <c r="Y68" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>2722.0000000000009</v>
       </c>
       <c r="Z68" s="51">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>1212.0999999999999</v>
       </c>
       <c r="AA68" s="51">
-        <f t="shared" ref="AA68:AF68" si="181">AA66-AA67</f>
+        <f t="shared" ref="AA68:AF68" si="183">AA66-AA67</f>
         <v>1157.9000000000001</v>
       </c>
       <c r="AB68" s="51">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1047.4000000000001</v>
       </c>
       <c r="AC68" s="51">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1491.6000000000006</v>
       </c>
       <c r="AD68" s="51">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>999.19999999999982</v>
       </c>
       <c r="AE68" s="51">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1297.5999999999999</v>
       </c>
       <c r="AF68" s="51">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1357.7999999999997</v>
       </c>
       <c r="AG68" s="51">
-        <f t="shared" ref="AG68:AM68" si="182">AG66-AG67</f>
+        <f t="shared" ref="AG68:AM68" si="184">AG66-AG67</f>
         <v>1340.6999999999998</v>
       </c>
       <c r="AH68" s="51">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>1248.8000000000006</v>
       </c>
       <c r="AI68" s="51">
@@ -22281,35 +22249,35 @@
         <v>1254</v>
       </c>
       <c r="AL68" s="51">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>969.60000000000059</v>
       </c>
       <c r="AM68" s="51">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>1027.3</v>
       </c>
       <c r="AN68" s="51">
-        <f t="shared" ref="AN68:AP68" si="183">AN66-AN67</f>
+        <f t="shared" ref="AN68:AP68" si="185">AN66-AN67</f>
         <v>923.39999999999907</v>
       </c>
       <c r="AO68" s="51">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>887.49999999999989</v>
       </c>
       <c r="AP68" s="51">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>1031.2</v>
       </c>
       <c r="AQ68" s="51">
-        <f t="shared" ref="AQ68:AU68" si="184">AQ66-AQ67</f>
+        <f t="shared" ref="AQ68:AU68" si="186">AQ66-AQ67</f>
         <v>1074.2999999999997</v>
       </c>
       <c r="AR68" s="51">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>1269.7</v>
       </c>
       <c r="AS68" s="51">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>1203.0999999999999</v>
       </c>
       <c r="AT68" s="51">
@@ -22317,135 +22285,135 @@
         <v>820.00000000000023</v>
       </c>
       <c r="AU68" s="51">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>647.30000000000075</v>
       </c>
       <c r="AV68" s="51">
-        <f t="shared" ref="AV68:AW68" si="185">AV66-AV67</f>
+        <f t="shared" ref="AV68:AW68" si="187">AV66-AV67</f>
         <v>625.90000000000043</v>
       </c>
       <c r="AW68" s="51">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>444.9000000000002</v>
       </c>
       <c r="AX68" s="51">
-        <f t="shared" ref="AX68:AY68" si="186">AX66-AX67</f>
+        <f t="shared" ref="AX68" si="188">AX66-AX67</f>
         <v>660.29999999999984</v>
       </c>
       <c r="AY68" s="51">
-        <f t="shared" ref="AY68:AZ68" si="187">AY66-AY67</f>
+        <f t="shared" ref="AY68:AZ68" si="189">AY66-AY67</f>
         <v>708.0999999999998</v>
       </c>
       <c r="AZ68" s="51">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>1184.2999999999995</v>
       </c>
       <c r="BA68" s="51">
-        <f t="shared" ref="BA68:BB68" si="188">BA66-BA67</f>
+        <f t="shared" ref="BA68:BB68" si="190">BA66-BA67</f>
         <v>669.09999999999934</v>
       </c>
       <c r="BB68" s="51">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>699.10000000000014</v>
       </c>
       <c r="BC68" s="51">
-        <f t="shared" ref="BC68:BD68" si="189">BC66-BC67</f>
+        <f t="shared" ref="BC68:BD68" si="191">BC66-BC67</f>
         <v>869.50000000000023</v>
       </c>
       <c r="BD68" s="51">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>929.89999999999964</v>
       </c>
       <c r="BE68" s="51">
-        <f t="shared" ref="BE68:BF68" si="190">BE66-BE67</f>
+        <f t="shared" ref="BE68:BF68" si="192">BE66-BE67</f>
         <v>769.09999999999945</v>
       </c>
       <c r="BF68" s="51">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>917.80000000000018</v>
       </c>
       <c r="BG68" s="51">
-        <f t="shared" ref="BG68:BH68" si="191">BG66-BG67</f>
+        <f t="shared" ref="BG68:BH68" si="193">BG66-BG67</f>
         <v>804.10000000000014</v>
       </c>
       <c r="BH68" s="51">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>937.20000000000027</v>
       </c>
       <c r="BI68" s="51">
-        <f t="shared" ref="BI68:BJ68" si="192">BI66-BI67</f>
+        <f t="shared" ref="BI68:BJ68" si="194">BI66-BI67</f>
         <v>1067.2999999999997</v>
       </c>
       <c r="BJ68" s="51">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>1113.4999999999991</v>
       </c>
       <c r="BK68" s="51">
-        <f t="shared" ref="BK68:BL68" si="193">BK66-BK67</f>
+        <f t="shared" ref="BK68:BL68" si="195">BK66-BK67</f>
         <v>1160.6999999999998</v>
       </c>
       <c r="BL68" s="51">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>1362.9999999999998</v>
       </c>
       <c r="BM68" s="51">
-        <f t="shared" ref="BM68:BN68" si="194">BM66-BM67</f>
+        <f t="shared" ref="BM68:BN68" si="196">BM66-BM67</f>
         <v>1293.5999999999999</v>
       </c>
       <c r="BN68" s="51">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>1544.9000000000003</v>
       </c>
       <c r="BO68" s="51">
-        <f t="shared" ref="BO68:CA68" si="195">BO66-BO67</f>
+        <f t="shared" ref="BO68:CA68" si="197">BO66-BO67</f>
         <v>1974.3999999999992</v>
       </c>
       <c r="BP68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>2357.4000000000005</v>
       </c>
       <c r="BQ68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>2306.5</v>
       </c>
       <c r="BR68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>2563.4</v>
       </c>
       <c r="BS68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1431.4999999999975</v>
       </c>
       <c r="BT68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1228.4999999999986</v>
       </c>
       <c r="BU68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1164.1999999999989</v>
       </c>
       <c r="BV68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1892.6999999999991</v>
       </c>
       <c r="BW68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1777.5000000000007</v>
       </c>
       <c r="BX68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1698.2999999999972</v>
       </c>
       <c r="BY68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>1693.5999999999979</v>
       </c>
       <c r="BZ68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>2207.1999999999994</v>
       </c>
       <c r="CA68" s="51">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>2538.4999999999991</v>
       </c>
       <c r="CB68" s="51">
@@ -22453,57 +22421,57 @@
         <v>1703.7000000000016</v>
       </c>
       <c r="CC68" s="51">
-        <f t="shared" ref="CC68:CH68" si="196">+CC66-CC67</f>
+        <f t="shared" ref="CC68:CH68" si="198">+CC66-CC67</f>
         <v>1977.4287000000008</v>
       </c>
       <c r="CD68" s="51">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>1995.7464000000014</v>
       </c>
       <c r="CE68" s="51">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>1504.2999999999984</v>
       </c>
       <c r="CF68" s="51">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>1039.1121179999991</v>
       </c>
       <c r="CG68" s="51">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>1317.794895</v>
       </c>
       <c r="CH68" s="51">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>1534.5342089999997</v>
       </c>
       <c r="CI68" s="51"/>
       <c r="CJ68" s="51"/>
       <c r="CL68" s="51">
-        <f t="shared" ref="CL68:CR68" si="197">CL66-CL67</f>
+        <f t="shared" ref="CL68:CR68" si="199">CL66-CL67</f>
         <v>3101</v>
       </c>
       <c r="CM68" s="51">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>2762</v>
       </c>
       <c r="CN68" s="51">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>2802</v>
       </c>
       <c r="CO68" s="51">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>3073</v>
       </c>
       <c r="CP68" s="51">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>3134</v>
       </c>
       <c r="CQ68" s="51">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>3689.4999999999982</v>
       </c>
       <c r="CR68" s="51">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>5020.730520000001</v>
       </c>
       <c r="CS68" s="51">
@@ -22523,19 +22491,19 @@
         <v>4518.0000000000018</v>
       </c>
       <c r="CW68" s="51">
-        <f t="shared" ref="CW68:CZ68" si="198">CW66-CW67</f>
+        <f t="shared" ref="CW68:CZ68" si="200">CW66-CW67</f>
         <v>3268.2</v>
       </c>
       <c r="CX68" s="51">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>-5139.2339999999995</v>
       </c>
       <c r="CY68" s="51">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>-4111.3872000000001</v>
       </c>
       <c r="CZ68" s="51">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="DA68" s="51">
@@ -22547,19 +22515,19 @@
         <v>4447.8000000000029</v>
       </c>
       <c r="DC68" s="51">
-        <f t="shared" ref="DC68:DF68" si="199">DC66-DC67</f>
+        <f t="shared" ref="DC68:DF68" si="201">DC66-DC67</f>
         <v>5784.8999999999978</v>
       </c>
       <c r="DD68" s="51">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>5789.4000000000015</v>
       </c>
       <c r="DE68" s="51">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>7137.6</v>
       </c>
       <c r="DF68" s="51">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>8332.2999999999993</v>
       </c>
       <c r="DG68" s="51">
@@ -22567,348 +22535,348 @@
         <v>8058.4751000000051</v>
       </c>
       <c r="DH68" s="51">
-        <f t="shared" ref="DH68:DM68" si="200">+DH66-DH67</f>
+        <f t="shared" ref="DH68:DM68" si="202">+DH66-DH67</f>
         <v>5431.4412219999995</v>
       </c>
       <c r="DI68" s="51">
-        <f t="shared" si="200"/>
-        <v>12405.581064975999</v>
+        <f t="shared" si="202"/>
+        <v>12465.714864176</v>
       </c>
       <c r="DJ68" s="51">
-        <f t="shared" si="200"/>
-        <v>13525.00761223181</v>
+        <f t="shared" si="202"/>
+        <v>13585.622481825409</v>
       </c>
       <c r="DK68" s="51">
-        <f t="shared" si="200"/>
-        <v>14789.604659423425</v>
+        <f t="shared" si="202"/>
+        <v>14850.704447973772</v>
       </c>
       <c r="DL68" s="51">
-        <f t="shared" si="200"/>
-        <v>15566.220798704187</v>
+        <f t="shared" si="202"/>
+        <v>15627.809385562938</v>
       </c>
       <c r="DM68" s="51">
-        <f t="shared" si="200"/>
-        <v>17288.660195203902</v>
+        <f t="shared" si="202"/>
+        <v>17350.741490757522</v>
       </c>
       <c r="DN68" s="51">
         <f>+DN66-DN67</f>
-        <v>18590.310554043761</v>
+        <v>18652.888499961809</v>
       </c>
       <c r="DO68" s="51">
         <f>+DO66-DO67</f>
-        <v>14842.748555801041</v>
+        <v>14905.827125286436</v>
       </c>
       <c r="DP68" s="54">
         <f>+DO68*(1+$DQ$83)</f>
-        <v>14694.321070243031</v>
+        <v>14756.768854033571</v>
       </c>
       <c r="DQ68" s="54">
-        <f t="shared" ref="DQ68:GB68" si="201">+DP68*(1+$DQ$83)</f>
-        <v>14547.3778595406</v>
+        <f t="shared" ref="DQ68:GB68" si="203">+DP68*(1+$DQ$83)</f>
+        <v>14609.201165493236</v>
       </c>
       <c r="DR68" s="54">
-        <f t="shared" si="201"/>
-        <v>14401.904080945194</v>
+        <f t="shared" si="203"/>
+        <v>14463.109153838303</v>
       </c>
       <c r="DS68" s="54">
-        <f t="shared" si="201"/>
-        <v>14257.885040135743</v>
+        <f t="shared" si="203"/>
+        <v>14318.478062299919</v>
       </c>
       <c r="DT68" s="54">
-        <f t="shared" si="201"/>
-        <v>14115.306189734385</v>
+        <f t="shared" si="203"/>
+        <v>14175.293281676919</v>
       </c>
       <c r="DU68" s="54">
-        <f t="shared" si="201"/>
-        <v>13974.15312783704</v>
+        <f t="shared" si="203"/>
+        <v>14033.54034886015</v>
       </c>
       <c r="DV68" s="54">
-        <f t="shared" si="201"/>
-        <v>13834.41159655867</v>
+        <f t="shared" si="203"/>
+        <v>13893.204945371548</v>
       </c>
       <c r="DW68" s="54">
-        <f t="shared" si="201"/>
-        <v>13696.067480593083</v>
+        <f t="shared" si="203"/>
+        <v>13754.272895917833</v>
       </c>
       <c r="DX68" s="54">
-        <f t="shared" si="201"/>
-        <v>13559.106805787153</v>
+        <f t="shared" si="203"/>
+        <v>13616.730166958654</v>
       </c>
       <c r="DY68" s="54">
-        <f t="shared" si="201"/>
-        <v>13423.515737729282</v>
+        <f t="shared" si="203"/>
+        <v>13480.562865289068</v>
       </c>
       <c r="DZ68" s="54">
-        <f t="shared" si="201"/>
-        <v>13289.28058035199</v>
+        <f t="shared" si="203"/>
+        <v>13345.757236636178</v>
       </c>
       <c r="EA68" s="54">
-        <f t="shared" si="201"/>
-        <v>13156.38777454847</v>
+        <f t="shared" si="203"/>
+        <v>13212.299664269816</v>
       </c>
       <c r="EB68" s="54">
-        <f t="shared" si="201"/>
-        <v>13024.823896802985</v>
+        <f t="shared" si="203"/>
+        <v>13080.176667627118</v>
       </c>
       <c r="EC68" s="54">
-        <f t="shared" si="201"/>
-        <v>12894.575657834956</v>
+        <f t="shared" si="203"/>
+        <v>12949.374900950846</v>
       </c>
       <c r="ED68" s="54">
-        <f t="shared" si="201"/>
-        <v>12765.629901256605</v>
+        <f t="shared" si="203"/>
+        <v>12819.881151941338</v>
       </c>
       <c r="EE68" s="54">
-        <f t="shared" si="201"/>
-        <v>12637.973602244039</v>
+        <f t="shared" si="203"/>
+        <v>12691.682340421925</v>
       </c>
       <c r="EF68" s="54">
-        <f t="shared" si="201"/>
-        <v>12511.593866221599</v>
+        <f t="shared" si="203"/>
+        <v>12564.765517017706</v>
       </c>
       <c r="EG68" s="54">
-        <f t="shared" si="201"/>
-        <v>12386.477927559383</v>
+        <f t="shared" si="203"/>
+        <v>12439.117861847528</v>
       </c>
       <c r="EH68" s="54">
-        <f t="shared" si="201"/>
-        <v>12262.613148283788</v>
+        <f t="shared" si="203"/>
+        <v>12314.726683229052</v>
       </c>
       <c r="EI68" s="54">
-        <f t="shared" si="201"/>
-        <v>12139.987016800951</v>
+        <f t="shared" si="203"/>
+        <v>12191.57941639676</v>
       </c>
       <c r="EJ68" s="54">
-        <f t="shared" si="201"/>
-        <v>12018.587146632941</v>
+        <f t="shared" si="203"/>
+        <v>12069.663622232792</v>
       </c>
       <c r="EK68" s="54">
-        <f t="shared" si="201"/>
-        <v>11898.401275166611</v>
+        <f t="shared" si="203"/>
+        <v>11948.966986010464</v>
       </c>
       <c r="EL68" s="54">
-        <f t="shared" si="201"/>
-        <v>11779.417262414945</v>
+        <f t="shared" si="203"/>
+        <v>11829.47731615036</v>
       </c>
       <c r="EM68" s="54">
-        <f t="shared" si="201"/>
-        <v>11661.623089790795</v>
+        <f t="shared" si="203"/>
+        <v>11711.182542988856</v>
       </c>
       <c r="EN68" s="54">
-        <f t="shared" si="201"/>
-        <v>11545.006858892888</v>
+        <f t="shared" si="203"/>
+        <v>11594.070717558967</v>
       </c>
       <c r="EO68" s="54">
-        <f t="shared" si="201"/>
-        <v>11429.556790303959</v>
+        <f t="shared" si="203"/>
+        <v>11478.130010383376</v>
       </c>
       <c r="EP68" s="54">
-        <f t="shared" si="201"/>
-        <v>11315.261222400919</v>
+        <f t="shared" si="203"/>
+        <v>11363.348710279543</v>
       </c>
       <c r="EQ68" s="54">
-        <f t="shared" si="201"/>
-        <v>11202.108610176911</v>
+        <f t="shared" si="203"/>
+        <v>11249.715223176747</v>
       </c>
       <c r="ER68" s="54">
-        <f t="shared" si="201"/>
-        <v>11090.087524075141</v>
+        <f t="shared" si="203"/>
+        <v>11137.218070944979</v>
       </c>
       <c r="ES68" s="54">
-        <f t="shared" si="201"/>
-        <v>10979.186648834389</v>
+        <f t="shared" si="203"/>
+        <v>11025.845890235529</v>
       </c>
       <c r="ET68" s="54">
-        <f t="shared" si="201"/>
-        <v>10869.394782346046</v>
+        <f t="shared" si="203"/>
+        <v>10915.587431333173</v>
       </c>
       <c r="EU68" s="54">
-        <f t="shared" si="201"/>
-        <v>10760.700834522586</v>
+        <f t="shared" si="203"/>
+        <v>10806.431557019841</v>
       </c>
       <c r="EV68" s="54">
-        <f t="shared" si="201"/>
-        <v>10653.093826177359</v>
+        <f t="shared" si="203"/>
+        <v>10698.367241449643</v>
       </c>
       <c r="EW68" s="54">
-        <f t="shared" si="201"/>
-        <v>10546.562887915585</v>
+        <f t="shared" si="203"/>
+        <v>10591.383569035146</v>
       </c>
       <c r="EX68" s="54">
-        <f t="shared" si="201"/>
-        <v>10441.097259036429</v>
+        <f t="shared" si="203"/>
+        <v>10485.469733344795</v>
       </c>
       <c r="EY68" s="54">
-        <f t="shared" si="201"/>
-        <v>10336.686286446065</v>
+        <f t="shared" si="203"/>
+        <v>10380.615036011346</v>
       </c>
       <c r="EZ68" s="54">
-        <f t="shared" si="201"/>
-        <v>10233.319423581604</v>
+        <f t="shared" si="203"/>
+        <v>10276.808885651233</v>
       </c>
       <c r="FA68" s="54">
-        <f t="shared" si="201"/>
-        <v>10130.986229345788</v>
+        <f t="shared" si="203"/>
+        <v>10174.040796794721</v>
       </c>
       <c r="FB68" s="54">
-        <f t="shared" si="201"/>
-        <v>10029.676367052331</v>
+        <f t="shared" si="203"/>
+        <v>10072.300388826774</v>
       </c>
       <c r="FC68" s="54">
-        <f t="shared" si="201"/>
-        <v>9929.3796033818071</v>
+        <f t="shared" si="203"/>
+        <v>9971.5773849385059</v>
       </c>
       <c r="FD68" s="54">
-        <f t="shared" si="201"/>
-        <v>9830.0858073479885</v>
+        <f t="shared" si="203"/>
+        <v>9871.8616110891217</v>
       </c>
       <c r="FE68" s="54">
-        <f t="shared" si="201"/>
-        <v>9731.7849492745081</v>
+        <f t="shared" si="203"/>
+        <v>9773.1429949782305</v>
       </c>
       <c r="FF68" s="54">
-        <f t="shared" si="201"/>
-        <v>9634.467099781763</v>
+        <f t="shared" si="203"/>
+        <v>9675.4115650284475</v>
       </c>
       <c r="FG68" s="54">
-        <f t="shared" si="201"/>
-        <v>9538.122428783945</v>
+        <f t="shared" si="203"/>
+        <v>9578.6574493781627</v>
       </c>
       <c r="FH68" s="54">
-        <f t="shared" si="201"/>
-        <v>9442.7412044961056</v>
+        <f t="shared" si="203"/>
+        <v>9482.8708748843801</v>
       </c>
       <c r="FI68" s="54">
-        <f t="shared" si="201"/>
-        <v>9348.3137924511448</v>
+        <f t="shared" si="203"/>
+        <v>9388.0421661355358</v>
       </c>
       <c r="FJ68" s="54">
-        <f t="shared" si="201"/>
-        <v>9254.8306545266332</v>
+        <f t="shared" si="203"/>
+        <v>9294.1617444741805</v>
       </c>
       <c r="FK68" s="54">
-        <f t="shared" si="201"/>
-        <v>9162.2823479813669</v>
+        <f t="shared" si="203"/>
+        <v>9201.220127029439</v>
       </c>
       <c r="FL68" s="54">
-        <f t="shared" si="201"/>
-        <v>9070.6595245015524</v>
+        <f t="shared" si="203"/>
+        <v>9109.2079257591449</v>
       </c>
       <c r="FM68" s="54">
-        <f t="shared" si="201"/>
-        <v>8979.9529292565367</v>
+        <f t="shared" si="203"/>
+        <v>9018.1158465015542</v>
       </c>
       <c r="FN68" s="54">
-        <f t="shared" si="201"/>
-        <v>8890.1533999639705</v>
+        <f t="shared" si="203"/>
+        <v>8927.9346880365392</v>
       </c>
       <c r="FO68" s="54">
-        <f t="shared" si="201"/>
-        <v>8801.2518659643301</v>
+        <f t="shared" si="203"/>
+        <v>8838.6553411561745</v>
       </c>
       <c r="FP68" s="54">
-        <f t="shared" si="201"/>
-        <v>8713.2393473046868</v>
+        <f t="shared" si="203"/>
+        <v>8750.2687877446133</v>
       </c>
       <c r="FQ68" s="54">
-        <f t="shared" si="201"/>
-        <v>8626.1069538316406</v>
+        <f t="shared" si="203"/>
+        <v>8662.7660998671672</v>
       </c>
       <c r="FR68" s="54">
-        <f t="shared" si="201"/>
-        <v>8539.8458842933233</v>
+        <f t="shared" si="203"/>
+        <v>8576.1384388684946</v>
       </c>
       <c r="FS68" s="54">
-        <f t="shared" si="201"/>
-        <v>8454.4474254503893</v>
+        <f t="shared" si="203"/>
+        <v>8490.3770544798099</v>
       </c>
       <c r="FT68" s="54">
-        <f t="shared" si="201"/>
-        <v>8369.9029511958852</v>
+        <f t="shared" si="203"/>
+        <v>8405.4732839350108</v>
       </c>
       <c r="FU68" s="54">
-        <f t="shared" si="201"/>
-        <v>8286.2039216839257</v>
+        <f t="shared" si="203"/>
+        <v>8321.4185510956613</v>
       </c>
       <c r="FV68" s="54">
-        <f t="shared" si="201"/>
-        <v>8203.3418824670862</v>
+        <f t="shared" si="203"/>
+        <v>8238.2043655847046</v>
       </c>
       <c r="FW68" s="54">
-        <f t="shared" si="201"/>
-        <v>8121.3084636424155</v>
+        <f t="shared" si="203"/>
+        <v>8155.8223219288575</v>
       </c>
       <c r="FX68" s="54">
-        <f t="shared" si="201"/>
-        <v>8040.0953790059912</v>
+        <f t="shared" si="203"/>
+        <v>8074.2640987095692</v>
       </c>
       <c r="FY68" s="54">
-        <f t="shared" si="201"/>
-        <v>7959.694425215931</v>
+        <f t="shared" si="203"/>
+        <v>7993.5214577224733</v>
       </c>
       <c r="FZ68" s="54">
-        <f t="shared" si="201"/>
-        <v>7880.0974809637719</v>
+        <f t="shared" si="203"/>
+        <v>7913.5862431452488</v>
       </c>
       <c r="GA68" s="54">
-        <f t="shared" si="201"/>
-        <v>7801.2965061541345</v>
+        <f t="shared" si="203"/>
+        <v>7834.4503807137962</v>
       </c>
       <c r="GB68" s="54">
-        <f t="shared" si="201"/>
-        <v>7723.2835410925927</v>
+        <f t="shared" si="203"/>
+        <v>7756.1058769066585</v>
       </c>
       <c r="GC68" s="54">
-        <f t="shared" ref="GC68:GO68" si="202">+GB68*(1+$DQ$83)</f>
-        <v>7646.0507056816668</v>
+        <f t="shared" ref="GC68:GO68" si="204">+GB68*(1+$DQ$83)</f>
+        <v>7678.5448181375923</v>
       </c>
       <c r="GD68" s="54">
-        <f t="shared" si="202"/>
-        <v>7569.59019862485</v>
+        <f t="shared" si="204"/>
+        <v>7601.7593699562167</v>
       </c>
       <c r="GE68" s="54">
-        <f t="shared" si="202"/>
-        <v>7493.8942966386012</v>
+        <f t="shared" si="204"/>
+        <v>7525.7417762566547</v>
       </c>
       <c r="GF68" s="54">
-        <f t="shared" si="202"/>
-        <v>7418.9553536722151</v>
+        <f t="shared" si="204"/>
+        <v>7450.4843584940882</v>
       </c>
       <c r="GG68" s="54">
-        <f t="shared" si="202"/>
-        <v>7344.765800135493</v>
+        <f t="shared" si="204"/>
+        <v>7375.9795149091469</v>
       </c>
       <c r="GH68" s="54">
-        <f t="shared" si="202"/>
-        <v>7271.3181421341378</v>
+        <f t="shared" si="204"/>
+        <v>7302.2197197600553</v>
       </c>
       <c r="GI68" s="54">
-        <f t="shared" si="202"/>
-        <v>7198.6049607127961</v>
+        <f t="shared" si="204"/>
+        <v>7229.1975225624547</v>
       </c>
       <c r="GJ68" s="54">
-        <f t="shared" si="202"/>
-        <v>7126.6189111056683</v>
+        <f t="shared" si="204"/>
+        <v>7156.9055473368298</v>
       </c>
       <c r="GK68" s="54">
-        <f t="shared" si="202"/>
-        <v>7055.3527219946118</v>
+        <f t="shared" si="204"/>
+        <v>7085.3364918634616</v>
       </c>
       <c r="GL68" s="54">
-        <f t="shared" si="202"/>
-        <v>6984.7991947746659</v>
+        <f t="shared" si="204"/>
+        <v>7014.4831269448268</v>
       </c>
       <c r="GM68" s="54">
-        <f t="shared" si="202"/>
-        <v>6914.9512028269191</v>
+        <f t="shared" si="204"/>
+        <v>6944.3382956753785</v>
       </c>
       <c r="GN68" s="54">
-        <f t="shared" si="202"/>
-        <v>6845.8016907986503</v>
+        <f t="shared" si="204"/>
+        <v>6874.8949127186243</v>
       </c>
       <c r="GO68" s="54">
-        <f t="shared" si="202"/>
-        <v>6777.3436738906639</v>
+        <f t="shared" si="204"/>
+        <v>6806.145963591438</v>
       </c>
     </row>
     <row r="69" spans="2:197" s="58" customFormat="1" x14ac:dyDescent="0.2">
@@ -22923,95 +22891,95 @@
       <c r="H69" s="59"/>
       <c r="I69" s="59"/>
       <c r="J69" s="59">
-        <f t="shared" ref="J69:S69" si="203">J68/J70</f>
+        <f t="shared" ref="J69:S69" si="205">J68/J70</f>
         <v>0.4500550863018733</v>
       </c>
       <c r="K69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.41270581603614886</v>
       </c>
       <c r="L69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.20724770642201859</v>
       </c>
       <c r="M69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.32761992056217532</v>
       </c>
       <c r="N69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.40905349794238721</v>
       </c>
       <c r="O69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.31941122355105822</v>
       </c>
       <c r="P69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.34736939095181057</v>
       </c>
       <c r="Q69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.43905995147329013</v>
       </c>
       <c r="R69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>1.9411494109340131</v>
       </c>
       <c r="S69" s="59">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.84706650921799576</v>
       </c>
       <c r="T69" s="59">
-        <f t="shared" ref="T69:Z69" si="204">T68/T70</f>
+        <f t="shared" ref="T69:Z69" si="206">T68/T70</f>
         <v>0.50877207469820052</v>
       </c>
       <c r="U69" s="59">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>2.117813888471034</v>
       </c>
       <c r="V69" s="59">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>2.3042440483381479</v>
       </c>
       <c r="W69" s="59">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>2.4963987218204564</v>
       </c>
       <c r="X69" s="59">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>2.4096936275406082</v>
       </c>
       <c r="Y69" s="59">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>2.4881693125175399</v>
       </c>
       <c r="Z69" s="59">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>1.1054354299305693</v>
       </c>
       <c r="AA69" s="59">
-        <f t="shared" ref="AA69:AF69" si="205">AA68/AA70</f>
+        <f t="shared" ref="AA69:AF69" si="207">AA68/AA70</f>
         <v>1.0552687795737732</v>
       </c>
       <c r="AB69" s="59">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>0.95460042854031091</v>
       </c>
       <c r="AC69" s="59">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>1.3588746375286636</v>
       </c>
       <c r="AD69" s="59">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>0.90717029507547786</v>
       </c>
       <c r="AE69" s="59">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>1.1759950553105565</v>
       </c>
       <c r="AF69" s="59">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>1.2301063501137424</v>
       </c>
       <c r="AG69" s="59">
@@ -23027,233 +22995,233 @@
         <v>1.236420863309353</v>
       </c>
       <c r="AJ69" s="59">
-        <f t="shared" ref="AJ69:AP69" si="206">AJ68/AJ70</f>
+        <f t="shared" ref="AJ69:AP69" si="208">AJ68/AJ70</f>
         <v>1.1491789109766626</v>
       </c>
       <c r="AK69" s="59">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>1.125833938596263</v>
       </c>
       <c r="AL69" s="59">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>0.86959641255605435</v>
       </c>
       <c r="AM69" s="59">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>0.91970961062075252</v>
       </c>
       <c r="AN69" s="59">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>0.82593917710196696</v>
       </c>
       <c r="AO69" s="59">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>0.79266479166089832</v>
       </c>
       <c r="AP69" s="59">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>0.92577297374941636</v>
       </c>
       <c r="AQ69" s="59">
-        <f t="shared" ref="AQ69:AU69" si="207">AQ68/AQ70</f>
+        <f t="shared" ref="AQ69:AU69" si="209">AQ68/AQ70</f>
         <v>0.98390293403280205</v>
       </c>
       <c r="AR69" s="59">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>1.1712699843271033</v>
       </c>
       <c r="AS69" s="59">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>1.1096077774918676</v>
       </c>
       <c r="AT69" s="59">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>0.75997983273029257</v>
       </c>
       <c r="AU69" s="59">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>0.60167163024847725</v>
       </c>
       <c r="AV69" s="59">
-        <f t="shared" ref="AV69:AW69" si="208">AV68/AV70</f>
+        <f t="shared" ref="AV69:AW69" si="210">AV68/AV70</f>
         <v>0.58146556449260467</v>
       </c>
       <c r="AW69" s="59">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>0.41409698190408312</v>
       </c>
       <c r="AX69" s="59">
-        <f t="shared" ref="AX69:AY69" si="209">AX68/AX70</f>
+        <f t="shared" ref="AX69" si="211">AX68/AX70</f>
         <v>0.61722567202630041</v>
       </c>
       <c r="AY69" s="59">
-        <f t="shared" ref="AY69:AZ69" si="210">AY68/AY70</f>
+        <f t="shared" ref="AY69:AZ69" si="212">AY68/AY70</f>
         <v>0.66361397366161945</v>
       </c>
       <c r="AZ69" s="59">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>1.1114093304704269</v>
       </c>
       <c r="BA69" s="59">
-        <f t="shared" ref="BA69:BB69" si="211">BA68/BA70</f>
+        <f t="shared" ref="BA69:BB69" si="213">BA68/BA70</f>
         <v>0.62816912780157641</v>
       </c>
       <c r="BB69" s="59">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>0.65649788288588629</v>
       </c>
       <c r="BC69" s="59">
-        <f t="shared" ref="BC69:BD69" si="212">BC68/BC70</f>
+        <f t="shared" ref="BC69:BD69" si="214">BC68/BC70</f>
         <v>0.81791030736307424</v>
       </c>
       <c r="BD69" s="59">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>0.87719546488340971</v>
       </c>
       <c r="BE69" s="59">
-        <f t="shared" ref="BE69:BF69" si="213">BE68/BE70</f>
+        <f t="shared" ref="BE69:BF69" si="215">BE68/BE70</f>
         <v>0.72502842232080689</v>
       </c>
       <c r="BF69" s="59">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>0.86462715897721909</v>
       </c>
       <c r="BG69" s="59">
-        <f t="shared" ref="BG69:BH69" si="214">BG68/BG70</f>
+        <f t="shared" ref="BG69:BH69" si="216">BG68/BG70</f>
         <v>0.76123774739516781</v>
       </c>
       <c r="BH69" s="59">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>0.88656809603541764</v>
       </c>
       <c r="BI69" s="59">
-        <f t="shared" ref="BI69:BJ69" si="215">BI68/BI70</f>
+        <f t="shared" ref="BI69:BJ69" si="217">BI68/BI70</f>
         <v>1.0106768305674578</v>
       </c>
       <c r="BJ69" s="59">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>1.0593754489382929</v>
       </c>
       <c r="BK69" s="59">
-        <f t="shared" ref="BK69:BL69" si="216">BK68/BK70</f>
+        <f t="shared" ref="BK69:BL69" si="218">BK68/BK70</f>
         <v>1.10559809647003</v>
       </c>
       <c r="BL69" s="59">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>1.3230312266431112</v>
       </c>
       <c r="BM69" s="59">
-        <f t="shared" ref="BM69:BN69" si="217">BM68/BM70</f>
+        <f t="shared" ref="BM69:BN69" si="219">BM68/BM70</f>
         <v>1.2604526170761319</v>
       </c>
       <c r="BN69" s="59">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>1.5171587522157357</v>
       </c>
       <c r="BO69" s="59">
-        <f t="shared" ref="BO69:CH69" si="218">BO68/BO70</f>
+        <f t="shared" ref="BO69:CH69" si="220">BO68/BO70</f>
         <v>2.0065020259125745</v>
       </c>
       <c r="BP69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>2.5495603646864158</v>
       </c>
       <c r="BQ69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>2.5112852685055542</v>
       </c>
       <c r="BR69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>2.8025162953520257</v>
       </c>
       <c r="BS69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.5701212991368967</v>
       </c>
       <c r="BT69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.3486809603794077</v>
       </c>
       <c r="BU69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.2773432314084667</v>
       </c>
       <c r="BV69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>2.0739849505419174</v>
       </c>
       <c r="BW69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.9481587023235432</v>
       </c>
       <c r="BX69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.8654765461607379</v>
       </c>
       <c r="BY69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.8595642497235774</v>
       </c>
       <c r="BZ69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>2.4266811792579883</v>
       </c>
       <c r="CA69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>2.8006398940864949</v>
       </c>
       <c r="CB69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.8868363346401771</v>
       </c>
       <c r="CC69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>2.1899890358163341</v>
       </c>
       <c r="CD69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>2.2102757658316179</v>
       </c>
       <c r="CE69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.6653695464212195</v>
       </c>
       <c r="CF69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.1503727159705199</v>
       </c>
       <c r="CG69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.4588948258740615</v>
       </c>
       <c r="CH69" s="59">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>1.698841015495697</v>
       </c>
       <c r="CI69" s="59"/>
       <c r="CJ69" s="59"/>
       <c r="CL69" s="59">
-        <f t="shared" ref="CL69:CQ69" si="219">CL68/CL70</f>
+        <f t="shared" ref="CL69:CQ69" si="221">CL68/CL70</f>
         <v>2.842346471127406</v>
       </c>
       <c r="CM69" s="59">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>2.5456221198156683</v>
       </c>
       <c r="CN69" s="59">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>2.5920444033302497</v>
       </c>
       <c r="CO69" s="59">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>2.8218549127640036</v>
       </c>
       <c r="CP69" s="59">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>2.8752293577981654</v>
       </c>
       <c r="CQ69" s="59">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>3.3973296500920793</v>
       </c>
       <c r="CR69" s="59">
@@ -23277,80 +23245,80 @@
         <v>4.0179277124291426</v>
       </c>
       <c r="CW69" s="59">
-        <f t="shared" ref="CW69:DB69" si="220">CW68/CW70</f>
+        <f t="shared" ref="CW69:DB69" si="222">CW68/CW70</f>
         <v>2.9255428662478531</v>
       </c>
       <c r="CX69" s="59">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-4.6004067580559385</v>
       </c>
       <c r="CY69" s="59">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-3.6803254064447515</v>
       </c>
       <c r="CZ69" s="59">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="DA69" s="59">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="DB69" s="59">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>4.2278543339831955</v>
       </c>
       <c r="DC69" s="59">
-        <f t="shared" ref="DC69:DO69" si="221">DC68/DC70</f>
+        <f t="shared" ref="DC69:DO69" si="223">DC68/DC70</f>
         <v>5.5964832001021589</v>
       </c>
       <c r="DD69" s="59">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>6.1873453003364398</v>
       </c>
       <c r="DE69" s="59" t="e">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DF69" s="59">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>9.1486073635293117</v>
       </c>
       <c r="DG69" s="59">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>8.9161656552021782</v>
       </c>
       <c r="DH69" s="59">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>6.0130006011405053</v>
       </c>
       <c r="DI69" s="59">
-        <f t="shared" si="221"/>
-        <v>13.733880815841767</v>
+        <f t="shared" si="223"/>
+        <v>13.80045330663369</v>
       </c>
       <c r="DJ69" s="59">
-        <f t="shared" si="221"/>
-        <v>14.97316744833215</v>
+        <f t="shared" si="223"/>
+        <v>15.040272519050406</v>
       </c>
       <c r="DK69" s="59">
-        <f t="shared" si="221"/>
-        <v>16.373168386234905</v>
+        <f t="shared" si="223"/>
+        <v>16.440810297518908</v>
       </c>
       <c r="DL69" s="59">
-        <f t="shared" si="221"/>
-        <v>17.232938955680762</v>
+        <f t="shared" si="223"/>
+        <v>17.301122002255038</v>
       </c>
       <c r="DM69" s="59">
-        <f t="shared" si="221"/>
-        <v>19.139804684914807</v>
+        <f t="shared" si="223"/>
+        <v>19.208533195861676</v>
       </c>
       <c r="DN69" s="59">
-        <f t="shared" si="221"/>
-        <v>20.580826334652329</v>
+        <f t="shared" si="223"/>
+        <v>20.650104673686773</v>
       </c>
       <c r="DO69" s="59">
-        <f t="shared" si="221"/>
-        <v>16.432002546047077</v>
+        <f t="shared" si="223"/>
+        <v>16.501835111793795</v>
       </c>
     </row>
     <row r="70" spans="2:197" x14ac:dyDescent="0.2">
@@ -23579,26 +23547,26 @@
         <v>902.94</v>
       </c>
       <c r="CC70" s="51">
-        <f t="shared" ref="CC70:CH70" si="222">+CB70</f>
+        <f t="shared" ref="CC70:CH70" si="224">+CB70</f>
         <v>902.94</v>
       </c>
       <c r="CD70" s="51">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>902.94</v>
       </c>
       <c r="CE70" s="51">
         <v>903.28300000000002</v>
       </c>
       <c r="CF70" s="51">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>903.28300000000002</v>
       </c>
       <c r="CG70" s="51">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>903.28300000000002</v>
       </c>
       <c r="CH70" s="51">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>903.28300000000002</v>
       </c>
       <c r="CI70" s="51"/>
@@ -23646,19 +23614,19 @@
         <v>1117.1260000000002</v>
       </c>
       <c r="CX70" s="51">
-        <f t="shared" ref="CX70:DA70" si="223">CW70</f>
+        <f t="shared" ref="CX70:DA70" si="225">CW70</f>
         <v>1117.1260000000002</v>
       </c>
       <c r="CY70" s="51">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>1117.1260000000002</v>
       </c>
       <c r="CZ70" s="51">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>1117.1260000000002</v>
       </c>
       <c r="DA70" s="51">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>1117.1260000000002</v>
       </c>
       <c r="DB70" s="51">
@@ -23688,27 +23656,27 @@
         <v>903.28300000000002</v>
       </c>
       <c r="DJ70" s="49">
-        <f t="shared" ref="DJ70:DO70" si="224">+DI70</f>
+        <f t="shared" ref="DJ70:DO70" si="226">+DI70</f>
         <v>903.28300000000002</v>
       </c>
       <c r="DK70" s="49">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>903.28300000000002</v>
       </c>
       <c r="DL70" s="49">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>903.28300000000002</v>
       </c>
       <c r="DM70" s="49">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>903.28300000000002</v>
       </c>
       <c r="DN70" s="49">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>903.28300000000002</v>
       </c>
       <c r="DO70" s="49">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>903.28300000000002</v>
       </c>
     </row>
@@ -23741,179 +23709,179 @@
       <c r="V72" s="60"/>
       <c r="W72" s="60"/>
       <c r="X72" s="61">
-        <f t="shared" ref="X72:AP72" si="225">X58/T58-1</f>
+        <f t="shared" ref="X72:AP72" si="227">X58/T58-1</f>
         <v>0.59843101721588976</v>
       </c>
       <c r="Y72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>0.15215364534775344</v>
       </c>
       <c r="Z72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-0.21831165519000262</v>
       </c>
       <c r="AA72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-0.21628376429876006</v>
       </c>
       <c r="AB72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-0.23718952785858127</v>
       </c>
       <c r="AC72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-0.18168576851211593</v>
       </c>
       <c r="AD72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>0.13885423663755869</v>
       </c>
       <c r="AE72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>0.12136636820802149</v>
       </c>
       <c r="AF72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>0.12422020142759349</v>
       </c>
       <c r="AG72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>1.6684645810859378E-2</v>
       </c>
       <c r="AH72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>4.2669362992922233E-2</v>
       </c>
       <c r="AI72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>6.4479081214109835E-2</v>
       </c>
       <c r="AJ72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>8.768939064484127E-2</v>
       </c>
       <c r="AK72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>8.7235622833698789E-2</v>
       </c>
       <c r="AL72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-2.2611197310576814E-2</v>
       </c>
       <c r="AM72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-4.0553500479517668E-2</v>
       </c>
       <c r="AN72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-0.10432126407369491</v>
       </c>
       <c r="AO72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-0.11476716383923491</v>
       </c>
       <c r="AP72" s="61">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-1.4882674912770955E-2</v>
       </c>
       <c r="AQ72" s="61">
-        <f t="shared" ref="AQ72:AT72" si="226">AQ58/AM58-1</f>
+        <f t="shared" ref="AQ72:AT72" si="228">AQ58/AM58-1</f>
         <v>-7.1397972297715384E-5</v>
       </c>
       <c r="AR72" s="61">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>5.8780466029819012E-2</v>
       </c>
       <c r="AS72" s="61">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>6.0652273771244936E-2</v>
       </c>
       <c r="AT72" s="61">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>-2.492739999664273E-2</v>
       </c>
       <c r="AU72" s="61">
-        <f t="shared" ref="AU72" si="227">AU58/AQ58-1</f>
+        <f t="shared" ref="AU72" si="229">AU58/AQ58-1</f>
         <v>-0.16403070332024272</v>
       </c>
       <c r="AV72" s="61">
-        <f t="shared" ref="AV72" si="228">AV58/AR58-1</f>
+        <f t="shared" ref="AV72" si="230">AV58/AR58-1</f>
         <v>-0.16764760443192728</v>
       </c>
       <c r="AW72" s="61">
-        <f t="shared" ref="AW72" si="229">AW58/AS58-1</f>
+        <f t="shared" ref="AW72" si="231">AW58/AS58-1</f>
         <v>-0.155389252676437</v>
       </c>
       <c r="AX72" s="61">
-        <f t="shared" ref="AX72" si="230">AX58/AT58-1</f>
+        <f t="shared" ref="AX72" si="232">AX58/AT58-1</f>
         <v>-0.11835490979203966</v>
       </c>
       <c r="AY72" s="61">
-        <f t="shared" ref="AY72:BB72" si="231">AY58/AU58-1</f>
+        <f t="shared" ref="AY72:BB72" si="233">AY58/AU58-1</f>
         <v>-8.1996967820462396E-3</v>
       </c>
       <c r="AZ72" s="61">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>8.73247426857926E-3</v>
       </c>
       <c r="BA72" s="61">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>1.7249159077856957E-2</v>
       </c>
       <c r="BB72" s="61">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>4.9655360943510418E-2</v>
       </c>
       <c r="BC72" s="61">
-        <f t="shared" ref="BC72" si="232">BC58/AY58-1</f>
+        <f t="shared" ref="BC72" si="234">BC58/AY58-1</f>
         <v>4.7451934462936274E-2</v>
       </c>
       <c r="BD72" s="61">
-        <f t="shared" ref="BD72" si="233">BD58/AZ58-1</f>
+        <f t="shared" ref="BD72" si="235">BD58/AZ58-1</f>
         <v>8.5584590354911949E-2</v>
       </c>
       <c r="BE72" s="61">
-        <f t="shared" ref="BE72" si="234">BE58/BA58-1</f>
+        <f t="shared" ref="BE72" si="236">BE58/BA58-1</f>
         <v>4.6777022803798696E-2</v>
       </c>
       <c r="BF72" s="61">
-        <f t="shared" ref="BF72" si="235">BF58/BB58-1</f>
+        <f t="shared" ref="BF72" si="237">BF58/BB58-1</f>
         <v>7.1601309621251552E-2</v>
       </c>
       <c r="BG72" s="61">
-        <f t="shared" ref="BG72" si="236">BG58/BC58-1</f>
+        <f t="shared" ref="BG72" si="238">BG58/BC58-1</f>
         <v>7.4654169492918809E-2</v>
       </c>
       <c r="BH72" s="61">
-        <f t="shared" ref="BH72:BO72" si="237">BH58/BD58-1</f>
+        <f t="shared" ref="BH72:BO72" si="239">BH58/BD58-1</f>
         <v>7.761619301361744E-2</v>
       </c>
       <c r="BI72" s="61">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>8.9816437775680491E-2</v>
       </c>
       <c r="BJ72" s="61">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>6.9473136012498937E-2</v>
       </c>
       <c r="BK72" s="61">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>9.0220530573991597E-2</v>
       </c>
       <c r="BL72" s="61">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>9.115258485998301E-2</v>
       </c>
       <c r="BM72" s="61">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>7.1385648639094912E-2</v>
       </c>
       <c r="BN72" s="61">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>4.5108510396545842E-2</v>
       </c>
       <c r="BO72" s="61">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>4.7684210526315551E-2</v>
       </c>
       <c r="BP72" s="61">
@@ -23933,63 +23901,63 @@
         <v>-1.8754814293848066E-2</v>
       </c>
       <c r="BT72" s="61">
-        <f t="shared" ref="BS72:CA72" si="238">BT58/BP58-1</f>
+        <f t="shared" ref="BT72:CA72" si="240">BT58/BP58-1</f>
         <v>-0.17490847986557068</v>
       </c>
       <c r="BU72" s="61">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>-0.1152381979871463</v>
       </c>
       <c r="BV72" s="61">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>1.6073964820277453E-2</v>
       </c>
       <c r="BW72" s="61">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>0.16140482610328055</v>
       </c>
       <c r="BX72" s="61">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>0.22558824599047145</v>
       </c>
       <c r="BY72" s="61">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>0.17984182838030871</v>
       </c>
       <c r="BZ72" s="61">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>7.5240924181126712E-2</v>
       </c>
       <c r="CA72" s="61">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>0.14759903608792735</v>
       </c>
       <c r="CB72" s="61">
-        <f t="shared" ref="CB72" si="239">CB58/BX58-1</f>
+        <f t="shared" ref="CB72" si="241">CB58/BX58-1</f>
         <v>-3.7403560830859939E-2</v>
       </c>
       <c r="CC72" s="61">
-        <f t="shared" ref="CC72" si="240">CC58/BY58-1</f>
+        <f t="shared" ref="CC72" si="242">CC58/BY58-1</f>
         <v>2.4907721836704866E-2</v>
       </c>
       <c r="CD72" s="61">
-        <f t="shared" ref="CD72" si="241">CD58/BZ58-1</f>
+        <f t="shared" ref="CD72" si="243">CD58/BZ58-1</f>
         <v>-8.7188589857372989E-2</v>
       </c>
       <c r="CE72" s="61">
-        <f t="shared" ref="CE72" si="242">CE58/CA58-1</f>
+        <f t="shared" ref="CE72" si="244">CE58/CA58-1</f>
         <v>-0.10884623756417977</v>
       </c>
       <c r="CF72" s="61">
-        <f t="shared" ref="CF72" si="243">CF58/CB58-1</f>
+        <f t="shared" ref="CF72" si="245">CF58/CB58-1</f>
         <v>-0.11001433437630082</v>
       </c>
       <c r="CG72" s="61">
-        <f t="shared" ref="CG72" si="244">CG58/CC58-1</f>
+        <f t="shared" ref="CG72" si="246">CG58/CC58-1</f>
         <v>-0.13364953829753534</v>
       </c>
       <c r="CH72" s="61">
-        <f t="shared" ref="CH72" si="245">CH58/CD58-1</f>
+        <f t="shared" ref="CH72" si="247">CH58/CD58-1</f>
         <v>-8.8831206178790811E-2</v>
       </c>
       <c r="CI72" s="61"/>
@@ -24000,107 +23968,107 @@
       <c r="CN72" s="60"/>
       <c r="CO72" s="60"/>
       <c r="CP72" s="62">
-        <f t="shared" ref="CP72:DB72" si="246">CP58/CO58-1</f>
+        <f t="shared" ref="CP72:DB72" si="248">CP58/CO58-1</f>
         <v>5.7074825023450515E-2</v>
       </c>
       <c r="CQ72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>7.7372013651876959E-2</v>
       </c>
       <c r="CR72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>0.17162226375645462</v>
       </c>
       <c r="CS72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>6.0167880685474406E-2</v>
       </c>
       <c r="CT72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>6.985394754409513E-2</v>
       </c>
       <c r="CU72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>4.383313819191037E-2</v>
       </c>
       <c r="CV72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>9.0596424558550881E-2</v>
       </c>
       <c r="CW72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>-7.8559971186021871E-2</v>
       </c>
       <c r="CX72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>5.0523827920823772E-2</v>
       </c>
       <c r="CY72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>-0.15132111226966538</v>
       </c>
       <c r="CZ72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>1.7491180488998559E-2</v>
       </c>
       <c r="DA72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>6.3300715978495958E-2</v>
       </c>
       <c r="DB72" s="62">
-        <f t="shared" si="246"/>
+        <f t="shared" si="248"/>
         <v>-5.8806621399390302E-2</v>
       </c>
       <c r="DC72" s="62">
-        <f t="shared" ref="DC72:DE72" si="247">DC58/DB58-1</f>
+        <f t="shared" ref="DC72:DE72" si="249">DC58/DB58-1</f>
         <v>7.6038469818414667E-2</v>
       </c>
       <c r="DD72" s="62">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>3.8454559412643308E-2</v>
       </c>
       <c r="DE72" s="62">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>9.9487441418675937E-2</v>
       </c>
       <c r="DF72" s="62">
-        <f t="shared" ref="DF72" si="248">DF58/DE58-1</f>
+        <f t="shared" ref="DF72" si="250">DF58/DE58-1</f>
         <v>0.15397780757052804</v>
       </c>
       <c r="DG72" s="62">
-        <f t="shared" ref="DG72:DO72" si="249">DG58/DF58-1</f>
+        <f t="shared" ref="DG72:DO72" si="251">DG58/DF58-1</f>
         <v>7.8958984409487343E-3</v>
       </c>
       <c r="DH72" s="62">
-        <f t="shared" si="249"/>
+        <f t="shared" si="251"/>
         <v>-0.11002336898826681</v>
       </c>
       <c r="DI72" s="62">
-        <f t="shared" si="249"/>
+        <f t="shared" si="251"/>
         <v>0.13201572077445523</v>
       </c>
       <c r="DJ72" s="62">
-        <f t="shared" si="249"/>
+        <f t="shared" si="251"/>
         <v>8.2125283555283701E-2</v>
       </c>
       <c r="DK72" s="62">
-        <f t="shared" si="249"/>
+        <f t="shared" si="251"/>
         <v>8.6025791159126896E-2</v>
       </c>
       <c r="DL72" s="62">
-        <f t="shared" si="249"/>
+        <f t="shared" si="251"/>
         <v>4.5092569130532612E-2</v>
       </c>
       <c r="DM72" s="62">
-        <f t="shared" si="249"/>
+        <f t="shared" si="251"/>
         <v>0.10473191376413049</v>
       </c>
       <c r="DN72" s="62">
-        <f t="shared" si="249"/>
+        <f t="shared" si="251"/>
         <v>6.9020323155268626E-2</v>
       </c>
       <c r="DO72" s="62">
-        <f t="shared" si="249"/>
+        <f t="shared" si="251"/>
         <v>-0.21623929777942719</v>
       </c>
     </row>
@@ -24160,135 +24128,135 @@
       <c r="AZ73" s="66"/>
       <c r="BA73" s="66"/>
       <c r="BB73" s="66">
-        <f t="shared" ref="BA73:BB73" si="250">+BB3/AX3-1</f>
+        <f t="shared" ref="BB73" si="252">+BB3/AX3-1</f>
         <v>10.029411764705882</v>
       </c>
       <c r="BC73" s="66">
-        <f t="shared" ref="BC73" si="251">+BC3/AY3-1</f>
+        <f t="shared" ref="BC73" si="253">+BC3/AY3-1</f>
         <v>6.8469945355191246</v>
       </c>
       <c r="BD73" s="66">
-        <f t="shared" ref="BD73" si="252">+BD3/AZ3-1</f>
+        <f t="shared" ref="BD73" si="254">+BD3/AZ3-1</f>
         <v>3.544018058690745</v>
       </c>
       <c r="BE73" s="66">
-        <f t="shared" ref="BE73" si="253">+BE3/BA3-1</f>
+        <f t="shared" ref="BE73" si="255">+BE3/BA3-1</f>
         <v>2.3052917232021706</v>
       </c>
       <c r="BF73" s="66">
-        <f t="shared" ref="BF73" si="254">+BF3/BB3-1</f>
+        <f t="shared" ref="BF73" si="256">+BF3/BB3-1</f>
         <v>1.9955555555555557</v>
       </c>
       <c r="BG73" s="66">
-        <f t="shared" ref="BG73" si="255">+BG3/BC3-1</f>
+        <f t="shared" ref="BG73" si="257">+BG3/BC3-1</f>
         <v>1.5967966573816157</v>
       </c>
       <c r="BH73" s="66">
-        <f t="shared" ref="BH73:BK73" si="256">+BH3/BD3-1</f>
+        <f t="shared" ref="BH73:BK73" si="258">+BH3/BD3-1</f>
         <v>1.3854942871336311</v>
       </c>
       <c r="BI73" s="66">
-        <f t="shared" si="256"/>
+        <f t="shared" si="258"/>
         <v>1.1662561576354684</v>
       </c>
       <c r="BJ73" s="66">
-        <f t="shared" si="256"/>
+        <f t="shared" si="258"/>
         <v>0.9258160237388724</v>
       </c>
       <c r="BK73" s="66">
-        <f t="shared" si="256"/>
+        <f t="shared" si="258"/>
         <v>0.81898632341110211</v>
       </c>
       <c r="BL73" s="66">
-        <f t="shared" ref="BL73" si="257">+BL3/BH3-1</f>
+        <f t="shared" ref="BL73" si="259">+BL3/BH3-1</f>
         <v>0.62390670553935856</v>
       </c>
       <c r="BM73" s="66">
-        <f t="shared" ref="BM73" si="258">+BM3/BI3-1</f>
+        <f t="shared" ref="BM73" si="260">+BM3/BI3-1</f>
         <v>0.54671214705324989</v>
       </c>
       <c r="BN73" s="66">
-        <f t="shared" ref="BN73" si="259">+BN3/BJ3-1</f>
+        <f t="shared" ref="BN73" si="261">+BN3/BJ3-1</f>
         <v>0.42480739599383677</v>
       </c>
       <c r="BO73" s="66">
-        <f t="shared" ref="BO73" si="260">+BO3/BK3-1</f>
+        <f t="shared" ref="BO73" si="262">+BO3/BK3-1</f>
         <v>0.29691876750700286</v>
       </c>
       <c r="BP73" s="66">
-        <f t="shared" ref="BO73:CH73" si="261">+BP3/BL3-1</f>
+        <f t="shared" ref="BP73:CH73" si="263">+BP3/BL3-1</f>
         <v>0.31892793023852284</v>
       </c>
       <c r="BQ73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.23927958833619201</v>
       </c>
       <c r="BR73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.3064777765761868</v>
       </c>
       <c r="BS73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.39752188245992959</v>
       </c>
       <c r="BT73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.19572192513368969</v>
       </c>
       <c r="BU73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>9.4018783984181731E-2</v>
       </c>
       <c r="BV73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.24360566178296517</v>
       </c>
       <c r="BW73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.18138929559134542</v>
       </c>
       <c r="BX73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.24865831842576025</v>
       </c>
       <c r="BY73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.44596060003614668</v>
       </c>
       <c r="BZ73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.25379392971246006</v>
       </c>
       <c r="CA73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.19891214541448621</v>
       </c>
       <c r="CB73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.24505079447772871</v>
       </c>
       <c r="CC73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.15642772326729593</v>
       </c>
       <c r="CD73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>2.7870680044593144E-2</v>
       </c>
       <c r="CE73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.13541606845460286</v>
       </c>
       <c r="CF73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CG73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CH73" s="66">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.14999999999999969</v>
       </c>
       <c r="CI73" s="66"/>
@@ -24378,111 +24346,111 @@
       <c r="BF74" s="66"/>
       <c r="BG74" s="66"/>
       <c r="BH74" s="66">
-        <f t="shared" ref="BH74:BO74" si="262">+BH6/BD6-1</f>
+        <f t="shared" ref="BH74:BO74" si="264">+BH6/BD6-1</f>
         <v>6.1865284974093253</v>
       </c>
       <c r="BI74" s="66">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>3.6553846153846159</v>
       </c>
       <c r="BJ74" s="66">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>1.8140293637846656</v>
       </c>
       <c r="BK74" s="66">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.51656314699792971</v>
       </c>
       <c r="BL74" s="66">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.58687815428983425</v>
       </c>
       <c r="BM74" s="66">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.74421678783873069</v>
       </c>
       <c r="BN74" s="66">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.77971014492753632</v>
       </c>
       <c r="BO74" s="66">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.72354948805460761</v>
       </c>
       <c r="BP74" s="66">
-        <f>+BP6/BL6-1</f>
+        <f t="shared" ref="BP74:BY76" si="265">+BP6/BL6-1</f>
         <v>0.607451158564289</v>
       </c>
       <c r="BQ74" s="66">
-        <f>+BQ6/BM6-1</f>
+        <f t="shared" si="265"/>
         <v>0.28836680560818495</v>
       </c>
       <c r="BR74" s="66">
-        <f>+BR6/BN6-1</f>
+        <f t="shared" si="265"/>
         <v>0.36840390879478835</v>
       </c>
       <c r="BS74" s="66">
-        <f>+BS6/BO6-1</f>
+        <f t="shared" si="265"/>
         <v>0.75643564356435644</v>
       </c>
       <c r="BT74" s="66">
-        <f>+BT6/BP6-1</f>
+        <f t="shared" si="265"/>
         <v>0.11701526286037311</v>
       </c>
       <c r="BU74" s="66">
-        <f>+BU6/BQ6-1</f>
+        <f t="shared" si="265"/>
         <v>0.33676470588235285</v>
       </c>
       <c r="BV74" s="66">
-        <f>+BV6/BR6-1</f>
+        <f t="shared" si="265"/>
         <v>0.17900499880980725</v>
       </c>
       <c r="BW74" s="66">
-        <f>+BW6/BS6-1</f>
+        <f t="shared" si="265"/>
         <v>-9.0868094701240132E-2</v>
       </c>
       <c r="BX74" s="66">
-        <f>+BX6/BT6-1</f>
+        <f t="shared" si="265"/>
         <v>0.44003036437246967</v>
       </c>
       <c r="BY74" s="66">
-        <f>+BY6/BU6-1</f>
+        <f t="shared" si="265"/>
         <v>0.304950495049505</v>
       </c>
       <c r="BZ74" s="66">
-        <f>+BZ6/BV6-1</f>
+        <f t="shared" ref="BZ74:CI76" si="266">+BZ6/BV6-1</f>
         <v>0.30708661417322825</v>
       </c>
       <c r="CA74" s="66">
-        <f>+CA6/BW6-1</f>
+        <f t="shared" si="266"/>
         <v>0.21056547619047628</v>
       </c>
       <c r="CB74" s="66">
-        <f>+CB6/BX6-1</f>
+        <f t="shared" si="266"/>
         <v>6.519065190651907E-2</v>
       </c>
       <c r="CC74" s="66">
-        <f>+CC6/BY6-1</f>
+        <f t="shared" si="266"/>
         <v>0.14634968807958182</v>
       </c>
       <c r="CD74" s="66">
-        <f>+CD6/BZ6-1</f>
+        <f t="shared" si="266"/>
         <v>9.3296261970960748E-2</v>
       </c>
       <c r="CE74" s="66">
-        <f>+CE6/CA6-1</f>
+        <f t="shared" si="266"/>
         <v>7.9696783446015163E-2</v>
       </c>
       <c r="CF74" s="66">
-        <f>+CF6/CB6-1</f>
+        <f t="shared" si="266"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CG74" s="66">
-        <f>+CG6/CC6-1</f>
+        <f t="shared" si="266"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CH74" s="66">
-        <f>+CH6/CD6-1</f>
+        <f t="shared" si="266"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CI74" s="66"/>
@@ -24586,79 +24554,79 @@
         <v>2.6835016835016838</v>
       </c>
       <c r="BP75" s="66">
-        <f>+BP7/BL7-1</f>
+        <f t="shared" si="265"/>
         <v>1.3206239168110918</v>
       </c>
       <c r="BQ75" s="66">
-        <f>+BQ7/BM7-1</f>
+        <f t="shared" si="265"/>
         <v>0.86035502958579868</v>
       </c>
       <c r="BR75" s="66">
-        <f>+BR7/BN7-1</f>
+        <f t="shared" si="265"/>
         <v>1.1552346570397112</v>
       </c>
       <c r="BS75" s="66">
-        <f>+BS7/BO7-1</f>
+        <f t="shared" si="265"/>
         <v>0.71846435100548445</v>
       </c>
       <c r="BT75" s="66">
-        <f>+BT7/BP7-1</f>
+        <f t="shared" si="265"/>
         <v>0.55787901418969366</v>
       </c>
       <c r="BU75" s="66">
-        <f>+BU7/BQ7-1</f>
+        <f t="shared" si="265"/>
         <v>0.49109414758269732</v>
       </c>
       <c r="BV75" s="66">
-        <f>+BV7/BR7-1</f>
+        <f t="shared" si="265"/>
         <v>0.57230597431602481</v>
       </c>
       <c r="BW75" s="66">
-        <f>+BW7/BS7-1</f>
+        <f t="shared" si="265"/>
         <v>0.43085106382978733</v>
       </c>
       <c r="BX75" s="66">
-        <f>+BX7/BT7-1</f>
+        <f t="shared" si="265"/>
         <v>0.63614573346116976</v>
       </c>
       <c r="BY75" s="66">
-        <f>+BY7/BU7-1</f>
+        <f t="shared" si="265"/>
         <v>0.43131399317406149</v>
       </c>
       <c r="BZ75" s="66">
-        <f>+BZ7/BV7-1</f>
+        <f t="shared" si="266"/>
         <v>0.43501420454545459</v>
       </c>
       <c r="CA75" s="66">
-        <f>+CA7/BW7-1</f>
+        <f t="shared" si="266"/>
         <v>0.7449814126394052</v>
       </c>
       <c r="CB75" s="66">
-        <f>+CB7/BX7-1</f>
+        <f t="shared" si="266"/>
         <v>0.72428948139466742</v>
       </c>
       <c r="CC75" s="66">
-        <f>+CC7/BY7-1</f>
+        <f t="shared" si="266"/>
         <v>0.84113263785394943</v>
       </c>
       <c r="CD75" s="66">
-        <f>+CD7/BZ7-1</f>
+        <f t="shared" si="266"/>
         <v>0.99950507300173208</v>
       </c>
       <c r="CE75" s="66">
-        <f>+CE7/CA7-1</f>
+        <f t="shared" si="266"/>
         <v>0.59970174691095024</v>
       </c>
       <c r="CF75" s="66">
-        <f>+CF7/CB7-1</f>
+        <f t="shared" si="266"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CG75" s="66">
-        <f>+CG7/CC7-1</f>
+        <f t="shared" si="266"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CH75" s="66">
-        <f>+CH7/CD7-1</f>
+        <f t="shared" si="266"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="CI75" s="66"/>
@@ -24743,131 +24711,131 @@
       <c r="BA76" s="66"/>
       <c r="BB76" s="66"/>
       <c r="BC76" s="66">
-        <f t="shared" ref="BC76" si="263">+BC8/AY8-1</f>
+        <f t="shared" ref="BC76" si="267">+BC8/AY8-1</f>
         <v>0.97927461139896388</v>
       </c>
       <c r="BD76" s="66">
-        <f t="shared" ref="BD76" si="264">+BD8/AZ8-1</f>
+        <f t="shared" ref="BD76" si="268">+BD8/AZ8-1</f>
         <v>2.612612612612613</v>
       </c>
       <c r="BE76" s="66">
-        <f t="shared" ref="BE76" si="265">+BE8/BA8-1</f>
+        <f t="shared" ref="BE76" si="269">+BE8/BA8-1</f>
         <v>2.0844155844155843</v>
       </c>
       <c r="BF76" s="66">
-        <f t="shared" ref="BF76" si="266">+BF8/BB8-1</f>
+        <f t="shared" ref="BF76" si="270">+BF8/BB8-1</f>
         <v>4.212328767123287</v>
       </c>
       <c r="BG76" s="66">
-        <f t="shared" ref="BG76" si="267">+BG8/BC8-1</f>
+        <f t="shared" ref="BG76" si="271">+BG8/BC8-1</f>
         <v>0.93717277486910988</v>
       </c>
       <c r="BH76" s="66">
-        <f t="shared" ref="BH76:BO76" si="268">+BH8/BD8-1</f>
+        <f t="shared" ref="BH76:BO76" si="272">+BH8/BD8-1</f>
         <v>1.57356608478803</v>
       </c>
       <c r="BI76" s="66">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>1.6778947368421053</v>
       </c>
       <c r="BJ76" s="66">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>0.88173455978975035</v>
       </c>
       <c r="BK76" s="66">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>1.0405405405405403</v>
       </c>
       <c r="BL76" s="66">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>0.42635658914728669</v>
       </c>
       <c r="BM76" s="66">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>0.31210691823899372</v>
       </c>
       <c r="BN76" s="66">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>0.34916201117318435</v>
       </c>
       <c r="BO76" s="66">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>0.34834437086092707</v>
       </c>
       <c r="BP76" s="66">
-        <f>+BP8/BL8-1</f>
+        <f t="shared" si="265"/>
         <v>0.57540760869565233</v>
       </c>
       <c r="BQ76" s="66">
-        <f>+BQ8/BM8-1</f>
+        <f t="shared" si="265"/>
         <v>0.44218094667465535</v>
       </c>
       <c r="BR76" s="66">
-        <f>+BR8/BN8-1</f>
+        <f t="shared" si="265"/>
         <v>0.38716356107660466</v>
       </c>
       <c r="BS76" s="66">
-        <f>+BS8/BO8-1</f>
+        <f t="shared" si="265"/>
         <v>0.31385068762278978</v>
       </c>
       <c r="BT76" s="66">
-        <f>+BT8/BP8-1</f>
+        <f t="shared" si="265"/>
         <v>0.1297973264338077</v>
       </c>
       <c r="BU76" s="66">
-        <f>+BU8/BQ8-1</f>
+        <f t="shared" si="265"/>
         <v>0.29123390112172842</v>
       </c>
       <c r="BV76" s="66">
-        <f>+BV8/BR8-1</f>
+        <f t="shared" si="265"/>
         <v>0.17014925373134338</v>
       </c>
       <c r="BW76" s="66">
-        <f>+BW8/BS8-1</f>
+        <f t="shared" si="265"/>
         <v>0.16635514018691588</v>
       </c>
       <c r="BX76" s="66">
-        <f>+BX8/BT8-1</f>
+        <f t="shared" si="265"/>
         <v>0.36068702290076327</v>
       </c>
       <c r="BY76" s="66">
-        <f>+BY8/BU8-1</f>
+        <f t="shared" si="265"/>
         <v>0.25611325611325597</v>
       </c>
       <c r="BZ76" s="66">
-        <f>+BZ8/BV8-1</f>
+        <f t="shared" si="266"/>
         <v>0.37723214285714279</v>
       </c>
       <c r="CA76" s="66">
-        <f>+CA8/BW8-1</f>
+        <f t="shared" si="266"/>
         <v>0.34423076923076912</v>
       </c>
       <c r="CB76" s="66">
-        <f>+CB8/BX8-1</f>
+        <f t="shared" si="266"/>
         <v>0.29312762973352036</v>
       </c>
       <c r="CC76" s="66">
-        <f>+CC8/BY8-1</f>
+        <f t="shared" si="266"/>
         <v>0.46849385245901631</v>
       </c>
       <c r="CD76" s="66">
-        <f>+CD8/BZ8-1</f>
+        <f t="shared" si="266"/>
         <v>0.41768927992590865</v>
       </c>
       <c r="CE76" s="66">
-        <f>+CE8/CA8-1</f>
+        <f t="shared" si="266"/>
         <v>0.37696709585121613</v>
       </c>
       <c r="CF76" s="66">
-        <f>+CF8/CB8-1</f>
+        <f t="shared" si="266"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CG76" s="66">
-        <f>+CG8/CC8-1</f>
+        <f t="shared" si="266"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CH76" s="66">
-        <f>+CH8/CD8-1</f>
+        <f t="shared" si="266"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="CI76" s="66"/>
@@ -24912,259 +24880,259 @@
       <c r="M77" s="48"/>
       <c r="N77" s="48"/>
       <c r="O77" s="66">
-        <f t="shared" ref="O77:AS77" si="269">O69/K69-1</f>
+        <f t="shared" ref="O77:AS77" si="273">O69/K69-1</f>
         <v>-0.22605591891372567</v>
       </c>
       <c r="P77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.67610728701847322</v>
       </c>
       <c r="Q77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.34015035080861589</v>
       </c>
       <c r="R77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>3.7454658637521607</v>
       </c>
       <c r="S77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>1.6519622566819141</v>
       </c>
       <c r="T77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.46464279222800253</v>
       </c>
       <c r="U77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>3.8235187048251413</v>
       </c>
       <c r="V77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.1870513600647703</v>
       </c>
       <c r="W77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>1.9471106396652482</v>
       </c>
       <c r="X77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>3.7362930227057349</v>
       </c>
       <c r="Y77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.17487628448498183</v>
       </c>
       <c r="Z77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.52026113261404561</v>
       </c>
       <c r="AA77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.57728356037442752</v>
       </c>
       <c r="AB77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.60384987633693532</v>
       </c>
       <c r="AC77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.45386568723743781</v>
       </c>
       <c r="AD77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.17935478589422826</v>
       </c>
       <c r="AE77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.1144033426114861</v>
       </c>
       <c r="AF77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.28860862968049394</v>
       </c>
       <c r="AG77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.10728645122357194</v>
       </c>
       <c r="AH77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.24088397214917667</v>
       </c>
       <c r="AI77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>5.1382705842108578E-2</v>
       </c>
       <c r="AJ77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-6.5788977619371525E-2</v>
       </c>
       <c r="AK77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-7.1925548393590666E-2</v>
       </c>
       <c r="AL77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.22750132460794636</v>
       </c>
       <c r="AM77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.25615165684029639</v>
       </c>
       <c r="AN77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.28127885987742418</v>
       </c>
       <c r="AO77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>-0.29593098547977148</v>
       </c>
       <c r="AP77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>6.4600727857465623E-2</v>
       </c>
       <c r="AQ77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>6.9797382424570564E-2</v>
       </c>
       <c r="AR77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.41810682529532461</v>
       </c>
       <c r="AS77" s="66">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>0.39984491447748982</v>
       </c>
       <c r="AT77" s="66">
-        <f t="shared" ref="AT77" si="270">+AT69/AP69-1</f>
+        <f t="shared" ref="AT77" si="274">+AT69/AP69-1</f>
         <v>-0.17908617525056403</v>
       </c>
       <c r="AU77" s="66">
-        <f t="shared" ref="AU77" si="271">+AU69/AQ69-1</f>
+        <f t="shared" ref="AU77" si="275">+AU69/AQ69-1</f>
         <v>-0.38848476873388582</v>
       </c>
       <c r="AV77" s="66">
-        <f t="shared" ref="AV77" si="272">+AV69/AR69-1</f>
+        <f t="shared" ref="AV77" si="276">+AV69/AR69-1</f>
         <v>-0.50355974944012782</v>
       </c>
       <c r="AW77" s="66">
-        <f t="shared" ref="AW77" si="273">+AW69/AS69-1</f>
+        <f t="shared" ref="AW77" si="277">+AW69/AS69-1</f>
         <v>-0.6268077871262776</v>
       </c>
       <c r="AX77" s="66">
-        <f t="shared" ref="AX77:BB77" si="274">+AX69/AT69-1</f>
+        <f t="shared" ref="AX77:BB77" si="278">+AX69/AT69-1</f>
         <v>-0.18783940646311048</v>
       </c>
       <c r="AY77" s="66">
-        <f t="shared" si="274"/>
+        <f t="shared" si="278"/>
         <v>0.10295041397840432</v>
       </c>
       <c r="AZ77" s="66">
-        <f t="shared" si="274"/>
+        <f t="shared" si="278"/>
         <v>0.91139320767904608</v>
       </c>
       <c r="BA77" s="66">
-        <f t="shared" si="274"/>
+        <f t="shared" si="278"/>
         <v>0.5169613768087753</v>
       </c>
       <c r="BB77" s="66">
-        <f t="shared" si="274"/>
+        <f t="shared" si="278"/>
         <v>6.3626988700353992E-2</v>
       </c>
       <c r="BC77" s="66">
-        <f t="shared" ref="BC77" si="275">+BC69/AY69-1</f>
+        <f t="shared" ref="BC77" si="279">+BC69/AY69-1</f>
         <v>0.23250916922393094</v>
       </c>
       <c r="BD77" s="66">
-        <f t="shared" ref="BD77" si="276">+BD69/AZ69-1</f>
+        <f t="shared" ref="BD77" si="280">+BD69/AZ69-1</f>
         <v>-0.21073591805089609</v>
       </c>
       <c r="BE77" s="66">
-        <f t="shared" ref="BE77" si="277">+BE69/BA69-1</f>
+        <f t="shared" ref="BE77" si="281">+BE69/BA69-1</f>
         <v>0.15419301941534758</v>
       </c>
       <c r="BF77" s="66">
-        <f t="shared" ref="BF77" si="278">+BF69/BB69-1</f>
+        <f t="shared" ref="BF77" si="282">+BF69/BB69-1</f>
         <v>0.3170296226644651</v>
       </c>
       <c r="BG77" s="66">
-        <f t="shared" ref="BG77" si="279">+BG69/BC69-1</f>
+        <f t="shared" ref="BG77" si="283">+BG69/BC69-1</f>
         <v>-6.9289455650238252E-2</v>
       </c>
       <c r="BH77" s="66">
-        <f t="shared" ref="BH77:BK77" si="280">+BH69/BD69-1</f>
+        <f t="shared" ref="BH77:BK77" si="284">+BH69/BD69-1</f>
         <v>1.0684769275743689E-2</v>
       </c>
       <c r="BI77" s="66">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>0.39398235910848012</v>
       </c>
       <c r="BJ77" s="66">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>0.22523961679788629</v>
       </c>
       <c r="BK77" s="66">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>0.45236898755113963</v>
       </c>
       <c r="BL77" s="66">
-        <f t="shared" ref="BL77" si="281">+BL69/BH69-1</f>
+        <f t="shared" ref="BL77" si="285">+BL69/BH69-1</f>
         <v>0.49230638070497101</v>
       </c>
       <c r="BM77" s="66">
-        <f t="shared" ref="BM77" si="282">+BM69/BI69-1</f>
+        <f t="shared" ref="BM77" si="286">+BM69/BI69-1</f>
         <v>0.24713714508369033</v>
       </c>
       <c r="BN77" s="66">
-        <f t="shared" ref="BN77" si="283">+BN69/BJ69-1</f>
+        <f t="shared" ref="BN77" si="287">+BN69/BJ69-1</f>
         <v>0.43212564887758509</v>
       </c>
       <c r="BO77" s="66">
-        <f t="shared" ref="BO77" si="284">+BO69/BK69-1</f>
+        <f t="shared" ref="BO77" si="288">+BO69/BK69-1</f>
         <v>0.81485662133370518</v>
       </c>
       <c r="BP77" s="66">
-        <f t="shared" ref="BO77:BZ77" si="285">+BP69/BL69-1</f>
+        <f t="shared" ref="BP77:BZ77" si="289">+BP69/BL69-1</f>
         <v>0.92705985568862292</v>
       </c>
       <c r="BQ77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>0.99236784825039681</v>
       </c>
       <c r="BR77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>0.84721360982104787</v>
       </c>
       <c r="BS77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>-0.21748332228930001</v>
       </c>
       <c r="BT77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>-0.47101430542308842</v>
       </c>
       <c r="BU77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>-0.49135876858442151</v>
       </c>
       <c r="BV77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>-0.25995614941414535</v>
       </c>
       <c r="BW77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>0.24076955289661717</v>
       </c>
       <c r="BX77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>0.38318594312768117</v>
       </c>
       <c r="BY77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>0.45580624220564636</v>
       </c>
       <c r="BZ77" s="66">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>0.17005727482444555</v>
       </c>
       <c r="CA77" s="66">
@@ -25172,31 +25140,31 @@
         <v>0.43758303199128945</v>
       </c>
       <c r="CB77" s="66">
-        <f t="shared" ref="CB77:CH77" si="286">+CB69/BX69-1</f>
+        <f t="shared" ref="CB77:CH77" si="290">+CB69/BX69-1</f>
         <v>1.1450043970479884E-2</v>
       </c>
       <c r="CC77" s="66">
-        <f t="shared" si="286"/>
+        <f t="shared" si="290"/>
         <v>0.17768936251698442</v>
       </c>
       <c r="CD77" s="66">
-        <f t="shared" si="286"/>
+        <f t="shared" si="290"/>
         <v>-8.9177521660484982E-2</v>
       </c>
       <c r="CE77" s="66">
-        <f t="shared" si="286"/>
+        <f t="shared" si="290"/>
         <v>-0.4053610569721513</v>
       </c>
       <c r="CF77" s="66">
-        <f t="shared" si="286"/>
+        <f t="shared" si="290"/>
         <v>-0.39031664016057965</v>
       </c>
       <c r="CG77" s="66">
-        <f t="shared" si="286"/>
+        <f t="shared" si="290"/>
         <v>-0.33383464391169981</v>
       </c>
       <c r="CH77" s="66">
-        <f t="shared" si="286"/>
+        <f t="shared" si="290"/>
         <v>-0.23138956606326144</v>
       </c>
       <c r="CI77" s="66"/>
@@ -25204,83 +25172,83 @@
       <c r="CK77" s="66"/>
       <c r="CL77" s="48"/>
       <c r="CM77" s="67">
-        <f t="shared" ref="CM77:DF77" si="287">CM69/CL69-1</f>
+        <f t="shared" ref="CM77:DF77" si="291">CM69/CL69-1</f>
         <v>-0.10439415262209151</v>
       </c>
       <c r="CN77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>1.8236125131542602E-2</v>
       </c>
       <c r="CO77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>8.8659943146997877E-2</v>
       </c>
       <c r="CP77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>1.8914666658705448E-2</v>
       </c>
       <c r="CQ77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>0.18158561537982321</v>
       </c>
       <c r="CR77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>0.355007280514271</v>
       </c>
       <c r="CS77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>0.84588192053742906</v>
       </c>
       <c r="CT77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>-0.49685325768272748</v>
       </c>
       <c r="CU77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>-0.14043421391571609</v>
       </c>
       <c r="CV77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>9.3314477344200064E-2</v>
       </c>
       <c r="CW77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>-0.27187767535042584</v>
       </c>
       <c r="CX77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>-2.5724967872223239</v>
       </c>
       <c r="CY77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>-0.19999999999999984</v>
       </c>
       <c r="CZ77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>-1</v>
       </c>
       <c r="DA77" s="67" t="e">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DB77" s="67" t="e">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DC77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>0.32371712883247206</v>
       </c>
       <c r="DD77" s="67">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>0.10557739192775473</v>
       </c>
       <c r="DE77" s="67" t="e">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DF77" s="67" t="e">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25295,55 +25263,55 @@
         <v>123</v>
       </c>
       <c r="J79" s="64">
-        <f t="shared" ref="J79:V79" si="288">J60/J58</f>
+        <f t="shared" ref="J79:V79" si="292">J60/J58</f>
         <v>0.73930980486629738</v>
       </c>
       <c r="K79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.73235178068634854</v>
       </c>
       <c r="L79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.72475991913065463</v>
       </c>
       <c r="M79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.73272302052168059</v>
       </c>
       <c r="N79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.74005151506381495</v>
       </c>
       <c r="O79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.75013167270812031</v>
       </c>
       <c r="P79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.74846625766871167</v>
       </c>
       <c r="Q79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.75506122118009567</v>
       </c>
       <c r="R79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.81222054008379396</v>
       </c>
       <c r="S79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.78222379603399439</v>
       </c>
       <c r="T79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.76181506032714963</v>
       </c>
       <c r="U79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.82123302764734796</v>
       </c>
       <c r="V79" s="64">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.80905231258532484</v>
       </c>
       <c r="W79" s="64">
@@ -25359,211 +25327,211 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="AA79" s="64">
-        <f t="shared" ref="AA79:AT79" si="289">AA60/AA58</f>
+        <f t="shared" ref="AA79:AT79" si="293">AA60/AA58</f>
         <v>0.83310846723087617</v>
       </c>
       <c r="AB79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.81472572601936055</v>
       </c>
       <c r="AC79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.81087738223660555</v>
       </c>
       <c r="AD79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.75879676440849342</v>
       </c>
       <c r="AE79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.79536961079208823</v>
       </c>
       <c r="AF79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.82189016647241986</v>
       </c>
       <c r="AG79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.82535191341868852</v>
       </c>
       <c r="AH79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.80084690974915962</v>
       </c>
       <c r="AI79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.79790039731470075</v>
       </c>
       <c r="AJ79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.80360798362333674</v>
       </c>
       <c r="AK79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.78235552447097467</v>
       </c>
       <c r="AL79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.78143965075322874</v>
       </c>
       <c r="AM79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.78618092246180205</v>
       </c>
       <c r="AN79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.79525042406927948</v>
       </c>
       <c r="AO79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.77885163068442809</v>
       </c>
       <c r="AP79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.79045876487670585</v>
       </c>
       <c r="AQ79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.79323455908604068</v>
       </c>
       <c r="AR79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.80349764743578933</v>
       </c>
       <c r="AS79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.79245054221667877</v>
       </c>
       <c r="AT79" s="64">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>0.76131042556121742</v>
       </c>
       <c r="AU79" s="64">
-        <f t="shared" ref="AU79:AV79" si="290">AU60/AU58</f>
+        <f t="shared" ref="AU79:AV79" si="294">AU60/AU58</f>
         <v>0.73891225897375679</v>
       </c>
       <c r="AV79" s="64">
-        <f t="shared" si="290"/>
+        <f t="shared" si="294"/>
         <v>0.75895534484155935</v>
       </c>
       <c r="AW79" s="64">
-        <f t="shared" ref="AW79:AX79" si="291">AW60/AW58</f>
+        <f t="shared" ref="AW79:AX79" si="295">AW60/AW58</f>
         <v>0.74013454754286656</v>
       </c>
       <c r="AX79" s="64">
-        <f t="shared" si="291"/>
+        <f t="shared" si="295"/>
         <v>0.75531603303848638</v>
       </c>
       <c r="AY79" s="64">
-        <f t="shared" ref="AY79" si="292">AY60/AY58</f>
+        <f t="shared" ref="AY79" si="296">AY60/AY58</f>
         <v>0.74321269403836632</v>
       </c>
       <c r="AZ79" s="64">
-        <f t="shared" ref="AZ79" si="293">AZ60/AZ58</f>
+        <f t="shared" ref="AZ79" si="297">AZ60/AZ58</f>
         <v>0.79233534858497201</v>
       </c>
       <c r="BA79" s="64">
-        <f t="shared" ref="BA79" si="294">BA60/BA58</f>
+        <f t="shared" ref="BA79" si="298">BA60/BA58</f>
         <v>0.75060991592233395</v>
       </c>
       <c r="BB79" s="64">
-        <f t="shared" ref="BB79" si="295">BB60/BB58</f>
+        <f t="shared" ref="BB79" si="299">BB60/BB58</f>
         <v>0.7415730337078652</v>
       </c>
       <c r="BC79" s="64">
-        <f t="shared" ref="BC79:BD79" si="296">BC60/BC58</f>
+        <f t="shared" ref="BC79:BD79" si="300">BC60/BC58</f>
         <v>0.72806314361472535</v>
       </c>
       <c r="BD79" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="300"/>
         <v>0.75976909413854343</v>
       </c>
       <c r="BE79" s="64">
-        <f t="shared" ref="BE79:BF79" si="297">BE60/BE58</f>
+        <f t="shared" ref="BE79:BF79" si="301">BE60/BE58</f>
         <v>0.73016545640156405</v>
       </c>
       <c r="BF79" s="64">
-        <f t="shared" si="297"/>
+        <f t="shared" si="301"/>
         <v>0.74550820241298499</v>
       </c>
       <c r="BG79" s="64">
-        <f t="shared" ref="BG79:BH79" si="298">BG60/BG58</f>
+        <f t="shared" ref="BG79:BH79" si="302">BG60/BG58</f>
         <v>0.74219153453321351</v>
       </c>
       <c r="BH79" s="64">
-        <f t="shared" si="298"/>
+        <f t="shared" si="302"/>
         <v>0.73014782892364749</v>
       </c>
       <c r="BI79" s="64">
-        <f t="shared" ref="BI79:BK79" si="299">BI60/BI58</f>
+        <f t="shared" ref="BI79:BK79" si="303">BI60/BI58</f>
         <v>0.71963591375044178</v>
       </c>
       <c r="BJ79" s="64">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>0.73300112000259698</v>
       </c>
       <c r="BK79" s="64">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>0.72433333333333327</v>
       </c>
       <c r="BL79" s="64">
-        <f t="shared" ref="BL79" si="300">BL60/BL58</f>
+        <f t="shared" ref="BL79" si="304">BL60/BL58</f>
         <v>0.7320776686807654</v>
       </c>
       <c r="BM79" s="64">
-        <f t="shared" ref="BM79" si="301">BM60/BM58</f>
+        <f t="shared" ref="BM79" si="305">BM60/BM58</f>
         <v>0.74227552417558851</v>
       </c>
       <c r="BN79" s="64">
-        <f t="shared" ref="BN79:BO79" si="302">BN60/BN58</f>
+        <f t="shared" ref="BN79:BO79" si="306">BN60/BN58</f>
         <v>0.75247724660640514</v>
       </c>
       <c r="BO79" s="64">
-        <f t="shared" si="302"/>
+        <f t="shared" si="306"/>
         <v>0.83078803710773974</v>
       </c>
       <c r="BP79" s="64">
-        <f t="shared" ref="BP79:BQ79" si="303">BP60/BP58</f>
+        <f t="shared" ref="BP79:BQ79" si="307">BP60/BP58</f>
         <v>0.83896957330612731</v>
       </c>
       <c r="BQ79" s="64">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>0.82762819228457374</v>
       </c>
       <c r="BR79" s="64">
-        <f t="shared" ref="BR79:BS79" si="304">BR60/BR58</f>
+        <f t="shared" ref="BR79:BS79" si="308">BR60/BR58</f>
         <v>0.8321042281219273</v>
       </c>
       <c r="BS79" s="64">
-        <f t="shared" si="304"/>
+        <f t="shared" si="308"/>
         <v>0.80263831530086338</v>
       </c>
       <c r="BT79" s="64">
-        <f t="shared" ref="BT79:BZ79" si="305">BT60/BT58</f>
+        <f t="shared" ref="BT79:BZ79" si="309">BT60/BT58</f>
         <v>0.79648688947885227</v>
       </c>
       <c r="BU79" s="64">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>0.79098003692993768</v>
       </c>
       <c r="BV79" s="64">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>0.76884719291407366</v>
       </c>
       <c r="BW79" s="64">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>0.75440813447748922</v>
       </c>
       <c r="BX79" s="64">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>0.7925816023738872</v>
       </c>
       <c r="BY79" s="64">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>0.79007825188247449</v>
       </c>
       <c r="BZ79" s="64">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>0.74372179652245651</v>
       </c>
       <c r="CA79" s="64">
@@ -25571,31 +25539,31 @@
         <v>0.76088654434642322</v>
       </c>
       <c r="CB79" s="64">
-        <f t="shared" ref="CB79:CH79" si="306">CB60/CB58</f>
+        <f t="shared" ref="CB79:CH79" si="310">CB60/CB58</f>
         <v>0.79820897362783039</v>
       </c>
       <c r="CC79" s="64">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>0.79</v>
       </c>
       <c r="CD79" s="64">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>0.79</v>
       </c>
       <c r="CE79" s="64">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>0.78435344827586195</v>
       </c>
       <c r="CF79" s="64">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="CG79" s="64">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>0.79</v>
       </c>
       <c r="CH79" s="64">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>0.79</v>
       </c>
       <c r="CI79" s="64"/>
@@ -25639,19 +25607,19 @@
       <c r="DC79" s="64"/>
       <c r="DD79" s="64"/>
       <c r="DE79" s="64">
-        <f t="shared" ref="DE79:DO79" si="307">DE60/DE58</f>
+        <f t="shared" ref="DE79:DO79" si="311">DE60/DE58</f>
         <v>0.78828764583392763</v>
       </c>
       <c r="DF79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.7690061267369388</v>
       </c>
       <c r="DG79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.78389953787562938</v>
       </c>
       <c r="DH79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.78845286566677442</v>
       </c>
       <c r="DI79" s="64">
@@ -25659,27 +25627,27 @@
         <v>0.79</v>
       </c>
       <c r="DJ79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.79000000000000015</v>
       </c>
       <c r="DK79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.79</v>
       </c>
       <c r="DL79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.79</v>
       </c>
       <c r="DM79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.79</v>
       </c>
       <c r="DN79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.79</v>
       </c>
       <c r="DO79" s="64">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>0.79</v>
       </c>
     </row>
@@ -25688,279 +25656,279 @@
         <v>59</v>
       </c>
       <c r="J80" s="64">
-        <f t="shared" ref="J80:AT80" si="308">J61/J58</f>
+        <f t="shared" ref="J80:AT80" si="312">J61/J58</f>
         <v>0.33064321850156586</v>
       </c>
       <c r="K80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.33962346804642624</v>
       </c>
       <c r="L80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.36204826889057362</v>
       </c>
       <c r="M80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.33844970713412842</v>
       </c>
       <c r="N80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.3443984603362949</v>
       </c>
       <c r="O80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.35412213030950829</v>
       </c>
       <c r="P80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.36167104878761319</v>
       </c>
       <c r="Q80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.35200151363624077</v>
       </c>
       <c r="R80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.25034327359785935</v>
       </c>
       <c r="S80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.31558073654390933</v>
       </c>
       <c r="T80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.36356049406266394</v>
       </c>
       <c r="U80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.25050429711999733</v>
       </c>
       <c r="V80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.26340819418815725</v>
       </c>
       <c r="W80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.24840590855202022</v>
       </c>
       <c r="X80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.25361378384426048</v>
       </c>
       <c r="Y80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.24264002707116478</v>
       </c>
       <c r="Z80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.32983398906055078</v>
       </c>
       <c r="AA80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.31260476716137209</v>
       </c>
       <c r="AB80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.33405690818421824</v>
       </c>
       <c r="AC80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.30596907587198846</v>
       </c>
       <c r="AD80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.32917087967644082</v>
       </c>
       <c r="AE80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.29430316288396685</v>
       </c>
       <c r="AF80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.3053559935289718</v>
       </c>
       <c r="AG80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.2997276649925727</v>
       </c>
       <c r="AH80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.32142164468580292</v>
       </c>
       <c r="AI80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.30581244006028224</v>
       </c>
       <c r="AJ80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.32673362333674522</v>
       </c>
       <c r="AK80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.31193376815601565</v>
       </c>
       <c r="AL80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.35278554065450696</v>
       </c>
       <c r="AM80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.32976938454947874</v>
       </c>
       <c r="AN80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.34480849924113921</v>
       </c>
       <c r="AO80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.32290307762976572</v>
       </c>
       <c r="AP80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.33194568008997366</v>
       </c>
       <c r="AQ80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.29489468047126027</v>
       </c>
       <c r="AR80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.3149569118167867</v>
       </c>
       <c r="AS80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.28624883068288121</v>
       </c>
       <c r="AT80" s="64">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>0.3363173116650599</v>
       </c>
       <c r="AU80" s="64">
-        <f t="shared" ref="AU80:AV80" si="309">AU61/AU58</f>
+        <f t="shared" ref="AU80:AV80" si="313">AU61/AU58</f>
         <v>0.31707629561615169</v>
       </c>
       <c r="AV80" s="64">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.33712213307399302</v>
       </c>
       <c r="AW80" s="64">
-        <f t="shared" ref="AW80:AX80" si="310">AW61/AW58</f>
+        <f t="shared" ref="AW80:AX80" si="314">AW61/AW58</f>
         <v>0.34295266223644266</v>
       </c>
       <c r="AX80" s="64">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>0.35145373245074496</v>
       </c>
       <c r="AY80" s="64">
-        <f t="shared" ref="AY80" si="311">AY61/AY58</f>
+        <f t="shared" ref="AY80" si="315">AY61/AY58</f>
         <v>0.32800826748767414</v>
       </c>
       <c r="AZ80" s="64">
-        <f t="shared" ref="AZ80" si="312">AZ61/AZ58</f>
+        <f t="shared" ref="AZ80" si="316">AZ61/AZ58</f>
         <v>0.32847932191134233</v>
       </c>
       <c r="BA80" s="64">
-        <f t="shared" ref="BA80" si="313">BA61/BA58</f>
+        <f t="shared" ref="BA80" si="317">BA61/BA58</f>
         <v>0.31770066737907537</v>
       </c>
       <c r="BB80" s="64">
-        <f t="shared" ref="BB80" si="314">BB61/BB58</f>
+        <f t="shared" ref="BB80" si="318">BB61/BB58</f>
         <v>0.33454870154029315</v>
       </c>
       <c r="BC80" s="64">
-        <f t="shared" ref="BC80:BD80" si="315">BC61/BC58</f>
+        <f t="shared" ref="BC80:BD80" si="319">BC61/BC58</f>
         <v>0.30295369057162236</v>
       </c>
       <c r="BD80" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>0.30021462403789223</v>
       </c>
       <c r="BE80" s="64">
-        <f t="shared" ref="BE80:BF80" si="316">BE61/BE58</f>
+        <f t="shared" ref="BE80:BF80" si="320">BE61/BE58</f>
         <v>0.30151973342065225</v>
       </c>
       <c r="BF80" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="320"/>
         <v>0.31075427480253448</v>
       </c>
       <c r="BG80" s="64">
-        <f t="shared" ref="BG80:BH80" si="317">BG61/BG58</f>
+        <f t="shared" ref="BG80:BH80" si="321">BG61/BG58</f>
         <v>0.29984889925979763</v>
       </c>
       <c r="BH80" s="64">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>0.29710008069639271</v>
       </c>
       <c r="BI80" s="64">
-        <f t="shared" ref="BI80:BK80" si="318">BI61/BI58</f>
+        <f t="shared" ref="BI80:BK80" si="322">BI61/BI58</f>
         <v>0.27898550724637683</v>
       </c>
       <c r="BJ80" s="64">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>0.29274270780917755</v>
       </c>
       <c r="BK80" s="64">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="BL80" s="64">
-        <f t="shared" ref="BL80" si="319">BL61/BL58</f>
+        <f t="shared" ref="BL80" si="323">BL61/BL58</f>
         <v>0.26021210976837866</v>
       </c>
       <c r="BM80" s="64">
-        <f t="shared" ref="BM80" si="320">BM61/BM58</f>
+        <f t="shared" ref="BM80" si="324">BM61/BM58</f>
         <v>0.26668206337946848</v>
       </c>
       <c r="BN80" s="64">
-        <f t="shared" ref="BN80:BO80" si="321">BN61/BN58</f>
+        <f t="shared" ref="BN80:BO80" si="325">BN61/BN58</f>
         <v>0.28911564625850339</v>
       </c>
       <c r="BO80" s="64">
-        <f t="shared" si="321"/>
+        <f t="shared" si="325"/>
         <v>0.25404400683211092</v>
       </c>
       <c r="BP80" s="64">
-        <f t="shared" ref="BP80:BQ80" si="322">BP61/BP58</f>
+        <f t="shared" ref="BP80:BQ80" si="326">BP61/BP58</f>
         <v>0.23799735941907216</v>
       </c>
       <c r="BQ80" s="64">
-        <f t="shared" si="322"/>
+        <f t="shared" si="326"/>
         <v>0.2176687267851363</v>
       </c>
       <c r="BR80" s="64">
-        <f t="shared" ref="BR80:BS80" si="323">BR61/BR58</f>
+        <f t="shared" ref="BR80:BS80" si="327">BR61/BR58</f>
         <v>0.23190483994318803</v>
       </c>
       <c r="BS80" s="64">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>0.26444588552510334</v>
       </c>
       <c r="BT80" s="64">
-        <f t="shared" ref="BT80:BZ80" si="324">BT61/BT58</f>
+        <f t="shared" ref="BT80:BZ80" si="328">BT61/BT58</f>
         <v>0.26341055387860496</v>
       </c>
       <c r="BU80" s="64">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.27333379786085082</v>
       </c>
       <c r="BV80" s="64">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.20885471969462779</v>
       </c>
       <c r="BW80" s="64">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.23157399788409544</v>
       </c>
       <c r="BX80" s="64">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.25010385756676567</v>
       </c>
       <c r="BY80" s="64">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.23296914218219408</v>
       </c>
       <c r="BZ80" s="64">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.19900248753109415</v>
       </c>
       <c r="CA80" s="64">
@@ -25968,113 +25936,113 @@
         <v>0.1994724779452248</v>
       </c>
       <c r="CB80" s="64">
-        <f t="shared" ref="CB80:CH80" si="325">CB61/CB58</f>
+        <f t="shared" ref="CB80:CH80" si="329">CB61/CB58</f>
         <v>0.27464973257910874</v>
       </c>
       <c r="CC80" s="64">
-        <f t="shared" si="325"/>
+        <f t="shared" si="329"/>
         <v>0.22730743189708572</v>
       </c>
       <c r="CD80" s="64">
-        <f t="shared" si="325"/>
+        <f t="shared" si="329"/>
         <v>0.21801051709027164</v>
       </c>
       <c r="CE80" s="64">
-        <f t="shared" si="325"/>
+        <f t="shared" si="329"/>
         <v>0.2513218390804598</v>
       </c>
       <c r="CF80" s="64">
-        <f t="shared" si="325"/>
+        <f t="shared" si="329"/>
         <v>0.30860017547207919</v>
       </c>
       <c r="CG80" s="64">
-        <f t="shared" si="325"/>
+        <f t="shared" si="329"/>
         <v>0.26237353351252801</v>
       </c>
       <c r="CH80" s="64">
-        <f t="shared" si="325"/>
+        <f t="shared" si="329"/>
         <v>0.23926468791363148</v>
       </c>
       <c r="CI80" s="64"/>
       <c r="CJ80" s="64"/>
       <c r="CL80" s="64">
-        <f t="shared" ref="CL80:DE80" si="326">CL61/CL58</f>
+        <f t="shared" ref="CL80:DE80" si="330">CL61/CL58</f>
         <v>0.29383437956832059</v>
       </c>
       <c r="CM80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.30910896452107972</v>
       </c>
       <c r="CN80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.32220897894318634</v>
       </c>
       <c r="CO80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.30911321163143085</v>
       </c>
       <c r="CP80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.30696245733788396</v>
       </c>
       <c r="CQ80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.30107390629454817</v>
       </c>
       <c r="CR80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.26468097532486495</v>
       </c>
       <c r="CS80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.33758834028714957</v>
       </c>
       <c r="CT80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.32861448926124026</v>
       </c>
       <c r="CU80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.32216426568252204</v>
       </c>
       <c r="CV80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.33001637538582668</v>
       </c>
       <c r="CW80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.34149944321978049</v>
       </c>
       <c r="CX80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.30882162063937763</v>
       </c>
       <c r="CY80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.29110809763657503</v>
       </c>
       <c r="CZ80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="DA80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
       <c r="DB80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.29950786268217339</v>
       </c>
       <c r="DC80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.27800343369205649</v>
       </c>
       <c r="DD80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.2784035413138346</v>
       </c>
       <c r="DE80" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="330"/>
         <v>0.24943866926923092</v>
       </c>
       <c r="DF80" s="64">
@@ -26082,39 +26050,39 @@
         <v>0.22711654925225563</v>
       </c>
       <c r="DG80" s="64">
-        <f t="shared" ref="DG80:DO80" si="327">DG61/DG58</f>
+        <f t="shared" ref="DG80:DO80" si="331">DG61/DG58</f>
         <v>0.22807361756843397</v>
       </c>
       <c r="DH80" s="64">
-        <f t="shared" si="327"/>
+        <f t="shared" si="331"/>
         <v>0.26380018236501496</v>
       </c>
       <c r="DI80" s="64">
-        <f t="shared" si="327"/>
+        <f t="shared" si="331"/>
         <v>0.25</v>
       </c>
       <c r="DJ80" s="64">
-        <f t="shared" si="327"/>
+        <f t="shared" si="331"/>
         <v>0.25</v>
       </c>
       <c r="DK80" s="64">
-        <f t="shared" si="327"/>
+        <f t="shared" si="331"/>
         <v>0.25</v>
       </c>
       <c r="DL80" s="64">
-        <f t="shared" si="327"/>
+        <f t="shared" si="331"/>
         <v>0.25</v>
       </c>
       <c r="DM80" s="64">
-        <f t="shared" si="327"/>
+        <f t="shared" si="331"/>
         <v>0.25</v>
       </c>
       <c r="DN80" s="64">
-        <f t="shared" si="327"/>
+        <f t="shared" si="331"/>
         <v>0.25</v>
       </c>
       <c r="DO80" s="64">
-        <f t="shared" si="327"/>
+        <f t="shared" si="331"/>
         <v>0.25</v>
       </c>
     </row>
@@ -26123,279 +26091,279 @@
         <v>60</v>
       </c>
       <c r="J81" s="64">
-        <f t="shared" ref="J81:AT81" si="328">J62/J58</f>
+        <f t="shared" ref="J81:AT81" si="332">J62/J58</f>
         <v>0.21259937364490483</v>
       </c>
       <c r="K81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.2187299766684323</v>
       </c>
       <c r="L81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.24083901945918626</v>
       </c>
       <c r="M81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.23734777295520629</v>
       </c>
       <c r="N81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.23442248140537719</v>
       </c>
       <c r="O81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.22957523933451063</v>
       </c>
       <c r="P81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.22640958223780311</v>
       </c>
       <c r="Q81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.21320647620077304</v>
       </c>
       <c r="R81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.15667359081787136</v>
       </c>
       <c r="S81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.19693106704438151</v>
       </c>
       <c r="T81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.20372931470265629</v>
       </c>
       <c r="U81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.14315257742444021</v>
       </c>
       <c r="V81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.14306074380785214</v>
       </c>
       <c r="W81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.14052036271588322</v>
       </c>
       <c r="X81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.14194077720593723</v>
       </c>
       <c r="Y81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.14021097853433181</v>
       </c>
       <c r="Z81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.19884847903272238</v>
       </c>
       <c r="AA81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.19365059896152745</v>
       </c>
       <c r="AB81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.20346142563801703</v>
       </c>
       <c r="AC81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.20174397698669541</v>
       </c>
       <c r="AD81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.2050387596899225</v>
       </c>
       <c r="AE81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.1894266703126424</v>
       </c>
       <c r="AF81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.20651625584914851</v>
       </c>
       <c r="AG81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.2157105467921058</v>
       </c>
       <c r="AH81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.23243147142487713</v>
       </c>
       <c r="AI81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.19249212220852172</v>
       </c>
       <c r="AJ81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.20160568065506657</v>
       </c>
       <c r="AK81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.20834078821099203</v>
       </c>
       <c r="AL81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.22411654788087243</v>
       </c>
       <c r="AM81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.20553691275167782</v>
       </c>
       <c r="AN81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.23581823051513262</v>
       </c>
       <c r="AO81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.24672485071198896</v>
       </c>
       <c r="AP81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.2455978379467208</v>
       </c>
       <c r="AQ81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.24064619778650481</v>
       </c>
       <c r="AR81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.22436210938158763</v>
       </c>
       <c r="AS81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.23860998510203374</v>
       </c>
       <c r="AT81" s="64">
-        <f t="shared" si="328"/>
+        <f t="shared" si="332"/>
         <v>0.25399394022861865</v>
       </c>
       <c r="AU81" s="64">
-        <f t="shared" ref="AU81:AV81" si="329">AU62/AU58</f>
+        <f t="shared" ref="AU81:AV81" si="333">AU62/AU58</f>
         <v>0.23687301146676343</v>
       </c>
       <c r="AV81" s="64">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0.24219952994570063</v>
       </c>
       <c r="AW81" s="64">
-        <f t="shared" ref="AW81:AX81" si="330">AW62/AW58</f>
+        <f t="shared" ref="AW81:AX81" si="334">AW62/AW58</f>
         <v>0.25498400196898841</v>
       </c>
       <c r="AX81" s="64">
-        <f t="shared" si="330"/>
+        <f t="shared" si="334"/>
         <v>0.2315232460508074</v>
       </c>
       <c r="AY81" s="64">
-        <f t="shared" ref="AY81" si="331">AY62/AY58</f>
+        <f t="shared" ref="AY81" si="335">AY62/AY58</f>
         <v>0.22376041509677697</v>
       </c>
       <c r="AZ81" s="64">
-        <f t="shared" ref="AZ81" si="332">AZ62/AZ58</f>
+        <f t="shared" ref="AZ81" si="336">AZ62/AZ58</f>
         <v>0.23490067688352381</v>
       </c>
       <c r="BA81" s="64">
-        <f t="shared" ref="BA81" si="333">BA62/BA58</f>
+        <f t="shared" ref="BA81" si="337">BA62/BA58</f>
         <v>0.230538137387342</v>
       </c>
       <c r="BB81" s="64">
-        <f t="shared" ref="BB81" si="334">BB62/BB58</f>
+        <f t="shared" ref="BB81" si="338">BB62/BB58</f>
         <v>0.26865838232011308</v>
       </c>
       <c r="BC81" s="64">
-        <f t="shared" ref="BC81:BD81" si="335">BC62/BC58</f>
+        <f t="shared" ref="BC81:BD81" si="339">BC62/BC58</f>
         <v>0.25097120305851883</v>
       </c>
       <c r="BD81" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="339"/>
         <v>0.24716918294849025</v>
       </c>
       <c r="BE81" s="64">
-        <f t="shared" ref="BE81:BF81" si="336">BE62/BE58</f>
+        <f t="shared" ref="BE81:BF81" si="340">BE62/BE58</f>
         <v>0.23814935377621976</v>
       </c>
       <c r="BF81" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="340"/>
         <v>0.25181841854005726</v>
       </c>
       <c r="BG81" s="64">
-        <f t="shared" ref="BG81:BH81" si="337">BG62/BG58</f>
+        <f t="shared" ref="BG81:BH81" si="341">BG62/BG58</f>
         <v>0.24067096379320235</v>
       </c>
       <c r="BH81" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="341"/>
         <v>0.21841251309170198</v>
       </c>
       <c r="BI81" s="64">
-        <f t="shared" ref="BI81:BK81" si="338">BI62/BI58</f>
+        <f t="shared" ref="BI81:BK81" si="342">BI62/BI58</f>
         <v>0.23683280311063981</v>
       </c>
       <c r="BJ81" s="64">
-        <f t="shared" si="338"/>
+        <f t="shared" si="342"/>
         <v>0.24135244371581155</v>
       </c>
       <c r="BK81" s="64">
-        <f t="shared" si="338"/>
+        <f t="shared" si="342"/>
         <v>0.20647368421052634</v>
       </c>
       <c r="BL81" s="64">
-        <f t="shared" ref="BL81" si="339">BL62/BL58</f>
+        <f t="shared" ref="BL81" si="343">BL62/BL58</f>
         <v>0.20976523162134944</v>
       </c>
       <c r="BM81" s="64">
-        <f t="shared" ref="BM81" si="340">BM62/BM58</f>
+        <f t="shared" ref="BM81" si="344">BM62/BM58</f>
         <v>0.22159718900014846</v>
       </c>
       <c r="BN81" s="64">
-        <f t="shared" ref="BN81:BO81" si="341">BN62/BN58</f>
+        <f t="shared" ref="BN81:BO81" si="345">BN62/BN58</f>
         <v>0.22579442735998506</v>
       </c>
       <c r="BO81" s="64">
-        <f t="shared" si="341"/>
+        <f t="shared" si="345"/>
         <v>0.20605177668374697</v>
       </c>
       <c r="BP81" s="64">
-        <f t="shared" ref="BP81:BQ81" si="342">BP62/BP58</f>
+        <f t="shared" ref="BP81:BQ81" si="346">BP62/BP58</f>
         <v>0.21037628278221207</v>
       </c>
       <c r="BQ81" s="64">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0.21282924648983556</v>
       </c>
       <c r="BR81" s="64">
-        <f t="shared" ref="BR81:BS81" si="343">BR62/BR58</f>
+        <f t="shared" ref="BR81:BS81" si="347">BR62/BR58</f>
         <v>0.21596744236862234</v>
       </c>
       <c r="BS81" s="64">
-        <f t="shared" si="343"/>
+        <f t="shared" si="347"/>
         <v>0.23756783507969564</v>
       </c>
       <c r="BT81" s="64">
-        <f t="shared" ref="BT81:BZ81" si="344">BT62/BT58</f>
+        <f t="shared" ref="BT81:BZ81" si="348">BT62/BT58</f>
         <v>0.25279121358693685</v>
       </c>
       <c r="BU81" s="64">
-        <f t="shared" si="344"/>
+        <f t="shared" si="348"/>
         <v>0.25526948402606009</v>
       </c>
       <c r="BV81" s="64">
-        <f t="shared" si="344"/>
+        <f t="shared" si="348"/>
         <v>0.24703969032674294</v>
       </c>
       <c r="BW81" s="64">
-        <f t="shared" si="344"/>
+        <f t="shared" si="348"/>
         <v>0.24569472199365225</v>
       </c>
       <c r="BX81" s="64">
-        <f t="shared" si="344"/>
+        <f t="shared" si="348"/>
         <v>0.24818991097922857</v>
       </c>
       <c r="BY81" s="64">
-        <f t="shared" si="344"/>
+        <f t="shared" si="348"/>
         <v>0.25231064520891783</v>
       </c>
       <c r="BZ81" s="64">
-        <f t="shared" si="344"/>
+        <f t="shared" si="348"/>
         <v>0.24492806160077002</v>
       </c>
       <c r="CA81" s="64">
@@ -26403,31 +26371,31 @@
         <v>0.20615613116349343</v>
       </c>
       <c r="CB81" s="64">
-        <f t="shared" ref="CB81:CH81" si="345">CB62/CB58</f>
+        <f t="shared" ref="CB81:CH81" si="349">CB62/CB58</f>
         <v>0.25048166587031234</v>
       </c>
       <c r="CC81" s="64">
-        <f t="shared" si="345"/>
+        <f t="shared" si="349"/>
         <v>0.2461788898972874</v>
       </c>
       <c r="CD81" s="64">
-        <f t="shared" si="345"/>
+        <f t="shared" si="349"/>
         <v>0.26832274320771249</v>
       </c>
       <c r="CE81" s="64">
-        <f t="shared" si="345"/>
+        <f t="shared" si="349"/>
         <v>0.28521551724137933</v>
       </c>
       <c r="CF81" s="64">
-        <f t="shared" si="345"/>
+        <f t="shared" si="349"/>
         <v>0.2814446069699062</v>
       </c>
       <c r="CG81" s="64">
-        <f t="shared" si="345"/>
+        <f t="shared" si="349"/>
         <v>0.28415624020505675</v>
       </c>
       <c r="CH81" s="64">
-        <f t="shared" si="345"/>
+        <f t="shared" si="349"/>
         <v>0.29448192807661405</v>
       </c>
       <c r="CI81" s="64"/>
@@ -26440,55 +26408,55 @@
         <v>206</v>
       </c>
       <c r="J82" s="64">
-        <f t="shared" ref="J82:V82" si="346">J67/J66</f>
+        <f t="shared" ref="J82:V82" si="350">J67/J66</f>
         <v>0.31935573451818922</v>
       </c>
       <c r="K82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.31638030092874975</v>
       </c>
       <c r="L82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.47611317254174368</v>
       </c>
       <c r="M82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.38536054109824602</v>
       </c>
       <c r="N82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.30359645025688908</v>
       </c>
       <c r="O82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.3900210822206604</v>
       </c>
       <c r="P82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.3674496644295302</v>
       </c>
       <c r="Q82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.31622706422018343</v>
       </c>
       <c r="R82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>9.6808646985944338E-2</v>
       </c>
       <c r="S82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.21815718157181574</v>
       </c>
       <c r="T82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.32179549902152643</v>
       </c>
       <c r="U82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>0.10236373532384734</v>
       </c>
       <c r="V82" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="350"/>
         <v>7.2875239357784644E-2</v>
       </c>
       <c r="W82" s="64">
@@ -26504,211 +26472,211 @@
         <v>0.22</v>
       </c>
       <c r="AA82" s="64">
-        <f t="shared" ref="AA82:AT82" si="347">AA67/AA66</f>
+        <f t="shared" ref="AA82:AT82" si="351">AA67/AA66</f>
         <v>0.24231121580944903</v>
       </c>
       <c r="AB82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.24831347782402755</v>
       </c>
       <c r="AC82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>7.8861236336688664E-2</v>
       </c>
       <c r="AD82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.21005613091944028</v>
       </c>
       <c r="AE82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.27264573991031388</v>
       </c>
       <c r="AF82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.22206943966998971</v>
       </c>
       <c r="AG82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.21555204493593119</v>
       </c>
       <c r="AH82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.16120365394948946</v>
       </c>
       <c r="AI82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.20900931998619257</v>
       </c>
       <c r="AJ82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.20076941572493406</v>
       </c>
       <c r="AK82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.17926565874730019</v>
       </c>
       <c r="AL82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.19874390546235837</v>
       </c>
       <c r="AM82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.24435454211107024</v>
       </c>
       <c r="AN82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.22108814846056535</v>
       </c>
       <c r="AO82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.22108127084430404</v>
       </c>
       <c r="AP82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.15225254850378164</v>
       </c>
       <c r="AQ82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.27284418573169084</v>
       </c>
       <c r="AR82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.1955778003041054</v>
       </c>
       <c r="AS82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.20503502048367916</v>
       </c>
       <c r="AT82" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="351"/>
         <v>0.18196328810853948</v>
       </c>
       <c r="AU82" s="64">
-        <f t="shared" ref="AU82:AV82" si="348">AU67/AU66</f>
+        <f t="shared" ref="AU82:AV82" si="352">AU67/AU66</f>
         <v>0.20106146630461597</v>
       </c>
       <c r="AV82" s="64">
-        <f t="shared" si="348"/>
+        <f t="shared" si="352"/>
         <v>0.24843900096061469</v>
       </c>
       <c r="AW82" s="64">
-        <f t="shared" ref="AW82:AX82" si="349">AW67/AW66</f>
+        <f t="shared" ref="AW82:AX82" si="353">AW67/AW66</f>
         <v>0.25825275091697225</v>
       </c>
       <c r="AX82" s="64">
-        <f t="shared" si="349"/>
+        <f t="shared" si="353"/>
         <v>0.11416689026026296</v>
       </c>
       <c r="AY82" s="64">
-        <f t="shared" ref="AY82" si="350">AY67/AY66</f>
+        <f t="shared" ref="AY82" si="354">AY67/AY66</f>
         <v>0.1109855618330195</v>
       </c>
       <c r="AZ82" s="64">
-        <f t="shared" ref="AZ82" si="351">AZ67/AZ66</f>
+        <f t="shared" ref="AZ82" si="355">AZ67/AZ66</f>
         <v>6.2460417986067156E-2</v>
       </c>
       <c r="BA82" s="64">
-        <f t="shared" ref="BA82" si="352">BA67/BA66</f>
+        <f t="shared" ref="BA82" si="356">BA67/BA66</f>
         <v>0.27049716528565215</v>
       </c>
       <c r="BB82" s="64">
-        <f t="shared" ref="BB82" si="353">BB67/BB66</f>
+        <f t="shared" ref="BB82" si="357">BB67/BB66</f>
         <v>0</v>
       </c>
       <c r="BC82" s="64">
-        <f t="shared" ref="BC82:BD82" si="354">BC67/BC66</f>
+        <f t="shared" ref="BC82:BD82" si="358">BC67/BC66</f>
         <v>0.12718329652680183</v>
       </c>
       <c r="BD82" s="64">
-        <f t="shared" si="354"/>
+        <f t="shared" si="358"/>
         <v>0.17466938847963084</v>
       </c>
       <c r="BE82" s="64">
-        <f t="shared" ref="BE82:BF82" si="355">BE67/BE66</f>
+        <f t="shared" ref="BE82:BF82" si="359">BE67/BE66</f>
         <v>0.20035350384695372</v>
       </c>
       <c r="BF82" s="64">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0.11579961464354525</v>
       </c>
       <c r="BG82" s="64">
-        <f t="shared" ref="BG82:BH82" si="356">BG67/BG66</f>
+        <f t="shared" ref="BG82:BH82" si="360">BG67/BG66</f>
         <v>0.17621145374449337</v>
       </c>
       <c r="BH82" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="360"/>
         <v>0.212238379423384</v>
       </c>
       <c r="BI82" s="64">
-        <f t="shared" ref="BI82:BK82" si="357">BI67/BI66</f>
+        <f t="shared" ref="BI82:BK82" si="361">BI67/BI66</f>
         <v>3.2629384573552078E-2</v>
       </c>
       <c r="BJ82" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="361"/>
         <v>0</v>
       </c>
       <c r="BK82" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="361"/>
         <v>0.16152568084952687</v>
       </c>
       <c r="BL82" s="64">
-        <f t="shared" ref="BL82" si="358">BL67/BL66</f>
+        <f t="shared" ref="BL82" si="362">BL67/BL66</f>
         <v>0.16262210481046876</v>
       </c>
       <c r="BM82" s="64">
-        <f t="shared" ref="BM82" si="359">BM67/BM66</f>
+        <f t="shared" ref="BM82" si="363">BM67/BM66</f>
         <v>0.16815638865667804</v>
       </c>
       <c r="BN82" s="64">
-        <f t="shared" ref="BN82:BO82" si="360">BN67/BN66</f>
+        <f t="shared" ref="BN82:BO82" si="364">BN67/BN66</f>
         <v>0</v>
       </c>
       <c r="BO82" s="64">
-        <f t="shared" si="360"/>
+        <f t="shared" si="364"/>
         <v>8.4993975345259085E-2</v>
       </c>
       <c r="BP82" s="64">
-        <f t="shared" ref="BP82:BQ82" si="361">BP67/BP66</f>
+        <f t="shared" ref="BP82:BQ82" si="365">BP67/BP66</f>
         <v>6.1507225606114879E-2</v>
       </c>
       <c r="BQ82" s="64">
-        <f t="shared" si="361"/>
+        <f t="shared" si="365"/>
         <v>7.2428215233652379E-2</v>
       </c>
       <c r="BR82" s="64">
-        <f t="shared" ref="BR82:BS82" si="362">BR67/BR66</f>
+        <f t="shared" ref="BR82:BS82" si="366">BR67/BR66</f>
         <v>6.1300717738391679E-2</v>
       </c>
       <c r="BS82" s="64">
-        <f t="shared" si="362"/>
+        <f t="shared" si="366"/>
         <v>0.14963763811334227</v>
       </c>
       <c r="BT82" s="64">
-        <f t="shared" ref="BT82:BZ82" si="363">BT67/BT66</f>
+        <f t="shared" ref="BT82:BZ82" si="367">BT67/BT66</f>
         <v>0.15867689357622258</v>
       </c>
       <c r="BU82" s="64">
-        <f t="shared" si="363"/>
+        <f t="shared" si="367"/>
         <v>0.18152418447694052</v>
       </c>
       <c r="BV82" s="64">
-        <f t="shared" si="363"/>
+        <f t="shared" si="367"/>
         <v>0.15692650334075731</v>
       </c>
       <c r="BW82" s="64">
-        <f t="shared" si="363"/>
+        <f t="shared" si="367"/>
         <v>7.4556151403134235E-2</v>
       </c>
       <c r="BX82" s="64">
-        <f t="shared" si="363"/>
+        <f t="shared" si="367"/>
         <v>0.1070977917981074</v>
       </c>
       <c r="BY82" s="64">
-        <f t="shared" si="363"/>
+        <f t="shared" si="367"/>
         <v>0.1475739883229315</v>
       </c>
       <c r="BZ82" s="64">
-        <f t="shared" si="363"/>
+        <f t="shared" si="367"/>
         <v>4.903059026281776E-2</v>
       </c>
       <c r="CA82" s="64">
@@ -26716,31 +26684,31 @@
         <v>9.7358034349109293E-2</v>
       </c>
       <c r="CB82" s="64">
-        <f t="shared" ref="CB82:CH82" si="364">CB67/CB66</f>
+        <f t="shared" ref="CB82:CH82" si="368">CB67/CB66</f>
         <v>9.9000475963826662E-2</v>
       </c>
       <c r="CC82" s="64">
-        <f t="shared" si="364"/>
+        <f t="shared" si="368"/>
         <v>0.1</v>
       </c>
       <c r="CD82" s="64">
-        <f t="shared" si="364"/>
+        <f t="shared" si="368"/>
         <v>0.1</v>
       </c>
       <c r="CE82" s="64">
-        <f t="shared" si="364"/>
+        <f t="shared" si="368"/>
         <v>0.10940737670949038</v>
       </c>
       <c r="CF82" s="64">
-        <f t="shared" si="364"/>
+        <f t="shared" si="368"/>
         <v>0.1</v>
       </c>
       <c r="CG82" s="64">
-        <f t="shared" si="364"/>
+        <f t="shared" si="368"/>
         <v>0.1</v>
       </c>
       <c r="CH82" s="64">
-        <f t="shared" si="364"/>
+        <f t="shared" si="368"/>
         <v>0.1</v>
       </c>
       <c r="CI82" s="64"/>
@@ -26752,35 +26720,35 @@
         <v>0.10071086300219202</v>
       </c>
       <c r="DH82" s="79">
-        <f t="shared" ref="DH82:DO82" si="365">+DH67/DH66</f>
+        <f t="shared" ref="DH82:DO82" si="369">+DH67/DH66</f>
         <v>0.10203682702966282</v>
       </c>
       <c r="DI82" s="79">
-        <f t="shared" si="365"/>
+        <f t="shared" si="369"/>
         <v>0.2</v>
       </c>
       <c r="DJ82" s="79">
-        <f t="shared" si="365"/>
+        <f t="shared" si="369"/>
         <v>0.2</v>
       </c>
       <c r="DK82" s="79">
-        <f t="shared" si="365"/>
+        <f t="shared" si="369"/>
         <v>0.2</v>
       </c>
       <c r="DL82" s="79">
-        <f t="shared" si="365"/>
+        <f t="shared" si="369"/>
         <v>0.2</v>
       </c>
       <c r="DM82" s="79">
-        <f t="shared" si="365"/>
-        <v>0.19999999999999998</v>
+        <f t="shared" si="369"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="DN82" s="79">
-        <f t="shared" si="365"/>
+        <f t="shared" si="369"/>
         <v>0.2</v>
       </c>
       <c r="DO82" s="79">
-        <f t="shared" si="365"/>
+        <f t="shared" si="369"/>
         <v>0.2</v>
       </c>
       <c r="DP82" s="52" t="s">
@@ -26815,11 +26783,11 @@
         <v>1939.5</v>
       </c>
       <c r="AJ84" s="51">
-        <f t="shared" ref="AJ84" si="366">+AJ86-AJ99</f>
+        <f t="shared" ref="AJ84" si="370">+AJ86-AJ99</f>
         <v>2544.1999999999989</v>
       </c>
       <c r="AK84" s="51">
-        <f t="shared" ref="AK84" si="367">+AK86-AK99</f>
+        <f t="shared" ref="AK84" si="371">+AK86-AK99</f>
         <v>2923.8999999999996</v>
       </c>
       <c r="AL84" s="51">
@@ -26872,11 +26840,11 @@
       <c r="BU84" s="51"/>
       <c r="BV84" s="51"/>
       <c r="BW84" s="51">
-        <f t="shared" ref="BW84" si="368">+BW86-BW99</f>
+        <f t="shared" ref="BW84" si="372">+BW86-BW99</f>
         <v>-9920.7000000000007</v>
       </c>
       <c r="BX84" s="51">
-        <f t="shared" ref="BX84" si="369">+BX86-BX99</f>
+        <f t="shared" ref="BX84" si="373">+BX86-BX99</f>
         <v>-9768.9999999999982</v>
       </c>
       <c r="BY84" s="51">
@@ -26895,29 +26863,23 @@
         <f>+CB86-CB99</f>
         <v>-11489.9</v>
       </c>
-      <c r="CC84" s="51">
-        <f t="shared" ref="CC84:CH84" si="370">+CB84+CC68</f>
-        <v>-9512.4712999999992</v>
-      </c>
-      <c r="CD84" s="51">
-        <f t="shared" si="370"/>
-        <v>-7516.7248999999974</v>
-      </c>
+      <c r="CC84" s="51"/>
+      <c r="CD84" s="51"/>
       <c r="CE84" s="51">
-        <f t="shared" si="370"/>
-        <v>-6012.4248999999991</v>
+        <f>+CE86-CE99</f>
+        <v>-12463.899999999998</v>
       </c>
       <c r="CF84" s="51">
-        <f t="shared" si="370"/>
-        <v>-4973.312782</v>
+        <f t="shared" ref="CC84:CH84" si="374">+CE84+CF68</f>
+        <v>-11424.787881999999</v>
       </c>
       <c r="CG84" s="51">
-        <f t="shared" si="370"/>
-        <v>-3655.517887</v>
+        <f t="shared" si="374"/>
+        <v>-10106.992986999998</v>
       </c>
       <c r="CH84" s="51">
-        <f t="shared" si="370"/>
-        <v>-2120.9836780000005</v>
+        <f t="shared" si="374"/>
+        <v>-8572.4587779999983</v>
       </c>
       <c r="CI84" s="51"/>
       <c r="CJ84" s="51"/>
@@ -26934,39 +26896,39 @@
       <c r="DB84" s="51"/>
       <c r="DG84" s="49">
         <f>+CD84</f>
-        <v>-7516.7248999999974</v>
+        <v>0</v>
       </c>
       <c r="DH84" s="49">
         <f>+DG84+DH68</f>
-        <v>-2085.283677999998</v>
+        <v>5431.4412219999995</v>
       </c>
       <c r="DI84" s="49">
-        <f t="shared" ref="DI84:DO84" si="371">+DH84+DI68</f>
-        <v>10320.297386976001</v>
+        <f t="shared" ref="DI84:DO84" si="375">+DH84+DI68</f>
+        <v>17897.156086176001</v>
       </c>
       <c r="DJ84" s="49">
-        <f t="shared" si="371"/>
-        <v>23845.304999207809</v>
+        <f t="shared" si="375"/>
+        <v>31482.778568001409</v>
       </c>
       <c r="DK84" s="49">
-        <f t="shared" si="371"/>
-        <v>38634.909658631237</v>
+        <f t="shared" si="375"/>
+        <v>46333.48301597518</v>
       </c>
       <c r="DL84" s="49">
-        <f t="shared" si="371"/>
-        <v>54201.130457335428</v>
+        <f t="shared" si="375"/>
+        <v>61961.292401538114</v>
       </c>
       <c r="DM84" s="49">
-        <f t="shared" si="371"/>
-        <v>71489.790652539334</v>
+        <f t="shared" si="375"/>
+        <v>79312.033892295643</v>
       </c>
       <c r="DN84" s="49">
-        <f t="shared" si="371"/>
-        <v>90080.101206583087</v>
+        <f t="shared" si="375"/>
+        <v>97964.92239225746</v>
       </c>
       <c r="DO84" s="49">
-        <f t="shared" si="371"/>
-        <v>104922.84976238412</v>
+        <f t="shared" si="375"/>
+        <v>112870.7495175439</v>
       </c>
       <c r="DP84" s="47" t="s">
         <v>242</v>
@@ -26981,7 +26943,7 @@
       </c>
       <c r="DQ85" s="51">
         <f>NPV(DQ84,DH68:GO68)+Main!J5-Main!J6</f>
-        <v>176233.00067496923</v>
+        <v>176021.83385076353</v>
       </c>
     </row>
     <row r="86" spans="2:121" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -27110,7 +27072,10 @@
       </c>
       <c r="CC86" s="51"/>
       <c r="CD86" s="51"/>
-      <c r="CE86" s="51"/>
+      <c r="CE86" s="51">
+        <f>3545.9+123.4+2750.4</f>
+        <v>6419.7000000000007</v>
+      </c>
       <c r="CF86" s="51"/>
       <c r="CG86" s="51"/>
       <c r="CH86" s="51"/>
@@ -27138,7 +27103,7 @@
       </c>
       <c r="DQ86" s="65">
         <f>+DQ85/Main!J3</f>
-        <v>195.17686742748046</v>
+        <v>185.42805523220744</v>
       </c>
     </row>
     <row r="87" spans="2:121" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -27253,7 +27218,9 @@
       </c>
       <c r="CC87" s="51"/>
       <c r="CD87" s="51"/>
-      <c r="CE87" s="51"/>
+      <c r="CE87" s="51">
+        <v>7526.2</v>
+      </c>
       <c r="CF87" s="51"/>
       <c r="CG87" s="51"/>
       <c r="CH87" s="51"/>
@@ -27389,7 +27356,9 @@
       </c>
       <c r="CC88" s="51"/>
       <c r="CD88" s="51"/>
-      <c r="CE88" s="51"/>
+      <c r="CE88" s="51">
+        <v>1495.9</v>
+      </c>
       <c r="CF88" s="51"/>
       <c r="CG88" s="51"/>
       <c r="CH88" s="51"/>
@@ -27525,7 +27494,9 @@
       </c>
       <c r="CC89" s="51"/>
       <c r="CD89" s="51"/>
-      <c r="CE89" s="51"/>
+      <c r="CE89" s="51">
+        <v>4544.8</v>
+      </c>
       <c r="CF89" s="51"/>
       <c r="CG89" s="51"/>
       <c r="CH89" s="51"/>
@@ -27661,7 +27632,9 @@
       </c>
       <c r="CC90" s="51"/>
       <c r="CD90" s="51"/>
-      <c r="CE90" s="51"/>
+      <c r="CE90" s="51">
+        <v>3575.2</v>
+      </c>
       <c r="CF90" s="51"/>
       <c r="CG90" s="51"/>
       <c r="CH90" s="51"/>
@@ -27927,7 +27900,10 @@
       </c>
       <c r="CC92" s="51"/>
       <c r="CD92" s="51"/>
-      <c r="CE92" s="51"/>
+      <c r="CE92" s="51">
+        <f>4073.1+7087.1</f>
+        <v>11160.2</v>
+      </c>
       <c r="CF92" s="51"/>
       <c r="CG92" s="51"/>
       <c r="CH92" s="51"/>
@@ -28047,7 +28023,9 @@
       </c>
       <c r="CC93" s="51"/>
       <c r="CD93" s="51"/>
-      <c r="CE93" s="51"/>
+      <c r="CE93" s="51">
+        <v>3406.7</v>
+      </c>
       <c r="CF93" s="51"/>
       <c r="CG93" s="51"/>
       <c r="CH93" s="51"/>
@@ -28183,7 +28161,9 @@
       </c>
       <c r="CC94" s="51"/>
       <c r="CD94" s="51"/>
-      <c r="CE94" s="51"/>
+      <c r="CE94" s="51">
+        <v>0</v>
+      </c>
       <c r="CF94" s="51"/>
       <c r="CG94" s="51"/>
       <c r="CH94" s="51"/>
@@ -28319,7 +28299,9 @@
       </c>
       <c r="CC95" s="51"/>
       <c r="CD95" s="51"/>
-      <c r="CE95" s="51"/>
+      <c r="CE95" s="51">
+        <v>10546.2</v>
+      </c>
       <c r="CF95" s="51"/>
       <c r="CG95" s="51"/>
       <c r="CH95" s="51"/>
@@ -28439,7 +28421,9 @@
       </c>
       <c r="CC96" s="51"/>
       <c r="CD96" s="51"/>
-      <c r="CE96" s="51"/>
+      <c r="CE96" s="51">
+        <v>4488.1000000000004</v>
+      </c>
       <c r="CF96" s="51"/>
       <c r="CG96" s="51"/>
       <c r="CH96" s="51"/>
@@ -28507,7 +28491,7 @@
         <v>31695.3</v>
       </c>
       <c r="AJ97" s="51">
-        <f t="shared" ref="AJ97" si="372">SUM(AJ86:AJ95)</f>
+        <f t="shared" ref="AJ97" si="376">SUM(AJ86:AJ95)</f>
         <v>32779.299999999996</v>
       </c>
       <c r="AK97" s="51">
@@ -28564,11 +28548,11 @@
       <c r="BU97" s="51"/>
       <c r="BV97" s="51"/>
       <c r="BW97" s="51">
-        <f t="shared" ref="BW97" si="373">SUM(BW86:BW96)</f>
+        <f t="shared" ref="BW97" si="377">SUM(BW86:BW96)</f>
         <v>46838.299999999996</v>
       </c>
       <c r="BX97" s="51">
-        <f t="shared" ref="BX97" si="374">SUM(BX86:BX96)</f>
+        <f t="shared" ref="BX97" si="378">SUM(BX86:BX96)</f>
         <v>47808.999999999993</v>
       </c>
       <c r="BY97" s="51">
@@ -28589,7 +28573,10 @@
       </c>
       <c r="CC97" s="51"/>
       <c r="CD97" s="51"/>
-      <c r="CE97" s="51"/>
+      <c r="CE97" s="51">
+        <f>SUM(CE86:CE96)</f>
+        <v>53162.999999999993</v>
+      </c>
       <c r="CF97" s="51"/>
       <c r="CG97" s="51"/>
       <c r="CH97" s="51"/>
@@ -28739,7 +28726,10 @@
       </c>
       <c r="CC99" s="51"/>
       <c r="CD99" s="51"/>
-      <c r="CE99" s="51"/>
+      <c r="CE99" s="51">
+        <f>18880.5+3.1</f>
+        <v>18883.599999999999</v>
+      </c>
       <c r="CF99" s="51"/>
       <c r="CG99" s="51"/>
       <c r="CH99" s="51"/>
@@ -28875,7 +28865,9 @@
       </c>
       <c r="CC100" s="51"/>
       <c r="CD100" s="51"/>
-      <c r="CE100" s="51"/>
+      <c r="CE100" s="51">
+        <v>2015.9</v>
+      </c>
       <c r="CF100" s="51"/>
       <c r="CG100" s="51"/>
       <c r="CH100" s="51"/>
@@ -29011,7 +29003,9 @@
       </c>
       <c r="CC101" s="51"/>
       <c r="CD101" s="51"/>
-      <c r="CE101" s="51"/>
+      <c r="CE101" s="51">
+        <v>739.7</v>
+      </c>
       <c r="CF101" s="51"/>
       <c r="CG101" s="51"/>
       <c r="CH101" s="51"/>
@@ -29147,7 +29141,9 @@
       </c>
       <c r="CC102" s="51"/>
       <c r="CD102" s="51"/>
-      <c r="CE102" s="51"/>
+      <c r="CE102" s="51">
+        <v>9529.5</v>
+      </c>
       <c r="CF102" s="51"/>
       <c r="CG102" s="51"/>
       <c r="CH102" s="51"/>
@@ -29283,7 +29279,9 @@
       </c>
       <c r="CC103" s="51"/>
       <c r="CD103" s="51"/>
-      <c r="CE103" s="51"/>
+      <c r="CE103" s="51">
+        <v>0</v>
+      </c>
       <c r="CF103" s="51"/>
       <c r="CG103" s="51"/>
       <c r="CH103" s="51"/>
@@ -29419,7 +29417,9 @@
       </c>
       <c r="CC104" s="51"/>
       <c r="CD104" s="51"/>
-      <c r="CE104" s="51"/>
+      <c r="CE104" s="51">
+        <v>1528.3</v>
+      </c>
       <c r="CF104" s="51"/>
       <c r="CG104" s="51"/>
       <c r="CH104" s="51"/>
@@ -29555,7 +29555,9 @@
       </c>
       <c r="CC105" s="51"/>
       <c r="CD105" s="51"/>
-      <c r="CE105" s="51"/>
+      <c r="CE105" s="51">
+        <v>2193.5</v>
+      </c>
       <c r="CF105" s="51"/>
       <c r="CG105" s="51"/>
       <c r="CH105" s="51"/>
@@ -29691,7 +29693,9 @@
       </c>
       <c r="CC106" s="51"/>
       <c r="CD106" s="51"/>
-      <c r="CE106" s="51"/>
+      <c r="CE106" s="51">
+        <v>1313</v>
+      </c>
       <c r="CF106" s="51"/>
       <c r="CG106" s="51"/>
       <c r="CH106" s="51"/>
@@ -29833,7 +29837,9 @@
       </c>
       <c r="CC107" s="51"/>
       <c r="CD107" s="51"/>
-      <c r="CE107" s="51"/>
+      <c r="CE107" s="51">
+        <v>3842.1</v>
+      </c>
       <c r="CF107" s="51"/>
       <c r="CG107" s="51"/>
       <c r="CH107" s="51"/>
@@ -29969,7 +29975,9 @@
       </c>
       <c r="CC108" s="51"/>
       <c r="CD108" s="51"/>
-      <c r="CE108" s="51"/>
+      <c r="CE108" s="51">
+        <v>1822.5</v>
+      </c>
       <c r="CF108" s="51"/>
       <c r="CG108" s="51"/>
       <c r="CH108" s="51"/>
@@ -30105,7 +30113,9 @@
       </c>
       <c r="CC109" s="51"/>
       <c r="CD109" s="51"/>
-      <c r="CE109" s="51"/>
+      <c r="CE109" s="51">
+        <v>11294.9</v>
+      </c>
       <c r="CF109" s="51"/>
       <c r="CG109" s="51"/>
       <c r="CH109" s="51"/>
@@ -30173,7 +30183,7 @@
         <v>31695.3</v>
       </c>
       <c r="AJ110" s="51">
-        <f t="shared" ref="AJ110" si="375">SUM(AJ99:AJ109)</f>
+        <f t="shared" ref="AJ110" si="379">SUM(AJ99:AJ109)</f>
         <v>32779.300000000003</v>
       </c>
       <c r="AK110" s="51">
@@ -30230,11 +30240,11 @@
       <c r="BU110" s="51"/>
       <c r="BV110" s="51"/>
       <c r="BW110" s="51">
-        <f t="shared" ref="BW110" si="376">SUM(BW99:BW109)</f>
+        <f t="shared" ref="BW110" si="380">SUM(BW99:BW109)</f>
         <v>46838.3</v>
       </c>
       <c r="BX110" s="51">
-        <f t="shared" ref="BX110" si="377">SUM(BX99:BX109)</f>
+        <f t="shared" ref="BX110" si="381">SUM(BX99:BX109)</f>
         <v>47809.000000000007</v>
       </c>
       <c r="BY110" s="51">
@@ -30255,7 +30265,10 @@
       </c>
       <c r="CC110" s="51"/>
       <c r="CD110" s="51"/>
-      <c r="CE110" s="51"/>
+      <c r="CE110" s="51">
+        <f>SUM(CE99:CE109)</f>
+        <v>53163</v>
+      </c>
       <c r="CF110" s="51"/>
       <c r="CG110" s="51"/>
       <c r="CH110" s="51"/>
@@ -31325,6 +31338,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -31438,12 +31457,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -31454,6 +31467,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31469,21 +31497,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC3FC31-DE78-0F43-8C75-4780D756BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC4CBD-1378-4A1D-B738-C501CCBFE9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1060" windowWidth="29260" windowHeight="18140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51360" yWindow="1125" windowWidth="34170" windowHeight="19560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -4083,7 +4083,7 @@
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4300,18 +4300,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4925,20 +4913,20 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -4961,7 +4949,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
@@ -4981,7 +4969,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>278</v>
       </c>
@@ -4989,7 +4977,7 @@
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>455</v>
       </c>
@@ -4999,7 +4987,7 @@
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>480</v>
       </c>
@@ -5012,7 +5000,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>554</v>
       </c>
@@ -5032,7 +5020,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>14</v>
       </c>
@@ -5055,7 +5043,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>371</v>
       </c>
@@ -5063,7 +5051,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>261</v>
       </c>
@@ -5080,7 +5068,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>376</v>
       </c>
@@ -5089,7 +5077,7 @@
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>17</v>
       </c>
@@ -5101,7 +5089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>552</v>
       </c>
@@ -5119,7 +5107,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>55</v>
       </c>
@@ -5129,7 +5117,7 @@
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>497</v>
       </c>
@@ -5137,7 +5125,7 @@
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>54</v>
       </c>
@@ -5145,7 +5133,7 @@
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>57</v>
       </c>
@@ -5153,7 +5141,7 @@
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>369</v>
       </c>
@@ -5161,7 +5149,7 @@
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>408</v>
       </c>
@@ -5178,7 +5166,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>441</v>
       </c>
@@ -5195,7 +5183,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>419</v>
       </c>
@@ -5207,7 +5195,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>498</v>
       </c>
@@ -5220,7 +5208,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>378</v>
       </c>
@@ -5230,7 +5218,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>456</v>
       </c>
@@ -5244,7 +5232,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>15</v>
       </c>
@@ -5256,7 +5244,7 @@
       </c>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>41</v>
       </c>
@@ -5265,7 +5253,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>444</v>
       </c>
@@ -5282,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>495</v>
       </c>
@@ -5291,7 +5279,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="77"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="38" t="s">
         <v>465</v>
       </c>
@@ -5306,7 +5294,7 @@
       </c>
       <c r="F29" s="77"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="38" t="s">
         <v>370</v>
       </c>
@@ -5315,7 +5303,7 @@
       <c r="E30" s="38"/>
       <c r="F30" s="77"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="38" t="s">
         <v>417</v>
       </c>
@@ -5325,7 +5313,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="38" t="s">
         <v>7</v>
       </c>
@@ -5342,7 +5330,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="36" t="s">
         <v>449</v>
       </c>
@@ -5354,7 +5342,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="36" t="s">
         <v>450</v>
       </c>
@@ -5367,7 +5355,7 @@
       <c r="G34" s="7"/>
       <c r="J34" s="21"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="38" t="s">
         <v>403</v>
       </c>
@@ -5390,7 +5378,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
       <c r="C42" s="38" t="s">
         <v>483</v>
@@ -5405,7 +5393,7 @@
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C43" s="38" t="s">
         <v>405</v>
       </c>
@@ -5413,7 +5401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C44" s="38" t="s">
         <v>49</v>
       </c>
@@ -5424,7 +5412,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>25</v>
       </c>
@@ -5441,7 +5429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C46" s="38" t="s">
         <v>323</v>
       </c>
@@ -5452,7 +5440,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="38"/>
       <c r="C47" s="38" t="s">
         <v>324</v>
@@ -5470,12 +5458,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="38" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="38" t="s">
         <v>433</v>
       </c>
@@ -5486,17 +5474,17 @@
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C52" s="38" t="s">
         <v>475</v>
       </c>
@@ -5504,17 +5492,17 @@
         <v>477</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="38"/>
       <c r="C55" t="s">
         <v>478</v>
@@ -5523,27 +5511,27 @@
         <v>479</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="38"/>
       <c r="C57" s="38" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="38"/>
       <c r="C58" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="38"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="38" t="s">
         <v>238</v>
       </c>
@@ -5557,12 +5545,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C61" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
         <v>160</v>
       </c>
@@ -5573,7 +5561,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="36" t="s">
         <v>178</v>
       </c>
@@ -5596,7 +5584,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C64" s="36" t="s">
         <v>277</v>
       </c>
@@ -5613,7 +5601,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
         <v>204</v>
       </c>
@@ -5630,7 +5618,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="36" t="s">
         <v>310</v>
       </c>
@@ -5648,7 +5636,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="36" t="s">
         <v>307</v>
       </c>
@@ -5666,7 +5654,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
         <v>134</v>
       </c>
@@ -5683,7 +5671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
         <v>188</v>
       </c>
@@ -5700,7 +5688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="45" t="s">
         <v>23</v>
       </c>
@@ -5739,17 +5727,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>403</v>
@@ -5758,22 +5746,22 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="20" t="s">
         <v>560</v>
       </c>
@@ -5793,19 +5781,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>50</v>
@@ -5814,7 +5802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>48</v>
@@ -5823,7 +5811,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -5832,37 +5820,37 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="38" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="13" t="s">
         <v>254</v>
       </c>
@@ -5887,18 +5875,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -5906,7 +5894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -5914,7 +5902,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -5922,17 +5910,17 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>233</v>
       </c>
@@ -5953,17 +5941,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -5971,7 +5959,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>404</v>
       </c>
@@ -5993,18 +5981,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -6031,19 +6019,19 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
@@ -6052,55 +6040,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="29">
         <v>38338</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
         <v>2004</v>
       </c>
@@ -6118,7 +6106,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
@@ -6135,7 +6123,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6143,7 +6131,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
@@ -6155,7 +6143,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6163,7 +6151,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6171,7 +6159,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6179,7 +6167,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -6187,7 +6175,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
         <v>165</v>
@@ -6199,7 +6187,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
@@ -6214,7 +6202,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C26" s="30">
         <f>C25-7</f>
         <v>39227</v>
@@ -6227,7 +6215,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C27" s="30">
         <v>38869</v>
       </c>
@@ -6239,7 +6227,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -6262,18 +6250,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -6298,18 +6286,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -6334,21 +6322,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -6356,7 +6344,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -6364,22 +6352,22 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6387,38 +6375,38 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="26"/>
       <c r="D18" s="24" t="s">
         <v>55</v>
@@ -6430,7 +6418,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
         <v>157</v>
       </c>
@@ -6442,7 +6430,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>139</v>
       </c>
@@ -6454,7 +6442,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
@@ -6468,12 +6456,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="19" t="s">
         <v>140</v>
       </c>
@@ -6487,7 +6475,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>142</v>
       </c>
@@ -6499,7 +6487,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
@@ -6511,7 +6499,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
@@ -6523,7 +6511,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
@@ -6535,12 +6523,12 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="19" t="s">
         <v>146</v>
       </c>
@@ -6554,7 +6542,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="28" t="s">
         <v>147</v>
       </c>
@@ -6584,20 +6572,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -6605,7 +6593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -6613,7 +6601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6621,7 +6609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -6629,7 +6617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6637,22 +6625,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>164</v>
       </c>
@@ -6664,7 +6652,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="43">
         <v>40165</v>
       </c>
@@ -6675,7 +6663,7 @@
         <v>53829</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="43">
         <f t="shared" ref="C14:C20" si="0">C13-7</f>
         <v>40158</v>
@@ -6687,7 +6675,7 @@
         <v>52891</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" s="43">
         <f t="shared" si="0"/>
         <v>40151</v>
@@ -6699,7 +6687,7 @@
         <v>56775</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="43">
         <f t="shared" si="0"/>
         <v>40144</v>
@@ -6711,7 +6699,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="43">
         <f t="shared" si="0"/>
         <v>40137</v>
@@ -6723,7 +6711,7 @@
         <v>53770</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="43">
         <f t="shared" si="0"/>
         <v>40130</v>
@@ -6735,7 +6723,7 @@
         <v>51112</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="43">
         <f t="shared" si="0"/>
         <v>40123</v>
@@ -6747,7 +6735,7 @@
         <v>54445</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="43">
         <f t="shared" si="0"/>
         <v>40116</v>
@@ -6759,7 +6747,7 @@
         <v>51865</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="43">
         <v>39234</v>
       </c>
@@ -6770,7 +6758,7 @@
         <v>50496</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="43">
         <f>C21-7</f>
         <v>39227</v>
@@ -6782,7 +6770,7 @@
         <v>53736</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="43">
         <f>C21-365</f>
         <v>38869</v>
@@ -6813,26 +6801,26 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6858,7 +6846,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>508</v>
       </c>
@@ -6885,7 +6873,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>520</v>
       </c>
@@ -6911,7 +6899,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>505</v>
       </c>
@@ -6938,7 +6926,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="68" t="s">
         <v>471</v>
       </c>
@@ -6965,7 +6953,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>421</v>
       </c>
@@ -6990,7 +6978,7 @@
         <v>788475.55188799999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="36" t="s">
         <v>313</v>
       </c>
@@ -7008,7 +6996,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="36" t="s">
         <v>422</v>
       </c>
@@ -7029,7 +7017,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="s">
         <v>555</v>
       </c>
@@ -7048,7 +7036,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>535</v>
       </c>
@@ -7069,7 +7057,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>491</v>
       </c>
@@ -7088,7 +7076,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="36" t="s">
         <v>487</v>
       </c>
@@ -7109,7 +7097,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="36" t="s">
         <v>486</v>
       </c>
@@ -7121,7 +7109,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="36" t="s">
         <v>440</v>
       </c>
@@ -7142,7 +7130,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="36" t="s">
         <v>524</v>
       </c>
@@ -7160,7 +7148,7 @@
       </c>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="36" t="s">
         <v>473</v>
       </c>
@@ -7179,7 +7167,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>470</v>
       </c>
@@ -7202,7 +7190,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>527</v>
       </c>
@@ -7223,7 +7211,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="36" t="s">
         <v>57</v>
       </c>
@@ -7241,7 +7229,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="69" t="s">
         <v>434</v>
       </c>
@@ -7262,7 +7250,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7275,7 +7263,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="94" t="s">
         <v>483</v>
       </c>
@@ -7293,160 +7281,160 @@
       </c>
       <c r="G23" s="97"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="100" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="44"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="36" t="s">
         <v>734</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="44"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="36" t="s">
         <v>714</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="F26" s="100" t="s">
+      <c r="F26" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="C27" s="100" t="s">
+      <c r="C27" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="C28" s="100" t="s">
+      <c r="C28" s="37" t="s">
         <v>715</v>
       </c>
-      <c r="D28" s="98"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="100" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="36" t="s">
         <v>571</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="37" t="s">
         <v>716</v>
       </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="100" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="100" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="36" t="s">
         <v>717</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="100" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="36" t="s">
         <v>718</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="37" t="s">
         <v>719</v>
       </c>
-      <c r="D32" s="98"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="100" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="36" t="s">
         <v>746</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="37" t="s">
         <v>747</v>
       </c>
-      <c r="D33" s="98"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="100" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="36" t="s">
         <v>720</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="D34" s="98"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="100" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G34" s="7"/>
@@ -7454,225 +7442,225 @@
         <v>548</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="36" t="s">
         <v>722</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C35" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="100" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="36"/>
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="37" t="s">
         <v>726</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="37" t="s">
         <v>725</v>
       </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="100"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="36" t="s">
         <v>723</v>
       </c>
-      <c r="C37" s="100" t="s">
+      <c r="C37" s="37" t="s">
         <v>724</v>
       </c>
-      <c r="D37" s="98"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="100" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="36" t="s">
         <v>727</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C38" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="100" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="36" t="s">
         <v>728</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="37" t="s">
         <v>729</v>
       </c>
-      <c r="D39" s="98"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="100" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="36"/>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="D40" s="100" t="s">
+      <c r="D40" s="37" t="s">
         <v>730</v>
       </c>
-      <c r="E40" s="99"/>
-      <c r="F40" s="100" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="36" t="s">
         <v>731</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="100"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="100" t="s">
+      <c r="D41" s="37"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C42" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="100"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="100" t="s">
+      <c r="D42" s="37"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="36" t="s">
         <v>743</v>
       </c>
-      <c r="C43" s="100" t="s">
+      <c r="C43" s="37" t="s">
         <v>744</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="37" t="s">
         <v>745</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="100" t="s">
+      <c r="E43" s="40"/>
+      <c r="F43" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="36" t="s">
         <v>733</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C44" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="100" t="s">
+      <c r="D44" s="37"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="36" t="s">
         <v>740</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="100" t="s">
+      <c r="D45" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="E45" s="99"/>
-      <c r="F45" s="100" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="36" t="s">
         <v>741</v>
       </c>
-      <c r="C46" s="100" t="s">
+      <c r="C46" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="100" t="s">
+      <c r="D46" s="37"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="36" t="s">
         <v>742</v>
       </c>
-      <c r="C47" s="100" t="s">
+      <c r="C47" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="100"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="100" t="s">
+      <c r="D47" s="37"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C48" s="100" t="s">
+      <c r="C48" s="37" t="s">
         <v>735</v>
       </c>
-      <c r="D48" s="100" t="s">
+      <c r="D48" s="37" t="s">
         <v>737</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="100" t="s">
+      <c r="E48" s="40"/>
+      <c r="F48" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G48" s="7"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="C49" s="100" t="s">
+      <c r="C49" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D49" s="100" t="s">
+      <c r="D49" s="37" t="s">
         <v>738</v>
       </c>
-      <c r="E49" s="101"/>
-      <c r="F49" s="100" t="s">
+      <c r="E49" s="40"/>
+      <c r="F49" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="7"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="69" t="s">
         <v>530</v>
       </c>
@@ -7686,19 +7674,19 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E52" s="21" t="s">
         <v>547</v>
       </c>
       <c r="F52" s="33"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E53" s="21" t="s">
         <v>533</v>
       </c>
       <c r="F53" s="34"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="74"/>
       <c r="C54" s="74"/>
       <c r="E54" s="21" t="s">
@@ -7706,66 +7694,66 @@
       </c>
       <c r="F54" s="33"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="75"/>
       <c r="F55" s="33"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="76"/>
       <c r="C60" s="75"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="76"/>
       <c r="C61" s="75"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="76"/>
       <c r="C62" s="75"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="76"/>
       <c r="C65" s="75"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="75"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="75"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="75"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C70" s="75"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="75"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C74" s="75"/>
     </row>
   </sheetData>
@@ -7790,19 +7778,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -7810,7 +7798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -7818,7 +7806,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7826,7 +7814,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7834,7 +7822,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
@@ -7842,7 +7830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
@@ -7850,32 +7838,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="21"/>
     </row>
   </sheetData>
@@ -7897,20 +7885,20 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -7918,7 +7906,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -7926,7 +7914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
@@ -7934,7 +7922,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -7942,27 +7930,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -7970,7 +7958,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>131</v>
       </c>
@@ -7978,7 +7966,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
         <v>164</v>
       </c>
@@ -7996,7 +7984,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="42">
         <v>40165</v>
@@ -8016,7 +8004,7 @@
         <v>4.2984100816726937E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="42">
         <f t="shared" ref="C14:C20" si="1">C13-7</f>
@@ -8037,7 +8025,7 @@
         <v>3.8681653165078709E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="42">
         <f t="shared" si="1"/>
@@ -8058,7 +8046,7 @@
         <v>3.1254381079652369E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="42">
         <f t="shared" si="1"/>
@@ -8079,7 +8067,7 @@
         <v>3.4584947518294098E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
       <c r="C17" s="42">
         <f t="shared" si="1"/>
@@ -8100,7 +8088,7 @@
         <v>3.2099779036147079E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="21"/>
       <c r="C18" s="42">
         <f t="shared" si="1"/>
@@ -8121,7 +8109,7 @@
         <v>2.6363776171540302E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="21"/>
       <c r="C19" s="42">
         <f t="shared" si="1"/>
@@ -8142,7 +8130,7 @@
         <v>2.4831685670414312E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="21"/>
       <c r="C20" s="42">
         <f t="shared" si="1"/>
@@ -8163,11 +8151,11 @@
         <v>2.2489745401572539E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>172</v>
       </c>
@@ -8175,117 +8163,117 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C27" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C30" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="16" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="21" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="21" t="s">
         <v>328</v>
       </c>
@@ -8307,25 +8295,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>48</v>
@@ -8334,7 +8322,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -8343,7 +8331,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -8352,28 +8340,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="21" t="s">
         <v>122</v>
       </c>
@@ -8396,23 +8384,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -8420,7 +8408,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -8428,7 +8416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -8436,7 +8424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -8444,7 +8432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>92</v>
       </c>
@@ -8452,12 +8440,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>114</v>
       </c>
@@ -8479,19 +8467,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -8499,7 +8487,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8507,7 +8495,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8515,17 +8503,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="16" t="s">
         <v>235</v>
       </c>
@@ -8547,19 +8535,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -8567,7 +8555,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>48</v>
       </c>
@@ -8575,7 +8563,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8583,7 +8571,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -8591,42 +8579,42 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>227</v>
       </c>
@@ -8648,42 +8636,42 @@
   <dimension ref="A1:GS142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BZ120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CE140" sqref="CE140:CF140"/>
+      <selection pane="bottomRight" activeCell="CI6" sqref="CI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="21" width="7" style="47" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="47" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="47" customWidth="1"/>
     <col min="23" max="78" width="7" style="47" customWidth="1"/>
-    <col min="79" max="79" width="7.83203125" style="47" customWidth="1"/>
-    <col min="80" max="90" width="7.1640625" style="47" customWidth="1"/>
-    <col min="91" max="91" width="4.33203125" customWidth="1"/>
-    <col min="92" max="93" width="6.6640625" customWidth="1"/>
-    <col min="94" max="94" width="6.6640625" style="47" customWidth="1"/>
-    <col min="95" max="102" width="6.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.85546875" style="47" customWidth="1"/>
+    <col min="80" max="90" width="7.140625" style="47" customWidth="1"/>
+    <col min="91" max="91" width="4.28515625" customWidth="1"/>
+    <col min="92" max="93" width="6.7109375" customWidth="1"/>
+    <col min="94" max="94" width="6.7109375" style="47" customWidth="1"/>
+    <col min="95" max="102" width="6.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="7" style="47" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="6.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="6.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="105" max="108" width="7" style="47" customWidth="1"/>
-    <col min="109" max="110" width="7.5" style="47" customWidth="1"/>
-    <col min="111" max="112" width="7.1640625" customWidth="1"/>
-    <col min="113" max="113" width="7.83203125" customWidth="1"/>
-    <col min="114" max="121" width="7.1640625" customWidth="1"/>
-    <col min="122" max="122" width="7.5" customWidth="1"/>
-    <col min="123" max="123" width="7.6640625" customWidth="1"/>
+    <col min="109" max="110" width="7.42578125" style="47" customWidth="1"/>
+    <col min="111" max="112" width="7.140625" customWidth="1"/>
+    <col min="113" max="113" width="7.85546875" customWidth="1"/>
+    <col min="114" max="121" width="7.140625" customWidth="1"/>
+    <col min="122" max="122" width="7.42578125" customWidth="1"/>
+    <col min="123" max="123" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.2">
       <c r="C2" s="48" t="s">
         <v>515</v>
       </c>
@@ -9073,7 +9061,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>118</v>
       </c>
@@ -9213,7 +9201,7 @@
         <v>1535.6</v>
       </c>
       <c r="BY3" s="52">
-        <f t="shared" ref="BY3:CH3" si="3">SUM(BY5:BY7)</f>
+        <f t="shared" ref="BY3:CG3" si="3">SUM(BY5:BY7)</f>
         <v>1600.1</v>
       </c>
       <c r="BZ3" s="52">
@@ -9337,7 +9325,7 @@
         <v>52628.055671962502</v>
       </c>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -9407,7 +9395,7 @@
       <c r="CK4" s="48"/>
       <c r="CL4" s="48"/>
     </row>
-    <row r="5" spans="1:128" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:128" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
         <v>366</v>
       </c>
@@ -9662,7 +9650,7 @@
         <v>3638.8441391624992</v>
       </c>
     </row>
-    <row r="6" spans="1:128" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:128" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
         <v>509</v>
       </c>
@@ -9855,7 +9843,7 @@
         <v>35962.183488000002</v>
       </c>
     </row>
-    <row r="7" spans="1:128" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:128" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
         <v>529</v>
       </c>
@@ -10010,7 +9998,7 @@
         <v>13027.028044799998</v>
       </c>
     </row>
-    <row r="8" spans="1:128" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:128" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
         <v>377</v>
       </c>
@@ -10174,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>373</v>
       </c>
@@ -10420,7 +10408,7 @@
         <v>5103.6289920000008</v>
       </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>370</v>
       </c>
@@ -10654,7 +10642,7 @@
         <v>454.16246284921209</v>
       </c>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>369</v>
       </c>
@@ -10910,7 +10898,7 @@
         <v>549.30902400000014</v>
       </c>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -11295,7 +11283,7 @@
         <v>1561.9232491999999</v>
       </c>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -11652,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>57</v>
       </c>
@@ -12020,7 +12008,7 @@
         <v>151.57594784687495</v>
       </c>
     </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>374</v>
       </c>
@@ -12251,7 +12239,7 @@
         <v>22.848958489174002</v>
       </c>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>371</v>
       </c>
@@ -12504,7 +12492,7 @@
         <v>168.99762565468745</v>
       </c>
     </row>
-    <row r="17" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -12856,7 +12844,7 @@
         <v>74.029731300000009</v>
       </c>
     </row>
-    <row r="18" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>367</v>
       </c>
@@ -13093,7 +13081,7 @@
         <v>83.755101600000017</v>
       </c>
     </row>
-    <row r="19" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>376</v>
       </c>
@@ -13310,7 +13298,7 @@
         <v>239.58509799064572</v>
       </c>
     </row>
-    <row r="20" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>368</v>
       </c>
@@ -13516,7 +13504,7 @@
         <v>65.792395800000008</v>
       </c>
     </row>
-    <row r="21" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>256</v>
       </c>
@@ -13794,7 +13782,7 @@
         <v>76.846368600000005</v>
       </c>
     </row>
-    <row r="22" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>77</v>
       </c>
@@ -13997,7 +13985,7 @@
         <v>142.69190850000001</v>
       </c>
     </row>
-    <row r="23" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -14363,7 +14351,7 @@
         <v>32.577333300000006</v>
       </c>
     </row>
-    <row r="24" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -14633,7 +14621,7 @@
         <v>21.948513300000002</v>
       </c>
     </row>
-    <row r="25" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -14990,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>372</v>
       </c>
@@ -15201,7 +15189,7 @@
         <v>62.019164700000005</v>
       </c>
     </row>
-    <row r="27" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>14</v>
       </c>
@@ -15544,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>495</v>
       </c>
@@ -15771,7 +15759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>62</v>
       </c>
@@ -15976,7 +15964,7 @@
         <v>86.837459400000014</v>
       </c>
     </row>
-    <row r="30" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B30" s="38" t="s">
         <v>378</v>
       </c>
@@ -16165,7 +16153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B31" s="38" t="s">
         <v>455</v>
       </c>
@@ -16336,7 +16324,7 @@
       <c r="DR31" s="49"/>
       <c r="DS31" s="49"/>
     </row>
-    <row r="32" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B32" s="38" t="s">
         <v>375</v>
       </c>
@@ -16543,7 +16531,7 @@
         <v>36.754594531249992</v>
       </c>
     </row>
-    <row r="33" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
         <v>497</v>
       </c>
@@ -16697,7 +16685,7 @@
       <c r="DR33" s="49"/>
       <c r="DS33" s="49"/>
     </row>
-    <row r="34" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B34" s="38" t="s">
         <v>456</v>
       </c>
@@ -16851,7 +16839,7 @@
       <c r="DR34" s="49"/>
       <c r="DS34" s="49"/>
     </row>
-    <row r="35" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -17176,7 +17164,7 @@
       <c r="DR35" s="49"/>
       <c r="DS35" s="49"/>
     </row>
-    <row r="36" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B36" s="38" t="s">
         <v>511</v>
       </c>
@@ -17312,7 +17300,7 @@
       <c r="DR36" s="49"/>
       <c r="DS36" s="49"/>
     </row>
-    <row r="37" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B37" s="38" t="s">
         <v>510</v>
       </c>
@@ -17456,7 +17444,7 @@
       <c r="DR37" s="49"/>
       <c r="DS37" s="49"/>
     </row>
-    <row r="38" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>79</v>
       </c>
@@ -17724,7 +17712,7 @@
       <c r="DK38" s="49"/>
       <c r="DL38" s="49"/>
     </row>
-    <row r="39" spans="2:123" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:123" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="38" t="s">
         <v>261</v>
       </c>
@@ -17923,7 +17911,7 @@
       <c r="DK39" s="49"/>
       <c r="DL39" s="49"/>
     </row>
-    <row r="40" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -18149,7 +18137,7 @@
       <c r="DK40" s="49"/>
       <c r="DL40" s="49"/>
     </row>
-    <row r="41" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B41" s="38" t="s">
         <v>41</v>
       </c>
@@ -18272,7 +18260,7 @@
       <c r="DK41" s="49"/>
       <c r="DL41" s="49"/>
     </row>
-    <row r="42" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>70</v>
       </c>
@@ -18470,7 +18458,7 @@
       <c r="DK42" s="49"/>
       <c r="DL42" s="49"/>
     </row>
-    <row r="43" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>61</v>
       </c>
@@ -18632,7 +18620,7 @@
       <c r="DK43" s="49"/>
       <c r="DL43" s="49"/>
     </row>
-    <row r="44" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>63</v>
       </c>
@@ -18767,7 +18755,7 @@
       <c r="DK44" s="49"/>
       <c r="DL44" s="49"/>
     </row>
-    <row r="45" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>64</v>
       </c>
@@ -18900,7 +18888,7 @@
       <c r="DK45" s="49"/>
       <c r="DL45" s="49"/>
     </row>
-    <row r="46" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>65</v>
       </c>
@@ -19035,7 +19023,7 @@
       <c r="DK46" s="49"/>
       <c r="DL46" s="49"/>
     </row>
-    <row r="47" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>66</v>
       </c>
@@ -19170,7 +19158,7 @@
       <c r="DK47" s="49"/>
       <c r="DL47" s="49"/>
     </row>
-    <row r="48" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>67</v>
       </c>
@@ -19308,7 +19296,7 @@
       <c r="DK48" s="49"/>
       <c r="DL48" s="49"/>
     </row>
-    <row r="49" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>69</v>
       </c>
@@ -19476,7 +19464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>71</v>
       </c>
@@ -19609,7 +19597,7 @@
       <c r="DK50" s="49"/>
       <c r="DL50" s="49"/>
     </row>
-    <row r="51" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>72</v>
       </c>
@@ -19758,7 +19746,7 @@
       <c r="DK51" s="49"/>
       <c r="DL51" s="49"/>
     </row>
-    <row r="52" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>73</v>
       </c>
@@ -19893,7 +19881,7 @@
       <c r="DK52" s="49"/>
       <c r="DL52" s="49"/>
     </row>
-    <row r="53" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>68</v>
       </c>
@@ -20069,7 +20057,7 @@
       <c r="DK53" s="49"/>
       <c r="DL53" s="49"/>
     </row>
-    <row r="54" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>74</v>
       </c>
@@ -20232,7 +20220,7 @@
       <c r="DK54" s="49"/>
       <c r="DL54" s="49"/>
     </row>
-    <row r="55" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>17</v>
       </c>
@@ -20490,7 +20478,7 @@
       <c r="DK55" s="49"/>
       <c r="DL55" s="49"/>
     </row>
-    <row r="56" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B56" s="38" t="s">
         <v>238</v>
       </c>
@@ -20609,7 +20597,7 @@
       <c r="DK56" s="49"/>
       <c r="DL56" s="49"/>
     </row>
-    <row r="57" spans="2:123" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:123" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="38" t="s">
         <v>276</v>
       </c>
@@ -20728,7 +20716,7 @@
       <c r="DK57" s="49"/>
       <c r="DL57" s="49"/>
     </row>
-    <row r="58" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>80</v>
       </c>
@@ -20940,7 +20928,7 @@
       <c r="DK58" s="49"/>
       <c r="DL58" s="49"/>
     </row>
-    <row r="59" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>76</v>
       </c>
@@ -21073,7 +21061,7 @@
       <c r="DK59" s="49"/>
       <c r="DL59" s="49"/>
     </row>
-    <row r="60" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B60" s="38" t="s">
         <v>249</v>
       </c>
@@ -21216,7 +21204,7 @@
       <c r="DK60" s="49"/>
       <c r="DL60" s="49"/>
     </row>
-    <row r="61" spans="2:123" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:123" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="55" t="s">
         <v>380</v>
       </c>
@@ -21695,7 +21683,7 @@
         <v>61563.339601024352</v>
       </c>
     </row>
-    <row r="62" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>58</v>
       </c>
@@ -22064,7 +22052,7 @@
         <v>9234.5009401536518</v>
       </c>
     </row>
-    <row r="63" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>123</v>
       </c>
@@ -22514,7 +22502,7 @@
         <v>52328.838660870701</v>
       </c>
     </row>
-    <row r="64" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>59</v>
       </c>
@@ -22879,7 +22867,7 @@
         <v>15390.834900256088</v>
       </c>
     </row>
-    <row r="65" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:201" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>60</v>
       </c>
@@ -23220,7 +23208,7 @@
       <c r="DR65" s="49"/>
       <c r="DS65" s="49"/>
     </row>
-    <row r="66" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:201" x14ac:dyDescent="0.2">
       <c r="B66" s="38" t="s">
         <v>250</v>
       </c>
@@ -23625,7 +23613,7 @@
         <v>15390.834900256088</v>
       </c>
     </row>
-    <row r="67" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:201" x14ac:dyDescent="0.2">
       <c r="B67" s="38" t="s">
         <v>251</v>
       </c>
@@ -24078,7 +24066,7 @@
         <v>36938.003760614614</v>
       </c>
     </row>
-    <row r="68" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:201" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>78</v>
       </c>
@@ -24427,7 +24415,7 @@
         <v>10300.831962439064</v>
       </c>
     </row>
-    <row r="69" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:201" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>81</v>
       </c>
@@ -24883,7 +24871,7 @@
         <v>47238.835723053679</v>
       </c>
     </row>
-    <row r="70" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:201" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>82</v>
       </c>
@@ -25241,7 +25229,7 @@
         <v>9447.7671446107361</v>
       </c>
     </row>
-    <row r="71" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:201" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>83</v>
       </c>
@@ -26009,7 +25997,7 @@
         <v>177093.47894854384</v>
       </c>
     </row>
-    <row r="72" spans="2:201" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:201" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="58" t="s">
         <v>56</v>
       </c>
@@ -26465,7 +26453,7 @@
         <v>41.842916983844255</v>
       </c>
     </row>
-    <row r="73" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:201" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>84</v>
       </c>
@@ -26834,10 +26822,10 @@
         <v>903.16525000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:201" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:201" x14ac:dyDescent="0.2">
       <c r="Q74" s="51"/>
     </row>
-    <row r="75" spans="2:201" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:201" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="55" t="s">
         <v>381</v>
       </c>
@@ -27242,7 +27230,7 @@
         <v>-7.6712670448024878E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="38" t="s">
         <v>379</v>
       </c>
@@ -27470,7 +27458,7 @@
       <c r="DI76" s="67"/>
       <c r="DJ76" s="67"/>
     </row>
-    <row r="77" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="38" t="s">
         <v>713</v>
       </c>
@@ -27599,7 +27587,7 @@
       <c r="DI77" s="67"/>
       <c r="DJ77" s="67"/>
     </row>
-    <row r="78" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="38" t="s">
         <v>492</v>
       </c>
@@ -27693,95 +27681,95 @@
         <v>0.72354948805460761</v>
       </c>
       <c r="BP78" s="66">
-        <f>+BP9/BL9-1</f>
+        <f t="shared" ref="BP78:BY80" si="267">+BP9/BL9-1</f>
         <v>0.607451158564289</v>
       </c>
       <c r="BQ78" s="66">
-        <f>+BQ9/BM9-1</f>
+        <f t="shared" si="267"/>
         <v>0.28836680560818495</v>
       </c>
       <c r="BR78" s="66">
-        <f>+BR9/BN9-1</f>
+        <f t="shared" si="267"/>
         <v>0.36840390879478835</v>
       </c>
       <c r="BS78" s="66">
-        <f>+BS9/BO9-1</f>
+        <f t="shared" si="267"/>
         <v>0.75643564356435644</v>
       </c>
       <c r="BT78" s="66">
-        <f>+BT9/BP9-1</f>
+        <f t="shared" si="267"/>
         <v>0.11701526286037311</v>
       </c>
       <c r="BU78" s="66">
-        <f>+BU9/BQ9-1</f>
+        <f t="shared" si="267"/>
         <v>0.33676470588235285</v>
       </c>
       <c r="BV78" s="66">
-        <f>+BV9/BR9-1</f>
+        <f t="shared" si="267"/>
         <v>0.17900499880980725</v>
       </c>
       <c r="BW78" s="66">
-        <f>+BW9/BS9-1</f>
+        <f t="shared" si="267"/>
         <v>-9.0868094701240132E-2</v>
       </c>
       <c r="BX78" s="66">
-        <f>+BX9/BT9-1</f>
+        <f t="shared" si="267"/>
         <v>0.44003036437246967</v>
       </c>
       <c r="BY78" s="66">
-        <f>+BY9/BU9-1</f>
+        <f t="shared" si="267"/>
         <v>0.304950495049505</v>
       </c>
       <c r="BZ78" s="66">
-        <f>+BZ9/BV9-1</f>
+        <f t="shared" ref="BZ78:CI80" si="268">+BZ9/BV9-1</f>
         <v>0.30708661417322825</v>
       </c>
       <c r="CA78" s="66">
-        <f>+CA9/BW9-1</f>
+        <f t="shared" si="268"/>
         <v>0.21056547619047628</v>
       </c>
       <c r="CB78" s="66">
-        <f>+CB9/BX9-1</f>
+        <f t="shared" si="268"/>
         <v>6.519065190651907E-2</v>
       </c>
       <c r="CC78" s="66">
-        <f>+CC9/BY9-1</f>
+        <f t="shared" si="268"/>
         <v>0.14634968807958182</v>
       </c>
       <c r="CD78" s="66">
-        <f>+CD9/BZ9-1</f>
+        <f t="shared" si="268"/>
         <v>9.3296261970960748E-2</v>
       </c>
       <c r="CE78" s="66">
-        <f>+CE9/CA9-1</f>
+        <f t="shared" si="268"/>
         <v>7.9696783446015163E-2</v>
       </c>
       <c r="CF78" s="66">
-        <f>+CF9/CB9-1</f>
+        <f t="shared" si="268"/>
         <v>0.16116793137578345</v>
       </c>
       <c r="CG78" s="66">
-        <f>+CG9/CC9-1</f>
+        <f t="shared" si="268"/>
         <v>9.4572731284012557E-2</v>
       </c>
       <c r="CH78" s="66">
-        <f>+CH9/CD9-1</f>
+        <f t="shared" si="268"/>
         <v>0.10850522746538571</v>
       </c>
       <c r="CI78" s="66">
-        <f>+CI9/CE9-1</f>
+        <f t="shared" si="268"/>
         <v>0.1461100569259961</v>
       </c>
       <c r="CJ78" s="66">
-        <f>+CJ9/CF9-1</f>
+        <f t="shared" ref="CJ78:CS80" si="269">+CJ9/CF9-1</f>
         <v>-0.11351044182412273</v>
       </c>
       <c r="CK78" s="66">
-        <f>+CK9/CG9-1</f>
+        <f t="shared" si="269"/>
         <v>-0.1346412254770224</v>
       </c>
       <c r="CL78" s="66">
-        <f>+CL9/CH9-1</f>
+        <f t="shared" si="269"/>
         <v>-0.15370889625286777</v>
       </c>
       <c r="CM78" s="66"/>
@@ -27809,7 +27797,7 @@
       <c r="DI78" s="67"/>
       <c r="DJ78" s="67"/>
     </row>
-    <row r="79" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="38" t="s">
         <v>493</v>
       </c>
@@ -27885,95 +27873,95 @@
         <v>2.6835016835016838</v>
       </c>
       <c r="BP79" s="66">
-        <f>+BP10/BL10-1</f>
+        <f t="shared" si="267"/>
         <v>1.3206239168110918</v>
       </c>
       <c r="BQ79" s="66">
-        <f>+BQ10/BM10-1</f>
+        <f t="shared" si="267"/>
         <v>0.86035502958579868</v>
       </c>
       <c r="BR79" s="66">
-        <f>+BR10/BN10-1</f>
+        <f t="shared" si="267"/>
         <v>1.1552346570397112</v>
       </c>
       <c r="BS79" s="66">
-        <f>+BS10/BO10-1</f>
+        <f t="shared" si="267"/>
         <v>0.71846435100548445</v>
       </c>
       <c r="BT79" s="66">
-        <f>+BT10/BP10-1</f>
+        <f t="shared" si="267"/>
         <v>0.55787901418969366</v>
       </c>
       <c r="BU79" s="66">
-        <f>+BU10/BQ10-1</f>
+        <f t="shared" si="267"/>
         <v>0.49109414758269732</v>
       </c>
       <c r="BV79" s="66">
-        <f>+BV10/BR10-1</f>
+        <f t="shared" si="267"/>
         <v>0.57230597431602481</v>
       </c>
       <c r="BW79" s="66">
-        <f>+BW10/BS10-1</f>
+        <f t="shared" si="267"/>
         <v>0.43085106382978733</v>
       </c>
       <c r="BX79" s="66">
-        <f>+BX10/BT10-1</f>
+        <f t="shared" si="267"/>
         <v>0.63614573346116976</v>
       </c>
       <c r="BY79" s="66">
-        <f>+BY10/BU10-1</f>
+        <f t="shared" si="267"/>
         <v>0.43131399317406149</v>
       </c>
       <c r="BZ79" s="66">
-        <f>+BZ10/BV10-1</f>
+        <f t="shared" si="268"/>
         <v>0.43501420454545459</v>
       </c>
       <c r="CA79" s="66">
-        <f>+CA10/BW10-1</f>
+        <f t="shared" si="268"/>
         <v>0.7449814126394052</v>
       </c>
       <c r="CB79" s="66">
-        <f>+CB10/BX10-1</f>
+        <f t="shared" si="268"/>
         <v>0.72428948139466742</v>
       </c>
       <c r="CC79" s="66">
-        <f>+CC10/BY10-1</f>
+        <f t="shared" si="268"/>
         <v>0.84113263785394943</v>
       </c>
       <c r="CD79" s="66">
-        <f>+CD10/BZ10-1</f>
+        <f t="shared" si="268"/>
         <v>0.99950507300173208</v>
       </c>
       <c r="CE79" s="66">
-        <f>+CE10/CA10-1</f>
+        <f t="shared" si="268"/>
         <v>0.59970174691095024</v>
       </c>
       <c r="CF79" s="66">
-        <f>+CF10/CB10-1</f>
+        <f t="shared" si="268"/>
         <v>0.57485131690739166</v>
       </c>
       <c r="CG79" s="66">
-        <f>+CG10/CC10-1</f>
+        <f t="shared" si="268"/>
         <v>0.68398899141978298</v>
       </c>
       <c r="CH79" s="66">
-        <f>+CH10/CD10-1</f>
+        <f t="shared" si="268"/>
         <v>0.41757425742574261</v>
       </c>
       <c r="CI79" s="66">
-        <f>+CI10/CE10-1</f>
+        <f t="shared" si="268"/>
         <v>0.39872153415900913</v>
       </c>
       <c r="CJ79" s="66">
-        <f>+CJ10/CF10-1</f>
+        <f t="shared" si="269"/>
         <v>0.154833836858006</v>
       </c>
       <c r="CK79" s="66">
-        <f>+CK10/CG10-1</f>
+        <f t="shared" si="269"/>
         <v>4.8163814651028591E-2</v>
       </c>
       <c r="CL79" s="66">
-        <f>+CL10/CH10-1</f>
+        <f t="shared" si="269"/>
         <v>-3.0644316396018945E-2</v>
       </c>
       <c r="CM79" s="66"/>
@@ -28001,7 +27989,7 @@
       <c r="DI79" s="67"/>
       <c r="DJ79" s="67"/>
     </row>
-    <row r="80" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:201" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="38" t="s">
         <v>494</v>
       </c>
@@ -28058,147 +28046,147 @@
       <c r="BA80" s="66"/>
       <c r="BB80" s="66"/>
       <c r="BC80" s="66">
-        <f t="shared" ref="BC80" si="267">+BC11/AY11-1</f>
+        <f t="shared" ref="BC80" si="270">+BC11/AY11-1</f>
         <v>0.97927461139896388</v>
       </c>
       <c r="BD80" s="66">
-        <f t="shared" ref="BD80" si="268">+BD11/AZ11-1</f>
+        <f t="shared" ref="BD80" si="271">+BD11/AZ11-1</f>
         <v>2.612612612612613</v>
       </c>
       <c r="BE80" s="66">
-        <f t="shared" ref="BE80" si="269">+BE11/BA11-1</f>
+        <f t="shared" ref="BE80" si="272">+BE11/BA11-1</f>
         <v>2.0844155844155843</v>
       </c>
       <c r="BF80" s="66">
-        <f t="shared" ref="BF80" si="270">+BF11/BB11-1</f>
+        <f t="shared" ref="BF80" si="273">+BF11/BB11-1</f>
         <v>4.212328767123287</v>
       </c>
       <c r="BG80" s="66">
-        <f t="shared" ref="BG80" si="271">+BG11/BC11-1</f>
+        <f t="shared" ref="BG80" si="274">+BG11/BC11-1</f>
         <v>0.93717277486910988</v>
       </c>
       <c r="BH80" s="66">
-        <f t="shared" ref="BH80:BO80" si="272">+BH11/BD11-1</f>
+        <f t="shared" ref="BH80:BO80" si="275">+BH11/BD11-1</f>
         <v>1.57356608478803</v>
       </c>
       <c r="BI80" s="66">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>1.6778947368421053</v>
       </c>
       <c r="BJ80" s="66">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0.88173455978975035</v>
       </c>
       <c r="BK80" s="66">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>1.0405405405405403</v>
       </c>
       <c r="BL80" s="66">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0.42635658914728669</v>
       </c>
       <c r="BM80" s="66">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0.31210691823899372</v>
       </c>
       <c r="BN80" s="66">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0.34916201117318435</v>
       </c>
       <c r="BO80" s="66">
-        <f t="shared" si="272"/>
+        <f t="shared" si="275"/>
         <v>0.34834437086092707</v>
       </c>
       <c r="BP80" s="66">
-        <f>+BP11/BL11-1</f>
+        <f t="shared" si="267"/>
         <v>0.57540760869565233</v>
       </c>
       <c r="BQ80" s="66">
-        <f>+BQ11/BM11-1</f>
+        <f t="shared" si="267"/>
         <v>0.44218094667465535</v>
       </c>
       <c r="BR80" s="66">
-        <f>+BR11/BN11-1</f>
+        <f t="shared" si="267"/>
         <v>0.38716356107660466</v>
       </c>
       <c r="BS80" s="66">
-        <f>+BS11/BO11-1</f>
+        <f t="shared" si="267"/>
         <v>0.31385068762278978</v>
       </c>
       <c r="BT80" s="66">
-        <f>+BT11/BP11-1</f>
+        <f t="shared" si="267"/>
         <v>0.1297973264338077</v>
       </c>
       <c r="BU80" s="66">
-        <f>+BU11/BQ11-1</f>
+        <f t="shared" si="267"/>
         <v>0.29123390112172842</v>
       </c>
       <c r="BV80" s="66">
-        <f>+BV11/BR11-1</f>
+        <f t="shared" si="267"/>
         <v>0.17014925373134338</v>
       </c>
       <c r="BW80" s="66">
-        <f>+BW11/BS11-1</f>
+        <f t="shared" si="267"/>
         <v>0.16635514018691588</v>
       </c>
       <c r="BX80" s="66">
-        <f>+BX11/BT11-1</f>
+        <f t="shared" si="267"/>
         <v>0.36068702290076327</v>
       </c>
       <c r="BY80" s="66">
-        <f>+BY11/BU11-1</f>
+        <f t="shared" si="267"/>
         <v>0.25611325611325597</v>
       </c>
       <c r="BZ80" s="66">
-        <f>+BZ11/BV11-1</f>
+        <f t="shared" si="268"/>
         <v>0.37723214285714279</v>
       </c>
       <c r="CA80" s="66">
-        <f>+CA11/BW11-1</f>
+        <f t="shared" si="268"/>
         <v>0.34423076923076912</v>
       </c>
       <c r="CB80" s="66">
-        <f>+CB11/BX11-1</f>
+        <f t="shared" si="268"/>
         <v>0.29312762973352036</v>
       </c>
       <c r="CC80" s="66">
-        <f>+CC11/BY11-1</f>
+        <f t="shared" si="268"/>
         <v>0.46849385245901631</v>
       </c>
       <c r="CD80" s="66">
-        <f>+CD11/BZ11-1</f>
+        <f t="shared" si="268"/>
         <v>0.41768927992590865</v>
       </c>
       <c r="CE80" s="66">
-        <f>+CE11/CA11-1</f>
+        <f t="shared" si="268"/>
         <v>0.37696709585121613</v>
       </c>
       <c r="CF80" s="66">
-        <f>+CF11/CB11-1</f>
+        <f t="shared" si="268"/>
         <v>0.44967462039045536</v>
       </c>
       <c r="CG80" s="66">
-        <f>+CG11/CC11-1</f>
+        <f t="shared" si="268"/>
         <v>0.22239665096807948</v>
       </c>
       <c r="CH80" s="66">
-        <f>+CH11/CD11-1</f>
+        <f t="shared" si="268"/>
         <v>0.30344602319124636</v>
       </c>
       <c r="CI80" s="66">
-        <f>+CI11/CE11-1</f>
+        <f t="shared" si="268"/>
         <v>0.18874458874458866</v>
       </c>
       <c r="CJ80" s="66">
-        <f>+CJ11/CF11-1</f>
+        <f t="shared" si="269"/>
         <v>5.7159958102648512E-2</v>
       </c>
       <c r="CK80" s="66">
-        <f>+CK11/CG11-1</f>
+        <f t="shared" si="269"/>
         <v>3.6672374429223886E-2</v>
       </c>
       <c r="CL80" s="66">
-        <f>+CL11/CH11-1</f>
+        <f t="shared" si="269"/>
         <v>-6.4653552186442864E-2</v>
       </c>
       <c r="CM80" s="66"/>
@@ -28226,7 +28214,7 @@
       <c r="DI80" s="67"/>
       <c r="DJ80" s="67"/>
     </row>
-    <row r="81" spans="2:125" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:125" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="38" t="s">
         <v>56</v>
       </c>
@@ -28243,259 +28231,259 @@
       <c r="M81" s="48"/>
       <c r="N81" s="48"/>
       <c r="O81" s="66">
-        <f t="shared" ref="O81:AS81" si="273">O72/K72-1</f>
+        <f t="shared" ref="O81:AS81" si="276">O72/K72-1</f>
         <v>-0.22605591891372567</v>
       </c>
       <c r="P81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.67610728701847322</v>
       </c>
       <c r="Q81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.34015035080861589</v>
       </c>
       <c r="R81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>3.7454658637521607</v>
       </c>
       <c r="S81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>1.6519622566819141</v>
       </c>
       <c r="T81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.46464279222800253</v>
       </c>
       <c r="U81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>3.8235187048251413</v>
       </c>
       <c r="V81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.1870513600647703</v>
       </c>
       <c r="W81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>1.9471106396652482</v>
       </c>
       <c r="X81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>3.7362930227057349</v>
       </c>
       <c r="Y81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.17487628448498183</v>
       </c>
       <c r="Z81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.52026113261404561</v>
       </c>
       <c r="AA81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.57728356037442752</v>
       </c>
       <c r="AB81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.60384987633693532</v>
       </c>
       <c r="AC81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.45386568723743781</v>
       </c>
       <c r="AD81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.17935478589422826</v>
       </c>
       <c r="AE81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.1144033426114861</v>
       </c>
       <c r="AF81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.28860862968049394</v>
       </c>
       <c r="AG81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.10728645122357194</v>
       </c>
       <c r="AH81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.24088397214917667</v>
       </c>
       <c r="AI81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>5.1382705842108578E-2</v>
       </c>
       <c r="AJ81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-6.5788977619371525E-2</v>
       </c>
       <c r="AK81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-7.1925548393590666E-2</v>
       </c>
       <c r="AL81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.22750132460794636</v>
       </c>
       <c r="AM81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.25615165684029639</v>
       </c>
       <c r="AN81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.28127885987742418</v>
       </c>
       <c r="AO81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>-0.29593098547977148</v>
       </c>
       <c r="AP81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>6.4600727857465623E-2</v>
       </c>
       <c r="AQ81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>6.9797382424570564E-2</v>
       </c>
       <c r="AR81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.41810682529532461</v>
       </c>
       <c r="AS81" s="66">
-        <f t="shared" si="273"/>
+        <f t="shared" si="276"/>
         <v>0.39984491447748982</v>
       </c>
       <c r="AT81" s="66">
-        <f t="shared" ref="AT81" si="274">+AT72/AP72-1</f>
+        <f t="shared" ref="AT81" si="277">+AT72/AP72-1</f>
         <v>-0.17908617525056403</v>
       </c>
       <c r="AU81" s="66">
-        <f t="shared" ref="AU81" si="275">+AU72/AQ72-1</f>
+        <f t="shared" ref="AU81" si="278">+AU72/AQ72-1</f>
         <v>-0.38848476873388582</v>
       </c>
       <c r="AV81" s="66">
-        <f t="shared" ref="AV81" si="276">+AV72/AR72-1</f>
+        <f t="shared" ref="AV81" si="279">+AV72/AR72-1</f>
         <v>-0.50355974944012782</v>
       </c>
       <c r="AW81" s="66">
-        <f t="shared" ref="AW81" si="277">+AW72/AS72-1</f>
+        <f t="shared" ref="AW81" si="280">+AW72/AS72-1</f>
         <v>-0.6268077871262776</v>
       </c>
       <c r="AX81" s="66">
-        <f t="shared" ref="AX81:BB81" si="278">+AX72/AT72-1</f>
+        <f t="shared" ref="AX81:BB81" si="281">+AX72/AT72-1</f>
         <v>-0.18783940646311048</v>
       </c>
       <c r="AY81" s="66">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>0.10295041397840432</v>
       </c>
       <c r="AZ81" s="66">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>0.91139320767904608</v>
       </c>
       <c r="BA81" s="66">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>0.5169613768087753</v>
       </c>
       <c r="BB81" s="66">
-        <f t="shared" si="278"/>
+        <f t="shared" si="281"/>
         <v>6.3626988700353992E-2</v>
       </c>
       <c r="BC81" s="66">
-        <f t="shared" ref="BC81" si="279">+BC72/AY72-1</f>
+        <f t="shared" ref="BC81" si="282">+BC72/AY72-1</f>
         <v>0.23250916922393094</v>
       </c>
       <c r="BD81" s="66">
-        <f t="shared" ref="BD81" si="280">+BD72/AZ72-1</f>
+        <f t="shared" ref="BD81" si="283">+BD72/AZ72-1</f>
         <v>-0.21073591805089609</v>
       </c>
       <c r="BE81" s="66">
-        <f t="shared" ref="BE81" si="281">+BE72/BA72-1</f>
+        <f t="shared" ref="BE81" si="284">+BE72/BA72-1</f>
         <v>0.15419301941534758</v>
       </c>
       <c r="BF81" s="66">
-        <f t="shared" ref="BF81" si="282">+BF72/BB72-1</f>
+        <f t="shared" ref="BF81" si="285">+BF72/BB72-1</f>
         <v>0.3170296226644651</v>
       </c>
       <c r="BG81" s="66">
-        <f t="shared" ref="BG81" si="283">+BG72/BC72-1</f>
+        <f t="shared" ref="BG81" si="286">+BG72/BC72-1</f>
         <v>-6.9289455650238252E-2</v>
       </c>
       <c r="BH81" s="66">
-        <f t="shared" ref="BH81:BK81" si="284">+BH72/BD72-1</f>
+        <f t="shared" ref="BH81:BK81" si="287">+BH72/BD72-1</f>
         <v>1.0684769275743689E-2</v>
       </c>
       <c r="BI81" s="66">
-        <f t="shared" si="284"/>
+        <f t="shared" si="287"/>
         <v>0.39398235910848012</v>
       </c>
       <c r="BJ81" s="66">
-        <f t="shared" si="284"/>
+        <f t="shared" si="287"/>
         <v>0.22523961679788629</v>
       </c>
       <c r="BK81" s="66">
-        <f t="shared" si="284"/>
+        <f t="shared" si="287"/>
         <v>0.45236898755113963</v>
       </c>
       <c r="BL81" s="66">
-        <f t="shared" ref="BL81" si="285">+BL72/BH72-1</f>
+        <f t="shared" ref="BL81" si="288">+BL72/BH72-1</f>
         <v>0.49230638070497101</v>
       </c>
       <c r="BM81" s="66">
-        <f t="shared" ref="BM81" si="286">+BM72/BI72-1</f>
+        <f t="shared" ref="BM81" si="289">+BM72/BI72-1</f>
         <v>0.24713714508369033</v>
       </c>
       <c r="BN81" s="66">
-        <f t="shared" ref="BN81" si="287">+BN72/BJ72-1</f>
+        <f t="shared" ref="BN81" si="290">+BN72/BJ72-1</f>
         <v>0.43212564887758509</v>
       </c>
       <c r="BO81" s="66">
-        <f t="shared" ref="BO81" si="288">+BO72/BK72-1</f>
+        <f t="shared" ref="BO81" si="291">+BO72/BK72-1</f>
         <v>0.81485662133370518</v>
       </c>
       <c r="BP81" s="66">
-        <f t="shared" ref="BP81:BZ81" si="289">+BP72/BL72-1</f>
+        <f t="shared" ref="BP81:BZ81" si="292">+BP72/BL72-1</f>
         <v>0.92705985568862292</v>
       </c>
       <c r="BQ81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0.99236784825039681</v>
       </c>
       <c r="BR81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0.84721360982104787</v>
       </c>
       <c r="BS81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>-0.21748332228930001</v>
       </c>
       <c r="BT81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>-0.47101430542308842</v>
       </c>
       <c r="BU81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>-0.49135876858442151</v>
       </c>
       <c r="BV81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>-0.25995614941414535</v>
       </c>
       <c r="BW81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0.24076955289661717</v>
       </c>
       <c r="BX81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0.38318594312768117</v>
       </c>
       <c r="BY81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0.45580624220564636</v>
       </c>
       <c r="BZ81" s="66">
-        <f t="shared" si="289"/>
+        <f t="shared" si="292"/>
         <v>0.17005727482444555</v>
       </c>
       <c r="CA81" s="66">
@@ -28503,31 +28491,31 @@
         <v>0.43758303199128945</v>
       </c>
       <c r="CB81" s="66">
-        <f t="shared" ref="CB81:CH81" si="290">+CB72/BX72-1</f>
+        <f t="shared" ref="CB81:CH81" si="293">+CB72/BX72-1</f>
         <v>1.1450043970479884E-2</v>
       </c>
       <c r="CC81" s="66">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0.17768936251698442</v>
       </c>
       <c r="CD81" s="66">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>-7.656406923060699E-2</v>
       </c>
       <c r="CE81" s="66">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>-0.40528199841427992</v>
       </c>
       <c r="CF81" s="66">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>-0.1303072881129842</v>
       </c>
       <c r="CG81" s="66">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0.91986587477821824</v>
       </c>
       <c r="CH81" s="66">
-        <f t="shared" si="290"/>
+        <f t="shared" si="293"/>
         <v>0.41382188773204387</v>
       </c>
       <c r="CI81" s="66">
@@ -28535,15 +28523,15 @@
         <v>0.50926907601261395</v>
       </c>
       <c r="CJ81" s="66">
-        <f t="shared" ref="CJ81" si="291">+CJ72/CF72-1</f>
+        <f t="shared" ref="CJ81" si="294">+CJ72/CF72-1</f>
         <v>-0.39080667811615899</v>
       </c>
       <c r="CK81" s="66">
-        <f t="shared" ref="CK81" si="292">+CK72/CG72-1</f>
+        <f t="shared" ref="CK81" si="295">+CK72/CG72-1</f>
         <v>-0.43495416162615219</v>
       </c>
       <c r="CL81" s="66">
-        <f t="shared" ref="CL81" si="293">+CL72/CH72-1</f>
+        <f t="shared" ref="CL81" si="296">+CL72/CH72-1</f>
         <v>-0.53273386492692765</v>
       </c>
       <c r="CM81" s="66"/>
@@ -28551,146 +28539,146 @@
       <c r="CO81" s="66"/>
       <c r="CP81" s="48"/>
       <c r="CQ81" s="67">
-        <f t="shared" ref="CQ81:DJ81" si="294">CQ72/CP72-1</f>
+        <f t="shared" ref="CQ81:DJ81" si="297">CQ72/CP72-1</f>
         <v>-0.10439415262209151</v>
       </c>
       <c r="CR81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>1.8236125131542602E-2</v>
       </c>
       <c r="CS81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>8.8659943146997877E-2</v>
       </c>
       <c r="CT81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>1.8914666658705448E-2</v>
       </c>
       <c r="CU81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0.18158561537982321</v>
       </c>
       <c r="CV81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0.355007280514271</v>
       </c>
       <c r="CW81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0.84588192053742906</v>
       </c>
       <c r="CX81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>-0.49685325768272748</v>
       </c>
       <c r="CY81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>-0.14043421391571609</v>
       </c>
       <c r="CZ81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>9.3314477344200064E-2</v>
       </c>
       <c r="DA81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>-0.27187767535042584</v>
       </c>
       <c r="DB81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>-2.5724967872223239</v>
       </c>
       <c r="DC81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>-0.19999999999999984</v>
       </c>
       <c r="DD81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>-1</v>
       </c>
       <c r="DE81" s="67" t="e">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DF81" s="67" t="e">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0.32371712883247206</v>
       </c>
       <c r="DH81" s="67">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>0.10557739192775473</v>
       </c>
       <c r="DI81" s="67" t="e">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DJ81" s="67" t="e">
-        <f t="shared" si="294"/>
+        <f t="shared" si="297"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="2:125" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:125" x14ac:dyDescent="0.2">
       <c r="DG82" s="47"/>
       <c r="DH82" s="47"/>
       <c r="DI82" s="47"/>
       <c r="DJ82" s="47"/>
     </row>
-    <row r="83" spans="2:125" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>123</v>
       </c>
       <c r="J83" s="64">
-        <f t="shared" ref="J83:V83" si="295">J63/J61</f>
+        <f t="shared" ref="J83:V83" si="298">J63/J61</f>
         <v>0.73930980486629738</v>
       </c>
       <c r="K83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.73235178068634854</v>
       </c>
       <c r="L83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.72475991913065463</v>
       </c>
       <c r="M83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.73272302052168059</v>
       </c>
       <c r="N83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.74005151506381495</v>
       </c>
       <c r="O83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.75013167270812031</v>
       </c>
       <c r="P83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.74846625766871167</v>
       </c>
       <c r="Q83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.75506122118009567</v>
       </c>
       <c r="R83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.81222054008379396</v>
       </c>
       <c r="S83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.78222379603399439</v>
       </c>
       <c r="T83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.76181506032714963</v>
       </c>
       <c r="U83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.82123302764734796</v>
       </c>
       <c r="V83" s="64">
-        <f t="shared" si="295"/>
+        <f t="shared" si="298"/>
         <v>0.80905231258532484</v>
       </c>
       <c r="W83" s="64">
@@ -28706,211 +28694,211 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="AA83" s="64">
-        <f t="shared" ref="AA83:AT83" si="296">AA63/AA61</f>
+        <f t="shared" ref="AA83:AT83" si="299">AA63/AA61</f>
         <v>0.83310846723087617</v>
       </c>
       <c r="AB83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.81472572601936055</v>
       </c>
       <c r="AC83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.81087738223660555</v>
       </c>
       <c r="AD83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.75879676440849342</v>
       </c>
       <c r="AE83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.79536961079208823</v>
       </c>
       <c r="AF83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.82189016647241986</v>
       </c>
       <c r="AG83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.82535191341868852</v>
       </c>
       <c r="AH83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.80084690974915962</v>
       </c>
       <c r="AI83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.79790039731470075</v>
       </c>
       <c r="AJ83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.80360798362333674</v>
       </c>
       <c r="AK83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.78235552447097467</v>
       </c>
       <c r="AL83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.78143965075322874</v>
       </c>
       <c r="AM83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.78618092246180205</v>
       </c>
       <c r="AN83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.79525042406927948</v>
       </c>
       <c r="AO83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.77885163068442809</v>
       </c>
       <c r="AP83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.79045876487670585</v>
       </c>
       <c r="AQ83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.79323455908604068</v>
       </c>
       <c r="AR83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.80349764743578933</v>
       </c>
       <c r="AS83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.79245054221667877</v>
       </c>
       <c r="AT83" s="64">
-        <f t="shared" si="296"/>
+        <f t="shared" si="299"/>
         <v>0.76131042556121742</v>
       </c>
       <c r="AU83" s="64">
-        <f t="shared" ref="AU83:AV83" si="297">AU63/AU61</f>
+        <f t="shared" ref="AU83:AV83" si="300">AU63/AU61</f>
         <v>0.73891225897375679</v>
       </c>
       <c r="AV83" s="64">
-        <f t="shared" si="297"/>
+        <f t="shared" si="300"/>
         <v>0.75895534484155935</v>
       </c>
       <c r="AW83" s="64">
-        <f t="shared" ref="AW83:AX83" si="298">AW63/AW61</f>
+        <f t="shared" ref="AW83:AX83" si="301">AW63/AW61</f>
         <v>0.74013454754286656</v>
       </c>
       <c r="AX83" s="64">
-        <f t="shared" si="298"/>
+        <f t="shared" si="301"/>
         <v>0.75531603303848638</v>
       </c>
       <c r="AY83" s="64">
-        <f t="shared" ref="AY83" si="299">AY63/AY61</f>
+        <f t="shared" ref="AY83" si="302">AY63/AY61</f>
         <v>0.74321269403836632</v>
       </c>
       <c r="AZ83" s="64">
-        <f t="shared" ref="AZ83" si="300">AZ63/AZ61</f>
+        <f t="shared" ref="AZ83" si="303">AZ63/AZ61</f>
         <v>0.79233534858497201</v>
       </c>
       <c r="BA83" s="64">
-        <f t="shared" ref="BA83" si="301">BA63/BA61</f>
+        <f t="shared" ref="BA83" si="304">BA63/BA61</f>
         <v>0.75060991592233395</v>
       </c>
       <c r="BB83" s="64">
-        <f t="shared" ref="BB83" si="302">BB63/BB61</f>
+        <f t="shared" ref="BB83" si="305">BB63/BB61</f>
         <v>0.7415730337078652</v>
       </c>
       <c r="BC83" s="64">
-        <f t="shared" ref="BC83:BD83" si="303">BC63/BC61</f>
+        <f t="shared" ref="BC83:BD83" si="306">BC63/BC61</f>
         <v>0.72806314361472535</v>
       </c>
       <c r="BD83" s="64">
-        <f t="shared" si="303"/>
+        <f t="shared" si="306"/>
         <v>0.75976909413854343</v>
       </c>
       <c r="BE83" s="64">
-        <f t="shared" ref="BE83:BF83" si="304">BE63/BE61</f>
+        <f t="shared" ref="BE83:BF83" si="307">BE63/BE61</f>
         <v>0.73016545640156405</v>
       </c>
       <c r="BF83" s="64">
-        <f t="shared" si="304"/>
+        <f t="shared" si="307"/>
         <v>0.74550820241298499</v>
       </c>
       <c r="BG83" s="64">
-        <f t="shared" ref="BG83:BH83" si="305">BG63/BG61</f>
+        <f t="shared" ref="BG83:BH83" si="308">BG63/BG61</f>
         <v>0.74219153453321351</v>
       </c>
       <c r="BH83" s="64">
-        <f t="shared" si="305"/>
+        <f t="shared" si="308"/>
         <v>0.73014782892364749</v>
       </c>
       <c r="BI83" s="64">
-        <f t="shared" ref="BI83:BK83" si="306">BI63/BI61</f>
+        <f t="shared" ref="BI83:BK83" si="309">BI63/BI61</f>
         <v>0.71963591375044178</v>
       </c>
       <c r="BJ83" s="64">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>0.73300112000259698</v>
       </c>
       <c r="BK83" s="64">
-        <f t="shared" si="306"/>
+        <f t="shared" si="309"/>
         <v>0.72433333333333327</v>
       </c>
       <c r="BL83" s="64">
-        <f t="shared" ref="BL83" si="307">BL63/BL61</f>
+        <f t="shared" ref="BL83" si="310">BL63/BL61</f>
         <v>0.7320776686807654</v>
       </c>
       <c r="BM83" s="64">
-        <f t="shared" ref="BM83" si="308">BM63/BM61</f>
+        <f t="shared" ref="BM83" si="311">BM63/BM61</f>
         <v>0.74227552417558851</v>
       </c>
       <c r="BN83" s="64">
-        <f t="shared" ref="BN83:BO83" si="309">BN63/BN61</f>
+        <f t="shared" ref="BN83:BO83" si="312">BN63/BN61</f>
         <v>0.75247724660640514</v>
       </c>
       <c r="BO83" s="64">
-        <f t="shared" si="309"/>
+        <f t="shared" si="312"/>
         <v>0.83078803710773974</v>
       </c>
       <c r="BP83" s="64">
-        <f t="shared" ref="BP83:BQ83" si="310">BP63/BP61</f>
+        <f t="shared" ref="BP83:BQ83" si="313">BP63/BP61</f>
         <v>0.83896957330612731</v>
       </c>
       <c r="BQ83" s="64">
-        <f t="shared" si="310"/>
+        <f t="shared" si="313"/>
         <v>0.82762819228457374</v>
       </c>
       <c r="BR83" s="64">
-        <f t="shared" ref="BR83:BS83" si="311">BR63/BR61</f>
+        <f t="shared" ref="BR83:BS83" si="314">BR63/BR61</f>
         <v>0.8321042281219273</v>
       </c>
       <c r="BS83" s="64">
-        <f t="shared" si="311"/>
+        <f t="shared" si="314"/>
         <v>0.80263831530086338</v>
       </c>
       <c r="BT83" s="64">
-        <f t="shared" ref="BT83:BZ83" si="312">BT63/BT61</f>
+        <f t="shared" ref="BT83:BZ83" si="315">BT63/BT61</f>
         <v>0.79648688947885227</v>
       </c>
       <c r="BU83" s="64">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0.79098003692993768</v>
       </c>
       <c r="BV83" s="64">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0.76884719291407366</v>
       </c>
       <c r="BW83" s="64">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0.75440813447748922</v>
       </c>
       <c r="BX83" s="64">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0.7925816023738872</v>
       </c>
       <c r="BY83" s="64">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0.79007825188247449</v>
       </c>
       <c r="BZ83" s="64">
-        <f t="shared" si="312"/>
+        <f t="shared" si="315"/>
         <v>0.74372179652245651</v>
       </c>
       <c r="CA83" s="64">
@@ -28918,47 +28906,47 @@
         <v>0.76088654434642322</v>
       </c>
       <c r="CB83" s="64">
-        <f t="shared" ref="CB83:CH83" si="313">CB63/CB61</f>
+        <f t="shared" ref="CB83:CH83" si="316">CB63/CB61</f>
         <v>0.79820897362783039</v>
       </c>
       <c r="CC83" s="64">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>0.79</v>
       </c>
       <c r="CD83" s="64">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>0.80499561787905349</v>
       </c>
       <c r="CE83" s="64">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>0.78435964483779197</v>
       </c>
       <c r="CF83" s="64">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>0.78262275154853811</v>
       </c>
       <c r="CG83" s="64">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>0.79</v>
       </c>
       <c r="CH83" s="64">
-        <f t="shared" si="313"/>
+        <f t="shared" si="316"/>
         <v>0.82263134261338122</v>
       </c>
       <c r="CI83" s="64">
-        <f t="shared" ref="CI83:CL83" si="314">CI63/CI61</f>
+        <f t="shared" ref="CI83:CL83" si="317">CI63/CI61</f>
         <v>0.80913331584529935</v>
       </c>
       <c r="CJ83" s="64">
-        <f t="shared" si="314"/>
+        <f t="shared" si="317"/>
         <v>0.81</v>
       </c>
       <c r="CK83" s="64">
-        <f t="shared" si="314"/>
+        <f t="shared" si="317"/>
         <v>0.81</v>
       </c>
       <c r="CL83" s="64">
-        <f t="shared" si="314"/>
+        <f t="shared" si="317"/>
         <v>0.81</v>
       </c>
       <c r="CT83" s="64">
@@ -29000,19 +28988,19 @@
       <c r="DG83" s="64"/>
       <c r="DH83" s="64"/>
       <c r="DI83" s="64">
-        <f t="shared" ref="DI83:DS83" si="315">DI63/DI61</f>
+        <f t="shared" ref="DI83:DS83" si="318">DI63/DI61</f>
         <v>0.78828764583392763</v>
       </c>
       <c r="DJ83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.7690061267369388</v>
       </c>
       <c r="DK83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.7877361161232006</v>
       </c>
       <c r="DL83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.7962276086366793</v>
       </c>
       <c r="DM83" s="64">
@@ -29020,308 +29008,308 @@
         <v>0.80975887289977633</v>
       </c>
       <c r="DN83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.79</v>
       </c>
       <c r="DO83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.79</v>
       </c>
       <c r="DP83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.79</v>
       </c>
       <c r="DQ83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.79</v>
       </c>
       <c r="DR83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.79</v>
       </c>
       <c r="DS83" s="64">
-        <f t="shared" si="315"/>
+        <f t="shared" si="318"/>
         <v>0.85</v>
       </c>
     </row>
-    <row r="84" spans="2:125" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>59</v>
       </c>
       <c r="J84" s="64">
-        <f t="shared" ref="J84:AT84" si="316">J64/J61</f>
+        <f t="shared" ref="J84:AT84" si="319">J64/J61</f>
         <v>0.33064321850156586</v>
       </c>
       <c r="K84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.33962346804642624</v>
       </c>
       <c r="L84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.36204826889057362</v>
       </c>
       <c r="M84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.33844970713412842</v>
       </c>
       <c r="N84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.3443984603362949</v>
       </c>
       <c r="O84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.35412213030950829</v>
       </c>
       <c r="P84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.36167104878761319</v>
       </c>
       <c r="Q84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.35200151363624077</v>
       </c>
       <c r="R84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.25034327359785935</v>
       </c>
       <c r="S84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.31558073654390933</v>
       </c>
       <c r="T84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.36356049406266394</v>
       </c>
       <c r="U84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.25050429711999733</v>
       </c>
       <c r="V84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.26340819418815725</v>
       </c>
       <c r="W84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.24840590855202022</v>
       </c>
       <c r="X84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.25361378384426048</v>
       </c>
       <c r="Y84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.24264002707116478</v>
       </c>
       <c r="Z84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.32983398906055078</v>
       </c>
       <c r="AA84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.31260476716137209</v>
       </c>
       <c r="AB84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.33405690818421824</v>
       </c>
       <c r="AC84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.30596907587198846</v>
       </c>
       <c r="AD84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.32917087967644082</v>
       </c>
       <c r="AE84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.29430316288396685</v>
       </c>
       <c r="AF84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.3053559935289718</v>
       </c>
       <c r="AG84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.2997276649925727</v>
       </c>
       <c r="AH84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.32142164468580292</v>
       </c>
       <c r="AI84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.30581244006028224</v>
       </c>
       <c r="AJ84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.32673362333674522</v>
       </c>
       <c r="AK84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.31193376815601565</v>
       </c>
       <c r="AL84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.35278554065450696</v>
       </c>
       <c r="AM84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.32976938454947874</v>
       </c>
       <c r="AN84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.34480849924113921</v>
       </c>
       <c r="AO84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.32290307762976572</v>
       </c>
       <c r="AP84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.33194568008997366</v>
       </c>
       <c r="AQ84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.29489468047126027</v>
       </c>
       <c r="AR84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.3149569118167867</v>
       </c>
       <c r="AS84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.28624883068288121</v>
       </c>
       <c r="AT84" s="64">
-        <f t="shared" si="316"/>
+        <f t="shared" si="319"/>
         <v>0.3363173116650599</v>
       </c>
       <c r="AU84" s="64">
-        <f t="shared" ref="AU84:AV84" si="317">AU64/AU61</f>
+        <f t="shared" ref="AU84:AV84" si="320">AU64/AU61</f>
         <v>0.31707629561615169</v>
       </c>
       <c r="AV84" s="64">
-        <f t="shared" si="317"/>
+        <f t="shared" si="320"/>
         <v>0.33712213307399302</v>
       </c>
       <c r="AW84" s="64">
-        <f t="shared" ref="AW84:AX84" si="318">AW64/AW61</f>
+        <f t="shared" ref="AW84:AX84" si="321">AW64/AW61</f>
         <v>0.34295266223644266</v>
       </c>
       <c r="AX84" s="64">
-        <f t="shared" si="318"/>
+        <f t="shared" si="321"/>
         <v>0.35145373245074496</v>
       </c>
       <c r="AY84" s="64">
-        <f t="shared" ref="AY84" si="319">AY64/AY61</f>
+        <f t="shared" ref="AY84" si="322">AY64/AY61</f>
         <v>0.32800826748767414</v>
       </c>
       <c r="AZ84" s="64">
-        <f t="shared" ref="AZ84" si="320">AZ64/AZ61</f>
+        <f t="shared" ref="AZ84" si="323">AZ64/AZ61</f>
         <v>0.32847932191134233</v>
       </c>
       <c r="BA84" s="64">
-        <f t="shared" ref="BA84" si="321">BA64/BA61</f>
+        <f t="shared" ref="BA84" si="324">BA64/BA61</f>
         <v>0.31770066737907537</v>
       </c>
       <c r="BB84" s="64">
-        <f t="shared" ref="BB84" si="322">BB64/BB61</f>
+        <f t="shared" ref="BB84" si="325">BB64/BB61</f>
         <v>0.33454870154029315</v>
       </c>
       <c r="BC84" s="64">
-        <f t="shared" ref="BC84:BD84" si="323">BC64/BC61</f>
+        <f t="shared" ref="BC84:BD84" si="326">BC64/BC61</f>
         <v>0.30295369057162236</v>
       </c>
       <c r="BD84" s="64">
-        <f t="shared" si="323"/>
+        <f t="shared" si="326"/>
         <v>0.30021462403789223</v>
       </c>
       <c r="BE84" s="64">
-        <f t="shared" ref="BE84:BF84" si="324">BE64/BE61</f>
+        <f t="shared" ref="BE84:BF84" si="327">BE64/BE61</f>
         <v>0.30151973342065225</v>
       </c>
       <c r="BF84" s="64">
-        <f t="shared" si="324"/>
+        <f t="shared" si="327"/>
         <v>0.31075427480253448</v>
       </c>
       <c r="BG84" s="64">
-        <f t="shared" ref="BG84:BH84" si="325">BG64/BG61</f>
+        <f t="shared" ref="BG84:BH84" si="328">BG64/BG61</f>
         <v>0.29984889925979763</v>
       </c>
       <c r="BH84" s="64">
-        <f t="shared" si="325"/>
+        <f t="shared" si="328"/>
         <v>0.29710008069639271</v>
       </c>
       <c r="BI84" s="64">
-        <f t="shared" ref="BI84:BK84" si="326">BI64/BI61</f>
+        <f t="shared" ref="BI84:BK84" si="329">BI64/BI61</f>
         <v>0.27898550724637683</v>
       </c>
       <c r="BJ84" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="329"/>
         <v>0.29274270780917755</v>
       </c>
       <c r="BK84" s="64">
-        <f t="shared" si="326"/>
+        <f t="shared" si="329"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="BL84" s="64">
-        <f t="shared" ref="BL84" si="327">BL64/BL61</f>
+        <f t="shared" ref="BL84" si="330">BL64/BL61</f>
         <v>0.26021210976837866</v>
       </c>
       <c r="BM84" s="64">
-        <f t="shared" ref="BM84" si="328">BM64/BM61</f>
+        <f t="shared" ref="BM84" si="331">BM64/BM61</f>
         <v>0.26668206337946848</v>
       </c>
       <c r="BN84" s="64">
-        <f t="shared" ref="BN84:BO84" si="329">BN64/BN61</f>
+        <f t="shared" ref="BN84:BO84" si="332">BN64/BN61</f>
         <v>0.28911564625850339</v>
       </c>
       <c r="BO84" s="64">
-        <f t="shared" si="329"/>
+        <f t="shared" si="332"/>
         <v>0.25404400683211092</v>
       </c>
       <c r="BP84" s="64">
-        <f t="shared" ref="BP84:BQ84" si="330">BP64/BP61</f>
+        <f t="shared" ref="BP84:BQ84" si="333">BP64/BP61</f>
         <v>0.23799735941907216</v>
       </c>
       <c r="BQ84" s="64">
-        <f t="shared" si="330"/>
+        <f t="shared" si="333"/>
         <v>0.2176687267851363</v>
       </c>
       <c r="BR84" s="64">
-        <f t="shared" ref="BR84:BS84" si="331">BR64/BR61</f>
+        <f t="shared" ref="BR84:BS84" si="334">BR64/BR61</f>
         <v>0.23190483994318803</v>
       </c>
       <c r="BS84" s="64">
-        <f t="shared" si="331"/>
+        <f t="shared" si="334"/>
         <v>0.26444588552510334</v>
       </c>
       <c r="BT84" s="64">
-        <f t="shared" ref="BT84:BZ84" si="332">BT64/BT61</f>
+        <f t="shared" ref="BT84:BZ84" si="335">BT64/BT61</f>
         <v>0.26341055387860496</v>
       </c>
       <c r="BU84" s="64">
-        <f t="shared" si="332"/>
+        <f t="shared" si="335"/>
         <v>0.27333379786085082</v>
       </c>
       <c r="BV84" s="64">
-        <f t="shared" si="332"/>
+        <f t="shared" si="335"/>
         <v>0.20885471969462779</v>
       </c>
       <c r="BW84" s="64">
-        <f t="shared" si="332"/>
+        <f t="shared" si="335"/>
         <v>0.23157399788409544</v>
       </c>
       <c r="BX84" s="64">
-        <f t="shared" si="332"/>
+        <f t="shared" si="335"/>
         <v>0.25010385756676567</v>
       </c>
       <c r="BY84" s="64">
-        <f t="shared" si="332"/>
+        <f t="shared" si="335"/>
         <v>0.23296914218219408</v>
       </c>
       <c r="BZ84" s="64">
-        <f t="shared" si="332"/>
+        <f t="shared" si="335"/>
         <v>0.19900248753109415</v>
       </c>
       <c r="CA84" s="64">
@@ -29329,127 +29317,127 @@
         <v>0.1994724779452248</v>
       </c>
       <c r="CB84" s="64">
-        <f t="shared" ref="CB84:CH84" si="333">CB64/CB61</f>
+        <f t="shared" ref="CB84:CH84" si="336">CB64/CB61</f>
         <v>0.27464973257910874</v>
       </c>
       <c r="CC84" s="64">
-        <f t="shared" si="333"/>
+        <f t="shared" si="336"/>
         <v>0.22730743189708572</v>
       </c>
       <c r="CD84" s="64">
-        <f t="shared" si="333"/>
+        <f t="shared" si="336"/>
         <v>0.22502191060473264</v>
       </c>
       <c r="CE84" s="64">
-        <f t="shared" si="333"/>
+        <f t="shared" si="336"/>
         <v>0.25131461739605188</v>
       </c>
       <c r="CF84" s="64">
-        <f t="shared" si="333"/>
+        <f t="shared" si="336"/>
         <v>0.24898165030841454</v>
       </c>
       <c r="CG84" s="64">
-        <f t="shared" si="333"/>
+        <f t="shared" si="336"/>
         <v>0.16611921756890488</v>
       </c>
       <c r="CH84" s="64">
-        <f t="shared" si="333"/>
+        <f t="shared" si="336"/>
         <v>0.20576474864755062</v>
       </c>
       <c r="CI84" s="64">
-        <f t="shared" ref="CI84:CL84" si="334">CI64/CI61</f>
+        <f t="shared" ref="CI84:CL84" si="337">CI64/CI61</f>
         <v>0.22265308682808885</v>
       </c>
       <c r="CJ84" s="64">
-        <f t="shared" si="334"/>
+        <f t="shared" si="337"/>
         <v>0.29716298125491075</v>
       </c>
       <c r="CK84" s="64">
-        <f t="shared" si="334"/>
+        <f t="shared" si="337"/>
         <v>0.22891640948537367</v>
       </c>
       <c r="CL84" s="64">
-        <f t="shared" si="334"/>
+        <f t="shared" si="337"/>
         <v>0.26340765440700736</v>
       </c>
       <c r="CP84" s="64">
-        <f t="shared" ref="CP84:DI84" si="335">CP64/CP61</f>
+        <f t="shared" ref="CP84:DI84" si="338">CP64/CP61</f>
         <v>0.29383437956832059</v>
       </c>
       <c r="CQ84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.30910896452107972</v>
       </c>
       <c r="CR84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.32220897894318634</v>
       </c>
       <c r="CS84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.30911321163143085</v>
       </c>
       <c r="CT84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.30696245733788396</v>
       </c>
       <c r="CU84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.30107390629454817</v>
       </c>
       <c r="CV84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.26468097532486495</v>
       </c>
       <c r="CW84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.33758834028714957</v>
       </c>
       <c r="CX84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.32861448926124026</v>
       </c>
       <c r="CY84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.32216426568252204</v>
       </c>
       <c r="CZ84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.33001637538582668</v>
       </c>
       <c r="DA84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.34149944321978049</v>
       </c>
       <c r="DB84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.30882162063937763</v>
       </c>
       <c r="DC84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.29110809763657503</v>
       </c>
       <c r="DD84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="DE84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0</v>
       </c>
       <c r="DF84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.29950786268217339</v>
       </c>
       <c r="DG84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.27800343369205649</v>
       </c>
       <c r="DH84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.2784035413138346</v>
       </c>
       <c r="DI84" s="64">
-        <f t="shared" si="335"/>
+        <f t="shared" si="338"/>
         <v>0.24943866926923092</v>
       </c>
       <c r="DJ84" s="64">
@@ -29457,320 +29445,320 @@
         <v>0.22711654925225563</v>
       </c>
       <c r="DK84" s="64">
-        <f t="shared" ref="DK84:DS84" si="336">DK64/DK61</f>
+        <f t="shared" ref="DK84:DS84" si="339">DK64/DK61</f>
         <v>0.22986745894660868</v>
       </c>
       <c r="DL84" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="339"/>
         <v>0.21395247620381994</v>
       </c>
       <c r="DM84" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="339"/>
         <v>0.25140459153722894</v>
       </c>
       <c r="DN84" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="339"/>
         <v>0.25</v>
       </c>
       <c r="DO84" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="339"/>
         <v>0.25</v>
       </c>
       <c r="DP84" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="339"/>
         <v>0.25</v>
       </c>
       <c r="DQ84" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="339"/>
         <v>0.25</v>
       </c>
       <c r="DR84" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="339"/>
         <v>0.25</v>
       </c>
       <c r="DS84" s="64">
-        <f t="shared" si="336"/>
+        <f t="shared" si="339"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="2:125" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>60</v>
       </c>
       <c r="J85" s="64">
-        <f t="shared" ref="J85:AT85" si="337">J65/J61</f>
+        <f t="shared" ref="J85:AT85" si="340">J65/J61</f>
         <v>0.21259937364490483</v>
       </c>
       <c r="K85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.2187299766684323</v>
       </c>
       <c r="L85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.24083901945918626</v>
       </c>
       <c r="M85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.23734777295520629</v>
       </c>
       <c r="N85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.23442248140537719</v>
       </c>
       <c r="O85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.22957523933451063</v>
       </c>
       <c r="P85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.22640958223780311</v>
       </c>
       <c r="Q85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.21320647620077304</v>
       </c>
       <c r="R85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.15667359081787136</v>
       </c>
       <c r="S85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.19693106704438151</v>
       </c>
       <c r="T85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.20372931470265629</v>
       </c>
       <c r="U85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.14315257742444021</v>
       </c>
       <c r="V85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.14306074380785214</v>
       </c>
       <c r="W85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.14052036271588322</v>
       </c>
       <c r="X85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.14194077720593723</v>
       </c>
       <c r="Y85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.14021097853433181</v>
       </c>
       <c r="Z85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.19884847903272238</v>
       </c>
       <c r="AA85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.19365059896152745</v>
       </c>
       <c r="AB85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.20346142563801703</v>
       </c>
       <c r="AC85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.20174397698669541</v>
       </c>
       <c r="AD85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.2050387596899225</v>
       </c>
       <c r="AE85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.1894266703126424</v>
       </c>
       <c r="AF85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.20651625584914851</v>
       </c>
       <c r="AG85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.2157105467921058</v>
       </c>
       <c r="AH85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.23243147142487713</v>
       </c>
       <c r="AI85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.19249212220852172</v>
       </c>
       <c r="AJ85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.20160568065506657</v>
       </c>
       <c r="AK85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.20834078821099203</v>
       </c>
       <c r="AL85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.22411654788087243</v>
       </c>
       <c r="AM85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.20553691275167782</v>
       </c>
       <c r="AN85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.23581823051513262</v>
       </c>
       <c r="AO85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.24672485071198896</v>
       </c>
       <c r="AP85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.2455978379467208</v>
       </c>
       <c r="AQ85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.24064619778650481</v>
       </c>
       <c r="AR85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.22436210938158763</v>
       </c>
       <c r="AS85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.23860998510203374</v>
       </c>
       <c r="AT85" s="64">
-        <f t="shared" si="337"/>
+        <f t="shared" si="340"/>
         <v>0.25399394022861865</v>
       </c>
       <c r="AU85" s="64">
-        <f t="shared" ref="AU85:AV85" si="338">AU65/AU61</f>
+        <f t="shared" ref="AU85:AV85" si="341">AU65/AU61</f>
         <v>0.23687301146676343</v>
       </c>
       <c r="AV85" s="64">
-        <f t="shared" si="338"/>
+        <f t="shared" si="341"/>
         <v>0.24219952994570063</v>
       </c>
       <c r="AW85" s="64">
-        <f t="shared" ref="AW85:AX85" si="339">AW65/AW61</f>
+        <f t="shared" ref="AW85:AX85" si="342">AW65/AW61</f>
         <v>0.25498400196898841</v>
       </c>
       <c r="AX85" s="64">
-        <f t="shared" si="339"/>
+        <f t="shared" si="342"/>
         <v>0.2315232460508074</v>
       </c>
       <c r="AY85" s="64">
-        <f t="shared" ref="AY85" si="340">AY65/AY61</f>
+        <f t="shared" ref="AY85" si="343">AY65/AY61</f>
         <v>0.22376041509677697</v>
       </c>
       <c r="AZ85" s="64">
-        <f t="shared" ref="AZ85" si="341">AZ65/AZ61</f>
+        <f t="shared" ref="AZ85" si="344">AZ65/AZ61</f>
         <v>0.23490067688352381</v>
       </c>
       <c r="BA85" s="64">
-        <f t="shared" ref="BA85" si="342">BA65/BA61</f>
+        <f t="shared" ref="BA85" si="345">BA65/BA61</f>
         <v>0.230538137387342</v>
       </c>
       <c r="BB85" s="64">
-        <f t="shared" ref="BB85" si="343">BB65/BB61</f>
+        <f t="shared" ref="BB85" si="346">BB65/BB61</f>
         <v>0.26865838232011308</v>
       </c>
       <c r="BC85" s="64">
-        <f t="shared" ref="BC85:BD85" si="344">BC65/BC61</f>
+        <f t="shared" ref="BC85:BD85" si="347">BC65/BC61</f>
         <v>0.25097120305851883</v>
       </c>
       <c r="BD85" s="64">
-        <f t="shared" si="344"/>
+        <f t="shared" si="347"/>
         <v>0.24716918294849025</v>
       </c>
       <c r="BE85" s="64">
-        <f t="shared" ref="BE85:BF85" si="345">BE65/BE61</f>
+        <f t="shared" ref="BE85:BF85" si="348">BE65/BE61</f>
         <v>0.23814935377621976</v>
       </c>
       <c r="BF85" s="64">
-        <f t="shared" si="345"/>
+        <f t="shared" si="348"/>
         <v>0.25181841854005726</v>
       </c>
       <c r="BG85" s="64">
-        <f t="shared" ref="BG85:BH85" si="346">BG65/BG61</f>
+        <f t="shared" ref="BG85:BH85" si="349">BG65/BG61</f>
         <v>0.24067096379320235</v>
       </c>
       <c r="BH85" s="64">
-        <f t="shared" si="346"/>
+        <f t="shared" si="349"/>
         <v>0.21841251309170198</v>
       </c>
       <c r="BI85" s="64">
-        <f t="shared" ref="BI85:BK85" si="347">BI65/BI61</f>
+        <f t="shared" ref="BI85:BK85" si="350">BI65/BI61</f>
         <v>0.23683280311063981</v>
       </c>
       <c r="BJ85" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="350"/>
         <v>0.24135244371581155</v>
       </c>
       <c r="BK85" s="64">
-        <f t="shared" si="347"/>
+        <f t="shared" si="350"/>
         <v>0.20647368421052634</v>
       </c>
       <c r="BL85" s="64">
-        <f t="shared" ref="BL85" si="348">BL65/BL61</f>
+        <f t="shared" ref="BL85" si="351">BL65/BL61</f>
         <v>0.20976523162134944</v>
       </c>
       <c r="BM85" s="64">
-        <f t="shared" ref="BM85" si="349">BM65/BM61</f>
+        <f t="shared" ref="BM85" si="352">BM65/BM61</f>
         <v>0.22159718900014846</v>
       </c>
       <c r="BN85" s="64">
-        <f t="shared" ref="BN85:BO85" si="350">BN65/BN61</f>
+        <f t="shared" ref="BN85:BO85" si="353">BN65/BN61</f>
         <v>0.22579442735998506</v>
       </c>
       <c r="BO85" s="64">
-        <f t="shared" si="350"/>
+        <f t="shared" si="353"/>
         <v>0.20605177668374697</v>
       </c>
       <c r="BP85" s="64">
-        <f t="shared" ref="BP85:BQ85" si="351">BP65/BP61</f>
+        <f t="shared" ref="BP85:BQ85" si="354">BP65/BP61</f>
         <v>0.21037628278221207</v>
       </c>
       <c r="BQ85" s="64">
-        <f t="shared" si="351"/>
+        <f t="shared" si="354"/>
         <v>0.21282924648983556</v>
       </c>
       <c r="BR85" s="64">
-        <f t="shared" ref="BR85:BS85" si="352">BR65/BR61</f>
+        <f t="shared" ref="BR85:BS85" si="355">BR65/BR61</f>
         <v>0.21596744236862234</v>
       </c>
       <c r="BS85" s="64">
-        <f t="shared" si="352"/>
+        <f t="shared" si="355"/>
         <v>0.23756783507969564</v>
       </c>
       <c r="BT85" s="64">
-        <f t="shared" ref="BT85:BZ85" si="353">BT65/BT61</f>
+        <f t="shared" ref="BT85:BZ85" si="356">BT65/BT61</f>
         <v>0.25279121358693685</v>
       </c>
       <c r="BU85" s="64">
-        <f t="shared" si="353"/>
+        <f t="shared" si="356"/>
         <v>0.25526948402606009</v>
       </c>
       <c r="BV85" s="64">
-        <f t="shared" si="353"/>
+        <f t="shared" si="356"/>
         <v>0.24703969032674294</v>
       </c>
       <c r="BW85" s="64">
-        <f t="shared" si="353"/>
+        <f t="shared" si="356"/>
         <v>0.24569472199365225</v>
       </c>
       <c r="BX85" s="64">
-        <f t="shared" si="353"/>
+        <f t="shared" si="356"/>
         <v>0.24818991097922857</v>
       </c>
       <c r="BY85" s="64">
-        <f t="shared" si="353"/>
+        <f t="shared" si="356"/>
         <v>0.25231064520891783</v>
       </c>
       <c r="BZ85" s="64">
-        <f t="shared" si="353"/>
+        <f t="shared" si="356"/>
         <v>0.24492806160077002</v>
       </c>
       <c r="CA85" s="64">
@@ -29778,106 +29766,106 @@
         <v>0.20615613116349343</v>
       </c>
       <c r="CB85" s="64">
-        <f t="shared" ref="CB85:CH85" si="354">CB65/CB61</f>
+        <f t="shared" ref="CB85:CH85" si="357">CB65/CB61</f>
         <v>0.25048166587031234</v>
       </c>
       <c r="CC85" s="64">
-        <f t="shared" si="354"/>
+        <f t="shared" si="357"/>
         <v>0.2461788898972874</v>
       </c>
       <c r="CD85" s="64">
-        <f t="shared" si="354"/>
+        <f t="shared" si="357"/>
         <v>0.27332109991235753</v>
       </c>
       <c r="CE85" s="64">
-        <f t="shared" si="354"/>
+        <f t="shared" si="357"/>
         <v>0.28520732162868884</v>
       </c>
       <c r="CF85" s="64">
-        <f t="shared" si="354"/>
+        <f t="shared" si="357"/>
         <v>0.30472902199635338</v>
       </c>
       <c r="CG85" s="64">
-        <f t="shared" si="354"/>
+        <f t="shared" si="357"/>
         <v>0.17991072368559577</v>
       </c>
       <c r="CH85" s="64">
-        <f t="shared" si="354"/>
+        <f t="shared" si="357"/>
         <v>0.27398593024996259</v>
       </c>
       <c r="CI85" s="64">
-        <f t="shared" ref="CI85:CL85" si="355">CI65/CI61</f>
+        <f t="shared" ref="CI85:CL85" si="358">CI65/CI61</f>
         <v>0.28773138379771668</v>
       </c>
       <c r="CJ85" s="64">
-        <f t="shared" si="355"/>
+        <f t="shared" si="358"/>
         <v>0.36369822651251543</v>
       </c>
       <c r="CK85" s="64">
-        <f t="shared" si="355"/>
+        <f t="shared" si="358"/>
         <v>0.24792144760096019</v>
       </c>
       <c r="CL85" s="64">
-        <f t="shared" si="355"/>
+        <f t="shared" si="358"/>
         <v>0.3507403075698004</v>
       </c>
       <c r="DG85" s="53"/>
       <c r="DH85" s="53"/>
     </row>
-    <row r="86" spans="2:125" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>206</v>
       </c>
       <c r="J86" s="64">
-        <f t="shared" ref="J86:V86" si="356">J70/J69</f>
+        <f t="shared" ref="J86:V86" si="359">J70/J69</f>
         <v>0.31935573451818922</v>
       </c>
       <c r="K86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.31638030092874975</v>
       </c>
       <c r="L86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.47611317254174368</v>
       </c>
       <c r="M86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.38536054109824602</v>
       </c>
       <c r="N86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.30359645025688908</v>
       </c>
       <c r="O86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.3900210822206604</v>
       </c>
       <c r="P86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.3674496644295302</v>
       </c>
       <c r="Q86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.31622706422018343</v>
       </c>
       <c r="R86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>9.6808646985944338E-2</v>
       </c>
       <c r="S86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.21815718157181574</v>
       </c>
       <c r="T86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.32179549902152643</v>
       </c>
       <c r="U86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>0.10236373532384734</v>
       </c>
       <c r="V86" s="64">
-        <f t="shared" si="356"/>
+        <f t="shared" si="359"/>
         <v>7.2875239357784644E-2</v>
       </c>
       <c r="W86" s="64">
@@ -29893,211 +29881,211 @@
         <v>0.22</v>
       </c>
       <c r="AA86" s="64">
-        <f t="shared" ref="AA86:AT86" si="357">AA70/AA69</f>
+        <f t="shared" ref="AA86:AT86" si="360">AA70/AA69</f>
         <v>0.24231121580944903</v>
       </c>
       <c r="AB86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.24831347782402755</v>
       </c>
       <c r="AC86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>7.8861236336688664E-2</v>
       </c>
       <c r="AD86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.21005613091944028</v>
       </c>
       <c r="AE86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.27264573991031388</v>
       </c>
       <c r="AF86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.22206943966998971</v>
       </c>
       <c r="AG86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.21555204493593119</v>
       </c>
       <c r="AH86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.16120365394948946</v>
       </c>
       <c r="AI86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.20900931998619257</v>
       </c>
       <c r="AJ86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.20076941572493406</v>
       </c>
       <c r="AK86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.17926565874730019</v>
       </c>
       <c r="AL86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.19874390546235837</v>
       </c>
       <c r="AM86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.24435454211107024</v>
       </c>
       <c r="AN86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.22108814846056535</v>
       </c>
       <c r="AO86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.22108127084430404</v>
       </c>
       <c r="AP86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.15225254850378164</v>
       </c>
       <c r="AQ86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.27284418573169084</v>
       </c>
       <c r="AR86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.1955778003041054</v>
       </c>
       <c r="AS86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.20503502048367916</v>
       </c>
       <c r="AT86" s="64">
-        <f t="shared" si="357"/>
+        <f t="shared" si="360"/>
         <v>0.18196328810853948</v>
       </c>
       <c r="AU86" s="64">
-        <f t="shared" ref="AU86:AV86" si="358">AU70/AU69</f>
+        <f t="shared" ref="AU86:AV86" si="361">AU70/AU69</f>
         <v>0.20106146630461597</v>
       </c>
       <c r="AV86" s="64">
-        <f t="shared" si="358"/>
+        <f t="shared" si="361"/>
         <v>0.24843900096061469</v>
       </c>
       <c r="AW86" s="64">
-        <f t="shared" ref="AW86:AX86" si="359">AW70/AW69</f>
+        <f t="shared" ref="AW86:AX86" si="362">AW70/AW69</f>
         <v>0.25825275091697225</v>
       </c>
       <c r="AX86" s="64">
-        <f t="shared" si="359"/>
+        <f t="shared" si="362"/>
         <v>0.11416689026026296</v>
       </c>
       <c r="AY86" s="64">
-        <f t="shared" ref="AY86" si="360">AY70/AY69</f>
+        <f t="shared" ref="AY86" si="363">AY70/AY69</f>
         <v>0.1109855618330195</v>
       </c>
       <c r="AZ86" s="64">
-        <f t="shared" ref="AZ86" si="361">AZ70/AZ69</f>
+        <f t="shared" ref="AZ86" si="364">AZ70/AZ69</f>
         <v>6.2460417986067156E-2</v>
       </c>
       <c r="BA86" s="64">
-        <f t="shared" ref="BA86" si="362">BA70/BA69</f>
+        <f t="shared" ref="BA86" si="365">BA70/BA69</f>
         <v>0.27049716528565215</v>
       </c>
       <c r="BB86" s="64">
-        <f t="shared" ref="BB86" si="363">BB70/BB69</f>
+        <f t="shared" ref="BB86" si="366">BB70/BB69</f>
         <v>0</v>
       </c>
       <c r="BC86" s="64">
-        <f t="shared" ref="BC86:BD86" si="364">BC70/BC69</f>
+        <f t="shared" ref="BC86:BD86" si="367">BC70/BC69</f>
         <v>0.12718329652680183</v>
       </c>
       <c r="BD86" s="64">
-        <f t="shared" si="364"/>
+        <f t="shared" si="367"/>
         <v>0.17466938847963084</v>
       </c>
       <c r="BE86" s="64">
-        <f t="shared" ref="BE86:BF86" si="365">BE70/BE69</f>
+        <f t="shared" ref="BE86:BF86" si="368">BE70/BE69</f>
         <v>0.20035350384695372</v>
       </c>
       <c r="BF86" s="64">
-        <f t="shared" si="365"/>
+        <f t="shared" si="368"/>
         <v>0.11579961464354525</v>
       </c>
       <c r="BG86" s="64">
-        <f t="shared" ref="BG86:BH86" si="366">BG70/BG69</f>
+        <f t="shared" ref="BG86:BH86" si="369">BG70/BG69</f>
         <v>0.17621145374449337</v>
       </c>
       <c r="BH86" s="64">
-        <f t="shared" si="366"/>
+        <f t="shared" si="369"/>
         <v>0.212238379423384</v>
       </c>
       <c r="BI86" s="64">
-        <f t="shared" ref="BI86:BK86" si="367">BI70/BI69</f>
+        <f t="shared" ref="BI86:BK86" si="370">BI70/BI69</f>
         <v>3.2629384573552078E-2</v>
       </c>
       <c r="BJ86" s="64">
-        <f t="shared" si="367"/>
+        <f t="shared" si="370"/>
         <v>0</v>
       </c>
       <c r="BK86" s="64">
-        <f t="shared" si="367"/>
+        <f t="shared" si="370"/>
         <v>0.16152568084952687</v>
       </c>
       <c r="BL86" s="64">
-        <f t="shared" ref="BL86" si="368">BL70/BL69</f>
+        <f t="shared" ref="BL86" si="371">BL70/BL69</f>
         <v>0.16262210481046876</v>
       </c>
       <c r="BM86" s="64">
-        <f t="shared" ref="BM86" si="369">BM70/BM69</f>
+        <f t="shared" ref="BM86" si="372">BM70/BM69</f>
         <v>0.16815638865667804</v>
       </c>
       <c r="BN86" s="64">
-        <f t="shared" ref="BN86:BO86" si="370">BN70/BN69</f>
+        <f t="shared" ref="BN86:BO86" si="373">BN70/BN69</f>
         <v>0</v>
       </c>
       <c r="BO86" s="64">
-        <f t="shared" si="370"/>
+        <f t="shared" si="373"/>
         <v>8.4993975345259085E-2</v>
       </c>
       <c r="BP86" s="64">
-        <f t="shared" ref="BP86:BQ86" si="371">BP70/BP69</f>
+        <f t="shared" ref="BP86:BQ86" si="374">BP70/BP69</f>
         <v>6.1507225606114879E-2</v>
       </c>
       <c r="BQ86" s="64">
-        <f t="shared" si="371"/>
+        <f t="shared" si="374"/>
         <v>7.2428215233652379E-2</v>
       </c>
       <c r="BR86" s="64">
-        <f t="shared" ref="BR86:BS86" si="372">BR70/BR69</f>
+        <f t="shared" ref="BR86:BS86" si="375">BR70/BR69</f>
         <v>6.1300717738391679E-2</v>
       </c>
       <c r="BS86" s="64">
-        <f t="shared" si="372"/>
+        <f t="shared" si="375"/>
         <v>0.14963763811334227</v>
       </c>
       <c r="BT86" s="64">
-        <f t="shared" ref="BT86:BZ86" si="373">BT70/BT69</f>
+        <f t="shared" ref="BT86:BZ86" si="376">BT70/BT69</f>
         <v>0.15867689357622258</v>
       </c>
       <c r="BU86" s="64">
-        <f t="shared" si="373"/>
+        <f t="shared" si="376"/>
         <v>0.18152418447694052</v>
       </c>
       <c r="BV86" s="64">
-        <f t="shared" si="373"/>
+        <f t="shared" si="376"/>
         <v>0.15692650334075731</v>
       </c>
       <c r="BW86" s="64">
-        <f t="shared" si="373"/>
+        <f t="shared" si="376"/>
         <v>7.4556151403134235E-2</v>
       </c>
       <c r="BX86" s="64">
-        <f t="shared" si="373"/>
+        <f t="shared" si="376"/>
         <v>0.1070977917981074</v>
       </c>
       <c r="BY86" s="64">
-        <f t="shared" si="373"/>
+        <f t="shared" si="376"/>
         <v>0.1475739883229315</v>
       </c>
       <c r="BZ86" s="64">
-        <f t="shared" si="373"/>
+        <f t="shared" si="376"/>
         <v>4.903059026281776E-2</v>
       </c>
       <c r="CA86" s="64">
@@ -30105,47 +30093,47 @@
         <v>9.7358034349109293E-2</v>
       </c>
       <c r="CB86" s="64">
-        <f t="shared" ref="CB86:CH86" si="374">CB70/CB69</f>
+        <f t="shared" ref="CB86:CH86" si="377">CB70/CB69</f>
         <v>9.9000475963826662E-2</v>
       </c>
       <c r="CC86" s="64">
-        <f t="shared" si="374"/>
+        <f t="shared" si="377"/>
         <v>0.1</v>
       </c>
       <c r="CD86" s="64">
-        <f t="shared" si="374"/>
+        <f t="shared" si="377"/>
         <v>7.6691866290190314E-2</v>
       </c>
       <c r="CE86" s="64">
-        <f t="shared" si="374"/>
+        <f t="shared" si="377"/>
         <v>0.10939442372580366</v>
       </c>
       <c r="CF86" s="64">
-        <f t="shared" si="374"/>
+        <f t="shared" si="377"/>
         <v>0.18024349750968466</v>
       </c>
       <c r="CG86" s="64">
-        <f t="shared" si="374"/>
+        <f t="shared" si="377"/>
         <v>0.1</v>
       </c>
       <c r="CH86" s="64">
-        <f t="shared" si="374"/>
+        <f t="shared" si="377"/>
         <v>0.10586619212637755</v>
       </c>
       <c r="CI86" s="64">
-        <f t="shared" ref="CI86:CL86" si="375">CI70/CI69</f>
+        <f t="shared" ref="CI86:CL86" si="378">CI70/CI69</f>
         <v>0.11429907999376267</v>
       </c>
       <c r="CJ86" s="64">
-        <f t="shared" si="375"/>
+        <f t="shared" si="378"/>
         <v>0.15</v>
       </c>
       <c r="CK86" s="64">
-        <f t="shared" si="375"/>
+        <f t="shared" si="378"/>
         <v>0.15</v>
       </c>
       <c r="CL86" s="64">
-        <f t="shared" si="375"/>
+        <f t="shared" si="378"/>
         <v>0.15</v>
       </c>
       <c r="DG86" s="53"/>
@@ -30155,35 +30143,35 @@
         <v>9.5735873559067389E-2</v>
       </c>
       <c r="DL86" s="79">
-        <f t="shared" ref="DL86:DS86" si="376">+DL70/DL69</f>
+        <f t="shared" ref="DL86:DS86" si="379">+DL70/DL69</f>
         <v>0.11639582307526244</v>
       </c>
       <c r="DM86" s="79">
-        <f t="shared" si="376"/>
+        <f t="shared" si="379"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="DN86" s="79">
-        <f t="shared" si="376"/>
+        <f t="shared" si="379"/>
         <v>0.2</v>
       </c>
       <c r="DO86" s="79">
-        <f t="shared" si="376"/>
+        <f t="shared" si="379"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="DP86" s="79">
-        <f t="shared" si="376"/>
+        <f t="shared" si="379"/>
         <v>0.2</v>
       </c>
       <c r="DQ86" s="79">
-        <f t="shared" si="376"/>
+        <f t="shared" si="379"/>
         <v>0.2</v>
       </c>
       <c r="DR86" s="79">
-        <f t="shared" si="376"/>
+        <f t="shared" si="379"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="DS86" s="79">
-        <f t="shared" si="376"/>
+        <f t="shared" si="379"/>
         <v>0.2</v>
       </c>
       <c r="DT86" s="52" t="s">
@@ -30193,7 +30181,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:125" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:125" x14ac:dyDescent="0.2">
       <c r="DT87" s="47" t="s">
         <v>242</v>
       </c>
@@ -30201,7 +30189,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="88" spans="2:125" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>187</v>
       </c>
@@ -30218,11 +30206,11 @@
         <v>1939.5</v>
       </c>
       <c r="AJ88" s="51">
-        <f t="shared" ref="AJ88" si="377">+AJ90-AJ103</f>
+        <f t="shared" ref="AJ88" si="380">+AJ90-AJ103</f>
         <v>2544.1999999999989</v>
       </c>
       <c r="AK88" s="51">
-        <f t="shared" ref="AK88" si="378">+AK90-AK103</f>
+        <f t="shared" ref="AK88" si="381">+AK90-AK103</f>
         <v>2923.8999999999996</v>
       </c>
       <c r="AL88" s="51">
@@ -30275,11 +30263,11 @@
       <c r="BU88" s="51"/>
       <c r="BV88" s="51"/>
       <c r="BW88" s="51">
-        <f t="shared" ref="BW88" si="379">+BW90-BW103</f>
+        <f t="shared" ref="BW88" si="382">+BW90-BW103</f>
         <v>-9920.7000000000007</v>
       </c>
       <c r="BX88" s="51">
-        <f t="shared" ref="BX88" si="380">+BX90-BX103</f>
+        <f t="shared" ref="BX88" si="383">+BX90-BX103</f>
         <v>-9768.9999999999982</v>
       </c>
       <c r="BY88" s="51">
@@ -30343,31 +30331,31 @@
         <v>9650.9845999999943</v>
       </c>
       <c r="DM88" s="49">
-        <f t="shared" ref="DM88:DS88" si="381">+DL88+DM71</f>
+        <f t="shared" ref="DM88:DS88" si="384">+DL88+DM71</f>
         <v>15956.974159999992</v>
       </c>
       <c r="DN88" s="49">
-        <f t="shared" si="381"/>
+        <f t="shared" si="384"/>
         <v>32855.010408959992</v>
       </c>
       <c r="DO88" s="49">
-        <f t="shared" si="381"/>
+        <f t="shared" si="384"/>
         <v>54046.660901621755</v>
       </c>
       <c r="DP88" s="49">
-        <f t="shared" si="381"/>
+        <f t="shared" si="384"/>
         <v>80751.134378970164</v>
       </c>
       <c r="DQ88" s="49">
-        <f t="shared" si="381"/>
+        <f t="shared" si="384"/>
         <v>112073.54661607467</v>
       </c>
       <c r="DR88" s="49">
-        <f t="shared" si="381"/>
+        <f t="shared" si="384"/>
         <v>147154.74232055806</v>
       </c>
       <c r="DS88" s="49">
-        <f t="shared" si="381"/>
+        <f t="shared" si="384"/>
         <v>184945.81089900099</v>
       </c>
       <c r="DT88" s="47" t="s">
@@ -30377,7 +30365,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:125" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:125" x14ac:dyDescent="0.2">
       <c r="DT89" s="47" t="s">
         <v>243</v>
       </c>
@@ -30386,7 +30374,7 @@
         <v>611060.05674351705</v>
       </c>
     </row>
-    <row r="90" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="49" t="s">
         <v>174</v>
       </c>
@@ -30557,7 +30545,7 @@
         <v>642.94675276968292</v>
       </c>
     </row>
-    <row r="91" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="50" t="s">
         <v>285</v>
       </c>
@@ -30703,7 +30691,7 @@
       <c r="DE91" s="51"/>
       <c r="DF91" s="51"/>
     </row>
-    <row r="92" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="50" t="s">
         <v>286</v>
       </c>
@@ -30849,7 +30837,7 @@
       <c r="DE92" s="51"/>
       <c r="DF92" s="51"/>
     </row>
-    <row r="93" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="50" t="s">
         <v>287</v>
       </c>
@@ -30995,7 +30983,7 @@
       <c r="DE93" s="51"/>
       <c r="DF93" s="51"/>
     </row>
-    <row r="94" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="50" t="s">
         <v>288</v>
       </c>
@@ -31141,7 +31129,7 @@
       <c r="DE94" s="51"/>
       <c r="DF94" s="51"/>
     </row>
-    <row r="95" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="50" t="s">
         <v>289</v>
       </c>
@@ -31271,7 +31259,7 @@
       <c r="DE95" s="51"/>
       <c r="DF95" s="51"/>
     </row>
-    <row r="96" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:125" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="50" t="s">
         <v>290</v>
       </c>
@@ -31427,7 +31415,7 @@
       <c r="DE96" s="51"/>
       <c r="DF96" s="51"/>
     </row>
-    <row r="97" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="50" t="s">
         <v>386</v>
       </c>
@@ -31557,7 +31545,7 @@
       <c r="DE97" s="51"/>
       <c r="DF97" s="51"/>
     </row>
-    <row r="98" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="50" t="s">
         <v>291</v>
       </c>
@@ -31703,7 +31691,7 @@
       <c r="DE98" s="51"/>
       <c r="DF98" s="51"/>
     </row>
-    <row r="99" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="50" t="s">
         <v>292</v>
       </c>
@@ -31849,7 +31837,7 @@
       <c r="DE99" s="51"/>
       <c r="DF99" s="51"/>
     </row>
-    <row r="100" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="50" t="s">
         <v>387</v>
       </c>
@@ -31979,7 +31967,7 @@
       <c r="DE100" s="51"/>
       <c r="DF100" s="51"/>
     </row>
-    <row r="101" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="50" t="s">
         <v>293</v>
       </c>
@@ -32023,7 +32011,7 @@
         <v>31695.3</v>
       </c>
       <c r="AJ101" s="51">
-        <f t="shared" ref="AJ101" si="382">SUM(AJ90:AJ99)</f>
+        <f t="shared" ref="AJ101" si="385">SUM(AJ90:AJ99)</f>
         <v>32779.299999999996</v>
       </c>
       <c r="AK101" s="51">
@@ -32080,11 +32068,11 @@
       <c r="BU101" s="51"/>
       <c r="BV101" s="51"/>
       <c r="BW101" s="51">
-        <f t="shared" ref="BW101" si="383">SUM(BW90:BW100)</f>
+        <f t="shared" ref="BW101" si="386">SUM(BW90:BW100)</f>
         <v>46838.299999999996</v>
       </c>
       <c r="BX101" s="51">
-        <f t="shared" ref="BX101" si="384">SUM(BX90:BX100)</f>
+        <f t="shared" ref="BX101" si="387">SUM(BX90:BX100)</f>
         <v>47808.999999999993</v>
       </c>
       <c r="BY101" s="51">
@@ -32143,7 +32131,7 @@
       <c r="DE101" s="51"/>
       <c r="DF101" s="51"/>
     </row>
-    <row r="103" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="50" t="s">
         <v>175</v>
       </c>
@@ -32307,7 +32295,7 @@
       <c r="DE103" s="51"/>
       <c r="DF103" s="51"/>
     </row>
-    <row r="104" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="50" t="s">
         <v>294</v>
       </c>
@@ -32454,7 +32442,7 @@
       <c r="DE104" s="51"/>
       <c r="DF104" s="51"/>
     </row>
-    <row r="105" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="50" t="s">
         <v>295</v>
       </c>
@@ -32600,7 +32588,7 @@
       <c r="DE105" s="51"/>
       <c r="DF105" s="51"/>
     </row>
-    <row r="106" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="50" t="s">
         <v>296</v>
       </c>
@@ -32746,7 +32734,7 @@
       <c r="DE106" s="51"/>
       <c r="DF106" s="51"/>
     </row>
-    <row r="107" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="50" t="s">
         <v>297</v>
       </c>
@@ -32892,7 +32880,7 @@
       <c r="DE107" s="51"/>
       <c r="DF107" s="51"/>
     </row>
-    <row r="108" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="50" t="s">
         <v>82</v>
       </c>
@@ -33034,7 +33022,7 @@
       <c r="DE108" s="51"/>
       <c r="DF108" s="51"/>
     </row>
-    <row r="109" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="50" t="s">
         <v>298</v>
       </c>
@@ -33180,7 +33168,7 @@
       <c r="DE109" s="51"/>
       <c r="DF109" s="51"/>
     </row>
-    <row r="110" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="50" t="s">
         <v>299</v>
       </c>
@@ -33326,7 +33314,7 @@
       <c r="DE110" s="51"/>
       <c r="DF110" s="51"/>
     </row>
-    <row r="111" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="50" t="s">
         <v>82</v>
       </c>
@@ -33478,7 +33466,7 @@
       <c r="DE111" s="51"/>
       <c r="DF111" s="51"/>
     </row>
-    <row r="112" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="50" t="s">
         <v>300</v>
       </c>
@@ -33624,7 +33612,7 @@
       <c r="DE112" s="51"/>
       <c r="DF112" s="51"/>
     </row>
-    <row r="113" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="50" t="s">
         <v>301</v>
       </c>
@@ -33770,7 +33758,7 @@
       <c r="DE113" s="51"/>
       <c r="DF113" s="51"/>
     </row>
-    <row r="114" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="50" t="s">
         <v>302</v>
       </c>
@@ -33814,7 +33802,7 @@
         <v>31695.3</v>
       </c>
       <c r="AJ114" s="51">
-        <f t="shared" ref="AJ114" si="385">SUM(AJ103:AJ113)</f>
+        <f t="shared" ref="AJ114" si="388">SUM(AJ103:AJ113)</f>
         <v>32779.300000000003</v>
       </c>
       <c r="AK114" s="51">
@@ -33871,11 +33859,11 @@
       <c r="BU114" s="51"/>
       <c r="BV114" s="51"/>
       <c r="BW114" s="51">
-        <f t="shared" ref="BW114" si="386">SUM(BW103:BW113)</f>
+        <f t="shared" ref="BW114" si="389">SUM(BW103:BW113)</f>
         <v>46838.3</v>
       </c>
       <c r="BX114" s="51">
-        <f t="shared" ref="BX114" si="387">SUM(BX103:BX113)</f>
+        <f t="shared" ref="BX114" si="390">SUM(BX103:BX113)</f>
         <v>47809.000000000007</v>
       </c>
       <c r="BY114" s="51">
@@ -33934,7 +33922,7 @@
       <c r="DE114" s="51"/>
       <c r="DF114" s="51"/>
     </row>
-    <row r="116" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B116" s="50" t="s">
         <v>388</v>
       </c>
@@ -33963,7 +33951,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="117" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B117" s="50" t="s">
         <v>389</v>
       </c>
@@ -33988,7 +33976,7 @@
         <v>2242.9</v>
       </c>
     </row>
-    <row r="118" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B118" s="50" t="s">
         <v>390</v>
       </c>
@@ -34010,7 +33998,7 @@
         <v>400.6</v>
       </c>
     </row>
-    <row r="119" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B119" s="50" t="s">
         <v>386</v>
       </c>
@@ -34032,7 +34020,7 @@
         <v>-279</v>
       </c>
     </row>
-    <row r="120" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B120" s="50" t="s">
         <v>391</v>
       </c>
@@ -34054,7 +34042,7 @@
         <v>159.4</v>
       </c>
     </row>
-    <row r="121" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B121" s="50" t="s">
         <v>392</v>
       </c>
@@ -34076,7 +34064,7 @@
         <v>-15.8</v>
       </c>
     </row>
-    <row r="122" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B122" s="50" t="s">
         <v>393</v>
       </c>
@@ -34098,7 +34086,7 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="123" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B123" s="50" t="s">
         <v>78</v>
       </c>
@@ -34120,7 +34108,7 @@
         <v>298.60000000000002</v>
       </c>
     </row>
-    <row r="124" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B124" s="50" t="s">
         <v>394</v>
       </c>
@@ -34142,7 +34130,7 @@
         <v>-1751.2</v>
       </c>
     </row>
-    <row r="125" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:110" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="50" t="s">
         <v>303</v>
       </c>
@@ -34292,10 +34280,10 @@
       <c r="DE125" s="51"/>
       <c r="DF125" s="51"/>
     </row>
-    <row r="126" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:110" x14ac:dyDescent="0.2">
       <c r="BW126" s="51"/>
     </row>
-    <row r="127" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B127" s="50" t="s">
         <v>395</v>
       </c>
@@ -34318,7 +34306,7 @@
         <v>-986.3</v>
       </c>
     </row>
-    <row r="128" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B128" s="50" t="s">
         <v>392</v>
       </c>
@@ -34345,7 +34333,7 @@
         <v>-29.599999999999994</v>
       </c>
     </row>
-    <row r="129" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B129" s="50" t="s">
         <v>396</v>
       </c>
@@ -34369,7 +34357,7 @@
         <v>-96.5</v>
       </c>
     </row>
-    <row r="130" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B130" s="50" t="s">
         <v>78</v>
       </c>
@@ -34392,7 +34380,7 @@
         <v>-65.2</v>
       </c>
     </row>
-    <row r="131" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B131" s="50" t="s">
         <v>397</v>
       </c>
@@ -34419,10 +34407,10 @@
         <v>-1177.6000000000001</v>
       </c>
     </row>
-    <row r="132" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:87" x14ac:dyDescent="0.2">
       <c r="BW132" s="51"/>
     </row>
-    <row r="133" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B133" s="50" t="s">
         <v>297</v>
       </c>
@@ -34443,7 +34431,7 @@
         <v>-1169.2</v>
       </c>
     </row>
-    <row r="134" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B134" s="50" t="s">
         <v>400</v>
       </c>
@@ -34466,7 +34454,7 @@
         <v>-5204.8</v>
       </c>
     </row>
-    <row r="135" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B135" s="38" t="s">
         <v>399</v>
       </c>
@@ -34487,7 +34475,7 @@
         <v>6452.5</v>
       </c>
     </row>
-    <row r="136" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B136" s="38" t="s">
         <v>78</v>
       </c>
@@ -34500,7 +34488,7 @@
       <c r="CE136" s="51">
         <v>-281</v>
       </c>
-      <c r="CF136" s="102">
+      <c r="CF136" s="98">
         <f>-296.6-CE136</f>
         <v>-15.600000000000023</v>
       </c>
@@ -34508,7 +34496,7 @@
         <v>-389.8</v>
       </c>
     </row>
-    <row r="137" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B137" s="38" t="s">
         <v>398</v>
       </c>
@@ -34533,7 +34521,7 @@
         <v>-311.3</v>
       </c>
     </row>
-    <row r="139" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B139" s="38" t="s">
         <v>401</v>
       </c>
@@ -34554,7 +34542,7 @@
         <v>-35.5</v>
       </c>
     </row>
-    <row r="140" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B140" s="38" t="s">
         <v>402</v>
       </c>
@@ -34579,7 +34567,7 @@
         <v>-358.40000000000038</v>
       </c>
     </row>
-    <row r="142" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>496</v>
       </c>
@@ -34608,23 +34596,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="6.83203125" style="47" customWidth="1"/>
-    <col min="14" max="42" width="5.33203125" customWidth="1"/>
-    <col min="43" max="50" width="5.5" customWidth="1"/>
-    <col min="52" max="71" width="7.5" customWidth="1"/>
-    <col min="72" max="75" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.85546875" style="47" customWidth="1"/>
+    <col min="14" max="42" width="5.28515625" customWidth="1"/>
+    <col min="43" max="50" width="5.42578125" customWidth="1"/>
+    <col min="52" max="71" width="7.42578125" customWidth="1"/>
+    <col min="72" max="75" width="6.85546875" customWidth="1"/>
     <col min="76" max="118" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -35125,7 +35113,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:169" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:169" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>649</v>
       </c>
@@ -35547,7 +35535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -35598,7 +35586,7 @@
       <c r="AW4" s="48"/>
       <c r="AX4" s="48"/>
     </row>
-    <row r="5" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>70</v>
       </c>
@@ -35612,7 +35600,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="6" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>573</v>
       </c>
@@ -35626,7 +35614,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>577</v>
       </c>
@@ -35640,7 +35628,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>366</v>
       </c>
@@ -35961,7 +35949,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>574</v>
       </c>
@@ -35975,7 +35963,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>576</v>
       </c>
@@ -36253,7 +36241,7 @@
       <c r="DK10" s="85"/>
       <c r="DL10" s="85"/>
     </row>
-    <row r="11" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>575</v>
       </c>
@@ -36480,7 +36468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>578</v>
       </c>
@@ -36539,7 +36527,7 @@
       <c r="CW12" s="49"/>
       <c r="CX12" s="49"/>
     </row>
-    <row r="13" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
         <v>509</v>
       </c>
@@ -36723,7 +36711,7 @@
       <c r="DD13" s="49"/>
       <c r="DE13" s="49"/>
     </row>
-    <row r="14" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>529</v>
       </c>
@@ -36845,13 +36833,13 @@
         <v>175.8</v>
       </c>
     </row>
-    <row r="15" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="83"/>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:169" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>583</v>
       </c>
@@ -36862,7 +36850,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>588</v>
       </c>
@@ -36873,12 +36861,12 @@
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C18" s="38" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>590</v>
       </c>
@@ -36892,7 +36880,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>594</v>
       </c>
@@ -36903,12 +36891,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C21" s="38" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>597</v>
       </c>
@@ -37000,7 +36988,7 @@
         <v>36759.942857142858</v>
       </c>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C23" s="38" t="s">
         <v>598</v>
       </c>
@@ -37068,7 +37056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C24" s="38" t="s">
         <v>600</v>
       </c>
@@ -37157,7 +37145,7 @@
         <v>7351.988571428572</v>
       </c>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>599</v>
       </c>
@@ -37246,32 +37234,32 @@
         <v>5513.9914285714294</v>
       </c>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
       <c r="E28" s="38" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
       <c r="E29" s="38" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
       <c r="E30" s="38" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B31" s="38" t="s">
         <v>606</v>
       </c>
@@ -37279,12 +37267,12 @@
         <v>607</v>
       </c>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C32" s="38" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="35" spans="7:72" x14ac:dyDescent="0.15">
+    <row r="35" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -37345,7 +37333,7 @@
       <c r="AF35" s="84"/>
       <c r="AG35" s="84"/>
     </row>
-    <row r="36" spans="7:72" x14ac:dyDescent="0.15">
+    <row r="36" spans="7:72" x14ac:dyDescent="0.2">
       <c r="N36" s="47">
         <f t="shared" ref="N36:AA36" si="37">+N35/7</f>
         <v>0</v>
@@ -37427,7 +37415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:72" x14ac:dyDescent="0.15">
+    <row r="40" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G40" s="47">
         <v>540</v>
       </c>
@@ -37495,7 +37483,7 @@
         <v>30065</v>
       </c>
     </row>
-    <row r="41" spans="7:72" x14ac:dyDescent="0.15">
+    <row r="41" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G41" s="47">
         <f>+G40/7</f>
         <v>77.142857142857139</v>
@@ -37585,16 +37573,16 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="46" spans="7:72" x14ac:dyDescent="0.15">
+    <row r="46" spans="7:72" x14ac:dyDescent="0.2">
       <c r="BT46" s="49"/>
     </row>
-    <row r="47" spans="7:72" x14ac:dyDescent="0.15">
+    <row r="47" spans="7:72" x14ac:dyDescent="0.2">
       <c r="BT47" s="49"/>
     </row>
-    <row r="48" spans="7:72" x14ac:dyDescent="0.15">
+    <row r="48" spans="7:72" x14ac:dyDescent="0.2">
       <c r="BT48" s="49"/>
     </row>
-    <row r="49" spans="72:72" x14ac:dyDescent="0.15">
+    <row r="49" spans="72:72" x14ac:dyDescent="0.2">
       <c r="BT49" s="49"/>
     </row>
   </sheetData>
@@ -37615,15 +37603,15 @@
       <selection activeCell="G3" sqref="G3:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="10" width="8.33203125" style="53" customWidth="1"/>
-    <col min="11" max="12" width="6.5" customWidth="1"/>
+    <col min="3" max="10" width="8.28515625" style="53" customWidth="1"/>
+    <col min="11" max="12" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -37632,7 +37620,7 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>679</v>
@@ -37650,7 +37638,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>666</v>
       </c>
@@ -37679,7 +37667,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>667</v>
       </c>
@@ -37711,7 +37699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>668</v>
       </c>
@@ -37743,7 +37731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>669</v>
       </c>
@@ -37776,7 +37764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>670</v>
       </c>
@@ -37806,7 +37794,7 @@
       </c>
       <c r="L7" s="89"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>671</v>
       </c>
@@ -37835,7 +37823,7 @@
         <v>247.94000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>672</v>
       </c>
@@ -37864,7 +37852,7 @@
         <v>236.06</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>673</v>
       </c>
@@ -37893,13 +37881,13 @@
         <v>212.96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>682</v>
       </c>
@@ -37908,7 +37896,7 @@
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
         <v>666</v>
       </c>
@@ -37937,7 +37925,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>667</v>
       </c>
@@ -37966,7 +37954,7 @@
         <v>282.3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>668</v>
       </c>
@@ -37995,7 +37983,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>669</v>
       </c>
@@ -38024,7 +38012,7 @@
         <v>293.89999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>670</v>
       </c>
@@ -38053,7 +38041,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>671</v>
       </c>
@@ -38082,7 +38070,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>672</v>
       </c>
@@ -38111,7 +38099,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>673</v>
       </c>
@@ -38140,19 +38128,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>684</v>
       </c>
@@ -38172,11 +38160,11 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>685</v>
       </c>
@@ -38192,7 +38180,7 @@
       </c>
       <c r="J25" s="71"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>686</v>
       </c>
@@ -38208,7 +38196,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C27" s="54"/>
       <c r="G27" s="71">
         <f>9.2+11.9</f>
@@ -38218,7 +38206,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G28" s="53">
         <v>11.9</v>
       </c>
@@ -38240,18 +38228,18 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -38259,7 +38247,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>404</v>
       </c>
@@ -38281,17 +38269,17 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -38299,7 +38287,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>404</v>
       </c>
@@ -38307,7 +38295,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -38315,22 +38303,22 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="20" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="38" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="20" t="s">
         <v>748</v>
       </c>
@@ -38351,23 +38339,23 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>48</v>
       </c>
@@ -38375,12 +38363,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="20" t="s">
         <v>749</v>
       </c>
@@ -38399,18 +38387,18 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -38418,7 +38406,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>404</v>
       </c>
@@ -38426,7 +38414,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -38434,7 +38422,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>406</v>
       </c>
@@ -38442,7 +38430,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>543</v>
       </c>
@@ -38450,42 +38438,42 @@
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="20" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="38" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="38" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="38" t="s">
         <v>542</v>
       </c>
@@ -38499,21 +38487,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -38627,16 +38600,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -38651,16 +38640,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC4CBD-1378-4A1D-B738-C501CCBFE9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50822E56-2002-4306-ACDA-D0F8305D2902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51360" yWindow="1125" windowWidth="34170" windowHeight="19560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26175" yWindow="1080" windowWidth="24825" windowHeight="18870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="751">
   <si>
     <t>Name</t>
   </si>
@@ -3812,6 +3812,9 @@
   </si>
   <si>
     <t>Phase III "TRAILBLAZER-ALZ 2" early symptomatic AD</t>
+  </si>
+  <si>
+    <t>Kinsula (donanemab)</t>
   </si>
 </sst>
 </file>
@@ -3931,7 +3934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4052,28 +4055,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4083,7 +4064,7 @@
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4292,18 +4273,17 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6797,8 +6777,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7194,16 +7174,16 @@
       <c r="B19" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="95" t="s">
         <v>482</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="95" t="s">
         <v>528</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="97">
         <v>45225</v>
       </c>
       <c r="G19" s="44"/>
@@ -7213,73 +7193,73 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="96">
+        <v>1</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E21" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F21" s="30">
         <v>33905</v>
       </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="69" t="s">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="69" t="s">
         <v>434</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C22" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D22" s="72" t="s">
         <v>435</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E22" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F22" s="82">
         <v>41750</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="I21" s="16" t="s">
+      <c r="G22" s="10"/>
+      <c r="I22" s="16" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+    <row r="23" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="I22" s="21" t="s">
+      <c r="G23" s="4"/>
+      <c r="I23" s="21" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="94" t="s">
-        <v>483</v>
-      </c>
-      <c r="C23" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="96">
-        <v>1</v>
-      </c>
-      <c r="F23" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="97"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="36" t="s">
@@ -8635,11 +8615,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:GS142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BZ3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DP75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CI6" sqref="CI6"/>
+      <selection pane="bottomRight" activeCell="DU82" sqref="DU82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8661,8 +8641,8 @@
     <col min="109" max="110" width="7.42578125" style="47" customWidth="1"/>
     <col min="111" max="112" width="7.140625" customWidth="1"/>
     <col min="113" max="113" width="7.85546875" customWidth="1"/>
-    <col min="114" max="121" width="7.140625" customWidth="1"/>
-    <col min="122" max="122" width="7.42578125" customWidth="1"/>
+    <col min="114" max="120" width="7.140625" customWidth="1"/>
+    <col min="121" max="122" width="8.140625" customWidth="1"/>
     <col min="123" max="123" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9321,7 +9301,7 @@
         <v>48578.807002624999</v>
       </c>
       <c r="DS3" s="56">
-        <f t="shared" si="5"/>
+        <f>SUM(DS5:DS7)</f>
         <v>52628.055671962502</v>
       </c>
     </row>
@@ -27761,7 +27741,7 @@
         <v>0.1461100569259961</v>
       </c>
       <c r="CJ78" s="66">
-        <f t="shared" ref="CJ78:CS80" si="269">+CJ9/CF9-1</f>
+        <f t="shared" ref="CJ78:CL80" si="269">+CJ9/CF9-1</f>
         <v>-0.11351044182412273</v>
       </c>
       <c r="CK78" s="66">
@@ -34488,7 +34468,7 @@
       <c r="CE136" s="51">
         <v>-281</v>
       </c>
-      <c r="CF136" s="98">
+      <c r="CF136" s="94">
         <f>-296.6-CE136</f>
         <v>-15.600000000000023</v>
       </c>
@@ -38487,6 +38467,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -38600,32 +38595,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -38640,15 +38619,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEBD313-6F4D-454D-81A8-AF2F36046CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA5CFC-B926-7349-ADF9-0C6569412347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49260" yWindow="1965" windowWidth="21465" windowHeight="19635" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -6196,20 +6196,20 @@
       <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>68</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="H3" s="38"/>
       <c r="J3" s="38"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>998</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="H4" s="38"/>
       <c r="J4" s="38"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>993</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="38" t="s">
         <v>796</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="38" t="s">
         <v>762</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>277</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="38" t="s">
         <v>454</v>
       </c>
@@ -6342,7 +6342,7 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="38" t="s">
         <v>478</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="38" t="s">
         <v>63</v>
       </c>
@@ -6365,7 +6365,7 @@
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="14" t="s">
         <v>550</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="38" t="s">
         <v>801</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="110" t="s">
         <v>989</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="E15" s="38"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="38" t="s">
         <v>802</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="E16" s="38"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="38" t="s">
         <v>14</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="38" t="s">
         <v>73</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="G18" s="30"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="38" t="s">
         <v>370</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>804</v>
       </c>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="38" t="s">
         <v>757</v>
       </c>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="38" t="s">
         <v>71</v>
       </c>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="110" t="s">
         <v>990</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="38" t="s">
         <v>777</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="38" t="s">
         <v>261</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="38" t="s">
         <v>788</v>
       </c>
@@ -6548,7 +6548,7 @@
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="38" t="s">
         <v>987</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="38" t="s">
         <v>375</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="38" t="s">
         <v>17</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
         <v>548</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="38" t="s">
         <v>55</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="38" t="s">
         <v>494</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="38" t="s">
         <v>1000</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="38" t="s">
         <v>996</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="38" t="s">
         <v>54</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="38" t="s">
         <v>991</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="38" t="s">
         <v>69</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="38" t="s">
         <v>57</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="38" t="s">
         <v>764</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="38" t="s">
         <v>368</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="38" t="s">
         <v>1002</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="38" t="s">
         <v>760</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="38" t="s">
         <v>770</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="38" t="s">
         <v>775</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>776</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="38" t="s">
         <v>507</v>
       </c>
@@ -6768,7 +6768,7 @@
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="38" t="s">
         <v>407</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="38" t="s">
         <v>64</v>
       </c>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" s="38" t="s">
         <v>992</v>
       </c>
@@ -6807,7 +6807,7 @@
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" s="38" t="s">
         <v>792</v>
       </c>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51" s="38" t="s">
         <v>816</v>
       </c>
@@ -6831,7 +6831,7 @@
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52" s="38" t="s">
         <v>759</v>
       </c>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53" s="38" t="s">
         <v>440</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="38" t="s">
         <v>785</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="38" t="s">
         <v>418</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B56" s="38" t="s">
         <v>508</v>
       </c>
@@ -6900,7 +6900,7 @@
       <c r="F56" s="38"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B57" s="38" t="s">
         <v>994</v>
       </c>
@@ -6910,7 +6910,7 @@
       <c r="F57" s="38"/>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B58" s="38" t="s">
         <v>61</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="F58" s="38"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B59" s="38" t="s">
         <v>495</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B60" s="38" t="s">
         <v>72</v>
       </c>
@@ -6954,7 +6954,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B61" s="38" t="s">
         <v>377</v>
       </c>
@@ -6964,7 +6964,7 @@
       <c r="F61" s="38"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B62" s="38" t="s">
         <v>455</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="F62" s="38"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B63" s="38" t="s">
         <v>999</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="F63" s="38"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B64" s="38" t="s">
         <v>15</v>
       </c>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B65" s="38" t="s">
         <v>41</v>
       </c>
@@ -7009,14 +7009,14 @@
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B66" s="38" t="s">
         <v>1001</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B67" s="38" t="s">
         <v>443</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B68" s="38" t="s">
         <v>995</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="E68" s="38"/>
       <c r="F68" s="77"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B69" s="38" t="s">
         <v>774</v>
       </c>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="F69" s="77"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B70" s="38" t="s">
         <v>492</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="E70" s="38"/>
       <c r="F70" s="77"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B71" s="38" t="s">
         <v>463</v>
       </c>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="F71" s="77"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B72" s="38" t="s">
         <v>66</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B73" s="38" t="s">
         <v>787</v>
       </c>
@@ -7111,7 +7111,7 @@
       <c r="F73" s="77"/>
       <c r="H73" s="38"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B74" s="38" t="s">
         <v>369</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="E74" s="38"/>
       <c r="F74" s="77"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B75" s="38" t="s">
         <v>997</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="E75" s="38"/>
       <c r="F75" s="77"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B76" s="38" t="s">
         <v>416</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B77" s="38" t="s">
         <v>7</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B78" s="36" t="s">
         <v>448</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B79" s="36" t="s">
         <v>449</v>
       </c>
@@ -7181,7 +7181,7 @@
       <c r="G79" s="7"/>
       <c r="J79" s="21"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B86" s="38" t="s">
         <v>402</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B87" s="38"/>
       <c r="C87" s="38" t="s">
         <v>481</v>
@@ -7219,7 +7219,7 @@
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C88" s="38" t="s">
         <v>404</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C89" s="38" t="s">
         <v>49</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>25</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C91" s="38" t="s">
         <v>322</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B92" s="38"/>
       <c r="C92" s="38" t="s">
         <v>323</v>
@@ -7284,12 +7284,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B93" s="38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B94" s="38" t="s">
         <v>432</v>
       </c>
@@ -7300,17 +7300,17 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B95" s="38" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B96" s="38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C97" s="38" t="s">
         <v>473</v>
       </c>
@@ -7318,17 +7318,17 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B98" s="38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B99" s="38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B100" s="38"/>
       <c r="C100" t="s">
         <v>476</v>
@@ -7337,27 +7337,27 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B101" s="38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B102" s="38"/>
       <c r="C102" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B103" s="38"/>
       <c r="C103" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B104" s="38"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B105" s="38" t="s">
         <v>238</v>
       </c>
@@ -7371,12 +7371,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C106" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B107" s="5" t="s">
         <v>160</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B108" s="36" t="s">
         <v>178</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C109" s="36" t="s">
         <v>276</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B110" s="5" t="s">
         <v>204</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B111" s="36" t="s">
         <v>309</v>
       </c>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B112" s="36" t="s">
         <v>306</v>
       </c>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B113" s="5" t="s">
         <v>134</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B114" s="5" t="s">
         <v>188</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B115" s="45" t="s">
         <v>23</v>
       </c>
@@ -7555,18 +7555,18 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>48</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>405</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>847</v>
       </c>
@@ -7598,88 +7598,88 @@
         <v>848</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="38"/>
       <c r="C7" s="38" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="20" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="38" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="38" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="38" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="38" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="38" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="20" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="38" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="38" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="38" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" s="38" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="20" t="s">
         <v>1003</v>
       </c>
@@ -7699,18 +7699,18 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>51</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>872</v>
       </c>
@@ -7734,92 +7734,92 @@
         <v>910</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="20" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="38" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="38" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="20" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="38" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="38" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="38" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="20" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="38" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="38" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="38" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="38" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="20" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="38" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" s="38" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" s="38" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="38" t="s">
         <v>937</v>
       </c>
@@ -7840,23 +7840,23 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -7880,12 +7880,12 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="20" t="s">
         <v>1006</v>
       </c>
@@ -7906,18 +7906,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>847</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="38" t="s">
         <v>2</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="38" t="s">
         <v>872</v>
       </c>
@@ -7973,89 +7973,89 @@
         <v>873</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="20" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="38" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="38" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="38" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="38" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="38" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="20" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="38" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="20" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="20" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C28" s="38" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="38"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C30" s="20" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C31" s="38" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C32" s="38"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="38"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="38" t="s">
         <v>868</v>
       </c>
@@ -8074,18 +8074,18 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>539</v>
       </c>
@@ -8125,42 +8125,42 @@
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="20" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="38" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="38" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="38" t="s">
         <v>538</v>
       </c>
@@ -8179,17 +8179,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>402</v>
@@ -8198,22 +8198,22 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="20" t="s">
         <v>556</v>
       </c>
@@ -8233,19 +8233,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>50</v>
@@ -8254,7 +8254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>48</v>
@@ -8263,7 +8263,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -8272,37 +8272,37 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="38" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="13" t="s">
         <v>254</v>
       </c>
@@ -8327,18 +8327,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -8362,17 +8362,17 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>233</v>
       </c>
@@ -8393,17 +8393,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8433,18 +8433,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -8473,17 +8473,17 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>947</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>12122750</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>12115210</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>12102610</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>12083324</v>
       </c>
@@ -8544,7 +8544,7 @@
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>12071423</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>12060356</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>12059557</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>12059452</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>12042634</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>12037406</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>12037387</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>12037322</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>12023470</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>12011574</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>12005235</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>11999722</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>11993608</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>11976136</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>11976114</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>11970485</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>11964968</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>11957882</v>
       </c>
@@ -8720,19 +8720,19 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
@@ -8741,55 +8741,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="29">
         <v>38338</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>2004</v>
       </c>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -8832,7 +8832,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -8852,7 +8852,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -8860,7 +8860,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -8868,7 +8868,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -8876,7 +8876,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
         <v>165</v>
@@ -8888,7 +8888,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
@@ -8903,7 +8903,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C26" s="30">
         <f>C25-7</f>
         <v>39227</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C27" s="30">
         <v>38869</v>
       </c>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -8951,18 +8951,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -8987,18 +8987,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9023,21 +9023,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -9053,22 +9053,22 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -9076,38 +9076,38 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C18" s="26"/>
       <c r="D18" s="24" t="s">
         <v>55</v>
@@ -9119,7 +9119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C19" s="27" t="s">
         <v>157</v>
       </c>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
         <v>139</v>
       </c>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
@@ -9157,12 +9157,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C23" s="19" t="s">
         <v>140</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>142</v>
       </c>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
@@ -9224,12 +9224,12 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C29" s="19" t="s">
         <v>146</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C30" s="28" t="s">
         <v>147</v>
       </c>
@@ -9273,20 +9273,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9326,22 +9326,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>164</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" s="43">
         <v>40165</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>53829</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="43">
         <f t="shared" ref="C14:C20" si="0">C13-7</f>
         <v>40158</v>
@@ -9376,7 +9376,7 @@
         <v>52891</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" s="43">
         <f t="shared" si="0"/>
         <v>40151</v>
@@ -9388,7 +9388,7 @@
         <v>56775</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" s="43">
         <f t="shared" si="0"/>
         <v>40144</v>
@@ -9400,7 +9400,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17" s="43">
         <f t="shared" si="0"/>
         <v>40137</v>
@@ -9412,7 +9412,7 @@
         <v>53770</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C18" s="43">
         <f t="shared" si="0"/>
         <v>40130</v>
@@ -9424,7 +9424,7 @@
         <v>51112</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C19" s="43">
         <f t="shared" si="0"/>
         <v>40123</v>
@@ -9436,7 +9436,7 @@
         <v>54445</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C20" s="43">
         <f t="shared" si="0"/>
         <v>40116</v>
@@ -9448,7 +9448,7 @@
         <v>51865</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C21" s="43">
         <v>39234</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>50496</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C22" s="43">
         <f>C21-7</f>
         <v>39227</v>
@@ -9471,7 +9471,7 @@
         <v>53736</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C23" s="43">
         <f>C21-365</f>
         <v>38869</v>
@@ -9500,19 +9500,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
@@ -9560,32 +9560,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="21"/>
     </row>
   </sheetData>
@@ -9607,20 +9607,20 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -9652,27 +9652,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>131</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
         <v>164</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="21"/>
       <c r="C13" s="42">
         <v>40165</v>
@@ -9726,7 +9726,7 @@
         <v>4.2984100816726937E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="21"/>
       <c r="C14" s="42">
         <f t="shared" ref="C14:C20" si="1">C13-7</f>
@@ -9747,7 +9747,7 @@
         <v>3.8681653165078709E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="21"/>
       <c r="C15" s="42">
         <f t="shared" si="1"/>
@@ -9768,7 +9768,7 @@
         <v>3.1254381079652369E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="21"/>
       <c r="C16" s="42">
         <f t="shared" si="1"/>
@@ -9789,7 +9789,7 @@
         <v>3.4584947518294098E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="21"/>
       <c r="C17" s="42">
         <f t="shared" si="1"/>
@@ -9810,7 +9810,7 @@
         <v>3.2099779036147079E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="21"/>
       <c r="C18" s="42">
         <f t="shared" si="1"/>
@@ -9831,7 +9831,7 @@
         <v>2.6363776171540302E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="21"/>
       <c r="C19" s="42">
         <f t="shared" si="1"/>
@@ -9852,7 +9852,7 @@
         <v>2.4831685670414312E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="21"/>
       <c r="C20" s="42">
         <f t="shared" si="1"/>
@@ -9873,11 +9873,11 @@
         <v>2.2489745401572539E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="21" t="s">
         <v>172</v>
       </c>
@@ -9885,117 +9885,117 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C27" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C30" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C31" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46" s="16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C47" s="21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C48" s="21" t="s">
         <v>327</v>
       </c>
@@ -10017,25 +10017,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>48</v>
@@ -10044,7 +10044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -10062,28 +10062,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="21" t="s">
         <v>122</v>
       </c>
@@ -10106,23 +10106,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>92</v>
       </c>
@@ -10162,12 +10162,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>114</v>
       </c>
@@ -10189,19 +10189,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -10225,17 +10225,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="16" t="s">
         <v>235</v>
       </c>
@@ -10255,30 +10255,30 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10301,10 +10301,10 @@
         <v>172</v>
       </c>
       <c r="J2" s="31">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
         <v>505</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
         <v>517</v>
       </c>
@@ -10353,11 +10353,11 @@
       </c>
       <c r="J4" s="18">
         <f>J2*J3</f>
-        <v>770795.30595800001</v>
+        <v>706166.35305400006</v>
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>502</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="68" t="s">
         <v>469</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
         <v>420</v>
       </c>
@@ -10433,10 +10433,10 @@
       </c>
       <c r="J7" s="18">
         <f>J4-J5+J6</f>
-        <v>793445.30595800001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>728816.35305400006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>312</v>
       </c>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="36" t="s">
         <v>421</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" s="36" t="s">
         <v>551</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>531</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
         <v>488</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" s="36" t="s">
         <v>485</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="36" t="s">
         <v>484</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" s="36" t="s">
         <v>439</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="14" t="s">
         <v>521</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="36" t="s">
         <v>471</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>468</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
         <v>523</v>
       </c>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="G19" s="44"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
         <v>844</v>
       </c>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="G20" s="44"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="36" t="s">
         <v>57</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="69" t="s">
         <v>433</v>
       </c>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -10746,7 +10746,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
         <v>1004</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="36" t="s">
         <v>730</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
         <v>568</v>
       </c>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="36" t="s">
         <v>567</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="36" t="s">
         <v>714</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="36" t="s">
         <v>742</v>
       </c>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="36" t="s">
         <v>710</v>
       </c>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="36" t="s">
         <v>565</v>
       </c>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="36" t="s">
         <v>566</v>
       </c>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="36" t="s">
         <v>912</v>
       </c>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="36" t="s">
         <v>713</v>
       </c>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="36" t="s">
         <v>716</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="36" t="s">
         <v>718</v>
       </c>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="36"/>
       <c r="C37" s="37" t="s">
         <v>722</v>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="36" t="s">
         <v>719</v>
       </c>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="36" t="s">
         <v>723</v>
       </c>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="36" t="s">
         <v>724</v>
       </c>
@@ -11007,7 +11007,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="36"/>
       <c r="C41" s="37" t="s">
         <v>445</v>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="36" t="s">
         <v>727</v>
       </c>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="36" t="s">
         <v>728</v>
       </c>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="36" t="s">
         <v>739</v>
       </c>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="36" t="s">
         <v>985</v>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="F45" s="37"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="36" t="s">
         <v>729</v>
       </c>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="36" t="s">
         <v>736</v>
       </c>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="36"/>
       <c r="C48" s="37" t="s">
         <v>194</v>
@@ -11119,7 +11119,7 @@
       <c r="F48" s="37"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="36" t="s">
         <v>737</v>
       </c>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="36" t="s">
         <v>738</v>
       </c>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="36" t="s">
         <v>564</v>
       </c>
@@ -11164,7 +11164,7 @@
       <c r="G51" s="7"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="36" t="s">
         <v>732</v>
       </c>
@@ -11181,7 +11181,7 @@
       <c r="G52" s="7"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="69" t="s">
         <v>526</v>
       </c>
@@ -11195,137 +11195,137 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E55" s="33" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E56" s="33" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E57" s="33" t="s">
         <v>881</v>
       </c>
       <c r="F57" s="33"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E58" s="33" t="s">
         <v>882</v>
       </c>
       <c r="F58" s="34"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E59" s="33" t="s">
         <v>892</v>
       </c>
       <c r="F59" s="34"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E60" s="33" t="s">
         <v>893</v>
       </c>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E61" s="33" t="s">
         <v>895</v>
       </c>
       <c r="F61" s="34"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E62" s="33" t="s">
         <v>899</v>
       </c>
       <c r="F62" s="34"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E63" s="33" t="s">
         <v>900</v>
       </c>
       <c r="F63" s="34"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E64" s="33" t="s">
         <v>903</v>
       </c>
       <c r="F64" s="34"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E65" s="33" t="s">
         <v>904</v>
       </c>
       <c r="F65" s="34"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E66" s="33" t="s">
         <v>927</v>
       </c>
       <c r="F66" s="34"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E67" s="33" t="s">
         <v>926</v>
       </c>
       <c r="F67" s="34"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E68" s="33" t="s">
         <v>940</v>
       </c>
       <c r="F68" s="34"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E69" s="33" t="s">
         <v>928</v>
       </c>
       <c r="F69" s="34"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E70" s="33" t="s">
         <v>945</v>
       </c>
       <c r="F70" s="34"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E71" s="33" t="s">
         <v>946</v>
       </c>
       <c r="F71" s="34"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E72" s="33" t="s">
         <v>920</v>
       </c>
       <c r="F72" s="34"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E73" s="33" t="s">
         <v>921</v>
       </c>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E74" s="33" t="s">
         <v>915</v>
       </c>
       <c r="F74" s="34"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E75" s="33" t="s">
         <v>914</v>
       </c>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E76" s="33" t="s">
         <v>911</v>
       </c>
       <c r="F76" s="34"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B77" s="74"/>
       <c r="C77" s="74"/>
       <c r="E77" s="33" t="s">
@@ -11333,75 +11333,75 @@
       </c>
       <c r="F77" s="33"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" s="75"/>
       <c r="E78" s="21" t="s">
         <v>543</v>
       </c>
       <c r="F78" s="33"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
       <c r="E79" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
       <c r="E80" s="21" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B83" s="76"/>
       <c r="C83" s="75"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" s="76"/>
       <c r="C84" s="75"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B85" s="76"/>
       <c r="C85" s="75"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B88" s="76"/>
       <c r="C88" s="75"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B89" s="75"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B90" s="75"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B92" s="75"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C93" s="75"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B95" s="75"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C97" s="75"/>
     </row>
   </sheetData>
@@ -11432,19 +11432,19 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>48</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -11476,42 +11476,42 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>227</v>
       </c>
@@ -11532,40 +11532,40 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IQ167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="DG44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DK67" sqref="DK67"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="53" width="7" style="47" customWidth="1"/>
-    <col min="54" max="54" width="6.7109375" style="47" customWidth="1"/>
+    <col min="54" max="54" width="6.6640625" style="47" customWidth="1"/>
     <col min="55" max="94" width="7" style="47" customWidth="1"/>
-    <col min="95" max="102" width="7.42578125" style="47" customWidth="1"/>
-    <col min="103" max="120" width="7.85546875" style="47" customWidth="1"/>
-    <col min="121" max="126" width="7.28515625" style="47" customWidth="1"/>
-    <col min="127" max="127" width="4.28515625" customWidth="1"/>
-    <col min="128" max="143" width="6.7109375" customWidth="1"/>
-    <col min="144" max="144" width="6.7109375" style="47" customWidth="1"/>
-    <col min="145" max="152" width="7.5703125" style="47" customWidth="1"/>
+    <col min="95" max="102" width="7.5" style="47" customWidth="1"/>
+    <col min="103" max="120" width="7.83203125" style="47" customWidth="1"/>
+    <col min="121" max="126" width="7.33203125" style="47" customWidth="1"/>
+    <col min="127" max="127" width="4.33203125" customWidth="1"/>
+    <col min="128" max="143" width="6.6640625" customWidth="1"/>
+    <col min="144" max="144" width="6.6640625" style="47" customWidth="1"/>
+    <col min="145" max="152" width="7.5" style="47" customWidth="1"/>
     <col min="153" max="153" width="7" style="47" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="8.140625" style="47" customWidth="1"/>
+    <col min="154" max="154" width="8.1640625" style="47" customWidth="1"/>
     <col min="155" max="155" width="7" style="47" customWidth="1"/>
     <col min="156" max="156" width="9" style="47" customWidth="1"/>
     <col min="157" max="157" width="7" style="47" customWidth="1"/>
-    <col min="158" max="160" width="7.42578125" style="47" customWidth="1"/>
-    <col min="161" max="168" width="7.42578125" customWidth="1"/>
-    <col min="169" max="170" width="7.140625" customWidth="1"/>
-    <col min="171" max="172" width="8.140625" customWidth="1"/>
-    <col min="173" max="173" width="7.7109375" customWidth="1"/>
+    <col min="158" max="160" width="7.5" style="47" customWidth="1"/>
+    <col min="161" max="168" width="7.5" customWidth="1"/>
+    <col min="169" max="170" width="7.1640625" customWidth="1"/>
+    <col min="171" max="172" width="8.1640625" customWidth="1"/>
+    <col min="173" max="173" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
@@ -11606,7 +11606,7 @@
       <c r="ES1" s="99"/>
       <c r="ET1" s="99"/>
     </row>
-    <row r="2" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A2" s="102"/>
       <c r="C2" s="48" t="s">
         <v>840</v>
@@ -12147,7 +12147,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A3" s="102"/>
       <c r="B3" s="38" t="s">
         <v>118</v>
@@ -12509,7 +12509,7 @@
         <v>68165.65076406562</v>
       </c>
     </row>
-    <row r="4" spans="1:178" s="102" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:178" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
       <c r="E4" s="103"/>
@@ -12652,7 +12652,7 @@
       <c r="FC4" s="99"/>
       <c r="FD4" s="99"/>
     </row>
-    <row r="5" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="98"/>
       <c r="B5" s="50" t="s">
         <v>365</v>
@@ -12972,7 +12972,7 @@
         <v>3624.5678808656235</v>
       </c>
     </row>
-    <row r="6" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="98"/>
       <c r="B6" s="50" t="s">
         <v>506</v>
@@ -13210,7 +13210,7 @@
         <v>46308.184137600001</v>
       </c>
     </row>
-    <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="98"/>
       <c r="B7" s="50" t="s">
         <v>525</v>
@@ -13433,7 +13433,7 @@
         <v>18232.8987456</v>
       </c>
     </row>
-    <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="98"/>
       <c r="B8" s="50" t="s">
         <v>376</v>
@@ -13648,7 +13648,7 @@
       <c r="FP8" s="98"/>
       <c r="FQ8" s="98"/>
     </row>
-    <row r="9" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A9" s="102"/>
       <c r="B9" s="38" t="s">
         <v>372</v>
@@ -13953,7 +13953,7 @@
         <v>6540.3730022400014</v>
       </c>
     </row>
-    <row r="10" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A10" s="102"/>
       <c r="B10" s="38" t="s">
         <v>369</v>
@@ -14243,7 +14243,7 @@
         <v>556.80305333192791</v>
       </c>
     </row>
-    <row r="11" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A11" s="102"/>
       <c r="B11" s="38" t="s">
         <v>368</v>
@@ -14561,7 +14561,7 @@
         <v>546.03156960000013</v>
       </c>
     </row>
-    <row r="12" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A12" s="102"/>
       <c r="B12" t="s">
         <v>54</v>
@@ -15078,7 +15078,7 @@
         <v>1642.5628296015623</v>
       </c>
     </row>
-    <row r="13" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A13" s="102"/>
       <c r="B13" t="s">
         <v>19</v>
@@ -15512,7 +15512,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="14" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A14" s="102"/>
       <c r="B14" t="s">
         <v>57</v>
@@ -16047,7 +16047,7 @@
         <v>606.45080976562497</v>
       </c>
     </row>
-    <row r="15" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A15" s="102"/>
       <c r="B15" s="38" t="s">
         <v>373</v>
@@ -16343,7 +16343,7 @@
         <v>98.731884106394034</v>
       </c>
     </row>
-    <row r="16" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:178" x14ac:dyDescent="0.15">
       <c r="A16" s="102"/>
       <c r="B16" s="38" t="s">
         <v>370</v>
@@ -16667,7 +16667,7 @@
         <v>711.86298688124975</v>
       </c>
     </row>
-    <row r="17" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A17" s="102"/>
       <c r="B17" t="s">
         <v>18</v>
@@ -17121,7 +17121,7 @@
         <v>211.14150930000002</v>
       </c>
     </row>
-    <row r="18" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A18" s="102"/>
       <c r="B18" s="38" t="s">
         <v>366</v>
@@ -17435,7 +17435,7 @@
         <v>364.14337319999998</v>
       </c>
     </row>
-    <row r="19" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A19" s="102"/>
       <c r="B19" s="38" t="s">
         <v>375</v>
@@ -17722,7 +17722,7 @@
         <v>876.08319549251144</v>
       </c>
     </row>
-    <row r="20" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A20" s="102"/>
       <c r="B20" s="38" t="s">
         <v>367</v>
@@ -18022,7 +18022,7 @@
         <v>194.18854140000005</v>
       </c>
     </row>
-    <row r="21" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A21" s="102"/>
       <c r="B21" s="38" t="s">
         <v>256</v>
@@ -18388,7 +18388,7 @@
         <v>320.24634660000004</v>
       </c>
     </row>
-    <row r="22" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A22" s="102"/>
       <c r="B22" t="s">
         <v>77</v>
@@ -18688,7 +18688,7 @@
         <v>136.68662520000001</v>
       </c>
     </row>
-    <row r="23" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A23" s="102"/>
       <c r="B23" t="s">
         <v>16</v>
@@ -19133,7 +19133,7 @@
         <v>194.40111780000007</v>
       </c>
     </row>
-    <row r="24" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A24" s="102"/>
       <c r="B24" t="s">
         <v>78</v>
@@ -19488,7 +19488,7 @@
         <v>105.01274160000004</v>
       </c>
     </row>
-    <row r="25" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A25" s="102"/>
       <c r="B25" t="s">
         <v>7</v>
@@ -19978,7 +19978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A26" s="102"/>
       <c r="B26" s="38" t="s">
         <v>371</v>
@@ -20256,7 +20256,7 @@
         <v>267.58054350000003</v>
       </c>
     </row>
-    <row r="27" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A27" s="102"/>
       <c r="B27" t="s">
         <v>14</v>
@@ -20676,7 +20676,7 @@
         <v>102.88697759999998</v>
       </c>
     </row>
-    <row r="28" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A28" s="102"/>
       <c r="B28" t="s">
         <v>492</v>
@@ -20984,7 +20984,7 @@
         <v>185.41976490000002</v>
       </c>
     </row>
-    <row r="29" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A29" s="102"/>
       <c r="B29" t="s">
         <v>62</v>
@@ -21282,7 +21282,7 @@
         <v>270.98176589999997</v>
       </c>
     </row>
-    <row r="30" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A30" s="102"/>
       <c r="B30" s="38" t="s">
         <v>377</v>
@@ -21546,7 +21546,7 @@
         <v>146.06666620000004</v>
       </c>
     </row>
-    <row r="31" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A31" s="102"/>
       <c r="B31" s="38" t="s">
         <v>454</v>
@@ -21782,7 +21782,7 @@
       <c r="FP31" s="49"/>
       <c r="FQ31" s="49"/>
     </row>
-    <row r="32" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A32" s="102"/>
       <c r="B32" s="38" t="s">
         <v>978</v>
@@ -21978,7 +21978,7 @@
       <c r="FP32" s="49"/>
       <c r="FQ32" s="49"/>
     </row>
-    <row r="33" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A33" s="102"/>
       <c r="B33" s="38" t="s">
         <v>883</v>
@@ -22178,7 +22178,7 @@
       <c r="FP33" s="49"/>
       <c r="FQ33" s="49"/>
     </row>
-    <row r="34" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A34" s="102"/>
       <c r="B34" s="38" t="s">
         <v>986</v>
@@ -22378,7 +22378,7 @@
       <c r="FP34" s="49"/>
       <c r="FQ34" s="49"/>
     </row>
-    <row r="35" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A35" s="102"/>
       <c r="B35" s="38" t="s">
         <v>987</v>
@@ -22578,7 +22578,7 @@
       <c r="FP35" s="49"/>
       <c r="FQ35" s="49"/>
     </row>
-    <row r="36" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A36" s="102"/>
       <c r="B36" s="38" t="s">
         <v>857</v>
@@ -22776,7 +22776,7 @@
       <c r="FP36" s="49"/>
       <c r="FQ36" s="49"/>
     </row>
-    <row r="37" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A37" s="102"/>
       <c r="B37" s="38" t="s">
         <v>374</v>
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A38" s="102"/>
       <c r="B38" s="38" t="s">
         <v>494</v>
@@ -23219,7 +23219,7 @@
       <c r="FP38" s="49"/>
       <c r="FQ38" s="49"/>
     </row>
-    <row r="39" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A39" s="102"/>
       <c r="B39" s="38" t="s">
         <v>455</v>
@@ -23441,7 +23441,7 @@
       <c r="FP39" s="49"/>
       <c r="FQ39" s="49"/>
     </row>
-    <row r="40" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A40" s="102"/>
       <c r="B40" t="s">
         <v>15</v>
@@ -23821,7 +23821,7 @@
       <c r="FP40" s="49"/>
       <c r="FQ40" s="49"/>
     </row>
-    <row r="41" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A41" s="102"/>
       <c r="B41" t="s">
         <v>69</v>
@@ -24075,7 +24075,7 @@
       <c r="FJ41" s="49"/>
       <c r="FK41" s="49"/>
     </row>
-    <row r="42" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A42" s="102"/>
       <c r="B42" s="38" t="s">
         <v>508</v>
@@ -24262,7 +24262,7 @@
       <c r="FP42" s="49"/>
       <c r="FQ42" s="49"/>
     </row>
-    <row r="43" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A43" s="102"/>
       <c r="B43" s="38" t="s">
         <v>507</v>
@@ -24457,7 +24457,7 @@
       <c r="FP43" s="49"/>
       <c r="FQ43" s="49"/>
     </row>
-    <row r="44" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A44" s="102"/>
       <c r="B44" t="s">
         <v>79</v>
@@ -24787,7 +24787,7 @@
       <c r="FJ44" s="49"/>
       <c r="FK44" s="49"/>
     </row>
-    <row r="45" spans="1:173" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:173" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="106"/>
       <c r="B45" s="38" t="s">
         <v>261</v>
@@ -25038,7 +25038,7 @@
       <c r="FJ45" s="49"/>
       <c r="FK45" s="49"/>
     </row>
-    <row r="46" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A46" s="102"/>
       <c r="B46" t="s">
         <v>55</v>
@@ -25385,7 +25385,7 @@
       <c r="FJ46" s="49"/>
       <c r="FK46" s="49"/>
     </row>
-    <row r="47" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A47" s="102"/>
       <c r="B47" s="38" t="s">
         <v>41</v>
@@ -25560,7 +25560,7 @@
       <c r="FJ47" s="49"/>
       <c r="FK47" s="49"/>
     </row>
-    <row r="48" spans="1:173" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:173" x14ac:dyDescent="0.15">
       <c r="A48" s="102"/>
       <c r="B48" t="s">
         <v>70</v>
@@ -25810,7 +25810,7 @@
       <c r="FJ48" s="49"/>
       <c r="FK48" s="49"/>
     </row>
-    <row r="49" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A49" s="102"/>
       <c r="B49" t="s">
         <v>61</v>
@@ -26109,7 +26109,7 @@
       <c r="FJ49" s="49"/>
       <c r="FK49" s="49"/>
     </row>
-    <row r="50" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A50" s="102"/>
       <c r="B50" t="s">
         <v>63</v>
@@ -26328,7 +26328,7 @@
       <c r="FJ50" s="49"/>
       <c r="FK50" s="49"/>
     </row>
-    <row r="51" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A51" s="102"/>
       <c r="B51" t="s">
         <v>64</v>
@@ -26524,7 +26524,7 @@
       <c r="FJ51" s="49"/>
       <c r="FK51" s="49"/>
     </row>
-    <row r="52" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A52" s="102"/>
       <c r="B52" s="38" t="s">
         <v>762</v>
@@ -26749,7 +26749,7 @@
       <c r="FJ52" s="49"/>
       <c r="FK52" s="49"/>
     </row>
-    <row r="53" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A53" s="102"/>
       <c r="B53" t="s">
         <v>65</v>
@@ -26936,7 +26936,7 @@
       <c r="FJ53" s="49"/>
       <c r="FK53" s="49"/>
     </row>
-    <row r="54" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A54" s="102"/>
       <c r="B54" t="s">
         <v>66</v>
@@ -27125,7 +27125,7 @@
       <c r="FJ54" s="49"/>
       <c r="FK54" s="49"/>
     </row>
-    <row r="55" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A55" s="102"/>
       <c r="B55" t="s">
         <v>67</v>
@@ -27315,7 +27315,7 @@
       <c r="FJ55" s="49"/>
       <c r="FK55" s="49"/>
     </row>
-    <row r="56" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A56" s="102"/>
       <c r="B56" t="s">
         <v>71</v>
@@ -27500,7 +27500,7 @@
       <c r="FJ56" s="49"/>
       <c r="FK56" s="49"/>
     </row>
-    <row r="57" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A57" s="102"/>
       <c r="B57" t="s">
         <v>72</v>
@@ -27772,7 +27772,7 @@
       <c r="FJ57" s="49"/>
       <c r="FK57" s="49"/>
     </row>
-    <row r="58" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A58" s="102"/>
       <c r="B58" t="s">
         <v>73</v>
@@ -27959,7 +27959,7 @@
       <c r="FJ58" s="49"/>
       <c r="FK58" s="49"/>
     </row>
-    <row r="59" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A59" s="102"/>
       <c r="B59" t="s">
         <v>68</v>
@@ -28191,7 +28191,7 @@
       <c r="FJ59" s="49"/>
       <c r="FK59" s="49"/>
     </row>
-    <row r="60" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A60" s="102"/>
       <c r="B60" t="s">
         <v>74</v>
@@ -28417,7 +28417,7 @@
       <c r="FJ60" s="49"/>
       <c r="FK60" s="49"/>
     </row>
-    <row r="61" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A61" s="102"/>
       <c r="B61" t="s">
         <v>17</v>
@@ -28780,7 +28780,7 @@
       <c r="FJ61" s="49"/>
       <c r="FK61" s="49"/>
     </row>
-    <row r="62" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A62" s="102"/>
       <c r="B62" s="38" t="s">
         <v>238</v>
@@ -28951,7 +28951,7 @@
       <c r="FJ62" s="49"/>
       <c r="FK62" s="49"/>
     </row>
-    <row r="63" spans="1:167" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:167" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="106"/>
       <c r="B63" s="38" t="s">
         <v>275</v>
@@ -29122,7 +29122,7 @@
       <c r="FJ63" s="49"/>
       <c r="FK63" s="49"/>
     </row>
-    <row r="64" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A64" s="102"/>
       <c r="B64" t="s">
         <v>80</v>
@@ -29383,7 +29383,7 @@
       <c r="FJ64" s="49"/>
       <c r="FK64" s="49"/>
     </row>
-    <row r="65" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A65" s="102"/>
       <c r="B65" t="s">
         <v>76</v>
@@ -29568,7 +29568,7 @@
       <c r="FJ65" s="49"/>
       <c r="FK65" s="49"/>
     </row>
-    <row r="66" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A66" s="102"/>
       <c r="B66" s="38" t="s">
         <v>249</v>
@@ -29763,7 +29763,7 @@
       <c r="FJ66" s="49"/>
       <c r="FK66" s="49"/>
     </row>
-    <row r="67" spans="1:251" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:251" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="107"/>
       <c r="B67" s="55" t="s">
         <v>379</v>
@@ -30419,7 +30419,7 @@
         <v>82246.406068284894</v>
       </c>
     </row>
-    <row r="68" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A68" s="102"/>
       <c r="B68" t="s">
         <v>58</v>
@@ -30850,7 +30850,7 @@
         <v>12336.960910242735</v>
       </c>
     </row>
-    <row r="69" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A69" s="102"/>
       <c r="B69" t="s">
         <v>123</v>
@@ -31365,7 +31365,7 @@
         <v>69909.445158042159</v>
       </c>
     </row>
-    <row r="70" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A70" s="102"/>
       <c r="B70" t="s">
         <v>59</v>
@@ -31790,7 +31790,7 @@
         <v>20561.601517071223</v>
       </c>
     </row>
-    <row r="71" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A71" s="102"/>
       <c r="B71" t="s">
         <v>60</v>
@@ -32192,7 +32192,7 @@
       <c r="FP71" s="49"/>
       <c r="FQ71" s="49"/>
     </row>
-    <row r="72" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A72" s="102"/>
       <c r="B72" s="38" t="s">
         <v>250</v>
@@ -32674,7 +32674,7 @@
         <v>20561.601517071223</v>
       </c>
     </row>
-    <row r="73" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A73" s="102"/>
       <c r="B73" s="38" t="s">
         <v>251</v>
@@ -33204,7 +33204,7 @@
         <v>49347.843640970939</v>
       </c>
     </row>
-    <row r="74" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A74" s="102"/>
       <c r="B74" t="s">
         <v>78</v>
@@ -33627,7 +33627,7 @@
         <v>11478.535986683028</v>
       </c>
     </row>
-    <row r="75" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A75" s="102"/>
       <c r="B75" t="s">
         <v>81</v>
@@ -34148,7 +34148,7 @@
         <v>60826.379627653965</v>
       </c>
     </row>
-    <row r="76" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A76" s="102"/>
       <c r="B76" t="s">
         <v>82</v>
@@ -34576,7 +34576,7 @@
         <v>12165.275925530794</v>
       </c>
     </row>
-    <row r="77" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A77" s="102"/>
       <c r="B77" t="s">
         <v>83</v>
@@ -35421,7 +35421,7 @@
         <v>228031.76698212087</v>
       </c>
     </row>
-    <row r="78" spans="1:251" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:251" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="108"/>
       <c r="B78" s="58" t="s">
         <v>56</v>
@@ -35954,7 +35954,7 @@
         <v>53.87840564295756</v>
       </c>
     </row>
-    <row r="79" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A79" s="102"/>
       <c r="B79" t="s">
         <v>84</v>
@@ -36390,11 +36390,11 @@
         <v>903.16525000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A80" s="102"/>
       <c r="AW80" s="51"/>
     </row>
-    <row r="81" spans="1:175" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:175" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="107"/>
       <c r="B81" s="55" t="s">
         <v>380</v>
@@ -36895,7 +36895,7 @@
         <v>-7.599404509422647E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:175" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:175" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="107"/>
       <c r="B82" s="55" t="s">
         <v>756</v>
@@ -37074,7 +37074,7 @@
       <c r="FP82" s="62"/>
       <c r="FQ82" s="62"/>
     </row>
-    <row r="83" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="106"/>
       <c r="B83" s="38" t="s">
         <v>378</v>
@@ -37382,7 +37382,7 @@
         <v>-4.1304873786929819E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="106"/>
       <c r="B84" s="38" t="s">
         <v>709</v>
@@ -37562,7 +37562,7 @@
       <c r="FG84" s="67"/>
       <c r="FH84" s="67"/>
     </row>
-    <row r="85" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="106"/>
       <c r="B85" s="38" t="s">
         <v>489</v>
@@ -37843,7 +37843,7 @@
         <v>0.11188557614826755</v>
       </c>
     </row>
-    <row r="86" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="106"/>
       <c r="B86" s="38" t="s">
         <v>490</v>
@@ -38106,7 +38106,7 @@
         <v>0.55552423900789139</v>
       </c>
     </row>
-    <row r="87" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="106"/>
       <c r="B87" s="38" t="s">
         <v>491</v>
@@ -38382,7 +38382,7 @@
       <c r="FG87" s="67"/>
       <c r="FH87" s="67"/>
     </row>
-    <row r="88" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:175" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="106"/>
       <c r="B88" s="38" t="s">
         <v>56</v>
@@ -38832,14 +38832,14 @@
       <c r="FG88" s="67"/>
       <c r="FH88" s="67"/>
     </row>
-    <row r="89" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A89" s="102"/>
       <c r="FE89" s="47"/>
       <c r="FF89" s="47"/>
       <c r="FG89" s="47"/>
       <c r="FH89" s="47"/>
     </row>
-    <row r="90" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A90" s="102"/>
       <c r="B90" t="s">
         <v>123</v>
@@ -39254,7 +39254,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="91" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A91" s="102"/>
       <c r="B91" t="s">
         <v>59</v>
@@ -39708,7 +39708,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="92" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A92" s="102"/>
       <c r="B92" t="s">
         <v>60</v>
@@ -40063,7 +40063,7 @@
         <v>0.27144936979178036</v>
       </c>
     </row>
-    <row r="93" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A93" s="102"/>
       <c r="B93" t="s">
         <v>206</v>
@@ -40448,7 +40448,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A94" s="102"/>
       <c r="FR94" s="47" t="s">
         <v>242</v>
@@ -40457,7 +40457,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="95" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A95" s="102"/>
       <c r="B95" t="s">
         <v>187</v>
@@ -40689,7 +40689,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A96" s="102"/>
       <c r="FR96" s="47" t="s">
         <v>243</v>
@@ -40699,7 +40699,7 @@
         <v>789975.01942114986</v>
       </c>
     </row>
-    <row r="97" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="98"/>
       <c r="B97" s="49" t="s">
         <v>174</v>
@@ -40963,7 +40963,7 @@
         <v>831.18012758819532</v>
       </c>
     </row>
-    <row r="98" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="98"/>
       <c r="B98" s="50" t="s">
         <v>284</v>
@@ -41190,7 +41190,7 @@
         <v>9090.5</v>
       </c>
     </row>
-    <row r="99" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="98"/>
       <c r="B99" s="50" t="s">
         <v>285</v>
@@ -41417,7 +41417,7 @@
         <v>2245.6999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="98"/>
       <c r="B100" s="50" t="s">
         <v>286</v>
@@ -41644,7 +41644,7 @@
         <v>5772.8</v>
       </c>
     </row>
-    <row r="101" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="98"/>
       <c r="B101" s="50" t="s">
         <v>287</v>
@@ -41871,7 +41871,7 @@
         <v>5540.8</v>
       </c>
     </row>
-    <row r="102" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="98"/>
       <c r="B102" s="50" t="s">
         <v>288</v>
@@ -42055,7 +42055,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="103" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="98"/>
       <c r="B103" s="50" t="s">
         <v>289</v>
@@ -42304,7 +42304,7 @@
         <v>11846.3</v>
       </c>
     </row>
-    <row r="104" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="98"/>
       <c r="B104" s="50" t="s">
         <v>385</v>
@@ -42515,7 +42515,7 @@
         <v>5477.3</v>
       </c>
     </row>
-    <row r="105" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="98"/>
       <c r="B105" s="50" t="s">
         <v>290</v>
@@ -42728,7 +42728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="98"/>
       <c r="B106" s="50" t="s">
         <v>291</v>
@@ -42955,7 +42955,7 @@
         <v>12913.6</v>
       </c>
     </row>
-    <row r="107" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="98"/>
       <c r="B107" s="50" t="s">
         <v>386</v>
@@ -43167,7 +43167,7 @@
         <v>4989.8999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="98"/>
       <c r="B108" s="50" t="s">
         <v>292</v>
@@ -43424,13 +43424,13 @@
         <v>64006.3</v>
       </c>
     </row>
-    <row r="109" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:175" x14ac:dyDescent="0.15">
       <c r="A109" s="102"/>
       <c r="FG109" s="49"/>
       <c r="FH109" s="49"/>
       <c r="FI109" s="49"/>
     </row>
-    <row r="110" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="98"/>
       <c r="B110" s="50" t="s">
         <v>175</v>
@@ -43687,7 +43687,7 @@
         <v>25225.3</v>
       </c>
     </row>
-    <row r="111" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="98"/>
       <c r="B111" s="50" t="s">
         <v>293</v>
@@ -43915,7 +43915,7 @@
         <v>2598.8000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:175" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="98"/>
       <c r="B112" s="50" t="s">
         <v>294</v>
@@ -44142,7 +44142,7 @@
         <v>1650.4</v>
       </c>
     </row>
-    <row r="113" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="98"/>
       <c r="B113" s="50" t="s">
         <v>295</v>
@@ -44369,7 +44369,7 @@
         <v>11689</v>
       </c>
     </row>
-    <row r="114" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="98"/>
       <c r="B114" s="50" t="s">
         <v>296</v>
@@ -44596,7 +44596,7 @@
         <v>1169.2</v>
       </c>
     </row>
-    <row r="115" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="98"/>
       <c r="B115" s="50" t="s">
         <v>82</v>
@@ -44823,7 +44823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="98"/>
       <c r="B116" s="50" t="s">
         <v>297</v>
@@ -45050,7 +45050,7 @@
         <v>3281.3</v>
       </c>
     </row>
-    <row r="117" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="98"/>
       <c r="B117" s="50" t="s">
         <v>298</v>
@@ -45277,7 +45277,7 @@
         <v>1438.8</v>
       </c>
     </row>
-    <row r="118" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="98"/>
       <c r="B118" s="50" t="s">
         <v>82</v>
@@ -45520,7 +45520,7 @@
         <v>3849.2</v>
       </c>
     </row>
-    <row r="119" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="98"/>
       <c r="B119" s="50" t="s">
         <v>299</v>
@@ -45750,7 +45750,7 @@
         <v>2240.6</v>
       </c>
     </row>
-    <row r="120" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="98"/>
       <c r="B120" s="50" t="s">
         <v>300</v>
@@ -45978,7 +45978,7 @@
         <v>10863.7</v>
       </c>
     </row>
-    <row r="121" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="98"/>
       <c r="B121" s="50" t="s">
         <v>301</v>
@@ -46235,13 +46235,13 @@
         <v>64006.3</v>
       </c>
     </row>
-    <row r="122" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A122" s="102"/>
       <c r="FG122" s="49"/>
       <c r="FH122" s="49"/>
       <c r="FI122" s="49"/>
     </row>
-    <row r="123" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A123" s="102"/>
       <c r="B123" s="50" t="s">
         <v>387</v>
@@ -46355,7 +46355,7 @@
         <v>8596.739999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A124" s="102"/>
       <c r="B124" s="50" t="s">
         <v>388</v>
@@ -46463,7 +46463,7 @@
         <v>5240.3999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A125" s="102"/>
       <c r="B125" s="50" t="s">
         <v>389</v>
@@ -46571,7 +46571,7 @@
         <v>1527.3</v>
       </c>
     </row>
-    <row r="126" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A126" s="102"/>
       <c r="B126" s="50" t="s">
         <v>385</v>
@@ -46679,7 +46679,7 @@
         <v>-2341</v>
       </c>
     </row>
-    <row r="127" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A127" s="102"/>
       <c r="B127" s="50" t="s">
         <v>390</v>
@@ -46787,7 +46787,7 @@
         <v>628.5</v>
       </c>
     </row>
-    <row r="128" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A128" s="102"/>
       <c r="B128" s="50" t="s">
         <v>391</v>
@@ -46895,7 +46895,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="129" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A129" s="102"/>
       <c r="B129" s="50" t="s">
         <v>392</v>
@@ -47003,7 +47003,7 @@
         <v>3799.8</v>
       </c>
     </row>
-    <row r="130" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A130" s="102"/>
       <c r="B130" s="50" t="s">
         <v>78</v>
@@ -47111,7 +47111,7 @@
         <v>-1583.4</v>
       </c>
     </row>
-    <row r="131" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A131" s="102"/>
       <c r="B131" s="50" t="s">
         <v>393</v>
@@ -47219,7 +47219,7 @@
         <v>-3055</v>
       </c>
     </row>
-    <row r="132" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="50" t="s">
         <v>302</v>
       </c>
@@ -47476,7 +47476,7 @@
         <v>4240.0999999999985</v>
       </c>
     </row>
-    <row r="133" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:166" x14ac:dyDescent="0.15">
       <c r="DC133" s="51"/>
       <c r="DD133" s="51"/>
       <c r="DJ133" s="51"/>
@@ -47484,7 +47484,7 @@
       <c r="FH133" s="49"/>
       <c r="FI133" s="49"/>
     </row>
-    <row r="134" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B134" s="50" t="s">
         <v>394</v>
       </c>
@@ -47591,7 +47591,7 @@
         <v>-3447.6000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B135" s="50" t="s">
         <v>391</v>
       </c>
@@ -47704,7 +47704,7 @@
         <v>-128.69999999999993</v>
       </c>
     </row>
-    <row r="136" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B136" s="50" t="s">
         <v>395</v>
       </c>
@@ -47814,7 +47814,7 @@
         <v>-4988.8</v>
       </c>
     </row>
-    <row r="137" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B137" s="50" t="s">
         <v>78</v>
       </c>
@@ -47921,7 +47921,7 @@
         <v>1412.4</v>
       </c>
     </row>
-    <row r="138" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B138" s="50" t="s">
         <v>396</v>
       </c>
@@ -48034,7 +48034,7 @@
         <v>-7152.7</v>
       </c>
     </row>
-    <row r="139" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:166" x14ac:dyDescent="0.15">
       <c r="CW139" s="51"/>
       <c r="DC139" s="51"/>
       <c r="DD139" s="51"/>
@@ -48043,7 +48043,7 @@
       <c r="FH139" s="49"/>
       <c r="FI139" s="49"/>
     </row>
-    <row r="140" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B140" s="50" t="s">
         <v>296</v>
       </c>
@@ -48150,7 +48150,7 @@
         <v>-4069.3</v>
       </c>
     </row>
-    <row r="141" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B141" s="50" t="s">
         <v>399</v>
       </c>
@@ -48261,7 +48261,7 @@
         <v>8649.9</v>
       </c>
     </row>
-    <row r="142" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B142" s="38" t="s">
         <v>398</v>
       </c>
@@ -48368,7 +48368,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="143" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B143" s="38" t="s">
         <v>78</v>
       </c>
@@ -48475,7 +48475,7 @@
         <v>-335</v>
       </c>
     </row>
-    <row r="144" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:166" x14ac:dyDescent="0.15">
       <c r="B144" s="38" t="s">
         <v>397</v>
       </c>
@@ -48588,7 +48588,7 @@
         <v>3495.5999999999995</v>
       </c>
     </row>
-    <row r="145" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:166" x14ac:dyDescent="0.15">
       <c r="B145" s="38" t="s">
         <v>400</v>
       </c>
@@ -48695,7 +48695,7 @@
         <v>168.60000000000002</v>
       </c>
     </row>
-    <row r="146" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:166" x14ac:dyDescent="0.15">
       <c r="B146" s="38" t="s">
         <v>401</v>
       </c>
@@ -48808,13 +48808,13 @@
         <v>3664.1999999999994</v>
       </c>
     </row>
-    <row r="147" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:166" x14ac:dyDescent="0.15">
       <c r="DN147" s="51"/>
       <c r="FG147" s="49"/>
       <c r="FH147" s="49"/>
       <c r="FI147" s="49"/>
     </row>
-    <row r="148" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:166" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>493</v>
       </c>
@@ -48853,7 +48853,7 @@
       <c r="FH148" s="49"/>
       <c r="FI148" s="49"/>
     </row>
-    <row r="149" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:166" x14ac:dyDescent="0.15">
       <c r="B149" s="38" t="s">
         <v>755</v>
       </c>
@@ -48906,7 +48906,7 @@
       <c r="FH149" s="49"/>
       <c r="FI149" s="49"/>
     </row>
-    <row r="150" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:166" x14ac:dyDescent="0.15">
       <c r="B150" s="38" t="s">
         <v>173</v>
       </c>
@@ -48974,7 +48974,7 @@
       <c r="FH150" s="49"/>
       <c r="FI150" s="49"/>
     </row>
-    <row r="151" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:166" x14ac:dyDescent="0.15">
       <c r="B151" s="38" t="s">
         <v>790</v>
       </c>
@@ -49011,15 +49011,15 @@
       <c r="FH151" s="49"/>
       <c r="FI151" s="49"/>
     </row>
-    <row r="152" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:166" x14ac:dyDescent="0.15">
       <c r="FH152" s="49"/>
       <c r="FI152" s="49"/>
     </row>
-    <row r="153" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:166" x14ac:dyDescent="0.15">
       <c r="FH153" s="49"/>
       <c r="FI153" s="49"/>
     </row>
-    <row r="163" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B163" s="50" t="s">
         <v>979</v>
       </c>
@@ -49167,7 +49167,7 @@
       <c r="FC163" s="51"/>
       <c r="FD163" s="51"/>
     </row>
-    <row r="164" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B164" s="50" t="s">
         <v>980</v>
       </c>
@@ -49315,7 +49315,7 @@
       <c r="FC164" s="51"/>
       <c r="FD164" s="51"/>
     </row>
-    <row r="165" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B165" s="50" t="s">
         <v>981</v>
       </c>
@@ -49463,7 +49463,7 @@
       <c r="FC165" s="51"/>
       <c r="FD165" s="51"/>
     </row>
-    <row r="166" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B166" s="50" t="s">
         <v>552</v>
       </c>
@@ -49611,7 +49611,7 @@
       <c r="FC166" s="51"/>
       <c r="FD166" s="51"/>
     </row>
-    <row r="167" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B167" s="50" t="s">
         <v>982</v>
       </c>
@@ -49783,23 +49783,23 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="6.85546875" style="47" customWidth="1"/>
-    <col min="14" max="42" width="5.28515625" customWidth="1"/>
-    <col min="43" max="50" width="5.42578125" customWidth="1"/>
-    <col min="52" max="71" width="7.42578125" customWidth="1"/>
-    <col min="72" max="75" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.83203125" style="47" customWidth="1"/>
+    <col min="14" max="42" width="5.33203125" customWidth="1"/>
+    <col min="43" max="50" width="5.5" customWidth="1"/>
+    <col min="52" max="71" width="7.5" customWidth="1"/>
+    <col min="72" max="75" width="6.83203125" customWidth="1"/>
     <col min="76" max="118" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:169" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -50300,7 +50300,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="3" spans="1:169" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:169" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="55" t="s">
         <v>645</v>
       </c>
@@ -50722,7 +50722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -50773,7 +50773,7 @@
       <c r="AW4" s="48"/>
       <c r="AX4" s="48"/>
     </row>
-    <row r="5" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>70</v>
       </c>
@@ -50787,7 +50787,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>569</v>
       </c>
@@ -50801,7 +50801,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B7" s="38" t="s">
         <v>573</v>
       </c>
@@ -50815,7 +50815,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B8" s="38" t="s">
         <v>365</v>
       </c>
@@ -51136,7 +51136,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>570</v>
       </c>
@@ -51150,7 +51150,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B10" s="38" t="s">
         <v>572</v>
       </c>
@@ -51428,7 +51428,7 @@
       <c r="DK10" s="85"/>
       <c r="DL10" s="85"/>
     </row>
-    <row r="11" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B11" s="38" t="s">
         <v>571</v>
       </c>
@@ -51655,7 +51655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B12" s="38" t="s">
         <v>574</v>
       </c>
@@ -51714,7 +51714,7 @@
       <c r="CW12" s="49"/>
       <c r="CX12" s="49"/>
     </row>
-    <row r="13" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B13" s="38" t="s">
         <v>506</v>
       </c>
@@ -51898,7 +51898,7 @@
       <c r="DD13" s="49"/>
       <c r="DE13" s="49"/>
     </row>
-    <row r="14" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B14" s="38" t="s">
         <v>525</v>
       </c>
@@ -52020,13 +52020,13 @@
         <v>175.8</v>
       </c>
     </row>
-    <row r="15" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="83"/>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:169" x14ac:dyDescent="0.15">
       <c r="B16" s="38" t="s">
         <v>579</v>
       </c>
@@ -52037,7 +52037,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B17" s="38" t="s">
         <v>584</v>
       </c>
@@ -52048,12 +52048,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
       <c r="C18" s="38" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B19" s="38" t="s">
         <v>586</v>
       </c>
@@ -52067,7 +52067,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>590</v>
       </c>
@@ -52078,12 +52078,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
       <c r="C21" s="38" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B22" s="38" t="s">
         <v>593</v>
       </c>
@@ -52175,7 +52175,7 @@
         <v>36759.942857142858</v>
       </c>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
       <c r="C23" s="38" t="s">
         <v>594</v>
       </c>
@@ -52243,7 +52243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
       <c r="C24" s="38" t="s">
         <v>596</v>
       </c>
@@ -52332,7 +52332,7 @@
         <v>7351.988571428572</v>
       </c>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B25" s="38" t="s">
         <v>595</v>
       </c>
@@ -52421,32 +52421,32 @@
         <v>5513.9914285714294</v>
       </c>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B26" s="38" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B27" s="38" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
       <c r="E28" s="38" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
       <c r="E29" s="38" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
       <c r="E30" s="38" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B31" s="38" t="s">
         <v>602</v>
       </c>
@@ -52454,12 +52454,12 @@
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
       <c r="C32" s="38" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="35" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:72" x14ac:dyDescent="0.15">
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -52520,7 +52520,7 @@
       <c r="AF35" s="84"/>
       <c r="AG35" s="84"/>
     </row>
-    <row r="36" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:72" x14ac:dyDescent="0.15">
       <c r="N36" s="47">
         <f t="shared" ref="N36:AA36" si="37">+N35/7</f>
         <v>0</v>
@@ -52602,7 +52602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:72" x14ac:dyDescent="0.15">
       <c r="G40" s="47">
         <v>540</v>
       </c>
@@ -52670,7 +52670,7 @@
         <v>30065</v>
       </c>
     </row>
-    <row r="41" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:72" x14ac:dyDescent="0.15">
       <c r="G41" s="47">
         <f>+G40/7</f>
         <v>77.142857142857139</v>
@@ -52760,16 +52760,16 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="46" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:72" x14ac:dyDescent="0.15">
       <c r="BT46" s="49"/>
     </row>
-    <row r="47" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:72" x14ac:dyDescent="0.15">
       <c r="BT47" s="49"/>
     </row>
-    <row r="48" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:72" x14ac:dyDescent="0.15">
       <c r="BT48" s="49"/>
     </row>
-    <row r="49" spans="72:72" x14ac:dyDescent="0.2">
+    <row r="49" spans="72:72" x14ac:dyDescent="0.15">
       <c r="BT49" s="49"/>
     </row>
   </sheetData>
@@ -52788,15 +52788,15 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="10" width="8.28515625" style="53" customWidth="1"/>
-    <col min="11" max="12" width="6.42578125" customWidth="1"/>
+    <col min="3" max="10" width="8.33203125" style="53" customWidth="1"/>
+    <col min="11" max="12" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -52805,7 +52805,7 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>675</v>
@@ -52823,7 +52823,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>662</v>
       </c>
@@ -52852,7 +52852,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>663</v>
       </c>
@@ -52884,7 +52884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>664</v>
       </c>
@@ -52916,7 +52916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>665</v>
       </c>
@@ -52949,7 +52949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="38" t="s">
         <v>666</v>
       </c>
@@ -52979,7 +52979,7 @@
       </c>
       <c r="L7" s="89"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="38" t="s">
         <v>667</v>
       </c>
@@ -53008,7 +53008,7 @@
         <v>247.94000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>668</v>
       </c>
@@ -53037,7 +53037,7 @@
         <v>236.06</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="38" t="s">
         <v>669</v>
       </c>
@@ -53066,13 +53066,13 @@
         <v>212.96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="38" t="s">
         <v>678</v>
       </c>
@@ -53081,7 +53081,7 @@
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="38" t="s">
         <v>662</v>
       </c>
@@ -53110,7 +53110,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="38" t="s">
         <v>663</v>
       </c>
@@ -53139,7 +53139,7 @@
         <v>282.3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="38" t="s">
         <v>664</v>
       </c>
@@ -53168,7 +53168,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="38" t="s">
         <v>665</v>
       </c>
@@ -53197,7 +53197,7 @@
         <v>293.89999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="38" t="s">
         <v>666</v>
       </c>
@@ -53226,7 +53226,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="38" t="s">
         <v>667</v>
       </c>
@@ -53255,7 +53255,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="38" t="s">
         <v>668</v>
       </c>
@@ -53284,7 +53284,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>669</v>
       </c>
@@ -53313,19 +53313,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="38" t="s">
         <v>680</v>
       </c>
@@ -53345,11 +53345,11 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="38" t="s">
         <v>681</v>
       </c>
@@ -53365,7 +53365,7 @@
       </c>
       <c r="J25" s="71"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="38" t="s">
         <v>682</v>
       </c>
@@ -53381,7 +53381,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C27" s="54"/>
       <c r="G27" s="71">
         <f>9.2+11.9</f>
@@ -53391,7 +53391,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="G28" s="53">
         <v>11.9</v>
       </c>
@@ -53413,18 +53413,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -53432,7 +53432,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -53440,7 +53440,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>847</v>
       </c>
@@ -53448,12 +53448,12 @@
         <v>885</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="38" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>872</v>
       </c>
@@ -53461,27 +53461,27 @@
         <v>891</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="20" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="38" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="20" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="38" t="s">
         <v>890</v>
       </c>
@@ -53500,18 +53500,18 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -53519,7 +53519,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -53527,7 +53527,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -53535,7 +53535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -53559,17 +53559,17 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -53577,7 +53577,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -53585,7 +53585,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -53593,7 +53593,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -53601,7 +53601,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>923</v>
       </c>
@@ -53609,41 +53609,41 @@
         <v>924</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="20" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="38" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="20" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="20" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="38" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="38" t="s">
         <v>917</v>
       </c>
@@ -53657,6 +53657,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -53770,33 +53785,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -53817,9 +53809,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B5D998-E69E-4FDE-BB78-A3B73265781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB3B66-F06B-431F-A67F-47BE8CD81EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25665" yWindow="510" windowWidth="25080" windowHeight="19755" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -6669,20 +6669,20 @@
       <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>68</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="H3" s="38"/>
       <c r="J3" s="38"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>992</v>
       </c>
@@ -6736,7 +6736,7 @@
       <c r="H4" s="38"/>
       <c r="J4" s="38"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>987</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>792</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>758</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>277</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>454</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>478</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>63</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>547</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
         <v>797</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="110" t="s">
         <v>983</v>
       </c>
@@ -6882,7 +6882,7 @@
       <c r="E15" s="38"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>798</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="E16" s="38"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>14</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
         <v>73</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="G18" s="30"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="38" t="s">
         <v>370</v>
       </c>
@@ -6939,7 +6939,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
         <v>800</v>
       </c>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="38" t="s">
         <v>753</v>
       </c>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
         <v>71</v>
       </c>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="110" t="s">
         <v>984</v>
       </c>
@@ -6981,7 +6981,7 @@
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
         <v>773</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>261</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>784</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>981</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>375</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
         <v>17</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>545</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>55</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
         <v>494</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="38" t="s">
         <v>994</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="38" t="s">
         <v>990</v>
       </c>
@@ -7103,7 +7103,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="38" t="s">
         <v>54</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="38" t="s">
         <v>985</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="38" t="s">
         <v>69</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="38" t="s">
         <v>57</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="38" t="s">
         <v>760</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
         <v>368</v>
       </c>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="38" t="s">
         <v>996</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
         <v>756</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="38" t="s">
         <v>766</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="38" t="s">
         <v>771</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="38" t="s">
         <v>772</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="38" t="s">
         <v>507</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="38" t="s">
         <v>407</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="38" t="s">
         <v>64</v>
       </c>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="38" t="s">
         <v>986</v>
       </c>
@@ -7280,7 +7280,7 @@
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="38" t="s">
         <v>788</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="38" t="s">
         <v>812</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="38" t="s">
         <v>755</v>
       </c>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="38" t="s">
         <v>440</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="38" t="s">
         <v>781</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="38" t="s">
         <v>418</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
         <v>508</v>
       </c>
@@ -7373,7 +7373,7 @@
       <c r="F56" s="38"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="38" t="s">
         <v>988</v>
       </c>
@@ -7383,7 +7383,7 @@
       <c r="F57" s="38"/>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="38" t="s">
         <v>61</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="F58" s="38"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="38" t="s">
         <v>495</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="38" t="s">
         <v>72</v>
       </c>
@@ -7427,7 +7427,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="38" t="s">
         <v>377</v>
       </c>
@@ -7437,7 +7437,7 @@
       <c r="F61" s="38"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>455</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="F62" s="38"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
         <v>993</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="F63" s="38"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="38" t="s">
         <v>15</v>
       </c>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="38" t="s">
         <v>41</v>
       </c>
@@ -7482,14 +7482,14 @@
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="38" t="s">
         <v>995</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="38" t="s">
         <v>443</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="38" t="s">
         <v>989</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="E68" s="38"/>
       <c r="F68" s="77"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="38" t="s">
         <v>770</v>
       </c>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="F69" s="77"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="38" t="s">
         <v>492</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="E70" s="38"/>
       <c r="F70" s="77"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="38" t="s">
         <v>463</v>
       </c>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="F71" s="77"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="38" t="s">
         <v>66</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="38" t="s">
         <v>783</v>
       </c>
@@ -7584,7 +7584,7 @@
       <c r="F73" s="77"/>
       <c r="H73" s="38"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="38" t="s">
         <v>369</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="E74" s="38"/>
       <c r="F74" s="77"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="38" t="s">
         <v>991</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="E75" s="38"/>
       <c r="F75" s="77"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="38" t="s">
         <v>416</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="38" t="s">
         <v>7</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="36" t="s">
         <v>448</v>
       </c>
@@ -7641,7 +7641,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="36" t="s">
         <v>449</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="G79" s="7"/>
       <c r="J79" s="21"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="38" t="s">
         <v>402</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="38"/>
       <c r="C87" s="38" t="s">
         <v>481</v>
@@ -7692,7 +7692,7 @@
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C88" s="38" t="s">
         <v>404</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C89" s="38" t="s">
         <v>49</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>25</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C91" s="38" t="s">
         <v>322</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="38"/>
       <c r="C92" s="38" t="s">
         <v>323</v>
@@ -7757,12 +7757,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="38" t="s">
         <v>432</v>
       </c>
@@ -7773,17 +7773,17 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="38" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C97" s="38" t="s">
         <v>473</v>
       </c>
@@ -7791,17 +7791,17 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="38"/>
       <c r="C100" t="s">
         <v>476</v>
@@ -7810,27 +7810,27 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="38"/>
       <c r="C102" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="38"/>
       <c r="C103" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="38"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="38" t="s">
         <v>238</v>
       </c>
@@ -7844,12 +7844,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C106" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>160</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="36" t="s">
         <v>178</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C109" s="36" t="s">
         <v>276</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>204</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="36" t="s">
         <v>309</v>
       </c>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="36" t="s">
         <v>306</v>
       </c>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>134</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>188</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="45" t="s">
         <v>23</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>1072</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="38"/>
       <c r="C117" s="38" t="s">
         <v>725</v>
@@ -8030,7 +8030,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>720</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E119" s="6" t="s">
         <v>1107</v>
       </c>
@@ -8065,18 +8065,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>868</v>
       </c>
@@ -8116,121 +8116,121 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
       <c r="C12" s="20" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="38"/>
       <c r="C14" s="20" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="38"/>
       <c r="C16" s="20" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="38"/>
       <c r="C19" s="20" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="38"/>
       <c r="C23" s="20" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="38"/>
       <c r="C25" s="20" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="38"/>
       <c r="C27" s="20" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="20" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
         <v>1142</v>
       </c>
@@ -8251,18 +8251,18 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>843</v>
       </c>
@@ -8286,12 +8286,12 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="38" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>1018</v>
       </c>
@@ -8299,15 +8299,15 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="38" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="38"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>868</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>1012</v>
       </c>
@@ -8323,37 +8323,37 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="20" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C17" s="20" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="20" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="20" t="s">
         <v>1016</v>
       </c>
@@ -8372,18 +8372,18 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>48</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>405</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>843</v>
       </c>
@@ -8415,94 +8415,94 @@
         <v>844</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="38" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="20" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="38" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="38" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="38" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="38" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="20" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="38" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="38" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="38" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="20" t="s">
         <v>997</v>
       </c>
@@ -8522,18 +8522,18 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>51</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>868</v>
       </c>
@@ -8557,92 +8557,92 @@
         <v>904</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="38" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="38" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="38" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="38" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="20" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="38" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="38" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="20" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="38" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="38" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="38" t="s">
         <v>931</v>
       </c>
@@ -8661,19 +8661,19 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8705,27 +8705,27 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="20" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="38" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="38" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="38" t="s">
         <v>1026</v>
       </c>
@@ -8746,18 +8746,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>843</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>2</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>868</v>
       </c>
@@ -8813,89 +8813,89 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="38" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="38" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="38" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="20" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="38" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="20" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C25" s="20" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="38" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="38"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="20" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="38" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="38"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="38" t="s">
         <v>864</v>
       </c>
@@ -8914,18 +8914,18 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>539</v>
       </c>
@@ -8965,61 +8965,61 @@
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
       <c r="C11" s="38" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="38"/>
       <c r="C12" s="38" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="20" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="38" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
         <v>538</v>
       </c>
@@ -9038,17 +9038,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>402</v>
@@ -9057,22 +9057,22 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>553</v>
       </c>
@@ -9091,18 +9091,18 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>868</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
@@ -9150,22 +9150,22 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="20" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="38" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="38" t="s">
         <v>1047</v>
       </c>
@@ -9185,19 +9185,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>50</v>
@@ -9206,7 +9206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>48</v>
@@ -9215,7 +9215,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -9224,37 +9224,37 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>254</v>
       </c>
@@ -9281,17 +9281,17 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>941</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>12122750</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>12115210</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>12102610</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>12083324</v>
       </c>
@@ -9352,7 +9352,7 @@
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>12071423</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>12060356</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>12059557</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>12059452</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>12042634</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12037406</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12037387</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12037322</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12023470</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12011574</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>12005235</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11999722</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11993608</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11976136</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11976114</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11970485</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11964968</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11957882</v>
       </c>
@@ -9528,18 +9528,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -9563,17 +9563,17 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>233</v>
       </c>
@@ -9594,17 +9594,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -9634,18 +9634,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9672,19 +9672,19 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
@@ -9693,55 +9693,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="29">
         <v>38338</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>2004</v>
       </c>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -9784,7 +9784,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
@@ -9796,7 +9796,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -9804,7 +9804,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -9812,7 +9812,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -9820,7 +9820,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -9828,7 +9828,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
         <v>165</v>
@@ -9840,7 +9840,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="30">
         <f>C25-7</f>
         <v>39227</v>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="30">
         <v>38869</v>
       </c>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -9903,18 +9903,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9939,18 +9939,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9975,21 +9975,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="23.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -10005,22 +10005,22 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10028,38 +10028,38 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="26"/>
       <c r="D18" s="24" t="s">
         <v>55</v>
@@ -10071,7 +10071,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="27" t="s">
         <v>157</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>139</v>
       </c>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
@@ -10109,12 +10109,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C23" s="19" t="s">
         <v>140</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>142</v>
       </c>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
@@ -10176,12 +10176,12 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="19" t="s">
         <v>146</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="28" t="s">
         <v>147</v>
       </c>
@@ -10225,20 +10225,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10278,22 +10278,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>164</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="43">
         <v>40165</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>53829</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="43">
         <f t="shared" ref="C14:C20" si="0">C13-7</f>
         <v>40158</v>
@@ -10328,7 +10328,7 @@
         <v>52891</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="43">
         <f t="shared" si="0"/>
         <v>40151</v>
@@ -10340,7 +10340,7 @@
         <v>56775</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="43">
         <f t="shared" si="0"/>
         <v>40144</v>
@@ -10352,7 +10352,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="43">
         <f t="shared" si="0"/>
         <v>40137</v>
@@ -10364,7 +10364,7 @@
         <v>53770</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="43">
         <f t="shared" si="0"/>
         <v>40130</v>
@@ -10376,7 +10376,7 @@
         <v>51112</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="43">
         <f t="shared" si="0"/>
         <v>40123</v>
@@ -10388,7 +10388,7 @@
         <v>54445</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="43">
         <f t="shared" si="0"/>
         <v>40116</v>
@@ -10400,7 +10400,7 @@
         <v>51865</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="43">
         <v>39234</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>50496</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="43">
         <f>C21-7</f>
         <v>39227</v>
@@ -10423,7 +10423,7 @@
         <v>53736</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="43">
         <f>C21-365</f>
         <v>38869</v>
@@ -10453,18 +10453,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -10496,22 +10496,22 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="20" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="20" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="38" t="s">
         <v>1084</v>
       </c>
@@ -10531,19 +10531,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
@@ -10591,32 +10591,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="21"/>
     </row>
   </sheetData>
@@ -10638,26 +10638,26 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>505</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>517</v>
       </c>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>502</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="68" t="s">
         <v>469</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>420</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>772461.76687199995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>312</v>
       </c>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>421</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
         <v>548</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>531</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>488</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
         <v>485</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>484</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>439</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>521</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
         <v>471</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>468</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>523</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>840</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="36" t="s">
         <v>57</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
         <v>433</v>
       </c>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -11131,7 +11131,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>998</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>727</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>565</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>564</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>711</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="36" t="s">
         <v>739</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="36" t="s">
         <v>707</v>
       </c>
@@ -11267,7 +11267,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="36" t="s">
         <v>736</v>
       </c>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="112" t="s">
         <v>562</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="36" t="s">
         <v>563</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="36" t="s">
         <v>906</v>
       </c>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
         <v>710</v>
       </c>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>713</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="36" t="s">
         <v>715</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="37" t="s">
         <v>719</v>
@@ -11398,7 +11398,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="36" t="s">
         <v>716</v>
       </c>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="36" t="s">
         <v>1088</v>
       </c>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
         <v>1092</v>
       </c>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="36" t="s">
         <v>721</v>
       </c>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
       <c r="C43" s="37" t="s">
         <v>445</v>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="36" t="s">
         <v>724</v>
       </c>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="36" t="s">
         <v>979</v>
       </c>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="36" t="s">
         <v>726</v>
       </c>
@@ -11512,7 +11512,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="36" t="s">
         <v>733</v>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="36"/>
       <c r="C48" s="37" t="s">
         <v>194</v>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
         <v>1068</v>
       </c>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="116" t="s">
         <v>1070</v>
       </c>
@@ -11574,7 +11574,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="36" t="s">
         <v>734</v>
       </c>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="36" t="s">
         <v>1091</v>
       </c>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
         <v>1096</v>
       </c>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="36" t="s">
         <v>1094</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="36"/>
       <c r="C55" s="37" t="s">
         <v>1099</v>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="116" t="s">
         <v>1104</v>
       </c>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="116"/>
       <c r="C57" s="37" t="s">
         <v>518</v>
@@ -11680,7 +11680,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="116"/>
       <c r="C58" s="37" t="s">
         <v>518</v>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="116"/>
       <c r="C59" s="37" t="s">
         <v>451</v>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="116"/>
       <c r="C60" s="37" t="s">
         <v>451</v>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="116"/>
       <c r="C61" s="37" t="s">
         <v>451</v>
@@ -11736,7 +11736,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="116"/>
       <c r="C62" s="37" t="s">
         <v>1108</v>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="116"/>
       <c r="C63" s="37" t="s">
         <v>518</v>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="116"/>
       <c r="C64" s="37" t="s">
         <v>1113</v>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="116"/>
       <c r="C65" s="37" t="s">
         <v>116</v>
@@ -11790,7 +11790,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="116"/>
       <c r="C66" s="37" t="s">
         <v>120</v>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="116"/>
       <c r="C67" s="37" t="s">
         <v>451</v>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="116"/>
       <c r="C68" s="37" t="s">
         <v>1114</v>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="116"/>
       <c r="C69" s="37" t="s">
         <v>1099</v>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="116"/>
       <c r="C70" s="37" t="s">
         <v>1113</v>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="116"/>
       <c r="C71" s="37" t="s">
         <v>1060</v>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="116" t="s">
         <v>1118</v>
       </c>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="116"/>
       <c r="C73" s="37" t="s">
         <v>518</v>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="116"/>
       <c r="C74" s="37" t="s">
         <v>1114</v>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="36" t="s">
         <v>1100</v>
       </c>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="36" t="s">
         <v>561</v>
       </c>
@@ -11949,7 +11949,7 @@
       <c r="G76" s="7"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="36" t="s">
         <v>729</v>
       </c>
@@ -11966,7 +11966,7 @@
       <c r="G77" s="7"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="69" t="s">
         <v>526</v>
       </c>
@@ -11980,232 +11980,232 @@
       </c>
       <c r="G78" s="10"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="E80" s="33" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E81" s="33" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E82" s="33" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E83" s="33" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E84" s="33" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E85" s="33" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E86" s="33" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E87" s="33" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E88" s="33" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E89" s="33" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E90" s="33" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E91" s="33" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E92" s="33" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E93" s="33" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E94" s="33" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E95" s="33" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E96" s="33" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E97" s="33" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E98" s="33" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E99" s="33" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E100" s="33" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E101" s="33" t="s">
         <v>877</v>
       </c>
       <c r="F101" s="33"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E102" s="33" t="s">
         <v>878</v>
       </c>
       <c r="F102" s="34"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E103" s="33" t="s">
         <v>886</v>
       </c>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E104" s="33" t="s">
         <v>887</v>
       </c>
       <c r="F104" s="34"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E105" s="33" t="s">
         <v>889</v>
       </c>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E106" s="33" t="s">
         <v>893</v>
       </c>
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E107" s="33" t="s">
         <v>894</v>
       </c>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E108" s="33" t="s">
         <v>897</v>
       </c>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E109" s="33" t="s">
         <v>898</v>
       </c>
       <c r="F109" s="34"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E110" s="33" t="s">
         <v>921</v>
       </c>
       <c r="F110" s="34"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E111" s="33" t="s">
         <v>920</v>
       </c>
       <c r="F111" s="34"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E112" s="33" t="s">
         <v>934</v>
       </c>
       <c r="F112" s="34"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E113" s="33" t="s">
         <v>922</v>
       </c>
       <c r="F113" s="34"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E114" s="33" t="s">
         <v>939</v>
       </c>
       <c r="F114" s="34"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E115" s="33" t="s">
         <v>940</v>
       </c>
       <c r="F115" s="34"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E116" s="33" t="s">
         <v>914</v>
       </c>
       <c r="F116" s="34"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E117" s="33" t="s">
         <v>915</v>
       </c>
       <c r="F117" s="34"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E118" s="33" t="s">
         <v>909</v>
       </c>
       <c r="F118" s="34"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E119" s="33" t="s">
         <v>908</v>
       </c>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E120" s="33" t="s">
         <v>905</v>
       </c>
       <c r="F120" s="34"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B121" s="74"/>
       <c r="C121" s="74"/>
       <c r="E121" s="33" t="s">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="F121" s="33"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B122" s="74"/>
       <c r="C122" s="74"/>
       <c r="E122" s="33" t="s">
@@ -12221,75 +12221,75 @@
       </c>
       <c r="F122" s="33"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B123" s="75"/>
       <c r="E123" s="21" t="s">
         <v>542</v>
       </c>
       <c r="F123" s="33"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="75"/>
       <c r="C124" s="75"/>
       <c r="E124" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="75"/>
       <c r="C125" s="75"/>
       <c r="E125" s="21" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="75"/>
       <c r="C126" s="75"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="75"/>
       <c r="C127" s="75"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="76"/>
       <c r="C128" s="75"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="76"/>
       <c r="C129" s="75"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="76"/>
       <c r="C130" s="75"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="75"/>
       <c r="C131" s="75"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="75"/>
       <c r="C132" s="75"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="76"/>
       <c r="C133" s="75"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="75"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="75"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="75"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C138" s="75"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="75"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C142" s="75"/>
     </row>
   </sheetData>
@@ -12326,20 +12326,20 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -12371,27 +12371,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>131</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>164</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="42">
         <v>40165</v>
@@ -12445,7 +12445,7 @@
         <v>4.2984100816726937E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="42">
         <f t="shared" ref="C14:C20" si="1">C13-7</f>
@@ -12466,7 +12466,7 @@
         <v>3.8681653165078709E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="42">
         <f t="shared" si="1"/>
@@ -12487,7 +12487,7 @@
         <v>3.1254381079652369E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="42">
         <f t="shared" si="1"/>
@@ -12508,7 +12508,7 @@
         <v>3.4584947518294098E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="42">
         <f t="shared" si="1"/>
@@ -12529,7 +12529,7 @@
         <v>3.2099779036147079E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="42">
         <f t="shared" si="1"/>
@@ -12550,7 +12550,7 @@
         <v>2.6363776171540302E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="42">
         <f t="shared" si="1"/>
@@ -12571,7 +12571,7 @@
         <v>2.4831685670414312E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="42">
         <f t="shared" si="1"/>
@@ -12592,11 +12592,11 @@
         <v>2.2489745401572539E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>172</v>
       </c>
@@ -12604,117 +12604,117 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C46" s="16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="21" t="s">
         <v>327</v>
       </c>
@@ -12736,25 +12736,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>48</v>
@@ -12763,7 +12763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -12772,7 +12772,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -12781,28 +12781,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="21" t="s">
         <v>122</v>
       </c>
@@ -12825,23 +12825,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>92</v>
       </c>
@@ -12881,12 +12881,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>114</v>
       </c>
@@ -12908,19 +12908,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -12944,17 +12944,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="16" t="s">
         <v>235</v>
       </c>
@@ -12976,19 +12976,19 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>48</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -13020,42 +13020,42 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>227</v>
       </c>
@@ -13076,41 +13076,41 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IQ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="FP76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="FG70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FZ84" sqref="FZ84"/>
+      <selection pane="bottomRight" activeCell="FK75" sqref="FK75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="53" width="7" style="47" customWidth="1"/>
-    <col min="54" max="54" width="6.5703125" style="47" customWidth="1"/>
+    <col min="54" max="54" width="6.54296875" style="47" customWidth="1"/>
     <col min="55" max="94" width="7" style="47" customWidth="1"/>
-    <col min="95" max="102" width="7.42578125" style="47" customWidth="1"/>
-    <col min="103" max="120" width="7.85546875" style="47" customWidth="1"/>
-    <col min="121" max="126" width="7.42578125" style="47" customWidth="1"/>
-    <col min="127" max="127" width="4.42578125" customWidth="1"/>
-    <col min="128" max="143" width="6.5703125" customWidth="1"/>
-    <col min="144" max="144" width="6.5703125" style="47" customWidth="1"/>
-    <col min="145" max="152" width="7.42578125" style="47" customWidth="1"/>
+    <col min="95" max="102" width="7.453125" style="47" customWidth="1"/>
+    <col min="103" max="120" width="7.81640625" style="47" customWidth="1"/>
+    <col min="121" max="126" width="7.453125" style="47" customWidth="1"/>
+    <col min="127" max="127" width="4.453125" customWidth="1"/>
+    <col min="128" max="143" width="6.54296875" customWidth="1"/>
+    <col min="144" max="144" width="6.54296875" style="47" customWidth="1"/>
+    <col min="145" max="152" width="7.453125" style="47" customWidth="1"/>
     <col min="153" max="153" width="7" style="47" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="8.140625" style="47" customWidth="1"/>
+    <col min="154" max="154" width="8.1796875" style="47" customWidth="1"/>
     <col min="155" max="155" width="7" style="47" customWidth="1"/>
     <col min="156" max="156" width="9" style="47" customWidth="1"/>
     <col min="157" max="157" width="7" style="47" customWidth="1"/>
-    <col min="158" max="160" width="7.42578125" style="47" customWidth="1"/>
-    <col min="161" max="168" width="7.42578125" customWidth="1"/>
-    <col min="169" max="170" width="7.140625" customWidth="1"/>
-    <col min="171" max="172" width="8.140625" customWidth="1"/>
-    <col min="173" max="178" width="7.7109375" customWidth="1"/>
-    <col min="181" max="181" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="160" width="7.453125" style="47" customWidth="1"/>
+    <col min="161" max="168" width="7.453125" customWidth="1"/>
+    <col min="169" max="170" width="7.1796875" customWidth="1"/>
+    <col min="171" max="172" width="8.1796875" customWidth="1"/>
+    <col min="173" max="178" width="7.7265625" customWidth="1"/>
+    <col min="181" max="181" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
@@ -13151,7 +13151,7 @@
       <c r="ES1" s="99"/>
       <c r="ET1" s="99"/>
     </row>
-    <row r="2" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="C2" s="48" t="s">
         <v>836</v>
@@ -13692,7 +13692,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:178" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="102"/>
       <c r="B3" s="38" t="s">
         <v>118</v>
@@ -14074,7 +14074,7 @@
         <v>115679.78085893672</v>
       </c>
     </row>
-    <row r="4" spans="1:178" s="102" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:178" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
       <c r="E4" s="103"/>
@@ -14217,7 +14217,7 @@
       <c r="FC4" s="99"/>
       <c r="FD4" s="99"/>
     </row>
-    <row r="5" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="50" t="s">
         <v>365</v>
@@ -14557,7 +14557,7 @@
         <v>466.19293017702432</v>
       </c>
     </row>
-    <row r="6" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98"/>
       <c r="B6" s="50" t="s">
         <v>506</v>
@@ -14815,7 +14815,7 @@
         <v>34703.40715136064</v>
       </c>
     </row>
-    <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="50" t="s">
         <v>525</v>
@@ -15058,7 +15058,7 @@
         <v>47810.180777399059</v>
       </c>
     </row>
-    <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98"/>
       <c r="B8" s="50" t="s">
         <v>564</v>
@@ -15261,7 +15261,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="50" t="s">
         <v>711</v>
@@ -15463,7 +15463,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="10" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98"/>
       <c r="B10" s="50" t="s">
         <v>376</v>
@@ -15678,7 +15678,7 @@
       <c r="FP10" s="98"/>
       <c r="FQ10" s="98"/>
     </row>
-    <row r="11" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A11" s="102"/>
       <c r="B11" s="38" t="s">
         <v>372</v>
@@ -16003,7 +16003,7 @@
         <v>8347.3574746316845</v>
       </c>
     </row>
-    <row r="12" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
       <c r="B12" s="38" t="s">
         <v>369</v>
@@ -16313,7 +16313,7 @@
         <v>5.736417015861842E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A13" s="102"/>
       <c r="B13" s="50" t="s">
         <v>998</v>
@@ -16523,7 +16523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="38" t="s">
         <v>368</v>
@@ -16861,7 +16861,7 @@
         <v>4.8324883200000033E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A15" s="102"/>
       <c r="B15" t="s">
         <v>54</v>
@@ -17398,7 +17398,7 @@
         <v>1238.4274851206624</v>
       </c>
     </row>
-    <row r="16" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A16" s="102"/>
       <c r="B16" t="s">
         <v>19</v>
@@ -17852,7 +17852,7 @@
         <v>0.173828125</v>
       </c>
     </row>
-    <row r="17" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A17" s="102"/>
       <c r="B17" t="s">
         <v>57</v>
@@ -18407,7 +18407,7 @@
         <v>493.95797487166249</v>
       </c>
     </row>
-    <row r="18" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A18" s="102"/>
       <c r="B18" s="38" t="s">
         <v>565</v>
@@ -18619,7 +18619,7 @@
         <v>246.97898743583124</v>
       </c>
     </row>
-    <row r="19" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A19" s="102"/>
       <c r="B19" s="38" t="s">
         <v>373</v>
@@ -18935,7 +18935,7 @@
         <v>9.7754340699400056E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A20" s="102"/>
       <c r="B20" s="38" t="s">
         <v>370</v>
@@ -19279,7 +19279,7 @@
         <v>579.8168519584458</v>
       </c>
     </row>
-    <row r="21" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A21" s="102"/>
       <c r="B21" t="s">
         <v>18</v>
@@ -19753,7 +19753,7 @@
         <v>138.52994425173006</v>
       </c>
     </row>
-    <row r="22" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A22" s="102"/>
       <c r="B22" s="38" t="s">
         <v>366</v>
@@ -20087,7 +20087,7 @@
         <v>238.91446715652003</v>
       </c>
     </row>
-    <row r="23" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A23" s="102"/>
       <c r="B23" s="38" t="s">
         <v>375</v>
@@ -20394,7 +20394,7 @@
         <v>1002.8212549554335</v>
       </c>
     </row>
-    <row r="24" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A24" s="102"/>
       <c r="B24" s="38" t="s">
         <v>367</v>
@@ -20715,7 +20715,7 @@
         <v>122.73481091520004</v>
       </c>
     </row>
-    <row r="25" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A25" s="102"/>
       <c r="B25" s="38" t="s">
         <v>256</v>
@@ -21101,7 +21101,7 @@
         <v>210.11362800426002</v>
       </c>
     </row>
-    <row r="26" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A26" s="102"/>
       <c r="B26" t="s">
         <v>77</v>
@@ -21421,7 +21421,7 @@
         <v>89.680094793720016</v>
       </c>
     </row>
-    <row r="27" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A27" s="102"/>
       <c r="B27" t="s">
         <v>16</v>
@@ -21886,7 +21886,7 @@
         <v>127.54657338858006</v>
       </c>
     </row>
-    <row r="28" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A28" s="102"/>
       <c r="B28" t="s">
         <v>78</v>
@@ -22261,7 +22261,7 @@
         <v>68.898859763760029</v>
       </c>
     </row>
-    <row r="29" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A29" s="102"/>
       <c r="B29" t="s">
         <v>7</v>
@@ -22776,7 +22776,7 @@
         <v>11.053106551170002</v>
       </c>
     </row>
-    <row r="30" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A30" s="102"/>
       <c r="B30" s="38" t="s">
         <v>371</v>
@@ -23074,7 +23074,7 @@
         <v>175.55959459035</v>
       </c>
     </row>
-    <row r="31" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A31" s="102"/>
       <c r="B31" t="s">
         <v>14</v>
@@ -23514,7 +23514,7 @@
         <v>62.343705089880032</v>
       </c>
     </row>
-    <row r="32" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A32" s="102"/>
       <c r="B32" t="s">
         <v>492</v>
@@ -23842,7 +23842,7 @@
         <v>127.89525182868002</v>
       </c>
     </row>
-    <row r="33" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A33" s="102"/>
       <c r="B33" t="s">
         <v>62</v>
@@ -24161,7 +24161,7 @@
         <v>166.73803005582005</v>
       </c>
     </row>
-    <row r="34" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A34" s="102"/>
       <c r="B34" s="38" t="s">
         <v>377</v>
@@ -24445,7 +24445,7 @@
         <v>1.502308600000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A35" s="102"/>
       <c r="B35" s="38" t="s">
         <v>454</v>
@@ -24686,7 +24686,7 @@
       <c r="FP35" s="49"/>
       <c r="FQ35" s="49"/>
     </row>
-    <row r="36" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A36" s="102"/>
       <c r="B36" s="38" t="s">
         <v>972</v>
@@ -24920,7 +24920,7 @@
         <v>1685.9325990650013</v>
       </c>
     </row>
-    <row r="37" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A37" s="102"/>
       <c r="B37" s="38" t="s">
         <v>879</v>
@@ -25130,7 +25130,7 @@
         <v>1724.2500000000002</v>
       </c>
       <c r="FP37" s="49">
-        <f t="shared" ref="FM37:FV37" si="100">+FO37*1.1</f>
+        <f t="shared" ref="FP37:FV37" si="100">+FO37*1.1</f>
         <v>1896.6750000000004</v>
       </c>
       <c r="FQ37" s="49">
@@ -25158,7 +25158,7 @@
         <v>3360.0754596750021</v>
       </c>
     </row>
-    <row r="38" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A38" s="102"/>
       <c r="B38" s="38" t="s">
         <v>980</v>
@@ -25402,7 +25402,7 @@
         <v>109.50309077004009</v>
       </c>
     </row>
-    <row r="39" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A39" s="102"/>
       <c r="B39" s="38" t="s">
         <v>981</v>
@@ -25646,7 +25646,7 @@
         <v>302.94911933968024</v>
       </c>
     </row>
-    <row r="40" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A40" s="102"/>
       <c r="B40" s="38" t="s">
         <v>853</v>
@@ -25885,7 +25885,7 @@
         <v>336.14902282896014</v>
       </c>
     </row>
-    <row r="41" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A41" s="102"/>
       <c r="B41" s="38" t="s">
         <v>374</v>
@@ -26108,7 +26108,7 @@
       <c r="FP41" s="49"/>
       <c r="FQ41" s="49"/>
     </row>
-    <row r="42" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A42" s="102"/>
       <c r="B42" s="38" t="s">
         <v>494</v>
@@ -26307,7 +26307,7 @@
       <c r="FP42" s="49"/>
       <c r="FQ42" s="49"/>
     </row>
-    <row r="43" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A43" s="102"/>
       <c r="B43" s="38" t="s">
         <v>455</v>
@@ -26532,7 +26532,7 @@
       <c r="FP43" s="49"/>
       <c r="FQ43" s="49"/>
     </row>
-    <row r="44" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A44" s="102"/>
       <c r="B44" t="s">
         <v>15</v>
@@ -26912,7 +26912,7 @@
       <c r="FP44" s="49"/>
       <c r="FQ44" s="49"/>
     </row>
-    <row r="45" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A45" s="102"/>
       <c r="B45" t="s">
         <v>69</v>
@@ -27170,7 +27170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A46" s="102"/>
       <c r="B46" s="38" t="s">
         <v>508</v>
@@ -27357,7 +27357,7 @@
       <c r="FP46" s="49"/>
       <c r="FQ46" s="49"/>
     </row>
-    <row r="47" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A47" s="102"/>
       <c r="B47" s="38" t="s">
         <v>507</v>
@@ -27552,7 +27552,7 @@
       <c r="FP47" s="49"/>
       <c r="FQ47" s="49"/>
     </row>
-    <row r="48" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A48" s="102"/>
       <c r="B48" t="s">
         <v>79</v>
@@ -27883,7 +27883,7 @@
       <c r="FK48" s="49"/>
       <c r="FL48" s="49"/>
     </row>
-    <row r="49" spans="1:168" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:168" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="106"/>
       <c r="B49" s="38" t="s">
         <v>261</v>
@@ -28135,7 +28135,7 @@
       <c r="FK49" s="49"/>
       <c r="FL49" s="49"/>
     </row>
-    <row r="50" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A50" s="102"/>
       <c r="B50" t="s">
         <v>55</v>
@@ -28483,7 +28483,7 @@
       <c r="FK50" s="49"/>
       <c r="FL50" s="49"/>
     </row>
-    <row r="51" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A51" s="102"/>
       <c r="B51" s="38" t="s">
         <v>41</v>
@@ -28659,7 +28659,7 @@
       <c r="FK51" s="49"/>
       <c r="FL51" s="49"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A52" s="102"/>
       <c r="B52" t="s">
         <v>70</v>
@@ -28910,7 +28910,7 @@
       <c r="FK52" s="49"/>
       <c r="FL52" s="49"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A53" s="102"/>
       <c r="B53" t="s">
         <v>61</v>
@@ -29210,7 +29210,7 @@
       <c r="FK53" s="49"/>
       <c r="FL53" s="49"/>
     </row>
-    <row r="54" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A54" s="102"/>
       <c r="B54" t="s">
         <v>63</v>
@@ -29430,7 +29430,7 @@
       <c r="FK54" s="49"/>
       <c r="FL54" s="49"/>
     </row>
-    <row r="55" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A55" s="102"/>
       <c r="B55" t="s">
         <v>64</v>
@@ -29627,7 +29627,7 @@
       <c r="FK55" s="49"/>
       <c r="FL55" s="49"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A56" s="102"/>
       <c r="B56" s="38" t="s">
         <v>758</v>
@@ -29853,7 +29853,7 @@
       <c r="FK56" s="49"/>
       <c r="FL56" s="49"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A57" s="102"/>
       <c r="B57" t="s">
         <v>65</v>
@@ -30041,7 +30041,7 @@
       <c r="FK57" s="49"/>
       <c r="FL57" s="49"/>
     </row>
-    <row r="58" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A58" s="102"/>
       <c r="B58" t="s">
         <v>66</v>
@@ -30231,7 +30231,7 @@
       <c r="FK58" s="49"/>
       <c r="FL58" s="49"/>
     </row>
-    <row r="59" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A59" s="102"/>
       <c r="B59" t="s">
         <v>67</v>
@@ -30422,7 +30422,7 @@
       <c r="FK59" s="49"/>
       <c r="FL59" s="49"/>
     </row>
-    <row r="60" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A60" s="102"/>
       <c r="B60" t="s">
         <v>71</v>
@@ -30608,7 +30608,7 @@
       <c r="FK60" s="49"/>
       <c r="FL60" s="49"/>
     </row>
-    <row r="61" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A61" s="102"/>
       <c r="B61" t="s">
         <v>72</v>
@@ -30881,7 +30881,7 @@
       <c r="FK61" s="49"/>
       <c r="FL61" s="49"/>
     </row>
-    <row r="62" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A62" s="102"/>
       <c r="B62" t="s">
         <v>73</v>
@@ -31069,7 +31069,7 @@
       <c r="FK62" s="49"/>
       <c r="FL62" s="49"/>
     </row>
-    <row r="63" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A63" s="102"/>
       <c r="B63" t="s">
         <v>68</v>
@@ -31302,7 +31302,7 @@
       <c r="FK63" s="49"/>
       <c r="FL63" s="49"/>
     </row>
-    <row r="64" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A64" s="102"/>
       <c r="B64" t="s">
         <v>74</v>
@@ -31529,7 +31529,7 @@
       <c r="FK64" s="49"/>
       <c r="FL64" s="49"/>
     </row>
-    <row r="65" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A65" s="102"/>
       <c r="B65" t="s">
         <v>17</v>
@@ -31893,7 +31893,7 @@
       <c r="FK65" s="49"/>
       <c r="FL65" s="49"/>
     </row>
-    <row r="66" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A66" s="102"/>
       <c r="B66" s="38" t="s">
         <v>238</v>
@@ -32065,7 +32065,7 @@
       <c r="FK66" s="49"/>
       <c r="FL66" s="49"/>
     </row>
-    <row r="67" spans="1:178" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:178" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="106"/>
       <c r="B67" s="38" t="s">
         <v>275</v>
@@ -32237,7 +32237,7 @@
       <c r="FK67" s="49"/>
       <c r="FL67" s="49"/>
     </row>
-    <row r="68" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A68" s="102"/>
       <c r="B68" t="s">
         <v>80</v>
@@ -32499,7 +32499,7 @@
       <c r="FK68" s="49"/>
       <c r="FL68" s="49"/>
     </row>
-    <row r="69" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A69" s="102"/>
       <c r="B69" t="s">
         <v>76</v>
@@ -32685,7 +32685,7 @@
       <c r="FK69" s="49"/>
       <c r="FL69" s="49"/>
     </row>
-    <row r="70" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A70" s="102"/>
       <c r="B70" s="38" t="s">
         <v>249</v>
@@ -32881,7 +32881,7 @@
       <c r="FK70" s="49"/>
       <c r="FL70" s="49"/>
     </row>
-    <row r="71" spans="1:178" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:178" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="107"/>
       <c r="B71" s="55" t="s">
         <v>379</v>
@@ -33557,7 +33557,7 @@
         <v>135023.9451228611</v>
       </c>
     </row>
-    <row r="72" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A72" s="102"/>
       <c r="B72" t="s">
         <v>58</v>
@@ -34008,7 +34008,7 @@
         <v>20253.591768429163</v>
       </c>
     </row>
-    <row r="73" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A73" s="102"/>
       <c r="B73" t="s">
         <v>123</v>
@@ -34555,7 +34555,7 @@
         <v>114770.35335443194</v>
       </c>
     </row>
-    <row r="74" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A74" s="102"/>
       <c r="B74" t="s">
         <v>59</v>
@@ -34999,7 +34999,7 @@
         <v>33755.986280715275</v>
       </c>
     </row>
-    <row r="75" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A75" s="102"/>
       <c r="B75" t="s">
         <v>60</v>
@@ -35390,10 +35390,13 @@
         <v>8707.2000000000007</v>
       </c>
       <c r="FK75" s="49">
-        <f>SUM(Model!DO75:DR75)</f>
+        <f>SUM(DO75:DR75)</f>
         <v>9998.4700000000012</v>
       </c>
-      <c r="FL75" s="49"/>
+      <c r="FL75" s="49">
+        <f>+FK75*1.01</f>
+        <v>10098.454700000002</v>
+      </c>
       <c r="FM75" s="49"/>
       <c r="FN75" s="49"/>
       <c r="FO75" s="49"/>
@@ -35405,7 +35408,7 @@
       <c r="FU75" s="49"/>
       <c r="FV75" s="49"/>
     </row>
-    <row r="76" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A76" s="102"/>
       <c r="B76" s="38" t="s">
         <v>250</v>
@@ -35864,7 +35867,7 @@
       </c>
       <c r="FL76" s="51">
         <f t="shared" ref="FL76" si="180">FL75+FL74</f>
-        <v>15179.99725</v>
+        <v>25278.451950000002</v>
       </c>
       <c r="FM76" s="51">
         <f t="shared" ref="FM76" si="181">FM75+FM74</f>
@@ -35907,7 +35910,7 @@
         <v>33755.986280715275</v>
       </c>
     </row>
-    <row r="77" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A77" s="102"/>
       <c r="B77" s="38" t="s">
         <v>251</v>
@@ -36414,7 +36417,7 @@
       </c>
       <c r="FL77" s="51">
         <f t="shared" ref="FL77" si="210">+FL73-FL76</f>
-        <v>32788.79406</v>
+        <v>22690.339359999998</v>
       </c>
       <c r="FM77" s="51">
         <f t="shared" ref="FM77" si="211">+FM73-FM76</f>
@@ -36457,7 +36460,7 @@
         <v>81014.367073716654</v>
       </c>
     </row>
-    <row r="78" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A78" s="102"/>
       <c r="B78" t="s">
         <v>78</v>
@@ -36863,46 +36866,46 @@
       </c>
       <c r="FM78" s="49">
         <f t="shared" si="218"/>
-        <v>435.45924642272001</v>
+        <v>273.88397122271994</v>
       </c>
       <c r="FN78" s="49">
         <f t="shared" si="218"/>
-        <v>1088.5476626374834</v>
+        <v>924.38718303428334</v>
       </c>
       <c r="FO78" s="49">
         <f t="shared" si="218"/>
-        <v>1920.1242388836831</v>
+        <v>1753.3371916068318</v>
       </c>
       <c r="FP78" s="49">
         <f t="shared" si="218"/>
-        <v>2922.5378741590303</v>
+        <v>2753.082234125749</v>
       </c>
       <c r="FQ78" s="49">
         <f t="shared" si="218"/>
-        <v>4055.3076909266874</v>
+        <v>3883.1407606528737</v>
       </c>
       <c r="FR78" s="49">
         <f t="shared" ref="FR78:FU78" si="219">+FQ99*$FY$97</f>
-        <v>5334.3801483211109</v>
+        <v>5159.4585471629161</v>
       </c>
       <c r="FS78" s="49">
         <f t="shared" si="219"/>
-        <v>6639.371091999792</v>
+        <v>6461.6507452230653</v>
       </c>
       <c r="FT78" s="49">
         <f t="shared" si="219"/>
-        <v>7990.7917745584464</v>
+        <v>7810.2279022332923</v>
       </c>
       <c r="FU78" s="49">
         <f t="shared" si="219"/>
-        <v>9399.9743592243085</v>
+        <v>9216.5214649419522</v>
       </c>
       <c r="FV78" s="49">
         <f>+FU99*$FY$97</f>
-        <v>10877.261202895117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:178" x14ac:dyDescent="0.2">
+        <v>10690.873062304243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A79" s="102"/>
       <c r="B79" t="s">
         <v>81</v>
@@ -37412,50 +37415,50 @@
       </c>
       <c r="FL79" s="51">
         <f t="shared" si="239"/>
-        <v>32701.036718920001</v>
+        <v>22602.582018919999</v>
       </c>
       <c r="FM79" s="51">
         <f t="shared" si="239"/>
-        <v>40818.026013422714</v>
+        <v>40656.450738222717</v>
       </c>
       <c r="FN79" s="51">
         <f t="shared" si="239"/>
-        <v>51973.536015387464</v>
+        <v>51809.375535784267</v>
       </c>
       <c r="FO79" s="51">
         <f t="shared" si="239"/>
-        <v>62650.85220470919</v>
+        <v>62484.065157432342</v>
       </c>
       <c r="FP79" s="51">
         <f t="shared" si="239"/>
-        <v>70798.113547978573</v>
+        <v>70628.657907945293</v>
       </c>
       <c r="FQ79" s="51">
         <f>FQ77+FQ78</f>
-        <v>79942.02858715145</v>
+        <v>79769.861656877649</v>
       </c>
       <c r="FR79" s="51">
         <f t="shared" ref="FR79:FU79" si="240">FR77+FR78</f>
-        <v>81561.93397991758</v>
+        <v>81387.012378759377</v>
       </c>
       <c r="FS79" s="51">
         <f t="shared" si="240"/>
-        <v>84463.792659915882</v>
+        <v>84286.072313139157</v>
       </c>
       <c r="FT79" s="51">
         <f t="shared" si="240"/>
-        <v>88073.911541616399</v>
+        <v>87893.347669291252</v>
       </c>
       <c r="FU79" s="51">
         <f t="shared" si="240"/>
-        <v>92330.42772942553</v>
+        <v>92146.974835143177</v>
       </c>
       <c r="FV79" s="51">
         <f>FV77+FV78</f>
-        <v>91891.628276611766</v>
-      </c>
-    </row>
-    <row r="80" spans="1:178" x14ac:dyDescent="0.2">
+        <v>91705.240136020904</v>
+      </c>
+    </row>
+    <row r="80" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A80" s="102"/>
       <c r="B80" t="s">
         <v>82</v>
@@ -37859,50 +37862,50 @@
       </c>
       <c r="FL80" s="51">
         <f t="shared" ref="FL80:FP80" si="245">FL79*0.2</f>
-        <v>6540.2073437840008</v>
+        <v>4520.5164037839995</v>
       </c>
       <c r="FM80" s="51">
         <f t="shared" si="245"/>
-        <v>8163.6052026845427</v>
+        <v>8131.290147644544</v>
       </c>
       <c r="FN80" s="51">
         <f t="shared" si="245"/>
-        <v>10394.707203077494</v>
+        <v>10361.875107156855</v>
       </c>
       <c r="FO80" s="51">
         <f t="shared" si="245"/>
-        <v>12530.170440941838</v>
+        <v>12496.813031486468</v>
       </c>
       <c r="FP80" s="51">
         <f t="shared" si="245"/>
-        <v>14159.622709595715</v>
+        <v>14125.73158158906</v>
       </c>
       <c r="FQ80" s="51">
         <f>FQ79*0.2</f>
-        <v>15988.405717430291</v>
+        <v>15953.972331375531</v>
       </c>
       <c r="FR80" s="51">
         <f t="shared" ref="FR80:FT80" si="246">FR79*0.2</f>
-        <v>16312.386795983517</v>
+        <v>16277.402475751876</v>
       </c>
       <c r="FS80" s="51">
         <f t="shared" si="246"/>
-        <v>16892.758531983178</v>
+        <v>16857.214462627831</v>
       </c>
       <c r="FT80" s="51">
         <f t="shared" si="246"/>
-        <v>17614.78230832328</v>
+        <v>17578.66953385825</v>
       </c>
       <c r="FU80" s="51">
         <f>FU79*0.2</f>
-        <v>18466.085545885107</v>
+        <v>18429.394967028635</v>
       </c>
       <c r="FV80" s="51">
         <f>FV79*0.2</f>
-        <v>18378.325655322355</v>
-      </c>
-    </row>
-    <row r="81" spans="1:251" x14ac:dyDescent="0.2">
+        <v>18341.048027204182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A81" s="102"/>
       <c r="B81" t="s">
         <v>83</v>
@@ -38412,342 +38415,342 @@
       </c>
       <c r="FL81" s="51">
         <f t="shared" ref="FL81:FO81" si="270">+FL79-FL80</f>
-        <v>26160.829375136</v>
+        <v>18082.065615135998</v>
       </c>
       <c r="FM81" s="51">
         <f t="shared" si="270"/>
-        <v>32654.420810738171</v>
+        <v>32525.160590578173</v>
       </c>
       <c r="FN81" s="51">
         <f t="shared" si="270"/>
-        <v>41578.82881230997</v>
+        <v>41447.500428627412</v>
       </c>
       <c r="FO81" s="51">
         <f t="shared" si="270"/>
-        <v>50120.681763767352</v>
+        <v>49987.252125945874</v>
       </c>
       <c r="FP81" s="51">
         <f>+FP79-FP80</f>
-        <v>56638.490838382859</v>
+        <v>56502.926326356232</v>
       </c>
       <c r="FQ81" s="51">
         <f>+FQ79-FQ80</f>
-        <v>63953.622869721163</v>
+        <v>63815.889325502118</v>
       </c>
       <c r="FR81" s="51">
         <f t="shared" ref="FR81:FT81" si="271">+FR79-FR80</f>
-        <v>65249.547183934061</v>
+        <v>65109.609903007498</v>
       </c>
       <c r="FS81" s="51">
         <f t="shared" si="271"/>
-        <v>67571.034127932711</v>
+        <v>67428.857850511326</v>
       </c>
       <c r="FT81" s="51">
         <f t="shared" si="271"/>
-        <v>70459.129233293119</v>
+        <v>70314.678135433001</v>
       </c>
       <c r="FU81" s="51">
         <f>+FU79-FU80</f>
-        <v>73864.34218354043</v>
+        <v>73717.579868114539</v>
       </c>
       <c r="FV81" s="51">
         <f>+FV79-FV80</f>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="FW81" s="54">
         <f t="shared" ref="FW81:HB81" si="272">+FV81*(1+$FY$98)</f>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="FX81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="FY81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="FZ81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GA81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GB81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GC81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GD81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GE81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GF81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GG81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GH81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GI81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GJ81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GK81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GL81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GM81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GN81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GO81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GP81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GQ81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GR81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GS81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GT81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GU81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GV81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GW81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GX81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GY81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="GZ81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HA81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HB81" s="54">
         <f t="shared" si="272"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HC81" s="54">
         <f t="shared" ref="HC81:IH81" si="273">+HB81*(1+$FY$98)</f>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HD81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HE81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HF81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HG81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HH81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HI81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HJ81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HK81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HL81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HM81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HN81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HO81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HP81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HQ81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HR81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HS81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HT81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HU81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HV81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HW81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HX81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HY81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="HZ81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IA81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IB81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IC81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="ID81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IE81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IF81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IG81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IH81" s="54">
         <f t="shared" si="273"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="II81" s="54">
         <f t="shared" ref="II81:IQ81" si="274">+IH81*(1+$FY$98)</f>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IJ81" s="54">
         <f t="shared" si="274"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IK81" s="54">
         <f t="shared" si="274"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IL81" s="54">
         <f t="shared" si="274"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IM81" s="54">
         <f t="shared" si="274"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IN81" s="54">
         <f t="shared" si="274"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IO81" s="54">
         <f t="shared" si="274"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IP81" s="54">
         <f t="shared" si="274"/>
-        <v>73513.302621289418</v>
+        <v>73364.192108816729</v>
       </c>
       <c r="IQ81" s="54">
         <f t="shared" si="274"/>
-        <v>73513.302621289418</v>
-      </c>
-    </row>
-    <row r="82" spans="1:251" s="58" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73364.192108816729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:251" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="108"/>
       <c r="B82" s="58" t="s">
         <v>56</v>
@@ -39257,50 +39260,50 @@
       </c>
       <c r="FL82" s="59">
         <f t="shared" si="296"/>
-        <v>28.922141956268806</v>
+        <v>19.990653242843209</v>
       </c>
       <c r="FM82" s="59">
         <f t="shared" si="296"/>
-        <v>36.101141162043071</v>
+        <v>35.958237342628259</v>
       </c>
       <c r="FN82" s="59">
         <f t="shared" si="296"/>
-        <v>45.967533064068881</v>
+        <v>45.822342783543434</v>
       </c>
       <c r="FO82" s="59">
         <f t="shared" si="296"/>
-        <v>55.410990688788765</v>
+        <v>55.263477363774918</v>
       </c>
       <c r="FP82" s="59">
         <f t="shared" si="296"/>
-        <v>62.616763739663483</v>
+        <v>62.466890201449409</v>
       </c>
       <c r="FQ82" s="59">
         <f t="shared" si="296"/>
-        <v>70.704018314256487</v>
+        <v>70.551746799430987</v>
       </c>
       <c r="FR82" s="59">
         <f t="shared" ref="FR82:FU82" si="297">FR81/FR83</f>
-        <v>72.136729274707477</v>
+        <v>71.982021415644766</v>
       </c>
       <c r="FS82" s="59">
         <f t="shared" si="297"/>
-        <v>74.703252452591414</v>
+        <v>74.546069267783707</v>
       </c>
       <c r="FT82" s="59">
         <f t="shared" si="297"/>
-        <v>77.896190085517844</v>
+        <v>77.736491969753217</v>
       </c>
       <c r="FU82" s="59">
         <f t="shared" si="297"/>
-        <v>81.660828084035643</v>
+        <v>81.498574798418773</v>
       </c>
       <c r="FV82" s="59">
         <f>FV81/FV83</f>
-        <v>81.272735798959246</v>
-      </c>
-    </row>
-    <row r="83" spans="1:251" x14ac:dyDescent="0.2">
+        <v>81.107886460772519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A83" s="102"/>
       <c r="B83" t="s">
         <v>84</v>
@@ -39767,11 +39770,11 @@
         <v>904.52600000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A84" s="102"/>
       <c r="AW84" s="51"/>
     </row>
-    <row r="85" spans="1:251" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:251" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="107"/>
       <c r="B85" s="55" t="s">
         <v>380</v>
@@ -40292,7 +40295,7 @@
         <v>-2.3104736783858715E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:251" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:251" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="107"/>
       <c r="B86" s="55" t="s">
         <v>752</v>
@@ -40471,7 +40474,7 @@
       <c r="FP86" s="62"/>
       <c r="FQ86" s="62"/>
     </row>
-    <row r="87" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="106"/>
       <c r="B87" s="38" t="s">
         <v>378</v>
@@ -40827,7 +40830,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="106"/>
       <c r="B88" s="38" t="s">
         <v>706</v>
@@ -41055,7 +41058,7 @@
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="106"/>
       <c r="B89" s="38" t="s">
         <v>489</v>
@@ -41384,7 +41387,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="106"/>
       <c r="B90" s="38" t="s">
         <v>490</v>
@@ -41695,7 +41698,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="106"/>
       <c r="B91" s="38" t="s">
         <v>491</v>
@@ -41971,7 +41974,7 @@
       <c r="FG91" s="67"/>
       <c r="FH91" s="67"/>
     </row>
-    <row r="92" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="106"/>
       <c r="B92" s="38" t="s">
         <v>56</v>
@@ -42421,14 +42424,14 @@
       <c r="FG92" s="67"/>
       <c r="FH92" s="67"/>
     </row>
-    <row r="93" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A93" s="102"/>
       <c r="FE93" s="47"/>
       <c r="FF93" s="47"/>
       <c r="FG93" s="47"/>
       <c r="FH93" s="47"/>
     </row>
-    <row r="94" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A94" s="102"/>
       <c r="B94" t="s">
         <v>123</v>
@@ -42863,7 +42866,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="95" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A95" s="102"/>
       <c r="B95" t="s">
         <v>59</v>
@@ -43337,7 +43340,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A96" s="102"/>
       <c r="B96" t="s">
         <v>60</v>
@@ -43692,7 +43695,7 @@
         <v>0.27116617149690753</v>
       </c>
     </row>
-    <row r="97" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A97" s="102"/>
       <c r="B97" t="s">
         <v>206</v>
@@ -44048,7 +44051,7 @@
       </c>
       <c r="FL97" s="79">
         <f t="shared" si="470"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="FM97" s="79">
         <f t="shared" si="470"/>
@@ -44084,7 +44087,7 @@
       </c>
       <c r="FU97" s="79">
         <f t="shared" si="471"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="FV97" s="79">
         <f t="shared" si="471"/>
@@ -44097,7 +44100,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A98" s="102"/>
       <c r="FX98" s="47" t="s">
         <v>242</v>
@@ -44106,7 +44109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A99" s="102"/>
       <c r="B99" t="s">
         <v>187</v>
@@ -44309,47 +44312,47 @@
       </c>
       <c r="FL99" s="49">
         <f t="shared" si="479"/>
-        <v>21772.962321136001</v>
+        <v>13694.198561135998</v>
       </c>
       <c r="FM99" s="49">
         <f t="shared" si="479"/>
-        <v>54427.383131874172</v>
+        <v>46219.359151714169</v>
       </c>
       <c r="FN99" s="49">
         <f t="shared" si="479"/>
-        <v>96006.21194418415</v>
+        <v>87666.859580341581</v>
       </c>
       <c r="FO99" s="49">
         <f t="shared" si="479"/>
-        <v>146126.8937079515</v>
+        <v>137654.11170628745</v>
       </c>
       <c r="FP99" s="49">
         <f t="shared" si="479"/>
-        <v>202765.38454633436</v>
+        <v>194157.03803264367</v>
       </c>
       <c r="FQ99" s="49">
         <f t="shared" si="479"/>
-        <v>266719.00741605554</v>
+        <v>257972.9273581458</v>
       </c>
       <c r="FR99" s="49">
         <f t="shared" ref="FR99" si="480">+FQ99+FR81</f>
-        <v>331968.55459998961</v>
+        <v>323082.53726115328</v>
       </c>
       <c r="FS99" s="49">
         <f t="shared" ref="FS99" si="481">+FR99+FS81</f>
-        <v>399539.5887279223</v>
+        <v>390511.39511166461</v>
       </c>
       <c r="FT99" s="49">
         <f t="shared" ref="FT99" si="482">+FS99+FT81</f>
-        <v>469998.71796121541</v>
+        <v>460826.07324709761</v>
       </c>
       <c r="FU99" s="49">
         <f t="shared" ref="FU99" si="483">+FT99+FU81</f>
-        <v>543863.06014475587</v>
+        <v>534543.6531152121</v>
       </c>
       <c r="FV99" s="49">
         <f t="shared" ref="FV99" si="484">+FU99+FV81</f>
-        <v>617376.36276604526</v>
+        <v>607907.8452240288</v>
       </c>
       <c r="FX99" s="47" t="s">
         <v>241</v>
@@ -44358,17 +44361,17 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A100" s="102"/>
       <c r="FX100" s="47" t="s">
         <v>243</v>
       </c>
       <c r="FY100" s="51">
         <f>NPV(FY99,FL81:IS81)+Main!J5-Main!J6</f>
-        <v>869870.46927802137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+        <v>860411.20744885318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:181" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="98"/>
       <c r="B101" s="49" t="s">
         <v>174</v>
@@ -44632,10 +44635,10 @@
       </c>
       <c r="FY101" s="65">
         <f>+FY100/Main!J3</f>
-        <v>916.31316618475853</v>
-      </c>
-    </row>
-    <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+        <v>906.34887096773639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="98"/>
       <c r="B102" s="50" t="s">
         <v>284</v>
@@ -44864,7 +44867,7 @@
         <v>9090.5</v>
       </c>
     </row>
-    <row r="103" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="98"/>
       <c r="B103" s="50" t="s">
         <v>285</v>
@@ -45093,7 +45096,7 @@
         <v>2245.6999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="98"/>
       <c r="B104" s="50" t="s">
         <v>286</v>
@@ -45322,7 +45325,7 @@
         <v>5772.8</v>
       </c>
     </row>
-    <row r="105" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="98"/>
       <c r="B105" s="50" t="s">
         <v>287</v>
@@ -45551,7 +45554,7 @@
         <v>5540.8</v>
       </c>
     </row>
-    <row r="106" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="98"/>
       <c r="B106" s="50" t="s">
         <v>288</v>
@@ -45737,7 +45740,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="107" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="98"/>
       <c r="B107" s="50" t="s">
         <v>289</v>
@@ -45989,7 +45992,7 @@
         <v>11846.3</v>
       </c>
     </row>
-    <row r="108" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="98"/>
       <c r="B108" s="50" t="s">
         <v>385</v>
@@ -46202,7 +46205,7 @@
         <v>5477.3</v>
       </c>
     </row>
-    <row r="109" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="98"/>
       <c r="B109" s="50" t="s">
         <v>290</v>
@@ -46417,7 +46420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="98"/>
       <c r="B110" s="50" t="s">
         <v>291</v>
@@ -46646,7 +46649,7 @@
         <v>12913.6</v>
       </c>
     </row>
-    <row r="111" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="98"/>
       <c r="B111" s="50" t="s">
         <v>386</v>
@@ -46860,7 +46863,7 @@
         <v>4989.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="98"/>
       <c r="B112" s="50" t="s">
         <v>292</v>
@@ -47120,13 +47123,13 @@
         <v>64006.3</v>
       </c>
     </row>
-    <row r="113" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A113" s="102"/>
       <c r="FG113" s="49"/>
       <c r="FH113" s="49"/>
       <c r="FI113" s="49"/>
     </row>
-    <row r="114" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="98"/>
       <c r="B114" s="50" t="s">
         <v>175</v>
@@ -47386,7 +47389,7 @@
         <v>25225.3</v>
       </c>
     </row>
-    <row r="115" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="98"/>
       <c r="B115" s="50" t="s">
         <v>293</v>
@@ -47616,7 +47619,7 @@
         <v>2598.8000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="98"/>
       <c r="B116" s="50" t="s">
         <v>294</v>
@@ -47845,7 +47848,7 @@
         <v>1650.4</v>
       </c>
     </row>
-    <row r="117" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="98"/>
       <c r="B117" s="50" t="s">
         <v>295</v>
@@ -48074,7 +48077,7 @@
         <v>11689</v>
       </c>
     </row>
-    <row r="118" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="98"/>
       <c r="B118" s="50" t="s">
         <v>296</v>
@@ -48303,7 +48306,7 @@
         <v>1169.2</v>
       </c>
     </row>
-    <row r="119" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="98"/>
       <c r="B119" s="50" t="s">
         <v>82</v>
@@ -48532,7 +48535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="98"/>
       <c r="B120" s="50" t="s">
         <v>297</v>
@@ -48761,7 +48764,7 @@
         <v>3281.3</v>
       </c>
     </row>
-    <row r="121" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="98"/>
       <c r="B121" s="50" t="s">
         <v>298</v>
@@ -48990,7 +48993,7 @@
         <v>1438.8</v>
       </c>
     </row>
-    <row r="122" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="98"/>
       <c r="B122" s="50" t="s">
         <v>82</v>
@@ -49235,7 +49238,7 @@
         <v>3849.2</v>
       </c>
     </row>
-    <row r="123" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="98"/>
       <c r="B123" s="50" t="s">
         <v>299</v>
@@ -49467,7 +49470,7 @@
         <v>2240.6</v>
       </c>
     </row>
-    <row r="124" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="98"/>
       <c r="B124" s="50" t="s">
         <v>300</v>
@@ -49697,7 +49700,7 @@
         <v>10863.7</v>
       </c>
     </row>
-    <row r="125" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="98"/>
       <c r="B125" s="50" t="s">
         <v>301</v>
@@ -49957,13 +49960,13 @@
         <v>64006.3</v>
       </c>
     </row>
-    <row r="126" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A126" s="102"/>
       <c r="FG126" s="49"/>
       <c r="FH126" s="49"/>
       <c r="FI126" s="49"/>
     </row>
-    <row r="127" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A127" s="102"/>
       <c r="B127" s="50" t="s">
         <v>387</v>
@@ -50081,7 +50084,7 @@
         <v>8596.739999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A128" s="102"/>
       <c r="B128" s="50" t="s">
         <v>388</v>
@@ -50193,7 +50196,7 @@
         <v>5240.3999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A129" s="102"/>
       <c r="B129" s="50" t="s">
         <v>389</v>
@@ -50305,7 +50308,7 @@
         <v>1527.3</v>
       </c>
     </row>
-    <row r="130" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A130" s="102"/>
       <c r="B130" s="50" t="s">
         <v>385</v>
@@ -50417,7 +50420,7 @@
         <v>-2341</v>
       </c>
     </row>
-    <row r="131" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A131" s="102"/>
       <c r="B131" s="50" t="s">
         <v>390</v>
@@ -50529,7 +50532,7 @@
         <v>628.5</v>
       </c>
     </row>
-    <row r="132" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A132" s="102"/>
       <c r="B132" s="50" t="s">
         <v>391</v>
@@ -50641,7 +50644,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="133" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A133" s="102"/>
       <c r="B133" s="50" t="s">
         <v>392</v>
@@ -50753,7 +50756,7 @@
         <v>3799.8</v>
       </c>
     </row>
-    <row r="134" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A134" s="102"/>
       <c r="B134" s="50" t="s">
         <v>78</v>
@@ -50865,7 +50868,7 @@
         <v>-1583.4</v>
       </c>
     </row>
-    <row r="135" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A135" s="102"/>
       <c r="B135" s="50" t="s">
         <v>393</v>
@@ -50977,7 +50980,7 @@
         <v>-3055</v>
       </c>
     </row>
-    <row r="136" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="50" t="s">
         <v>302</v>
       </c>
@@ -51237,7 +51240,7 @@
         <v>4240.0999999999985</v>
       </c>
     </row>
-    <row r="137" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:166" x14ac:dyDescent="0.25">
       <c r="DC137" s="51"/>
       <c r="DD137" s="51"/>
       <c r="DJ137" s="51"/>
@@ -51246,7 +51249,7 @@
       <c r="FH137" s="49"/>
       <c r="FI137" s="49"/>
     </row>
-    <row r="138" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:166" x14ac:dyDescent="0.25">
       <c r="B138" s="50" t="s">
         <v>394</v>
       </c>
@@ -51357,7 +51360,7 @@
         <v>-3447.6000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:166" x14ac:dyDescent="0.25">
       <c r="B139" s="50" t="s">
         <v>391</v>
       </c>
@@ -51474,7 +51477,7 @@
         <v>-128.69999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:166" x14ac:dyDescent="0.25">
       <c r="B140" s="50" t="s">
         <v>395</v>
       </c>
@@ -51588,7 +51591,7 @@
         <v>-4988.8</v>
       </c>
     </row>
-    <row r="141" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:166" x14ac:dyDescent="0.25">
       <c r="B141" s="50" t="s">
         <v>78</v>
       </c>
@@ -51699,7 +51702,7 @@
         <v>1412.4</v>
       </c>
     </row>
-    <row r="142" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:166" x14ac:dyDescent="0.25">
       <c r="B142" s="50" t="s">
         <v>396</v>
       </c>
@@ -51816,7 +51819,7 @@
         <v>-7152.7</v>
       </c>
     </row>
-    <row r="143" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:166" x14ac:dyDescent="0.25">
       <c r="CW143" s="51"/>
       <c r="DC143" s="51"/>
       <c r="DD143" s="51"/>
@@ -51826,7 +51829,7 @@
       <c r="FH143" s="49"/>
       <c r="FI143" s="49"/>
     </row>
-    <row r="144" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:166" x14ac:dyDescent="0.25">
       <c r="B144" s="50" t="s">
         <v>296</v>
       </c>
@@ -51937,7 +51940,7 @@
         <v>-4069.3</v>
       </c>
     </row>
-    <row r="145" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B145" s="50" t="s">
         <v>399</v>
       </c>
@@ -52052,7 +52055,7 @@
         <v>8649.9</v>
       </c>
     </row>
-    <row r="146" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B146" s="38" t="s">
         <v>398</v>
       </c>
@@ -52163,7 +52166,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="147" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B147" s="38" t="s">
         <v>78</v>
       </c>
@@ -52274,7 +52277,7 @@
         <v>-335</v>
       </c>
     </row>
-    <row r="148" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B148" s="38" t="s">
         <v>397</v>
       </c>
@@ -52391,7 +52394,7 @@
         <v>3495.5999999999995</v>
       </c>
     </row>
-    <row r="149" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B149" s="38" t="s">
         <v>400</v>
       </c>
@@ -52502,7 +52505,7 @@
         <v>168.60000000000002</v>
       </c>
     </row>
-    <row r="150" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B150" s="38" t="s">
         <v>401</v>
       </c>
@@ -52619,13 +52622,13 @@
         <v>3664.1999999999994</v>
       </c>
     </row>
-    <row r="151" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:166" x14ac:dyDescent="0.25">
       <c r="DN151" s="51"/>
       <c r="FG151" s="49"/>
       <c r="FH151" s="49"/>
       <c r="FI151" s="49"/>
     </row>
-    <row r="152" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>493</v>
       </c>
@@ -52664,7 +52667,7 @@
       <c r="FH152" s="49"/>
       <c r="FI152" s="49"/>
     </row>
-    <row r="153" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B153" s="38" t="s">
         <v>751</v>
       </c>
@@ -52720,7 +52723,7 @@
       <c r="FH153" s="49"/>
       <c r="FI153" s="49"/>
     </row>
-    <row r="154" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B154" s="38" t="s">
         <v>173</v>
       </c>
@@ -52792,7 +52795,7 @@
       <c r="FH154" s="49"/>
       <c r="FI154" s="49"/>
     </row>
-    <row r="155" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B155" s="38" t="s">
         <v>786</v>
       </c>
@@ -52829,11 +52832,11 @@
       <c r="FH155" s="49"/>
       <c r="FI155" s="49"/>
     </row>
-    <row r="156" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:166" x14ac:dyDescent="0.25">
       <c r="FH156" s="49"/>
       <c r="FI156" s="49"/>
     </row>
-    <row r="157" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="50" t="s">
         <v>973</v>
       </c>
@@ -52985,7 +52988,7 @@
       <c r="FC157" s="51"/>
       <c r="FD157" s="51"/>
     </row>
-    <row r="158" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="50" t="s">
         <v>974</v>
       </c>
@@ -53137,7 +53140,7 @@
       <c r="FC158" s="51"/>
       <c r="FD158" s="51"/>
     </row>
-    <row r="159" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="50" t="s">
         <v>975</v>
       </c>
@@ -53289,7 +53292,7 @@
       <c r="FC159" s="51"/>
       <c r="FD159" s="51"/>
     </row>
-    <row r="160" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="50" t="s">
         <v>549</v>
       </c>
@@ -53441,7 +53444,7 @@
       <c r="FC160" s="51"/>
       <c r="FD160" s="51"/>
     </row>
-    <row r="161" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="50" t="s">
         <v>976</v>
       </c>
@@ -53614,19 +53617,19 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -53634,7 +53637,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -53642,7 +53645,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -53650,54 +53653,54 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
       <c r="C10" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="D10" s="38"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>405</v>
       </c>
@@ -53705,7 +53708,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
         <v>917</v>
       </c>
@@ -53713,86 +53716,86 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="20" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="20" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="38" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="20" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="38" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="20" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="38" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="20" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="38" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="38" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="38" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C35" s="20" t="s">
         <v>1090</v>
       </c>
@@ -53816,22 +53819,22 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="6.85546875" style="47" customWidth="1"/>
-    <col min="14" max="50" width="5.42578125" customWidth="1"/>
-    <col min="52" max="71" width="7.42578125" customWidth="1"/>
-    <col min="72" max="75" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.81640625" style="47" customWidth="1"/>
+    <col min="14" max="50" width="5.453125" customWidth="1"/>
+    <col min="52" max="71" width="7.453125" customWidth="1"/>
+    <col min="72" max="75" width="6.81640625" customWidth="1"/>
     <col min="76" max="118" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:169" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -54332,7 +54335,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:169" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:169" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
         <v>642</v>
       </c>
@@ -54754,7 +54757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -54805,7 +54808,7 @@
       <c r="AW4" s="48"/>
       <c r="AX4" s="48"/>
     </row>
-    <row r="5" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>70</v>
       </c>
@@ -54819,7 +54822,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>566</v>
       </c>
@@ -54833,7 +54836,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="7" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>570</v>
       </c>
@@ -54847,7 +54850,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>365</v>
       </c>
@@ -55168,7 +55171,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>567</v>
       </c>
@@ -55182,7 +55185,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:169" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
         <v>569</v>
       </c>
@@ -55460,7 +55463,7 @@
       <c r="DK10" s="85"/>
       <c r="DL10" s="85"/>
     </row>
-    <row r="11" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>568</v>
       </c>
@@ -55687,7 +55690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>571</v>
       </c>
@@ -55746,7 +55749,7 @@
       <c r="CW12" s="49"/>
       <c r="CX12" s="49"/>
     </row>
-    <row r="13" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:169" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="38" t="s">
         <v>506</v>
       </c>
@@ -55930,7 +55933,7 @@
       <c r="DD13" s="49"/>
       <c r="DE13" s="49"/>
     </row>
-    <row r="14" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:169" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="38" t="s">
         <v>525</v>
       </c>
@@ -56052,13 +56055,13 @@
         <v>175.8</v>
       </c>
     </row>
-    <row r="15" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="83"/>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>576</v>
       </c>
@@ -56069,7 +56072,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>581</v>
       </c>
@@ -56080,12 +56083,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B19" s="38" t="s">
         <v>583</v>
       </c>
@@ -56099,7 +56102,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
         <v>587</v>
       </c>
@@ -56110,12 +56113,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C21" s="38" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
         <v>590</v>
       </c>
@@ -56207,7 +56210,7 @@
         <v>36759.942857142858</v>
       </c>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C23" s="38" t="s">
         <v>591</v>
       </c>
@@ -56275,7 +56278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
         <v>593</v>
       </c>
@@ -56364,7 +56367,7 @@
         <v>7351.988571428572</v>
       </c>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>592</v>
       </c>
@@ -56453,32 +56456,32 @@
         <v>5513.9914285714294</v>
       </c>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
       <c r="E28" s="38" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
       <c r="E29" s="38" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.25">
       <c r="E30" s="38" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>599</v>
       </c>
@@ -56486,12 +56489,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="35" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -56552,7 +56555,7 @@
       <c r="AF35" s="84"/>
       <c r="AG35" s="84"/>
     </row>
-    <row r="36" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:72" x14ac:dyDescent="0.25">
       <c r="N36" s="47">
         <f t="shared" ref="N36:AA36" si="37">+N35/7</f>
         <v>0</v>
@@ -56634,7 +56637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G40" s="47">
         <v>540</v>
       </c>
@@ -56702,7 +56705,7 @@
         <v>30065</v>
       </c>
     </row>
-    <row r="41" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G41" s="47">
         <f>+G40/7</f>
         <v>77.142857142857139</v>
@@ -56792,16 +56795,16 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="46" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:72" x14ac:dyDescent="0.25">
       <c r="BT46" s="49"/>
     </row>
-    <row r="47" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:72" x14ac:dyDescent="0.25">
       <c r="BT47" s="49"/>
     </row>
-    <row r="48" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:72" x14ac:dyDescent="0.25">
       <c r="BT48" s="49"/>
     </row>
-    <row r="49" spans="72:72" x14ac:dyDescent="0.2">
+    <row r="49" spans="72:72" x14ac:dyDescent="0.25">
       <c r="BT49" s="49"/>
     </row>
   </sheetData>
@@ -56820,15 +56823,15 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="10" width="8.42578125" style="53" customWidth="1"/>
-    <col min="11" max="12" width="6.42578125" customWidth="1"/>
+    <col min="3" max="10" width="8.453125" style="53" customWidth="1"/>
+    <col min="11" max="12" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -56837,7 +56840,7 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>672</v>
@@ -56855,7 +56858,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>659</v>
       </c>
@@ -56884,7 +56887,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
         <v>660</v>
       </c>
@@ -56916,7 +56919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
         <v>661</v>
       </c>
@@ -56948,7 +56951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="38" t="s">
         <v>662</v>
       </c>
@@ -56981,7 +56984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
         <v>663</v>
       </c>
@@ -57011,7 +57014,7 @@
       </c>
       <c r="L7" s="89"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
         <v>664</v>
       </c>
@@ -57040,7 +57043,7 @@
         <v>247.94000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
         <v>665</v>
       </c>
@@ -57069,7 +57072,7 @@
         <v>236.06</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
         <v>666</v>
       </c>
@@ -57098,13 +57101,13 @@
         <v>212.96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>675</v>
       </c>
@@ -57113,7 +57116,7 @@
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="38" t="s">
         <v>659</v>
       </c>
@@ -57142,7 +57145,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="38" t="s">
         <v>660</v>
       </c>
@@ -57171,7 +57174,7 @@
         <v>282.3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="38" t="s">
         <v>661</v>
       </c>
@@ -57200,7 +57203,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="38" t="s">
         <v>662</v>
       </c>
@@ -57229,7 +57232,7 @@
         <v>293.89999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="38" t="s">
         <v>663</v>
       </c>
@@ -57258,7 +57261,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="38" t="s">
         <v>664</v>
       </c>
@@ -57287,7 +57290,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
         <v>665</v>
       </c>
@@ -57316,7 +57319,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="38" t="s">
         <v>666</v>
       </c>
@@ -57345,19 +57348,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
         <v>677</v>
       </c>
@@ -57377,11 +57380,11 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>678</v>
       </c>
@@ -57397,7 +57400,7 @@
       </c>
       <c r="J25" s="71"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>679</v>
       </c>
@@ -57413,7 +57416,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C27" s="54"/>
       <c r="G27" s="71">
         <f>9.2+11.9</f>
@@ -57423,7 +57426,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" s="53">
         <v>11.9</v>
       </c>
@@ -57445,18 +57448,18 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -57464,7 +57467,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -57472,7 +57475,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -57480,7 +57483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -57504,18 +57507,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -57523,7 +57526,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -57531,7 +57534,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -57539,115 +57542,115 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="38"/>
       <c r="C6" s="20" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="38" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
       <c r="C12" s="20" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="38"/>
       <c r="C16" s="20" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="38"/>
       <c r="C19" s="20" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="38"/>
       <c r="C22" s="20" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="38"/>
       <c r="C25" s="20" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="20" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" s="38" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" s="38" t="s">
         <v>1127</v>
       </c>
@@ -57661,12 +57664,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57784,15 +57784,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -57814,16 +57824,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB3B66-F06B-431F-A67F-47BE8CD81EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B26843-B254-4A5B-949E-4948DB4EC221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23190" yWindow="3480" windowWidth="20715" windowHeight="16665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -6669,20 +6669,20 @@
       <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>68</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="H3" s="38"/>
       <c r="J3" s="38"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>992</v>
       </c>
@@ -6736,7 +6736,7 @@
       <c r="H4" s="38"/>
       <c r="J4" s="38"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>987</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>792</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>758</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>277</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>454</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>478</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>63</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>547</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>797</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="110" t="s">
         <v>983</v>
       </c>
@@ -6882,7 +6882,7 @@
       <c r="E15" s="38"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>798</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="E16" s="38"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>14</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>73</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="G18" s="30"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>370</v>
       </c>
@@ -6939,7 +6939,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>800</v>
       </c>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>753</v>
       </c>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>71</v>
       </c>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="110" t="s">
         <v>984</v>
       </c>
@@ -6981,7 +6981,7 @@
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>773</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>261</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>784</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>981</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>375</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="38" t="s">
         <v>17</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
         <v>545</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="38" t="s">
         <v>55</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="38" t="s">
         <v>494</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="38" t="s">
         <v>994</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="38" t="s">
         <v>990</v>
       </c>
@@ -7103,7 +7103,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="38" t="s">
         <v>54</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="38" t="s">
         <v>985</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="38" t="s">
         <v>69</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="38" t="s">
         <v>57</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="38" t="s">
         <v>760</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="38" t="s">
         <v>368</v>
       </c>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="38" t="s">
         <v>996</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
         <v>756</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="38" t="s">
         <v>766</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="38" t="s">
         <v>771</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="38" t="s">
         <v>772</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="38" t="s">
         <v>507</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="38" t="s">
         <v>407</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="38" t="s">
         <v>64</v>
       </c>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="38" t="s">
         <v>986</v>
       </c>
@@ -7280,7 +7280,7 @@
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="38" t="s">
         <v>788</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="38" t="s">
         <v>812</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="38" t="s">
         <v>755</v>
       </c>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="38" t="s">
         <v>440</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="38" t="s">
         <v>781</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="38" t="s">
         <v>418</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="38" t="s">
         <v>508</v>
       </c>
@@ -7373,7 +7373,7 @@
       <c r="F56" s="38"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="38" t="s">
         <v>988</v>
       </c>
@@ -7383,7 +7383,7 @@
       <c r="F57" s="38"/>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="38" t="s">
         <v>61</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="F58" s="38"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="38" t="s">
         <v>495</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="38" t="s">
         <v>72</v>
       </c>
@@ -7427,7 +7427,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="38" t="s">
         <v>377</v>
       </c>
@@ -7437,7 +7437,7 @@
       <c r="F61" s="38"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="38" t="s">
         <v>455</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="F62" s="38"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
         <v>993</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="F63" s="38"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="38" t="s">
         <v>15</v>
       </c>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="38" t="s">
         <v>41</v>
       </c>
@@ -7482,14 +7482,14 @@
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="38" t="s">
         <v>995</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="38" t="s">
         <v>443</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="38" t="s">
         <v>989</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="E68" s="38"/>
       <c r="F68" s="77"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="38" t="s">
         <v>770</v>
       </c>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="F69" s="77"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="38" t="s">
         <v>492</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="E70" s="38"/>
       <c r="F70" s="77"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="38" t="s">
         <v>463</v>
       </c>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="F71" s="77"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="38" t="s">
         <v>66</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="38" t="s">
         <v>783</v>
       </c>
@@ -7584,7 +7584,7 @@
       <c r="F73" s="77"/>
       <c r="H73" s="38"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="38" t="s">
         <v>369</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="E74" s="38"/>
       <c r="F74" s="77"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="38" t="s">
         <v>991</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="E75" s="38"/>
       <c r="F75" s="77"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="38" t="s">
         <v>416</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="38" t="s">
         <v>7</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="36" t="s">
         <v>448</v>
       </c>
@@ -7641,7 +7641,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="36" t="s">
         <v>449</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="G79" s="7"/>
       <c r="J79" s="21"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="38" t="s">
         <v>402</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="38"/>
       <c r="C87" s="38" t="s">
         <v>481</v>
@@ -7692,7 +7692,7 @@
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C88" s="38" t="s">
         <v>404</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C89" s="38" t="s">
         <v>49</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>25</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C91" s="38" t="s">
         <v>322</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="38"/>
       <c r="C92" s="38" t="s">
         <v>323</v>
@@ -7757,12 +7757,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="38" t="s">
         <v>432</v>
       </c>
@@ -7773,17 +7773,17 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="38" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C97" s="38" t="s">
         <v>473</v>
       </c>
@@ -7791,17 +7791,17 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" s="38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" s="38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="38"/>
       <c r="C100" t="s">
         <v>476</v>
@@ -7810,27 +7810,27 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" s="38"/>
       <c r="C102" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="38"/>
       <c r="C103" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="38"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" s="38" t="s">
         <v>238</v>
       </c>
@@ -7844,12 +7844,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C106" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="5" t="s">
         <v>160</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" s="36" t="s">
         <v>178</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C109" s="36" t="s">
         <v>276</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" s="5" t="s">
         <v>204</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" s="36" t="s">
         <v>309</v>
       </c>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" s="36" t="s">
         <v>306</v>
       </c>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="5" t="s">
         <v>134</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="5" t="s">
         <v>188</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="45" t="s">
         <v>23</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>1072</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="38"/>
       <c r="C117" s="38" t="s">
         <v>725</v>
@@ -8030,7 +8030,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>720</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E119" s="6" t="s">
         <v>1107</v>
       </c>
@@ -8065,18 +8065,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>868</v>
       </c>
@@ -8116,121 +8116,121 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="38"/>
       <c r="C12" s="20" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="38"/>
       <c r="C14" s="20" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="38"/>
       <c r="C16" s="20" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
     </row>
-    <row r="19" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
       <c r="C19" s="20" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="20" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="20" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="C27" s="20" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C30" s="20" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" s="38" t="s">
         <v>1142</v>
       </c>
@@ -8251,18 +8251,18 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>843</v>
       </c>
@@ -8286,12 +8286,12 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="38" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>1018</v>
       </c>
@@ -8299,15 +8299,15 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="38" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="38"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>868</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>1012</v>
       </c>
@@ -8323,37 +8323,37 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="20" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="38" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="20" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="38" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="20" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
         <v>1016</v>
       </c>
@@ -8372,18 +8372,18 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>48</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>405</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>843</v>
       </c>
@@ -8415,94 +8415,94 @@
         <v>844</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="C7" s="38" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="20" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="38" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="38" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="38" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="38" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="38" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="38"/>
     </row>
-    <row r="18" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="20" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="38" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="38" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="38" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="38" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="20" t="s">
         <v>997</v>
       </c>
@@ -8522,18 +8522,18 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>51</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>868</v>
       </c>
@@ -8557,92 +8557,92 @@
         <v>904</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="20" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="38" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="38" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="20" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="38" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="38" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="38" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="20" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="38" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="38" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="38" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="38" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="20" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="38" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="38" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="38" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="38" t="s">
         <v>931</v>
       </c>
@@ -8661,19 +8661,19 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8705,27 +8705,27 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="20" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="38" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="38" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="38" t="s">
         <v>1026</v>
       </c>
@@ -8746,18 +8746,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>843</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>2</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>868</v>
       </c>
@@ -8813,89 +8813,89 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="20" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="38" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="38" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="38" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="38" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="38" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="20" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="38" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="20" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="20" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="38" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="38"/>
     </row>
-    <row r="30" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="20" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="38" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="38"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="38"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="38" t="s">
         <v>864</v>
       </c>
@@ -8914,18 +8914,18 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>539</v>
       </c>
@@ -8965,61 +8965,61 @@
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="38"/>
       <c r="C11" s="38" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="38"/>
       <c r="C12" s="38" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="20" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="38" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="38" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="38" t="s">
         <v>538</v>
       </c>
@@ -9038,17 +9038,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>402</v>
@@ -9057,22 +9057,22 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="20" t="s">
         <v>553</v>
       </c>
@@ -9091,18 +9091,18 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>868</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
@@ -9150,22 +9150,22 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="20" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="38" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="38" t="s">
         <v>1047</v>
       </c>
@@ -9185,19 +9185,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>50</v>
@@ -9206,7 +9206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>48</v>
@@ -9215,7 +9215,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -9224,37 +9224,37 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="38" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="13" t="s">
         <v>254</v>
       </c>
@@ -9281,17 +9281,17 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>941</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>12122750</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>12115210</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>12102610</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>12083324</v>
       </c>
@@ -9352,7 +9352,7 @@
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>12071423</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>12060356</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>12059557</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>12059452</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>12042634</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>12037406</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>12037387</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12037322</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12023470</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>12011574</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>12005235</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>11999722</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>11993608</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>11976136</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>11976114</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>11970485</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>11964968</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>11957882</v>
       </c>
@@ -9528,18 +9528,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -9563,17 +9563,17 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>233</v>
       </c>
@@ -9594,17 +9594,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -9634,18 +9634,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9672,19 +9672,19 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
@@ -9693,55 +9693,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="29">
         <v>38338</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
         <v>2004</v>
       </c>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -9784,7 +9784,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
@@ -9796,7 +9796,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -9804,7 +9804,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -9812,7 +9812,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -9820,7 +9820,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -9828,7 +9828,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
         <v>165</v>
@@ -9840,7 +9840,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C26" s="30">
         <f>C25-7</f>
         <v>39227</v>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C27" s="30">
         <v>38869</v>
       </c>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -9903,18 +9903,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9939,18 +9939,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -9975,21 +9975,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -10005,22 +10005,22 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10028,38 +10028,38 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="3:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="26"/>
       <c r="D18" s="24" t="s">
         <v>55</v>
@@ -10071,7 +10071,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
         <v>157</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>139</v>
       </c>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
@@ -10109,12 +10109,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="3:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="19" t="s">
         <v>140</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>142</v>
       </c>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
@@ -10176,12 +10176,12 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="19" t="s">
         <v>146</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="28" t="s">
         <v>147</v>
       </c>
@@ -10225,20 +10225,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -10278,22 +10278,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>164</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="43">
         <v>40165</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>53829</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="43">
         <f t="shared" ref="C14:C20" si="0">C13-7</f>
         <v>40158</v>
@@ -10328,7 +10328,7 @@
         <v>52891</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" s="43">
         <f t="shared" si="0"/>
         <v>40151</v>
@@ -10340,7 +10340,7 @@
         <v>56775</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="43">
         <f t="shared" si="0"/>
         <v>40144</v>
@@ -10352,7 +10352,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="43">
         <f t="shared" si="0"/>
         <v>40137</v>
@@ -10364,7 +10364,7 @@
         <v>53770</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="43">
         <f t="shared" si="0"/>
         <v>40130</v>
@@ -10376,7 +10376,7 @@
         <v>51112</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="43">
         <f t="shared" si="0"/>
         <v>40123</v>
@@ -10388,7 +10388,7 @@
         <v>54445</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="43">
         <f t="shared" si="0"/>
         <v>40116</v>
@@ -10400,7 +10400,7 @@
         <v>51865</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="43">
         <v>39234</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>50496</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="43">
         <f>C21-7</f>
         <v>39227</v>
@@ -10423,7 +10423,7 @@
         <v>53736</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="43">
         <f>C21-365</f>
         <v>38869</v>
@@ -10453,18 +10453,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -10496,22 +10496,22 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="20" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="20" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="38" t="s">
         <v>1084</v>
       </c>
@@ -10531,19 +10531,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
@@ -10591,32 +10591,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="21"/>
     </row>
   </sheetData>
@@ -10634,30 +10634,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.453125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10683,7 +10681,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>505</v>
       </c>
@@ -10710,7 +10708,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>517</v>
       </c>
@@ -10736,7 +10734,7 @@
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>502</v>
       </c>
@@ -10763,7 +10761,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="68" t="s">
         <v>469</v>
       </c>
@@ -10790,7 +10788,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>420</v>
       </c>
@@ -10815,7 +10813,7 @@
         <v>772461.76687199995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="36" t="s">
         <v>312</v>
       </c>
@@ -10833,7 +10831,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="36" t="s">
         <v>421</v>
       </c>
@@ -10854,7 +10852,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="s">
         <v>548</v>
       </c>
@@ -10873,7 +10871,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>531</v>
       </c>
@@ -10894,7 +10892,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>488</v>
       </c>
@@ -10913,7 +10911,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="36" t="s">
         <v>485</v>
       </c>
@@ -10934,7 +10932,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="36" t="s">
         <v>484</v>
       </c>
@@ -10953,7 +10951,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="36" t="s">
         <v>439</v>
       </c>
@@ -10974,7 +10972,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>521</v>
       </c>
@@ -10995,7 +10993,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="36" t="s">
         <v>471</v>
       </c>
@@ -11014,7 +11012,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>468</v>
       </c>
@@ -11037,7 +11035,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>523</v>
       </c>
@@ -11058,7 +11056,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>840</v>
       </c>
@@ -11079,7 +11077,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="36" t="s">
         <v>57</v>
       </c>
@@ -11100,7 +11098,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="69" t="s">
         <v>433</v>
       </c>
@@ -11118,7 +11116,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:9" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -11131,7 +11129,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>998</v>
       </c>
@@ -11152,7 +11150,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>727</v>
       </c>
@@ -11173,7 +11171,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>565</v>
       </c>
@@ -11190,7 +11188,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>564</v>
       </c>
@@ -11211,7 +11209,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
         <v>711</v>
       </c>
@@ -11232,7 +11230,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="36" t="s">
         <v>739</v>
       </c>
@@ -11249,7 +11247,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="36" t="s">
         <v>707</v>
       </c>
@@ -11267,7 +11265,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="36" t="s">
         <v>736</v>
       </c>
@@ -11283,7 +11281,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="112" t="s">
         <v>562</v>
       </c>
@@ -11300,7 +11298,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="36" t="s">
         <v>563</v>
       </c>
@@ -11317,7 +11315,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="36" t="s">
         <v>906</v>
       </c>
@@ -11331,7 +11329,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="36" t="s">
         <v>710</v>
       </c>
@@ -11345,7 +11343,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
         <v>713</v>
       </c>
@@ -11364,7 +11362,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="36" t="s">
         <v>715</v>
       </c>
@@ -11381,7 +11379,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="36"/>
       <c r="C38" s="37" t="s">
         <v>719</v>
@@ -11398,7 +11396,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="36" t="s">
         <v>716</v>
       </c>
@@ -11412,7 +11410,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="36" t="s">
         <v>1088</v>
       </c>
@@ -11426,7 +11424,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="36" t="s">
         <v>1092</v>
       </c>
@@ -11442,7 +11440,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="36" t="s">
         <v>721</v>
       </c>
@@ -11456,7 +11454,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="36"/>
       <c r="C43" s="37" t="s">
         <v>445</v>
@@ -11470,7 +11468,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="36" t="s">
         <v>724</v>
       </c>
@@ -11484,7 +11482,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="36" t="s">
         <v>979</v>
       </c>
@@ -11498,7 +11496,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="36" t="s">
         <v>726</v>
       </c>
@@ -11512,7 +11510,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="36" t="s">
         <v>733</v>
       </c>
@@ -11528,7 +11526,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="36"/>
       <c r="C48" s="37" t="s">
         <v>194</v>
@@ -11542,7 +11540,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="36" t="s">
         <v>1068</v>
       </c>
@@ -11558,7 +11556,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="116" t="s">
         <v>1070</v>
       </c>
@@ -11574,7 +11572,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="36" t="s">
         <v>734</v>
       </c>
@@ -11588,7 +11586,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="36" t="s">
         <v>1091</v>
       </c>
@@ -11604,7 +11602,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="36" t="s">
         <v>1096</v>
       </c>
@@ -11620,7 +11618,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="36" t="s">
         <v>1094</v>
       </c>
@@ -11636,7 +11634,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="36"/>
       <c r="C55" s="37" t="s">
         <v>1099</v>
@@ -11650,7 +11648,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="116" t="s">
         <v>1104</v>
       </c>
@@ -11666,7 +11664,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="116"/>
       <c r="C57" s="37" t="s">
         <v>518</v>
@@ -11680,7 +11678,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="116"/>
       <c r="C58" s="37" t="s">
         <v>518</v>
@@ -11694,7 +11692,7 @@
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="116"/>
       <c r="C59" s="37" t="s">
         <v>451</v>
@@ -11708,7 +11706,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="116"/>
       <c r="C60" s="37" t="s">
         <v>451</v>
@@ -11722,7 +11720,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="116"/>
       <c r="C61" s="37" t="s">
         <v>451</v>
@@ -11736,7 +11734,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="116"/>
       <c r="C62" s="37" t="s">
         <v>1108</v>
@@ -11750,7 +11748,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="116"/>
       <c r="C63" s="37" t="s">
         <v>518</v>
@@ -11764,7 +11762,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="116"/>
       <c r="C64" s="37" t="s">
         <v>1113</v>
@@ -11776,7 +11774,7 @@
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="116"/>
       <c r="C65" s="37" t="s">
         <v>116</v>
@@ -11790,7 +11788,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="116"/>
       <c r="C66" s="37" t="s">
         <v>120</v>
@@ -11804,7 +11802,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="116"/>
       <c r="C67" s="37" t="s">
         <v>451</v>
@@ -11818,7 +11816,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="116"/>
       <c r="C68" s="37" t="s">
         <v>1114</v>
@@ -11832,7 +11830,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="116"/>
       <c r="C69" s="37" t="s">
         <v>1099</v>
@@ -11846,7 +11844,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="116"/>
       <c r="C70" s="37" t="s">
         <v>1113</v>
@@ -11860,7 +11858,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="116"/>
       <c r="C71" s="37" t="s">
         <v>1060</v>
@@ -11874,7 +11872,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="116" t="s">
         <v>1118</v>
       </c>
@@ -11890,7 +11888,7 @@
       </c>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="116"/>
       <c r="C73" s="37" t="s">
         <v>518</v>
@@ -11904,7 +11902,7 @@
       </c>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="116"/>
       <c r="C74" s="37" t="s">
         <v>1114</v>
@@ -11916,7 +11914,7 @@
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="36" t="s">
         <v>1100</v>
       </c>
@@ -11932,7 +11930,7 @@
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="36" t="s">
         <v>561</v>
       </c>
@@ -11949,7 +11947,7 @@
       <c r="G76" s="7"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="36" t="s">
         <v>729</v>
       </c>
@@ -11966,7 +11964,7 @@
       <c r="G77" s="7"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="69" t="s">
         <v>526</v>
       </c>
@@ -11980,232 +11978,232 @@
       </c>
       <c r="G78" s="10"/>
     </row>
-    <row r="80" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E80" s="33" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E81" s="33" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E82" s="33" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="83" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E83" s="33" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="84" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E84" s="33" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="85" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E85" s="33" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="86" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E86" s="33" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="87" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E87" s="33" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="88" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E88" s="33" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="89" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E89" s="33" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="90" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E90" s="33" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="91" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E91" s="33" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="92" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E92" s="33" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="93" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E93" s="33" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="94" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E94" s="33" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="95" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E95" s="33" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="96" spans="5:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E96" s="33" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="97" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E97" s="33" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="98" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E98" s="33" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="99" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E99" s="33" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="100" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E100" s="33" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="101" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E101" s="33" t="s">
         <v>877</v>
       </c>
       <c r="F101" s="33"/>
     </row>
-    <row r="102" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E102" s="33" t="s">
         <v>878</v>
       </c>
       <c r="F102" s="34"/>
     </row>
-    <row r="103" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E103" s="33" t="s">
         <v>886</v>
       </c>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E104" s="33" t="s">
         <v>887</v>
       </c>
       <c r="F104" s="34"/>
     </row>
-    <row r="105" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E105" s="33" t="s">
         <v>889</v>
       </c>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E106" s="33" t="s">
         <v>893</v>
       </c>
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E107" s="33" t="s">
         <v>894</v>
       </c>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E108" s="33" t="s">
         <v>897</v>
       </c>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E109" s="33" t="s">
         <v>898</v>
       </c>
       <c r="F109" s="34"/>
     </row>
-    <row r="110" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E110" s="33" t="s">
         <v>921</v>
       </c>
       <c r="F110" s="34"/>
     </row>
-    <row r="111" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E111" s="33" t="s">
         <v>920</v>
       </c>
       <c r="F111" s="34"/>
     </row>
-    <row r="112" spans="5:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E112" s="33" t="s">
         <v>934</v>
       </c>
       <c r="F112" s="34"/>
     </row>
-    <row r="113" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E113" s="33" t="s">
         <v>922</v>
       </c>
       <c r="F113" s="34"/>
     </row>
-    <row r="114" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E114" s="33" t="s">
         <v>939</v>
       </c>
       <c r="F114" s="34"/>
     </row>
-    <row r="115" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E115" s="33" t="s">
         <v>940</v>
       </c>
       <c r="F115" s="34"/>
     </row>
-    <row r="116" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E116" s="33" t="s">
         <v>914</v>
       </c>
       <c r="F116" s="34"/>
     </row>
-    <row r="117" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E117" s="33" t="s">
         <v>915</v>
       </c>
       <c r="F117" s="34"/>
     </row>
-    <row r="118" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E118" s="33" t="s">
         <v>909</v>
       </c>
       <c r="F118" s="34"/>
     </row>
-    <row r="119" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E119" s="33" t="s">
         <v>908</v>
       </c>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E120" s="33" t="s">
         <v>905</v>
       </c>
       <c r="F120" s="34"/>
     </row>
-    <row r="121" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="74"/>
       <c r="C121" s="74"/>
       <c r="E121" s="33" t="s">
@@ -12213,7 +12211,7 @@
       </c>
       <c r="F121" s="33"/>
     </row>
-    <row r="122" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="74"/>
       <c r="C122" s="74"/>
       <c r="E122" s="33" t="s">
@@ -12221,75 +12219,75 @@
       </c>
       <c r="F122" s="33"/>
     </row>
-    <row r="123" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="75"/>
       <c r="E123" s="21" t="s">
         <v>542</v>
       </c>
       <c r="F123" s="33"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="75"/>
       <c r="C124" s="75"/>
       <c r="E124" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="75"/>
       <c r="C125" s="75"/>
       <c r="E125" s="21" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="75"/>
       <c r="C126" s="75"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="75"/>
       <c r="C127" s="75"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="76"/>
       <c r="C128" s="75"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="76"/>
       <c r="C129" s="75"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="76"/>
       <c r="C130" s="75"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="75"/>
       <c r="C131" s="75"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="75"/>
       <c r="C132" s="75"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="76"/>
       <c r="C133" s="75"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="75"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="75"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="75"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C138" s="75"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="75"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C142" s="75"/>
     </row>
   </sheetData>
@@ -12326,20 +12324,20 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -12347,7 +12345,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -12355,7 +12353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
@@ -12363,7 +12361,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -12371,27 +12369,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -12399,7 +12397,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>131</v>
       </c>
@@ -12407,7 +12405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
         <v>164</v>
       </c>
@@ -12425,7 +12423,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="42">
         <v>40165</v>
@@ -12445,7 +12443,7 @@
         <v>4.2984100816726937E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="42">
         <f t="shared" ref="C14:C20" si="1">C13-7</f>
@@ -12466,7 +12464,7 @@
         <v>3.8681653165078709E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="42">
         <f t="shared" si="1"/>
@@ -12487,7 +12485,7 @@
         <v>3.1254381079652369E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="42">
         <f t="shared" si="1"/>
@@ -12508,7 +12506,7 @@
         <v>3.4584947518294098E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
       <c r="C17" s="42">
         <f t="shared" si="1"/>
@@ -12529,7 +12527,7 @@
         <v>3.2099779036147079E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="21"/>
       <c r="C18" s="42">
         <f t="shared" si="1"/>
@@ -12550,7 +12548,7 @@
         <v>2.6363776171540302E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="21"/>
       <c r="C19" s="42">
         <f t="shared" si="1"/>
@@ -12571,7 +12569,7 @@
         <v>2.4831685670414312E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="21"/>
       <c r="C20" s="42">
         <f t="shared" si="1"/>
@@ -12592,11 +12590,11 @@
         <v>2.2489745401572539E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>172</v>
       </c>
@@ -12604,117 +12602,117 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C27" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C30" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="21" t="s">
         <v>327</v>
       </c>
@@ -12736,25 +12734,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>48</v>
@@ -12763,7 +12761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -12772,7 +12770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -12781,28 +12779,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="21" t="s">
         <v>122</v>
       </c>
@@ -12825,23 +12823,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -12849,7 +12847,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -12857,7 +12855,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -12865,7 +12863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -12873,7 +12871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>92</v>
       </c>
@@ -12881,12 +12879,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>114</v>
       </c>
@@ -12908,19 +12906,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -12928,7 +12926,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -12936,7 +12934,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -12944,17 +12942,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="16" t="s">
         <v>235</v>
       </c>
@@ -12976,19 +12974,19 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -12996,7 +12994,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>48</v>
       </c>
@@ -13004,7 +13002,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -13012,7 +13010,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -13020,42 +13018,42 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>227</v>
       </c>
@@ -13076,41 +13074,41 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IQ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="FG70" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FK75" sqref="FK75"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="53" width="7" style="47" customWidth="1"/>
-    <col min="54" max="54" width="6.54296875" style="47" customWidth="1"/>
+    <col min="54" max="54" width="6.5703125" style="47" customWidth="1"/>
     <col min="55" max="94" width="7" style="47" customWidth="1"/>
-    <col min="95" max="102" width="7.453125" style="47" customWidth="1"/>
-    <col min="103" max="120" width="7.81640625" style="47" customWidth="1"/>
-    <col min="121" max="126" width="7.453125" style="47" customWidth="1"/>
-    <col min="127" max="127" width="4.453125" customWidth="1"/>
-    <col min="128" max="143" width="6.54296875" customWidth="1"/>
-    <col min="144" max="144" width="6.54296875" style="47" customWidth="1"/>
-    <col min="145" max="152" width="7.453125" style="47" customWidth="1"/>
+    <col min="95" max="102" width="7.42578125" style="47" customWidth="1"/>
+    <col min="103" max="120" width="7.85546875" style="47" customWidth="1"/>
+    <col min="121" max="126" width="7.42578125" style="47" customWidth="1"/>
+    <col min="127" max="127" width="4.42578125" customWidth="1"/>
+    <col min="128" max="143" width="6.5703125" customWidth="1"/>
+    <col min="144" max="144" width="6.5703125" style="47" customWidth="1"/>
+    <col min="145" max="152" width="7.42578125" style="47" customWidth="1"/>
     <col min="153" max="153" width="7" style="47" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="8.1796875" style="47" customWidth="1"/>
+    <col min="154" max="154" width="8.140625" style="47" customWidth="1"/>
     <col min="155" max="155" width="7" style="47" customWidth="1"/>
     <col min="156" max="156" width="9" style="47" customWidth="1"/>
     <col min="157" max="157" width="7" style="47" customWidth="1"/>
-    <col min="158" max="160" width="7.453125" style="47" customWidth="1"/>
-    <col min="161" max="168" width="7.453125" customWidth="1"/>
-    <col min="169" max="170" width="7.1796875" customWidth="1"/>
-    <col min="171" max="172" width="8.1796875" customWidth="1"/>
-    <col min="173" max="178" width="7.7265625" customWidth="1"/>
-    <col min="181" max="181" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="158" max="160" width="7.42578125" style="47" customWidth="1"/>
+    <col min="161" max="168" width="7.42578125" customWidth="1"/>
+    <col min="169" max="170" width="7.140625" customWidth="1"/>
+    <col min="171" max="172" width="8.140625" customWidth="1"/>
+    <col min="173" max="178" width="7.7109375" customWidth="1"/>
+    <col min="181" max="181" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
@@ -13151,7 +13149,7 @@
       <c r="ES1" s="99"/>
       <c r="ET1" s="99"/>
     </row>
-    <row r="2" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A2" s="102"/>
       <c r="C2" s="48" t="s">
         <v>836</v>
@@ -13692,7 +13690,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:178" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A3" s="102"/>
       <c r="B3" s="38" t="s">
         <v>118</v>
@@ -13938,23 +13936,23 @@
       </c>
       <c r="DR3" s="52">
         <f t="shared" si="4"/>
-        <v>7105.94</v>
+        <v>6687.5</v>
       </c>
       <c r="DS3" s="52">
         <f t="shared" si="4"/>
-        <v>7805.94</v>
+        <v>7387.5</v>
       </c>
       <c r="DT3" s="52">
         <f t="shared" si="4"/>
-        <v>8505.9399999999987</v>
+        <v>8087.5</v>
       </c>
       <c r="DU3" s="52">
         <f t="shared" si="4"/>
-        <v>9205.9399999999987</v>
+        <v>8787.5</v>
       </c>
       <c r="DV3" s="52">
         <f t="shared" si="4"/>
-        <v>9905.9399999999987</v>
+        <v>9487.5</v>
       </c>
       <c r="DX3" s="102"/>
       <c r="DY3" s="102"/>
@@ -14027,54 +14025,54 @@
       </c>
       <c r="FK3" s="56">
         <f>SUM(FK5:FK7)</f>
-        <v>22137.640000000003</v>
+        <v>21719.199999999997</v>
       </c>
       <c r="FL3" s="56">
         <f>SUM(FL5:FL9)</f>
-        <v>35423.759999999995</v>
+        <v>33750</v>
       </c>
       <c r="FM3" s="56">
         <f t="shared" ref="FM3:FV3" si="6">SUM(FM5:FM9)</f>
-        <v>47488.207999999999</v>
+        <v>45349.52</v>
       </c>
       <c r="FN3" s="56">
         <f t="shared" si="6"/>
-        <v>65699.446399999986</v>
+        <v>62868.943999999996</v>
       </c>
       <c r="FO3" s="56">
         <f t="shared" si="6"/>
-        <v>82827.845119999984</v>
+        <v>79518.527999999991</v>
       </c>
       <c r="FP3" s="56">
         <f t="shared" si="6"/>
-        <v>94693.735295999999</v>
+        <v>91105.857919999995</v>
       </c>
       <c r="FQ3" s="56">
         <f t="shared" si="6"/>
-        <v>106879.59335679999</v>
+        <v>102974.825408</v>
       </c>
       <c r="FR3" s="56">
         <f t="shared" si="6"/>
-        <v>108186.63537023999</v>
+        <v>104795.98755200001</v>
       </c>
       <c r="FS3" s="56">
         <f t="shared" si="6"/>
-        <v>110435.15455475201</v>
+        <v>107516.2274144</v>
       </c>
       <c r="FT3" s="56">
         <f t="shared" si="6"/>
-        <v>113584.6850829696</v>
+        <v>111100.89072377601</v>
       </c>
       <c r="FU3" s="56">
         <f t="shared" si="6"/>
-        <v>117605.88314873728</v>
+        <v>115525.88716446082</v>
       </c>
       <c r="FV3" s="56">
         <f t="shared" si="6"/>
-        <v>115679.78085893672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:178" s="102" customFormat="1" x14ac:dyDescent="0.25">
+        <v>113977.02919811523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:178" s="102" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
       <c r="E4" s="103"/>
@@ -14217,7 +14215,7 @@
       <c r="FC4" s="99"/>
       <c r="FD4" s="99"/>
     </row>
-    <row r="5" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="98"/>
       <c r="B5" s="50" t="s">
         <v>365</v>
@@ -14422,24 +14420,23 @@
         <v>1301.4000000000001</v>
       </c>
       <c r="DR5" s="52">
-        <f>+DN5*0.8</f>
-        <v>1335.44</v>
+        <v>1250.2</v>
       </c>
       <c r="DS5" s="52">
         <f>+DR5-100</f>
-        <v>1235.44</v>
+        <v>1150.2</v>
       </c>
       <c r="DT5" s="52">
         <f>+DS5-100</f>
-        <v>1135.44</v>
+        <v>1050.2</v>
       </c>
       <c r="DU5" s="52">
         <f>+DT5-100</f>
-        <v>1035.44</v>
+        <v>950.2</v>
       </c>
       <c r="DV5" s="52">
         <f>+DU5-100</f>
-        <v>935.44</v>
+        <v>850.2</v>
       </c>
       <c r="DX5" s="98"/>
       <c r="DY5" s="98"/>
@@ -14510,54 +14507,54 @@
       </c>
       <c r="FK5" s="49">
         <f>SUM(Model!DO5:DR5)</f>
-        <v>5338.74</v>
+        <v>5253.5</v>
       </c>
       <c r="FL5" s="49">
         <f>SUM(DS5:DV5)</f>
-        <v>4341.76</v>
+        <v>4000.8</v>
       </c>
       <c r="FM5" s="49">
         <f>+FL5*0.8</f>
-        <v>3473.4080000000004</v>
+        <v>3200.6400000000003</v>
       </c>
       <c r="FN5" s="49">
         <f t="shared" ref="FN5:FQ5" si="7">+FM5*0.8</f>
-        <v>2778.7264000000005</v>
+        <v>2560.5120000000006</v>
       </c>
       <c r="FO5" s="49">
         <f t="shared" si="7"/>
-        <v>2222.9811200000004</v>
+        <v>2048.4096000000004</v>
       </c>
       <c r="FP5" s="49">
         <f t="shared" si="7"/>
-        <v>1778.3848960000005</v>
+        <v>1638.7276800000004</v>
       </c>
       <c r="FQ5" s="49">
         <f t="shared" si="7"/>
-        <v>1422.7079168000005</v>
+        <v>1310.9821440000005</v>
       </c>
       <c r="FR5" s="49">
         <f t="shared" ref="FR5:FV5" si="8">+FQ5*0.8</f>
-        <v>1138.1663334400005</v>
+        <v>1048.7857152000004</v>
       </c>
       <c r="FS5" s="49">
         <f t="shared" si="8"/>
-        <v>910.53306675200042</v>
+        <v>839.02857216000029</v>
       </c>
       <c r="FT5" s="49">
         <f t="shared" si="8"/>
-        <v>728.42645340160038</v>
+        <v>671.22285772800024</v>
       </c>
       <c r="FU5" s="49">
         <f t="shared" si="8"/>
-        <v>582.74116272128038</v>
+        <v>536.97828618240021</v>
       </c>
       <c r="FV5" s="49">
         <f t="shared" si="8"/>
-        <v>466.19293017702432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>429.58262894592019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="98"/>
       <c r="B6" s="50" t="s">
         <v>506</v>
@@ -14702,24 +14699,23 @@
         <v>3112.7</v>
       </c>
       <c r="DR6" s="52">
-        <f>+DQ6+800</f>
-        <v>3912.7</v>
+        <v>3530.1</v>
       </c>
       <c r="DS6" s="52">
         <f>+DR6+500</f>
-        <v>4412.7</v>
+        <v>4030.1</v>
       </c>
       <c r="DT6" s="52">
         <f>+DS6+500</f>
-        <v>4912.7</v>
+        <v>4530.1000000000004</v>
       </c>
       <c r="DU6" s="52">
         <f>+DT6+500</f>
-        <v>5412.7</v>
+        <v>5030.1000000000004</v>
       </c>
       <c r="DV6" s="52">
         <f>+DU6+500</f>
-        <v>5912.7</v>
+        <v>5530.1</v>
       </c>
       <c r="DX6" s="98"/>
       <c r="DY6" s="98"/>
@@ -14768,54 +14764,54 @@
       </c>
       <c r="FK6" s="49">
         <f>SUM(Model!DO6:DR6)</f>
-        <v>11922.7</v>
+        <v>11540.1</v>
       </c>
       <c r="FL6" s="49">
         <f>SUM(DS6:DV6)</f>
-        <v>20650.8</v>
+        <v>19120.400000000001</v>
       </c>
       <c r="FM6" s="49">
         <f t="shared" ref="FM6:FN7" si="11">FL6*1.4</f>
-        <v>28911.119999999995</v>
+        <v>26768.560000000001</v>
       </c>
       <c r="FN6" s="49">
         <f t="shared" si="11"/>
-        <v>40475.567999999992</v>
+        <v>37475.983999999997</v>
       </c>
       <c r="FO6" s="49">
         <f>FN6*1.2</f>
-        <v>48570.681599999989</v>
+        <v>44971.180799999995</v>
       </c>
       <c r="FP6" s="49">
         <f t="shared" ref="FP6:FP7" si="12">FO6*1.1</f>
-        <v>53427.749759999992</v>
+        <v>49468.298879999995</v>
       </c>
       <c r="FQ6" s="49">
         <f>+FP6*1.1</f>
-        <v>58770.524735999992</v>
+        <v>54415.128768000002</v>
       </c>
       <c r="FR6" s="49">
         <f>+FQ6*0.9</f>
-        <v>52893.472262399991</v>
+        <v>48973.615891200003</v>
       </c>
       <c r="FS6" s="49">
         <f>+FR6*0.9</f>
-        <v>47604.125036159996</v>
+        <v>44076.25430208</v>
       </c>
       <c r="FT6" s="49">
         <f>+FS6*0.9</f>
-        <v>42843.712532543999</v>
+        <v>39668.628871872002</v>
       </c>
       <c r="FU6" s="49">
         <f>+FT6*0.9</f>
-        <v>38559.341279289598</v>
+        <v>35701.765984684804</v>
       </c>
       <c r="FV6" s="49">
         <f>+FU6*0.9</f>
-        <v>34703.40715136064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32131.589386216325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="98"/>
       <c r="B7" s="50" t="s">
         <v>525</v>
@@ -14948,24 +14944,23 @@
         <v>1257.8</v>
       </c>
       <c r="DR7" s="52">
-        <f>DQ7+600</f>
-        <v>1857.8</v>
+        <v>1907.2</v>
       </c>
       <c r="DS7" s="52">
         <f>DR7+300</f>
-        <v>2157.8000000000002</v>
+        <v>2207.1999999999998</v>
       </c>
       <c r="DT7" s="52">
         <f>DS7+300</f>
-        <v>2457.8000000000002</v>
+        <v>2507.1999999999998</v>
       </c>
       <c r="DU7" s="52">
         <f>DT7+300</f>
-        <v>2757.8</v>
+        <v>2807.2</v>
       </c>
       <c r="DV7" s="52">
         <f>DU7+300</f>
-        <v>3057.8</v>
+        <v>3107.2</v>
       </c>
       <c r="DX7" s="98"/>
       <c r="DY7" s="98"/>
@@ -15011,54 +15006,54 @@
       </c>
       <c r="FK7" s="49">
         <f>SUM(Model!DO7:DR7)</f>
-        <v>4876.2</v>
+        <v>4925.5999999999995</v>
       </c>
       <c r="FL7" s="49">
         <f>SUM(DS7:DV7)</f>
-        <v>10431.200000000001</v>
+        <v>10628.8</v>
       </c>
       <c r="FM7" s="49">
         <f t="shared" si="11"/>
-        <v>14603.68</v>
+        <v>14880.319999999998</v>
       </c>
       <c r="FN7" s="49">
         <f t="shared" si="11"/>
-        <v>20445.151999999998</v>
+        <v>20832.447999999997</v>
       </c>
       <c r="FO7" s="49">
         <f>FN7*1.2</f>
-        <v>24534.182399999998</v>
+        <v>24998.937599999994</v>
       </c>
       <c r="FP7" s="49">
         <f t="shared" si="12"/>
-        <v>26987.600640000001</v>
+        <v>27498.831359999996</v>
       </c>
       <c r="FQ7" s="49">
         <f>+FP7*1.1</f>
-        <v>29686.360704000002</v>
+        <v>30248.714495999997</v>
       </c>
       <c r="FR7" s="49">
         <f t="shared" ref="FR7:FV7" si="13">+FQ7*1.1</f>
-        <v>32654.996774400006</v>
+        <v>33273.585945599996</v>
       </c>
       <c r="FS7" s="49">
         <f t="shared" si="13"/>
-        <v>35920.496451840008</v>
+        <v>36600.944540160002</v>
       </c>
       <c r="FT7" s="49">
         <f t="shared" si="13"/>
-        <v>39512.546097024009</v>
+        <v>40261.038994176008</v>
       </c>
       <c r="FU7" s="49">
         <f t="shared" si="13"/>
-        <v>43463.800706726412</v>
+        <v>44287.142893593613</v>
       </c>
       <c r="FV7" s="49">
         <f t="shared" si="13"/>
-        <v>47810.180777399059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48715.857182952976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="98"/>
       <c r="B8" s="50" t="s">
         <v>564</v>
@@ -15261,7 +15256,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="98"/>
       <c r="B9" s="50" t="s">
         <v>711</v>
@@ -15463,7 +15458,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="10" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="98"/>
       <c r="B10" s="50" t="s">
         <v>376</v>
@@ -15678,7 +15673,7 @@
       <c r="FP10" s="98"/>
       <c r="FQ10" s="98"/>
     </row>
-    <row r="11" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A11" s="102"/>
       <c r="B11" s="38" t="s">
         <v>372</v>
@@ -15871,8 +15866,7 @@
         <v>879.6</v>
       </c>
       <c r="DR11" s="52">
-        <f>+DN11*1.2</f>
-        <v>941.52</v>
+        <v>952</v>
       </c>
       <c r="DS11" s="52">
         <f>+DO11*1.2</f>
@@ -15888,7 +15882,7 @@
       </c>
       <c r="DV11" s="52">
         <f>+DR11*1.2</f>
-        <v>1129.8239999999998</v>
+        <v>1142.3999999999999</v>
       </c>
       <c r="DW11" s="49"/>
       <c r="DX11" s="98"/>
@@ -15956,54 +15950,54 @@
       </c>
       <c r="FK11" s="49">
         <f>SUM(Model!DO11:DR11)</f>
-        <v>3249.92</v>
+        <v>3260.4</v>
       </c>
       <c r="FL11" s="49">
         <f t="shared" ref="FL11:FL36" si="20">SUM(DS11:DV11)</f>
-        <v>3899.9039999999995</v>
+        <v>3912.4799999999996</v>
       </c>
       <c r="FM11" s="49">
         <f>+FL11*1.2</f>
-        <v>4679.8847999999989</v>
+        <v>4694.9759999999997</v>
       </c>
       <c r="FN11" s="49">
         <f>+FM11*1.1</f>
-        <v>5147.8732799999989</v>
+        <v>5164.4736000000003</v>
       </c>
       <c r="FO11" s="49">
         <f>+FN11*1.1</f>
-        <v>5662.6606079999992</v>
+        <v>5680.9209600000004</v>
       </c>
       <c r="FP11" s="49">
         <f>+FO11*1.1</f>
-        <v>6228.9266687999998</v>
+        <v>6249.0130560000007</v>
       </c>
       <c r="FQ11" s="49">
         <f>+FP11*1.05</f>
-        <v>6540.3730022400005</v>
+        <v>6561.4637088000009</v>
       </c>
       <c r="FR11" s="49">
         <f t="shared" ref="FR11:FV11" si="21">+FQ11*1.05</f>
-        <v>6867.3916523520011</v>
+        <v>6889.5368942400009</v>
       </c>
       <c r="FS11" s="49">
         <f t="shared" si="21"/>
-        <v>7210.761234969601</v>
+        <v>7234.0137389520014</v>
       </c>
       <c r="FT11" s="49">
         <f t="shared" si="21"/>
-        <v>7571.2992967180817</v>
+        <v>7595.7144258996022</v>
       </c>
       <c r="FU11" s="49">
         <f t="shared" si="21"/>
-        <v>7949.8642615539857</v>
+        <v>7975.5001471945825</v>
       </c>
       <c r="FV11" s="49">
         <f t="shared" si="21"/>
-        <v>8347.3574746316845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:178" x14ac:dyDescent="0.25">
+        <v>8374.2751545543124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A12" s="102"/>
       <c r="B12" s="38" t="s">
         <v>369</v>
@@ -16184,8 +16178,7 @@
         <v>1369.3</v>
       </c>
       <c r="DR12" s="51">
-        <f>+DN12*1.1</f>
-        <v>1259.9400000000003</v>
+        <v>1555.2</v>
       </c>
       <c r="DS12" s="51">
         <f>+DO12*1.1</f>
@@ -16201,7 +16194,7 @@
       </c>
       <c r="DV12" s="51">
         <f>+DR12*1.1</f>
-        <v>1385.9340000000004</v>
+        <v>1710.7200000000003</v>
       </c>
       <c r="DW12" s="49"/>
       <c r="DX12" s="98"/>
@@ -16266,54 +16259,54 @@
       </c>
       <c r="FK12" s="49">
         <f>SUM(Model!DO12:DR12)</f>
-        <v>5011.4400000000005</v>
+        <v>5306.7</v>
       </c>
       <c r="FL12" s="49">
         <f t="shared" si="20"/>
-        <v>5512.5839999999998</v>
+        <v>5837.37</v>
       </c>
       <c r="FM12" s="49">
         <f>+FL12*1.01</f>
-        <v>5567.7098399999995</v>
+        <v>5895.7437</v>
       </c>
       <c r="FN12" s="49">
         <f>+FM12*1.01</f>
-        <v>5623.3869384</v>
+        <v>5954.701137</v>
       </c>
       <c r="FO12" s="49">
         <f>+FN12*1.01</f>
-        <v>5679.6208077840001</v>
+        <v>6014.2481483700003</v>
       </c>
       <c r="FP12" s="49">
         <f>+FO12*1.01</f>
-        <v>5736.4170158618399</v>
+        <v>6074.3906298537004</v>
       </c>
       <c r="FQ12" s="49">
         <f>+FP12*0.1</f>
-        <v>573.64170158618401</v>
+        <v>607.43906298537001</v>
       </c>
       <c r="FR12" s="49">
         <f t="shared" ref="FR12:FV12" si="22">+FQ12*0.1</f>
-        <v>57.364170158618407</v>
+        <v>60.743906298537006</v>
       </c>
       <c r="FS12" s="49">
         <f t="shared" si="22"/>
-        <v>5.7364170158618411</v>
+        <v>6.0743906298537009</v>
       </c>
       <c r="FT12" s="49">
         <f t="shared" si="22"/>
-        <v>0.57364170158618411</v>
+        <v>0.60743906298537009</v>
       </c>
       <c r="FU12" s="49">
         <f t="shared" si="22"/>
-        <v>5.7364170158618416E-2</v>
+        <v>6.0743906298537015E-2</v>
       </c>
       <c r="FV12" s="49">
         <f t="shared" si="22"/>
-        <v>5.736417015861842E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:178" x14ac:dyDescent="0.25">
+        <v>6.074390629853702E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A13" s="102"/>
       <c r="B13" s="50" t="s">
         <v>998</v>
@@ -16523,7 +16516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A14" s="102"/>
       <c r="B14" s="38" t="s">
         <v>368</v>
@@ -16861,7 +16854,7 @@
         <v>4.8324883200000033E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A15" s="102"/>
       <c r="B15" t="s">
         <v>54</v>
@@ -17398,7 +17391,7 @@
         <v>1238.4274851206624</v>
       </c>
     </row>
-    <row r="16" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A16" s="102"/>
       <c r="B16" t="s">
         <v>19</v>
@@ -17852,7 +17845,7 @@
         <v>0.173828125</v>
       </c>
     </row>
-    <row r="17" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A17" s="102"/>
       <c r="B17" t="s">
         <v>57</v>
@@ -18407,7 +18400,7 @@
         <v>493.95797487166249</v>
       </c>
     </row>
-    <row r="18" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A18" s="102"/>
       <c r="B18" s="38" t="s">
         <v>565</v>
@@ -18619,7 +18612,7 @@
         <v>246.97898743583124</v>
       </c>
     </row>
-    <row r="19" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A19" s="102"/>
       <c r="B19" s="38" t="s">
         <v>373</v>
@@ -18935,7 +18928,7 @@
         <v>9.7754340699400056E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A20" s="102"/>
       <c r="B20" s="38" t="s">
         <v>370</v>
@@ -19279,7 +19272,7 @@
         <v>579.8168519584458</v>
       </c>
     </row>
-    <row r="21" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A21" s="102"/>
       <c r="B21" t="s">
         <v>18</v>
@@ -19753,7 +19746,7 @@
         <v>138.52994425173006</v>
       </c>
     </row>
-    <row r="22" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A22" s="102"/>
       <c r="B22" s="38" t="s">
         <v>366</v>
@@ -20087,7 +20080,7 @@
         <v>238.91446715652003</v>
       </c>
     </row>
-    <row r="23" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A23" s="102"/>
       <c r="B23" s="38" t="s">
         <v>375</v>
@@ -20394,7 +20387,7 @@
         <v>1002.8212549554335</v>
       </c>
     </row>
-    <row r="24" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A24" s="102"/>
       <c r="B24" s="38" t="s">
         <v>367</v>
@@ -20715,7 +20708,7 @@
         <v>122.73481091520004</v>
       </c>
     </row>
-    <row r="25" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A25" s="102"/>
       <c r="B25" s="38" t="s">
         <v>256</v>
@@ -21101,7 +21094,7 @@
         <v>210.11362800426002</v>
       </c>
     </row>
-    <row r="26" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A26" s="102"/>
       <c r="B26" t="s">
         <v>77</v>
@@ -21421,7 +21414,7 @@
         <v>89.680094793720016</v>
       </c>
     </row>
-    <row r="27" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A27" s="102"/>
       <c r="B27" t="s">
         <v>16</v>
@@ -21886,7 +21879,7 @@
         <v>127.54657338858006</v>
       </c>
     </row>
-    <row r="28" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A28" s="102"/>
       <c r="B28" t="s">
         <v>78</v>
@@ -22261,7 +22254,7 @@
         <v>68.898859763760029</v>
       </c>
     </row>
-    <row r="29" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A29" s="102"/>
       <c r="B29" t="s">
         <v>7</v>
@@ -22776,7 +22769,7 @@
         <v>11.053106551170002</v>
       </c>
     </row>
-    <row r="30" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A30" s="102"/>
       <c r="B30" s="38" t="s">
         <v>371</v>
@@ -23074,7 +23067,7 @@
         <v>175.55959459035</v>
       </c>
     </row>
-    <row r="31" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A31" s="102"/>
       <c r="B31" t="s">
         <v>14</v>
@@ -23514,7 +23507,7 @@
         <v>62.343705089880032</v>
       </c>
     </row>
-    <row r="32" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A32" s="102"/>
       <c r="B32" t="s">
         <v>492</v>
@@ -23842,7 +23835,7 @@
         <v>127.89525182868002</v>
       </c>
     </row>
-    <row r="33" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A33" s="102"/>
       <c r="B33" t="s">
         <v>62</v>
@@ -24161,7 +24154,7 @@
         <v>166.73803005582005</v>
       </c>
     </row>
-    <row r="34" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A34" s="102"/>
       <c r="B34" s="38" t="s">
         <v>377</v>
@@ -24445,7 +24438,7 @@
         <v>1.502308600000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A35" s="102"/>
       <c r="B35" s="38" t="s">
         <v>454</v>
@@ -24686,7 +24679,7 @@
       <c r="FP35" s="49"/>
       <c r="FQ35" s="49"/>
     </row>
-    <row r="36" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A36" s="102"/>
       <c r="B36" s="38" t="s">
         <v>972</v>
@@ -24920,7 +24913,7 @@
         <v>1685.9325990650013</v>
       </c>
     </row>
-    <row r="37" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A37" s="102"/>
       <c r="B37" s="38" t="s">
         <v>879</v>
@@ -25158,7 +25151,7 @@
         <v>3360.0754596750021</v>
       </c>
     </row>
-    <row r="38" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A38" s="102"/>
       <c r="B38" s="38" t="s">
         <v>980</v>
@@ -25402,7 +25395,7 @@
         <v>109.50309077004009</v>
       </c>
     </row>
-    <row r="39" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A39" s="102"/>
       <c r="B39" s="38" t="s">
         <v>981</v>
@@ -25646,7 +25639,7 @@
         <v>302.94911933968024</v>
       </c>
     </row>
-    <row r="40" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A40" s="102"/>
       <c r="B40" s="38" t="s">
         <v>853</v>
@@ -25885,7 +25878,7 @@
         <v>336.14902282896014</v>
       </c>
     </row>
-    <row r="41" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A41" s="102"/>
       <c r="B41" s="38" t="s">
         <v>374</v>
@@ -26108,7 +26101,7 @@
       <c r="FP41" s="49"/>
       <c r="FQ41" s="49"/>
     </row>
-    <row r="42" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A42" s="102"/>
       <c r="B42" s="38" t="s">
         <v>494</v>
@@ -26307,7 +26300,7 @@
       <c r="FP42" s="49"/>
       <c r="FQ42" s="49"/>
     </row>
-    <row r="43" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A43" s="102"/>
       <c r="B43" s="38" t="s">
         <v>455</v>
@@ -26532,7 +26525,7 @@
       <c r="FP43" s="49"/>
       <c r="FQ43" s="49"/>
     </row>
-    <row r="44" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A44" s="102"/>
       <c r="B44" t="s">
         <v>15</v>
@@ -26912,7 +26905,7 @@
       <c r="FP44" s="49"/>
       <c r="FQ44" s="49"/>
     </row>
-    <row r="45" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A45" s="102"/>
       <c r="B45" t="s">
         <v>69</v>
@@ -27170,7 +27163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A46" s="102"/>
       <c r="B46" s="38" t="s">
         <v>508</v>
@@ -27357,7 +27350,7 @@
       <c r="FP46" s="49"/>
       <c r="FQ46" s="49"/>
     </row>
-    <row r="47" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A47" s="102"/>
       <c r="B47" s="38" t="s">
         <v>507</v>
@@ -27552,7 +27545,7 @@
       <c r="FP47" s="49"/>
       <c r="FQ47" s="49"/>
     </row>
-    <row r="48" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A48" s="102"/>
       <c r="B48" t="s">
         <v>79</v>
@@ -27883,7 +27876,7 @@
       <c r="FK48" s="49"/>
       <c r="FL48" s="49"/>
     </row>
-    <row r="49" spans="1:168" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:168" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="106"/>
       <c r="B49" s="38" t="s">
         <v>261</v>
@@ -28135,7 +28128,7 @@
       <c r="FK49" s="49"/>
       <c r="FL49" s="49"/>
     </row>
-    <row r="50" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A50" s="102"/>
       <c r="B50" t="s">
         <v>55</v>
@@ -28483,7 +28476,7 @@
       <c r="FK50" s="49"/>
       <c r="FL50" s="49"/>
     </row>
-    <row r="51" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A51" s="102"/>
       <c r="B51" s="38" t="s">
         <v>41</v>
@@ -28659,7 +28652,7 @@
       <c r="FK51" s="49"/>
       <c r="FL51" s="49"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A52" s="102"/>
       <c r="B52" t="s">
         <v>70</v>
@@ -28910,7 +28903,7 @@
       <c r="FK52" s="49"/>
       <c r="FL52" s="49"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A53" s="102"/>
       <c r="B53" t="s">
         <v>61</v>
@@ -29210,7 +29203,7 @@
       <c r="FK53" s="49"/>
       <c r="FL53" s="49"/>
     </row>
-    <row r="54" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A54" s="102"/>
       <c r="B54" t="s">
         <v>63</v>
@@ -29430,7 +29423,7 @@
       <c r="FK54" s="49"/>
       <c r="FL54" s="49"/>
     </row>
-    <row r="55" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A55" s="102"/>
       <c r="B55" t="s">
         <v>64</v>
@@ -29627,7 +29620,7 @@
       <c r="FK55" s="49"/>
       <c r="FL55" s="49"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A56" s="102"/>
       <c r="B56" s="38" t="s">
         <v>758</v>
@@ -29853,7 +29846,7 @@
       <c r="FK56" s="49"/>
       <c r="FL56" s="49"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A57" s="102"/>
       <c r="B57" t="s">
         <v>65</v>
@@ -30041,7 +30034,7 @@
       <c r="FK57" s="49"/>
       <c r="FL57" s="49"/>
     </row>
-    <row r="58" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A58" s="102"/>
       <c r="B58" t="s">
         <v>66</v>
@@ -30231,7 +30224,7 @@
       <c r="FK58" s="49"/>
       <c r="FL58" s="49"/>
     </row>
-    <row r="59" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A59" s="102"/>
       <c r="B59" t="s">
         <v>67</v>
@@ -30422,7 +30415,7 @@
       <c r="FK59" s="49"/>
       <c r="FL59" s="49"/>
     </row>
-    <row r="60" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A60" s="102"/>
       <c r="B60" t="s">
         <v>71</v>
@@ -30608,7 +30601,7 @@
       <c r="FK60" s="49"/>
       <c r="FL60" s="49"/>
     </row>
-    <row r="61" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A61" s="102"/>
       <c r="B61" t="s">
         <v>72</v>
@@ -30881,7 +30874,7 @@
       <c r="FK61" s="49"/>
       <c r="FL61" s="49"/>
     </row>
-    <row r="62" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A62" s="102"/>
       <c r="B62" t="s">
         <v>73</v>
@@ -31069,7 +31062,7 @@
       <c r="FK62" s="49"/>
       <c r="FL62" s="49"/>
     </row>
-    <row r="63" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A63" s="102"/>
       <c r="B63" t="s">
         <v>68</v>
@@ -31302,7 +31295,7 @@
       <c r="FK63" s="49"/>
       <c r="FL63" s="49"/>
     </row>
-    <row r="64" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A64" s="102"/>
       <c r="B64" t="s">
         <v>74</v>
@@ -31529,7 +31522,7 @@
       <c r="FK64" s="49"/>
       <c r="FL64" s="49"/>
     </row>
-    <row r="65" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A65" s="102"/>
       <c r="B65" t="s">
         <v>17</v>
@@ -31893,7 +31886,7 @@
       <c r="FK65" s="49"/>
       <c r="FL65" s="49"/>
     </row>
-    <row r="66" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A66" s="102"/>
       <c r="B66" s="38" t="s">
         <v>238</v>
@@ -32065,7 +32058,7 @@
       <c r="FK66" s="49"/>
       <c r="FL66" s="49"/>
     </row>
-    <row r="67" spans="1:178" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:178" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="106"/>
       <c r="B67" s="38" t="s">
         <v>275</v>
@@ -32237,7 +32230,7 @@
       <c r="FK67" s="49"/>
       <c r="FL67" s="49"/>
     </row>
-    <row r="68" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A68" s="102"/>
       <c r="B68" t="s">
         <v>80</v>
@@ -32499,7 +32492,7 @@
       <c r="FK68" s="49"/>
       <c r="FL68" s="49"/>
     </row>
-    <row r="69" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A69" s="102"/>
       <c r="B69" t="s">
         <v>76</v>
@@ -32685,7 +32678,7 @@
       <c r="FK69" s="49"/>
       <c r="FL69" s="49"/>
     </row>
-    <row r="70" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A70" s="102"/>
       <c r="B70" s="38" t="s">
         <v>249</v>
@@ -32881,7 +32874,7 @@
       <c r="FK70" s="49"/>
       <c r="FL70" s="49"/>
     </row>
-    <row r="71" spans="1:178" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:178" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="107"/>
       <c r="B71" s="55" t="s">
         <v>379</v>
@@ -33364,23 +33357,23 @@
       </c>
       <c r="DR71" s="56">
         <f>SUM(DR5:DR45)</f>
-        <v>13388.310000000001</v>
+        <v>13275.610000000002</v>
       </c>
       <c r="DS71" s="56">
         <f>SUM(DS5:DS41)</f>
-        <v>13351.86</v>
+        <v>12933.420000000002</v>
       </c>
       <c r="DT71" s="56">
         <f t="shared" ref="DT71:DV71" si="117">SUM(DT5:DT41)</f>
-        <v>14738.17</v>
+        <v>14319.730000000001</v>
       </c>
       <c r="DU71" s="56">
         <f t="shared" si="117"/>
-        <v>15682.680000000004</v>
+        <v>15264.240000000005</v>
       </c>
       <c r="DV71" s="56">
         <f t="shared" si="117"/>
-        <v>16829.679000000004</v>
+        <v>16748.601000000002</v>
       </c>
       <c r="DW71" s="57"/>
       <c r="DX71" s="57">
@@ -33510,54 +33503,54 @@
       </c>
       <c r="FK71" s="56">
         <f>SUM(FK5:FK70)</f>
-        <v>44786.01</v>
+        <v>44673.30999999999</v>
       </c>
       <c r="FL71" s="56">
         <f>SUM(FL5:FL70)</f>
-        <v>60719.989000000001</v>
+        <v>59383.591</v>
       </c>
       <c r="FM71" s="56">
         <f t="shared" si="119"/>
-        <v>74782.531049999976</v>
+        <v>72986.968109999987</v>
       </c>
       <c r="FN71" s="56">
         <f t="shared" si="119"/>
-        <v>94231.459912499966</v>
+        <v>91748.872031099978</v>
       </c>
       <c r="FO71" s="56">
         <f t="shared" si="119"/>
-        <v>112464.311047825</v>
+        <v>109507.881620411</v>
       </c>
       <c r="FP71" s="56">
         <f t="shared" si="119"/>
-        <v>125695.51050707322</v>
+        <v>122465.69313226508</v>
       </c>
       <c r="FQ71" s="56">
         <f t="shared" si="119"/>
-        <v>126477.86816037462</v>
+        <v>122627.98827953385</v>
       </c>
       <c r="FR71" s="56">
         <f t="shared" si="119"/>
-        <v>127045.92305266077</v>
+        <v>123680.8002124487</v>
       </c>
       <c r="FS71" s="56">
         <f t="shared" si="119"/>
-        <v>129707.36927986014</v>
+        <v>126812.03261710452</v>
       </c>
       <c r="FT71" s="56">
         <f t="shared" si="119"/>
-        <v>133471.86627842992</v>
+        <v>131012.52084577925</v>
       </c>
       <c r="FU71" s="56">
         <f t="shared" si="119"/>
-        <v>138217.42228366871</v>
+        <v>136163.06556476903</v>
       </c>
       <c r="FV71" s="56">
         <f t="shared" si="119"/>
-        <v>135023.9451228611</v>
-      </c>
-    </row>
-    <row r="72" spans="1:178" x14ac:dyDescent="0.25">
+        <v>133348.11147993585</v>
+      </c>
+    </row>
+    <row r="72" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A72" s="102"/>
       <c r="B72" t="s">
         <v>58</v>
@@ -33851,7 +33844,7 @@
       </c>
       <c r="DR72" s="51">
         <f t="shared" ref="DR72" si="120">+DR71-DR73</f>
-        <v>2543.7788999999993</v>
+        <v>2522.3658999999989</v>
       </c>
       <c r="DS72" s="51"/>
       <c r="DT72" s="51"/>
@@ -33961,54 +33954,54 @@
       </c>
       <c r="FK72" s="49">
         <f>SUM(Model!DO72:DR72)</f>
-        <v>8140.678899999999</v>
+        <v>8119.2658999999985</v>
       </c>
       <c r="FL72" s="49">
         <f t="shared" ref="FL72:FQ72" si="124">FL71-FL73</f>
-        <v>12751.197690000001</v>
+        <v>12470.554109999997</v>
       </c>
       <c r="FM72" s="49">
         <f t="shared" si="124"/>
-        <v>15704.331520499989</v>
+        <v>15327.263303099993</v>
       </c>
       <c r="FN72" s="49">
         <f t="shared" si="124"/>
-        <v>19788.60658162499</v>
+        <v>19267.26312653099</v>
       </c>
       <c r="FO72" s="49">
         <f t="shared" si="124"/>
-        <v>23617.505320043245</v>
+        <v>22996.655140286312</v>
       </c>
       <c r="FP72" s="49">
         <f t="shared" si="124"/>
-        <v>26396.057206485377</v>
+        <v>25717.795557775666</v>
       </c>
       <c r="FQ72" s="49">
         <f t="shared" si="124"/>
-        <v>18971.680224056196</v>
+        <v>18394.198241930077</v>
       </c>
       <c r="FR72" s="49">
         <f t="shared" ref="FR72:FU72" si="125">FR71-FR73</f>
-        <v>19056.888457899113</v>
+        <v>18552.120031867307</v>
       </c>
       <c r="FS72" s="49">
         <f t="shared" si="125"/>
-        <v>19456.105391979028</v>
+        <v>19021.804892565677</v>
       </c>
       <c r="FT72" s="49">
         <f t="shared" si="125"/>
-        <v>20020.779941764486</v>
+        <v>19651.878126866883</v>
       </c>
       <c r="FU72" s="49">
         <f t="shared" si="125"/>
-        <v>20732.613342550307</v>
+        <v>20424.459834715351</v>
       </c>
       <c r="FV72" s="49">
         <f>FV71-FV73</f>
-        <v>20253.591768429163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:178" x14ac:dyDescent="0.25">
+        <v>20002.216721990379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A73" s="102"/>
       <c r="B73" t="s">
         <v>123</v>
@@ -34374,23 +34367,23 @@
       </c>
       <c r="DR73" s="51">
         <f t="shared" ref="DR73" si="142">+DR71*0.81</f>
-        <v>10844.531100000002</v>
+        <v>10753.244100000004</v>
       </c>
       <c r="DS73" s="51">
         <f>+DS71*0.81</f>
-        <v>10815.006600000001</v>
+        <v>10476.070200000002</v>
       </c>
       <c r="DT73" s="51">
         <f>+DT71*0.81</f>
-        <v>11937.9177</v>
+        <v>11598.981300000001</v>
       </c>
       <c r="DU73" s="51">
         <f>+DU71*0.81</f>
-        <v>12702.970800000005</v>
+        <v>12364.034400000006</v>
       </c>
       <c r="DV73" s="51">
         <f>+DV71*0.81</f>
-        <v>13632.039990000005</v>
+        <v>13566.366810000003</v>
       </c>
       <c r="DX73" s="49"/>
       <c r="DY73" s="49"/>
@@ -34508,54 +34501,54 @@
       </c>
       <c r="FK73" s="51">
         <f>FK71-FK72</f>
-        <v>36645.331100000003</v>
+        <v>36554.044099999992</v>
       </c>
       <c r="FL73" s="51">
         <f t="shared" ref="FL73:FO73" si="147">FL71*0.79</f>
-        <v>47968.791310000001</v>
+        <v>46913.036890000003</v>
       </c>
       <c r="FM73" s="51">
         <f t="shared" si="147"/>
-        <v>59078.199529499987</v>
+        <v>57659.704806899994</v>
       </c>
       <c r="FN73" s="51">
         <f t="shared" si="147"/>
-        <v>74442.853330874976</v>
+        <v>72481.608904568988</v>
       </c>
       <c r="FO73" s="51">
         <f t="shared" si="147"/>
-        <v>88846.805727781757</v>
+        <v>86511.226480124693</v>
       </c>
       <c r="FP73" s="51">
         <f>FP71*0.79</f>
-        <v>99299.453300587847</v>
+        <v>96747.897574489412</v>
       </c>
       <c r="FQ73" s="51">
         <f>FQ71*0.85</f>
-        <v>107506.18793631843</v>
+        <v>104233.79003760377</v>
       </c>
       <c r="FR73" s="51">
         <f t="shared" ref="FR73:FU73" si="148">FR71*0.85</f>
-        <v>107989.03459476166</v>
+        <v>105128.68018058139</v>
       </c>
       <c r="FS73" s="51">
         <f t="shared" si="148"/>
-        <v>110251.26388788111</v>
+        <v>107790.22772453884</v>
       </c>
       <c r="FT73" s="51">
         <f t="shared" si="148"/>
-        <v>113451.08633666544</v>
+        <v>111360.64271891236</v>
       </c>
       <c r="FU73" s="51">
         <f t="shared" si="148"/>
-        <v>117484.8089411184</v>
+        <v>115738.60573005368</v>
       </c>
       <c r="FV73" s="51">
         <f>FV71*0.85</f>
-        <v>114770.35335443194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:178" x14ac:dyDescent="0.25">
+        <v>113345.89475794547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A74" s="102"/>
       <c r="B74" t="s">
         <v>59</v>
@@ -34956,50 +34949,50 @@
       </c>
       <c r="FL74" s="49">
         <f t="shared" ref="FL74:FP74" si="155">+FL71*0.25</f>
-        <v>15179.99725</v>
+        <v>14845.89775</v>
       </c>
       <c r="FM74" s="49">
         <f t="shared" si="155"/>
-        <v>18695.632762499994</v>
+        <v>18246.742027499997</v>
       </c>
       <c r="FN74" s="49">
         <f t="shared" si="155"/>
-        <v>23557.864978124991</v>
+        <v>22937.218007774994</v>
       </c>
       <c r="FO74" s="49">
         <f t="shared" si="155"/>
-        <v>28116.07776195625</v>
+        <v>27376.970405102751</v>
       </c>
       <c r="FP74" s="49">
         <f t="shared" si="155"/>
-        <v>31423.877626768306</v>
+        <v>30616.42328306627</v>
       </c>
       <c r="FQ74" s="49">
         <f>+FQ71*0.25</f>
-        <v>31619.467040093656</v>
+        <v>30656.997069883462</v>
       </c>
       <c r="FR74" s="49">
         <f t="shared" ref="FR74:FU74" si="156">+FR71*0.25</f>
-        <v>31761.480763165193</v>
+        <v>30920.200053112174</v>
       </c>
       <c r="FS74" s="49">
         <f t="shared" si="156"/>
-        <v>32426.842319965035</v>
+        <v>31703.008154276129</v>
       </c>
       <c r="FT74" s="49">
         <f>+FT71*0.25</f>
-        <v>33367.966569607481</v>
+        <v>32753.130211444812</v>
       </c>
       <c r="FU74" s="49">
         <f t="shared" si="156"/>
-        <v>34554.355570917178</v>
+        <v>34040.766391192257</v>
       </c>
       <c r="FV74" s="49">
         <f>+FV71*0.25</f>
-        <v>33755.986280715275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:178" x14ac:dyDescent="0.25">
+        <v>33337.027869983962</v>
+      </c>
+    </row>
+    <row r="75" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A75" s="102"/>
       <c r="B75" t="s">
         <v>60</v>
@@ -35408,7 +35401,7 @@
       <c r="FU75" s="49"/>
       <c r="FV75" s="49"/>
     </row>
-    <row r="76" spans="1:178" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A76" s="102"/>
       <c r="B76" s="38" t="s">
         <v>250</v>
@@ -35867,50 +35860,50 @@
       </c>
       <c r="FL76" s="51">
         <f t="shared" ref="FL76" si="180">FL75+FL74</f>
-        <v>25278.451950000002</v>
+        <v>24944.352450000002</v>
       </c>
       <c r="FM76" s="51">
         <f t="shared" ref="FM76" si="181">FM75+FM74</f>
-        <v>18695.632762499994</v>
+        <v>18246.742027499997</v>
       </c>
       <c r="FN76" s="51">
         <f t="shared" ref="FN76" si="182">FN75+FN74</f>
-        <v>23557.864978124991</v>
+        <v>22937.218007774994</v>
       </c>
       <c r="FO76" s="51">
         <f t="shared" ref="FO76" si="183">FO75+FO74</f>
-        <v>28116.07776195625</v>
+        <v>27376.970405102751</v>
       </c>
       <c r="FP76" s="51">
         <f>FP75+FP74</f>
-        <v>31423.877626768306</v>
+        <v>30616.42328306627</v>
       </c>
       <c r="FQ76" s="51">
         <f>FQ75+FQ74</f>
-        <v>31619.467040093656</v>
+        <v>30656.997069883462</v>
       </c>
       <c r="FR76" s="51">
         <f t="shared" ref="FR76:FU76" si="184">FR75+FR74</f>
-        <v>31761.480763165193</v>
+        <v>30920.200053112174</v>
       </c>
       <c r="FS76" s="51">
         <f t="shared" si="184"/>
-        <v>32426.842319965035</v>
+        <v>31703.008154276129</v>
       </c>
       <c r="FT76" s="51">
         <f t="shared" si="184"/>
-        <v>33367.966569607481</v>
+        <v>32753.130211444812</v>
       </c>
       <c r="FU76" s="51">
         <f t="shared" si="184"/>
-        <v>34554.355570917178</v>
+        <v>34040.766391192257</v>
       </c>
       <c r="FV76" s="51">
         <f>FV75+FV74</f>
-        <v>33755.986280715275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:178" x14ac:dyDescent="0.25">
+        <v>33337.027869983962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A77" s="102"/>
       <c r="B77" s="38" t="s">
         <v>251</v>
@@ -36276,23 +36269,23 @@
       </c>
       <c r="DR77" s="51">
         <f t="shared" si="203"/>
-        <v>5908.5011000000013</v>
+        <v>5817.2141000000029</v>
       </c>
       <c r="DS77" s="51">
         <f t="shared" ref="DS77:DV77" si="204">DS73-DS76</f>
-        <v>10815.006600000001</v>
+        <v>10476.070200000002</v>
       </c>
       <c r="DT77" s="51">
         <f t="shared" si="204"/>
-        <v>11937.9177</v>
+        <v>11598.981300000001</v>
       </c>
       <c r="DU77" s="51">
         <f t="shared" si="204"/>
-        <v>12702.970800000005</v>
+        <v>12364.034400000006</v>
       </c>
       <c r="DV77" s="51">
         <f t="shared" si="204"/>
-        <v>13632.039990000005</v>
+        <v>13566.366810000003</v>
       </c>
       <c r="DX77" s="51"/>
       <c r="DY77" s="51"/>
@@ -36413,54 +36406,54 @@
       </c>
       <c r="FK77" s="51">
         <f>+FK73-FK76</f>
-        <v>17726.201100000002</v>
+        <v>17634.914099999991</v>
       </c>
       <c r="FL77" s="51">
         <f t="shared" ref="FL77" si="210">+FL73-FL76</f>
-        <v>22690.339359999998</v>
+        <v>21968.684440000001</v>
       </c>
       <c r="FM77" s="51">
         <f t="shared" ref="FM77" si="211">+FM73-FM76</f>
-        <v>40382.566766999997</v>
+        <v>39412.962779399997</v>
       </c>
       <c r="FN77" s="51">
         <f t="shared" ref="FN77" si="212">+FN73-FN76</f>
-        <v>50884.988352749984</v>
+        <v>49544.390896793993</v>
       </c>
       <c r="FO77" s="51">
         <f t="shared" ref="FO77" si="213">+FO73-FO76</f>
-        <v>60730.727965825507</v>
+        <v>59134.256075021942</v>
       </c>
       <c r="FP77" s="51">
         <f>+FP73-FP76</f>
-        <v>67875.575673819549</v>
+        <v>66131.474291423146</v>
       </c>
       <c r="FQ77" s="51">
         <f>+FQ73-FQ76</f>
-        <v>75886.720896224768</v>
+        <v>73576.792967720306</v>
       </c>
       <c r="FR77" s="51">
         <f t="shared" ref="FR77:FU77" si="214">+FR73-FR76</f>
-        <v>76227.553831596466</v>
+        <v>74208.480127469214</v>
       </c>
       <c r="FS77" s="51">
         <f t="shared" si="214"/>
-        <v>77824.421567916084</v>
+        <v>76087.219570262707</v>
       </c>
       <c r="FT77" s="51">
         <f t="shared" si="214"/>
-        <v>80083.119767057957</v>
+        <v>78607.51250746756</v>
       </c>
       <c r="FU77" s="51">
         <f t="shared" si="214"/>
-        <v>82930.453370201227</v>
+        <v>81697.83933886142</v>
       </c>
       <c r="FV77" s="51">
         <f>+FV73-FV76</f>
-        <v>81014.367073716654</v>
-      </c>
-    </row>
-    <row r="78" spans="1:178" x14ac:dyDescent="0.25">
+        <v>80008.866887961514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A78" s="102"/>
       <c r="B78" t="s">
         <v>78</v>
@@ -36862,50 +36855,50 @@
       </c>
       <c r="FL78" s="49">
         <f t="shared" ref="FL78:FQ78" si="218">+FK99*$FY$97</f>
-        <v>-87.757341080000003</v>
+        <v>-89.327477480000198</v>
       </c>
       <c r="FM78" s="49">
         <f t="shared" si="218"/>
-        <v>273.88397122271994</v>
+        <v>260.74223392031979</v>
       </c>
       <c r="FN78" s="49">
         <f t="shared" si="218"/>
-        <v>924.38718303428334</v>
+        <v>895.52151413344484</v>
       </c>
       <c r="FO78" s="49">
         <f t="shared" si="218"/>
-        <v>1753.3371916068318</v>
+        <v>1702.5601127082841</v>
       </c>
       <c r="FP78" s="49">
         <f t="shared" si="218"/>
-        <v>2753.082234125749</v>
+        <v>2675.9491717119677</v>
       </c>
       <c r="FQ78" s="49">
         <f t="shared" si="218"/>
-        <v>3883.1407606528737</v>
+        <v>3776.8679471221299</v>
       </c>
       <c r="FR78" s="49">
         <f t="shared" ref="FR78:FU78" si="219">+FQ99*$FY$97</f>
-        <v>5159.4585471629161</v>
+        <v>5014.5265217596088</v>
       </c>
       <c r="FS78" s="49">
         <f t="shared" si="219"/>
-        <v>6461.6507452230653</v>
+        <v>6282.0946281472698</v>
       </c>
       <c r="FT78" s="49">
         <f t="shared" si="219"/>
-        <v>7810.2279022332923</v>
+        <v>7600.0036553218297</v>
       </c>
       <c r="FU78" s="49">
         <f t="shared" si="219"/>
-        <v>9216.5214649419522</v>
+        <v>8979.3239139264606</v>
       </c>
       <c r="FV78" s="49">
         <f>+FU99*$FY$97</f>
-        <v>10690.873062304243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:178" x14ac:dyDescent="0.25">
+        <v>10430.158525971066</v>
+      </c>
+    </row>
+    <row r="79" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A79" s="102"/>
       <c r="B79" t="s">
         <v>81</v>
@@ -37271,23 +37264,23 @@
       </c>
       <c r="DR79" s="51">
         <f t="shared" si="234"/>
-        <v>5908.5011000000013</v>
+        <v>5817.2141000000029</v>
       </c>
       <c r="DS79" s="51">
         <f t="shared" si="234"/>
-        <v>10815.006600000001</v>
+        <v>10476.070200000002</v>
       </c>
       <c r="DT79" s="51">
         <f t="shared" si="234"/>
-        <v>11937.9177</v>
+        <v>11598.981300000001</v>
       </c>
       <c r="DU79" s="51">
         <f t="shared" si="234"/>
-        <v>12702.970800000005</v>
+        <v>12364.034400000006</v>
       </c>
       <c r="DV79" s="51">
         <f t="shared" si="234"/>
-        <v>13632.039990000005</v>
+        <v>13566.366810000003</v>
       </c>
       <c r="DX79" s="51"/>
       <c r="DY79" s="51"/>
@@ -37411,54 +37404,54 @@
       </c>
       <c r="FK79" s="51">
         <f>FK77+FK78</f>
-        <v>17276.201100000002</v>
+        <v>17184.914099999991</v>
       </c>
       <c r="FL79" s="51">
         <f t="shared" si="239"/>
-        <v>22602.582018919999</v>
+        <v>21879.35696252</v>
       </c>
       <c r="FM79" s="51">
         <f t="shared" si="239"/>
-        <v>40656.450738222717</v>
+        <v>39673.705013320316</v>
       </c>
       <c r="FN79" s="51">
         <f t="shared" si="239"/>
-        <v>51809.375535784267</v>
+        <v>50439.912410927442</v>
       </c>
       <c r="FO79" s="51">
         <f t="shared" si="239"/>
-        <v>62484.065157432342</v>
+        <v>60836.816187730226</v>
       </c>
       <c r="FP79" s="51">
         <f t="shared" si="239"/>
-        <v>70628.657907945293</v>
+        <v>68807.423463135114</v>
       </c>
       <c r="FQ79" s="51">
         <f>FQ77+FQ78</f>
-        <v>79769.861656877649</v>
+        <v>77353.660914842432</v>
       </c>
       <c r="FR79" s="51">
         <f t="shared" ref="FR79:FU79" si="240">FR77+FR78</f>
-        <v>81387.012378759377</v>
+        <v>79223.006649228817</v>
       </c>
       <c r="FS79" s="51">
         <f t="shared" si="240"/>
-        <v>84286.072313139157</v>
+        <v>82369.314198409978</v>
       </c>
       <c r="FT79" s="51">
         <f t="shared" si="240"/>
-        <v>87893.347669291252</v>
+        <v>86207.516162789383</v>
       </c>
       <c r="FU79" s="51">
         <f t="shared" si="240"/>
-        <v>92146.974835143177</v>
+        <v>90677.163252787883</v>
       </c>
       <c r="FV79" s="51">
         <f>FV77+FV78</f>
-        <v>91705.240136020904</v>
-      </c>
-    </row>
-    <row r="80" spans="1:178" x14ac:dyDescent="0.25">
+        <v>90439.025413932584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:178" x14ac:dyDescent="0.2">
       <c r="A80" s="102"/>
       <c r="B80" t="s">
         <v>82</v>
@@ -37749,7 +37742,7 @@
       </c>
       <c r="DR80" s="51">
         <f>+DR79*0.15</f>
-        <v>886.27516500000013</v>
+        <v>872.58211500000039</v>
       </c>
       <c r="DS80" s="51"/>
       <c r="DT80" s="51"/>
@@ -37858,54 +37851,54 @@
       </c>
       <c r="FK80" s="51">
         <f>FK79*0.14</f>
-        <v>2418.6681540000004</v>
+        <v>2405.8879739999988</v>
       </c>
       <c r="FL80" s="51">
         <f t="shared" ref="FL80:FP80" si="245">FL79*0.2</f>
-        <v>4520.5164037839995</v>
+        <v>4375.8713925040001</v>
       </c>
       <c r="FM80" s="51">
         <f t="shared" si="245"/>
-        <v>8131.290147644544</v>
+        <v>7934.7410026640637</v>
       </c>
       <c r="FN80" s="51">
         <f t="shared" si="245"/>
-        <v>10361.875107156855</v>
+        <v>10087.982482185489</v>
       </c>
       <c r="FO80" s="51">
         <f t="shared" si="245"/>
-        <v>12496.813031486468</v>
+        <v>12167.363237546046</v>
       </c>
       <c r="FP80" s="51">
         <f t="shared" si="245"/>
-        <v>14125.73158158906</v>
+        <v>13761.484692627024</v>
       </c>
       <c r="FQ80" s="51">
         <f>FQ79*0.2</f>
-        <v>15953.972331375531</v>
+        <v>15470.732182968488</v>
       </c>
       <c r="FR80" s="51">
         <f t="shared" ref="FR80:FT80" si="246">FR79*0.2</f>
-        <v>16277.402475751876</v>
+        <v>15844.601329845764</v>
       </c>
       <c r="FS80" s="51">
         <f t="shared" si="246"/>
-        <v>16857.214462627831</v>
+        <v>16473.862839681995</v>
       </c>
       <c r="FT80" s="51">
         <f t="shared" si="246"/>
-        <v>17578.66953385825</v>
+        <v>17241.503232557876</v>
       </c>
       <c r="FU80" s="51">
         <f>FU79*0.2</f>
-        <v>18429.394967028635</v>
+        <v>18135.432650557577</v>
       </c>
       <c r="FV80" s="51">
         <f>FV79*0.2</f>
-        <v>18341.048027204182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:251" x14ac:dyDescent="0.25">
+        <v>18087.805082786519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A81" s="102"/>
       <c r="B81" t="s">
         <v>83</v>
@@ -38271,23 +38264,23 @@
       </c>
       <c r="DR81" s="51">
         <f t="shared" si="264"/>
-        <v>5022.2259350000013</v>
+        <v>4944.6319850000027</v>
       </c>
       <c r="DS81" s="51">
         <f t="shared" ref="DS81:DV81" si="265">+DS79-DS80</f>
-        <v>10815.006600000001</v>
+        <v>10476.070200000002</v>
       </c>
       <c r="DT81" s="51">
         <f t="shared" si="265"/>
-        <v>11937.9177</v>
+        <v>11598.981300000001</v>
       </c>
       <c r="DU81" s="51">
         <f t="shared" si="265"/>
-        <v>12702.970800000005</v>
+        <v>12364.034400000006</v>
       </c>
       <c r="DV81" s="51">
         <f t="shared" si="265"/>
-        <v>13632.039990000005</v>
+        <v>13566.366810000003</v>
       </c>
       <c r="DX81" s="51"/>
       <c r="DY81" s="51"/>
@@ -38411,346 +38404,346 @@
       </c>
       <c r="FK81" s="51">
         <f>+FK79-FK80</f>
-        <v>14857.532946000001</v>
+        <v>14779.026125999992</v>
       </c>
       <c r="FL81" s="51">
         <f t="shared" ref="FL81:FO81" si="270">+FL79-FL80</f>
-        <v>18082.065615135998</v>
+        <v>17503.485570016001</v>
       </c>
       <c r="FM81" s="51">
         <f t="shared" si="270"/>
-        <v>32525.160590578173</v>
+        <v>31738.964010656251</v>
       </c>
       <c r="FN81" s="51">
         <f t="shared" si="270"/>
-        <v>41447.500428627412</v>
+        <v>40351.929928741956</v>
       </c>
       <c r="FO81" s="51">
         <f t="shared" si="270"/>
-        <v>49987.252125945874</v>
+        <v>48669.452950184183</v>
       </c>
       <c r="FP81" s="51">
         <f>+FP79-FP80</f>
-        <v>56502.926326356232</v>
+        <v>55045.938770508088</v>
       </c>
       <c r="FQ81" s="51">
         <f>+FQ79-FQ80</f>
-        <v>63815.889325502118</v>
+        <v>61882.928731873944</v>
       </c>
       <c r="FR81" s="51">
         <f t="shared" ref="FR81:FT81" si="271">+FR79-FR80</f>
-        <v>65109.609903007498</v>
+        <v>63378.405319383055</v>
       </c>
       <c r="FS81" s="51">
         <f t="shared" si="271"/>
-        <v>67428.857850511326</v>
+        <v>65895.45135872798</v>
       </c>
       <c r="FT81" s="51">
         <f t="shared" si="271"/>
-        <v>70314.678135433001</v>
+        <v>68966.012930231504</v>
       </c>
       <c r="FU81" s="51">
         <f>+FU79-FU80</f>
-        <v>73717.579868114539</v>
+        <v>72541.730602230309</v>
       </c>
       <c r="FV81" s="51">
         <f>+FV79-FV80</f>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="FW81" s="54">
         <f t="shared" ref="FW81:HB81" si="272">+FV81*(1+$FY$98)</f>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="FX81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="FY81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="FZ81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GA81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GB81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GC81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GD81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GE81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GF81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GG81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GH81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GI81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GJ81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GK81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GL81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GM81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GN81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GO81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GP81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GQ81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GR81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GS81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GT81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GU81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GV81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GW81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GX81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GY81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="GZ81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HA81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HB81" s="54">
         <f t="shared" si="272"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HC81" s="54">
         <f t="shared" ref="HC81:IH81" si="273">+HB81*(1+$FY$98)</f>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HD81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HE81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HF81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HG81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HH81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HI81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HJ81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HK81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HL81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HM81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HN81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HO81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HP81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HQ81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HR81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HS81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HT81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HU81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HV81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HW81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HX81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HY81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="HZ81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IA81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IB81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IC81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="ID81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IE81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IF81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IG81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IH81" s="54">
         <f t="shared" si="273"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="II81" s="54">
         <f t="shared" ref="II81:IQ81" si="274">+IH81*(1+$FY$98)</f>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IJ81" s="54">
         <f t="shared" si="274"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IK81" s="54">
         <f t="shared" si="274"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IL81" s="54">
         <f t="shared" si="274"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IM81" s="54">
         <f t="shared" si="274"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IN81" s="54">
         <f t="shared" si="274"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IO81" s="54">
         <f t="shared" si="274"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IP81" s="54">
         <f t="shared" si="274"/>
-        <v>73364.192108816729</v>
+        <v>72351.220331146062</v>
       </c>
       <c r="IQ81" s="54">
         <f t="shared" si="274"/>
-        <v>73364.192108816729</v>
-      </c>
-    </row>
-    <row r="82" spans="1:251" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+        <v>72351.220331146062</v>
+      </c>
+    </row>
+    <row r="82" spans="1:251" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="108"/>
       <c r="B82" s="58" t="s">
         <v>56</v>
@@ -39116,23 +39109,23 @@
       </c>
       <c r="DR82" s="59">
         <f t="shared" si="291"/>
-        <v>5.5492553647570748</v>
+        <v>5.4635187513742709</v>
       </c>
       <c r="DS82" s="59">
         <f t="shared" ref="DS82:DV82" si="292">DS81/DS83</f>
-        <v>11.949927018751927</v>
+        <v>11.575422832688972</v>
       </c>
       <c r="DT82" s="59">
         <f t="shared" si="292"/>
-        <v>13.190675747795369</v>
+        <v>12.816171561732412</v>
       </c>
       <c r="DU82" s="59">
         <f t="shared" si="292"/>
-        <v>14.036013069223353</v>
+        <v>13.661508883160398</v>
       </c>
       <c r="DV82" s="59">
         <f t="shared" si="292"/>
-        <v>15.062578232472626</v>
+        <v>14.990013347668084</v>
       </c>
       <c r="DX82" s="59"/>
       <c r="DY82" s="59"/>
@@ -39256,54 +39249,54 @@
       </c>
       <c r="FK82" s="59">
         <f>FK81/FK83</f>
-        <v>16.425766584929566</v>
+        <v>16.338973258922341</v>
       </c>
       <c r="FL82" s="59">
         <f t="shared" si="296"/>
-        <v>19.990653242843209</v>
+        <v>19.351003254761057</v>
       </c>
       <c r="FM82" s="59">
         <f t="shared" si="296"/>
-        <v>35.958237342628259</v>
+        <v>35.089056600535805</v>
       </c>
       <c r="FN82" s="59">
         <f t="shared" si="296"/>
-        <v>45.822342783543434</v>
+        <v>44.61113326619904</v>
       </c>
       <c r="FO82" s="59">
         <f t="shared" si="296"/>
-        <v>55.263477363774918</v>
+        <v>53.806582619166477</v>
       </c>
       <c r="FP82" s="59">
         <f t="shared" si="296"/>
-        <v>62.466890201449409</v>
+        <v>60.856115546162393</v>
       </c>
       <c r="FQ82" s="59">
         <f t="shared" si="296"/>
-        <v>70.551746799430987</v>
+        <v>68.414759478305697</v>
       </c>
       <c r="FR82" s="59">
         <f t="shared" ref="FR82:FU82" si="297">FR81/FR83</f>
-        <v>71.982021415644766</v>
+        <v>70.068085737041329</v>
       </c>
       <c r="FS82" s="59">
         <f t="shared" si="297"/>
-        <v>74.546069267783707</v>
+        <v>72.8508095496735</v>
       </c>
       <c r="FT82" s="59">
         <f t="shared" si="297"/>
-        <v>77.736491969753217</v>
+        <v>76.245473242595011</v>
       </c>
       <c r="FU82" s="59">
         <f t="shared" si="297"/>
-        <v>81.498574798418773</v>
+        <v>80.198612977659351</v>
       </c>
       <c r="FV82" s="59">
         <f>FV81/FV83</f>
-        <v>81.107886460772519</v>
-      </c>
-    </row>
-    <row r="83" spans="1:251" x14ac:dyDescent="0.25">
+        <v>79.987994077722533</v>
+      </c>
+    </row>
+    <row r="83" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A83" s="102"/>
       <c r="B83" t="s">
         <v>84</v>
@@ -39770,11 +39763,11 @@
         <v>904.52600000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:251" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A84" s="102"/>
       <c r="AW84" s="51"/>
     </row>
-    <row r="85" spans="1:251" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:251" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="107"/>
       <c r="B85" s="55" t="s">
         <v>380</v>
@@ -40098,23 +40091,23 @@
       </c>
       <c r="DR85" s="61">
         <f t="shared" ref="DR85:DV85" si="327">DR71/DN71-1</f>
-        <v>0.41431287831570929</v>
+        <v>0.40240748761395695</v>
       </c>
       <c r="DS85" s="61">
         <f t="shared" si="327"/>
-        <v>0.52274215070196073</v>
+        <v>0.47502024337670967</v>
       </c>
       <c r="DT85" s="61">
         <f t="shared" si="327"/>
-        <v>0.30395126828103036</v>
+        <v>0.26693002556911205</v>
       </c>
       <c r="DU85" s="61">
         <f t="shared" si="327"/>
-        <v>0.370959507657878</v>
+        <v>0.33438002657528498</v>
       </c>
       <c r="DV85" s="61">
         <f t="shared" si="327"/>
-        <v>0.25704282317932603</v>
+        <v>0.26160688661387299</v>
       </c>
       <c r="DW85" s="61"/>
       <c r="DX85" s="61"/>
@@ -40248,54 +40241,54 @@
       </c>
       <c r="FK85" s="62">
         <f>FK71/FJ71-1</f>
-        <v>0.39475960909617513</v>
+        <v>0.39124982092917482</v>
       </c>
       <c r="FL85" s="62">
         <f t="shared" si="335"/>
-        <v>0.35578027602816142</v>
+        <v>0.32928567415309073</v>
       </c>
       <c r="FM85" s="62">
         <f t="shared" ref="FM85:FV85" si="336">FM71/FL71-1</f>
-        <v>0.23159658428133079</v>
+        <v>0.22907636404137266</v>
       </c>
       <c r="FN85" s="62">
         <f t="shared" si="336"/>
-        <v>0.26007315598206127</v>
+        <v>0.25705827227709444</v>
       </c>
       <c r="FO85" s="62">
         <f t="shared" si="336"/>
-        <v>0.19349006321514506</v>
+        <v>0.19356106724986533</v>
       </c>
       <c r="FP85" s="62">
         <f t="shared" si="336"/>
-        <v>0.11764798393351383</v>
+        <v>0.11832766117027038</v>
       </c>
       <c r="FQ85" s="62">
         <f t="shared" si="336"/>
-        <v>6.2242290925527133E-3</v>
+        <v>1.3252294836030298E-3</v>
       </c>
       <c r="FR85" s="62">
         <f t="shared" si="336"/>
-        <v>4.4913382914222311E-3</v>
+        <v>8.585413066672265E-3</v>
       </c>
       <c r="FS85" s="62">
         <f t="shared" si="336"/>
-        <v>2.0948694481885743E-2</v>
+        <v>2.5317045162040142E-2</v>
       </c>
       <c r="FT85" s="62">
         <f t="shared" si="336"/>
-        <v>2.9023000153888034E-2</v>
+        <v>3.3123735516152886E-2</v>
       </c>
       <c r="FU85" s="62">
         <f t="shared" si="336"/>
-        <v>3.5554728779616296E-2</v>
+        <v>3.9313377727100862E-2</v>
       </c>
       <c r="FV85" s="62">
         <f t="shared" si="336"/>
-        <v>-2.3104736783858715E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:251" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+        <v>-2.0673404150806096E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:251" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="107"/>
       <c r="B86" s="55" t="s">
         <v>752</v>
@@ -40474,7 +40467,7 @@
       <c r="FP86" s="62"/>
       <c r="FQ86" s="62"/>
     </row>
-    <row r="87" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="106"/>
       <c r="B87" s="38" t="s">
         <v>378</v>
@@ -40708,7 +40701,7 @@
       </c>
       <c r="DR87" s="66">
         <f t="shared" si="337"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.25106331995447184</v>
       </c>
       <c r="DS87" s="66"/>
       <c r="DT87" s="66"/>
@@ -40783,11 +40776,11 @@
       </c>
       <c r="FK87" s="96">
         <f t="shared" ref="FK87" si="339">+FK5/FJ5-1</f>
-        <v>-0.25149106203995797</v>
+        <v>-0.26344199088678588</v>
       </c>
       <c r="FL87" s="96">
         <f t="shared" ref="FL87" si="340">+FL5/FK5-1</f>
-        <v>-0.18674443782615369</v>
+        <v>-0.23845055677167604</v>
       </c>
       <c r="FM87" s="96">
         <f t="shared" ref="FM87" si="341">+FM5/FL5-1</f>
@@ -40795,11 +40788,11 @@
       </c>
       <c r="FN87" s="96">
         <f t="shared" ref="FN87" si="342">+FN5/FM5-1</f>
-        <v>-0.19999999999999996</v>
+        <v>-0.19999999999999984</v>
       </c>
       <c r="FO87" s="96">
         <f t="shared" ref="FO87" si="343">+FO5/FN5-1</f>
-        <v>-0.19999999999999996</v>
+        <v>-0.20000000000000007</v>
       </c>
       <c r="FP87" s="96">
         <f t="shared" ref="FP87" si="344">+FP5/FO5-1</f>
@@ -40807,11 +40800,11 @@
       </c>
       <c r="FQ87" s="96">
         <f t="shared" ref="FQ87" si="345">+FQ5/FP5-1</f>
-        <v>-0.19999999999999996</v>
+        <v>-0.19999999999999984</v>
       </c>
       <c r="FR87" s="96">
         <f t="shared" ref="FR87" si="346">+FR5/FQ5-1</f>
-        <v>-0.19999999999999996</v>
+        <v>-0.20000000000000007</v>
       </c>
       <c r="FS87" s="96">
         <f t="shared" ref="FS87" si="347">+FS5/FR5-1</f>
@@ -40830,7 +40823,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="106"/>
       <c r="B88" s="38" t="s">
         <v>706</v>
@@ -40965,7 +40958,7 @@
       </c>
       <c r="DR88" s="66">
         <f>DR6/DN6-1</f>
-        <v>0.7739844033369605</v>
+        <v>0.60051686615886846</v>
       </c>
       <c r="DS88" s="66"/>
       <c r="DT88" s="66"/>
@@ -41011,11 +41004,11 @@
       <c r="FH88" s="67"/>
       <c r="FK88" s="96">
         <f>FK6/FJ6-1</f>
-        <v>1.3092134570316283</v>
+        <v>1.2351106893145589</v>
       </c>
       <c r="FL88" s="96">
         <f t="shared" ref="FL88:FV88" si="351">FL6/FK6-1</f>
-        <v>0.73205733600610579</v>
+        <v>0.65686605835304723</v>
       </c>
       <c r="FM88" s="96">
         <f t="shared" si="351"/>
@@ -41043,7 +41036,7 @@
       </c>
       <c r="FS88" s="96">
         <f t="shared" si="351"/>
-        <v>-9.9999999999999978E-2</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="FT88" s="96">
         <f t="shared" si="351"/>
@@ -41051,14 +41044,14 @@
       </c>
       <c r="FU88" s="96">
         <f t="shared" si="351"/>
-        <v>-0.10000000000000009</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="FV88" s="96">
         <f t="shared" si="351"/>
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="106"/>
       <c r="B89" s="38" t="s">
         <v>489</v>
@@ -41274,7 +41267,7 @@
       </c>
       <c r="DR89" s="66">
         <f t="shared" si="352"/>
-        <v>0.19999999999999996</v>
+        <v>0.21335712464950296</v>
       </c>
       <c r="DS89" s="66"/>
       <c r="DT89" s="66"/>
@@ -41340,7 +41333,7 @@
       </c>
       <c r="FK89" s="96">
         <f t="shared" si="353"/>
-        <v>0.1776352502083558</v>
+        <v>0.18143276443091638</v>
       </c>
       <c r="FL89" s="96">
         <f t="shared" si="353"/>
@@ -41387,7 +41380,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="106"/>
       <c r="B90" s="38" t="s">
         <v>490</v>
@@ -41585,7 +41578,7 @@
       </c>
       <c r="DR90" s="66">
         <f t="shared" si="354"/>
-        <v>0.10000000000000009</v>
+        <v>0.35777894185437398</v>
       </c>
       <c r="DS90" s="66"/>
       <c r="DT90" s="66"/>
@@ -41651,11 +41644,11 @@
       </c>
       <c r="FK90" s="96">
         <f t="shared" si="355"/>
-        <v>0.2971915202029356</v>
+        <v>0.3736184091320891</v>
       </c>
       <c r="FL90" s="96">
         <f t="shared" si="355"/>
-        <v>9.9999999999999867E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="FM90" s="96">
         <f t="shared" si="355"/>
@@ -41698,7 +41691,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="106"/>
       <c r="B91" s="38" t="s">
         <v>491</v>
@@ -41974,7 +41967,7 @@
       <c r="FG91" s="67"/>
       <c r="FH91" s="67"/>
     </row>
-    <row r="92" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="106"/>
       <c r="B92" s="38" t="s">
         <v>56</v>
@@ -42325,7 +42318,7 @@
       </c>
       <c r="DR92" s="66">
         <f t="shared" ref="DR92" si="379">+DR82/DN82-1</f>
-        <v>0.68511399933927808</v>
+        <v>0.65907880038540423</v>
       </c>
       <c r="DS92" s="66"/>
       <c r="DT92" s="66"/>
@@ -42424,14 +42417,14 @@
       <c r="FG92" s="67"/>
       <c r="FH92" s="67"/>
     </row>
-    <row r="93" spans="1:251" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A93" s="102"/>
       <c r="FE93" s="47"/>
       <c r="FF93" s="47"/>
       <c r="FG93" s="47"/>
       <c r="FH93" s="47"/>
     </row>
-    <row r="94" spans="1:251" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A94" s="102"/>
       <c r="B94" t="s">
         <v>123</v>
@@ -42754,7 +42747,7 @@
       </c>
       <c r="DR94" s="64">
         <f t="shared" si="400"/>
-        <v>0.81</v>
+        <v>0.81000000000000016</v>
       </c>
       <c r="DS94" s="64"/>
       <c r="DT94" s="64"/>
@@ -42819,7 +42812,7 @@
       </c>
       <c r="FK94" s="64">
         <f>FK73/FK71</f>
-        <v>0.8182316553763106</v>
+        <v>0.81825242185994274</v>
       </c>
       <c r="FL94" s="64">
         <f t="shared" si="402"/>
@@ -42855,7 +42848,7 @@
       </c>
       <c r="FT94" s="64">
         <f t="shared" si="402"/>
-        <v>0.85</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="FU94" s="64">
         <f t="shared" si="402"/>
@@ -42866,7 +42859,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="95" spans="1:251" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A95" s="102"/>
       <c r="B95" t="s">
         <v>59</v>
@@ -43193,7 +43186,7 @@
       </c>
       <c r="DR95" s="64">
         <f t="shared" si="421"/>
-        <v>0.15812750078239896</v>
+        <v>0.15946988499963463</v>
       </c>
       <c r="DS95" s="64"/>
       <c r="DT95" s="64"/>
@@ -43293,7 +43286,7 @@
       </c>
       <c r="FK95" s="64">
         <f t="shared" si="424"/>
-        <v>0.19918407556288223</v>
+        <v>0.19968656900507264</v>
       </c>
       <c r="FL95" s="64">
         <f t="shared" si="424"/>
@@ -43340,7 +43333,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:251" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A96" s="102"/>
       <c r="B96" t="s">
         <v>60</v>
@@ -43667,7 +43660,7 @@
       </c>
       <c r="DR96" s="64">
         <f t="shared" si="443"/>
-        <v>0.2105545808246149</v>
+        <v>0.21234203174091434</v>
       </c>
       <c r="DS96" s="64"/>
       <c r="DT96" s="64"/>
@@ -43695,7 +43688,7 @@
         <v>0.27116617149690753</v>
       </c>
     </row>
-    <row r="97" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A97" s="102"/>
       <c r="B97" t="s">
         <v>206</v>
@@ -44051,7 +44044,7 @@
       </c>
       <c r="FL97" s="79">
         <f t="shared" si="470"/>
-        <v>0.19999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="FM97" s="79">
         <f t="shared" si="470"/>
@@ -44059,7 +44052,7 @@
       </c>
       <c r="FN97" s="79">
         <f t="shared" si="470"/>
-        <v>0.20000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="FO97" s="79">
         <f t="shared" si="470"/>
@@ -44079,15 +44072,15 @@
       </c>
       <c r="FS97" s="79">
         <f t="shared" si="471"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="FT97" s="79">
         <f t="shared" si="471"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="FU97" s="79">
         <f t="shared" si="471"/>
-        <v>0.19999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="FV97" s="79">
         <f t="shared" si="471"/>
@@ -44100,7 +44093,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A98" s="102"/>
       <c r="FX98" s="47" t="s">
         <v>242</v>
@@ -44109,7 +44102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A99" s="102"/>
       <c r="B99" t="s">
         <v>187</v>
@@ -44308,51 +44301,51 @@
       </c>
       <c r="FK99" s="49">
         <f t="shared" ref="FK99:FQ99" si="479">+FJ99+FK81</f>
-        <v>-4387.8670540000003</v>
+        <v>-4466.3738740000099</v>
       </c>
       <c r="FL99" s="49">
         <f t="shared" si="479"/>
-        <v>13694.198561135998</v>
+        <v>13037.111696015991</v>
       </c>
       <c r="FM99" s="49">
         <f t="shared" si="479"/>
-        <v>46219.359151714169</v>
+        <v>44776.075706672244</v>
       </c>
       <c r="FN99" s="49">
         <f t="shared" si="479"/>
-        <v>87666.859580341581</v>
+        <v>85128.0056354142</v>
       </c>
       <c r="FO99" s="49">
         <f t="shared" si="479"/>
-        <v>137654.11170628745</v>
+        <v>133797.45858559839</v>
       </c>
       <c r="FP99" s="49">
         <f t="shared" si="479"/>
-        <v>194157.03803264367</v>
+        <v>188843.39735610649</v>
       </c>
       <c r="FQ99" s="49">
         <f t="shared" si="479"/>
-        <v>257972.9273581458</v>
+        <v>250726.32608798044</v>
       </c>
       <c r="FR99" s="49">
         <f t="shared" ref="FR99" si="480">+FQ99+FR81</f>
-        <v>323082.53726115328</v>
+        <v>314104.73140736349</v>
       </c>
       <c r="FS99" s="49">
         <f t="shared" ref="FS99" si="481">+FR99+FS81</f>
-        <v>390511.39511166461</v>
+        <v>380000.18276609149</v>
       </c>
       <c r="FT99" s="49">
         <f t="shared" ref="FT99" si="482">+FS99+FT81</f>
-        <v>460826.07324709761</v>
+        <v>448966.195696323</v>
       </c>
       <c r="FU99" s="49">
         <f t="shared" ref="FU99" si="483">+FT99+FU81</f>
-        <v>534543.6531152121</v>
+        <v>521507.9262985533</v>
       </c>
       <c r="FV99" s="49">
         <f t="shared" ref="FV99" si="484">+FU99+FV81</f>
-        <v>607907.8452240288</v>
+        <v>593859.14662969939</v>
       </c>
       <c r="FX99" s="47" t="s">
         <v>241</v>
@@ -44361,17 +44354,17 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A100" s="102"/>
       <c r="FX100" s="47" t="s">
         <v>243</v>
       </c>
       <c r="FY100" s="51">
         <f>NPV(FY99,FL81:IS81)+Main!J5-Main!J6</f>
-        <v>860411.20744885318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:181" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+        <v>844348.31181399478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="98"/>
       <c r="B101" s="49" t="s">
         <v>174</v>
@@ -44635,10 +44628,10 @@
       </c>
       <c r="FY101" s="65">
         <f>+FY100/Main!J3</f>
-        <v>906.34887096773639</v>
-      </c>
-    </row>
-    <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>889.42837156339556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="98"/>
       <c r="B102" s="50" t="s">
         <v>284</v>
@@ -44867,7 +44860,7 @@
         <v>9090.5</v>
       </c>
     </row>
-    <row r="103" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="98"/>
       <c r="B103" s="50" t="s">
         <v>285</v>
@@ -45096,7 +45089,7 @@
         <v>2245.6999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="98"/>
       <c r="B104" s="50" t="s">
         <v>286</v>
@@ -45325,7 +45318,7 @@
         <v>5772.8</v>
       </c>
     </row>
-    <row r="105" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="98"/>
       <c r="B105" s="50" t="s">
         <v>287</v>
@@ -45554,7 +45547,7 @@
         <v>5540.8</v>
       </c>
     </row>
-    <row r="106" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="98"/>
       <c r="B106" s="50" t="s">
         <v>288</v>
@@ -45740,7 +45733,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="107" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="98"/>
       <c r="B107" s="50" t="s">
         <v>289</v>
@@ -45992,7 +45985,7 @@
         <v>11846.3</v>
       </c>
     </row>
-    <row r="108" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="98"/>
       <c r="B108" s="50" t="s">
         <v>385</v>
@@ -46205,7 +46198,7 @@
         <v>5477.3</v>
       </c>
     </row>
-    <row r="109" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="98"/>
       <c r="B109" s="50" t="s">
         <v>290</v>
@@ -46420,7 +46413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="98"/>
       <c r="B110" s="50" t="s">
         <v>291</v>
@@ -46649,7 +46642,7 @@
         <v>12913.6</v>
       </c>
     </row>
-    <row r="111" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="98"/>
       <c r="B111" s="50" t="s">
         <v>386</v>
@@ -46863,7 +46856,7 @@
         <v>4989.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="98"/>
       <c r="B112" s="50" t="s">
         <v>292</v>
@@ -47123,13 +47116,13 @@
         <v>64006.3</v>
       </c>
     </row>
-    <row r="113" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A113" s="102"/>
       <c r="FG113" s="49"/>
       <c r="FH113" s="49"/>
       <c r="FI113" s="49"/>
     </row>
-    <row r="114" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="98"/>
       <c r="B114" s="50" t="s">
         <v>175</v>
@@ -47389,7 +47382,7 @@
         <v>25225.3</v>
       </c>
     </row>
-    <row r="115" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="98"/>
       <c r="B115" s="50" t="s">
         <v>293</v>
@@ -47619,7 +47612,7 @@
         <v>2598.8000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="98"/>
       <c r="B116" s="50" t="s">
         <v>294</v>
@@ -47848,7 +47841,7 @@
         <v>1650.4</v>
       </c>
     </row>
-    <row r="117" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="98"/>
       <c r="B117" s="50" t="s">
         <v>295</v>
@@ -48077,7 +48070,7 @@
         <v>11689</v>
       </c>
     </row>
-    <row r="118" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="98"/>
       <c r="B118" s="50" t="s">
         <v>296</v>
@@ -48306,7 +48299,7 @@
         <v>1169.2</v>
       </c>
     </row>
-    <row r="119" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="98"/>
       <c r="B119" s="50" t="s">
         <v>82</v>
@@ -48535,7 +48528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="98"/>
       <c r="B120" s="50" t="s">
         <v>297</v>
@@ -48764,7 +48757,7 @@
         <v>3281.3</v>
       </c>
     </row>
-    <row r="121" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="98"/>
       <c r="B121" s="50" t="s">
         <v>298</v>
@@ -48993,7 +48986,7 @@
         <v>1438.8</v>
       </c>
     </row>
-    <row r="122" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="98"/>
       <c r="B122" s="50" t="s">
         <v>82</v>
@@ -49238,7 +49231,7 @@
         <v>3849.2</v>
       </c>
     </row>
-    <row r="123" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="98"/>
       <c r="B123" s="50" t="s">
         <v>299</v>
@@ -49470,7 +49463,7 @@
         <v>2240.6</v>
       </c>
     </row>
-    <row r="124" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="98"/>
       <c r="B124" s="50" t="s">
         <v>300</v>
@@ -49700,7 +49693,7 @@
         <v>10863.7</v>
       </c>
     </row>
-    <row r="125" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="98"/>
       <c r="B125" s="50" t="s">
         <v>301</v>
@@ -49960,13 +49953,13 @@
         <v>64006.3</v>
       </c>
     </row>
-    <row r="126" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A126" s="102"/>
       <c r="FG126" s="49"/>
       <c r="FH126" s="49"/>
       <c r="FI126" s="49"/>
     </row>
-    <row r="127" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A127" s="102"/>
       <c r="B127" s="50" t="s">
         <v>387</v>
@@ -50084,7 +50077,7 @@
         <v>8596.739999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A128" s="102"/>
       <c r="B128" s="50" t="s">
         <v>388</v>
@@ -50196,7 +50189,7 @@
         <v>5240.3999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A129" s="102"/>
       <c r="B129" s="50" t="s">
         <v>389</v>
@@ -50308,7 +50301,7 @@
         <v>1527.3</v>
       </c>
     </row>
-    <row r="130" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A130" s="102"/>
       <c r="B130" s="50" t="s">
         <v>385</v>
@@ -50420,7 +50413,7 @@
         <v>-2341</v>
       </c>
     </row>
-    <row r="131" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A131" s="102"/>
       <c r="B131" s="50" t="s">
         <v>390</v>
@@ -50532,7 +50525,7 @@
         <v>628.5</v>
       </c>
     </row>
-    <row r="132" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A132" s="102"/>
       <c r="B132" s="50" t="s">
         <v>391</v>
@@ -50644,7 +50637,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="133" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A133" s="102"/>
       <c r="B133" s="50" t="s">
         <v>392</v>
@@ -50756,7 +50749,7 @@
         <v>3799.8</v>
       </c>
     </row>
-    <row r="134" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A134" s="102"/>
       <c r="B134" s="50" t="s">
         <v>78</v>
@@ -50868,7 +50861,7 @@
         <v>-1583.4</v>
       </c>
     </row>
-    <row r="135" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A135" s="102"/>
       <c r="B135" s="50" t="s">
         <v>393</v>
@@ -50980,7 +50973,7 @@
         <v>-3055</v>
       </c>
     </row>
-    <row r="136" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="50" t="s">
         <v>302</v>
       </c>
@@ -51240,7 +51233,7 @@
         <v>4240.0999999999985</v>
       </c>
     </row>
-    <row r="137" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:166" x14ac:dyDescent="0.2">
       <c r="DC137" s="51"/>
       <c r="DD137" s="51"/>
       <c r="DJ137" s="51"/>
@@ -51249,7 +51242,7 @@
       <c r="FH137" s="49"/>
       <c r="FI137" s="49"/>
     </row>
-    <row r="138" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B138" s="50" t="s">
         <v>394</v>
       </c>
@@ -51360,7 +51353,7 @@
         <v>-3447.6000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B139" s="50" t="s">
         <v>391</v>
       </c>
@@ -51477,7 +51470,7 @@
         <v>-128.69999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B140" s="50" t="s">
         <v>395</v>
       </c>
@@ -51591,7 +51584,7 @@
         <v>-4988.8</v>
       </c>
     </row>
-    <row r="141" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B141" s="50" t="s">
         <v>78</v>
       </c>
@@ -51702,7 +51695,7 @@
         <v>1412.4</v>
       </c>
     </row>
-    <row r="142" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B142" s="50" t="s">
         <v>396</v>
       </c>
@@ -51819,7 +51812,7 @@
         <v>-7152.7</v>
       </c>
     </row>
-    <row r="143" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:166" x14ac:dyDescent="0.2">
       <c r="CW143" s="51"/>
       <c r="DC143" s="51"/>
       <c r="DD143" s="51"/>
@@ -51829,7 +51822,7 @@
       <c r="FH143" s="49"/>
       <c r="FI143" s="49"/>
     </row>
-    <row r="144" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B144" s="50" t="s">
         <v>296</v>
       </c>
@@ -51940,7 +51933,7 @@
         <v>-4069.3</v>
       </c>
     </row>
-    <row r="145" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B145" s="50" t="s">
         <v>399</v>
       </c>
@@ -52055,7 +52048,7 @@
         <v>8649.9</v>
       </c>
     </row>
-    <row r="146" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B146" s="38" t="s">
         <v>398</v>
       </c>
@@ -52166,7 +52159,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="147" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B147" s="38" t="s">
         <v>78</v>
       </c>
@@ -52277,7 +52270,7 @@
         <v>-335</v>
       </c>
     </row>
-    <row r="148" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B148" s="38" t="s">
         <v>397</v>
       </c>
@@ -52394,7 +52387,7 @@
         <v>3495.5999999999995</v>
       </c>
     </row>
-    <row r="149" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B149" s="38" t="s">
         <v>400</v>
       </c>
@@ -52505,7 +52498,7 @@
         <v>168.60000000000002</v>
       </c>
     </row>
-    <row r="150" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B150" s="38" t="s">
         <v>401</v>
       </c>
@@ -52622,13 +52615,13 @@
         <v>3664.1999999999994</v>
       </c>
     </row>
-    <row r="151" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:166" x14ac:dyDescent="0.2">
       <c r="DN151" s="51"/>
       <c r="FG151" s="49"/>
       <c r="FH151" s="49"/>
       <c r="FI151" s="49"/>
     </row>
-    <row r="152" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>493</v>
       </c>
@@ -52667,7 +52660,7 @@
       <c r="FH152" s="49"/>
       <c r="FI152" s="49"/>
     </row>
-    <row r="153" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B153" s="38" t="s">
         <v>751</v>
       </c>
@@ -52723,7 +52716,7 @@
       <c r="FH153" s="49"/>
       <c r="FI153" s="49"/>
     </row>
-    <row r="154" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B154" s="38" t="s">
         <v>173</v>
       </c>
@@ -52795,7 +52788,7 @@
       <c r="FH154" s="49"/>
       <c r="FI154" s="49"/>
     </row>
-    <row r="155" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:166" x14ac:dyDescent="0.2">
       <c r="B155" s="38" t="s">
         <v>786</v>
       </c>
@@ -52832,11 +52825,11 @@
       <c r="FH155" s="49"/>
       <c r="FI155" s="49"/>
     </row>
-    <row r="156" spans="2:166" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:166" x14ac:dyDescent="0.2">
       <c r="FH156" s="49"/>
       <c r="FI156" s="49"/>
     </row>
-    <row r="157" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="50" t="s">
         <v>973</v>
       </c>
@@ -52988,7 +52981,7 @@
       <c r="FC157" s="51"/>
       <c r="FD157" s="51"/>
     </row>
-    <row r="158" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="50" t="s">
         <v>974</v>
       </c>
@@ -53140,7 +53133,7 @@
       <c r="FC158" s="51"/>
       <c r="FD158" s="51"/>
     </row>
-    <row r="159" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="50" t="s">
         <v>975</v>
       </c>
@@ -53292,7 +53285,7 @@
       <c r="FC159" s="51"/>
       <c r="FD159" s="51"/>
     </row>
-    <row r="160" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="50" t="s">
         <v>549</v>
       </c>
@@ -53444,7 +53437,7 @@
       <c r="FC160" s="51"/>
       <c r="FD160" s="51"/>
     </row>
-    <row r="161" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="50" t="s">
         <v>976</v>
       </c>
@@ -53617,19 +53610,19 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -53637,7 +53630,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -53645,7 +53638,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -53653,54 +53646,54 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
       <c r="C10" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="D10" s="38"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>405</v>
       </c>
@@ -53708,7 +53701,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
         <v>917</v>
       </c>
@@ -53716,86 +53709,86 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="20" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="38" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="20" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="38" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="20" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="38" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="38" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="20" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="38" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="20" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="38" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="38" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="38" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="38" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="20" t="s">
         <v>1090</v>
       </c>
@@ -53819,22 +53812,22 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="6.81640625" style="47" customWidth="1"/>
-    <col min="14" max="50" width="5.453125" customWidth="1"/>
-    <col min="52" max="71" width="7.453125" customWidth="1"/>
-    <col min="72" max="75" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.85546875" style="47" customWidth="1"/>
+    <col min="14" max="50" width="5.42578125" customWidth="1"/>
+    <col min="52" max="71" width="7.42578125" customWidth="1"/>
+    <col min="72" max="75" width="6.85546875" customWidth="1"/>
     <col min="76" max="118" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -54335,7 +54328,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:169" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:169" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>642</v>
       </c>
@@ -54757,7 +54750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -54808,7 +54801,7 @@
       <c r="AW4" s="48"/>
       <c r="AX4" s="48"/>
     </row>
-    <row r="5" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>70</v>
       </c>
@@ -54822,7 +54815,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>566</v>
       </c>
@@ -54836,7 +54829,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="7" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>570</v>
       </c>
@@ -54850,7 +54843,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>365</v>
       </c>
@@ -55171,7 +55164,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>567</v>
       </c>
@@ -55185,7 +55178,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:169" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>569</v>
       </c>
@@ -55463,7 +55456,7 @@
       <c r="DK10" s="85"/>
       <c r="DL10" s="85"/>
     </row>
-    <row r="11" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>568</v>
       </c>
@@ -55690,7 +55683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>571</v>
       </c>
@@ -55749,7 +55742,7 @@
       <c r="CW12" s="49"/>
       <c r="CX12" s="49"/>
     </row>
-    <row r="13" spans="1:169" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
         <v>506</v>
       </c>
@@ -55933,7 +55926,7 @@
       <c r="DD13" s="49"/>
       <c r="DE13" s="49"/>
     </row>
-    <row r="14" spans="1:169" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>525</v>
       </c>
@@ -56055,13 +56048,13 @@
         <v>175.8</v>
       </c>
     </row>
-    <row r="15" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="83"/>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>576</v>
       </c>
@@ -56072,7 +56065,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>581</v>
       </c>
@@ -56083,12 +56076,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C18" s="38" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>583</v>
       </c>
@@ -56102,7 +56095,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>587</v>
       </c>
@@ -56113,12 +56106,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C21" s="38" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>590</v>
       </c>
@@ -56210,7 +56203,7 @@
         <v>36759.942857142858</v>
       </c>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C23" s="38" t="s">
         <v>591</v>
       </c>
@@ -56278,7 +56271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C24" s="38" t="s">
         <v>593</v>
       </c>
@@ -56367,7 +56360,7 @@
         <v>7351.988571428572</v>
       </c>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>592</v>
       </c>
@@ -56456,32 +56449,32 @@
         <v>5513.9914285714294</v>
       </c>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
       <c r="E28" s="38" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
       <c r="E29" s="38" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
       <c r="E30" s="38" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B31" s="38" t="s">
         <v>599</v>
       </c>
@@ -56489,12 +56482,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C32" s="38" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="35" spans="7:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -56555,7 +56548,7 @@
       <c r="AF35" s="84"/>
       <c r="AG35" s="84"/>
     </row>
-    <row r="36" spans="7:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:72" x14ac:dyDescent="0.2">
       <c r="N36" s="47">
         <f t="shared" ref="N36:AA36" si="37">+N35/7</f>
         <v>0</v>
@@ -56637,7 +56630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:72" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G40" s="47">
         <v>540</v>
       </c>
@@ -56705,7 +56698,7 @@
         <v>30065</v>
       </c>
     </row>
-    <row r="41" spans="7:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G41" s="47">
         <f>+G40/7</f>
         <v>77.142857142857139</v>
@@ -56795,16 +56788,16 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="46" spans="7:72" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:72" x14ac:dyDescent="0.2">
       <c r="BT46" s="49"/>
     </row>
-    <row r="47" spans="7:72" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:72" x14ac:dyDescent="0.2">
       <c r="BT47" s="49"/>
     </row>
-    <row r="48" spans="7:72" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:72" x14ac:dyDescent="0.2">
       <c r="BT48" s="49"/>
     </row>
-    <row r="49" spans="72:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="72:72" x14ac:dyDescent="0.2">
       <c r="BT49" s="49"/>
     </row>
   </sheetData>
@@ -56823,15 +56816,15 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="10" width="8.453125" style="53" customWidth="1"/>
-    <col min="11" max="12" width="6.453125" customWidth="1"/>
+    <col min="3" max="10" width="8.42578125" style="53" customWidth="1"/>
+    <col min="11" max="12" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -56840,7 +56833,7 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
     </row>
-    <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>672</v>
@@ -56858,7 +56851,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>659</v>
       </c>
@@ -56887,7 +56880,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>660</v>
       </c>
@@ -56919,7 +56912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>661</v>
       </c>
@@ -56951,7 +56944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>662</v>
       </c>
@@ -56984,7 +56977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>663</v>
       </c>
@@ -57014,7 +57007,7 @@
       </c>
       <c r="L7" s="89"/>
     </row>
-    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>664</v>
       </c>
@@ -57043,7 +57036,7 @@
         <v>247.94000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>665</v>
       </c>
@@ -57072,7 +57065,7 @@
         <v>236.06</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>666</v>
       </c>
@@ -57101,13 +57094,13 @@
         <v>212.96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>675</v>
       </c>
@@ -57116,7 +57109,7 @@
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
     </row>
-    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
         <v>659</v>
       </c>
@@ -57145,7 +57138,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>660</v>
       </c>
@@ -57174,7 +57167,7 @@
         <v>282.3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>661</v>
       </c>
@@ -57203,7 +57196,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>662</v>
       </c>
@@ -57232,7 +57225,7 @@
         <v>293.89999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>663</v>
       </c>
@@ -57261,7 +57254,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>664</v>
       </c>
@@ -57290,7 +57283,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>665</v>
       </c>
@@ -57319,7 +57312,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>666</v>
       </c>
@@ -57348,19 +57341,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>677</v>
       </c>
@@ -57380,11 +57373,11 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>678</v>
       </c>
@@ -57400,7 +57393,7 @@
       </c>
       <c r="J25" s="71"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="38" t="s">
         <v>679</v>
       </c>
@@ -57416,7 +57409,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C27" s="54"/>
       <c r="G27" s="71">
         <f>9.2+11.9</f>
@@ -57426,7 +57419,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G28" s="53">
         <v>11.9</v>
       </c>
@@ -57448,18 +57441,18 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -57467,7 +57460,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -57475,7 +57468,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -57483,7 +57476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -57507,18 +57500,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -57526,7 +57519,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -57534,7 +57527,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -57542,115 +57535,115 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="20" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="C7" s="38" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="38"/>
       <c r="C12" s="20" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="38"/>
       <c r="C16" s="20" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="38"/>
     </row>
-    <row r="19" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
       <c r="C19" s="20" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="38"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="38"/>
       <c r="C22" s="20" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="20" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" s="20" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C30" s="38" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" s="38" t="s">
         <v>1127</v>
       </c>
@@ -57664,12 +57657,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -57783,6 +57770,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -57793,21 +57786,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57823,6 +57801,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B26843-B254-4A5B-949E-4948DB4EC221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5355F7-75B4-4583-98C2-76149293E216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23190" yWindow="3480" windowWidth="20715" windowHeight="16665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="2220" windowWidth="28780" windowHeight="15370" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -1867,7 +1867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1156">
   <si>
     <t>Name</t>
   </si>
@@ -5332,6 +5332,9 @@
   </si>
   <si>
     <t>Phase III "TRIUMPH-4" vs. placebo n=405 obesity with OA - NCT05931367</t>
+  </si>
+  <si>
+    <t>AMGN</t>
   </si>
 </sst>
 </file>
@@ -10634,7 +10637,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -53805,11 +53808,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479A0E9-541B-3548-94E2-8624993FA62F}">
   <dimension ref="A1:FM49"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56481,6 +56484,9 @@
       <c r="C31" s="38" t="s">
         <v>600</v>
       </c>
+      <c r="E31" s="38" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="32" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C32" s="38" t="s">
@@ -57439,12 +57445,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E6569-70F3-B546-988F-444F0775A0CC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -57657,6 +57663,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -57770,33 +57791,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -57817,9 +57815,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5355F7-75B4-4583-98C2-76149293E216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987D1547-3EFA-4B93-99E8-9C0DD47AE508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="2220" windowWidth="28780" windowHeight="15370" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -5890,14 +5890,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>121</xdr:col>
-      <xdr:colOff>18657</xdr:colOff>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>60070</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>121</xdr:col>
-      <xdr:colOff>18657</xdr:colOff>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>60070</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>13137</xdr:rowOff>
     </xdr:to>
@@ -5916,8 +5916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="58523928" y="0"/>
-          <a:ext cx="0" cy="27934994"/>
+          <a:off x="58692657" y="0"/>
+          <a:ext cx="0" cy="27345746"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5944,14 +5944,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>166</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>9387</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>166</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>9387</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>86179</xdr:rowOff>
     </xdr:to>
@@ -5970,8 +5970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="56742693" y="0"/>
-          <a:ext cx="0" cy="23272750"/>
+          <a:off x="79870300" y="0"/>
+          <a:ext cx="0" cy="25430962"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10637,7 +10637,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10681,7 +10683,7 @@
         <v>172</v>
       </c>
       <c r="J2" s="31">
-        <v>788</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -10705,10 +10707,10 @@
         <v>84</v>
       </c>
       <c r="J3" s="18">
-        <v>949.31569400000001</v>
+        <v>948.16999899999996</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -10733,7 +10735,7 @@
       </c>
       <c r="J4" s="18">
         <f>J2*J3</f>
-        <v>748060.76687199995</v>
+        <v>714920.17924600001</v>
       </c>
       <c r="K4" s="32"/>
     </row>
@@ -10758,10 +10760,11 @@
         <v>174</v>
       </c>
       <c r="J5" s="18">
-        <v>6719</v>
+        <f>3268.4+154.8+3215.9</f>
+        <v>6639.1</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -10785,10 +10788,11 @@
         <v>175</v>
       </c>
       <c r="J6" s="18">
-        <v>31120</v>
+        <f>5117.1+28527.1</f>
+        <v>33644.199999999997</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -10813,7 +10817,7 @@
       </c>
       <c r="J7" s="18">
         <f>J4-J5+J6</f>
-        <v>772461.76687199995</v>
+        <v>741925.27924599999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -13077,11 +13081,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IQ161"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DG3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DG145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="DR153" sqref="DR153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44364,7 +44368,7 @@
       </c>
       <c r="FY100" s="51">
         <f>NPV(FY99,FL81:IS81)+Main!J5-Main!J6</f>
-        <v>844348.31181399478</v>
+        <v>841744.2118139948</v>
       </c>
     </row>
     <row r="101" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -44631,7 +44635,7 @@
       </c>
       <c r="FY101" s="65">
         <f>+FY100/Main!J3</f>
-        <v>889.42837156339556</v>
+        <v>887.75663931758174</v>
       </c>
     </row>
     <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -57445,7 +57449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E6569-70F3-B546-988F-444F0775A0CC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57663,21 +57667,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -57791,10 +57780,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -57815,17 +57827,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9462E6-2412-42FC-9F28-70D5BAB2FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B5AFE-4DD8-42BF-B283-318BFA1FB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51210" yWindow="4560" windowWidth="33420" windowHeight="13230" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10770" yWindow="1365" windowWidth="27990" windowHeight="17070" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -14376,8 +14376,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14422,7 +14422,7 @@
         <v>172</v>
       </c>
       <c r="J2" s="31">
-        <v>776.5</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -14446,10 +14446,10 @@
         <v>84</v>
       </c>
       <c r="J3" s="18">
-        <v>948.16999899999996</v>
+        <v>900.6</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>516</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="J4" s="18">
         <f>J2*J3</f>
-        <v>736254.00422349991</v>
+        <v>678151.8</v>
       </c>
       <c r="K4" s="32"/>
     </row>
@@ -14499,11 +14499,10 @@
         <v>174</v>
       </c>
       <c r="J5" s="18">
-        <f>3268.4+154.8+3215.9</f>
-        <v>6639.1</v>
+        <v>6443</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>516</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -14527,11 +14526,10 @@
         <v>175</v>
       </c>
       <c r="J6" s="18">
-        <f>5117.1+28527.1</f>
-        <v>33644.199999999997</v>
+        <v>38516</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>516</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -14556,7 +14554,7 @@
       </c>
       <c r="J7" s="18">
         <f>J4-J5+J6</f>
-        <v>763259.10422349989</v>
+        <v>710224.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -16082,11 +16080,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IQ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DM76" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DM99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DS87" sqref="DS87"/>
+      <selection pane="bottomRight" activeCell="DS100" sqref="DS100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23575,7 +23573,7 @@
         <v>52.9</v>
       </c>
       <c r="DU24" s="51">
-        <f t="shared" ref="DU24:DU29" si="77">+DQ24</f>
+        <f t="shared" ref="DU24:DU28" si="77">+DQ24</f>
         <v>40.300000000000004</v>
       </c>
       <c r="DV24" s="51">
@@ -42608,7 +42606,7 @@
         <v>900.6</v>
       </c>
       <c r="DT83" s="51">
-        <f t="shared" ref="DR83:DV83" si="299">+DS83</f>
+        <f t="shared" ref="DT83:DV83" si="299">+DS83</f>
         <v>900.6</v>
       </c>
       <c r="DU83" s="51">
@@ -47404,11 +47402,11 @@
         <v>-27005.1</v>
       </c>
       <c r="DS99" s="51">
-        <f t="shared" ref="DS99:DV99" si="500">+DS101-DS114</f>
+        <f>+DS101-DS114</f>
         <v>-32072.5</v>
       </c>
       <c r="DT99" s="51">
-        <f t="shared" si="500"/>
+        <f t="shared" ref="DS99:DV99" si="500">+DT101-DT114</f>
         <v>0</v>
       </c>
       <c r="DU99" s="51">
@@ -47512,7 +47510,7 @@
       </c>
       <c r="FY100" s="51">
         <f>NPV(FY99,FL81:IS81)+Main!J5-Main!J6</f>
-        <v>829866.8168500074</v>
+        <v>824798.91685000737</v>
       </c>
     </row>
     <row r="101" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -47785,7 +47783,7 @@
       </c>
       <c r="FY101" s="65">
         <f>+FY100/Main!J3</f>
-        <v>875.22998800345658</v>
+        <v>915.83268582057224</v>
       </c>
     </row>
     <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -62340,6 +62338,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -62453,32 +62466,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -62493,15 +62490,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B5AFE-4DD8-42BF-B283-318BFA1FB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E18C5C-9625-4678-87F6-8BECEFEB8840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="1365" windowWidth="27990" windowHeight="17070" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27165" yWindow="2085" windowWidth="25965" windowHeight="16125" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -7188,21 +7188,21 @@
       <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>68</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>36356</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>992</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="114" t="s">
         <v>19</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>38218</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>987</v>
       </c>
@@ -7293,7 +7293,7 @@
       <c r="G6" s="115"/>
       <c r="H6" s="53"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>792</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="G7" s="115"/>
       <c r="H7" s="53"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>758</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="G8" s="115"/>
       <c r="H8" s="53"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>277</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>454</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>478</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>63</v>
       </c>
@@ -7365,7 +7365,7 @@
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="114" t="s">
         <v>547</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
         <v>797</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="110" t="s">
         <v>983</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="E15" s="38"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>798</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="E16" s="38"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>14</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
         <v>73</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="G18" s="115"/>
       <c r="H18" s="71"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="38" t="s">
         <v>370</v>
       </c>
@@ -7466,7 +7466,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
         <v>800</v>
       </c>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="38" t="s">
         <v>753</v>
       </c>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
         <v>71</v>
       </c>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="110" t="s">
         <v>984</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
         <v>773</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>261</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>784</v>
       </c>
@@ -7548,7 +7548,7 @@
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>981</v>
       </c>
@@ -7557,7 +7557,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>375</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
         <v>17</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>545</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>55</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
         <v>494</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="38" t="s">
         <v>994</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="38" t="s">
         <v>990</v>
       </c>
@@ -7630,7 +7630,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="38" t="s">
         <v>54</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="38" t="s">
         <v>985</v>
       </c>
@@ -7652,7 +7652,7 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="38" t="s">
         <v>69</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="38" t="s">
         <v>57</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="38" t="s">
         <v>760</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
         <v>368</v>
       </c>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="38" t="s">
         <v>996</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
         <v>756</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="38" t="s">
         <v>766</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="38" t="s">
         <v>771</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="38" t="s">
         <v>772</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="38" t="s">
         <v>507</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="38" t="s">
         <v>407</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="38" t="s">
         <v>64</v>
       </c>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="38" t="s">
         <v>986</v>
       </c>
@@ -7807,7 +7807,7 @@
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="38" t="s">
         <v>788</v>
       </c>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="38" t="s">
         <v>812</v>
       </c>
@@ -7831,7 +7831,7 @@
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="38" t="s">
         <v>755</v>
       </c>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="38" t="s">
         <v>440</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="38" t="s">
         <v>781</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="38" t="s">
         <v>418</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
         <v>508</v>
       </c>
@@ -7900,7 +7900,7 @@
       <c r="F56" s="38"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="38" t="s">
         <v>988</v>
       </c>
@@ -7910,7 +7910,7 @@
       <c r="F57" s="38"/>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="38" t="s">
         <v>61</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="F58" s="38"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="38" t="s">
         <v>495</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="38" t="s">
         <v>72</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="G60" s="21"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="38" t="s">
         <v>377</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="F61" s="38"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>455</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="F62" s="38"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
         <v>993</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="F63" s="38"/>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="38" t="s">
         <v>15</v>
       </c>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="38" t="s">
         <v>41</v>
       </c>
@@ -8009,14 +8009,14 @@
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="38" t="s">
         <v>995</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="38" t="s">
         <v>443</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="38" t="s">
         <v>989</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="E68" s="38"/>
       <c r="F68" s="77"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="38" t="s">
         <v>770</v>
       </c>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="F69" s="77"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="38" t="s">
         <v>492</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="E70" s="38"/>
       <c r="F70" s="77"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="38" t="s">
         <v>463</v>
       </c>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="F71" s="77"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="38" t="s">
         <v>66</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="38" t="s">
         <v>783</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="F73" s="77"/>
       <c r="H73" s="38"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="38" t="s">
         <v>369</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="E74" s="38"/>
       <c r="F74" s="77"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="38" t="s">
         <v>991</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="E75" s="38"/>
       <c r="F75" s="77"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="38" t="s">
         <v>416</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="38" t="s">
         <v>7</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="36" t="s">
         <v>448</v>
       </c>
@@ -8168,7 +8168,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="36" t="s">
         <v>449</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="G79" s="7"/>
       <c r="J79" s="21"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="38" t="s">
         <v>402</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="38"/>
       <c r="C87" s="38" t="s">
         <v>481</v>
@@ -8219,7 +8219,7 @@
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C88" s="38" t="s">
         <v>404</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C89" s="38" t="s">
         <v>49</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>25</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C91" s="38" t="s">
         <v>322</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="38"/>
       <c r="C92" s="38" t="s">
         <v>323</v>
@@ -8284,12 +8284,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="38" t="s">
         <v>432</v>
       </c>
@@ -8300,17 +8300,17 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="38" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C97" s="38" t="s">
         <v>473</v>
       </c>
@@ -8318,17 +8318,17 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="38"/>
       <c r="C100" t="s">
         <v>476</v>
@@ -8337,27 +8337,27 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="38"/>
       <c r="C102" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="38"/>
       <c r="C103" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="38"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="38" t="s">
         <v>238</v>
       </c>
@@ -8371,12 +8371,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C106" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>160</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="36" t="s">
         <v>178</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C109" s="36" t="s">
         <v>276</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>204</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="36" t="s">
         <v>309</v>
       </c>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="36" t="s">
         <v>306</v>
       </c>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>134</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>188</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="45" t="s">
         <v>23</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>1072</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="38"/>
       <c r="C117" s="38" t="s">
         <v>725</v>
@@ -8557,7 +8557,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>720</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E119" s="6" t="s">
         <v>1107</v>
       </c>
@@ -8594,18 +8594,18 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
@@ -8645,110 +8645,110 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="38"/>
       <c r="C11" s="20" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="38"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="38"/>
       <c r="C14" s="20" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="38"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="38"/>
       <c r="C18" s="20" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="38"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="38"/>
       <c r="C21" s="20" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="38"/>
       <c r="C24" s="20" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="38"/>
       <c r="C27" s="20" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="38"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C31" s="20" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="38" t="s">
         <v>1127</v>
       </c>
@@ -8768,18 +8768,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>868</v>
       </c>
@@ -8819,121 +8819,121 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
       <c r="C12" s="20" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="38"/>
       <c r="C14" s="20" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="38"/>
       <c r="C16" s="20" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="38"/>
       <c r="C19" s="20" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="38"/>
       <c r="C23" s="20" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="38"/>
       <c r="C25" s="20" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="38"/>
       <c r="C27" s="20" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="20" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
         <v>1142</v>
       </c>
@@ -8954,18 +8954,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>402</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>403</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>405</v>
       </c>
@@ -8997,12 +8997,12 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>2</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>137</v>
       </c>
@@ -9018,12 +9018,12 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
         <v>1162</v>
       </c>
@@ -9044,18 +9044,18 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>843</v>
       </c>
@@ -9079,12 +9079,12 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="38" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>1018</v>
       </c>
@@ -9092,15 +9092,15 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="38" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="38"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>868</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>1012</v>
       </c>
@@ -9116,37 +9116,37 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="20" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C17" s="20" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="20" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="20" t="s">
         <v>1016</v>
       </c>
@@ -9165,18 +9165,18 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>48</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>405</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>843</v>
       </c>
@@ -9208,94 +9208,94 @@
         <v>844</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="38" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="20" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="38" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="38" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="38" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="38" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="20" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="38" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="38" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="38" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="20" t="s">
         <v>997</v>
       </c>
@@ -9315,18 +9315,18 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>403</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>51</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>868</v>
       </c>
@@ -9350,92 +9350,92 @@
         <v>904</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="38" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="38" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="38" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="38" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="20" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="38" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="38" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="20" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="38" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="38" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="38" t="s">
         <v>931</v>
       </c>
@@ -9454,19 +9454,19 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -9498,27 +9498,27 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="20" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="38" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="38" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="38" t="s">
         <v>1026</v>
       </c>
@@ -9539,18 +9539,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>843</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>2</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>868</v>
       </c>
@@ -9606,89 +9606,89 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="38" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="38" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="38" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="38"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="20" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="38" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="20" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C25" s="20" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="38" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="38"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="20" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="38" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="38"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="38"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="38" t="s">
         <v>864</v>
       </c>
@@ -9707,18 +9707,18 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>539</v>
       </c>
@@ -9758,61 +9758,61 @@
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
       <c r="C8" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
       <c r="C11" s="38" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="38"/>
       <c r="C12" s="38" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="20" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="38" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
         <v>538</v>
       </c>
@@ -9831,17 +9831,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>402</v>
@@ -9850,22 +9850,22 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>553</v>
       </c>
@@ -9889,18 +9889,18 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>941</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="117">
         <v>12269857</v>
       </c>
@@ -9924,7 +9924,7 @@
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="117">
         <v>12252524</v>
       </c>
@@ -9934,7 +9934,7 @@
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>12122750</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>12115210</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>12102610</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>12083324</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>12071423</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>12060356</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>12059557</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12059452</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12042634</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12037406</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12037387</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12037322</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>12023470</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>12011574</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>12005235</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11999722</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11993608</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11976136</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11976114</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11970485</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>11964968</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>11957882</v>
       </c>
@@ -10154,18 +10154,18 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>868</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
@@ -10213,22 +10213,22 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="20" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="38" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="38" t="s">
         <v>1047</v>
       </c>
@@ -10248,19 +10248,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>50</v>
@@ -10269,7 +10269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>48</v>
@@ -10278,7 +10278,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -10287,37 +10287,37 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>254</v>
       </c>
@@ -10342,18 +10342,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -10377,17 +10377,17 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>233</v>
       </c>
@@ -10408,17 +10408,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -10448,18 +10448,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -10486,19 +10486,19 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
@@ -10507,55 +10507,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="29">
         <v>38338</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>2004</v>
       </c>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -10598,7 +10598,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
@@ -10610,7 +10610,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -10618,7 +10618,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -10626,7 +10626,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -10634,7 +10634,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -10642,7 +10642,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
         <v>165</v>
@@ -10654,7 +10654,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="30">
         <f>C25-7</f>
         <v>39227</v>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="30">
         <v>38869</v>
       </c>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -10717,18 +10717,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -10753,18 +10753,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -10789,21 +10789,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="23.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -10819,22 +10819,22 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10842,38 +10842,38 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="26"/>
       <c r="D18" s="24" t="s">
         <v>55</v>
@@ -10885,7 +10885,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="27" t="s">
         <v>157</v>
       </c>
@@ -10897,7 +10897,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>139</v>
       </c>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
@@ -10923,12 +10923,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C23" s="19" t="s">
         <v>140</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>142</v>
       </c>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
@@ -10990,12 +10990,12 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="19" t="s">
         <v>146</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="28" t="s">
         <v>147</v>
       </c>
@@ -11039,20 +11039,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -11092,22 +11092,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>164</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="43">
         <v>40165</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>53829</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="43">
         <f t="shared" ref="C14:C20" si="0">C13-7</f>
         <v>40158</v>
@@ -11142,7 +11142,7 @@
         <v>52891</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="43">
         <f t="shared" si="0"/>
         <v>40151</v>
@@ -11154,7 +11154,7 @@
         <v>56775</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="43">
         <f t="shared" si="0"/>
         <v>40144</v>
@@ -11166,7 +11166,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="43">
         <f t="shared" si="0"/>
         <v>40137</v>
@@ -11178,7 +11178,7 @@
         <v>53770</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="43">
         <f t="shared" si="0"/>
         <v>40130</v>
@@ -11190,7 +11190,7 @@
         <v>51112</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="43">
         <f t="shared" si="0"/>
         <v>40123</v>
@@ -11202,7 +11202,7 @@
         <v>54445</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="43">
         <f t="shared" si="0"/>
         <v>40116</v>
@@ -11214,7 +11214,7 @@
         <v>51865</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="43">
         <v>39234</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>50496</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="43">
         <f>C21-7</f>
         <v>39227</v>
@@ -11237,7 +11237,7 @@
         <v>53736</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="43">
         <f>C21-365</f>
         <v>38869</v>
@@ -11270,23 +11270,23 @@
       <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="118" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="118"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="118"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="119" t="s">
         <v>1166</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="119">
         <v>6921759</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="118">
         <v>6916091</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="118">
         <v>6916065</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="118">
         <v>6916143</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="118">
         <v>6916078</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="118">
         <v>6914895</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="118">
         <v>6911944</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>45751</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="118">
         <v>6908707</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="125">
         <v>6901518</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="118">
         <v>6901336</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="118">
         <v>6901349</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="119">
         <v>6897475</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="118">
         <v>6890611</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="119">
         <v>6890598</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="125">
         <v>6876662</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="125">
         <v>6876649</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="123">
         <v>6869018</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="125">
         <v>6868381</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>45726</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="125">
         <v>6864026</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="125">
         <v>6864403</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="123">
         <v>6859294</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="123">
         <v>6859268</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="125">
         <v>6857942</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="125">
         <v>6855212</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>45719</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="125">
         <v>6847399</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>45714</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="125">
         <v>6839872</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>45709</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="125">
         <v>6835972</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>45707</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="118">
         <v>6824051</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="118">
         <v>6817356</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="118">
         <v>6812715</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>45694</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="118">
         <v>6810544</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>45693</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="118">
         <v>6808802</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>45693</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="118">
         <v>6809400</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>45693</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="118">
         <v>6808815</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>45693</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="118">
         <v>6797310</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="118">
         <v>6739122</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>45644</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="118">
         <v>6721013</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="118">
         <v>6719128</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="118">
         <v>6709820</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>45625</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="118">
         <v>6704763</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="118">
         <v>6696456</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="118">
         <v>6696014</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="118">
         <v>6692348</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>45614</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="118">
         <v>6690996</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>45611</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="118">
         <v>6683508</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="118">
         <v>6678269</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="118">
         <v>6672939</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="123">
         <v>6662383</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="123">
         <v>6657768</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="123">
         <v>6653153</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="123">
         <v>6649045</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="123">
         <v>6647498</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="118">
         <v>6644378</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="118">
         <v>6643728</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="118">
         <v>6641037</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="58" spans="2:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="120">
         <v>6635057</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="59" spans="2:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="120">
         <v>6630325</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="118">
         <v>6627088</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>45569</v>
       </c>
     </row>
-    <row r="61" spans="2:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="123">
         <v>6607185</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="118">
         <v>6606106</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="118">
         <v>6598631</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="118">
         <v>6588296</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="118">
         <v>6598943</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="118">
         <v>6602219</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="118">
         <v>6594679</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="118">
         <v>6594159</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="118">
         <v>6586515</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="118">
         <v>6588478</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="118">
         <v>6603571</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="118">
         <v>6588283</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="118">
         <v>6584916</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>45540</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="118">
         <v>6568042</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="118">
         <v>6566170</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="118">
         <v>6565195</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>45525</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="118">
         <v>6561685</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="118">
         <v>6557356</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="79" spans="2:7" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="120">
         <v>6553872</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>45518</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="118">
         <v>6538116</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="120">
         <v>6516913</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="118">
         <v>6517888</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="118">
         <v>6515418</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="118">
         <v>6503679</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="118">
         <v>6475729</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="118">
         <v>6465069</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="87" spans="2:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="120">
         <v>6458036</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="118">
         <v>6444165</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="125">
         <v>6440980</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="90" spans="2:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="125">
         <v>6439277</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>45446</v>
       </c>
     </row>
-    <row r="91" spans="2:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="125">
         <v>6413706</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="118">
         <v>6400472</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="118">
         <v>6395012</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="94" spans="2:8" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" s="121" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="120">
         <v>6390956</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="118">
         <v>6383390</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>45407</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="118">
         <v>6373146</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="118">
         <v>6370715</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="125">
         <v>6370728</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="125">
         <v>6365788</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="125">
         <v>6366347</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="118">
         <v>6362265</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="118">
         <v>6354660</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="118">
         <v>6347003</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="118">
         <v>6347133</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="118">
         <v>6345794</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="118">
         <v>6345066</v>
       </c>
@@ -13441,18 +13441,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -13484,22 +13484,22 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="20" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="20" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="38" t="s">
         <v>1084</v>
       </c>
@@ -13519,19 +13519,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
@@ -13579,32 +13579,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="21"/>
     </row>
   </sheetData>
@@ -13626,20 +13626,20 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -13671,27 +13671,27 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>131</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>164</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="42">
         <v>40165</v>
@@ -13745,7 +13745,7 @@
         <v>4.2984100816726937E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="42">
         <f t="shared" ref="C14:C20" si="1">C13-7</f>
@@ -13766,7 +13766,7 @@
         <v>3.8681653165078709E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="42">
         <f t="shared" si="1"/>
@@ -13787,7 +13787,7 @@
         <v>3.1254381079652369E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="42">
         <f t="shared" si="1"/>
@@ -13808,7 +13808,7 @@
         <v>3.4584947518294098E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="42">
         <f t="shared" si="1"/>
@@ -13829,7 +13829,7 @@
         <v>3.2099779036147079E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="42">
         <f t="shared" si="1"/>
@@ -13850,7 +13850,7 @@
         <v>2.6363776171540302E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="42">
         <f t="shared" si="1"/>
@@ -13871,7 +13871,7 @@
         <v>2.4831685670414312E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="42">
         <f t="shared" si="1"/>
@@ -13892,11 +13892,11 @@
         <v>2.2489745401572539E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>172</v>
       </c>
@@ -13904,117 +13904,117 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C46" s="16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="21" t="s">
         <v>327</v>
       </c>
@@ -14036,25 +14036,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>48</v>
@@ -14063,7 +14063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -14072,7 +14072,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -14081,28 +14081,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="21" t="s">
         <v>122</v>
       </c>
@@ -14125,23 +14125,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>92</v>
       </c>
@@ -14181,12 +14181,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>114</v>
       </c>
@@ -14208,19 +14208,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -14244,17 +14244,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="16" t="s">
         <v>235</v>
       </c>
@@ -14276,19 +14276,19 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>48</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -14320,42 +14320,42 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>227</v>
       </c>
@@ -14377,29 +14377,29 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -14422,10 +14422,10 @@
         <v>172</v>
       </c>
       <c r="J2" s="31">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>505</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>517</v>
       </c>
@@ -14474,11 +14474,11 @@
       </c>
       <c r="J4" s="18">
         <f>J2*J3</f>
-        <v>678151.8</v>
+        <v>649332.6</v>
       </c>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>502</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="68" t="s">
         <v>469</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>420</v>
       </c>
@@ -14554,10 +14554,10 @@
       </c>
       <c r="J7" s="18">
         <f>J4-J5+J6</f>
-        <v>710224.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>681405.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>312</v>
       </c>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>421</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
         <v>548</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>531</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>488</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
         <v>485</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>484</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>439</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>521</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
         <v>471</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>468</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>523</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>840</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="36" t="s">
         <v>57</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
         <v>433</v>
       </c>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -14873,7 +14873,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>998</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>727</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>565</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>564</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="128" t="s">
         <v>711</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="36" t="s">
         <v>739</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="36" t="s">
         <v>707</v>
       </c>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="36" t="s">
         <v>736</v>
       </c>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>562</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="36" t="s">
         <v>563</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="36" t="s">
         <v>906</v>
       </c>
@@ -15082,7 +15082,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
         <v>710</v>
       </c>
@@ -15098,7 +15098,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>713</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="36" t="s">
         <v>715</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="37" t="s">
         <v>719</v>
@@ -15151,7 +15151,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="36" t="s">
         <v>716</v>
       </c>
@@ -15165,7 +15165,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="36" t="s">
         <v>1088</v>
       </c>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
         <v>1092</v>
       </c>
@@ -15195,7 +15195,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="36" t="s">
         <v>721</v>
       </c>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
       <c r="C43" s="37" t="s">
         <v>445</v>
@@ -15223,7 +15223,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="36" t="s">
         <v>724</v>
       </c>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="36" t="s">
         <v>979</v>
       </c>
@@ -15251,7 +15251,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="36" t="s">
         <v>726</v>
       </c>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="36" t="s">
         <v>733</v>
       </c>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="36"/>
       <c r="C48" s="37" t="s">
         <v>194</v>
@@ -15295,7 +15295,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
         <v>1068</v>
       </c>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="113" t="s">
         <v>1070</v>
       </c>
@@ -15327,7 +15327,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="36" t="s">
         <v>734</v>
       </c>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="36" t="s">
         <v>1091</v>
       </c>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
         <v>1096</v>
       </c>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="36" t="s">
         <v>1094</v>
       </c>
@@ -15389,7 +15389,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="36"/>
       <c r="C55" s="37" t="s">
         <v>1099</v>
@@ -15403,7 +15403,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="113" t="s">
         <v>1104</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="113" t="s">
         <v>1164</v>
       </c>
@@ -15437,7 +15437,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="113"/>
       <c r="C58" s="37" t="s">
         <v>518</v>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="113"/>
       <c r="C59" s="37" t="s">
         <v>451</v>
@@ -15465,7 +15465,7 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="113"/>
       <c r="C60" s="37" t="s">
         <v>451</v>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="113"/>
       <c r="C61" s="37" t="s">
         <v>451</v>
@@ -15493,7 +15493,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="113"/>
       <c r="C62" s="37" t="s">
         <v>1108</v>
@@ -15507,7 +15507,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="113"/>
       <c r="C63" s="37" t="s">
         <v>518</v>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="113"/>
       <c r="C64" s="37" t="s">
         <v>1113</v>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="113"/>
       <c r="C65" s="37" t="s">
         <v>116</v>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="113"/>
       <c r="C66" s="37" t="s">
         <v>120</v>
@@ -15561,7 +15561,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="113"/>
       <c r="C67" s="37" t="s">
         <v>451</v>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="113"/>
       <c r="C68" s="37" t="s">
         <v>1114</v>
@@ -15589,7 +15589,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="113"/>
       <c r="C69" s="37" t="s">
         <v>1099</v>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="113"/>
       <c r="C70" s="37" t="s">
         <v>1113</v>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="113"/>
       <c r="C71" s="37" t="s">
         <v>1060</v>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="113" t="s">
         <v>1118</v>
       </c>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="113"/>
       <c r="C73" s="37" t="s">
         <v>518</v>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="113"/>
       <c r="C74" s="37" t="s">
         <v>1114</v>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="36" t="s">
         <v>1100</v>
       </c>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="36" t="s">
         <v>561</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="G76" s="7"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="36" t="s">
         <v>729</v>
       </c>
@@ -15723,7 +15723,7 @@
       <c r="G77" s="7"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="69" t="s">
         <v>526</v>
       </c>
@@ -15737,232 +15737,232 @@
       </c>
       <c r="G78" s="10"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="E80" s="33" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E81" s="33" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E82" s="33" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E83" s="33" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E84" s="33" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E85" s="33" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E86" s="33" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E87" s="33" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E88" s="33" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E89" s="33" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E90" s="33" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E91" s="33" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E92" s="33" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E93" s="33" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E94" s="33" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E95" s="33" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E96" s="33" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E97" s="33" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E98" s="33" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E99" s="33" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E100" s="33" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E101" s="33" t="s">
         <v>877</v>
       </c>
       <c r="F101" s="33"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E102" s="33" t="s">
         <v>878</v>
       </c>
       <c r="F102" s="34"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E103" s="33" t="s">
         <v>886</v>
       </c>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E104" s="33" t="s">
         <v>887</v>
       </c>
       <c r="F104" s="34"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E105" s="33" t="s">
         <v>889</v>
       </c>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E106" s="33" t="s">
         <v>893</v>
       </c>
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E107" s="33" t="s">
         <v>894</v>
       </c>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E108" s="33" t="s">
         <v>897</v>
       </c>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E109" s="33" t="s">
         <v>898</v>
       </c>
       <c r="F109" s="34"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E110" s="33" t="s">
         <v>921</v>
       </c>
       <c r="F110" s="34"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E111" s="33" t="s">
         <v>920</v>
       </c>
       <c r="F111" s="34"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E112" s="33" t="s">
         <v>934</v>
       </c>
       <c r="F112" s="34"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E113" s="33" t="s">
         <v>922</v>
       </c>
       <c r="F113" s="34"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E114" s="33" t="s">
         <v>939</v>
       </c>
       <c r="F114" s="34"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E115" s="33" t="s">
         <v>940</v>
       </c>
       <c r="F115" s="34"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E116" s="33" t="s">
         <v>914</v>
       </c>
       <c r="F116" s="34"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E117" s="33" t="s">
         <v>915</v>
       </c>
       <c r="F117" s="34"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E118" s="33" t="s">
         <v>909</v>
       </c>
       <c r="F118" s="34"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E119" s="33" t="s">
         <v>908</v>
       </c>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="E120" s="33" t="s">
         <v>905</v>
       </c>
       <c r="F120" s="34"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B121" s="74"/>
       <c r="C121" s="74"/>
       <c r="E121" s="33" t="s">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="F121" s="33"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B122" s="74"/>
       <c r="C122" s="74"/>
       <c r="E122" s="33" t="s">
@@ -15978,75 +15978,75 @@
       </c>
       <c r="F122" s="33"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B123" s="75"/>
       <c r="E123" s="21" t="s">
         <v>542</v>
       </c>
       <c r="F123" s="33"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="75"/>
       <c r="C124" s="75"/>
       <c r="E124" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="75"/>
       <c r="C125" s="75"/>
       <c r="E125" s="21" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="75"/>
       <c r="C126" s="75"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="75"/>
       <c r="C127" s="75"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="76"/>
       <c r="C128" s="75"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="76"/>
       <c r="C129" s="75"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="76"/>
       <c r="C130" s="75"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="75"/>
       <c r="C131" s="75"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="75"/>
       <c r="C132" s="75"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="76"/>
       <c r="C133" s="75"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="75"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="75"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="75"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C138" s="75"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="75"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C142" s="75"/>
     </row>
   </sheetData>
@@ -16087,34 +16087,34 @@
       <selection pane="bottomRight" activeCell="DS100" sqref="DS100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="53" width="7" style="47" customWidth="1"/>
-    <col min="54" max="54" width="6.5703125" style="47" customWidth="1"/>
+    <col min="54" max="54" width="6.54296875" style="47" customWidth="1"/>
     <col min="55" max="94" width="7" style="47" customWidth="1"/>
-    <col min="95" max="102" width="7.42578125" style="47" customWidth="1"/>
-    <col min="103" max="121" width="7.85546875" style="47" customWidth="1"/>
+    <col min="95" max="102" width="7.453125" style="47" customWidth="1"/>
+    <col min="103" max="121" width="7.81640625" style="47" customWidth="1"/>
     <col min="122" max="126" width="8" style="47" customWidth="1"/>
-    <col min="127" max="127" width="4.42578125" customWidth="1"/>
-    <col min="128" max="143" width="6.5703125" customWidth="1"/>
-    <col min="144" max="144" width="6.5703125" style="47" customWidth="1"/>
-    <col min="145" max="152" width="7.42578125" style="47" customWidth="1"/>
+    <col min="127" max="127" width="4.453125" customWidth="1"/>
+    <col min="128" max="143" width="6.54296875" customWidth="1"/>
+    <col min="144" max="144" width="6.54296875" style="47" customWidth="1"/>
+    <col min="145" max="152" width="7.453125" style="47" customWidth="1"/>
     <col min="153" max="153" width="7" style="47" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="8.140625" style="47" customWidth="1"/>
+    <col min="154" max="154" width="8.1796875" style="47" customWidth="1"/>
     <col min="155" max="155" width="7" style="47" customWidth="1"/>
     <col min="156" max="156" width="9" style="47" customWidth="1"/>
     <col min="157" max="157" width="7" style="47" customWidth="1"/>
-    <col min="158" max="160" width="7.42578125" style="47" customWidth="1"/>
-    <col min="161" max="168" width="7.42578125" customWidth="1"/>
-    <col min="169" max="170" width="7.140625" customWidth="1"/>
-    <col min="171" max="172" width="8.140625" customWidth="1"/>
-    <col min="173" max="178" width="7.7109375" customWidth="1"/>
-    <col min="181" max="181" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="160" width="7.453125" style="47" customWidth="1"/>
+    <col min="161" max="168" width="7.453125" customWidth="1"/>
+    <col min="169" max="170" width="7.1796875" customWidth="1"/>
+    <col min="171" max="172" width="8.1796875" customWidth="1"/>
+    <col min="173" max="178" width="7.7265625" customWidth="1"/>
+    <col min="181" max="181" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
@@ -16155,7 +16155,7 @@
       <c r="ES1" s="99"/>
       <c r="ET1" s="99"/>
     </row>
-    <row r="2" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="C2" s="48" t="s">
         <v>836</v>
@@ -16696,7 +16696,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:178" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="102"/>
       <c r="B3" s="38" t="s">
         <v>118</v>
@@ -17078,7 +17078,7 @@
         <v>114607.18448394563</v>
       </c>
     </row>
-    <row r="4" spans="1:178" s="102" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:178" s="102" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
       <c r="E4" s="103"/>
@@ -17221,7 +17221,7 @@
       <c r="FC4" s="99"/>
       <c r="FD4" s="99"/>
     </row>
-    <row r="5" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="50" t="s">
         <v>365</v>
@@ -17559,7 +17559,7 @@
         <v>405.96030881792029</v>
       </c>
     </row>
-    <row r="6" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98"/>
       <c r="B6" s="50" t="s">
         <v>506</v>
@@ -17815,7 +17815,7 @@
         <v>30865.84635125376</v>
       </c>
     </row>
-    <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98"/>
       <c r="B7" s="50" t="s">
         <v>525</v>
@@ -18056,7 +18056,7 @@
         <v>50635.377823873947</v>
       </c>
     </row>
-    <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98"/>
       <c r="B8" s="50" t="s">
         <v>564</v>
@@ -18259,7 +18259,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="50" t="s">
         <v>711</v>
@@ -18461,7 +18461,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="10" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:178" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98"/>
       <c r="B10" s="50" t="s">
         <v>376</v>
@@ -18676,7 +18676,7 @@
       <c r="FP10" s="98"/>
       <c r="FQ10" s="98"/>
     </row>
-    <row r="11" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A11" s="102"/>
       <c r="B11" s="38" t="s">
         <v>372</v>
@@ -18999,7 +18999,7 @@
         <v>8453.4271745557999</v>
       </c>
     </row>
-    <row r="12" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
       <c r="B12" s="38" t="s">
         <v>369</v>
@@ -19307,7 +19307,7 @@
         <v>6.0781055861694041E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A13" s="102"/>
       <c r="B13" s="50" t="s">
         <v>998</v>
@@ -19517,7 +19517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="38" t="s">
         <v>368</v>
@@ -19853,7 +19853,7 @@
         <v>6.6724627200000046E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A15" s="102"/>
       <c r="B15" t="s">
         <v>54</v>
@@ -20389,7 +20389,7 @@
         <v>1268.6038268582768</v>
       </c>
     </row>
-    <row r="16" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A16" s="102"/>
       <c r="B16" t="s">
         <v>19</v>
@@ -20842,7 +20842,7 @@
         <v>0.104296875</v>
       </c>
     </row>
-    <row r="17" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A17" s="102"/>
       <c r="B17" t="s">
         <v>57</v>
@@ -21396,7 +21396,7 @@
         <v>474.19965587679593</v>
       </c>
     </row>
-    <row r="18" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A18" s="102"/>
       <c r="B18" s="38" t="s">
         <v>565</v>
@@ -21608,7 +21608,7 @@
         <v>237.09982793839796</v>
       </c>
     </row>
-    <row r="19" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A19" s="102"/>
       <c r="B19" s="38" t="s">
         <v>373</v>
@@ -21923,7 +21923,7 @@
         <v>9.8930223230700031E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A20" s="102"/>
       <c r="B20" s="38" t="s">
         <v>370</v>
@@ -22266,7 +22266,7 @@
         <v>576.82316726225395</v>
       </c>
     </row>
-    <row r="21" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A21" s="102"/>
       <c r="B21" t="s">
         <v>18</v>
@@ -22739,7 +22739,7 @@
         <v>114.33166050879007</v>
       </c>
     </row>
-    <row r="22" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A22" s="102"/>
       <c r="B22" s="38" t="s">
         <v>366</v>
@@ -23072,7 +23072,7 @@
         <v>244.49332219812007</v>
       </c>
     </row>
-    <row r="23" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A23" s="102"/>
       <c r="B23" s="38" t="s">
         <v>375</v>
@@ -23378,7 +23378,7 @@
         <v>866.21263670582994</v>
       </c>
     </row>
-    <row r="24" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A24" s="102"/>
       <c r="B24" s="38" t="s">
         <v>367</v>
@@ -23698,7 +23698,7 @@
         <v>105.09168184614008</v>
       </c>
     </row>
-    <row r="25" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A25" s="102"/>
       <c r="B25" s="38" t="s">
         <v>256</v>
@@ -24083,7 +24083,7 @@
         <v>211.64781314070018</v>
       </c>
     </row>
-    <row r="26" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A26" s="102"/>
       <c r="B26" t="s">
         <v>77</v>
@@ -24402,7 +24402,7 @@
         <v>88.913002225500023</v>
       </c>
     </row>
-    <row r="27" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A27" s="102"/>
       <c r="B27" t="s">
         <v>16</v>
@@ -24866,7 +24866,7 @@
         <v>129.39456912111004</v>
       </c>
     </row>
-    <row r="28" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A28" s="102"/>
       <c r="B28" t="s">
         <v>78</v>
@@ -25240,7 +25240,7 @@
         <v>65.23773614271002</v>
       </c>
     </row>
-    <row r="29" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A29" s="102"/>
       <c r="B29" t="s">
         <v>7</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A30" s="102"/>
       <c r="B30" s="38" t="s">
         <v>371</v>
@@ -26049,7 +26049,7 @@
         <v>182.81210614443</v>
       </c>
     </row>
-    <row r="31" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A31" s="102"/>
       <c r="B31" t="s">
         <v>14</v>
@@ -26489,7 +26489,7 @@
         <v>57.636546148530016</v>
       </c>
     </row>
-    <row r="32" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A32" s="102"/>
       <c r="B32" t="s">
         <v>492</v>
@@ -26817,7 +26817,7 @@
         <v>122.52560385114005</v>
       </c>
     </row>
-    <row r="33" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A33" s="102"/>
       <c r="B33" t="s">
         <v>62</v>
@@ -27135,7 +27135,7 @@
         <v>162.83283152670003</v>
       </c>
     </row>
-    <row r="34" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A34" s="102"/>
       <c r="B34" s="38" t="s">
         <v>377</v>
@@ -27418,7 +27418,7 @@
         <v>1.1253034000000006E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A35" s="102"/>
       <c r="B35" s="38" t="s">
         <v>454</v>
@@ -27659,7 +27659,7 @@
       <c r="FP35" s="49"/>
       <c r="FQ35" s="49"/>
     </row>
-    <row r="36" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A36" s="102"/>
       <c r="B36" s="38" t="s">
         <v>972</v>
@@ -27892,7 +27892,7 @@
         <v>612.12322058360053</v>
       </c>
     </row>
-    <row r="37" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A37" s="102"/>
       <c r="B37" s="38" t="s">
         <v>879</v>
@@ -28129,7 +28129,7 @@
         <v>1825.4373588198014</v>
       </c>
     </row>
-    <row r="38" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A38" s="102"/>
       <c r="B38" s="38" t="s">
         <v>980</v>
@@ -28372,7 +28372,7 @@
         <v>100.92016117480006</v>
       </c>
     </row>
-    <row r="39" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A39" s="102"/>
       <c r="B39" s="38" t="s">
         <v>981</v>
@@ -28615,7 +28615,7 @@
         <v>197.12442696760019</v>
       </c>
     </row>
-    <row r="40" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A40" s="102"/>
       <c r="B40" s="38" t="s">
         <v>853</v>
@@ -28853,7 +28853,7 @@
         <v>702.38545819508067</v>
       </c>
     </row>
-    <row r="41" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A41" s="102"/>
       <c r="B41" s="38" t="s">
         <v>374</v>
@@ -29076,7 +29076,7 @@
       <c r="FP41" s="49"/>
       <c r="FQ41" s="49"/>
     </row>
-    <row r="42" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A42" s="102"/>
       <c r="B42" s="38" t="s">
         <v>494</v>
@@ -29275,7 +29275,7 @@
       <c r="FP42" s="49"/>
       <c r="FQ42" s="49"/>
     </row>
-    <row r="43" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A43" s="102"/>
       <c r="B43" s="38" t="s">
         <v>455</v>
@@ -29499,7 +29499,7 @@
       <c r="FP43" s="49"/>
       <c r="FQ43" s="49"/>
     </row>
-    <row r="44" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A44" s="102"/>
       <c r="B44" t="s">
         <v>15</v>
@@ -29879,7 +29879,7 @@
       <c r="FP44" s="49"/>
       <c r="FQ44" s="49"/>
     </row>
-    <row r="45" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A45" s="102"/>
       <c r="B45" t="s">
         <v>69</v>
@@ -30136,7 +30136,7 @@
         <v>258.39999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:178" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:178" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="102"/>
       <c r="B46" s="38" t="s">
         <v>508</v>
@@ -30323,7 +30323,7 @@
       <c r="FP46" s="49"/>
       <c r="FQ46" s="49"/>
     </row>
-    <row r="47" spans="1:178" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:178" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="102"/>
       <c r="B47" s="38" t="s">
         <v>507</v>
@@ -30518,7 +30518,7 @@
       <c r="FP47" s="49"/>
       <c r="FQ47" s="49"/>
     </row>
-    <row r="48" spans="1:178" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:178" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="102"/>
       <c r="B48" t="s">
         <v>79</v>
@@ -30849,7 +30849,7 @@
       <c r="FK48" s="49"/>
       <c r="FL48" s="49"/>
     </row>
-    <row r="49" spans="1:168" s="38" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:168" s="38" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="106"/>
       <c r="B49" s="38" t="s">
         <v>261</v>
@@ -31101,7 +31101,7 @@
       <c r="FK49" s="49"/>
       <c r="FL49" s="49"/>
     </row>
-    <row r="50" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="102"/>
       <c r="B50" t="s">
         <v>55</v>
@@ -31449,7 +31449,7 @@
       <c r="FK50" s="49"/>
       <c r="FL50" s="49"/>
     </row>
-    <row r="51" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="102"/>
       <c r="B51" s="38" t="s">
         <v>41</v>
@@ -31625,7 +31625,7 @@
       <c r="FK51" s="49"/>
       <c r="FL51" s="49"/>
     </row>
-    <row r="52" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="102"/>
       <c r="B52" t="s">
         <v>70</v>
@@ -31876,7 +31876,7 @@
       <c r="FK52" s="49"/>
       <c r="FL52" s="49"/>
     </row>
-    <row r="53" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="102"/>
       <c r="B53" t="s">
         <v>61</v>
@@ -32176,7 +32176,7 @@
       <c r="FK53" s="49"/>
       <c r="FL53" s="49"/>
     </row>
-    <row r="54" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="102"/>
       <c r="B54" t="s">
         <v>63</v>
@@ -32396,7 +32396,7 @@
       <c r="FK54" s="49"/>
       <c r="FL54" s="49"/>
     </row>
-    <row r="55" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="102"/>
       <c r="B55" t="s">
         <v>64</v>
@@ -32593,7 +32593,7 @@
       <c r="FK55" s="49"/>
       <c r="FL55" s="49"/>
     </row>
-    <row r="56" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="102"/>
       <c r="B56" s="38" t="s">
         <v>758</v>
@@ -32819,7 +32819,7 @@
       <c r="FK56" s="49"/>
       <c r="FL56" s="49"/>
     </row>
-    <row r="57" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="102"/>
       <c r="B57" t="s">
         <v>65</v>
@@ -33007,7 +33007,7 @@
       <c r="FK57" s="49"/>
       <c r="FL57" s="49"/>
     </row>
-    <row r="58" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="102"/>
       <c r="B58" t="s">
         <v>66</v>
@@ -33197,7 +33197,7 @@
       <c r="FK58" s="49"/>
       <c r="FL58" s="49"/>
     </row>
-    <row r="59" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="102"/>
       <c r="B59" t="s">
         <v>67</v>
@@ -33388,7 +33388,7 @@
       <c r="FK59" s="49"/>
       <c r="FL59" s="49"/>
     </row>
-    <row r="60" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="102"/>
       <c r="B60" t="s">
         <v>71</v>
@@ -33574,7 +33574,7 @@
       <c r="FK60" s="49"/>
       <c r="FL60" s="49"/>
     </row>
-    <row r="61" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="102"/>
       <c r="B61" t="s">
         <v>72</v>
@@ -33847,7 +33847,7 @@
       <c r="FK61" s="49"/>
       <c r="FL61" s="49"/>
     </row>
-    <row r="62" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="102"/>
       <c r="B62" t="s">
         <v>73</v>
@@ -34035,7 +34035,7 @@
       <c r="FK62" s="49"/>
       <c r="FL62" s="49"/>
     </row>
-    <row r="63" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="102"/>
       <c r="B63" t="s">
         <v>68</v>
@@ -34268,7 +34268,7 @@
       <c r="FK63" s="49"/>
       <c r="FL63" s="49"/>
     </row>
-    <row r="64" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:168" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="102"/>
       <c r="B64" t="s">
         <v>74</v>
@@ -34495,7 +34495,7 @@
       <c r="FK64" s="49"/>
       <c r="FL64" s="49"/>
     </row>
-    <row r="65" spans="1:178" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:178" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="102"/>
       <c r="B65" t="s">
         <v>17</v>
@@ -34859,7 +34859,7 @@
       <c r="FK65" s="49"/>
       <c r="FL65" s="49"/>
     </row>
-    <row r="66" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A66" s="102"/>
       <c r="B66" s="38" t="s">
         <v>238</v>
@@ -35031,7 +35031,7 @@
       <c r="FK66" s="49"/>
       <c r="FL66" s="49"/>
     </row>
-    <row r="67" spans="1:178" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:178" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="106"/>
       <c r="B67" s="38" t="s">
         <v>275</v>
@@ -35203,7 +35203,7 @@
       <c r="FK67" s="49"/>
       <c r="FL67" s="49"/>
     </row>
-    <row r="68" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A68" s="102"/>
       <c r="B68" t="s">
         <v>80</v>
@@ -35465,7 +35465,7 @@
       <c r="FK68" s="49"/>
       <c r="FL68" s="49"/>
     </row>
-    <row r="69" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A69" s="102"/>
       <c r="B69" t="s">
         <v>76</v>
@@ -35651,7 +35651,7 @@
       <c r="FK69" s="49"/>
       <c r="FL69" s="49"/>
     </row>
-    <row r="70" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A70" s="102"/>
       <c r="B70" s="38" t="s">
         <v>249</v>
@@ -35847,7 +35847,7 @@
       <c r="FK70" s="49"/>
       <c r="FL70" s="49"/>
     </row>
-    <row r="71" spans="1:178" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:178" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="107"/>
       <c r="B71" s="55" t="s">
         <v>379</v>
@@ -36523,7 +36523,7 @@
         <v>131506.57743378668</v>
       </c>
     </row>
-    <row r="72" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A72" s="102"/>
       <c r="B72" t="s">
         <v>58</v>
@@ -36985,7 +36985,7 @@
         <v>19725.986615068003</v>
       </c>
     </row>
-    <row r="73" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A73" s="102"/>
       <c r="B73" t="s">
         <v>123</v>
@@ -37532,7 +37532,7 @@
         <v>111780.59081871867</v>
       </c>
     </row>
-    <row r="74" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A74" s="102"/>
       <c r="B74" t="s">
         <v>59</v>
@@ -37987,7 +37987,7 @@
         <v>32876.644358446669</v>
       </c>
     </row>
-    <row r="75" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A75" s="102"/>
       <c r="B75" t="s">
         <v>60</v>
@@ -38407,7 +38407,7 @@
       <c r="FU75" s="49"/>
       <c r="FV75" s="49"/>
     </row>
-    <row r="76" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A76" s="102"/>
       <c r="B76" s="38" t="s">
         <v>250</v>
@@ -38909,7 +38909,7 @@
         <v>32876.644358446669</v>
       </c>
     </row>
-    <row r="77" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A77" s="102"/>
       <c r="B77" s="38" t="s">
         <v>251</v>
@@ -39459,7 +39459,7 @@
         <v>78903.946460272011</v>
       </c>
     </row>
-    <row r="78" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A78" s="102"/>
       <c r="B78" t="s">
         <v>78</v>
@@ -39904,7 +39904,7 @@
         <v>10288.479238591262</v>
       </c>
     </row>
-    <row r="79" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A79" s="102"/>
       <c r="B79" t="s">
         <v>81</v>
@@ -40457,7 +40457,7 @@
         <v>89192.42569886327</v>
       </c>
     </row>
-    <row r="80" spans="1:178" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A80" s="102"/>
       <c r="B80" t="s">
         <v>82</v>
@@ -40915,7 +40915,7 @@
         <v>17838.485139772656</v>
       </c>
     </row>
-    <row r="81" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A81" s="102"/>
       <c r="B81" t="s">
         <v>83</v>
@@ -41760,7 +41760,7 @@
         <v>71353.94055909061</v>
       </c>
     </row>
-    <row r="82" spans="1:251" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:251" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="108"/>
       <c r="B82" s="58" t="s">
         <v>56</v>
@@ -42313,7 +42313,7 @@
         <v>78.90656094666123</v>
       </c>
     </row>
-    <row r="83" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A83" s="102"/>
       <c r="B83" t="s">
         <v>84</v>
@@ -42778,11 +42778,11 @@
         <v>904.28400000000011</v>
       </c>
     </row>
-    <row r="84" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A84" s="102"/>
       <c r="AW84" s="51"/>
     </row>
-    <row r="85" spans="1:251" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:251" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="107"/>
       <c r="B85" s="55" t="s">
         <v>380</v>
@@ -43303,7 +43303,7 @@
         <v>-1.9543996731695601E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:251" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:251" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="107"/>
       <c r="B86" s="55" t="s">
         <v>752</v>
@@ -43484,7 +43484,7 @@
       <c r="FP86" s="62"/>
       <c r="FQ86" s="62"/>
     </row>
-    <row r="87" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="106"/>
       <c r="B87" s="38" t="s">
         <v>378</v>
@@ -43852,7 +43852,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="106"/>
       <c r="B88" s="38" t="s">
         <v>706</v>
@@ -44092,7 +44092,7 @@
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="106"/>
       <c r="B89" s="38" t="s">
         <v>489</v>
@@ -44433,7 +44433,7 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="106"/>
       <c r="B90" s="38" t="s">
         <v>490</v>
@@ -44756,7 +44756,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="106"/>
       <c r="B91" s="38" t="s">
         <v>491</v>
@@ -45044,7 +45044,7 @@
       <c r="FG91" s="67"/>
       <c r="FH91" s="67"/>
     </row>
-    <row r="92" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:251" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="106"/>
       <c r="B92" s="38" t="s">
         <v>56</v>
@@ -45506,14 +45506,14 @@
       <c r="FG92" s="67"/>
       <c r="FH92" s="67"/>
     </row>
-    <row r="93" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A93" s="102"/>
       <c r="FE93" s="47"/>
       <c r="FF93" s="47"/>
       <c r="FG93" s="47"/>
       <c r="FH93" s="47"/>
     </row>
-    <row r="94" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A94" s="102"/>
       <c r="B94" t="s">
         <v>123</v>
@@ -45960,7 +45960,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="95" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A95" s="102"/>
       <c r="B95" t="s">
         <v>59</v>
@@ -46446,7 +46446,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:251" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:251" x14ac:dyDescent="0.25">
       <c r="A96" s="102"/>
       <c r="B96" t="s">
         <v>60</v>
@@ -46813,7 +46813,7 @@
         <v>0.27116617149690753</v>
       </c>
     </row>
-    <row r="97" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A97" s="102"/>
       <c r="B97" t="s">
         <v>206</v>
@@ -47230,7 +47230,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A98" s="102"/>
       <c r="FX98" s="47" t="s">
         <v>242</v>
@@ -47239,7 +47239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A99" s="102"/>
       <c r="B99" t="s">
         <v>187</v>
@@ -47406,7 +47406,7 @@
         <v>-32072.5</v>
       </c>
       <c r="DT99" s="51">
-        <f t="shared" ref="DS99:DV99" si="500">+DT101-DT114</f>
+        <f t="shared" ref="DT99:DV99" si="500">+DT101-DT114</f>
         <v>0</v>
       </c>
       <c r="DU99" s="51">
@@ -47503,7 +47503,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A100" s="102"/>
       <c r="FX100" s="47" t="s">
         <v>243</v>
@@ -47513,7 +47513,7 @@
         <v>824798.91685000737</v>
       </c>
     </row>
-    <row r="101" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:181" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="98"/>
       <c r="B101" s="49" t="s">
         <v>174</v>
@@ -47786,7 +47786,7 @@
         <v>915.83268582057224</v>
       </c>
     </row>
-    <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="98"/>
       <c r="B102" s="50" t="s">
         <v>284</v>
@@ -48019,7 +48019,7 @@
         <v>9090.5</v>
       </c>
     </row>
-    <row r="103" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="98"/>
       <c r="B103" s="50" t="s">
         <v>285</v>
@@ -48252,7 +48252,7 @@
         <v>2245.6999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="98"/>
       <c r="B104" s="50" t="s">
         <v>286</v>
@@ -48485,7 +48485,7 @@
         <v>5772.8</v>
       </c>
     </row>
-    <row r="105" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="98"/>
       <c r="B105" s="50" t="s">
         <v>287</v>
@@ -48718,7 +48718,7 @@
         <v>5540.8</v>
       </c>
     </row>
-    <row r="106" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="98"/>
       <c r="B106" s="50" t="s">
         <v>288</v>
@@ -48908,7 +48908,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="107" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="98"/>
       <c r="B107" s="50" t="s">
         <v>289</v>
@@ -49166,7 +49166,7 @@
         <v>11846.3</v>
       </c>
     </row>
-    <row r="108" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="98"/>
       <c r="B108" s="50" t="s">
         <v>385</v>
@@ -49383,7 +49383,7 @@
         <v>5477.3</v>
       </c>
     </row>
-    <row r="109" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="98"/>
       <c r="B109" s="50" t="s">
         <v>290</v>
@@ -49602,7 +49602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="98"/>
       <c r="B110" s="50" t="s">
         <v>291</v>
@@ -49835,7 +49835,7 @@
         <v>12913.6</v>
       </c>
     </row>
-    <row r="111" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="98"/>
       <c r="B111" s="50" t="s">
         <v>386</v>
@@ -50053,7 +50053,7 @@
         <v>4989.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:181" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="98"/>
       <c r="B112" s="50" t="s">
         <v>292</v>
@@ -50319,13 +50319,13 @@
         <v>64006.3</v>
       </c>
     </row>
-    <row r="113" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A113" s="102"/>
       <c r="FG113" s="49"/>
       <c r="FH113" s="49"/>
       <c r="FI113" s="49"/>
     </row>
-    <row r="114" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="98"/>
       <c r="B114" s="50" t="s">
         <v>175</v>
@@ -50591,7 +50591,7 @@
         <v>25225.3</v>
       </c>
     </row>
-    <row r="115" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="98"/>
       <c r="B115" s="50" t="s">
         <v>293</v>
@@ -50825,7 +50825,7 @@
         <v>2598.8000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="98"/>
       <c r="B116" s="50" t="s">
         <v>294</v>
@@ -51058,7 +51058,7 @@
         <v>1650.4</v>
       </c>
     </row>
-    <row r="117" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="98"/>
       <c r="B117" s="50" t="s">
         <v>295</v>
@@ -51291,7 +51291,7 @@
         <v>11689</v>
       </c>
     </row>
-    <row r="118" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="98"/>
       <c r="B118" s="50" t="s">
         <v>296</v>
@@ -51524,7 +51524,7 @@
         <v>1169.2</v>
       </c>
     </row>
-    <row r="119" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="98"/>
       <c r="B119" s="50" t="s">
         <v>82</v>
@@ -51757,7 +51757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="98"/>
       <c r="B120" s="50" t="s">
         <v>297</v>
@@ -51990,7 +51990,7 @@
         <v>3281.3</v>
       </c>
     </row>
-    <row r="121" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="98"/>
       <c r="B121" s="50" t="s">
         <v>298</v>
@@ -52223,7 +52223,7 @@
         <v>1438.8</v>
       </c>
     </row>
-    <row r="122" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="98"/>
       <c r="B122" s="50" t="s">
         <v>82</v>
@@ -52472,7 +52472,7 @@
         <v>3849.2</v>
       </c>
     </row>
-    <row r="123" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="98"/>
       <c r="B123" s="50" t="s">
         <v>299</v>
@@ -52708,7 +52708,7 @@
         <v>2240.6</v>
       </c>
     </row>
-    <row r="124" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="98"/>
       <c r="B124" s="50" t="s">
         <v>300</v>
@@ -52942,7 +52942,7 @@
         <v>10863.7</v>
       </c>
     </row>
-    <row r="125" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="98"/>
       <c r="B125" s="50" t="s">
         <v>301</v>
@@ -53208,13 +53208,13 @@
         <v>64006.3</v>
       </c>
     </row>
-    <row r="126" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A126" s="102"/>
       <c r="FG126" s="49"/>
       <c r="FH126" s="49"/>
       <c r="FI126" s="49"/>
     </row>
-    <row r="127" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A127" s="102"/>
       <c r="B127" s="50" t="s">
         <v>387</v>
@@ -53340,7 +53340,7 @@
         <v>8596.739999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A128" s="102"/>
       <c r="B128" s="50" t="s">
         <v>388</v>
@@ -53459,7 +53459,7 @@
         <v>5240.3999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A129" s="102"/>
       <c r="B129" s="50" t="s">
         <v>389</v>
@@ -53578,7 +53578,7 @@
         <v>1527.3</v>
       </c>
     </row>
-    <row r="130" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A130" s="102"/>
       <c r="B130" s="50" t="s">
         <v>385</v>
@@ -53697,7 +53697,7 @@
         <v>-2341</v>
       </c>
     </row>
-    <row r="131" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A131" s="102"/>
       <c r="B131" s="50" t="s">
         <v>390</v>
@@ -53816,7 +53816,7 @@
         <v>628.5</v>
       </c>
     </row>
-    <row r="132" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A132" s="102"/>
       <c r="B132" s="50" t="s">
         <v>391</v>
@@ -53935,7 +53935,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="133" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A133" s="102"/>
       <c r="B133" s="50" t="s">
         <v>392</v>
@@ -54054,7 +54054,7 @@
         <v>3799.8</v>
       </c>
     </row>
-    <row r="134" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A134" s="102"/>
       <c r="B134" s="50" t="s">
         <v>78</v>
@@ -54173,7 +54173,7 @@
         <v>-1583.4</v>
       </c>
     </row>
-    <row r="135" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A135" s="102"/>
       <c r="B135" s="50" t="s">
         <v>393</v>
@@ -54292,7 +54292,7 @@
         <v>-3055</v>
       </c>
     </row>
-    <row r="136" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="50" t="s">
         <v>302</v>
       </c>
@@ -54558,7 +54558,7 @@
         <v>4240.0999999999985</v>
       </c>
     </row>
-    <row r="137" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:166" x14ac:dyDescent="0.25">
       <c r="DC137" s="51"/>
       <c r="DD137" s="51"/>
       <c r="DJ137" s="51"/>
@@ -54567,7 +54567,7 @@
       <c r="FH137" s="49"/>
       <c r="FI137" s="49"/>
     </row>
-    <row r="138" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="50" t="s">
         <v>394</v>
       </c>
@@ -54801,7 +54801,7 @@
         <v>-3447.6000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="50" t="s">
         <v>391</v>
       </c>
@@ -55042,7 +55042,7 @@
         <v>-128.69999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="50" t="s">
         <v>395</v>
       </c>
@@ -55279,7 +55279,7 @@
         <v>-4988.8</v>
       </c>
     </row>
-    <row r="141" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="50" t="s">
         <v>78</v>
       </c>
@@ -55513,7 +55513,7 @@
         <v>1412.4</v>
       </c>
     </row>
-    <row r="142" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="50" t="s">
         <v>396</v>
       </c>
@@ -55754,7 +55754,7 @@
         <v>-7152.7</v>
       </c>
     </row>
-    <row r="143" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:166" x14ac:dyDescent="0.25">
       <c r="CW143" s="51"/>
       <c r="DC143" s="51"/>
       <c r="DD143" s="51"/>
@@ -55764,7 +55764,7 @@
       <c r="FH143" s="49"/>
       <c r="FI143" s="49"/>
     </row>
-    <row r="144" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="50" t="s">
         <v>296</v>
       </c>
@@ -55998,7 +55998,7 @@
         <v>-4069.3</v>
       </c>
     </row>
-    <row r="145" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="50" t="s">
         <v>399</v>
       </c>
@@ -56237,7 +56237,7 @@
         <v>8649.9</v>
       </c>
     </row>
-    <row r="146" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="50" t="s">
         <v>398</v>
       </c>
@@ -56471,7 +56471,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="147" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="50" t="s">
         <v>78</v>
       </c>
@@ -56705,7 +56705,7 @@
         <v>-335</v>
       </c>
     </row>
-    <row r="148" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="50" t="s">
         <v>397</v>
       </c>
@@ -56946,7 +56946,7 @@
         <v>3495.5999999999995</v>
       </c>
     </row>
-    <row r="149" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="50" t="s">
         <v>400</v>
       </c>
@@ -57180,7 +57180,7 @@
         <v>168.60000000000002</v>
       </c>
     </row>
-    <row r="150" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="50" t="s">
         <v>401</v>
       </c>
@@ -57421,13 +57421,13 @@
         <v>3664.1999999999994</v>
       </c>
     </row>
-    <row r="151" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:166" x14ac:dyDescent="0.25">
       <c r="DN151" s="51"/>
       <c r="FG151" s="49"/>
       <c r="FH151" s="49"/>
       <c r="FI151" s="49"/>
     </row>
-    <row r="152" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>493</v>
       </c>
@@ -57466,7 +57466,7 @@
       <c r="FH152" s="49"/>
       <c r="FI152" s="49"/>
     </row>
-    <row r="153" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B153" s="38" t="s">
         <v>751</v>
       </c>
@@ -57528,7 +57528,7 @@
       <c r="FH153" s="49"/>
       <c r="FI153" s="49"/>
     </row>
-    <row r="154" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B154" s="38" t="s">
         <v>173</v>
       </c>
@@ -57608,7 +57608,7 @@
       <c r="FH154" s="49"/>
       <c r="FI154" s="49"/>
     </row>
-    <row r="155" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:166" x14ac:dyDescent="0.25">
       <c r="B155" s="38" t="s">
         <v>786</v>
       </c>
@@ -57645,11 +57645,11 @@
       <c r="FH155" s="49"/>
       <c r="FI155" s="49"/>
     </row>
-    <row r="156" spans="2:166" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:166" x14ac:dyDescent="0.25">
       <c r="FH156" s="49"/>
       <c r="FI156" s="49"/>
     </row>
-    <row r="157" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="50" t="s">
         <v>973</v>
       </c>
@@ -57801,7 +57801,7 @@
       <c r="FC157" s="51"/>
       <c r="FD157" s="51"/>
     </row>
-    <row r="158" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="50" t="s">
         <v>974</v>
       </c>
@@ -57953,7 +57953,7 @@
       <c r="FC158" s="51"/>
       <c r="FD158" s="51"/>
     </row>
-    <row r="159" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="50" t="s">
         <v>975</v>
       </c>
@@ -58105,7 +58105,7 @@
       <c r="FC159" s="51"/>
       <c r="FD159" s="51"/>
     </row>
-    <row r="160" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:166" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="50" t="s">
         <v>549</v>
       </c>
@@ -58257,7 +58257,7 @@
       <c r="FC160" s="51"/>
       <c r="FD160" s="51"/>
     </row>
-    <row r="161" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:160" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="50" t="s">
         <v>976</v>
       </c>
@@ -58430,19 +58430,19 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -58450,7 +58450,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -58458,7 +58458,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -58466,54 +58466,54 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
       <c r="C10" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="D10" s="38"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>405</v>
       </c>
@@ -58521,7 +58521,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
         <v>917</v>
       </c>
@@ -58529,86 +58529,86 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="20" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="38" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="20" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="38" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="20" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="38" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="20" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="38" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="20" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="38" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="38" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="38" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C35" s="20" t="s">
         <v>1090</v>
       </c>
@@ -58632,24 +58632,24 @@
       <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="6.85546875" style="47" customWidth="1"/>
-    <col min="14" max="31" width="7.140625" customWidth="1"/>
-    <col min="32" max="48" width="6.28515625" customWidth="1"/>
-    <col min="49" max="50" width="5.42578125" customWidth="1"/>
-    <col min="52" max="71" width="7.42578125" customWidth="1"/>
-    <col min="72" max="75" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.81640625" style="47" customWidth="1"/>
+    <col min="14" max="31" width="7.1796875" customWidth="1"/>
+    <col min="32" max="48" width="6.26953125" customWidth="1"/>
+    <col min="49" max="50" width="5.453125" customWidth="1"/>
+    <col min="52" max="71" width="7.453125" customWidth="1"/>
+    <col min="72" max="75" width="6.81640625" customWidth="1"/>
     <col min="76" max="118" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:169" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -59150,7 +59150,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:169" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:169" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
         <v>642</v>
       </c>
@@ -59572,7 +59572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -59623,7 +59623,7 @@
       <c r="AW4" s="48"/>
       <c r="AX4" s="48"/>
     </row>
-    <row r="5" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>70</v>
       </c>
@@ -59637,7 +59637,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>566</v>
       </c>
@@ -59651,7 +59651,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="7" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>570</v>
       </c>
@@ -59665,7 +59665,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>365</v>
       </c>
@@ -59986,7 +59986,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>567</v>
       </c>
@@ -60000,7 +60000,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:169" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
         <v>569</v>
       </c>
@@ -60278,7 +60278,7 @@
       <c r="DK10" s="85"/>
       <c r="DL10" s="85"/>
     </row>
-    <row r="11" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>568</v>
       </c>
@@ -60505,7 +60505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>571</v>
       </c>
@@ -60564,7 +60564,7 @@
       <c r="CW12" s="49"/>
       <c r="CX12" s="49"/>
     </row>
-    <row r="13" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:169" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="38" t="s">
         <v>506</v>
       </c>
@@ -60760,7 +60760,7 @@
       <c r="DD13" s="49"/>
       <c r="DE13" s="49"/>
     </row>
-    <row r="14" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:169" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="38" t="s">
         <v>525</v>
       </c>
@@ -60882,7 +60882,7 @@
         <v>175.8</v>
       </c>
     </row>
-    <row r="15" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:169" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="131" t="s">
@@ -60890,7 +60890,7 @@
       </c>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:169" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>576</v>
       </c>
@@ -60901,7 +60901,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>581</v>
       </c>
@@ -60918,12 +60918,12 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C18" s="38" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B19" s="38" t="s">
         <v>583</v>
       </c>
@@ -60937,7 +60937,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
         <v>587</v>
       </c>
@@ -60948,12 +60948,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C21" s="38" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
         <v>590</v>
       </c>
@@ -61045,7 +61045,7 @@
         <v>36759.942857142858</v>
       </c>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C23" s="38" t="s">
         <v>591</v>
       </c>
@@ -61113,7 +61113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
         <v>593</v>
       </c>
@@ -61202,7 +61202,7 @@
         <v>7351.988571428572</v>
       </c>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>592</v>
       </c>
@@ -61291,32 +61291,32 @@
         <v>5513.9914285714294</v>
       </c>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
       <c r="E28" s="38" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
       <c r="E29" s="38" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.25">
       <c r="E30" s="38" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>599</v>
       </c>
@@ -61327,12 +61327,12 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="35" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -61393,7 +61393,7 @@
       <c r="AF35" s="84"/>
       <c r="AG35" s="84"/>
     </row>
-    <row r="36" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:72" x14ac:dyDescent="0.25">
       <c r="N36" s="47">
         <f t="shared" ref="N36:AA36" si="37">+N35/7</f>
         <v>0</v>
@@ -61475,7 +61475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G40" s="47">
         <v>540</v>
       </c>
@@ -61543,7 +61543,7 @@
         <v>30065</v>
       </c>
     </row>
-    <row r="41" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:72" x14ac:dyDescent="0.25">
       <c r="G41" s="47">
         <f>+G40/7</f>
         <v>77.142857142857139</v>
@@ -61633,16 +61633,16 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="46" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:72" x14ac:dyDescent="0.25">
       <c r="BT46" s="49"/>
     </row>
-    <row r="47" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:72" x14ac:dyDescent="0.25">
       <c r="BT47" s="49"/>
     </row>
-    <row r="48" spans="7:72" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:72" x14ac:dyDescent="0.25">
       <c r="BT48" s="49"/>
     </row>
-    <row r="49" spans="72:72" x14ac:dyDescent="0.2">
+    <row r="49" spans="72:72" x14ac:dyDescent="0.25">
       <c r="BT49" s="49"/>
     </row>
   </sheetData>
@@ -61661,15 +61661,15 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="10" width="8.42578125" style="53" customWidth="1"/>
-    <col min="11" max="12" width="6.42578125" customWidth="1"/>
+    <col min="3" max="10" width="8.453125" style="53" customWidth="1"/>
+    <col min="11" max="12" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -61678,7 +61678,7 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="38" t="s">
         <v>672</v>
@@ -61696,7 +61696,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>659</v>
       </c>
@@ -61725,7 +61725,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
         <v>660</v>
       </c>
@@ -61757,7 +61757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
         <v>661</v>
       </c>
@@ -61789,7 +61789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="38" t="s">
         <v>662</v>
       </c>
@@ -61822,7 +61822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
         <v>663</v>
       </c>
@@ -61852,7 +61852,7 @@
       </c>
       <c r="L7" s="89"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
         <v>664</v>
       </c>
@@ -61881,7 +61881,7 @@
         <v>247.94000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
         <v>665</v>
       </c>
@@ -61910,7 +61910,7 @@
         <v>236.06</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
         <v>666</v>
       </c>
@@ -61939,13 +61939,13 @@
         <v>212.96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>675</v>
       </c>
@@ -61954,7 +61954,7 @@
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="38" t="s">
         <v>659</v>
       </c>
@@ -61983,7 +61983,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="38" t="s">
         <v>660</v>
       </c>
@@ -62012,7 +62012,7 @@
         <v>282.3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="38" t="s">
         <v>661</v>
       </c>
@@ -62041,7 +62041,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="38" t="s">
         <v>662</v>
       </c>
@@ -62070,7 +62070,7 @@
         <v>293.89999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="38" t="s">
         <v>663</v>
       </c>
@@ -62099,7 +62099,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="38" t="s">
         <v>664</v>
       </c>
@@ -62128,7 +62128,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
         <v>665</v>
       </c>
@@ -62157,7 +62157,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="38" t="s">
         <v>666</v>
       </c>
@@ -62186,19 +62186,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
         <v>677</v>
       </c>
@@ -62218,11 +62218,11 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>678</v>
       </c>
@@ -62238,7 +62238,7 @@
       </c>
       <c r="J25" s="71"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>679</v>
       </c>
@@ -62254,7 +62254,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C27" s="54"/>
       <c r="G27" s="71">
         <f>9.2+11.9</f>
@@ -62264,7 +62264,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" s="53">
         <v>11.9</v>
       </c>
@@ -62286,18 +62286,18 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>402</v>
       </c>
@@ -62305,7 +62305,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>403</v>
       </c>
@@ -62313,7 +62313,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
@@ -62321,7 +62321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>405</v>
       </c>
@@ -62344,15 +62344,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -62466,6 +62457,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5830DB33-9879-4F08-8048-D3D7A603A8F0}">
   <ds:schemaRefs>
@@ -62482,14 +62482,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -62503,4 +62495,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>